--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1199">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -3990,6 +3990,108 @@
   </si>
   <si>
     <t>Doctor test Counter</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Secure</t>
+  </si>
+  <si>
+    <t>Content type in request</t>
+  </si>
+  <si>
+    <t>Request Data transferred</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
+  </si>
+  <si>
+    <t>Text/ binary</t>
+  </si>
+  <si>
+    <t>Cached</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>image/video/audio</t>
+  </si>
+  <si>
+    <t>Request content Size</t>
+  </si>
+  <si>
+    <t>amazon.com</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; HTML &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; shoe image &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; furniture image &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt; laptop image &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>Customer browsser</t>
+  </si>
+  <si>
+    <t>Amzon website machine</t>
+  </si>
+  <si>
+    <t>50 ms</t>
+  </si>
+  <si>
+    <t>100 ms</t>
+  </si>
+  <si>
+    <t>200 ms</t>
+  </si>
+  <si>
+    <t>FIRST</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>cache/memory</t>
+  </si>
+  <si>
+    <t>furniture image</t>
+  </si>
+  <si>
+    <t>laptop image</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>http://localhost/login?user=john123&amp;pwd=abc123</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -5329,6 +5431,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5359,9 +5464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5371,8 +5473,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5434,104 +5587,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5575,17 +5644,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15011,7 +15113,7 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="372">
+      <c r="C21" s="362">
         <v>43909</v>
       </c>
       <c r="D21" s="361"/>
@@ -15031,7 +15133,7 @@
       <c r="N21" s="361"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="372"/>
+      <c r="C22" s="362"/>
       <c r="D22" s="361"/>
       <c r="E22" s="361"/>
       <c r="F22" s="361"/>
@@ -15049,7 +15151,7 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="372"/>
+      <c r="C23" s="362"/>
       <c r="D23" s="361"/>
       <c r="E23" s="361"/>
       <c r="F23" s="361"/>
@@ -15065,7 +15167,7 @@
       <c r="N23" s="361"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="372"/>
+      <c r="C24" s="362"/>
       <c r="D24" s="361"/>
       <c r="E24" s="361"/>
       <c r="F24" s="361"/>
@@ -15104,16 +15206,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="362"/>
-      <c r="E26" s="363"/>
-      <c r="F26" s="363"/>
-      <c r="G26" s="363"/>
-      <c r="H26" s="364"/>
-      <c r="I26" s="369" t="s">
+      <c r="D26" s="363"/>
+      <c r="E26" s="364"/>
+      <c r="F26" s="364"/>
+      <c r="G26" s="364"/>
+      <c r="H26" s="365"/>
+      <c r="I26" s="370" t="s">
         <v>463</v>
       </c>
-      <c r="J26" s="362"/>
-      <c r="K26" s="364"/>
+      <c r="J26" s="363"/>
+      <c r="K26" s="365"/>
       <c r="L26" s="117" t="s">
         <v>464</v>
       </c>
@@ -15122,14 +15224,14 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="365"/>
+      <c r="D27" s="366"/>
       <c r="E27" s="360"/>
       <c r="F27" s="360"/>
       <c r="G27" s="360"/>
-      <c r="H27" s="366"/>
-      <c r="I27" s="370"/>
-      <c r="J27" s="365"/>
-      <c r="K27" s="366"/>
+      <c r="H27" s="367"/>
+      <c r="I27" s="371"/>
+      <c r="J27" s="366"/>
+      <c r="K27" s="367"/>
       <c r="L27" s="361" t="s">
         <v>468</v>
       </c>
@@ -15138,14 +15240,14 @@
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="365"/>
+      <c r="D28" s="366"/>
       <c r="E28" s="360"/>
       <c r="F28" s="360"/>
       <c r="G28" s="360"/>
-      <c r="H28" s="366"/>
-      <c r="I28" s="370"/>
-      <c r="J28" s="365"/>
-      <c r="K28" s="366"/>
+      <c r="H28" s="367"/>
+      <c r="I28" s="371"/>
+      <c r="J28" s="366"/>
+      <c r="K28" s="367"/>
       <c r="L28" s="118" t="s">
         <v>463</v>
       </c>
@@ -15154,14 +15256,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="367"/>
+      <c r="D29" s="368"/>
       <c r="E29" s="349"/>
       <c r="F29" s="349"/>
       <c r="G29" s="349"/>
-      <c r="H29" s="368"/>
-      <c r="I29" s="371"/>
-      <c r="J29" s="367"/>
-      <c r="K29" s="368"/>
+      <c r="H29" s="369"/>
+      <c r="I29" s="372"/>
+      <c r="J29" s="368"/>
+      <c r="K29" s="369"/>
       <c r="L29" s="119" t="s">
         <v>469</v>
       </c>
@@ -15226,7 +15328,7 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="372">
+      <c r="C34" s="362">
         <v>43909</v>
       </c>
       <c r="D34" s="361"/>
@@ -15244,7 +15346,7 @@
       <c r="N34" s="361"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="372"/>
+      <c r="C35" s="362"/>
       <c r="D35" s="361"/>
       <c r="E35" s="361"/>
       <c r="F35" s="361"/>
@@ -15260,7 +15362,7 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="372"/>
+      <c r="C36" s="362"/>
       <c r="D36" s="361"/>
       <c r="E36" s="361"/>
       <c r="F36" s="361"/>
@@ -15276,7 +15378,7 @@
       <c r="N36" s="361"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="372"/>
+      <c r="C37" s="362"/>
       <c r="D37" s="361"/>
       <c r="E37" s="361"/>
       <c r="F37" s="361"/>
@@ -15315,14 +15417,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="362"/>
-      <c r="E39" s="363"/>
-      <c r="F39" s="363"/>
-      <c r="G39" s="363"/>
-      <c r="H39" s="364"/>
-      <c r="I39" s="369"/>
-      <c r="J39" s="362"/>
-      <c r="K39" s="364"/>
+      <c r="D39" s="363"/>
+      <c r="E39" s="364"/>
+      <c r="F39" s="364"/>
+      <c r="G39" s="364"/>
+      <c r="H39" s="365"/>
+      <c r="I39" s="370"/>
+      <c r="J39" s="363"/>
+      <c r="K39" s="365"/>
       <c r="L39" s="117" t="s">
         <v>464</v>
       </c>
@@ -15331,14 +15433,14 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="365"/>
+      <c r="D40" s="366"/>
       <c r="E40" s="360"/>
       <c r="F40" s="360"/>
       <c r="G40" s="360"/>
-      <c r="H40" s="366"/>
-      <c r="I40" s="370"/>
-      <c r="J40" s="365"/>
-      <c r="K40" s="366"/>
+      <c r="H40" s="367"/>
+      <c r="I40" s="371"/>
+      <c r="J40" s="366"/>
+      <c r="K40" s="367"/>
       <c r="L40" s="361" t="s">
         <v>468</v>
       </c>
@@ -15347,14 +15449,14 @@
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="365"/>
+      <c r="D41" s="366"/>
       <c r="E41" s="360"/>
       <c r="F41" s="360"/>
       <c r="G41" s="360"/>
-      <c r="H41" s="366"/>
-      <c r="I41" s="371"/>
-      <c r="J41" s="365"/>
-      <c r="K41" s="366"/>
+      <c r="H41" s="367"/>
+      <c r="I41" s="372"/>
+      <c r="J41" s="366"/>
+      <c r="K41" s="367"/>
       <c r="L41" s="118" t="s">
         <v>470</v>
       </c>
@@ -15363,16 +15465,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="367"/>
+      <c r="D42" s="368"/>
       <c r="E42" s="349"/>
       <c r="F42" s="349"/>
       <c r="G42" s="349"/>
-      <c r="H42" s="368"/>
+      <c r="H42" s="369"/>
       <c r="I42" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="J42" s="367"/>
-      <c r="K42" s="368"/>
+      <c r="J42" s="368"/>
+      <c r="K42" s="369"/>
       <c r="L42" s="119" t="s">
         <v>469</v>
       </c>
@@ -15684,12 +15786,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -15697,17 +15804,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15729,29 +15831,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="397" t="s">
+      <c r="B2" s="383" t="s">
         <v>1107</v>
       </c>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="397"/>
-      <c r="H2" s="397"/>
-      <c r="I2" s="397"/>
-      <c r="J2" s="397"/>
-      <c r="K2" s="397"/>
-      <c r="L2" s="397"/>
-      <c r="M2" s="397"/>
-      <c r="N2" s="397"/>
-      <c r="O2" s="397"/>
-      <c r="P2" s="397"/>
-      <c r="Q2" s="397"/>
-      <c r="R2" s="397"/>
-      <c r="S2" s="397"/>
-      <c r="T2" s="397"/>
-      <c r="U2" s="397"/>
-      <c r="V2" s="397"/>
+      <c r="C2" s="383"/>
+      <c r="D2" s="383"/>
+      <c r="E2" s="383"/>
+      <c r="F2" s="383"/>
+      <c r="G2" s="383"/>
+      <c r="H2" s="383"/>
+      <c r="I2" s="383"/>
+      <c r="J2" s="383"/>
+      <c r="K2" s="383"/>
+      <c r="L2" s="383"/>
+      <c r="M2" s="383"/>
+      <c r="N2" s="383"/>
+      <c r="O2" s="383"/>
+      <c r="P2" s="383"/>
+      <c r="Q2" s="383"/>
+      <c r="R2" s="383"/>
+      <c r="S2" s="383"/>
+      <c r="T2" s="383"/>
+      <c r="U2" s="383"/>
+      <c r="V2" s="383"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -15784,22 +15886,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="376" t="s">
+      <c r="G5" s="389" t="s">
         <v>521</v>
       </c>
-      <c r="H5" s="376"/>
-      <c r="I5" s="376" t="s">
+      <c r="H5" s="389"/>
+      <c r="I5" s="389" t="s">
         <v>522</v>
       </c>
-      <c r="J5" s="376"/>
-      <c r="K5" s="376"/>
-      <c r="L5" s="376"/>
-      <c r="M5" s="376"/>
-      <c r="N5" s="376"/>
-      <c r="O5" s="376" t="s">
+      <c r="J5" s="389"/>
+      <c r="K5" s="389"/>
+      <c r="L5" s="389"/>
+      <c r="M5" s="389"/>
+      <c r="N5" s="389"/>
+      <c r="O5" s="389" t="s">
         <v>523</v>
       </c>
-      <c r="P5" s="376"/>
+      <c r="P5" s="389"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -15811,7 +15913,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="377" t="s">
+      <c r="G6" s="394" t="s">
         <v>524</v>
       </c>
       <c r="H6" s="111"/>
@@ -15840,26 +15942,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="378"/>
-      <c r="H7" s="380" t="s">
+      <c r="G7" s="395"/>
+      <c r="H7" s="397" t="s">
         <v>526</v>
       </c>
-      <c r="I7" s="383" t="s">
+      <c r="I7" s="400" t="s">
         <v>527</v>
       </c>
-      <c r="J7" s="384"/>
-      <c r="K7" s="385" t="s">
+      <c r="J7" s="401"/>
+      <c r="K7" s="402" t="s">
         <v>528</v>
       </c>
-      <c r="L7" s="386"/>
-      <c r="M7" s="383" t="s">
+      <c r="L7" s="403"/>
+      <c r="M7" s="400" t="s">
         <v>529</v>
       </c>
-      <c r="N7" s="384"/>
-      <c r="O7" s="391" t="s">
+      <c r="N7" s="401"/>
+      <c r="O7" s="408" t="s">
         <v>530</v>
       </c>
-      <c r="P7" s="392"/>
+      <c r="P7" s="409"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -15871,16 +15973,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="378"/>
-      <c r="H8" s="381"/>
+      <c r="G8" s="395"/>
+      <c r="H8" s="398"/>
       <c r="I8" s="328"/>
       <c r="J8" s="315"/>
-      <c r="K8" s="387"/>
-      <c r="L8" s="388"/>
+      <c r="K8" s="404"/>
+      <c r="L8" s="405"/>
       <c r="M8" s="328"/>
       <c r="N8" s="315"/>
-      <c r="O8" s="393"/>
-      <c r="P8" s="394"/>
+      <c r="O8" s="410"/>
+      <c r="P8" s="411"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>183</v>
@@ -15898,16 +16000,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="378"/>
-      <c r="H9" s="381"/>
+      <c r="G9" s="395"/>
+      <c r="H9" s="398"/>
       <c r="I9" s="328"/>
       <c r="J9" s="315"/>
-      <c r="K9" s="387"/>
-      <c r="L9" s="388"/>
+      <c r="K9" s="404"/>
+      <c r="L9" s="405"/>
       <c r="M9" s="328"/>
       <c r="N9" s="315"/>
-      <c r="O9" s="393"/>
-      <c r="P9" s="394"/>
+      <c r="O9" s="410"/>
+      <c r="P9" s="411"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -15927,16 +16029,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="378"/>
-      <c r="H10" s="381"/>
+      <c r="G10" s="395"/>
+      <c r="H10" s="398"/>
       <c r="I10" s="328"/>
       <c r="J10" s="315"/>
-      <c r="K10" s="387"/>
-      <c r="L10" s="388"/>
+      <c r="K10" s="404"/>
+      <c r="L10" s="405"/>
       <c r="M10" s="328"/>
       <c r="N10" s="315"/>
-      <c r="O10" s="393"/>
-      <c r="P10" s="394"/>
+      <c r="O10" s="410"/>
+      <c r="P10" s="411"/>
       <c r="Q10" s="5" t="s">
         <v>188</v>
       </c>
@@ -15952,16 +16054,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="378"/>
-      <c r="H11" s="381"/>
+      <c r="G11" s="395"/>
+      <c r="H11" s="398"/>
       <c r="I11" s="328"/>
       <c r="J11" s="315"/>
-      <c r="K11" s="387"/>
-      <c r="L11" s="388"/>
+      <c r="K11" s="404"/>
+      <c r="L11" s="405"/>
       <c r="M11" s="328"/>
       <c r="N11" s="315"/>
-      <c r="O11" s="393"/>
-      <c r="P11" s="394"/>
+      <c r="O11" s="410"/>
+      <c r="P11" s="411"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -15979,16 +16081,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="378"/>
-      <c r="H12" s="381"/>
+      <c r="G12" s="395"/>
+      <c r="H12" s="398"/>
       <c r="I12" s="328"/>
       <c r="J12" s="315"/>
-      <c r="K12" s="387"/>
-      <c r="L12" s="388"/>
+      <c r="K12" s="404"/>
+      <c r="L12" s="405"/>
       <c r="M12" s="328"/>
       <c r="N12" s="315"/>
-      <c r="O12" s="393"/>
-      <c r="P12" s="394"/>
+      <c r="O12" s="410"/>
+      <c r="P12" s="411"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -16002,16 +16104,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="378"/>
-      <c r="H13" s="381"/>
+      <c r="G13" s="395"/>
+      <c r="H13" s="398"/>
       <c r="I13" s="328"/>
       <c r="J13" s="315"/>
-      <c r="K13" s="387"/>
-      <c r="L13" s="388"/>
+      <c r="K13" s="404"/>
+      <c r="L13" s="405"/>
       <c r="M13" s="328"/>
       <c r="N13" s="315"/>
-      <c r="O13" s="393"/>
-      <c r="P13" s="394"/>
+      <c r="O13" s="410"/>
+      <c r="P13" s="411"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -16023,16 +16125,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="378"/>
-      <c r="H14" s="381"/>
+      <c r="G14" s="395"/>
+      <c r="H14" s="398"/>
       <c r="I14" s="328"/>
       <c r="J14" s="315"/>
-      <c r="K14" s="387"/>
-      <c r="L14" s="388"/>
+      <c r="K14" s="404"/>
+      <c r="L14" s="405"/>
       <c r="M14" s="328"/>
       <c r="N14" s="315"/>
-      <c r="O14" s="393"/>
-      <c r="P14" s="394"/>
+      <c r="O14" s="410"/>
+      <c r="P14" s="411"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -16046,16 +16148,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="378"/>
-      <c r="H15" s="381"/>
+      <c r="G15" s="395"/>
+      <c r="H15" s="398"/>
       <c r="I15" s="328"/>
       <c r="J15" s="315"/>
-      <c r="K15" s="387"/>
-      <c r="L15" s="388"/>
+      <c r="K15" s="404"/>
+      <c r="L15" s="405"/>
       <c r="M15" s="328"/>
       <c r="N15" s="315"/>
-      <c r="O15" s="393"/>
-      <c r="P15" s="394"/>
+      <c r="O15" s="410"/>
+      <c r="P15" s="411"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -16067,16 +16169,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="378"/>
-      <c r="H16" s="381"/>
+      <c r="G16" s="395"/>
+      <c r="H16" s="398"/>
       <c r="I16" s="328"/>
       <c r="J16" s="315"/>
-      <c r="K16" s="387"/>
-      <c r="L16" s="388"/>
+      <c r="K16" s="404"/>
+      <c r="L16" s="405"/>
       <c r="M16" s="328"/>
       <c r="N16" s="315"/>
-      <c r="O16" s="393"/>
-      <c r="P16" s="394"/>
+      <c r="O16" s="410"/>
+      <c r="P16" s="411"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -16088,16 +16190,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="378"/>
-      <c r="H17" s="381"/>
+      <c r="G17" s="395"/>
+      <c r="H17" s="398"/>
       <c r="I17" s="328"/>
       <c r="J17" s="315"/>
-      <c r="K17" s="387"/>
-      <c r="L17" s="388"/>
+      <c r="K17" s="404"/>
+      <c r="L17" s="405"/>
       <c r="M17" s="328"/>
       <c r="N17" s="315"/>
-      <c r="O17" s="393"/>
-      <c r="P17" s="394"/>
+      <c r="O17" s="410"/>
+      <c r="P17" s="411"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -16109,16 +16211,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="378"/>
-      <c r="H18" s="381"/>
+      <c r="G18" s="395"/>
+      <c r="H18" s="398"/>
       <c r="I18" s="328"/>
       <c r="J18" s="315"/>
-      <c r="K18" s="387"/>
-      <c r="L18" s="388"/>
+      <c r="K18" s="404"/>
+      <c r="L18" s="405"/>
       <c r="M18" s="328"/>
       <c r="N18" s="315"/>
-      <c r="O18" s="393"/>
-      <c r="P18" s="394"/>
+      <c r="O18" s="410"/>
+      <c r="P18" s="411"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -16132,16 +16234,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="378"/>
-      <c r="H19" s="381"/>
+      <c r="G19" s="395"/>
+      <c r="H19" s="398"/>
       <c r="I19" s="328"/>
       <c r="J19" s="315"/>
-      <c r="K19" s="387"/>
-      <c r="L19" s="388"/>
+      <c r="K19" s="404"/>
+      <c r="L19" s="405"/>
       <c r="M19" s="328"/>
       <c r="N19" s="315"/>
-      <c r="O19" s="393"/>
-      <c r="P19" s="394"/>
+      <c r="O19" s="410"/>
+      <c r="P19" s="411"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -16153,16 +16255,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="379"/>
-      <c r="H20" s="382"/>
+      <c r="G20" s="396"/>
+      <c r="H20" s="399"/>
       <c r="I20" s="330"/>
       <c r="J20" s="332"/>
-      <c r="K20" s="389"/>
-      <c r="L20" s="390"/>
+      <c r="K20" s="406"/>
+      <c r="L20" s="407"/>
       <c r="M20" s="330"/>
       <c r="N20" s="332"/>
-      <c r="O20" s="395"/>
-      <c r="P20" s="396"/>
+      <c r="O20" s="412"/>
+      <c r="P20" s="413"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -16243,44 +16345,44 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="397" t="s">
+      <c r="B25" s="383" t="s">
         <v>1106</v>
       </c>
-      <c r="C25" s="397"/>
-      <c r="D25" s="397"/>
-      <c r="E25" s="397"/>
-      <c r="F25" s="397"/>
-      <c r="G25" s="397"/>
-      <c r="H25" s="397"/>
-      <c r="I25" s="397"/>
-      <c r="J25" s="397"/>
-      <c r="K25" s="397"/>
-      <c r="L25" s="397"/>
-      <c r="M25" s="397"/>
-      <c r="N25" s="397"/>
-      <c r="O25" s="397"/>
-      <c r="P25" s="397"/>
-      <c r="Q25" s="397"/>
-      <c r="R25" s="397"/>
-      <c r="S25" s="397"/>
-      <c r="T25" s="397"/>
-      <c r="U25" s="397"/>
-      <c r="V25" s="397"/>
+      <c r="C25" s="383"/>
+      <c r="D25" s="383"/>
+      <c r="E25" s="383"/>
+      <c r="F25" s="383"/>
+      <c r="G25" s="383"/>
+      <c r="H25" s="383"/>
+      <c r="I25" s="383"/>
+      <c r="J25" s="383"/>
+      <c r="K25" s="383"/>
+      <c r="L25" s="383"/>
+      <c r="M25" s="383"/>
+      <c r="N25" s="383"/>
+      <c r="O25" s="383"/>
+      <c r="P25" s="383"/>
+      <c r="Q25" s="383"/>
+      <c r="R25" s="383"/>
+      <c r="S25" s="383"/>
+      <c r="T25" s="383"/>
+      <c r="U25" s="383"/>
+      <c r="V25" s="383"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="398" t="s">
+      <c r="C26" s="384" t="s">
         <v>577</v>
       </c>
-      <c r="D26" s="398"/>
-      <c r="E26" s="398"/>
-      <c r="F26" s="398"/>
-      <c r="G26" s="398"/>
-      <c r="H26" s="398"/>
-      <c r="I26" s="398"/>
-      <c r="J26" s="398"/>
-      <c r="K26" s="398"/>
-      <c r="L26" s="398"/>
-      <c r="M26" s="398"/>
+      <c r="D26" s="384"/>
+      <c r="E26" s="384"/>
+      <c r="F26" s="384"/>
+      <c r="G26" s="384"/>
+      <c r="H26" s="384"/>
+      <c r="I26" s="384"/>
+      <c r="J26" s="384"/>
+      <c r="K26" s="384"/>
+      <c r="L26" s="384"/>
+      <c r="M26" s="384"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
@@ -16328,11 +16430,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="399" t="s">
+      <c r="O29" s="385" t="s">
         <v>180</v>
       </c>
-      <c r="P29" s="399"/>
-      <c r="Q29" s="399"/>
+      <c r="P29" s="385"/>
+      <c r="Q29" s="385"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -16377,21 +16479,21 @@
         <v>191</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="403" t="s">
+      <c r="E32" s="386" t="s">
         <v>1110</v>
       </c>
-      <c r="F32" s="404"/>
-      <c r="G32" s="405"/>
-      <c r="H32" s="403" t="s">
+      <c r="F32" s="387"/>
+      <c r="G32" s="388"/>
+      <c r="H32" s="386" t="s">
         <v>1111</v>
       </c>
-      <c r="I32" s="404"/>
-      <c r="J32" s="405"/>
-      <c r="K32" s="403" t="s">
+      <c r="I32" s="387"/>
+      <c r="J32" s="388"/>
+      <c r="K32" s="386" t="s">
         <v>1112</v>
       </c>
-      <c r="L32" s="404"/>
-      <c r="M32" s="405"/>
+      <c r="L32" s="387"/>
+      <c r="M32" s="388"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -16408,15 +16510,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="403"/>
-      <c r="F33" s="404"/>
-      <c r="G33" s="405"/>
-      <c r="H33" s="403"/>
-      <c r="I33" s="404"/>
-      <c r="J33" s="405"/>
-      <c r="K33" s="403"/>
-      <c r="L33" s="404"/>
-      <c r="M33" s="405"/>
+      <c r="E33" s="386"/>
+      <c r="F33" s="387"/>
+      <c r="G33" s="388"/>
+      <c r="H33" s="386"/>
+      <c r="I33" s="387"/>
+      <c r="J33" s="388"/>
+      <c r="K33" s="386"/>
+      <c r="L33" s="387"/>
+      <c r="M33" s="388"/>
       <c r="N33" s="5" t="s">
         <v>188</v>
       </c>
@@ -16433,15 +16535,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="403"/>
-      <c r="F34" s="404"/>
-      <c r="G34" s="405"/>
-      <c r="H34" s="403"/>
-      <c r="I34" s="404"/>
-      <c r="J34" s="405"/>
-      <c r="K34" s="403"/>
-      <c r="L34" s="404"/>
-      <c r="M34" s="405"/>
+      <c r="E34" s="386"/>
+      <c r="F34" s="387"/>
+      <c r="G34" s="388"/>
+      <c r="H34" s="386"/>
+      <c r="I34" s="387"/>
+      <c r="J34" s="388"/>
+      <c r="K34" s="386"/>
+      <c r="L34" s="387"/>
+      <c r="M34" s="388"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -16452,15 +16554,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="403"/>
-      <c r="F35" s="404"/>
-      <c r="G35" s="405"/>
-      <c r="H35" s="403"/>
-      <c r="I35" s="404"/>
-      <c r="J35" s="405"/>
-      <c r="K35" s="403"/>
-      <c r="L35" s="404"/>
-      <c r="M35" s="405"/>
+      <c r="E35" s="386"/>
+      <c r="F35" s="387"/>
+      <c r="G35" s="388"/>
+      <c r="H35" s="386"/>
+      <c r="I35" s="387"/>
+      <c r="J35" s="388"/>
+      <c r="K35" s="386"/>
+      <c r="L35" s="387"/>
+      <c r="M35" s="388"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -16591,15 +16693,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="407"/>
-      <c r="F42" s="408"/>
-      <c r="G42" s="408"/>
-      <c r="H42" s="408"/>
-      <c r="I42" s="408"/>
-      <c r="J42" s="408"/>
-      <c r="K42" s="408"/>
-      <c r="L42" s="408"/>
-      <c r="M42" s="409"/>
+      <c r="E42" s="376"/>
+      <c r="F42" s="377"/>
+      <c r="G42" s="377"/>
+      <c r="H42" s="377"/>
+      <c r="I42" s="377"/>
+      <c r="J42" s="377"/>
+      <c r="K42" s="377"/>
+      <c r="L42" s="377"/>
+      <c r="M42" s="378"/>
       <c r="N42" s="40" t="s">
         <v>582</v>
       </c>
@@ -16640,44 +16742,44 @@
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="397" t="s">
+      <c r="B47" s="383" t="s">
         <v>1108</v>
       </c>
-      <c r="C47" s="397"/>
-      <c r="D47" s="397"/>
-      <c r="E47" s="397"/>
-      <c r="F47" s="397"/>
-      <c r="G47" s="397"/>
-      <c r="H47" s="397"/>
-      <c r="I47" s="397"/>
-      <c r="J47" s="397"/>
-      <c r="K47" s="397"/>
-      <c r="L47" s="397"/>
-      <c r="M47" s="397"/>
-      <c r="N47" s="397"/>
-      <c r="O47" s="397"/>
-      <c r="P47" s="397"/>
-      <c r="Q47" s="397"/>
-      <c r="R47" s="397"/>
-      <c r="S47" s="397"/>
-      <c r="T47" s="397"/>
-      <c r="U47" s="397"/>
-      <c r="V47" s="397"/>
+      <c r="C47" s="383"/>
+      <c r="D47" s="383"/>
+      <c r="E47" s="383"/>
+      <c r="F47" s="383"/>
+      <c r="G47" s="383"/>
+      <c r="H47" s="383"/>
+      <c r="I47" s="383"/>
+      <c r="J47" s="383"/>
+      <c r="K47" s="383"/>
+      <c r="L47" s="383"/>
+      <c r="M47" s="383"/>
+      <c r="N47" s="383"/>
+      <c r="O47" s="383"/>
+      <c r="P47" s="383"/>
+      <c r="Q47" s="383"/>
+      <c r="R47" s="383"/>
+      <c r="S47" s="383"/>
+      <c r="T47" s="383"/>
+      <c r="U47" s="383"/>
+      <c r="V47" s="383"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="398" t="s">
+      <c r="C48" s="384" t="s">
         <v>577</v>
       </c>
-      <c r="D48" s="398"/>
-      <c r="E48" s="398"/>
-      <c r="F48" s="398"/>
-      <c r="G48" s="398"/>
-      <c r="H48" s="398"/>
-      <c r="I48" s="398"/>
-      <c r="J48" s="398"/>
-      <c r="K48" s="398"/>
-      <c r="L48" s="398"/>
-      <c r="M48" s="398"/>
+      <c r="D48" s="384"/>
+      <c r="E48" s="384"/>
+      <c r="F48" s="384"/>
+      <c r="G48" s="384"/>
+      <c r="H48" s="384"/>
+      <c r="I48" s="384"/>
+      <c r="J48" s="384"/>
+      <c r="K48" s="384"/>
+      <c r="L48" s="384"/>
+      <c r="M48" s="384"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
@@ -16712,16 +16814,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="251"/>
-      <c r="H50" s="400" t="s">
+      <c r="H50" s="390" t="s">
         <v>1111</v>
       </c>
-      <c r="I50" s="401"/>
-      <c r="J50" s="402"/>
-      <c r="K50" s="400" t="s">
+      <c r="I50" s="391"/>
+      <c r="J50" s="392"/>
+      <c r="K50" s="390" t="s">
         <v>1112</v>
       </c>
-      <c r="L50" s="401"/>
-      <c r="M50" s="402"/>
+      <c r="L50" s="391"/>
+      <c r="M50" s="392"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -16735,20 +16837,20 @@
         <v>1126</v>
       </c>
       <c r="F51" s="292"/>
-      <c r="G51" s="406" t="s">
+      <c r="G51" s="393" t="s">
         <v>1134</v>
       </c>
-      <c r="H51" s="403"/>
-      <c r="I51" s="404"/>
-      <c r="J51" s="405"/>
-      <c r="K51" s="403"/>
-      <c r="L51" s="404"/>
-      <c r="M51" s="405"/>
-      <c r="O51" s="399" t="s">
+      <c r="H51" s="386"/>
+      <c r="I51" s="387"/>
+      <c r="J51" s="388"/>
+      <c r="K51" s="386"/>
+      <c r="L51" s="387"/>
+      <c r="M51" s="388"/>
+      <c r="O51" s="385" t="s">
         <v>180</v>
       </c>
-      <c r="P51" s="399"/>
-      <c r="Q51" s="399"/>
+      <c r="P51" s="385"/>
+      <c r="Q51" s="385"/>
       <c r="S51" s="279"/>
       <c r="T51" s="279"/>
       <c r="W51" s="40" t="s">
@@ -16762,13 +16864,13 @@
         <v>1127</v>
       </c>
       <c r="F52" s="293"/>
-      <c r="G52" s="406"/>
-      <c r="H52" s="403"/>
-      <c r="I52" s="404"/>
-      <c r="J52" s="405"/>
-      <c r="K52" s="403"/>
-      <c r="L52" s="404"/>
-      <c r="M52" s="405"/>
+      <c r="G52" s="393"/>
+      <c r="H52" s="386"/>
+      <c r="I52" s="387"/>
+      <c r="J52" s="388"/>
+      <c r="K52" s="386"/>
+      <c r="L52" s="387"/>
+      <c r="M52" s="388"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -16779,13 +16881,13 @@
         <v>1128</v>
       </c>
       <c r="F53" s="294"/>
-      <c r="G53" s="406"/>
-      <c r="H53" s="403"/>
-      <c r="I53" s="404"/>
-      <c r="J53" s="405"/>
-      <c r="K53" s="403"/>
-      <c r="L53" s="404"/>
-      <c r="M53" s="405"/>
+      <c r="G53" s="393"/>
+      <c r="H53" s="386"/>
+      <c r="I53" s="387"/>
+      <c r="J53" s="388"/>
+      <c r="K53" s="386"/>
+      <c r="L53" s="387"/>
+      <c r="M53" s="388"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>183</v>
@@ -16824,7 +16926,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="280"/>
       <c r="F54" s="295"/>
-      <c r="G54" s="412" t="s">
+      <c r="G54" s="381" t="s">
         <v>1138</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -16871,11 +16973,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="410" t="s">
+      <c r="E55" s="379" t="s">
         <v>1139</v>
       </c>
-      <c r="F55" s="411"/>
-      <c r="G55" s="413"/>
+      <c r="F55" s="380"/>
+      <c r="G55" s="382"/>
       <c r="H55" s="141" t="s">
         <v>1130</v>
       </c>
@@ -16919,9 +17021,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="410"/>
-      <c r="F56" s="411"/>
-      <c r="G56" s="413"/>
+      <c r="E56" s="379"/>
+      <c r="F56" s="380"/>
+      <c r="G56" s="382"/>
       <c r="H56" s="141" t="s">
         <v>1131</v>
       </c>
@@ -16951,9 +17053,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="410"/>
-      <c r="F57" s="411"/>
-      <c r="G57" s="413"/>
+      <c r="E57" s="379"/>
+      <c r="F57" s="380"/>
+      <c r="G57" s="382"/>
       <c r="H57" s="4" t="s">
         <v>1143</v>
       </c>
@@ -16983,9 +17085,9 @@
         <v>193</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="410"/>
-      <c r="F58" s="411"/>
-      <c r="G58" s="413"/>
+      <c r="E58" s="379"/>
+      <c r="F58" s="380"/>
+      <c r="G58" s="382"/>
       <c r="H58" s="284" t="s">
         <v>1129</v>
       </c>
@@ -17010,9 +17112,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="410"/>
-      <c r="F59" s="411"/>
-      <c r="G59" s="413"/>
+      <c r="E59" s="379"/>
+      <c r="F59" s="380"/>
+      <c r="G59" s="382"/>
       <c r="H59" s="284" t="s">
         <v>552</v>
       </c>
@@ -17037,9 +17139,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="410"/>
-      <c r="F60" s="411"/>
-      <c r="G60" s="413"/>
+      <c r="E60" s="379"/>
+      <c r="F60" s="380"/>
+      <c r="G60" s="382"/>
       <c r="H60" s="286"/>
       <c r="I60" s="287" t="s">
         <v>1145</v>
@@ -17059,9 +17161,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="410"/>
-      <c r="F61" s="411"/>
-      <c r="G61" s="413"/>
+      <c r="E61" s="379"/>
+      <c r="F61" s="380"/>
+      <c r="G61" s="382"/>
       <c r="H61" s="286"/>
       <c r="I61" s="287" t="s">
         <v>1146</v>
@@ -17081,7 +17183,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="275"/>
       <c r="F62" s="291"/>
-      <c r="G62" s="413"/>
+      <c r="G62" s="382"/>
       <c r="H62" s="288"/>
       <c r="I62" s="290" t="s">
         <v>1147</v>
@@ -17123,15 +17225,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="407"/>
-      <c r="F64" s="408"/>
-      <c r="G64" s="408"/>
-      <c r="H64" s="408"/>
-      <c r="I64" s="408"/>
-      <c r="J64" s="408"/>
-      <c r="K64" s="408"/>
-      <c r="L64" s="408"/>
-      <c r="M64" s="409"/>
+      <c r="E64" s="376"/>
+      <c r="F64" s="377"/>
+      <c r="G64" s="377"/>
+      <c r="H64" s="377"/>
+      <c r="I64" s="377"/>
+      <c r="J64" s="377"/>
+      <c r="K64" s="377"/>
+      <c r="L64" s="377"/>
+      <c r="M64" s="378"/>
       <c r="N64" s="40" t="s">
         <v>582</v>
       </c>
@@ -17525,12 +17627,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="G6:G20"/>
+    <mergeCell ref="H7:H20"/>
+    <mergeCell ref="I7:J20"/>
+    <mergeCell ref="K7:L20"/>
+    <mergeCell ref="M7:N20"/>
+    <mergeCell ref="O7:P20"/>
+    <mergeCell ref="B47:V47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="E49:M49"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
     <mergeCell ref="E42:M42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:G44"/>
@@ -17547,21 +17658,12 @@
     <mergeCell ref="H22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B47:V47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="E49:M49"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="G6:G20"/>
-    <mergeCell ref="H7:H20"/>
-    <mergeCell ref="I7:J20"/>
-    <mergeCell ref="K7:L20"/>
-    <mergeCell ref="M7:N20"/>
-    <mergeCell ref="O7:P20"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -17848,18 +17950,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="384" t="s">
         <v>577</v>
       </c>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="398"/>
-      <c r="L2" s="398"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="384"/>
+      <c r="F2" s="384"/>
+      <c r="G2" s="384"/>
+      <c r="H2" s="384"/>
+      <c r="I2" s="384"/>
+      <c r="J2" s="384"/>
+      <c r="K2" s="384"/>
+      <c r="L2" s="384"/>
     </row>
     <row r="3" spans="3:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
@@ -17902,11 +18004,11 @@
         <v>596</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="399" t="s">
+      <c r="N5" s="385" t="s">
         <v>180</v>
       </c>
-      <c r="O5" s="399"/>
-      <c r="P5" s="399"/>
+      <c r="O5" s="385"/>
+      <c r="P5" s="385"/>
     </row>
     <row r="6" spans="3:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -17957,20 +18059,20 @@
         <v>191</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="403" t="s">
+      <c r="E8" s="386" t="s">
         <v>578</v>
       </c>
-      <c r="F8" s="405"/>
-      <c r="G8" s="403" t="s">
+      <c r="F8" s="388"/>
+      <c r="G8" s="386" t="s">
         <v>579</v>
       </c>
-      <c r="H8" s="404"/>
-      <c r="I8" s="405"/>
-      <c r="J8" s="403" t="s">
+      <c r="H8" s="387"/>
+      <c r="I8" s="388"/>
+      <c r="J8" s="386" t="s">
         <v>580</v>
       </c>
-      <c r="K8" s="404"/>
-      <c r="L8" s="405"/>
+      <c r="K8" s="387"/>
+      <c r="L8" s="388"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -17987,14 +18089,14 @@
     <row r="9" spans="3:16" ht="15" customHeight="1">
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="403"/>
-      <c r="F9" s="405"/>
-      <c r="G9" s="403"/>
-      <c r="H9" s="404"/>
-      <c r="I9" s="405"/>
-      <c r="J9" s="403"/>
-      <c r="K9" s="404"/>
-      <c r="L9" s="405"/>
+      <c r="E9" s="386"/>
+      <c r="F9" s="388"/>
+      <c r="G9" s="386"/>
+      <c r="H9" s="387"/>
+      <c r="I9" s="388"/>
+      <c r="J9" s="386"/>
+      <c r="K9" s="387"/>
+      <c r="L9" s="388"/>
       <c r="M9" s="5" t="s">
         <v>188</v>
       </c>
@@ -18011,14 +18113,14 @@
     <row r="10" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="403"/>
-      <c r="F10" s="405"/>
-      <c r="G10" s="403"/>
-      <c r="H10" s="404"/>
-      <c r="I10" s="405"/>
-      <c r="J10" s="403"/>
-      <c r="K10" s="404"/>
-      <c r="L10" s="405"/>
+      <c r="E10" s="386"/>
+      <c r="F10" s="388"/>
+      <c r="G10" s="386"/>
+      <c r="H10" s="387"/>
+      <c r="I10" s="388"/>
+      <c r="J10" s="386"/>
+      <c r="K10" s="387"/>
+      <c r="L10" s="388"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -18029,14 +18131,14 @@
     <row r="11" spans="3:16" ht="15" customHeight="1">
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="403"/>
-      <c r="F11" s="405"/>
-      <c r="G11" s="403"/>
-      <c r="H11" s="404"/>
-      <c r="I11" s="405"/>
-      <c r="J11" s="403"/>
-      <c r="K11" s="404"/>
-      <c r="L11" s="405"/>
+      <c r="E11" s="386"/>
+      <c r="F11" s="388"/>
+      <c r="G11" s="386"/>
+      <c r="H11" s="387"/>
+      <c r="I11" s="388"/>
+      <c r="J11" s="386"/>
+      <c r="K11" s="387"/>
+      <c r="L11" s="388"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -18133,16 +18235,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="407" t="s">
+      <c r="E17" s="376" t="s">
         <v>581</v>
       </c>
-      <c r="F17" s="408"/>
-      <c r="G17" s="408"/>
-      <c r="H17" s="408"/>
-      <c r="I17" s="408"/>
-      <c r="J17" s="408"/>
-      <c r="K17" s="408"/>
-      <c r="L17" s="409"/>
+      <c r="F17" s="377"/>
+      <c r="G17" s="377"/>
+      <c r="H17" s="377"/>
+      <c r="I17" s="377"/>
+      <c r="J17" s="377"/>
+      <c r="K17" s="377"/>
+      <c r="L17" s="378"/>
       <c r="M17" s="40" t="s">
         <v>582</v>
       </c>
@@ -18179,16 +18281,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="E17:L17"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="E8:F11"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="J8:L11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="E17:L17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P8" r:id="rId1"/>
@@ -18629,22 +18731,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="376" t="s">
+      <c r="E3" s="389" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="376"/>
-      <c r="G3" s="376" t="s">
+      <c r="F3" s="389"/>
+      <c r="G3" s="389" t="s">
         <v>522</v>
       </c>
-      <c r="H3" s="376"/>
-      <c r="I3" s="376"/>
-      <c r="J3" s="376"/>
-      <c r="K3" s="376"/>
-      <c r="L3" s="376"/>
-      <c r="M3" s="376" t="s">
+      <c r="H3" s="389"/>
+      <c r="I3" s="389"/>
+      <c r="J3" s="389"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="389" t="s">
         <v>523</v>
       </c>
-      <c r="N3" s="376"/>
+      <c r="N3" s="389"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -18655,7 +18757,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="377" t="s">
+      <c r="E4" s="394" t="s">
         <v>524</v>
       </c>
       <c r="F4" s="131"/>
@@ -18683,22 +18785,22 @@
         <v>182</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="378"/>
+      <c r="E5" s="395"/>
       <c r="F5" s="338" t="s">
         <v>624</v>
       </c>
       <c r="G5" s="339"/>
       <c r="H5" s="340"/>
-      <c r="I5" s="444" t="s">
+      <c r="I5" s="415" t="s">
         <v>625</v>
       </c>
-      <c r="J5" s="445"/>
-      <c r="K5" s="445"/>
-      <c r="L5" s="386"/>
-      <c r="M5" s="444" t="s">
+      <c r="J5" s="416"/>
+      <c r="K5" s="416"/>
+      <c r="L5" s="403"/>
+      <c r="M5" s="415" t="s">
         <v>626</v>
       </c>
-      <c r="N5" s="386"/>
+      <c r="N5" s="403"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -18709,16 +18811,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="378"/>
+      <c r="E6" s="395"/>
       <c r="F6" s="341"/>
       <c r="G6" s="342"/>
       <c r="H6" s="343"/>
-      <c r="I6" s="387"/>
-      <c r="J6" s="446"/>
-      <c r="K6" s="446"/>
-      <c r="L6" s="388"/>
-      <c r="M6" s="387"/>
-      <c r="N6" s="388"/>
+      <c r="I6" s="404"/>
+      <c r="J6" s="417"/>
+      <c r="K6" s="417"/>
+      <c r="L6" s="405"/>
+      <c r="M6" s="404"/>
+      <c r="N6" s="405"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>183</v>
@@ -18735,16 +18837,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="378"/>
+      <c r="E7" s="395"/>
       <c r="F7" s="341"/>
       <c r="G7" s="342"/>
       <c r="H7" s="343"/>
-      <c r="I7" s="387"/>
-      <c r="J7" s="446"/>
-      <c r="K7" s="446"/>
-      <c r="L7" s="388"/>
-      <c r="M7" s="387"/>
-      <c r="N7" s="388"/>
+      <c r="I7" s="404"/>
+      <c r="J7" s="417"/>
+      <c r="K7" s="417"/>
+      <c r="L7" s="405"/>
+      <c r="M7" s="404"/>
+      <c r="N7" s="405"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -18763,16 +18865,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="378"/>
+      <c r="E8" s="395"/>
       <c r="F8" s="341"/>
       <c r="G8" s="342"/>
       <c r="H8" s="343"/>
-      <c r="I8" s="387"/>
-      <c r="J8" s="446"/>
-      <c r="K8" s="446"/>
-      <c r="L8" s="388"/>
-      <c r="M8" s="387"/>
-      <c r="N8" s="388"/>
+      <c r="I8" s="404"/>
+      <c r="J8" s="417"/>
+      <c r="K8" s="417"/>
+      <c r="L8" s="405"/>
+      <c r="M8" s="404"/>
+      <c r="N8" s="405"/>
       <c r="O8" s="5" t="s">
         <v>188</v>
       </c>
@@ -18793,16 +18895,16 @@
         <v>191</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="378"/>
+      <c r="E9" s="395"/>
       <c r="F9" s="341"/>
       <c r="G9" s="342"/>
       <c r="H9" s="343"/>
-      <c r="I9" s="387"/>
-      <c r="J9" s="446"/>
-      <c r="K9" s="446"/>
-      <c r="L9" s="388"/>
-      <c r="M9" s="387"/>
-      <c r="N9" s="388"/>
+      <c r="I9" s="404"/>
+      <c r="J9" s="417"/>
+      <c r="K9" s="417"/>
+      <c r="L9" s="405"/>
+      <c r="M9" s="404"/>
+      <c r="N9" s="405"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -18819,16 +18921,16 @@
         <v>540</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="378"/>
+      <c r="E10" s="395"/>
       <c r="F10" s="341"/>
       <c r="G10" s="342"/>
       <c r="H10" s="343"/>
-      <c r="I10" s="387"/>
-      <c r="J10" s="446"/>
-      <c r="K10" s="446"/>
-      <c r="L10" s="388"/>
-      <c r="M10" s="387"/>
-      <c r="N10" s="388"/>
+      <c r="I10" s="404"/>
+      <c r="J10" s="417"/>
+      <c r="K10" s="417"/>
+      <c r="L10" s="405"/>
+      <c r="M10" s="404"/>
+      <c r="N10" s="405"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -18841,16 +18943,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="378"/>
+      <c r="E11" s="395"/>
       <c r="F11" s="341"/>
       <c r="G11" s="342"/>
       <c r="H11" s="343"/>
-      <c r="I11" s="387"/>
-      <c r="J11" s="446"/>
-      <c r="K11" s="446"/>
-      <c r="L11" s="388"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="388"/>
+      <c r="I11" s="404"/>
+      <c r="J11" s="417"/>
+      <c r="K11" s="417"/>
+      <c r="L11" s="405"/>
+      <c r="M11" s="404"/>
+      <c r="N11" s="405"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -18861,16 +18963,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="378"/>
+      <c r="E12" s="395"/>
       <c r="F12" s="341"/>
       <c r="G12" s="342"/>
       <c r="H12" s="343"/>
-      <c r="I12" s="387"/>
-      <c r="J12" s="446"/>
-      <c r="K12" s="446"/>
-      <c r="L12" s="388"/>
-      <c r="M12" s="387"/>
-      <c r="N12" s="388"/>
+      <c r="I12" s="404"/>
+      <c r="J12" s="417"/>
+      <c r="K12" s="417"/>
+      <c r="L12" s="405"/>
+      <c r="M12" s="404"/>
+      <c r="N12" s="405"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -18883,16 +18985,16 @@
         <v>193</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="378"/>
+      <c r="E13" s="395"/>
       <c r="F13" s="341"/>
       <c r="G13" s="342"/>
       <c r="H13" s="343"/>
-      <c r="I13" s="387"/>
-      <c r="J13" s="446"/>
-      <c r="K13" s="446"/>
-      <c r="L13" s="388"/>
-      <c r="M13" s="387"/>
-      <c r="N13" s="388"/>
+      <c r="I13" s="404"/>
+      <c r="J13" s="417"/>
+      <c r="K13" s="417"/>
+      <c r="L13" s="405"/>
+      <c r="M13" s="404"/>
+      <c r="N13" s="405"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -18903,16 +19005,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="378"/>
+      <c r="E14" s="395"/>
       <c r="F14" s="341"/>
       <c r="G14" s="342"/>
       <c r="H14" s="343"/>
-      <c r="I14" s="387"/>
-      <c r="J14" s="446"/>
-      <c r="K14" s="446"/>
-      <c r="L14" s="388"/>
-      <c r="M14" s="387"/>
-      <c r="N14" s="388"/>
+      <c r="I14" s="404"/>
+      <c r="J14" s="417"/>
+      <c r="K14" s="417"/>
+      <c r="L14" s="405"/>
+      <c r="M14" s="404"/>
+      <c r="N14" s="405"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -18923,16 +19025,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="378"/>
+      <c r="E15" s="395"/>
       <c r="F15" s="341"/>
       <c r="G15" s="342"/>
       <c r="H15" s="343"/>
-      <c r="I15" s="387"/>
-      <c r="J15" s="446"/>
-      <c r="K15" s="446"/>
-      <c r="L15" s="388"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="388"/>
+      <c r="I15" s="404"/>
+      <c r="J15" s="417"/>
+      <c r="K15" s="417"/>
+      <c r="L15" s="405"/>
+      <c r="M15" s="404"/>
+      <c r="N15" s="405"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -18943,16 +19045,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="378"/>
+      <c r="E16" s="395"/>
       <c r="F16" s="341"/>
       <c r="G16" s="342"/>
       <c r="H16" s="343"/>
-      <c r="I16" s="387"/>
-      <c r="J16" s="446"/>
-      <c r="K16" s="446"/>
-      <c r="L16" s="388"/>
-      <c r="M16" s="387"/>
-      <c r="N16" s="388"/>
+      <c r="I16" s="404"/>
+      <c r="J16" s="417"/>
+      <c r="K16" s="417"/>
+      <c r="L16" s="405"/>
+      <c r="M16" s="404"/>
+      <c r="N16" s="405"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -18965,16 +19067,16 @@
         <v>194</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="378"/>
+      <c r="E17" s="395"/>
       <c r="F17" s="341"/>
       <c r="G17" s="342"/>
       <c r="H17" s="343"/>
-      <c r="I17" s="387"/>
-      <c r="J17" s="446"/>
-      <c r="K17" s="446"/>
-      <c r="L17" s="388"/>
-      <c r="M17" s="387"/>
-      <c r="N17" s="388"/>
+      <c r="I17" s="404"/>
+      <c r="J17" s="417"/>
+      <c r="K17" s="417"/>
+      <c r="L17" s="405"/>
+      <c r="M17" s="404"/>
+      <c r="N17" s="405"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -18985,16 +19087,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="379"/>
+      <c r="E18" s="396"/>
       <c r="F18" s="344"/>
       <c r="G18" s="345"/>
       <c r="H18" s="346"/>
-      <c r="I18" s="389"/>
-      <c r="J18" s="447"/>
-      <c r="K18" s="447"/>
-      <c r="L18" s="390"/>
-      <c r="M18" s="389"/>
-      <c r="N18" s="390"/>
+      <c r="I18" s="406"/>
+      <c r="J18" s="418"/>
+      <c r="K18" s="418"/>
+      <c r="L18" s="407"/>
+      <c r="M18" s="406"/>
+      <c r="N18" s="407"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -19070,29 +19172,29 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="399" t="s">
+      <c r="B24" s="385" t="s">
         <v>577</v>
       </c>
-      <c r="C24" s="399"/>
-      <c r="D24" s="398"/>
-      <c r="E24" s="398"/>
-      <c r="F24" s="398"/>
-      <c r="G24" s="398"/>
-      <c r="H24" s="398"/>
-      <c r="I24" s="398"/>
-      <c r="J24" s="398"/>
-      <c r="K24" s="398"/>
-      <c r="M24" s="415" t="s">
+      <c r="C24" s="385"/>
+      <c r="D24" s="384"/>
+      <c r="E24" s="384"/>
+      <c r="F24" s="384"/>
+      <c r="G24" s="384"/>
+      <c r="H24" s="384"/>
+      <c r="I24" s="384"/>
+      <c r="J24" s="384"/>
+      <c r="K24" s="384"/>
+      <c r="M24" s="436" t="s">
         <v>180</v>
       </c>
-      <c r="N24" s="415"/>
-      <c r="O24" s="415"/>
+      <c r="N24" s="436"/>
+      <c r="O24" s="436"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="416" t="s">
+      <c r="B25" s="437" t="s">
         <v>943</v>
       </c>
-      <c r="C25" s="364"/>
+      <c r="C25" s="365"/>
       <c r="D25" s="322" t="s">
         <v>179</v>
       </c>
@@ -19114,13 +19216,13 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="365"/>
-      <c r="C26" s="366"/>
-      <c r="D26" s="363" t="s">
+      <c r="B26" s="366"/>
+      <c r="C26" s="367"/>
+      <c r="D26" s="364" t="s">
         <v>936</v>
       </c>
-      <c r="E26" s="364"/>
-      <c r="F26" s="442" t="s">
+      <c r="E26" s="365"/>
+      <c r="F26" s="431" t="s">
         <v>936</v>
       </c>
       <c r="G26" s="322"/>
@@ -19144,18 +19246,18 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="365"/>
-      <c r="C27" s="366"/>
+      <c r="B27" s="366"/>
+      <c r="C27" s="367"/>
       <c r="D27" s="360" t="s">
         <v>941</v>
       </c>
-      <c r="E27" s="366"/>
-      <c r="F27" s="365" t="s">
+      <c r="E27" s="367"/>
+      <c r="F27" s="366" t="s">
         <v>937</v>
       </c>
       <c r="G27" s="360"/>
       <c r="H27" s="320"/>
-      <c r="I27" s="426" t="s">
+      <c r="I27" s="435" t="s">
         <v>941</v>
       </c>
       <c r="J27" s="360"/>
@@ -19174,18 +19276,18 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="365"/>
-      <c r="C28" s="366"/>
+      <c r="B28" s="366"/>
+      <c r="C28" s="367"/>
       <c r="D28" s="360" t="s">
         <v>938</v>
       </c>
-      <c r="E28" s="366"/>
-      <c r="F28" s="365" t="s">
+      <c r="E28" s="367"/>
+      <c r="F28" s="366" t="s">
         <v>938</v>
       </c>
       <c r="G28" s="360"/>
       <c r="H28" s="320"/>
-      <c r="I28" s="426" t="s">
+      <c r="I28" s="435" t="s">
         <v>938</v>
       </c>
       <c r="J28" s="360"/>
@@ -19198,22 +19300,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="367"/>
-      <c r="C29" s="368"/>
+      <c r="B29" s="368"/>
+      <c r="C29" s="369"/>
       <c r="D29" s="360" t="s">
         <v>939</v>
       </c>
-      <c r="E29" s="366"/>
-      <c r="F29" s="443" t="s">
+      <c r="E29" s="367"/>
+      <c r="F29" s="432" t="s">
         <v>939</v>
       </c>
-      <c r="G29" s="428"/>
-      <c r="H29" s="429"/>
-      <c r="I29" s="427" t="s">
+      <c r="G29" s="433"/>
+      <c r="H29" s="434"/>
+      <c r="I29" s="447" t="s">
         <v>939</v>
       </c>
-      <c r="J29" s="428"/>
-      <c r="K29" s="429"/>
+      <c r="J29" s="433"/>
+      <c r="K29" s="434"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -19226,20 +19328,20 @@
         <v>942</v>
       </c>
       <c r="C30" s="326"/>
-      <c r="D30" s="430" t="s">
+      <c r="D30" s="419" t="s">
         <v>578</v>
       </c>
-      <c r="E30" s="431"/>
-      <c r="F30" s="435" t="s">
+      <c r="E30" s="420"/>
+      <c r="F30" s="424" t="s">
         <v>579</v>
       </c>
-      <c r="G30" s="436"/>
-      <c r="H30" s="431"/>
-      <c r="I30" s="435" t="s">
+      <c r="G30" s="425"/>
+      <c r="H30" s="420"/>
+      <c r="I30" s="424" t="s">
         <v>580</v>
       </c>
-      <c r="J30" s="436"/>
-      <c r="K30" s="439"/>
+      <c r="J30" s="425"/>
+      <c r="K30" s="428"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
@@ -19248,14 +19350,14 @@
     <row r="31" spans="2:19">
       <c r="B31" s="328"/>
       <c r="C31" s="329"/>
-      <c r="D31" s="432"/>
-      <c r="E31" s="405"/>
-      <c r="F31" s="403"/>
-      <c r="G31" s="404"/>
-      <c r="H31" s="405"/>
-      <c r="I31" s="403"/>
-      <c r="J31" s="404"/>
-      <c r="K31" s="440"/>
+      <c r="D31" s="421"/>
+      <c r="E31" s="388"/>
+      <c r="F31" s="386"/>
+      <c r="G31" s="387"/>
+      <c r="H31" s="388"/>
+      <c r="I31" s="386"/>
+      <c r="J31" s="387"/>
+      <c r="K31" s="429"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
@@ -19264,107 +19366,107 @@
     <row r="32" spans="2:19">
       <c r="B32" s="328"/>
       <c r="C32" s="329"/>
-      <c r="D32" s="432"/>
-      <c r="E32" s="405"/>
-      <c r="F32" s="403"/>
-      <c r="G32" s="404"/>
-      <c r="H32" s="405"/>
-      <c r="I32" s="403"/>
-      <c r="J32" s="404"/>
-      <c r="K32" s="440"/>
+      <c r="D32" s="421"/>
+      <c r="E32" s="388"/>
+      <c r="F32" s="386"/>
+      <c r="G32" s="387"/>
+      <c r="H32" s="388"/>
+      <c r="I32" s="386"/>
+      <c r="J32" s="387"/>
+      <c r="K32" s="429"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="328"/>
       <c r="C33" s="329"/>
-      <c r="D33" s="433"/>
-      <c r="E33" s="434"/>
-      <c r="F33" s="437"/>
-      <c r="G33" s="438"/>
-      <c r="H33" s="434"/>
-      <c r="I33" s="437"/>
-      <c r="J33" s="438"/>
-      <c r="K33" s="441"/>
+      <c r="D33" s="422"/>
+      <c r="E33" s="423"/>
+      <c r="F33" s="426"/>
+      <c r="G33" s="427"/>
+      <c r="H33" s="423"/>
+      <c r="I33" s="426"/>
+      <c r="J33" s="427"/>
+      <c r="K33" s="430"/>
     </row>
     <row r="34" spans="2:14">
       <c r="B34" s="328"/>
       <c r="C34" s="315"/>
-      <c r="D34" s="417" t="s">
+      <c r="D34" s="438" t="s">
         <v>929</v>
       </c>
-      <c r="E34" s="418"/>
-      <c r="F34" s="417" t="s">
+      <c r="E34" s="439"/>
+      <c r="F34" s="438" t="s">
         <v>600</v>
       </c>
-      <c r="G34" s="423"/>
-      <c r="H34" s="418"/>
-      <c r="I34" s="417" t="s">
+      <c r="G34" s="444"/>
+      <c r="H34" s="439"/>
+      <c r="I34" s="438" t="s">
         <v>944</v>
       </c>
-      <c r="J34" s="423"/>
-      <c r="K34" s="418"/>
+      <c r="J34" s="444"/>
+      <c r="K34" s="439"/>
     </row>
     <row r="35" spans="2:14">
       <c r="B35" s="328"/>
       <c r="C35" s="315"/>
-      <c r="D35" s="419"/>
-      <c r="E35" s="420"/>
-      <c r="F35" s="419"/>
-      <c r="G35" s="424"/>
-      <c r="H35" s="420"/>
-      <c r="I35" s="419"/>
-      <c r="J35" s="424"/>
-      <c r="K35" s="420"/>
+      <c r="D35" s="440"/>
+      <c r="E35" s="441"/>
+      <c r="F35" s="440"/>
+      <c r="G35" s="445"/>
+      <c r="H35" s="441"/>
+      <c r="I35" s="440"/>
+      <c r="J35" s="445"/>
+      <c r="K35" s="441"/>
     </row>
     <row r="36" spans="2:14">
       <c r="B36" s="328"/>
       <c r="C36" s="315"/>
-      <c r="D36" s="419"/>
-      <c r="E36" s="420"/>
-      <c r="F36" s="419"/>
-      <c r="G36" s="424"/>
-      <c r="H36" s="420"/>
-      <c r="I36" s="419"/>
-      <c r="J36" s="424"/>
-      <c r="K36" s="420"/>
+      <c r="D36" s="440"/>
+      <c r="E36" s="441"/>
+      <c r="F36" s="440"/>
+      <c r="G36" s="445"/>
+      <c r="H36" s="441"/>
+      <c r="I36" s="440"/>
+      <c r="J36" s="445"/>
+      <c r="K36" s="441"/>
     </row>
     <row r="37" spans="2:14">
       <c r="B37" s="328"/>
       <c r="C37" s="315"/>
-      <c r="D37" s="419"/>
-      <c r="E37" s="420"/>
-      <c r="F37" s="419"/>
-      <c r="G37" s="424"/>
-      <c r="H37" s="420"/>
-      <c r="I37" s="419"/>
-      <c r="J37" s="424"/>
-      <c r="K37" s="420"/>
+      <c r="D37" s="440"/>
+      <c r="E37" s="441"/>
+      <c r="F37" s="440"/>
+      <c r="G37" s="445"/>
+      <c r="H37" s="441"/>
+      <c r="I37" s="440"/>
+      <c r="J37" s="445"/>
+      <c r="K37" s="441"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
       <c r="B38" s="328"/>
       <c r="C38" s="315"/>
-      <c r="D38" s="421"/>
-      <c r="E38" s="422"/>
-      <c r="F38" s="421"/>
-      <c r="G38" s="425"/>
-      <c r="H38" s="422"/>
-      <c r="I38" s="421"/>
-      <c r="J38" s="425"/>
-      <c r="K38" s="422"/>
+      <c r="D38" s="442"/>
+      <c r="E38" s="443"/>
+      <c r="F38" s="442"/>
+      <c r="G38" s="446"/>
+      <c r="H38" s="443"/>
+      <c r="I38" s="442"/>
+      <c r="J38" s="446"/>
+      <c r="K38" s="443"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
       <c r="B39" s="330"/>
       <c r="C39" s="332"/>
-      <c r="D39" s="407" t="s">
+      <c r="D39" s="376" t="s">
         <v>581</v>
       </c>
-      <c r="E39" s="408"/>
-      <c r="F39" s="408"/>
-      <c r="G39" s="408"/>
-      <c r="H39" s="408"/>
-      <c r="I39" s="408"/>
-      <c r="J39" s="408"/>
-      <c r="K39" s="409"/>
+      <c r="E39" s="377"/>
+      <c r="F39" s="377"/>
+      <c r="G39" s="377"/>
+      <c r="H39" s="377"/>
+      <c r="I39" s="377"/>
+      <c r="J39" s="377"/>
+      <c r="K39" s="378"/>
       <c r="L39" s="40" t="s">
         <v>582</v>
       </c>
@@ -19401,16 +19503,17 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -19427,17 +19530,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -19865,10 +19967,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q18"/>
+  <dimension ref="A2:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20133,7 +20235,7 @@
       <c r="P16" s="9"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="10:17">
+    <row r="17" spans="3:17">
       <c r="J17" s="4"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -20143,7 +20245,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="6"/>
     </row>
-    <row r="18" spans="10:17" ht="15.75" thickBot="1">
+    <row r="18" spans="3:17" ht="15.75" thickBot="1">
       <c r="J18" s="8"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -20152,6 +20254,318 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="9"/>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="G22" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="D24" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="D25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="D26" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G26" t="s">
+        <v>915</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="D27" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="D28" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17">
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
+      <c r="K32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A33" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="C34" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K36" s="4"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1182</v>
+      </c>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" thickBot="1">
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" thickBot="1">
+      <c r="B41" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="9"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C43" t="s">
+        <v>268</v>
+      </c>
+      <c r="K43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1">
+      <c r="C44" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="C45" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K47" s="4"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="3:14" ht="15.75" thickBot="1">
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="1"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="3:14" ht="15.75" thickBot="1">
+      <c r="C52" s="8"/>
+      <c r="D52" s="10" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21371,7 +21785,7 @@
   <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E14"/>
+      <selection activeCell="M8" sqref="M8:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21468,7 +21882,9 @@
       <c r="J6" s="10"/>
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="5" t="s">
+        <v>1196</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
@@ -21609,7 +22025,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>1198</v>
+      </c>
       <c r="M10" s="337"/>
       <c r="N10" s="337"/>
       <c r="O10" s="5"/>
@@ -21776,7 +22194,9 @@
       <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="24" t="s">
+        <v>1197</v>
+      </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -22320,7 +22740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -22660,7 +23080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="1226">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -4092,6 +4092,87 @@
   </si>
   <si>
     <t>XXXXXXXXX</t>
+  </si>
+  <si>
+    <t>ec2-12-12-43-34.amazon.com</t>
+  </si>
+  <si>
+    <t>at WebServlet("/register")</t>
+  </si>
+  <si>
+    <t>RegisterServlet.java</t>
+  </si>
+  <si>
+    <t>http://ec2-12-12-43-34.amazon.com:80/register</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>info in url</t>
+  </si>
+  <si>
+    <t>info in body</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>not secure</t>
+  </si>
+  <si>
+    <t>TOMCAT WEB SERVER SOFTWARE</t>
+  </si>
+  <si>
+    <t>web server tomcat</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>Register.java</t>
+  </si>
+  <si>
+    <t>loginservlet.java</t>
+  </si>
+  <si>
+    <t>order.java</t>
+  </si>
+  <si>
+    <t>/placeOrder</t>
+  </si>
+  <si>
+    <t>/registercustomer</t>
+  </si>
+  <si>
+    <t>ec2-12-34-2-123.amazon.com</t>
+  </si>
+  <si>
+    <t>http://ec2-12-34-2-123.amazon.com:80/registercustomer</t>
+  </si>
+  <si>
+    <t>http://ec2-12-34-2-123.amazon.com:80/login</t>
+  </si>
+  <si>
+    <t>http://ec2-12-34-2-123.amazon.com:80/placeOrder</t>
+  </si>
+  <si>
+    <t>userid=john</t>
+  </si>
+  <si>
+    <t>pwd=john123</t>
+  </si>
+  <si>
+    <t>userid=jane</t>
+  </si>
+  <si>
+    <t>userid=mike</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>login object crated</t>
   </si>
 </sst>
 </file>
@@ -4838,7 +4919,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="448">
+  <cellXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5260,6 +5341,9 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5431,9 +5515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5464,6 +5545,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5473,59 +5557,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5587,20 +5620,104 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5644,50 +5761,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10445,10 +10529,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="349" t="s">
+      <c r="L35" s="350" t="s">
         <v>376</v>
       </c>
-      <c r="M35" s="349"/>
+      <c r="M35" s="350"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -13301,18 +13385,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="356" t="s">
+      <c r="E6" s="357" t="s">
         <v>408</v>
       </c>
-      <c r="F6" s="307"/>
-      <c r="G6" s="306" t="s">
+      <c r="F6" s="308"/>
+      <c r="G6" s="307" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="306"/>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
-      <c r="K6" s="306"/>
-      <c r="L6" s="307"/>
+      <c r="H6" s="307"/>
+      <c r="I6" s="307"/>
+      <c r="J6" s="307"/>
+      <c r="K6" s="307"/>
+      <c r="L6" s="308"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -13322,7 +13406,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="352">
+      <c r="D7" s="353">
         <v>80</v>
       </c>
       <c r="E7" s="147"/>
@@ -13340,7 +13424,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="352"/>
+      <c r="D8" s="353"/>
       <c r="E8" s="48" t="s">
         <v>410</v>
       </c>
@@ -13373,7 +13457,7 @@
       <c r="B9" t="s">
         <v>409</v>
       </c>
-      <c r="D9" s="352"/>
+      <c r="D9" s="353"/>
       <c r="E9" s="149"/>
       <c r="F9" s="150"/>
       <c r="G9" s="149"/>
@@ -13397,7 +13481,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="352"/>
+      <c r="D10" s="353"/>
       <c r="E10" s="147"/>
       <c r="F10" s="148"/>
       <c r="G10" s="147"/>
@@ -13421,7 +13505,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="352"/>
+      <c r="D11" s="353"/>
       <c r="E11" s="48" t="s">
         <v>414</v>
       </c>
@@ -13450,7 +13534,7 @@
       <c r="B12" s="215" t="s">
         <v>418</v>
       </c>
-      <c r="D12" s="352"/>
+      <c r="D12" s="353"/>
       <c r="E12" s="149"/>
       <c r="F12" s="150"/>
       <c r="G12" s="149"/>
@@ -13468,7 +13552,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="352"/>
+      <c r="D13" s="353"/>
       <c r="E13" s="147"/>
       <c r="F13" s="148"/>
       <c r="G13" s="147"/>
@@ -13484,7 +13568,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="352"/>
+      <c r="D14" s="353"/>
       <c r="E14" s="48" t="s">
         <v>419</v>
       </c>
@@ -13508,7 +13592,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="352"/>
+      <c r="D15" s="353"/>
       <c r="E15" s="149"/>
       <c r="F15" s="150"/>
       <c r="G15" s="149"/>
@@ -13524,7 +13608,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="352"/>
+      <c r="D16" s="353"/>
       <c r="E16" s="147"/>
       <c r="F16" s="148"/>
       <c r="G16" s="24"/>
@@ -13540,7 +13624,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="352"/>
+      <c r="D17" s="353"/>
       <c r="E17" s="48" t="s">
         <v>423</v>
       </c>
@@ -13564,7 +13648,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="352"/>
+      <c r="D18" s="353"/>
       <c r="E18" s="149"/>
       <c r="F18" s="150"/>
       <c r="G18" s="71"/>
@@ -13581,20 +13665,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="357" t="s">
+      <c r="E19" s="358" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="358"/>
-      <c r="G19" s="357" t="s">
+      <c r="F19" s="359"/>
+      <c r="G19" s="358" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="358"/>
-      <c r="I19" s="357" t="s">
+      <c r="H19" s="359"/>
+      <c r="I19" s="358" t="s">
         <v>197</v>
       </c>
-      <c r="J19" s="359"/>
-      <c r="K19" s="359"/>
-      <c r="L19" s="358"/>
+      <c r="J19" s="360"/>
+      <c r="K19" s="360"/>
+      <c r="L19" s="359"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -13659,12 +13743,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="360"/>
-      <c r="H24" s="360"/>
-      <c r="I24" s="360"/>
-      <c r="J24" s="360"/>
-      <c r="K24" s="360"/>
-      <c r="L24" s="360"/>
+      <c r="G24" s="361"/>
+      <c r="H24" s="361"/>
+      <c r="I24" s="361"/>
+      <c r="J24" s="361"/>
+      <c r="K24" s="361"/>
+      <c r="L24" s="361"/>
       <c r="O24" s="40" t="s">
         <v>180</v>
       </c>
@@ -14020,11 +14104,11 @@
       <c r="G47" s="228" t="s">
         <v>912</v>
       </c>
-      <c r="H47" s="353" t="s">
+      <c r="H47" s="354" t="s">
         <v>445</v>
       </c>
-      <c r="I47" s="354"/>
-      <c r="J47" s="355"/>
+      <c r="I47" s="355"/>
+      <c r="J47" s="356"/>
     </row>
     <row r="48" spans="3:17">
       <c r="F48" t="s">
@@ -14554,16 +14638,16 @@
         <v>1079</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="350" t="s">
+      <c r="G131" s="351" t="s">
         <v>1072</v>
       </c>
-      <c r="H131" s="350"/>
-      <c r="I131" s="350"/>
-      <c r="J131" s="350"/>
-      <c r="K131" s="350"/>
-      <c r="L131" s="350"/>
-      <c r="M131" s="350"/>
-      <c r="N131" s="350"/>
+      <c r="H131" s="351"/>
+      <c r="I131" s="351"/>
+      <c r="J131" s="351"/>
+      <c r="K131" s="351"/>
+      <c r="L131" s="351"/>
+      <c r="M131" s="351"/>
+      <c r="N131" s="351"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -14700,29 +14784,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="351"/>
-      <c r="H141" s="351"/>
-      <c r="I141" s="351"/>
-      <c r="J141" s="351"/>
-      <c r="K141" s="351"/>
-      <c r="L141" s="351"/>
-      <c r="M141" s="351"/>
-      <c r="N141" s="351"/>
-      <c r="O141" s="351"/>
+      <c r="G141" s="352"/>
+      <c r="H141" s="352"/>
+      <c r="I141" s="352"/>
+      <c r="J141" s="352"/>
+      <c r="K141" s="352"/>
+      <c r="L141" s="352"/>
+      <c r="M141" s="352"/>
+      <c r="N141" s="352"/>
+      <c r="O141" s="352"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="351"/>
-      <c r="H142" s="351"/>
-      <c r="I142" s="351"/>
-      <c r="J142" s="351"/>
-      <c r="K142" s="351"/>
-      <c r="L142" s="351"/>
-      <c r="M142" s="351"/>
-      <c r="N142" s="351"/>
-      <c r="O142" s="351"/>
+      <c r="G142" s="352"/>
+      <c r="H142" s="352"/>
+      <c r="I142" s="352"/>
+      <c r="J142" s="352"/>
+      <c r="K142" s="352"/>
+      <c r="L142" s="352"/>
+      <c r="M142" s="352"/>
+      <c r="N142" s="352"/>
+      <c r="O142" s="352"/>
     </row>
     <row r="190" spans="9:9">
       <c r="I190" t="s">
@@ -15096,13 +15180,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="361" t="s">
+      <c r="D20" s="362" t="s">
         <v>459</v>
       </c>
-      <c r="E20" s="361"/>
-      <c r="F20" s="361"/>
-      <c r="G20" s="361"/>
-      <c r="H20" s="361"/>
+      <c r="E20" s="362"/>
+      <c r="F20" s="362"/>
+      <c r="G20" s="362"/>
+      <c r="H20" s="362"/>
       <c r="I20" s="38" t="s">
         <v>460</v>
       </c>
@@ -15113,37 +15197,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="362">
+      <c r="C21" s="373">
         <v>43909</v>
       </c>
-      <c r="D21" s="361"/>
-      <c r="E21" s="361"/>
-      <c r="F21" s="361"/>
-      <c r="G21" s="361"/>
-      <c r="H21" s="361"/>
+      <c r="D21" s="362"/>
+      <c r="E21" s="362"/>
+      <c r="F21" s="362"/>
+      <c r="G21" s="362"/>
+      <c r="H21" s="362"/>
       <c r="I21" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="J21" s="361"/>
-      <c r="K21" s="361"/>
-      <c r="L21" s="361" t="s">
+      <c r="J21" s="362"/>
+      <c r="K21" s="362"/>
+      <c r="L21" s="362" t="s">
         <v>462</v>
       </c>
-      <c r="M21" s="361"/>
-      <c r="N21" s="361"/>
+      <c r="M21" s="362"/>
+      <c r="N21" s="362"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="362"/>
-      <c r="D22" s="361"/>
-      <c r="E22" s="361"/>
-      <c r="F22" s="361"/>
-      <c r="G22" s="361"/>
-      <c r="H22" s="361"/>
-      <c r="I22" s="316" t="s">
+      <c r="C22" s="373"/>
+      <c r="D22" s="362"/>
+      <c r="E22" s="362"/>
+      <c r="F22" s="362"/>
+      <c r="G22" s="362"/>
+      <c r="H22" s="362"/>
+      <c r="I22" s="317" t="s">
         <v>463</v>
       </c>
-      <c r="J22" s="361"/>
-      <c r="K22" s="361"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="362"/>
       <c r="L22" s="117" t="s">
         <v>464</v>
       </c>
@@ -15151,31 +15235,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="362"/>
-      <c r="D23" s="361"/>
-      <c r="E23" s="361"/>
-      <c r="F23" s="361"/>
-      <c r="G23" s="361"/>
-      <c r="H23" s="361"/>
-      <c r="I23" s="316"/>
-      <c r="J23" s="361"/>
-      <c r="K23" s="361"/>
-      <c r="L23" s="361" t="s">
+      <c r="C23" s="373"/>
+      <c r="D23" s="362"/>
+      <c r="E23" s="362"/>
+      <c r="F23" s="362"/>
+      <c r="G23" s="362"/>
+      <c r="H23" s="362"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="362"/>
+      <c r="K23" s="362"/>
+      <c r="L23" s="362" t="s">
         <v>465</v>
       </c>
-      <c r="M23" s="361"/>
-      <c r="N23" s="361"/>
+      <c r="M23" s="362"/>
+      <c r="N23" s="362"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="362"/>
-      <c r="D24" s="361"/>
-      <c r="E24" s="361"/>
-      <c r="F24" s="361"/>
-      <c r="G24" s="361"/>
-      <c r="H24" s="361"/>
-      <c r="I24" s="316"/>
-      <c r="J24" s="361"/>
-      <c r="K24" s="361"/>
+      <c r="C24" s="373"/>
+      <c r="D24" s="362"/>
+      <c r="E24" s="362"/>
+      <c r="F24" s="362"/>
+      <c r="G24" s="362"/>
+      <c r="H24" s="362"/>
+      <c r="I24" s="317"/>
+      <c r="J24" s="362"/>
+      <c r="K24" s="362"/>
       <c r="L24" s="118" t="s">
         <v>463</v>
       </c>
@@ -15186,13 +15270,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="361" t="s">
+      <c r="D25" s="362" t="s">
         <v>466</v>
       </c>
-      <c r="E25" s="361"/>
-      <c r="F25" s="361"/>
-      <c r="G25" s="361"/>
-      <c r="H25" s="361"/>
+      <c r="E25" s="362"/>
+      <c r="F25" s="362"/>
+      <c r="G25" s="362"/>
+      <c r="H25" s="362"/>
       <c r="I25" s="38" t="s">
         <v>467</v>
       </c>
@@ -15225,25 +15309,25 @@
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
       <c r="D27" s="366"/>
-      <c r="E27" s="360"/>
-      <c r="F27" s="360"/>
-      <c r="G27" s="360"/>
+      <c r="E27" s="361"/>
+      <c r="F27" s="361"/>
+      <c r="G27" s="361"/>
       <c r="H27" s="367"/>
       <c r="I27" s="371"/>
       <c r="J27" s="366"/>
       <c r="K27" s="367"/>
-      <c r="L27" s="361" t="s">
+      <c r="L27" s="362" t="s">
         <v>468</v>
       </c>
-      <c r="M27" s="361"/>
-      <c r="N27" s="361"/>
+      <c r="M27" s="362"/>
+      <c r="N27" s="362"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
       <c r="D28" s="366"/>
-      <c r="E28" s="360"/>
-      <c r="F28" s="360"/>
-      <c r="G28" s="360"/>
+      <c r="E28" s="361"/>
+      <c r="F28" s="361"/>
+      <c r="G28" s="361"/>
       <c r="H28" s="367"/>
       <c r="I28" s="371"/>
       <c r="J28" s="366"/>
@@ -15257,9 +15341,9 @@
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
       <c r="D29" s="368"/>
-      <c r="E29" s="349"/>
-      <c r="F29" s="349"/>
-      <c r="G29" s="349"/>
+      <c r="E29" s="350"/>
+      <c r="F29" s="350"/>
+      <c r="G29" s="350"/>
       <c r="H29" s="369"/>
       <c r="I29" s="372"/>
       <c r="J29" s="368"/>
@@ -15311,13 +15395,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="361" t="s">
+      <c r="D33" s="362" t="s">
         <v>459</v>
       </c>
-      <c r="E33" s="361"/>
-      <c r="F33" s="361"/>
-      <c r="G33" s="361"/>
-      <c r="H33" s="361"/>
+      <c r="E33" s="362"/>
+      <c r="F33" s="362"/>
+      <c r="G33" s="362"/>
+      <c r="H33" s="362"/>
       <c r="I33" s="38" t="s">
         <v>460</v>
       </c>
@@ -15328,33 +15412,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="362">
+      <c r="C34" s="373">
         <v>43909</v>
       </c>
-      <c r="D34" s="361"/>
-      <c r="E34" s="361"/>
-      <c r="F34" s="361"/>
-      <c r="G34" s="361"/>
-      <c r="H34" s="361"/>
-      <c r="I34" s="373"/>
-      <c r="J34" s="361"/>
-      <c r="K34" s="361"/>
-      <c r="L34" s="361" t="s">
+      <c r="D34" s="362"/>
+      <c r="E34" s="362"/>
+      <c r="F34" s="362"/>
+      <c r="G34" s="362"/>
+      <c r="H34" s="362"/>
+      <c r="I34" s="374"/>
+      <c r="J34" s="362"/>
+      <c r="K34" s="362"/>
+      <c r="L34" s="362" t="s">
         <v>462</v>
       </c>
-      <c r="M34" s="361"/>
-      <c r="N34" s="361"/>
+      <c r="M34" s="362"/>
+      <c r="N34" s="362"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="362"/>
-      <c r="D35" s="361"/>
-      <c r="E35" s="361"/>
-      <c r="F35" s="361"/>
-      <c r="G35" s="361"/>
-      <c r="H35" s="361"/>
-      <c r="I35" s="374"/>
-      <c r="J35" s="361"/>
-      <c r="K35" s="361"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="362"/>
+      <c r="E35" s="362"/>
+      <c r="F35" s="362"/>
+      <c r="G35" s="362"/>
+      <c r="H35" s="362"/>
+      <c r="I35" s="375"/>
+      <c r="J35" s="362"/>
+      <c r="K35" s="362"/>
       <c r="L35" s="117" t="s">
         <v>464</v>
       </c>
@@ -15362,31 +15446,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="362"/>
-      <c r="D36" s="361"/>
-      <c r="E36" s="361"/>
-      <c r="F36" s="361"/>
-      <c r="G36" s="361"/>
-      <c r="H36" s="361"/>
-      <c r="I36" s="374"/>
-      <c r="J36" s="361"/>
-      <c r="K36" s="361"/>
-      <c r="L36" s="361" t="s">
+      <c r="C36" s="373"/>
+      <c r="D36" s="362"/>
+      <c r="E36" s="362"/>
+      <c r="F36" s="362"/>
+      <c r="G36" s="362"/>
+      <c r="H36" s="362"/>
+      <c r="I36" s="375"/>
+      <c r="J36" s="362"/>
+      <c r="K36" s="362"/>
+      <c r="L36" s="362" t="s">
         <v>465</v>
       </c>
-      <c r="M36" s="361"/>
-      <c r="N36" s="361"/>
+      <c r="M36" s="362"/>
+      <c r="N36" s="362"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="362"/>
-      <c r="D37" s="361"/>
-      <c r="E37" s="361"/>
-      <c r="F37" s="361"/>
-      <c r="G37" s="361"/>
-      <c r="H37" s="361"/>
-      <c r="I37" s="375"/>
-      <c r="J37" s="361"/>
-      <c r="K37" s="361"/>
+      <c r="C37" s="373"/>
+      <c r="D37" s="362"/>
+      <c r="E37" s="362"/>
+      <c r="F37" s="362"/>
+      <c r="G37" s="362"/>
+      <c r="H37" s="362"/>
+      <c r="I37" s="376"/>
+      <c r="J37" s="362"/>
+      <c r="K37" s="362"/>
       <c r="L37" s="118" t="s">
         <v>470</v>
       </c>
@@ -15397,13 +15481,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="361" t="s">
+      <c r="D38" s="362" t="s">
         <v>466</v>
       </c>
-      <c r="E38" s="361"/>
-      <c r="F38" s="361"/>
-      <c r="G38" s="361"/>
-      <c r="H38" s="361"/>
+      <c r="E38" s="362"/>
+      <c r="F38" s="362"/>
+      <c r="G38" s="362"/>
+      <c r="H38" s="362"/>
       <c r="I38" s="38" t="s">
         <v>467</v>
       </c>
@@ -15434,25 +15518,25 @@
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
       <c r="D40" s="366"/>
-      <c r="E40" s="360"/>
-      <c r="F40" s="360"/>
-      <c r="G40" s="360"/>
+      <c r="E40" s="361"/>
+      <c r="F40" s="361"/>
+      <c r="G40" s="361"/>
       <c r="H40" s="367"/>
       <c r="I40" s="371"/>
       <c r="J40" s="366"/>
       <c r="K40" s="367"/>
-      <c r="L40" s="361" t="s">
+      <c r="L40" s="362" t="s">
         <v>468</v>
       </c>
-      <c r="M40" s="361"/>
-      <c r="N40" s="361"/>
+      <c r="M40" s="362"/>
+      <c r="N40" s="362"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
       <c r="D41" s="366"/>
-      <c r="E41" s="360"/>
-      <c r="F41" s="360"/>
-      <c r="G41" s="360"/>
+      <c r="E41" s="361"/>
+      <c r="F41" s="361"/>
+      <c r="G41" s="361"/>
       <c r="H41" s="367"/>
       <c r="I41" s="372"/>
       <c r="J41" s="366"/>
@@ -15466,9 +15550,9 @@
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
       <c r="D42" s="368"/>
-      <c r="E42" s="349"/>
-      <c r="F42" s="349"/>
-      <c r="G42" s="349"/>
+      <c r="E42" s="350"/>
+      <c r="F42" s="350"/>
+      <c r="G42" s="350"/>
       <c r="H42" s="369"/>
       <c r="I42" s="38" t="s">
         <v>461</v>
@@ -15786,17 +15870,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -15804,12 +15883,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15831,29 +15915,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="398" t="s">
         <v>1107</v>
       </c>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
-      <c r="H2" s="383"/>
-      <c r="I2" s="383"/>
-      <c r="J2" s="383"/>
-      <c r="K2" s="383"/>
-      <c r="L2" s="383"/>
-      <c r="M2" s="383"/>
-      <c r="N2" s="383"/>
-      <c r="O2" s="383"/>
-      <c r="P2" s="383"/>
-      <c r="Q2" s="383"/>
-      <c r="R2" s="383"/>
-      <c r="S2" s="383"/>
-      <c r="T2" s="383"/>
-      <c r="U2" s="383"/>
-      <c r="V2" s="383"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="398"/>
+      <c r="G2" s="398"/>
+      <c r="H2" s="398"/>
+      <c r="I2" s="398"/>
+      <c r="J2" s="398"/>
+      <c r="K2" s="398"/>
+      <c r="L2" s="398"/>
+      <c r="M2" s="398"/>
+      <c r="N2" s="398"/>
+      <c r="O2" s="398"/>
+      <c r="P2" s="398"/>
+      <c r="Q2" s="398"/>
+      <c r="R2" s="398"/>
+      <c r="S2" s="398"/>
+      <c r="T2" s="398"/>
+      <c r="U2" s="398"/>
+      <c r="V2" s="398"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -15886,22 +15970,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="389" t="s">
+      <c r="G5" s="377" t="s">
         <v>521</v>
       </c>
-      <c r="H5" s="389"/>
-      <c r="I5" s="389" t="s">
+      <c r="H5" s="377"/>
+      <c r="I5" s="377" t="s">
         <v>522</v>
       </c>
-      <c r="J5" s="389"/>
-      <c r="K5" s="389"/>
-      <c r="L5" s="389"/>
-      <c r="M5" s="389"/>
-      <c r="N5" s="389"/>
-      <c r="O5" s="389" t="s">
+      <c r="J5" s="377"/>
+      <c r="K5" s="377"/>
+      <c r="L5" s="377"/>
+      <c r="M5" s="377"/>
+      <c r="N5" s="377"/>
+      <c r="O5" s="377" t="s">
         <v>523</v>
       </c>
-      <c r="P5" s="389"/>
+      <c r="P5" s="377"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -15913,7 +15997,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="394" t="s">
+      <c r="G6" s="378" t="s">
         <v>524</v>
       </c>
       <c r="H6" s="111"/>
@@ -15942,26 +16026,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="395"/>
-      <c r="H7" s="397" t="s">
+      <c r="G7" s="379"/>
+      <c r="H7" s="381" t="s">
         <v>526</v>
       </c>
-      <c r="I7" s="400" t="s">
+      <c r="I7" s="384" t="s">
         <v>527</v>
       </c>
-      <c r="J7" s="401"/>
-      <c r="K7" s="402" t="s">
+      <c r="J7" s="385"/>
+      <c r="K7" s="386" t="s">
         <v>528</v>
       </c>
-      <c r="L7" s="403"/>
-      <c r="M7" s="400" t="s">
+      <c r="L7" s="387"/>
+      <c r="M7" s="384" t="s">
         <v>529</v>
       </c>
-      <c r="N7" s="401"/>
-      <c r="O7" s="408" t="s">
+      <c r="N7" s="385"/>
+      <c r="O7" s="392" t="s">
         <v>530</v>
       </c>
-      <c r="P7" s="409"/>
+      <c r="P7" s="393"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -15973,16 +16057,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="395"/>
-      <c r="H8" s="398"/>
-      <c r="I8" s="328"/>
-      <c r="J8" s="315"/>
-      <c r="K8" s="404"/>
-      <c r="L8" s="405"/>
-      <c r="M8" s="328"/>
-      <c r="N8" s="315"/>
-      <c r="O8" s="410"/>
-      <c r="P8" s="411"/>
+      <c r="G8" s="379"/>
+      <c r="H8" s="382"/>
+      <c r="I8" s="329"/>
+      <c r="J8" s="316"/>
+      <c r="K8" s="388"/>
+      <c r="L8" s="389"/>
+      <c r="M8" s="329"/>
+      <c r="N8" s="316"/>
+      <c r="O8" s="394"/>
+      <c r="P8" s="395"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>183</v>
@@ -16000,16 +16084,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="395"/>
-      <c r="H9" s="398"/>
-      <c r="I9" s="328"/>
-      <c r="J9" s="315"/>
-      <c r="K9" s="404"/>
-      <c r="L9" s="405"/>
-      <c r="M9" s="328"/>
-      <c r="N9" s="315"/>
-      <c r="O9" s="410"/>
-      <c r="P9" s="411"/>
+      <c r="G9" s="379"/>
+      <c r="H9" s="382"/>
+      <c r="I9" s="329"/>
+      <c r="J9" s="316"/>
+      <c r="K9" s="388"/>
+      <c r="L9" s="389"/>
+      <c r="M9" s="329"/>
+      <c r="N9" s="316"/>
+      <c r="O9" s="394"/>
+      <c r="P9" s="395"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -16029,16 +16113,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="395"/>
-      <c r="H10" s="398"/>
-      <c r="I10" s="328"/>
-      <c r="J10" s="315"/>
-      <c r="K10" s="404"/>
-      <c r="L10" s="405"/>
-      <c r="M10" s="328"/>
-      <c r="N10" s="315"/>
-      <c r="O10" s="410"/>
-      <c r="P10" s="411"/>
+      <c r="G10" s="379"/>
+      <c r="H10" s="382"/>
+      <c r="I10" s="329"/>
+      <c r="J10" s="316"/>
+      <c r="K10" s="388"/>
+      <c r="L10" s="389"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="316"/>
+      <c r="O10" s="394"/>
+      <c r="P10" s="395"/>
       <c r="Q10" s="5" t="s">
         <v>188</v>
       </c>
@@ -16054,16 +16138,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="395"/>
-      <c r="H11" s="398"/>
-      <c r="I11" s="328"/>
-      <c r="J11" s="315"/>
-      <c r="K11" s="404"/>
-      <c r="L11" s="405"/>
-      <c r="M11" s="328"/>
-      <c r="N11" s="315"/>
-      <c r="O11" s="410"/>
-      <c r="P11" s="411"/>
+      <c r="G11" s="379"/>
+      <c r="H11" s="382"/>
+      <c r="I11" s="329"/>
+      <c r="J11" s="316"/>
+      <c r="K11" s="388"/>
+      <c r="L11" s="389"/>
+      <c r="M11" s="329"/>
+      <c r="N11" s="316"/>
+      <c r="O11" s="394"/>
+      <c r="P11" s="395"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -16081,16 +16165,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="395"/>
-      <c r="H12" s="398"/>
-      <c r="I12" s="328"/>
-      <c r="J12" s="315"/>
-      <c r="K12" s="404"/>
-      <c r="L12" s="405"/>
-      <c r="M12" s="328"/>
-      <c r="N12" s="315"/>
-      <c r="O12" s="410"/>
-      <c r="P12" s="411"/>
+      <c r="G12" s="379"/>
+      <c r="H12" s="382"/>
+      <c r="I12" s="329"/>
+      <c r="J12" s="316"/>
+      <c r="K12" s="388"/>
+      <c r="L12" s="389"/>
+      <c r="M12" s="329"/>
+      <c r="N12" s="316"/>
+      <c r="O12" s="394"/>
+      <c r="P12" s="395"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -16104,16 +16188,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="395"/>
-      <c r="H13" s="398"/>
-      <c r="I13" s="328"/>
-      <c r="J13" s="315"/>
-      <c r="K13" s="404"/>
-      <c r="L13" s="405"/>
-      <c r="M13" s="328"/>
-      <c r="N13" s="315"/>
-      <c r="O13" s="410"/>
-      <c r="P13" s="411"/>
+      <c r="G13" s="379"/>
+      <c r="H13" s="382"/>
+      <c r="I13" s="329"/>
+      <c r="J13" s="316"/>
+      <c r="K13" s="388"/>
+      <c r="L13" s="389"/>
+      <c r="M13" s="329"/>
+      <c r="N13" s="316"/>
+      <c r="O13" s="394"/>
+      <c r="P13" s="395"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -16125,16 +16209,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="395"/>
-      <c r="H14" s="398"/>
-      <c r="I14" s="328"/>
-      <c r="J14" s="315"/>
-      <c r="K14" s="404"/>
-      <c r="L14" s="405"/>
-      <c r="M14" s="328"/>
-      <c r="N14" s="315"/>
-      <c r="O14" s="410"/>
-      <c r="P14" s="411"/>
+      <c r="G14" s="379"/>
+      <c r="H14" s="382"/>
+      <c r="I14" s="329"/>
+      <c r="J14" s="316"/>
+      <c r="K14" s="388"/>
+      <c r="L14" s="389"/>
+      <c r="M14" s="329"/>
+      <c r="N14" s="316"/>
+      <c r="O14" s="394"/>
+      <c r="P14" s="395"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -16148,16 +16232,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="395"/>
-      <c r="H15" s="398"/>
-      <c r="I15" s="328"/>
-      <c r="J15" s="315"/>
-      <c r="K15" s="404"/>
-      <c r="L15" s="405"/>
-      <c r="M15" s="328"/>
-      <c r="N15" s="315"/>
-      <c r="O15" s="410"/>
-      <c r="P15" s="411"/>
+      <c r="G15" s="379"/>
+      <c r="H15" s="382"/>
+      <c r="I15" s="329"/>
+      <c r="J15" s="316"/>
+      <c r="K15" s="388"/>
+      <c r="L15" s="389"/>
+      <c r="M15" s="329"/>
+      <c r="N15" s="316"/>
+      <c r="O15" s="394"/>
+      <c r="P15" s="395"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -16169,16 +16253,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="395"/>
-      <c r="H16" s="398"/>
-      <c r="I16" s="328"/>
-      <c r="J16" s="315"/>
-      <c r="K16" s="404"/>
-      <c r="L16" s="405"/>
-      <c r="M16" s="328"/>
-      <c r="N16" s="315"/>
-      <c r="O16" s="410"/>
-      <c r="P16" s="411"/>
+      <c r="G16" s="379"/>
+      <c r="H16" s="382"/>
+      <c r="I16" s="329"/>
+      <c r="J16" s="316"/>
+      <c r="K16" s="388"/>
+      <c r="L16" s="389"/>
+      <c r="M16" s="329"/>
+      <c r="N16" s="316"/>
+      <c r="O16" s="394"/>
+      <c r="P16" s="395"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -16190,16 +16274,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="395"/>
-      <c r="H17" s="398"/>
-      <c r="I17" s="328"/>
-      <c r="J17" s="315"/>
-      <c r="K17" s="404"/>
-      <c r="L17" s="405"/>
-      <c r="M17" s="328"/>
-      <c r="N17" s="315"/>
-      <c r="O17" s="410"/>
-      <c r="P17" s="411"/>
+      <c r="G17" s="379"/>
+      <c r="H17" s="382"/>
+      <c r="I17" s="329"/>
+      <c r="J17" s="316"/>
+      <c r="K17" s="388"/>
+      <c r="L17" s="389"/>
+      <c r="M17" s="329"/>
+      <c r="N17" s="316"/>
+      <c r="O17" s="394"/>
+      <c r="P17" s="395"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -16211,16 +16295,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="395"/>
-      <c r="H18" s="398"/>
-      <c r="I18" s="328"/>
-      <c r="J18" s="315"/>
-      <c r="K18" s="404"/>
-      <c r="L18" s="405"/>
-      <c r="M18" s="328"/>
-      <c r="N18" s="315"/>
-      <c r="O18" s="410"/>
-      <c r="P18" s="411"/>
+      <c r="G18" s="379"/>
+      <c r="H18" s="382"/>
+      <c r="I18" s="329"/>
+      <c r="J18" s="316"/>
+      <c r="K18" s="388"/>
+      <c r="L18" s="389"/>
+      <c r="M18" s="329"/>
+      <c r="N18" s="316"/>
+      <c r="O18" s="394"/>
+      <c r="P18" s="395"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -16234,16 +16318,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="395"/>
-      <c r="H19" s="398"/>
-      <c r="I19" s="328"/>
-      <c r="J19" s="315"/>
-      <c r="K19" s="404"/>
-      <c r="L19" s="405"/>
-      <c r="M19" s="328"/>
-      <c r="N19" s="315"/>
-      <c r="O19" s="410"/>
-      <c r="P19" s="411"/>
+      <c r="G19" s="379"/>
+      <c r="H19" s="382"/>
+      <c r="I19" s="329"/>
+      <c r="J19" s="316"/>
+      <c r="K19" s="388"/>
+      <c r="L19" s="389"/>
+      <c r="M19" s="329"/>
+      <c r="N19" s="316"/>
+      <c r="O19" s="394"/>
+      <c r="P19" s="395"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -16255,16 +16339,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="396"/>
-      <c r="H20" s="399"/>
-      <c r="I20" s="330"/>
-      <c r="J20" s="332"/>
-      <c r="K20" s="406"/>
-      <c r="L20" s="407"/>
-      <c r="M20" s="330"/>
-      <c r="N20" s="332"/>
-      <c r="O20" s="412"/>
-      <c r="P20" s="413"/>
+      <c r="G20" s="380"/>
+      <c r="H20" s="383"/>
+      <c r="I20" s="331"/>
+      <c r="J20" s="333"/>
+      <c r="K20" s="390"/>
+      <c r="L20" s="391"/>
+      <c r="M20" s="331"/>
+      <c r="N20" s="333"/>
+      <c r="O20" s="396"/>
+      <c r="P20" s="397"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -16294,27 +16378,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="333" t="s">
+      <c r="D22" s="334" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="334"/>
+      <c r="E22" s="335"/>
       <c r="F22" s="271"/>
       <c r="G22" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="333" t="s">
+      <c r="H22" s="334" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="335"/>
-      <c r="J22" s="335"/>
-      <c r="K22" s="335"/>
-      <c r="L22" s="335"/>
-      <c r="M22" s="335"/>
-      <c r="N22" s="334"/>
-      <c r="O22" s="333" t="s">
+      <c r="I22" s="336"/>
+      <c r="J22" s="336"/>
+      <c r="K22" s="336"/>
+      <c r="L22" s="336"/>
+      <c r="M22" s="336"/>
+      <c r="N22" s="335"/>
+      <c r="O22" s="334" t="s">
         <v>531</v>
       </c>
-      <c r="P22" s="334"/>
+      <c r="P22" s="335"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -16345,59 +16429,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="383" t="s">
+      <c r="B25" s="398" t="s">
         <v>1106</v>
       </c>
-      <c r="C25" s="383"/>
-      <c r="D25" s="383"/>
-      <c r="E25" s="383"/>
-      <c r="F25" s="383"/>
-      <c r="G25" s="383"/>
-      <c r="H25" s="383"/>
-      <c r="I25" s="383"/>
-      <c r="J25" s="383"/>
-      <c r="K25" s="383"/>
-      <c r="L25" s="383"/>
-      <c r="M25" s="383"/>
-      <c r="N25" s="383"/>
-      <c r="O25" s="383"/>
-      <c r="P25" s="383"/>
-      <c r="Q25" s="383"/>
-      <c r="R25" s="383"/>
-      <c r="S25" s="383"/>
-      <c r="T25" s="383"/>
-      <c r="U25" s="383"/>
-      <c r="V25" s="383"/>
+      <c r="C25" s="398"/>
+      <c r="D25" s="398"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="398"/>
+      <c r="G25" s="398"/>
+      <c r="H25" s="398"/>
+      <c r="I25" s="398"/>
+      <c r="J25" s="398"/>
+      <c r="K25" s="398"/>
+      <c r="L25" s="398"/>
+      <c r="M25" s="398"/>
+      <c r="N25" s="398"/>
+      <c r="O25" s="398"/>
+      <c r="P25" s="398"/>
+      <c r="Q25" s="398"/>
+      <c r="R25" s="398"/>
+      <c r="S25" s="398"/>
+      <c r="T25" s="398"/>
+      <c r="U25" s="398"/>
+      <c r="V25" s="398"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="384" t="s">
+      <c r="C26" s="399" t="s">
         <v>577</v>
       </c>
-      <c r="D26" s="384"/>
-      <c r="E26" s="384"/>
-      <c r="F26" s="384"/>
-      <c r="G26" s="384"/>
-      <c r="H26" s="384"/>
-      <c r="I26" s="384"/>
-      <c r="J26" s="384"/>
-      <c r="K26" s="384"/>
-      <c r="L26" s="384"/>
-      <c r="M26" s="384"/>
+      <c r="D26" s="399"/>
+      <c r="E26" s="399"/>
+      <c r="F26" s="399"/>
+      <c r="G26" s="399"/>
+      <c r="H26" s="399"/>
+      <c r="I26" s="399"/>
+      <c r="J26" s="399"/>
+      <c r="K26" s="399"/>
+      <c r="L26" s="399"/>
+      <c r="M26" s="399"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="356" t="s">
+      <c r="E27" s="357" t="s">
         <v>179</v>
       </c>
-      <c r="F27" s="306"/>
-      <c r="G27" s="306"/>
-      <c r="H27" s="322"/>
-      <c r="I27" s="322"/>
-      <c r="J27" s="322"/>
-      <c r="K27" s="322"/>
-      <c r="L27" s="322"/>
-      <c r="M27" s="323"/>
+      <c r="F27" s="307"/>
+      <c r="G27" s="307"/>
+      <c r="H27" s="323"/>
+      <c r="I27" s="323"/>
+      <c r="J27" s="323"/>
+      <c r="K27" s="323"/>
+      <c r="L27" s="323"/>
+      <c r="M27" s="324"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -16430,11 +16514,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="385" t="s">
+      <c r="O29" s="400" t="s">
         <v>180</v>
       </c>
-      <c r="P29" s="385"/>
-      <c r="Q29" s="385"/>
+      <c r="P29" s="400"/>
+      <c r="Q29" s="400"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -16479,21 +16563,21 @@
         <v>191</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="386" t="s">
+      <c r="E32" s="404" t="s">
         <v>1110</v>
       </c>
-      <c r="F32" s="387"/>
-      <c r="G32" s="388"/>
-      <c r="H32" s="386" t="s">
+      <c r="F32" s="405"/>
+      <c r="G32" s="406"/>
+      <c r="H32" s="404" t="s">
         <v>1111</v>
       </c>
-      <c r="I32" s="387"/>
-      <c r="J32" s="388"/>
-      <c r="K32" s="386" t="s">
+      <c r="I32" s="405"/>
+      <c r="J32" s="406"/>
+      <c r="K32" s="404" t="s">
         <v>1112</v>
       </c>
-      <c r="L32" s="387"/>
-      <c r="M32" s="388"/>
+      <c r="L32" s="405"/>
+      <c r="M32" s="406"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -16510,15 +16594,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="386"/>
-      <c r="F33" s="387"/>
-      <c r="G33" s="388"/>
-      <c r="H33" s="386"/>
-      <c r="I33" s="387"/>
-      <c r="J33" s="388"/>
-      <c r="K33" s="386"/>
-      <c r="L33" s="387"/>
-      <c r="M33" s="388"/>
+      <c r="E33" s="404"/>
+      <c r="F33" s="405"/>
+      <c r="G33" s="406"/>
+      <c r="H33" s="404"/>
+      <c r="I33" s="405"/>
+      <c r="J33" s="406"/>
+      <c r="K33" s="404"/>
+      <c r="L33" s="405"/>
+      <c r="M33" s="406"/>
       <c r="N33" s="5" t="s">
         <v>188</v>
       </c>
@@ -16535,15 +16619,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="386"/>
-      <c r="F34" s="387"/>
-      <c r="G34" s="388"/>
-      <c r="H34" s="386"/>
-      <c r="I34" s="387"/>
-      <c r="J34" s="388"/>
-      <c r="K34" s="386"/>
-      <c r="L34" s="387"/>
-      <c r="M34" s="388"/>
+      <c r="E34" s="404"/>
+      <c r="F34" s="405"/>
+      <c r="G34" s="406"/>
+      <c r="H34" s="404"/>
+      <c r="I34" s="405"/>
+      <c r="J34" s="406"/>
+      <c r="K34" s="404"/>
+      <c r="L34" s="405"/>
+      <c r="M34" s="406"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -16554,15 +16638,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="386"/>
-      <c r="F35" s="387"/>
-      <c r="G35" s="388"/>
-      <c r="H35" s="386"/>
-      <c r="I35" s="387"/>
-      <c r="J35" s="388"/>
-      <c r="K35" s="386"/>
-      <c r="L35" s="387"/>
-      <c r="M35" s="388"/>
+      <c r="E35" s="404"/>
+      <c r="F35" s="405"/>
+      <c r="G35" s="406"/>
+      <c r="H35" s="404"/>
+      <c r="I35" s="405"/>
+      <c r="J35" s="406"/>
+      <c r="K35" s="404"/>
+      <c r="L35" s="405"/>
+      <c r="M35" s="406"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -16693,15 +16777,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="376"/>
-      <c r="F42" s="377"/>
-      <c r="G42" s="377"/>
-      <c r="H42" s="377"/>
-      <c r="I42" s="377"/>
-      <c r="J42" s="377"/>
-      <c r="K42" s="377"/>
-      <c r="L42" s="377"/>
-      <c r="M42" s="378"/>
+      <c r="E42" s="408"/>
+      <c r="F42" s="409"/>
+      <c r="G42" s="409"/>
+      <c r="H42" s="409"/>
+      <c r="I42" s="409"/>
+      <c r="J42" s="409"/>
+      <c r="K42" s="409"/>
+      <c r="L42" s="409"/>
+      <c r="M42" s="410"/>
       <c r="N42" s="40" t="s">
         <v>582</v>
       </c>
@@ -16720,83 +16804,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="333" t="s">
+      <c r="C44" s="334" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="334"/>
-      <c r="E44" s="333" t="s">
+      <c r="D44" s="335"/>
+      <c r="E44" s="334" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="335"/>
-      <c r="G44" s="334"/>
-      <c r="H44" s="333" t="s">
+      <c r="F44" s="336"/>
+      <c r="G44" s="335"/>
+      <c r="H44" s="334" t="s">
         <v>197</v>
       </c>
-      <c r="I44" s="335"/>
-      <c r="J44" s="335"/>
-      <c r="K44" s="335"/>
-      <c r="L44" s="335"/>
-      <c r="M44" s="334"/>
+      <c r="I44" s="336"/>
+      <c r="J44" s="336"/>
+      <c r="K44" s="336"/>
+      <c r="L44" s="336"/>
+      <c r="M44" s="335"/>
       <c r="Q44" t="s">
         <v>1109</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="383" t="s">
+      <c r="B47" s="398" t="s">
         <v>1108</v>
       </c>
-      <c r="C47" s="383"/>
-      <c r="D47" s="383"/>
-      <c r="E47" s="383"/>
-      <c r="F47" s="383"/>
-      <c r="G47" s="383"/>
-      <c r="H47" s="383"/>
-      <c r="I47" s="383"/>
-      <c r="J47" s="383"/>
-      <c r="K47" s="383"/>
-      <c r="L47" s="383"/>
-      <c r="M47" s="383"/>
-      <c r="N47" s="383"/>
-      <c r="O47" s="383"/>
-      <c r="P47" s="383"/>
-      <c r="Q47" s="383"/>
-      <c r="R47" s="383"/>
-      <c r="S47" s="383"/>
-      <c r="T47" s="383"/>
-      <c r="U47" s="383"/>
-      <c r="V47" s="383"/>
+      <c r="C47" s="398"/>
+      <c r="D47" s="398"/>
+      <c r="E47" s="398"/>
+      <c r="F47" s="398"/>
+      <c r="G47" s="398"/>
+      <c r="H47" s="398"/>
+      <c r="I47" s="398"/>
+      <c r="J47" s="398"/>
+      <c r="K47" s="398"/>
+      <c r="L47" s="398"/>
+      <c r="M47" s="398"/>
+      <c r="N47" s="398"/>
+      <c r="O47" s="398"/>
+      <c r="P47" s="398"/>
+      <c r="Q47" s="398"/>
+      <c r="R47" s="398"/>
+      <c r="S47" s="398"/>
+      <c r="T47" s="398"/>
+      <c r="U47" s="398"/>
+      <c r="V47" s="398"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="384" t="s">
+      <c r="C48" s="399" t="s">
         <v>577</v>
       </c>
-      <c r="D48" s="384"/>
-      <c r="E48" s="384"/>
-      <c r="F48" s="384"/>
-      <c r="G48" s="384"/>
-      <c r="H48" s="384"/>
-      <c r="I48" s="384"/>
-      <c r="J48" s="384"/>
-      <c r="K48" s="384"/>
-      <c r="L48" s="384"/>
-      <c r="M48" s="384"/>
+      <c r="D48" s="399"/>
+      <c r="E48" s="399"/>
+      <c r="F48" s="399"/>
+      <c r="G48" s="399"/>
+      <c r="H48" s="399"/>
+      <c r="I48" s="399"/>
+      <c r="J48" s="399"/>
+      <c r="K48" s="399"/>
+      <c r="L48" s="399"/>
+      <c r="M48" s="399"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="356" t="s">
+      <c r="E49" s="357" t="s">
         <v>179</v>
       </c>
-      <c r="F49" s="306"/>
-      <c r="G49" s="306"/>
-      <c r="H49" s="322"/>
-      <c r="I49" s="322"/>
-      <c r="J49" s="322"/>
-      <c r="K49" s="322"/>
-      <c r="L49" s="322"/>
-      <c r="M49" s="323"/>
+      <c r="F49" s="307"/>
+      <c r="G49" s="307"/>
+      <c r="H49" s="323"/>
+      <c r="I49" s="323"/>
+      <c r="J49" s="323"/>
+      <c r="K49" s="323"/>
+      <c r="L49" s="323"/>
+      <c r="M49" s="324"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -16814,16 +16898,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="251"/>
-      <c r="H50" s="390" t="s">
+      <c r="H50" s="401" t="s">
         <v>1111</v>
       </c>
-      <c r="I50" s="391"/>
-      <c r="J50" s="392"/>
-      <c r="K50" s="390" t="s">
+      <c r="I50" s="402"/>
+      <c r="J50" s="403"/>
+      <c r="K50" s="401" t="s">
         <v>1112</v>
       </c>
-      <c r="L50" s="391"/>
-      <c r="M50" s="392"/>
+      <c r="L50" s="402"/>
+      <c r="M50" s="403"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -16837,20 +16921,20 @@
         <v>1126</v>
       </c>
       <c r="F51" s="292"/>
-      <c r="G51" s="393" t="s">
+      <c r="G51" s="407" t="s">
         <v>1134</v>
       </c>
-      <c r="H51" s="386"/>
-      <c r="I51" s="387"/>
-      <c r="J51" s="388"/>
-      <c r="K51" s="386"/>
-      <c r="L51" s="387"/>
-      <c r="M51" s="388"/>
-      <c r="O51" s="385" t="s">
+      <c r="H51" s="404"/>
+      <c r="I51" s="405"/>
+      <c r="J51" s="406"/>
+      <c r="K51" s="404"/>
+      <c r="L51" s="405"/>
+      <c r="M51" s="406"/>
+      <c r="O51" s="400" t="s">
         <v>180</v>
       </c>
-      <c r="P51" s="385"/>
-      <c r="Q51" s="385"/>
+      <c r="P51" s="400"/>
+      <c r="Q51" s="400"/>
       <c r="S51" s="279"/>
       <c r="T51" s="279"/>
       <c r="W51" s="40" t="s">
@@ -16864,13 +16948,13 @@
         <v>1127</v>
       </c>
       <c r="F52" s="293"/>
-      <c r="G52" s="393"/>
-      <c r="H52" s="386"/>
-      <c r="I52" s="387"/>
-      <c r="J52" s="388"/>
-      <c r="K52" s="386"/>
-      <c r="L52" s="387"/>
-      <c r="M52" s="388"/>
+      <c r="G52" s="407"/>
+      <c r="H52" s="404"/>
+      <c r="I52" s="405"/>
+      <c r="J52" s="406"/>
+      <c r="K52" s="404"/>
+      <c r="L52" s="405"/>
+      <c r="M52" s="406"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -16881,13 +16965,13 @@
         <v>1128</v>
       </c>
       <c r="F53" s="294"/>
-      <c r="G53" s="393"/>
-      <c r="H53" s="386"/>
-      <c r="I53" s="387"/>
-      <c r="J53" s="388"/>
-      <c r="K53" s="386"/>
-      <c r="L53" s="387"/>
-      <c r="M53" s="388"/>
+      <c r="G53" s="407"/>
+      <c r="H53" s="404"/>
+      <c r="I53" s="405"/>
+      <c r="J53" s="406"/>
+      <c r="K53" s="404"/>
+      <c r="L53" s="405"/>
+      <c r="M53" s="406"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>183</v>
@@ -16926,7 +17010,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="280"/>
       <c r="F54" s="295"/>
-      <c r="G54" s="381" t="s">
+      <c r="G54" s="413" t="s">
         <v>1138</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -16973,11 +17057,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="379" t="s">
+      <c r="E55" s="411" t="s">
         <v>1139</v>
       </c>
-      <c r="F55" s="380"/>
-      <c r="G55" s="382"/>
+      <c r="F55" s="412"/>
+      <c r="G55" s="414"/>
       <c r="H55" s="141" t="s">
         <v>1130</v>
       </c>
@@ -17021,9 +17105,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="379"/>
-      <c r="F56" s="380"/>
-      <c r="G56" s="382"/>
+      <c r="E56" s="411"/>
+      <c r="F56" s="412"/>
+      <c r="G56" s="414"/>
       <c r="H56" s="141" t="s">
         <v>1131</v>
       </c>
@@ -17053,9 +17137,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="379"/>
-      <c r="F57" s="380"/>
-      <c r="G57" s="382"/>
+      <c r="E57" s="411"/>
+      <c r="F57" s="412"/>
+      <c r="G57" s="414"/>
       <c r="H57" s="4" t="s">
         <v>1143</v>
       </c>
@@ -17085,9 +17169,9 @@
         <v>193</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="379"/>
-      <c r="F58" s="380"/>
-      <c r="G58" s="382"/>
+      <c r="E58" s="411"/>
+      <c r="F58" s="412"/>
+      <c r="G58" s="414"/>
       <c r="H58" s="284" t="s">
         <v>1129</v>
       </c>
@@ -17112,9 +17196,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="379"/>
-      <c r="F59" s="380"/>
-      <c r="G59" s="382"/>
+      <c r="E59" s="411"/>
+      <c r="F59" s="412"/>
+      <c r="G59" s="414"/>
       <c r="H59" s="284" t="s">
         <v>552</v>
       </c>
@@ -17139,9 +17223,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="379"/>
-      <c r="F60" s="380"/>
-      <c r="G60" s="382"/>
+      <c r="E60" s="411"/>
+      <c r="F60" s="412"/>
+      <c r="G60" s="414"/>
       <c r="H60" s="286"/>
       <c r="I60" s="287" t="s">
         <v>1145</v>
@@ -17161,9 +17245,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="379"/>
-      <c r="F61" s="380"/>
-      <c r="G61" s="382"/>
+      <c r="E61" s="411"/>
+      <c r="F61" s="412"/>
+      <c r="G61" s="414"/>
       <c r="H61" s="286"/>
       <c r="I61" s="287" t="s">
         <v>1146</v>
@@ -17183,7 +17267,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="275"/>
       <c r="F62" s="291"/>
-      <c r="G62" s="382"/>
+      <c r="G62" s="414"/>
       <c r="H62" s="288"/>
       <c r="I62" s="290" t="s">
         <v>1147</v>
@@ -17225,15 +17309,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="376"/>
-      <c r="F64" s="377"/>
-      <c r="G64" s="377"/>
-      <c r="H64" s="377"/>
-      <c r="I64" s="377"/>
-      <c r="J64" s="377"/>
-      <c r="K64" s="377"/>
-      <c r="L64" s="377"/>
-      <c r="M64" s="378"/>
+      <c r="E64" s="408"/>
+      <c r="F64" s="409"/>
+      <c r="G64" s="409"/>
+      <c r="H64" s="409"/>
+      <c r="I64" s="409"/>
+      <c r="J64" s="409"/>
+      <c r="K64" s="409"/>
+      <c r="L64" s="409"/>
+      <c r="M64" s="410"/>
       <c r="N64" s="40" t="s">
         <v>582</v>
       </c>
@@ -17262,23 +17346,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="333" t="s">
+      <c r="C66" s="334" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="334"/>
-      <c r="E66" s="333" t="s">
+      <c r="D66" s="335"/>
+      <c r="E66" s="334" t="s">
         <v>196</v>
       </c>
-      <c r="F66" s="335"/>
-      <c r="G66" s="334"/>
-      <c r="H66" s="333" t="s">
+      <c r="F66" s="336"/>
+      <c r="G66" s="335"/>
+      <c r="H66" s="334" t="s">
         <v>197</v>
       </c>
-      <c r="I66" s="335"/>
-      <c r="J66" s="335"/>
-      <c r="K66" s="335"/>
-      <c r="L66" s="335"/>
-      <c r="M66" s="334"/>
+      <c r="I66" s="336"/>
+      <c r="J66" s="336"/>
+      <c r="K66" s="336"/>
+      <c r="L66" s="336"/>
+      <c r="M66" s="335"/>
       <c r="Q66" t="s">
         <v>1109</v>
       </c>
@@ -17627,21 +17711,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="G6:G20"/>
-    <mergeCell ref="H7:H20"/>
-    <mergeCell ref="I7:J20"/>
-    <mergeCell ref="K7:L20"/>
-    <mergeCell ref="M7:N20"/>
-    <mergeCell ref="O7:P20"/>
-    <mergeCell ref="B47:V47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="E49:M49"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
     <mergeCell ref="E42:M42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:G44"/>
@@ -17658,12 +17733,21 @@
     <mergeCell ref="H22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="B47:V47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="E49:M49"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="G6:G20"/>
+    <mergeCell ref="H7:H20"/>
+    <mergeCell ref="I7:J20"/>
+    <mergeCell ref="K7:L20"/>
+    <mergeCell ref="M7:N20"/>
+    <mergeCell ref="O7:P20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -17697,12 +17781,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="414" t="s">
+      <c r="B1" s="415" t="s">
         <v>541</v>
       </c>
-      <c r="C1" s="414"/>
-      <c r="D1" s="414"/>
-      <c r="E1" s="414"/>
+      <c r="C1" s="415"/>
+      <c r="D1" s="415"/>
+      <c r="E1" s="415"/>
       <c r="I1" s="40" t="s">
         <v>554</v>
       </c>
@@ -17812,10 +17896,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="360"/>
-      <c r="C8" s="360"/>
-      <c r="D8" s="360"/>
-      <c r="E8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="361"/>
+      <c r="D8" s="361"/>
+      <c r="E8" s="361"/>
       <c r="J8" t="s">
         <v>557</v>
       </c>
@@ -17950,32 +18034,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C2" s="384" t="s">
+      <c r="C2" s="399" t="s">
         <v>577</v>
       </c>
-      <c r="D2" s="384"/>
-      <c r="E2" s="384"/>
-      <c r="F2" s="384"/>
-      <c r="G2" s="384"/>
-      <c r="H2" s="384"/>
-      <c r="I2" s="384"/>
-      <c r="J2" s="384"/>
-      <c r="K2" s="384"/>
-      <c r="L2" s="384"/>
+      <c r="D2" s="399"/>
+      <c r="E2" s="399"/>
+      <c r="F2" s="399"/>
+      <c r="G2" s="399"/>
+      <c r="H2" s="399"/>
+      <c r="I2" s="399"/>
+      <c r="J2" s="399"/>
+      <c r="K2" s="399"/>
+      <c r="L2" s="399"/>
     </row>
     <row r="3" spans="3:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="356" t="s">
+      <c r="E3" s="357" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="306"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="323"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="323"/>
+      <c r="H3" s="323"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="324"/>
     </row>
     <row r="4" spans="3:16">
       <c r="C4" s="4" t="s">
@@ -18004,11 +18088,11 @@
         <v>596</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="385" t="s">
+      <c r="N5" s="400" t="s">
         <v>180</v>
       </c>
-      <c r="O5" s="385"/>
-      <c r="P5" s="385"/>
+      <c r="O5" s="400"/>
+      <c r="P5" s="400"/>
     </row>
     <row r="6" spans="3:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -18059,20 +18143,20 @@
         <v>191</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="386" t="s">
+      <c r="E8" s="404" t="s">
         <v>578</v>
       </c>
-      <c r="F8" s="388"/>
-      <c r="G8" s="386" t="s">
+      <c r="F8" s="406"/>
+      <c r="G8" s="404" t="s">
         <v>579</v>
       </c>
-      <c r="H8" s="387"/>
-      <c r="I8" s="388"/>
-      <c r="J8" s="386" t="s">
+      <c r="H8" s="405"/>
+      <c r="I8" s="406"/>
+      <c r="J8" s="404" t="s">
         <v>580</v>
       </c>
-      <c r="K8" s="387"/>
-      <c r="L8" s="388"/>
+      <c r="K8" s="405"/>
+      <c r="L8" s="406"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -18089,14 +18173,14 @@
     <row r="9" spans="3:16" ht="15" customHeight="1">
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="388"/>
-      <c r="G9" s="386"/>
-      <c r="H9" s="387"/>
-      <c r="I9" s="388"/>
-      <c r="J9" s="386"/>
-      <c r="K9" s="387"/>
-      <c r="L9" s="388"/>
+      <c r="E9" s="404"/>
+      <c r="F9" s="406"/>
+      <c r="G9" s="404"/>
+      <c r="H9" s="405"/>
+      <c r="I9" s="406"/>
+      <c r="J9" s="404"/>
+      <c r="K9" s="405"/>
+      <c r="L9" s="406"/>
       <c r="M9" s="5" t="s">
         <v>188</v>
       </c>
@@ -18113,14 +18197,14 @@
     <row r="10" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="388"/>
-      <c r="G10" s="386"/>
-      <c r="H10" s="387"/>
-      <c r="I10" s="388"/>
-      <c r="J10" s="386"/>
-      <c r="K10" s="387"/>
-      <c r="L10" s="388"/>
+      <c r="E10" s="404"/>
+      <c r="F10" s="406"/>
+      <c r="G10" s="404"/>
+      <c r="H10" s="405"/>
+      <c r="I10" s="406"/>
+      <c r="J10" s="404"/>
+      <c r="K10" s="405"/>
+      <c r="L10" s="406"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -18131,14 +18215,14 @@
     <row r="11" spans="3:16" ht="15" customHeight="1">
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="386"/>
-      <c r="F11" s="388"/>
-      <c r="G11" s="386"/>
-      <c r="H11" s="387"/>
-      <c r="I11" s="388"/>
-      <c r="J11" s="386"/>
-      <c r="K11" s="387"/>
-      <c r="L11" s="388"/>
+      <c r="E11" s="404"/>
+      <c r="F11" s="406"/>
+      <c r="G11" s="404"/>
+      <c r="H11" s="405"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="404"/>
+      <c r="K11" s="405"/>
+      <c r="L11" s="406"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -18235,16 +18319,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="376" t="s">
+      <c r="E17" s="408" t="s">
         <v>581</v>
       </c>
-      <c r="F17" s="377"/>
-      <c r="G17" s="377"/>
-      <c r="H17" s="377"/>
-      <c r="I17" s="377"/>
-      <c r="J17" s="377"/>
-      <c r="K17" s="377"/>
-      <c r="L17" s="378"/>
+      <c r="F17" s="409"/>
+      <c r="G17" s="409"/>
+      <c r="H17" s="409"/>
+      <c r="I17" s="409"/>
+      <c r="J17" s="409"/>
+      <c r="K17" s="409"/>
+      <c r="L17" s="410"/>
       <c r="M17" s="40" t="s">
         <v>582</v>
       </c>
@@ -18262,35 +18346,35 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="333" t="s">
+      <c r="C19" s="334" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="334"/>
-      <c r="E19" s="333" t="s">
+      <c r="D19" s="335"/>
+      <c r="E19" s="334" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="334"/>
-      <c r="G19" s="333" t="s">
+      <c r="F19" s="335"/>
+      <c r="G19" s="334" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="335"/>
-      <c r="I19" s="335"/>
-      <c r="J19" s="335"/>
-      <c r="K19" s="335"/>
-      <c r="L19" s="334"/>
+      <c r="H19" s="336"/>
+      <c r="I19" s="336"/>
+      <c r="J19" s="336"/>
+      <c r="K19" s="336"/>
+      <c r="L19" s="335"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="E8:F11"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="J8:L11"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E3:L3"/>
     <mergeCell ref="G19:L19"/>
     <mergeCell ref="E17:L17"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="E8:F11"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="J8:L11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P8" r:id="rId1"/>
@@ -18731,22 +18815,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="389" t="s">
+      <c r="E3" s="377" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389" t="s">
+      <c r="F3" s="377"/>
+      <c r="G3" s="377" t="s">
         <v>522</v>
       </c>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389" t="s">
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="377"/>
+      <c r="L3" s="377"/>
+      <c r="M3" s="377" t="s">
         <v>523</v>
       </c>
-      <c r="N3" s="389"/>
+      <c r="N3" s="377"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -18757,7 +18841,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="394" t="s">
+      <c r="E4" s="378" t="s">
         <v>524</v>
       </c>
       <c r="F4" s="131"/>
@@ -18785,22 +18869,22 @@
         <v>182</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="395"/>
-      <c r="F5" s="338" t="s">
+      <c r="E5" s="379"/>
+      <c r="F5" s="339" t="s">
         <v>624</v>
       </c>
-      <c r="G5" s="339"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="415" t="s">
+      <c r="G5" s="340"/>
+      <c r="H5" s="341"/>
+      <c r="I5" s="445" t="s">
         <v>625</v>
       </c>
-      <c r="J5" s="416"/>
-      <c r="K5" s="416"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="415" t="s">
+      <c r="J5" s="446"/>
+      <c r="K5" s="446"/>
+      <c r="L5" s="387"/>
+      <c r="M5" s="445" t="s">
         <v>626</v>
       </c>
-      <c r="N5" s="403"/>
+      <c r="N5" s="387"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -18811,16 +18895,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="395"/>
-      <c r="F6" s="341"/>
-      <c r="G6" s="342"/>
-      <c r="H6" s="343"/>
-      <c r="I6" s="404"/>
-      <c r="J6" s="417"/>
-      <c r="K6" s="417"/>
-      <c r="L6" s="405"/>
-      <c r="M6" s="404"/>
-      <c r="N6" s="405"/>
+      <c r="E6" s="379"/>
+      <c r="F6" s="342"/>
+      <c r="G6" s="343"/>
+      <c r="H6" s="344"/>
+      <c r="I6" s="388"/>
+      <c r="J6" s="447"/>
+      <c r="K6" s="447"/>
+      <c r="L6" s="389"/>
+      <c r="M6" s="388"/>
+      <c r="N6" s="389"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>183</v>
@@ -18837,16 +18921,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="395"/>
-      <c r="F7" s="341"/>
-      <c r="G7" s="342"/>
-      <c r="H7" s="343"/>
-      <c r="I7" s="404"/>
-      <c r="J7" s="417"/>
-      <c r="K7" s="417"/>
-      <c r="L7" s="405"/>
-      <c r="M7" s="404"/>
-      <c r="N7" s="405"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="342"/>
+      <c r="G7" s="343"/>
+      <c r="H7" s="344"/>
+      <c r="I7" s="388"/>
+      <c r="J7" s="447"/>
+      <c r="K7" s="447"/>
+      <c r="L7" s="389"/>
+      <c r="M7" s="388"/>
+      <c r="N7" s="389"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -18865,16 +18949,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="395"/>
-      <c r="F8" s="341"/>
-      <c r="G8" s="342"/>
-      <c r="H8" s="343"/>
-      <c r="I8" s="404"/>
-      <c r="J8" s="417"/>
-      <c r="K8" s="417"/>
-      <c r="L8" s="405"/>
-      <c r="M8" s="404"/>
-      <c r="N8" s="405"/>
+      <c r="E8" s="379"/>
+      <c r="F8" s="342"/>
+      <c r="G8" s="343"/>
+      <c r="H8" s="344"/>
+      <c r="I8" s="388"/>
+      <c r="J8" s="447"/>
+      <c r="K8" s="447"/>
+      <c r="L8" s="389"/>
+      <c r="M8" s="388"/>
+      <c r="N8" s="389"/>
       <c r="O8" s="5" t="s">
         <v>188</v>
       </c>
@@ -18895,16 +18979,16 @@
         <v>191</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="395"/>
-      <c r="F9" s="341"/>
-      <c r="G9" s="342"/>
-      <c r="H9" s="343"/>
-      <c r="I9" s="404"/>
-      <c r="J9" s="417"/>
-      <c r="K9" s="417"/>
-      <c r="L9" s="405"/>
-      <c r="M9" s="404"/>
-      <c r="N9" s="405"/>
+      <c r="E9" s="379"/>
+      <c r="F9" s="342"/>
+      <c r="G9" s="343"/>
+      <c r="H9" s="344"/>
+      <c r="I9" s="388"/>
+      <c r="J9" s="447"/>
+      <c r="K9" s="447"/>
+      <c r="L9" s="389"/>
+      <c r="M9" s="388"/>
+      <c r="N9" s="389"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -18921,16 +19005,16 @@
         <v>540</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="395"/>
-      <c r="F10" s="341"/>
-      <c r="G10" s="342"/>
-      <c r="H10" s="343"/>
-      <c r="I10" s="404"/>
-      <c r="J10" s="417"/>
-      <c r="K10" s="417"/>
-      <c r="L10" s="405"/>
-      <c r="M10" s="404"/>
-      <c r="N10" s="405"/>
+      <c r="E10" s="379"/>
+      <c r="F10" s="342"/>
+      <c r="G10" s="343"/>
+      <c r="H10" s="344"/>
+      <c r="I10" s="388"/>
+      <c r="J10" s="447"/>
+      <c r="K10" s="447"/>
+      <c r="L10" s="389"/>
+      <c r="M10" s="388"/>
+      <c r="N10" s="389"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -18943,16 +19027,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="395"/>
-      <c r="F11" s="341"/>
-      <c r="G11" s="342"/>
-      <c r="H11" s="343"/>
-      <c r="I11" s="404"/>
-      <c r="J11" s="417"/>
-      <c r="K11" s="417"/>
-      <c r="L11" s="405"/>
-      <c r="M11" s="404"/>
-      <c r="N11" s="405"/>
+      <c r="E11" s="379"/>
+      <c r="F11" s="342"/>
+      <c r="G11" s="343"/>
+      <c r="H11" s="344"/>
+      <c r="I11" s="388"/>
+      <c r="J11" s="447"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="389"/>
+      <c r="M11" s="388"/>
+      <c r="N11" s="389"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -18963,16 +19047,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="395"/>
-      <c r="F12" s="341"/>
-      <c r="G12" s="342"/>
-      <c r="H12" s="343"/>
-      <c r="I12" s="404"/>
-      <c r="J12" s="417"/>
-      <c r="K12" s="417"/>
-      <c r="L12" s="405"/>
-      <c r="M12" s="404"/>
-      <c r="N12" s="405"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="342"/>
+      <c r="G12" s="343"/>
+      <c r="H12" s="344"/>
+      <c r="I12" s="388"/>
+      <c r="J12" s="447"/>
+      <c r="K12" s="447"/>
+      <c r="L12" s="389"/>
+      <c r="M12" s="388"/>
+      <c r="N12" s="389"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -18985,16 +19069,16 @@
         <v>193</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="395"/>
-      <c r="F13" s="341"/>
-      <c r="G13" s="342"/>
-      <c r="H13" s="343"/>
-      <c r="I13" s="404"/>
-      <c r="J13" s="417"/>
-      <c r="K13" s="417"/>
-      <c r="L13" s="405"/>
-      <c r="M13" s="404"/>
-      <c r="N13" s="405"/>
+      <c r="E13" s="379"/>
+      <c r="F13" s="342"/>
+      <c r="G13" s="343"/>
+      <c r="H13" s="344"/>
+      <c r="I13" s="388"/>
+      <c r="J13" s="447"/>
+      <c r="K13" s="447"/>
+      <c r="L13" s="389"/>
+      <c r="M13" s="388"/>
+      <c r="N13" s="389"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -19005,16 +19089,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="395"/>
-      <c r="F14" s="341"/>
-      <c r="G14" s="342"/>
-      <c r="H14" s="343"/>
-      <c r="I14" s="404"/>
-      <c r="J14" s="417"/>
-      <c r="K14" s="417"/>
-      <c r="L14" s="405"/>
-      <c r="M14" s="404"/>
-      <c r="N14" s="405"/>
+      <c r="E14" s="379"/>
+      <c r="F14" s="342"/>
+      <c r="G14" s="343"/>
+      <c r="H14" s="344"/>
+      <c r="I14" s="388"/>
+      <c r="J14" s="447"/>
+      <c r="K14" s="447"/>
+      <c r="L14" s="389"/>
+      <c r="M14" s="388"/>
+      <c r="N14" s="389"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -19025,16 +19109,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="395"/>
-      <c r="F15" s="341"/>
-      <c r="G15" s="342"/>
-      <c r="H15" s="343"/>
-      <c r="I15" s="404"/>
-      <c r="J15" s="417"/>
-      <c r="K15" s="417"/>
-      <c r="L15" s="405"/>
-      <c r="M15" s="404"/>
-      <c r="N15" s="405"/>
+      <c r="E15" s="379"/>
+      <c r="F15" s="342"/>
+      <c r="G15" s="343"/>
+      <c r="H15" s="344"/>
+      <c r="I15" s="388"/>
+      <c r="J15" s="447"/>
+      <c r="K15" s="447"/>
+      <c r="L15" s="389"/>
+      <c r="M15" s="388"/>
+      <c r="N15" s="389"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -19045,16 +19129,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="395"/>
-      <c r="F16" s="341"/>
-      <c r="G16" s="342"/>
-      <c r="H16" s="343"/>
-      <c r="I16" s="404"/>
-      <c r="J16" s="417"/>
-      <c r="K16" s="417"/>
-      <c r="L16" s="405"/>
-      <c r="M16" s="404"/>
-      <c r="N16" s="405"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="342"/>
+      <c r="G16" s="343"/>
+      <c r="H16" s="344"/>
+      <c r="I16" s="388"/>
+      <c r="J16" s="447"/>
+      <c r="K16" s="447"/>
+      <c r="L16" s="389"/>
+      <c r="M16" s="388"/>
+      <c r="N16" s="389"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -19067,16 +19151,16 @@
         <v>194</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="395"/>
-      <c r="F17" s="341"/>
-      <c r="G17" s="342"/>
-      <c r="H17" s="343"/>
-      <c r="I17" s="404"/>
-      <c r="J17" s="417"/>
-      <c r="K17" s="417"/>
-      <c r="L17" s="405"/>
-      <c r="M17" s="404"/>
-      <c r="N17" s="405"/>
+      <c r="E17" s="379"/>
+      <c r="F17" s="342"/>
+      <c r="G17" s="343"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="388"/>
+      <c r="J17" s="447"/>
+      <c r="K17" s="447"/>
+      <c r="L17" s="389"/>
+      <c r="M17" s="388"/>
+      <c r="N17" s="389"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -19087,16 +19171,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="396"/>
-      <c r="F18" s="344"/>
-      <c r="G18" s="345"/>
-      <c r="H18" s="346"/>
-      <c r="I18" s="406"/>
-      <c r="J18" s="418"/>
-      <c r="K18" s="418"/>
-      <c r="L18" s="407"/>
-      <c r="M18" s="406"/>
-      <c r="N18" s="407"/>
+      <c r="E18" s="380"/>
+      <c r="F18" s="345"/>
+      <c r="G18" s="346"/>
+      <c r="H18" s="347"/>
+      <c r="I18" s="390"/>
+      <c r="J18" s="448"/>
+      <c r="K18" s="448"/>
+      <c r="L18" s="391"/>
+      <c r="M18" s="390"/>
+      <c r="N18" s="391"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -19125,26 +19209,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="333" t="s">
+      <c r="C20" s="334" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="334"/>
+      <c r="D20" s="335"/>
       <c r="E20" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="333" t="s">
+      <c r="F20" s="334" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="335"/>
-      <c r="H20" s="335"/>
-      <c r="I20" s="335"/>
-      <c r="J20" s="335"/>
-      <c r="K20" s="335"/>
-      <c r="L20" s="334"/>
-      <c r="M20" s="333" t="s">
+      <c r="G20" s="336"/>
+      <c r="H20" s="336"/>
+      <c r="I20" s="336"/>
+      <c r="J20" s="336"/>
+      <c r="K20" s="336"/>
+      <c r="L20" s="335"/>
+      <c r="M20" s="334" t="s">
         <v>531</v>
       </c>
-      <c r="N20" s="334"/>
+      <c r="N20" s="335"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -19172,39 +19256,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="385" t="s">
+      <c r="B24" s="400" t="s">
         <v>577</v>
       </c>
-      <c r="C24" s="385"/>
-      <c r="D24" s="384"/>
-      <c r="E24" s="384"/>
-      <c r="F24" s="384"/>
-      <c r="G24" s="384"/>
-      <c r="H24" s="384"/>
-      <c r="I24" s="384"/>
-      <c r="J24" s="384"/>
-      <c r="K24" s="384"/>
-      <c r="M24" s="436" t="s">
+      <c r="C24" s="400"/>
+      <c r="D24" s="399"/>
+      <c r="E24" s="399"/>
+      <c r="F24" s="399"/>
+      <c r="G24" s="399"/>
+      <c r="H24" s="399"/>
+      <c r="I24" s="399"/>
+      <c r="J24" s="399"/>
+      <c r="K24" s="399"/>
+      <c r="M24" s="416" t="s">
         <v>180</v>
       </c>
-      <c r="N24" s="436"/>
-      <c r="O24" s="436"/>
+      <c r="N24" s="416"/>
+      <c r="O24" s="416"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="437" t="s">
+      <c r="B25" s="417" t="s">
         <v>943</v>
       </c>
       <c r="C25" s="365"/>
-      <c r="D25" s="322" t="s">
+      <c r="D25" s="323" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="322"/>
-      <c r="F25" s="322"/>
-      <c r="G25" s="322"/>
-      <c r="H25" s="322"/>
-      <c r="I25" s="322"/>
-      <c r="J25" s="322"/>
-      <c r="K25" s="323"/>
+      <c r="E25" s="323"/>
+      <c r="F25" s="323"/>
+      <c r="G25" s="323"/>
+      <c r="H25" s="323"/>
+      <c r="I25" s="323"/>
+      <c r="J25" s="323"/>
+      <c r="K25" s="324"/>
       <c r="M25" s="38" t="s">
         <v>183</v>
       </c>
@@ -19222,16 +19306,16 @@
         <v>936</v>
       </c>
       <c r="E26" s="365"/>
-      <c r="F26" s="431" t="s">
+      <c r="F26" s="443" t="s">
         <v>936</v>
       </c>
-      <c r="G26" s="322"/>
-      <c r="H26" s="323"/>
-      <c r="I26" s="321" t="s">
+      <c r="G26" s="323"/>
+      <c r="H26" s="324"/>
+      <c r="I26" s="322" t="s">
         <v>940</v>
       </c>
-      <c r="J26" s="322"/>
-      <c r="K26" s="323"/>
+      <c r="J26" s="323"/>
+      <c r="K26" s="324"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -19248,20 +19332,20 @@
     <row r="27" spans="2:19">
       <c r="B27" s="366"/>
       <c r="C27" s="367"/>
-      <c r="D27" s="360" t="s">
+      <c r="D27" s="361" t="s">
         <v>941</v>
       </c>
       <c r="E27" s="367"/>
       <c r="F27" s="366" t="s">
         <v>937</v>
       </c>
-      <c r="G27" s="360"/>
-      <c r="H27" s="320"/>
-      <c r="I27" s="435" t="s">
+      <c r="G27" s="361"/>
+      <c r="H27" s="321"/>
+      <c r="I27" s="427" t="s">
         <v>941</v>
       </c>
-      <c r="J27" s="360"/>
-      <c r="K27" s="320"/>
+      <c r="J27" s="361"/>
+      <c r="K27" s="321"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -19278,20 +19362,20 @@
     <row r="28" spans="2:19">
       <c r="B28" s="366"/>
       <c r="C28" s="367"/>
-      <c r="D28" s="360" t="s">
+      <c r="D28" s="361" t="s">
         <v>938</v>
       </c>
       <c r="E28" s="367"/>
       <c r="F28" s="366" t="s">
         <v>938</v>
       </c>
-      <c r="G28" s="360"/>
-      <c r="H28" s="320"/>
-      <c r="I28" s="435" t="s">
+      <c r="G28" s="361"/>
+      <c r="H28" s="321"/>
+      <c r="I28" s="427" t="s">
         <v>938</v>
       </c>
-      <c r="J28" s="360"/>
-      <c r="K28" s="320"/>
+      <c r="J28" s="361"/>
+      <c r="K28" s="321"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -19302,20 +19386,20 @@
     <row r="29" spans="2:19">
       <c r="B29" s="368"/>
       <c r="C29" s="369"/>
-      <c r="D29" s="360" t="s">
+      <c r="D29" s="361" t="s">
         <v>939</v>
       </c>
       <c r="E29" s="367"/>
-      <c r="F29" s="432" t="s">
+      <c r="F29" s="444" t="s">
         <v>939</v>
       </c>
-      <c r="G29" s="433"/>
-      <c r="H29" s="434"/>
-      <c r="I29" s="447" t="s">
+      <c r="G29" s="429"/>
+      <c r="H29" s="430"/>
+      <c r="I29" s="428" t="s">
         <v>939</v>
       </c>
-      <c r="J29" s="433"/>
-      <c r="K29" s="434"/>
+      <c r="J29" s="429"/>
+      <c r="K29" s="430"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -19324,149 +19408,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="324" t="s">
+      <c r="B30" s="325" t="s">
         <v>942</v>
       </c>
-      <c r="C30" s="326"/>
-      <c r="D30" s="419" t="s">
+      <c r="C30" s="327"/>
+      <c r="D30" s="431" t="s">
         <v>578</v>
       </c>
-      <c r="E30" s="420"/>
-      <c r="F30" s="424" t="s">
+      <c r="E30" s="432"/>
+      <c r="F30" s="436" t="s">
         <v>579</v>
       </c>
-      <c r="G30" s="425"/>
-      <c r="H30" s="420"/>
-      <c r="I30" s="424" t="s">
+      <c r="G30" s="437"/>
+      <c r="H30" s="432"/>
+      <c r="I30" s="436" t="s">
         <v>580</v>
       </c>
-      <c r="J30" s="425"/>
-      <c r="K30" s="428"/>
+      <c r="J30" s="437"/>
+      <c r="K30" s="440"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="328"/>
-      <c r="C31" s="329"/>
-      <c r="D31" s="421"/>
-      <c r="E31" s="388"/>
-      <c r="F31" s="386"/>
-      <c r="G31" s="387"/>
-      <c r="H31" s="388"/>
-      <c r="I31" s="386"/>
-      <c r="J31" s="387"/>
-      <c r="K31" s="429"/>
+      <c r="B31" s="329"/>
+      <c r="C31" s="330"/>
+      <c r="D31" s="433"/>
+      <c r="E31" s="406"/>
+      <c r="F31" s="404"/>
+      <c r="G31" s="405"/>
+      <c r="H31" s="406"/>
+      <c r="I31" s="404"/>
+      <c r="J31" s="405"/>
+      <c r="K31" s="441"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="328"/>
-      <c r="C32" s="329"/>
-      <c r="D32" s="421"/>
-      <c r="E32" s="388"/>
-      <c r="F32" s="386"/>
-      <c r="G32" s="387"/>
-      <c r="H32" s="388"/>
-      <c r="I32" s="386"/>
-      <c r="J32" s="387"/>
-      <c r="K32" s="429"/>
+      <c r="B32" s="329"/>
+      <c r="C32" s="330"/>
+      <c r="D32" s="433"/>
+      <c r="E32" s="406"/>
+      <c r="F32" s="404"/>
+      <c r="G32" s="405"/>
+      <c r="H32" s="406"/>
+      <c r="I32" s="404"/>
+      <c r="J32" s="405"/>
+      <c r="K32" s="441"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="328"/>
-      <c r="C33" s="329"/>
-      <c r="D33" s="422"/>
-      <c r="E33" s="423"/>
-      <c r="F33" s="426"/>
-      <c r="G33" s="427"/>
-      <c r="H33" s="423"/>
-      <c r="I33" s="426"/>
-      <c r="J33" s="427"/>
-      <c r="K33" s="430"/>
+      <c r="B33" s="329"/>
+      <c r="C33" s="330"/>
+      <c r="D33" s="434"/>
+      <c r="E33" s="435"/>
+      <c r="F33" s="438"/>
+      <c r="G33" s="439"/>
+      <c r="H33" s="435"/>
+      <c r="I33" s="438"/>
+      <c r="J33" s="439"/>
+      <c r="K33" s="442"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="328"/>
-      <c r="C34" s="315"/>
-      <c r="D34" s="438" t="s">
+      <c r="B34" s="329"/>
+      <c r="C34" s="316"/>
+      <c r="D34" s="418" t="s">
         <v>929</v>
       </c>
-      <c r="E34" s="439"/>
-      <c r="F34" s="438" t="s">
+      <c r="E34" s="419"/>
+      <c r="F34" s="418" t="s">
         <v>600</v>
       </c>
-      <c r="G34" s="444"/>
-      <c r="H34" s="439"/>
-      <c r="I34" s="438" t="s">
+      <c r="G34" s="424"/>
+      <c r="H34" s="419"/>
+      <c r="I34" s="418" t="s">
         <v>944</v>
       </c>
-      <c r="J34" s="444"/>
-      <c r="K34" s="439"/>
+      <c r="J34" s="424"/>
+      <c r="K34" s="419"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="328"/>
-      <c r="C35" s="315"/>
-      <c r="D35" s="440"/>
-      <c r="E35" s="441"/>
-      <c r="F35" s="440"/>
-      <c r="G35" s="445"/>
-      <c r="H35" s="441"/>
-      <c r="I35" s="440"/>
-      <c r="J35" s="445"/>
-      <c r="K35" s="441"/>
+      <c r="B35" s="329"/>
+      <c r="C35" s="316"/>
+      <c r="D35" s="420"/>
+      <c r="E35" s="421"/>
+      <c r="F35" s="420"/>
+      <c r="G35" s="425"/>
+      <c r="H35" s="421"/>
+      <c r="I35" s="420"/>
+      <c r="J35" s="425"/>
+      <c r="K35" s="421"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="328"/>
-      <c r="C36" s="315"/>
-      <c r="D36" s="440"/>
-      <c r="E36" s="441"/>
-      <c r="F36" s="440"/>
-      <c r="G36" s="445"/>
-      <c r="H36" s="441"/>
-      <c r="I36" s="440"/>
-      <c r="J36" s="445"/>
-      <c r="K36" s="441"/>
+      <c r="B36" s="329"/>
+      <c r="C36" s="316"/>
+      <c r="D36" s="420"/>
+      <c r="E36" s="421"/>
+      <c r="F36" s="420"/>
+      <c r="G36" s="425"/>
+      <c r="H36" s="421"/>
+      <c r="I36" s="420"/>
+      <c r="J36" s="425"/>
+      <c r="K36" s="421"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="328"/>
-      <c r="C37" s="315"/>
-      <c r="D37" s="440"/>
-      <c r="E37" s="441"/>
-      <c r="F37" s="440"/>
-      <c r="G37" s="445"/>
-      <c r="H37" s="441"/>
-      <c r="I37" s="440"/>
-      <c r="J37" s="445"/>
-      <c r="K37" s="441"/>
+      <c r="B37" s="329"/>
+      <c r="C37" s="316"/>
+      <c r="D37" s="420"/>
+      <c r="E37" s="421"/>
+      <c r="F37" s="420"/>
+      <c r="G37" s="425"/>
+      <c r="H37" s="421"/>
+      <c r="I37" s="420"/>
+      <c r="J37" s="425"/>
+      <c r="K37" s="421"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="328"/>
-      <c r="C38" s="315"/>
-      <c r="D38" s="442"/>
-      <c r="E38" s="443"/>
-      <c r="F38" s="442"/>
-      <c r="G38" s="446"/>
-      <c r="H38" s="443"/>
-      <c r="I38" s="442"/>
-      <c r="J38" s="446"/>
-      <c r="K38" s="443"/>
+      <c r="B38" s="329"/>
+      <c r="C38" s="316"/>
+      <c r="D38" s="422"/>
+      <c r="E38" s="423"/>
+      <c r="F38" s="422"/>
+      <c r="G38" s="426"/>
+      <c r="H38" s="423"/>
+      <c r="I38" s="422"/>
+      <c r="J38" s="426"/>
+      <c r="K38" s="423"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="330"/>
-      <c r="C39" s="332"/>
-      <c r="D39" s="376" t="s">
+      <c r="B39" s="331"/>
+      <c r="C39" s="333"/>
+      <c r="D39" s="408" t="s">
         <v>581</v>
       </c>
-      <c r="E39" s="377"/>
-      <c r="F39" s="377"/>
-      <c r="G39" s="377"/>
-      <c r="H39" s="377"/>
-      <c r="I39" s="377"/>
-      <c r="J39" s="377"/>
-      <c r="K39" s="378"/>
+      <c r="E39" s="409"/>
+      <c r="F39" s="409"/>
+      <c r="G39" s="409"/>
+      <c r="H39" s="409"/>
+      <c r="I39" s="409"/>
+      <c r="J39" s="409"/>
+      <c r="K39" s="410"/>
       <c r="L39" s="40" t="s">
         <v>582</v>
       </c>
@@ -19484,36 +19568,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="333" t="s">
+      <c r="B41" s="334" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="334"/>
-      <c r="D41" s="333" t="s">
+      <c r="C41" s="335"/>
+      <c r="D41" s="334" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="334"/>
-      <c r="F41" s="333" t="s">
+      <c r="E41" s="335"/>
+      <c r="F41" s="334" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="335"/>
-      <c r="H41" s="335"/>
-      <c r="I41" s="335"/>
-      <c r="J41" s="335"/>
-      <c r="K41" s="334"/>
+      <c r="G41" s="336"/>
+      <c r="H41" s="336"/>
+      <c r="I41" s="336"/>
+      <c r="J41" s="336"/>
+      <c r="K41" s="335"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -19530,16 +19613,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -19969,7 +20053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -20014,13 +20098,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="305" t="s">
+      <c r="A5" s="306" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="306"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="307"/>
+      <c r="B5" s="307"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="308"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>151</v>
@@ -20858,7 +20942,7 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="316" t="s">
+      <c r="C36" s="317" t="s">
         <v>168</v>
       </c>
       <c r="D36">
@@ -20885,7 +20969,7 @@
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C37" s="316"/>
+      <c r="C37" s="317"/>
       <c r="D37">
         <v>20</v>
       </c>
@@ -20914,7 +20998,7 @@
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="316" t="s">
+      <c r="C38" s="317" t="s">
         <v>169</v>
       </c>
       <c r="D38">
@@ -20933,7 +21017,7 @@
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39" s="316"/>
+      <c r="C39" s="317"/>
       <c r="D39">
         <v>40</v>
       </c>
@@ -20950,7 +21034,7 @@
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40" s="316"/>
+      <c r="C40" s="317"/>
       <c r="D40">
         <v>50</v>
       </c>
@@ -20967,7 +21051,7 @@
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="316"/>
+      <c r="C41" s="317"/>
       <c r="D41">
         <v>60</v>
       </c>
@@ -20986,7 +21070,7 @@
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="3:15">
-      <c r="C42" s="316"/>
+      <c r="C42" s="317"/>
       <c r="D42">
         <v>70</v>
       </c>
@@ -21003,7 +21087,7 @@
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="3:15">
-      <c r="C43" s="316"/>
+      <c r="C43" s="317"/>
       <c r="D43">
         <v>80</v>
       </c>
@@ -21020,7 +21104,7 @@
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C44" s="316"/>
+      <c r="C44" s="317"/>
       <c r="D44">
         <v>90</v>
       </c>
@@ -21111,7 +21195,7 @@
       </c>
     </row>
     <row r="49" spans="4:14">
-      <c r="D49" s="314">
+      <c r="D49" s="315">
         <v>1</v>
       </c>
       <c r="E49" s="175"/>
@@ -21126,7 +21210,7 @@
       <c r="N49" s="180"/>
     </row>
     <row r="50" spans="4:14">
-      <c r="D50" s="315"/>
+      <c r="D50" s="316"/>
       <c r="E50" s="176"/>
       <c r="F50" s="172"/>
       <c r="G50" s="173"/>
@@ -21139,7 +21223,7 @@
       <c r="N50" s="174"/>
     </row>
     <row r="51" spans="4:14">
-      <c r="D51" s="315"/>
+      <c r="D51" s="316"/>
       <c r="E51" s="176"/>
       <c r="F51" s="172"/>
       <c r="G51" s="173"/>
@@ -21152,7 +21236,7 @@
       <c r="N51" s="174"/>
     </row>
     <row r="52" spans="4:14">
-      <c r="D52" s="315"/>
+      <c r="D52" s="316"/>
       <c r="E52" s="176" t="s">
         <v>690</v>
       </c>
@@ -21169,7 +21253,7 @@
       <c r="N52" s="174"/>
     </row>
     <row r="53" spans="4:14">
-      <c r="D53" s="315"/>
+      <c r="D53" s="316"/>
       <c r="E53" s="176"/>
       <c r="F53" s="172"/>
       <c r="G53" s="173"/>
@@ -21182,7 +21266,7 @@
       <c r="N53" s="174"/>
     </row>
     <row r="54" spans="4:14">
-      <c r="D54" s="315"/>
+      <c r="D54" s="316"/>
       <c r="E54" s="176"/>
       <c r="F54" s="172"/>
       <c r="G54" s="173"/>
@@ -21195,7 +21279,7 @@
       <c r="N54" s="174"/>
     </row>
     <row r="55" spans="4:14" ht="15.75" thickBot="1">
-      <c r="D55" s="315"/>
+      <c r="D55" s="316"/>
       <c r="E55" s="177"/>
       <c r="F55" s="181"/>
       <c r="G55" s="182"/>
@@ -21318,7 +21402,7 @@
       <c r="K84" s="179"/>
       <c r="L84" s="179"/>
       <c r="M84" s="179"/>
-      <c r="N84" s="317" t="s">
+      <c r="N84" s="318" t="s">
         <v>946</v>
       </c>
       <c r="O84" t="s">
@@ -21339,7 +21423,7 @@
       <c r="K85" s="182"/>
       <c r="L85" s="182"/>
       <c r="M85" s="182"/>
-      <c r="N85" s="317"/>
+      <c r="N85" s="318"/>
       <c r="O85" t="s">
         <v>947</v>
       </c>
@@ -21358,7 +21442,7 @@
       <c r="K86" s="235"/>
       <c r="L86" s="235"/>
       <c r="M86" s="299"/>
-      <c r="N86" s="318" t="s">
+      <c r="N86" s="319" t="s">
         <v>949</v>
       </c>
       <c r="O86" t="s">
@@ -21379,7 +21463,7 @@
       <c r="K87" s="236"/>
       <c r="L87" s="236"/>
       <c r="M87" s="301"/>
-      <c r="N87" s="318"/>
+      <c r="N87" s="319"/>
     </row>
     <row r="88" spans="3:15">
       <c r="C88">
@@ -21395,7 +21479,7 @@
       <c r="K88" s="236"/>
       <c r="L88" s="236"/>
       <c r="M88" s="301"/>
-      <c r="N88" s="318"/>
+      <c r="N88" s="319"/>
     </row>
     <row r="89" spans="3:15" ht="15.75" thickBot="1">
       <c r="C89">
@@ -21415,7 +21499,7 @@
       <c r="K89" s="237"/>
       <c r="L89" s="237"/>
       <c r="M89" s="303"/>
-      <c r="N89" s="318"/>
+      <c r="N89" s="319"/>
     </row>
     <row r="90" spans="3:15">
       <c r="C90">
@@ -21431,7 +21515,7 @@
       <c r="K90" s="236"/>
       <c r="L90" s="236"/>
       <c r="M90" s="236"/>
-      <c r="N90" s="317"/>
+      <c r="N90" s="318"/>
     </row>
     <row r="91" spans="3:15">
       <c r="C91">
@@ -21447,7 +21531,7 @@
       <c r="K91" s="236"/>
       <c r="L91" s="236"/>
       <c r="M91" s="236"/>
-      <c r="N91" s="317"/>
+      <c r="N91" s="318"/>
     </row>
     <row r="92" spans="3:15" ht="15.75" thickBot="1">
       <c r="C92">
@@ -21463,7 +21547,7 @@
       <c r="K92" s="237"/>
       <c r="L92" s="237"/>
       <c r="M92" s="237"/>
-      <c r="N92" s="317"/>
+      <c r="N92" s="318"/>
     </row>
     <row r="93" spans="3:15" ht="15.75" thickBot="1">
       <c r="C93">
@@ -21565,7 +21649,7 @@
       </c>
     </row>
     <row r="101" spans="3:13">
-      <c r="C101" s="319">
+      <c r="C101" s="320">
         <v>1</v>
       </c>
       <c r="D101" s="231"/>
@@ -21580,7 +21664,7 @@
       <c r="M101" s="241"/>
     </row>
     <row r="102" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C102" s="320"/>
+      <c r="C102" s="321"/>
       <c r="D102" s="233"/>
       <c r="E102" s="234"/>
       <c r="F102" s="234"/>
@@ -21683,88 +21767,88 @@
     </row>
     <row r="112" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="113" spans="4:13">
-      <c r="D113" s="308"/>
-      <c r="E113" s="309"/>
-      <c r="F113" s="309"/>
-      <c r="G113" s="309"/>
-      <c r="H113" s="309"/>
-      <c r="I113" s="309"/>
-      <c r="J113" s="309"/>
-      <c r="K113" s="309"/>
-      <c r="L113" s="309"/>
-      <c r="M113" s="309"/>
+      <c r="D113" s="309"/>
+      <c r="E113" s="310"/>
+      <c r="F113" s="310"/>
+      <c r="G113" s="310"/>
+      <c r="H113" s="310"/>
+      <c r="I113" s="310"/>
+      <c r="J113" s="310"/>
+      <c r="K113" s="310"/>
+      <c r="L113" s="310"/>
+      <c r="M113" s="310"/>
     </row>
     <row r="114" spans="4:13">
-      <c r="D114" s="310"/>
-      <c r="E114" s="311"/>
-      <c r="F114" s="311"/>
-      <c r="G114" s="311"/>
-      <c r="H114" s="311"/>
-      <c r="I114" s="311"/>
-      <c r="J114" s="311"/>
-      <c r="K114" s="311"/>
-      <c r="L114" s="311"/>
-      <c r="M114" s="311"/>
+      <c r="D114" s="311"/>
+      <c r="E114" s="312"/>
+      <c r="F114" s="312"/>
+      <c r="G114" s="312"/>
+      <c r="H114" s="312"/>
+      <c r="I114" s="312"/>
+      <c r="J114" s="312"/>
+      <c r="K114" s="312"/>
+      <c r="L114" s="312"/>
+      <c r="M114" s="312"/>
     </row>
     <row r="115" spans="4:13">
-      <c r="D115" s="310"/>
-      <c r="E115" s="311"/>
-      <c r="F115" s="311"/>
-      <c r="G115" s="311"/>
-      <c r="H115" s="311"/>
-      <c r="I115" s="311"/>
-      <c r="J115" s="311"/>
-      <c r="K115" s="311"/>
-      <c r="L115" s="311"/>
-      <c r="M115" s="311"/>
+      <c r="D115" s="311"/>
+      <c r="E115" s="312"/>
+      <c r="F115" s="312"/>
+      <c r="G115" s="312"/>
+      <c r="H115" s="312"/>
+      <c r="I115" s="312"/>
+      <c r="J115" s="312"/>
+      <c r="K115" s="312"/>
+      <c r="L115" s="312"/>
+      <c r="M115" s="312"/>
     </row>
     <row r="116" spans="4:13">
-      <c r="D116" s="310"/>
-      <c r="E116" s="311"/>
-      <c r="F116" s="311"/>
-      <c r="G116" s="311"/>
-      <c r="H116" s="311"/>
-      <c r="I116" s="311"/>
-      <c r="J116" s="311"/>
-      <c r="K116" s="311"/>
-      <c r="L116" s="311"/>
-      <c r="M116" s="311"/>
+      <c r="D116" s="311"/>
+      <c r="E116" s="312"/>
+      <c r="F116" s="312"/>
+      <c r="G116" s="312"/>
+      <c r="H116" s="312"/>
+      <c r="I116" s="312"/>
+      <c r="J116" s="312"/>
+      <c r="K116" s="312"/>
+      <c r="L116" s="312"/>
+      <c r="M116" s="312"/>
     </row>
     <row r="117" spans="4:13">
-      <c r="D117" s="310"/>
-      <c r="E117" s="311"/>
-      <c r="F117" s="311"/>
-      <c r="G117" s="311"/>
-      <c r="H117" s="311"/>
-      <c r="I117" s="311"/>
-      <c r="J117" s="311"/>
-      <c r="K117" s="311"/>
-      <c r="L117" s="311"/>
-      <c r="M117" s="311"/>
+      <c r="D117" s="311"/>
+      <c r="E117" s="312"/>
+      <c r="F117" s="312"/>
+      <c r="G117" s="312"/>
+      <c r="H117" s="312"/>
+      <c r="I117" s="312"/>
+      <c r="J117" s="312"/>
+      <c r="K117" s="312"/>
+      <c r="L117" s="312"/>
+      <c r="M117" s="312"/>
     </row>
     <row r="118" spans="4:13">
-      <c r="D118" s="310"/>
-      <c r="E118" s="311"/>
-      <c r="F118" s="311"/>
-      <c r="G118" s="311"/>
-      <c r="H118" s="311"/>
-      <c r="I118" s="311"/>
-      <c r="J118" s="311"/>
-      <c r="K118" s="311"/>
-      <c r="L118" s="311"/>
-      <c r="M118" s="311"/>
+      <c r="D118" s="311"/>
+      <c r="E118" s="312"/>
+      <c r="F118" s="312"/>
+      <c r="G118" s="312"/>
+      <c r="H118" s="312"/>
+      <c r="I118" s="312"/>
+      <c r="J118" s="312"/>
+      <c r="K118" s="312"/>
+      <c r="L118" s="312"/>
+      <c r="M118" s="312"/>
     </row>
     <row r="119" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D119" s="312"/>
-      <c r="E119" s="313"/>
-      <c r="F119" s="313"/>
-      <c r="G119" s="313"/>
-      <c r="H119" s="313"/>
-      <c r="I119" s="313"/>
-      <c r="J119" s="313"/>
-      <c r="K119" s="313"/>
-      <c r="L119" s="313"/>
-      <c r="M119" s="313"/>
+      <c r="D119" s="313"/>
+      <c r="E119" s="314"/>
+      <c r="F119" s="314"/>
+      <c r="G119" s="314"/>
+      <c r="H119" s="314"/>
+      <c r="I119" s="314"/>
+      <c r="J119" s="314"/>
+      <c r="K119" s="314"/>
+      <c r="L119" s="314"/>
+      <c r="M119" s="314"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -21784,7 +21868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M8" sqref="M8:N13"/>
     </sheetView>
   </sheetViews>
@@ -21833,14 +21917,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="321" t="s">
+      <c r="K4" s="322" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="322"/>
-      <c r="M4" s="322"/>
-      <c r="N4" s="322"/>
-      <c r="O4" s="322"/>
-      <c r="P4" s="323"/>
+      <c r="L4" s="323"/>
+      <c r="M4" s="323"/>
+      <c r="N4" s="323"/>
+      <c r="O4" s="323"/>
+      <c r="P4" s="324"/>
       <c r="S4" s="40" t="s">
         <v>180</v>
       </c>
@@ -21956,10 +22040,10 @@
       <c r="L8" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M8" s="336" t="s">
+      <c r="M8" s="337" t="s">
         <v>212</v>
       </c>
-      <c r="N8" s="337"/>
+      <c r="N8" s="338"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
       <c r="Q8" t="s">
@@ -21999,8 +22083,8 @@
       <c r="L9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="337"/>
-      <c r="N9" s="337"/>
+      <c r="M9" s="338"/>
+      <c r="N9" s="338"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
       <c r="Q9">
@@ -22028,8 +22112,8 @@
       <c r="L10" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="M10" s="337"/>
-      <c r="N10" s="337"/>
+      <c r="M10" s="338"/>
+      <c r="N10" s="338"/>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
       <c r="Q10" t="s">
@@ -22040,13 +22124,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="324" t="s">
+      <c r="A11" s="325" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="325"/>
-      <c r="C11" s="326"/>
-      <c r="D11" s="326"/>
-      <c r="E11" s="327"/>
+      <c r="B11" s="326"/>
+      <c r="C11" s="327"/>
+      <c r="D11" s="327"/>
+      <c r="E11" s="328"/>
       <c r="F11" t="s">
         <v>210</v>
       </c>
@@ -22055,8 +22139,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="337"/>
-      <c r="N11" s="337"/>
+      <c r="M11" s="338"/>
+      <c r="N11" s="338"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
       <c r="R11" s="38"/>
@@ -22064,11 +22148,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="328"/>
-      <c r="B12" s="329"/>
-      <c r="C12" s="329"/>
-      <c r="D12" s="329"/>
-      <c r="E12" s="315"/>
+      <c r="A12" s="329"/>
+      <c r="B12" s="330"/>
+      <c r="C12" s="330"/>
+      <c r="D12" s="330"/>
+      <c r="E12" s="316"/>
       <c r="F12" t="s">
         <v>973</v>
       </c>
@@ -22077,8 +22161,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="337"/>
-      <c r="N12" s="337"/>
+      <c r="M12" s="338"/>
+      <c r="N12" s="338"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
       <c r="R12" s="38"/>
@@ -22086,11 +22170,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="328"/>
-      <c r="B13" s="329"/>
-      <c r="C13" s="329"/>
-      <c r="D13" s="329"/>
-      <c r="E13" s="315"/>
+      <c r="A13" s="329"/>
+      <c r="B13" s="330"/>
+      <c r="C13" s="330"/>
+      <c r="D13" s="330"/>
+      <c r="E13" s="316"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>193</v>
@@ -22098,17 +22182,17 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="337"/>
-      <c r="N13" s="337"/>
+      <c r="M13" s="338"/>
+      <c r="N13" s="338"/>
       <c r="O13" s="28"/>
       <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="330"/>
-      <c r="B14" s="331"/>
-      <c r="C14" s="331"/>
-      <c r="D14" s="331"/>
-      <c r="E14" s="332"/>
+      <c r="A14" s="331"/>
+      <c r="B14" s="332"/>
+      <c r="C14" s="332"/>
+      <c r="D14" s="332"/>
+      <c r="E14" s="333"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -22220,20 +22304,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="333" t="s">
+      <c r="I20" s="334" t="s">
         <v>195</v>
       </c>
-      <c r="J20" s="334"/>
-      <c r="K20" s="333" t="s">
+      <c r="J20" s="335"/>
+      <c r="K20" s="334" t="s">
         <v>196</v>
       </c>
-      <c r="L20" s="334"/>
-      <c r="M20" s="333" t="s">
+      <c r="L20" s="335"/>
+      <c r="M20" s="334" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="335"/>
-      <c r="O20" s="335"/>
-      <c r="P20" s="334"/>
+      <c r="N20" s="336"/>
+      <c r="O20" s="336"/>
+      <c r="P20" s="335"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1">
       <c r="A21" s="24"/>
@@ -22740,8 +22824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23078,10 +23162,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V293"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23158,13 +23242,13 @@
         <v>182</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="347"/>
-      <c r="L3" s="347"/>
-      <c r="M3" s="347"/>
-      <c r="N3" s="347"/>
-      <c r="O3" s="347"/>
-      <c r="P3" s="347"/>
-      <c r="Q3" s="348"/>
+      <c r="K3" s="348"/>
+      <c r="L3" s="348"/>
+      <c r="M3" s="348"/>
+      <c r="N3" s="348"/>
+      <c r="O3" s="348"/>
+      <c r="P3" s="348"/>
+      <c r="Q3" s="349"/>
       <c r="T3" s="40" t="s">
         <v>180</v>
       </c>
@@ -23432,13 +23516,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="338" t="s">
+      <c r="A12" s="339" t="s">
         <v>694</v>
       </c>
-      <c r="B12" s="339"/>
-      <c r="C12" s="339"/>
-      <c r="D12" s="339"/>
-      <c r="E12" s="340"/>
+      <c r="B12" s="340"/>
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="341"/>
       <c r="F12" t="s">
         <v>707</v>
       </c>
@@ -23461,11 +23545,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="341"/>
-      <c r="B13" s="342"/>
-      <c r="C13" s="342"/>
-      <c r="D13" s="342"/>
-      <c r="E13" s="343"/>
+      <c r="A13" s="342"/>
+      <c r="B13" s="343"/>
+      <c r="C13" s="343"/>
+      <c r="D13" s="343"/>
+      <c r="E13" s="344"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -23486,11 +23570,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="341"/>
-      <c r="B14" s="342"/>
-      <c r="C14" s="342"/>
-      <c r="D14" s="342"/>
-      <c r="E14" s="343"/>
+      <c r="A14" s="342"/>
+      <c r="B14" s="343"/>
+      <c r="C14" s="343"/>
+      <c r="D14" s="343"/>
+      <c r="E14" s="344"/>
       <c r="F14" t="s">
         <v>704</v>
       </c>
@@ -23513,11 +23597,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="344"/>
-      <c r="B15" s="345"/>
-      <c r="C15" s="345"/>
-      <c r="D15" s="345"/>
-      <c r="E15" s="346"/>
+      <c r="A15" s="345"/>
+      <c r="B15" s="346"/>
+      <c r="C15" s="346"/>
+      <c r="D15" s="346"/>
+      <c r="E15" s="347"/>
       <c r="F15" s="24"/>
       <c r="H15" s="198"/>
       <c r="I15" s="4" t="s">
@@ -23575,15 +23659,17 @@
       <c r="F17" s="194"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="I17" s="323" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J17" s="323"/>
+      <c r="K17" s="323"/>
+      <c r="L17" s="323"/>
+      <c r="M17" s="323"/>
+      <c r="N17" s="323"/>
+      <c r="O17" s="323"/>
+      <c r="P17" s="323"/>
+      <c r="Q17" s="323"/>
       <c r="S17" t="s">
         <v>360</v>
       </c>
@@ -24852,10 +24938,499 @@
       <c r="R154" s="10"/>
       <c r="S154" s="9"/>
     </row>
+    <row r="156" spans="1:19">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+    </row>
+    <row r="158" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A158" s="5"/>
+      <c r="B158" s="34" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="I158" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="3"/>
+    </row>
+    <row r="160" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="6"/>
+    </row>
+    <row r="161" spans="1:18">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+      <c r="K161" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L161" s="3"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="6"/>
+      <c r="R161" s="6"/>
+    </row>
+    <row r="162" spans="1:18">
+      <c r="A162" s="5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+      <c r="K162" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="L162" s="6"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+      <c r="R162" s="6"/>
+    </row>
+    <row r="163" spans="1:18">
+      <c r="A163" s="5"/>
+      <c r="B163" s="34" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="I163" s="4"/>
+      <c r="J163" s="4"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="4"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+      <c r="R163" s="6"/>
+    </row>
+    <row r="164" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="I164" s="35">
+        <v>80</v>
+      </c>
+      <c r="J164" s="4"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="5"/>
+      <c r="N164" s="5"/>
+      <c r="O164" s="8"/>
+      <c r="P164" s="9"/>
+      <c r="Q164" s="6"/>
+      <c r="R164" s="6"/>
+    </row>
+    <row r="165" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B165" s="5"/>
+      <c r="C165" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="H165" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="Q165" s="6"/>
+      <c r="R165" s="6"/>
+    </row>
+    <row r="166" spans="1:18">
+      <c r="F166" s="5"/>
+      <c r="H166" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="N166" s="3"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="5"/>
+      <c r="Q166" s="6"/>
+      <c r="R166" s="6"/>
+    </row>
+    <row r="167" spans="1:18">
+      <c r="A167" t="s">
+        <v>738</v>
+      </c>
+      <c r="F167" s="5"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="5"/>
+      <c r="Q167" s="6"/>
+      <c r="R167" s="6"/>
+    </row>
+    <row r="168" spans="1:18">
+      <c r="B168" s="34" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N168" s="6"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="5"/>
+      <c r="Q168" s="6"/>
+      <c r="R168" s="6"/>
+    </row>
+    <row r="169" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B169" s="5"/>
+      <c r="C169" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="I169" s="4"/>
+      <c r="J169" s="4"/>
+      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
+      <c r="M169" s="8"/>
+      <c r="N169" s="9"/>
+      <c r="O169" s="5"/>
+      <c r="P169" s="5"/>
+      <c r="Q169" s="6"/>
+      <c r="R169" s="6"/>
+    </row>
+    <row r="170" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A170" s="5"/>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="10"/>
+      <c r="P170" s="10"/>
+      <c r="Q170" s="9"/>
+      <c r="R170" s="6"/>
+    </row>
+    <row r="171" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A171" s="5"/>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+      <c r="O171" s="10"/>
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10"/>
+      <c r="R171" s="9"/>
+    </row>
+    <row r="173" spans="1:18">
+      <c r="H173" s="16" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
+      <c r="H174" s="16" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
+      <c r="H175" s="16" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="272" spans="7:7" ht="15.75" thickBot="1">
+      <c r="G272" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="273" spans="7:14">
+      <c r="G273" s="1"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+      <c r="M273" s="2"/>
+      <c r="N273" s="3"/>
+    </row>
+    <row r="274" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G274" s="4"/>
+      <c r="H274" s="5"/>
+      <c r="I274" s="5"/>
+      <c r="J274" s="5"/>
+      <c r="K274" s="5"/>
+      <c r="L274" s="5"/>
+      <c r="M274" s="5"/>
+      <c r="N274" s="6"/>
+    </row>
+    <row r="275" spans="7:14">
+      <c r="G275" s="4"/>
+      <c r="H275" s="1"/>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+      <c r="L275" s="2"/>
+      <c r="M275" s="3"/>
+      <c r="N275" s="6"/>
+    </row>
+    <row r="276" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G276" s="4"/>
+      <c r="H276" s="4"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="L276" s="5"/>
+      <c r="M276" s="6"/>
+      <c r="N276" s="6"/>
+    </row>
+    <row r="277" spans="7:14">
+      <c r="G277" s="4"/>
+      <c r="H277" s="4"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="1"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="6"/>
+      <c r="N277" s="6"/>
+    </row>
+    <row r="278" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G278" s="4"/>
+      <c r="H278" s="4"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="L278" s="6"/>
+      <c r="M278" s="6"/>
+      <c r="N278" s="6"/>
+    </row>
+    <row r="279" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G279" s="305">
+        <v>80</v>
+      </c>
+      <c r="H279" s="4"/>
+      <c r="I279" s="5"/>
+      <c r="J279" s="5"/>
+      <c r="K279" s="4"/>
+      <c r="L279" s="6"/>
+      <c r="M279" s="6"/>
+      <c r="N279" s="6"/>
+    </row>
+    <row r="280" spans="7:14">
+      <c r="G280" s="4"/>
+      <c r="H280" s="4"/>
+      <c r="I280" s="5"/>
+      <c r="J280" s="5"/>
+      <c r="K280" s="4"/>
+      <c r="L280" s="6"/>
+      <c r="M280" s="6"/>
+      <c r="N280" s="6"/>
+    </row>
+    <row r="281" spans="7:14">
+      <c r="G281" s="4"/>
+      <c r="H281" s="4"/>
+      <c r="I281" s="5"/>
+      <c r="J281" s="5"/>
+      <c r="K281" s="4"/>
+      <c r="L281" s="6"/>
+      <c r="M281" s="6"/>
+      <c r="N281" s="6"/>
+    </row>
+    <row r="282" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G282" s="4"/>
+      <c r="H282" s="4"/>
+      <c r="I282" s="5"/>
+      <c r="J282" s="5"/>
+      <c r="K282" s="8"/>
+      <c r="L282" s="9"/>
+      <c r="M282" s="6"/>
+      <c r="N282" s="6"/>
+    </row>
+    <row r="283" spans="7:14">
+      <c r="G283" s="4"/>
+      <c r="H283" s="4"/>
+      <c r="I283" s="5"/>
+      <c r="J283" s="5"/>
+      <c r="K283" s="5"/>
+      <c r="L283" s="5"/>
+      <c r="M283" s="6"/>
+      <c r="N283" s="6"/>
+    </row>
+    <row r="284" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G284" s="4"/>
+      <c r="H284" s="8"/>
+      <c r="I284" s="10"/>
+      <c r="J284" s="10"/>
+      <c r="K284" s="10"/>
+      <c r="L284" s="10"/>
+      <c r="M284" s="9"/>
+      <c r="N284" s="6"/>
+    </row>
+    <row r="285" spans="7:14">
+      <c r="G285" s="4"/>
+      <c r="H285" s="5"/>
+      <c r="I285" s="5"/>
+      <c r="J285" s="5"/>
+      <c r="K285" s="5"/>
+      <c r="L285" s="5"/>
+      <c r="M285" s="5"/>
+      <c r="N285" s="6"/>
+    </row>
+    <row r="286" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G286" s="8"/>
+      <c r="H286" s="10"/>
+      <c r="I286" s="10"/>
+      <c r="J286" s="10"/>
+      <c r="K286" s="10"/>
+      <c r="L286" s="10"/>
+      <c r="M286" s="10"/>
+      <c r="N286" s="9"/>
+    </row>
+    <row r="289" spans="5:7">
+      <c r="E289" s="16" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="291" spans="5:7">
+      <c r="E291" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G291" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="292" spans="5:7">
+      <c r="E292" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="293" spans="5:7">
+      <c r="E293" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1206</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A12:E15"/>
     <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="I17:Q17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U6" r:id="rId1"/>
@@ -24866,9 +25441,16 @@
     <hyperlink ref="D10" r:id="rId6"/>
     <hyperlink ref="D23" r:id="rId7"/>
     <hyperlink ref="A102" r:id="rId8"/>
+    <hyperlink ref="E289" r:id="rId9"/>
+    <hyperlink ref="H173" r:id="rId10"/>
+    <hyperlink ref="H174" r:id="rId11"/>
+    <hyperlink ref="H175" r:id="rId12"/>
+    <hyperlink ref="B158" r:id="rId13"/>
+    <hyperlink ref="B163" r:id="rId14"/>
+    <hyperlink ref="B168" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="1323">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -2761,9 +2761,6 @@
   </si>
   <si>
     <t>mik123!</t>
-  </si>
-  <si>
-    <t>sadsd</t>
   </si>
   <si>
     <t>tesla</t>
@@ -4440,6 +4437,33 @@
   </si>
   <si>
     <t>dfdsf</t>
+  </si>
+  <si>
+    <t>MySql Worbench</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>SQL Client Software</t>
+  </si>
+  <si>
+    <t>JDBC API</t>
+  </si>
+  <si>
+    <t>SQL Client Java</t>
+  </si>
+  <si>
+    <t>drop table Customer;</t>
+  </si>
+  <si>
+    <t>truncate table Customer</t>
+  </si>
+  <si>
+    <t>table exists but 0 records</t>
+  </si>
+  <si>
+    <t>records and table itself deleted</t>
   </si>
 </sst>
 </file>
@@ -5186,7 +5210,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="459">
+  <cellXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5623,6 +5647,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5764,6 +5794,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5793,6 +5826,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5824,9 +5860,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5836,8 +5869,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5899,104 +5983,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6040,22 +6040,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9780,8 +9807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:W177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:G37"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9852,13 +9879,13 @@
         <v>330</v>
       </c>
       <c r="G5" s="307" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="H5" s="84">
         <v>11123</v>
       </c>
       <c r="I5" s="85" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="J5" s="84">
         <v>1</v>
@@ -10017,7 +10044,7 @@
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="94" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="94">
@@ -10792,10 +10819,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="358" t="s">
+      <c r="L35" s="362" t="s">
         <v>376</v>
       </c>
-      <c r="M35" s="358"/>
+      <c r="M35" s="362"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -10855,7 +10882,7 @@
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="307" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G37" s="84" t="s">
         <v>209</v>
@@ -10900,7 +10927,7 @@
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="307" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G38" s="84" t="s">
         <v>209</v>
@@ -10966,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="M39" s="90" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="N39" s="84">
         <v>1</v>
@@ -10986,10 +11013,10 @@
       <c r="D40" s="5"/>
       <c r="E40" s="24"/>
       <c r="F40" s="307" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G40" s="307" t="s">
         <v>1313</v>
-      </c>
-      <c r="G40" s="307" t="s">
-        <v>1314</v>
       </c>
       <c r="H40" s="307" t="s">
         <v>780</v>
@@ -11282,7 +11309,7 @@
       <c r="N48" s="5"/>
       <c r="O48" s="99"/>
       <c r="P48" s="87" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="Q48" s="105">
         <v>1000</v>
@@ -11863,7 +11890,7 @@
         <v>382</v>
       </c>
       <c r="G69" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="71" spans="2:20">
@@ -11981,7 +12008,7 @@
       <c r="I74" s="86"/>
       <c r="J74" s="84"/>
       <c r="K74" s="307" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L74" s="84"/>
       <c r="M74" s="84"/>
@@ -12003,6 +12030,9 @@
       <c r="C77" s="106" t="s">
         <v>383</v>
       </c>
+      <c r="F77" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="78" spans="2:20">
       <c r="C78" s="93" t="s">
@@ -12011,24 +12041,12 @@
       <c r="D78" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="93" t="s">
-        <v>183</v>
-      </c>
-      <c r="G78" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="H78" s="84" t="s">
-        <v>320</v>
-      </c>
-      <c r="I78" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="J78" s="84" t="s">
-        <v>322</v>
-      </c>
-      <c r="K78" s="84" t="s">
-        <v>323</v>
-      </c>
+      <c r="F78" s="93"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
       <c r="L78" s="33"/>
       <c r="M78" s="84" t="s">
         <v>183</v>
@@ -12051,24 +12069,12 @@
       <c r="D79" s="84" t="s">
         <v>329</v>
       </c>
-      <c r="F79" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="G79" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="H79" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="97" t="s">
-        <v>330</v>
-      </c>
-      <c r="J79" s="94" t="s">
-        <v>551</v>
-      </c>
-      <c r="K79" s="97">
-        <v>12345</v>
-      </c>
+      <c r="F79" s="84"/>
+      <c r="G79" s="94"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="94"/>
+      <c r="K79" s="97"/>
       <c r="L79" s="33"/>
       <c r="M79" s="84"/>
       <c r="N79" s="84"/>
@@ -12083,24 +12089,12 @@
       <c r="D80" s="84" t="s">
         <v>329</v>
       </c>
-      <c r="F80" s="84" t="s">
-        <v>336</v>
-      </c>
-      <c r="G80" s="97" t="s">
-        <v>189</v>
-      </c>
-      <c r="H80" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="I80" s="97" t="s">
-        <v>330</v>
-      </c>
-      <c r="J80" s="97" t="s">
-        <v>337</v>
-      </c>
-      <c r="K80" s="97">
-        <v>23412</v>
-      </c>
+      <c r="F80" s="84"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="97"/>
       <c r="L80" s="33"/>
       <c r="M80" s="84"/>
       <c r="N80" s="84"/>
@@ -12115,24 +12109,12 @@
       <c r="D81" s="84" t="s">
         <v>336</v>
       </c>
-      <c r="F81" s="203" t="s">
-        <v>546</v>
-      </c>
-      <c r="G81" s="94" t="s">
-        <v>831</v>
-      </c>
-      <c r="H81" s="94" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="J81" s="94" t="s">
-        <v>832</v>
-      </c>
-      <c r="K81" s="97">
-        <v>213</v>
-      </c>
+      <c r="F81" s="203"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="94"/>
+      <c r="K81" s="97"/>
       <c r="L81" s="33"/>
       <c r="M81" s="84"/>
       <c r="N81" s="84"/>
@@ -12149,6 +12131,15 @@
       <c r="P82" s="95"/>
       <c r="Q82" s="101"/>
     </row>
+    <row r="83" spans="2:17">
+      <c r="F83" s="312" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G83" s="312"/>
+      <c r="H83" t="s">
+        <v>1322</v>
+      </c>
+    </row>
     <row r="84" spans="2:17">
       <c r="C84" s="93" t="s">
         <v>326</v>
@@ -12156,6 +12147,12 @@
       <c r="D84" s="84" t="s">
         <v>328</v>
       </c>
+      <c r="F84" s="312" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H84" s="312" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="85" spans="2:17">
       <c r="C85" s="97" t="s">
@@ -12164,9 +12161,7 @@
       <c r="D85" s="97">
         <v>1000</v>
       </c>
-      <c r="G85" t="s">
-        <v>384</v>
-      </c>
+      <c r="H85" s="312"/>
     </row>
     <row r="86" spans="2:17">
       <c r="C86" s="97" t="s">
@@ -12175,9 +12170,7 @@
       <c r="D86" s="97">
         <v>500</v>
       </c>
-      <c r="G86" t="s">
-        <v>385</v>
-      </c>
+      <c r="H86" s="312"/>
     </row>
     <row r="87" spans="2:17">
       <c r="C87" s="97" t="s">
@@ -12186,12 +12179,7 @@
       <c r="D87" s="97">
         <v>500</v>
       </c>
-      <c r="G87" t="s">
-        <v>363</v>
-      </c>
-      <c r="I87" t="s">
-        <v>32</v>
-      </c>
+      <c r="H87" s="312"/>
     </row>
     <row r="88" spans="2:17">
       <c r="C88" s="94" t="s">
@@ -12200,6 +12188,7 @@
       <c r="D88" s="97">
         <v>2000</v>
       </c>
+      <c r="H88" s="312"/>
     </row>
     <row r="89" spans="2:17">
       <c r="C89" s="87" t="s">
@@ -12208,10 +12197,11 @@
       <c r="D89" s="105">
         <v>500</v>
       </c>
+      <c r="H89" s="312"/>
     </row>
     <row r="90" spans="2:17">
       <c r="C90" s="87" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D90" s="105">
         <v>1000000</v>
@@ -12225,14 +12215,30 @@
         <v>500</v>
       </c>
     </row>
+    <row r="92" spans="2:17">
+      <c r="G92" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="G93" t="s">
+        <v>385</v>
+      </c>
+    </row>
     <row r="94" spans="2:17">
       <c r="B94" t="s">
-        <v>1281</v>
+        <v>1280</v>
+      </c>
+      <c r="G94" t="s">
+        <v>363</v>
+      </c>
+      <c r="I94" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="2:17">
       <c r="B95" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="96" spans="2:17">
@@ -12359,7 +12365,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="B119" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G119" t="s">
         <v>403</v>
@@ -12370,7 +12376,7 @@
         <v>183</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D120" s="38" t="s">
         <v>327</v>
@@ -12379,10 +12385,10 @@
         <v>183</v>
       </c>
       <c r="H120" s="38" t="s">
+        <v>834</v>
+      </c>
+      <c r="I120" s="38" t="s">
         <v>835</v>
-      </c>
-      <c r="I120" s="38" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -12402,7 +12408,7 @@
         <v>333</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -12422,7 +12428,7 @@
         <v>334</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -12456,7 +12462,7 @@
         <v>608</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -12467,10 +12473,10 @@
         <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E127" s="209" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F127" s="210"/>
       <c r="G127" s="115" t="s">
@@ -12483,7 +12489,7 @@
         <v>333</v>
       </c>
       <c r="J127" s="115" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -12494,35 +12500,35 @@
         <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E128" s="209" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F128" s="210"/>
     </row>
     <row r="139" spans="9:17">
       <c r="J139" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="140" spans="9:17">
       <c r="J140" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="141" spans="9:17">
       <c r="J141" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L141" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M141" t="s">
         <v>1257</v>
-      </c>
-      <c r="K141" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L141" t="s">
-        <v>1149</v>
-      </c>
-      <c r="M141" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="142" spans="9:17">
@@ -12533,24 +12539,24 @@
         <v>184</v>
       </c>
       <c r="L142" s="12" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M142" s="12" t="s">
         <v>1138</v>
-      </c>
-      <c r="M142" s="12" t="s">
-        <v>1139</v>
       </c>
       <c r="N142" s="12" t="s">
         <v>609</v>
       </c>
       <c r="O142" s="12" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="143" spans="9:17">
       <c r="I143" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J143" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K143" s="70" t="s">
         <v>186</v>
@@ -12562,10 +12568,10 @@
         <v>330</v>
       </c>
       <c r="N143" s="153" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="O143" s="153" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q143" t="s">
         <v>815</v>
@@ -12573,7 +12579,7 @@
     </row>
     <row r="144" spans="9:17">
       <c r="I144" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J144" s="38"/>
       <c r="K144" s="38"/>
@@ -12582,38 +12588,38 @@
       <c r="N144" s="38"/>
       <c r="O144" s="38"/>
       <c r="Q144" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="145" spans="1:17">
       <c r="I145" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J145" s="38" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K145" s="38" t="s">
         <v>1265</v>
       </c>
-      <c r="K145" s="38" t="s">
+      <c r="L145" s="38" t="s">
         <v>1266</v>
-      </c>
-      <c r="L145" s="38" t="s">
-        <v>1267</v>
       </c>
       <c r="M145" s="38" t="s">
         <v>330</v>
       </c>
       <c r="N145" s="153" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O145" s="153" t="s">
         <v>1278</v>
       </c>
-      <c r="O145" s="153" t="s">
-        <v>1279</v>
-      </c>
       <c r="Q145" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="146" spans="1:17">
       <c r="I146" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="J146" s="38"/>
       <c r="K146" s="38"/>
@@ -12622,12 +12628,12 @@
       <c r="N146" s="38"/>
       <c r="O146" s="38"/>
       <c r="Q146" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="147" spans="1:17">
       <c r="Q147" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -12644,7 +12650,7 @@
         <v>1231231231</v>
       </c>
       <c r="J149" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="150" spans="1:17">
@@ -12670,24 +12676,24 @@
         <v>326</v>
       </c>
       <c r="M150" s="12" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="N150" s="12" t="s">
         <v>328</v>
       </c>
       <c r="O150" s="12" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="151" spans="1:17">
       <c r="I151" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J151" s="38">
         <v>1234</v>
       </c>
       <c r="K151" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L151" s="38" t="s">
         <v>333</v>
@@ -12698,19 +12704,19 @@
       <c r="N151" s="38">
         <v>1000</v>
       </c>
-      <c r="O151" s="455">
+      <c r="O151" s="313">
         <v>37623</v>
       </c>
     </row>
     <row r="152" spans="1:17">
       <c r="I152" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J152" s="38">
         <v>234</v>
       </c>
       <c r="K152" s="38" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="L152" s="38" t="s">
         <v>333</v>
@@ -12721,7 +12727,7 @@
       <c r="N152" s="38">
         <v>900</v>
       </c>
-      <c r="O152" s="455">
+      <c r="O152" s="313">
         <v>37624</v>
       </c>
     </row>
@@ -12730,7 +12736,7 @@
         <v>3456</v>
       </c>
       <c r="K153" s="38" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L153" s="38" t="s">
         <v>333</v>
@@ -12741,39 +12747,39 @@
       <c r="N153" s="38">
         <v>444</v>
       </c>
-      <c r="O153" s="455">
+      <c r="O153" s="313">
         <v>37624</v>
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="458" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B155" s="458"/>
+      <c r="A155" s="363" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B155" s="363"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B156" s="93" t="s">
         <v>1301</v>
       </c>
-      <c r="B156" s="93" t="s">
+      <c r="C156" s="306" t="s">
         <v>1302</v>
       </c>
-      <c r="C156" s="306" t="s">
+      <c r="D156" s="306" t="s">
         <v>1303</v>
       </c>
-      <c r="D156" s="306" t="s">
-        <v>1304</v>
-      </c>
       <c r="J156" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K156" t="s">
         <v>1272</v>
-      </c>
-      <c r="K156" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="307" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B157" s="307">
         <v>1</v>
@@ -12787,7 +12793,7 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="307" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B158" s="307">
         <v>1</v>
@@ -12799,12 +12805,12 @@
         <v>101</v>
       </c>
       <c r="J158" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="307" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="B159" s="307">
         <v>2</v>
@@ -12816,12 +12822,12 @@
         <v>102</v>
       </c>
       <c r="J159" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="160" spans="1:17">
       <c r="A160" s="307" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B160" s="307">
         <v>2</v>
@@ -12835,15 +12841,15 @@
     </row>
     <row r="161" spans="3:13">
       <c r="K161" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="162" spans="3:13">
       <c r="C162" s="308" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D162" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="166" spans="3:13">
@@ -12851,10 +12857,10 @@
         <v>340</v>
       </c>
       <c r="I166" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K166" t="s">
         <v>1291</v>
-      </c>
-      <c r="K166" t="s">
-        <v>1292</v>
       </c>
       <c r="L166" t="s">
         <v>375</v>
@@ -12862,19 +12868,19 @@
     </row>
     <row r="168" spans="3:13">
       <c r="H168" s="38" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="I168" s="38" t="s">
         <v>322</v>
       </c>
       <c r="J168" s="38" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K168" s="38" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L168" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="169" spans="3:13">
@@ -12882,9 +12888,9 @@
         <v>26</v>
       </c>
       <c r="I169" s="38" t="s">
-        <v>1287</v>
-      </c>
-      <c r="J169" s="456">
+        <v>1286</v>
+      </c>
+      <c r="J169" s="314">
         <v>123345</v>
       </c>
       <c r="K169" s="38" t="s">
@@ -12896,54 +12902,54 @@
     </row>
     <row r="172" spans="3:13">
       <c r="F172" s="208" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G172" s="208"/>
       <c r="H172" s="208"/>
       <c r="I172" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J172" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="173" spans="3:13">
       <c r="F173" s="40" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G173" s="40"/>
       <c r="H173" s="40"/>
       <c r="I173" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J173" t="s">
         <v>1289</v>
       </c>
-      <c r="J173" t="s">
-        <v>1290</v>
-      </c>
     </row>
     <row r="175" spans="3:13">
-      <c r="E175" s="457" t="s">
+      <c r="E175" s="315" t="s">
         <v>183</v>
       </c>
-      <c r="F175" s="457" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H175" s="457" t="s">
+      <c r="F175" s="315" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H175" s="315" t="s">
         <v>183</v>
       </c>
-      <c r="I175" s="457" t="s">
-        <v>1293</v>
-      </c>
-      <c r="J175" s="457" t="s">
+      <c r="I175" s="315" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J175" s="315" t="s">
         <v>609</v>
       </c>
-      <c r="K175" s="457" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L175" s="457" t="s">
-        <v>1286</v>
-      </c>
-      <c r="M175" s="457" t="s">
-        <v>1139</v>
+      <c r="K175" s="315" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L175" s="315" t="s">
+        <v>1285</v>
+      </c>
+      <c r="M175" s="315" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="176" spans="3:13">
@@ -12957,13 +12963,13 @@
         <v>26</v>
       </c>
       <c r="I176" s="38" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J176" s="38" t="s">
         <v>1296</v>
       </c>
-      <c r="J176" s="38" t="s">
+      <c r="K176" s="38" t="s">
         <v>1297</v>
-      </c>
-      <c r="K176" s="38" t="s">
-        <v>1298</v>
       </c>
       <c r="L176" s="38" t="s">
         <v>26</v>
@@ -13491,12 +13497,12 @@
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="76" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="53" spans="2:14">
@@ -13515,10 +13521,10 @@
     </row>
     <row r="54" spans="2:14">
       <c r="B54" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D54" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K54" s="211" t="s">
         <v>329</v>
@@ -13535,10 +13541,10 @@
     </row>
     <row r="55" spans="2:14">
       <c r="B55" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D55" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K55" s="203" t="s">
         <v>336</v>
@@ -13555,7 +13561,7 @@
     </row>
     <row r="56" spans="2:14">
       <c r="B56" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K56" s="203" t="s">
         <v>546</v>
@@ -13572,7 +13578,7 @@
     </row>
     <row r="57" spans="2:14">
       <c r="B57" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K57" s="211" t="s">
         <v>329</v>
@@ -13581,7 +13587,7 @@
         <v>209</v>
       </c>
       <c r="M57" s="94" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N57" s="94" t="s">
         <v>392</v>
@@ -13589,19 +13595,19 @@
     </row>
     <row r="58" spans="2:14">
       <c r="B58" s="210" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C58" s="210"/>
       <c r="D58" s="210"/>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -13609,29 +13615,29 @@
     </row>
     <row r="61" spans="2:14">
       <c r="B61" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="62" spans="2:14">
       <c r="B62" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C62" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
       </c>
       <c r="H62" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J62" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="63" spans="2:14">
       <c r="C63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G63" t="s">
         <v>330</v>
@@ -13642,17 +13648,17 @@
     </row>
     <row r="64" spans="2:14">
       <c r="B64" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C64" s="210" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D64" s="210"/>
       <c r="E64" s="210"/>
       <c r="F64" s="210"/>
       <c r="G64" s="210"/>
       <c r="J64" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K64" t="s">
         <v>320</v>
@@ -13663,13 +13669,13 @@
     </row>
     <row r="65" spans="1:15">
       <c r="B65" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K65" s="38" t="s">
+        <v>864</v>
+      </c>
+      <c r="L65" s="38" t="s">
         <v>865</v>
-      </c>
-      <c r="L65" s="38" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -13678,27 +13684,27 @@
     </row>
     <row r="68" spans="1:15">
       <c r="F68" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N68" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="D69" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J69" t="s">
         <v>1008</v>
       </c>
-      <c r="F69" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J69" t="s">
-        <v>1009</v>
-      </c>
       <c r="N69" t="s">
+        <v>1039</v>
+      </c>
+      <c r="O69" t="s">
         <v>1040</v>
-      </c>
-      <c r="O69" t="s">
-        <v>1041</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -13712,7 +13718,7 @@
         <v>322</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H70" s="12"/>
       <c r="J70" s="265" t="s">
@@ -13727,10 +13733,10 @@
     </row>
     <row r="71" spans="1:15">
       <c r="B71" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C71" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D71" s="38"/>
       <c r="E71" s="38"/>
@@ -13747,21 +13753,21 @@
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="B72" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C72" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D72" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="38" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F72" s="38" t="s">
         <v>611</v>
@@ -13774,7 +13780,7 @@
         <v>2</v>
       </c>
       <c r="K72" s="249" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L72" s="249">
         <v>1</v>
@@ -13783,15 +13789,15 @@
         <v>362</v>
       </c>
       <c r="O72" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C73" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D73" s="38" t="s">
         <v>32</v>
@@ -13826,7 +13832,7 @@
         <v>3</v>
       </c>
       <c r="K74" s="249" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L74" s="249">
         <v>2</v>
@@ -13844,13 +13850,13 @@
     </row>
     <row r="76" spans="1:15">
       <c r="D76" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E76" t="s">
         <v>1018</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>1019</v>
-      </c>
-      <c r="F76" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -13865,7 +13871,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="L79" s="38"/>
       <c r="M79" s="38"/>
@@ -13873,7 +13879,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
@@ -13906,10 +13912,10 @@
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N83" t="s">
         <v>1031</v>
-      </c>
-      <c r="N83" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -13920,83 +13926,83 @@
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
       <c r="N84" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D85" t="s">
         <v>611</v>
       </c>
       <c r="N85" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D86" t="s">
         <v>773</v>
       </c>
       <c r="H86" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D87" t="s">
         <v>1023</v>
       </c>
-      <c r="D87" t="s">
-        <v>1024</v>
-      </c>
       <c r="H87" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="N87" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D88" t="s">
         <v>1025</v>
       </c>
-      <c r="D88" t="s">
-        <v>1026</v>
-      </c>
       <c r="N88" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="N89" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="F90" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G90" t="s">
         <v>1054</v>
-      </c>
-      <c r="G90" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="F91" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G91" t="s">
         <v>1052</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="F92" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G92" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -14005,38 +14011,38 @@
     </row>
     <row r="94" spans="1:14">
       <c r="E94" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
       <c r="H94" s="24" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J94" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="E95" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
       <c r="H95" s="24" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="J95" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="E96" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F96" s="266"/>
       <c r="G96" s="38"/>
       <c r="H96" s="24" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="97" spans="6:9">
@@ -14047,18 +14053,18 @@
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
       <c r="H98" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I98" t="s">
         <v>1056</v>
-      </c>
-      <c r="I98" t="s">
-        <v>1057</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="H99" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I99" t="s">
         <v>1058</v>
-      </c>
-      <c r="I99" t="s">
-        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -14079,12 +14085,12 @@
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" s="37" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1">
       <c r="B4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1">
@@ -14107,18 +14113,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="363" t="s">
+      <c r="E6" s="368" t="s">
         <v>408</v>
       </c>
-      <c r="F6" s="314"/>
-      <c r="G6" s="313" t="s">
+      <c r="F6" s="318"/>
+      <c r="G6" s="317" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="314"/>
+      <c r="H6" s="317"/>
+      <c r="I6" s="317"/>
+      <c r="J6" s="317"/>
+      <c r="K6" s="317"/>
+      <c r="L6" s="318"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -14128,7 +14134,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="361">
+      <c r="D7" s="366">
         <v>80</v>
       </c>
       <c r="E7" s="147"/>
@@ -14146,7 +14152,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="361"/>
+      <c r="D8" s="366"/>
       <c r="E8" s="48" t="s">
         <v>410</v>
       </c>
@@ -14179,7 +14185,7 @@
       <c r="B9" t="s">
         <v>409</v>
       </c>
-      <c r="D9" s="361"/>
+      <c r="D9" s="366"/>
       <c r="E9" s="149"/>
       <c r="F9" s="150"/>
       <c r="G9" s="149"/>
@@ -14203,7 +14209,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="361"/>
+      <c r="D10" s="366"/>
       <c r="E10" s="147"/>
       <c r="F10" s="148"/>
       <c r="G10" s="147"/>
@@ -14227,7 +14233,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="361"/>
+      <c r="D11" s="366"/>
       <c r="E11" s="48" t="s">
         <v>414</v>
       </c>
@@ -14256,7 +14262,7 @@
       <c r="B12" s="215" t="s">
         <v>418</v>
       </c>
-      <c r="D12" s="361"/>
+      <c r="D12" s="366"/>
       <c r="E12" s="149"/>
       <c r="F12" s="150"/>
       <c r="G12" s="149"/>
@@ -14274,7 +14280,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="361"/>
+      <c r="D13" s="366"/>
       <c r="E13" s="147"/>
       <c r="F13" s="148"/>
       <c r="G13" s="147"/>
@@ -14290,7 +14296,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="361"/>
+      <c r="D14" s="366"/>
       <c r="E14" s="48" t="s">
         <v>419</v>
       </c>
@@ -14314,7 +14320,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="361"/>
+      <c r="D15" s="366"/>
       <c r="E15" s="149"/>
       <c r="F15" s="150"/>
       <c r="G15" s="149"/>
@@ -14330,7 +14336,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="361"/>
+      <c r="D16" s="366"/>
       <c r="E16" s="147"/>
       <c r="F16" s="148"/>
       <c r="G16" s="24"/>
@@ -14346,7 +14352,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="361"/>
+      <c r="D17" s="366"/>
       <c r="E17" s="48" t="s">
         <v>423</v>
       </c>
@@ -14370,7 +14376,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="361"/>
+      <c r="D18" s="366"/>
       <c r="E18" s="149"/>
       <c r="F18" s="150"/>
       <c r="G18" s="71"/>
@@ -14387,20 +14393,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="364" t="s">
+      <c r="E19" s="369" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="365"/>
-      <c r="G19" s="364" t="s">
+      <c r="F19" s="370"/>
+      <c r="G19" s="369" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="365"/>
-      <c r="I19" s="364" t="s">
+      <c r="H19" s="370"/>
+      <c r="I19" s="369" t="s">
         <v>197</v>
       </c>
-      <c r="J19" s="366"/>
-      <c r="K19" s="366"/>
-      <c r="L19" s="365"/>
+      <c r="J19" s="371"/>
+      <c r="K19" s="371"/>
+      <c r="L19" s="370"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -14425,7 +14431,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="B21" s="37" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="92"/>
@@ -14465,12 +14471,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="367"/>
-      <c r="H24" s="367"/>
-      <c r="I24" s="367"/>
-      <c r="J24" s="367"/>
-      <c r="K24" s="367"/>
-      <c r="L24" s="367"/>
+      <c r="G24" s="372"/>
+      <c r="H24" s="372"/>
+      <c r="I24" s="372"/>
+      <c r="J24" s="372"/>
+      <c r="K24" s="372"/>
+      <c r="L24" s="372"/>
       <c r="O24" s="40" t="s">
         <v>180</v>
       </c>
@@ -14555,7 +14561,7 @@
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1">
       <c r="A28" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D28" s="218"/>
       <c r="E28" s="5"/>
@@ -14582,13 +14588,13 @@
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1">
       <c r="A29" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D29" s="216">
         <v>6060</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="107" t="s">
@@ -14611,7 +14617,7 @@
     </row>
     <row r="30" spans="1:17" ht="15.75" thickBot="1">
       <c r="A30" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D30" s="218"/>
       <c r="E30" s="5"/>
@@ -14706,25 +14712,25 @@
     </row>
     <row r="38" spans="3:17">
       <c r="L38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="39" spans="3:17">
       <c r="D39" s="37" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="15.75" thickBot="1">
       <c r="M40" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="41" spans="3:17">
       <c r="C41" s="29" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D41" s="3"/>
       <c r="G41" s="219" t="s">
@@ -14734,7 +14740,7 @@
       <c r="I41" s="2"/>
       <c r="J41" s="3"/>
       <c r="L41" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="42" spans="3:17">
@@ -14755,13 +14761,13 @@
       <c r="I43" s="5"/>
       <c r="J43" s="6"/>
       <c r="L43" t="s">
+        <v>905</v>
+      </c>
+      <c r="M43" t="s">
         <v>906</v>
       </c>
-      <c r="M43" t="s">
-        <v>907</v>
-      </c>
       <c r="P43" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="3:17">
@@ -14776,13 +14782,13 @@
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
       <c r="L44" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M44" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P44" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="3:17">
@@ -14810,7 +14816,7 @@
         <v>429</v>
       </c>
       <c r="G46" s="268" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H46" s="269"/>
       <c r="I46" s="24" t="s">
@@ -14824,13 +14830,13 @@
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
       <c r="G47" s="228" t="s">
-        <v>911</v>
-      </c>
-      <c r="H47" s="356" t="s">
+        <v>910</v>
+      </c>
+      <c r="H47" s="360" t="s">
         <v>445</v>
       </c>
-      <c r="I47" s="362"/>
-      <c r="J47" s="357"/>
+      <c r="I47" s="367"/>
+      <c r="J47" s="361"/>
     </row>
     <row r="48" spans="3:17">
       <c r="F48" t="s">
@@ -14844,26 +14850,26 @@
         <v>801</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I49" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J49" s="40" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="50" spans="2:17">
       <c r="C50" s="29" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D50" s="3"/>
       <c r="H50" s="40"/>
       <c r="I50" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J50" s="40"/>
     </row>
@@ -14875,7 +14881,7 @@
       </c>
       <c r="H51" s="40"/>
       <c r="I51" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J51" s="113" t="s">
         <v>435</v>
@@ -14916,13 +14922,13 @@
         <v>337</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H53" s="224" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J53" s="35" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K53" s="6"/>
       <c r="M53" s="4"/>
@@ -14940,18 +14946,18 @@
         <v>429</v>
       </c>
       <c r="G54" s="226" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H54" s="225"/>
       <c r="I54" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J54" s="35" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K54" s="6"/>
       <c r="M54" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="N54" s="6"/>
       <c r="P54" s="4" t="s">
@@ -14963,11 +14969,11 @@
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
       <c r="G55" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H55" s="23"/>
       <c r="J55" s="8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K55" s="9"/>
       <c r="M55" s="8"/>
@@ -14981,7 +14987,7 @@
     </row>
     <row r="57" spans="2:17">
       <c r="F57" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58" spans="2:17">
@@ -14989,119 +14995,119 @@
         <v>429</v>
       </c>
       <c r="G58" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="59" spans="2:17">
       <c r="F59" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G59" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="63" spans="2:17">
       <c r="E63" t="s">
+        <v>881</v>
+      </c>
+      <c r="J63" t="s">
         <v>882</v>
-      </c>
-      <c r="J63" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="64" spans="2:17">
       <c r="B64" s="76" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D64" t="s">
+        <v>883</v>
+      </c>
+      <c r="J64" t="s">
         <v>884</v>
-      </c>
-      <c r="J64" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65" s="76" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D65" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J65" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66" s="76" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D66" t="s">
+        <v>892</v>
+      </c>
+      <c r="J66" t="s">
         <v>893</v>
-      </c>
-      <c r="J66" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" s="76" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D67" t="s">
+        <v>885</v>
+      </c>
+      <c r="J67" t="s">
         <v>886</v>
-      </c>
-      <c r="J67" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68" s="76" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D68" t="s">
+        <v>887</v>
+      </c>
+      <c r="J68" t="s">
         <v>888</v>
-      </c>
-      <c r="J68" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69" s="76" t="s">
+        <v>898</v>
+      </c>
+      <c r="D69" t="s">
         <v>899</v>
       </c>
-      <c r="D69" t="s">
+      <c r="J69" t="s">
         <v>900</v>
-      </c>
-      <c r="J69" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70" s="76" t="s">
+        <v>901</v>
+      </c>
+      <c r="D70" t="s">
         <v>902</v>
       </c>
-      <c r="D70" t="s">
+      <c r="J70" t="s">
         <v>903</v>
-      </c>
-      <c r="J70" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71" s="76" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D71" t="s">
         <v>1080</v>
       </c>
-      <c r="D71" t="s">
+      <c r="J71" t="s">
         <v>1081</v>
-      </c>
-      <c r="J71" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="D75" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F75" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="84" spans="3:14" ht="15.75" thickBot="1"/>
@@ -15127,23 +15133,23 @@
       <c r="C88" s="4"/>
       <c r="D88" s="6"/>
       <c r="M88" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="N88" s="6"/>
     </row>
     <row r="89" spans="3:14">
       <c r="C89" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D89" s="6"/>
       <c r="M89" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N89" s="6"/>
     </row>
     <row r="90" spans="3:14">
       <c r="C90" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D90" s="6"/>
       <c r="F90" t="s">
@@ -15357,24 +15363,24 @@
     </row>
     <row r="131" spans="2:15">
       <c r="D131" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="359" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H131" s="359"/>
-      <c r="I131" s="359"/>
-      <c r="J131" s="359"/>
-      <c r="K131" s="359"/>
-      <c r="L131" s="359"/>
-      <c r="M131" s="359"/>
-      <c r="N131" s="359"/>
+      <c r="G131" s="364" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H131" s="364"/>
+      <c r="I131" s="364"/>
+      <c r="J131" s="364"/>
+      <c r="K131" s="364"/>
+      <c r="L131" s="364"/>
+      <c r="M131" s="364"/>
+      <c r="N131" s="364"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
       <c r="B132" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D132" t="s">
         <v>195</v>
@@ -15396,7 +15402,7 @@
       </c>
       <c r="G133" s="38"/>
       <c r="H133" s="164" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I133" s="164"/>
       <c r="J133" s="38"/>
@@ -15408,7 +15414,7 @@
     </row>
     <row r="134" spans="2:15">
       <c r="D134" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -15423,11 +15429,11 @@
     </row>
     <row r="135" spans="2:15">
       <c r="F135" s="38" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G135" s="38"/>
       <c r="H135" s="164" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I135" s="164"/>
       <c r="J135" s="38"/>
@@ -15463,14 +15469,14 @@
     </row>
     <row r="138" spans="2:15">
       <c r="D138" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F138" s="38" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G138" s="38"/>
       <c r="H138" s="164" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I138" s="164"/>
       <c r="J138" s="38"/>
@@ -15506,29 +15512,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="360"/>
-      <c r="H141" s="360"/>
-      <c r="I141" s="360"/>
-      <c r="J141" s="360"/>
-      <c r="K141" s="360"/>
-      <c r="L141" s="360"/>
-      <c r="M141" s="360"/>
-      <c r="N141" s="360"/>
-      <c r="O141" s="360"/>
+      <c r="G141" s="365"/>
+      <c r="H141" s="365"/>
+      <c r="I141" s="365"/>
+      <c r="J141" s="365"/>
+      <c r="K141" s="365"/>
+      <c r="L141" s="365"/>
+      <c r="M141" s="365"/>
+      <c r="N141" s="365"/>
+      <c r="O141" s="365"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="360"/>
-      <c r="H142" s="360"/>
-      <c r="I142" s="360"/>
-      <c r="J142" s="360"/>
-      <c r="K142" s="360"/>
-      <c r="L142" s="360"/>
-      <c r="M142" s="360"/>
-      <c r="N142" s="360"/>
-      <c r="O142" s="360"/>
+      <c r="G142" s="365"/>
+      <c r="H142" s="365"/>
+      <c r="I142" s="365"/>
+      <c r="J142" s="365"/>
+      <c r="K142" s="365"/>
+      <c r="L142" s="365"/>
+      <c r="M142" s="365"/>
+      <c r="N142" s="365"/>
+      <c r="O142" s="365"/>
     </row>
     <row r="190" spans="9:9">
       <c r="I190" t="s">
@@ -15537,7 +15543,7 @@
     </row>
     <row r="191" spans="9:9">
       <c r="I191" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="193" spans="6:13">
@@ -15546,7 +15552,7 @@
     <row r="194" spans="6:13">
       <c r="I194" s="32"/>
       <c r="M194" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="195" spans="6:13">
@@ -15562,50 +15568,50 @@
     </row>
     <row r="196" spans="6:13">
       <c r="F196" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H196" t="s">
         <v>1096</v>
       </c>
-      <c r="H196" t="s">
+      <c r="J196" t="s">
         <v>1097</v>
       </c>
-      <c r="J196" t="s">
+      <c r="L196" t="s">
         <v>1098</v>
       </c>
-      <c r="L196" t="s">
-        <v>1099</v>
-      </c>
       <c r="M196" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="197" spans="6:13">
       <c r="F197" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H197" t="s">
         <v>1092</v>
       </c>
-      <c r="H197" t="s">
+      <c r="J197" t="s">
         <v>1093</v>
       </c>
-      <c r="J197" t="s">
+      <c r="L197" t="s">
         <v>1094</v>
-      </c>
-      <c r="L197" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="198" spans="6:13">
       <c r="F198" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H198" t="s">
         <v>1088</v>
       </c>
-      <c r="H198" t="s">
+      <c r="J198" t="s">
         <v>1089</v>
       </c>
-      <c r="J198" t="s">
+      <c r="L198" t="s">
         <v>1090</v>
       </c>
-      <c r="L198" t="s">
-        <v>1091</v>
-      </c>
       <c r="M198" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="199" spans="6:13">
@@ -15622,16 +15628,16 @@
     </row>
     <row r="201" spans="6:13">
       <c r="F201" s="40" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H201" s="40" t="s">
         <v>1083</v>
       </c>
-      <c r="H201" s="40" t="s">
+      <c r="J201" s="40" t="s">
         <v>1084</v>
       </c>
-      <c r="J201" s="40" t="s">
+      <c r="L201" s="40" t="s">
         <v>1085</v>
-      </c>
-      <c r="L201" s="40" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="202" spans="6:13">
@@ -15902,13 +15908,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="368" t="s">
+      <c r="D20" s="373" t="s">
         <v>459</v>
       </c>
-      <c r="E20" s="368"/>
-      <c r="F20" s="368"/>
-      <c r="G20" s="368"/>
-      <c r="H20" s="368"/>
+      <c r="E20" s="373"/>
+      <c r="F20" s="373"/>
+      <c r="G20" s="373"/>
+      <c r="H20" s="373"/>
       <c r="I20" s="38" t="s">
         <v>460</v>
       </c>
@@ -15919,37 +15925,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="379">
+      <c r="C21" s="374">
         <v>43909</v>
       </c>
-      <c r="D21" s="368"/>
-      <c r="E21" s="368"/>
-      <c r="F21" s="368"/>
-      <c r="G21" s="368"/>
-      <c r="H21" s="368"/>
+      <c r="D21" s="373"/>
+      <c r="E21" s="373"/>
+      <c r="F21" s="373"/>
+      <c r="G21" s="373"/>
+      <c r="H21" s="373"/>
       <c r="I21" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="J21" s="368"/>
-      <c r="K21" s="368"/>
-      <c r="L21" s="368" t="s">
+      <c r="J21" s="373"/>
+      <c r="K21" s="373"/>
+      <c r="L21" s="373" t="s">
         <v>462</v>
       </c>
-      <c r="M21" s="368"/>
-      <c r="N21" s="368"/>
+      <c r="M21" s="373"/>
+      <c r="N21" s="373"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="379"/>
-      <c r="D22" s="368"/>
-      <c r="E22" s="368"/>
-      <c r="F22" s="368"/>
-      <c r="G22" s="368"/>
-      <c r="H22" s="368"/>
-      <c r="I22" s="323" t="s">
+      <c r="C22" s="374"/>
+      <c r="D22" s="373"/>
+      <c r="E22" s="373"/>
+      <c r="F22" s="373"/>
+      <c r="G22" s="373"/>
+      <c r="H22" s="373"/>
+      <c r="I22" s="327" t="s">
         <v>463</v>
       </c>
-      <c r="J22" s="368"/>
-      <c r="K22" s="368"/>
+      <c r="J22" s="373"/>
+      <c r="K22" s="373"/>
       <c r="L22" s="117" t="s">
         <v>464</v>
       </c>
@@ -15957,31 +15963,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="379"/>
-      <c r="D23" s="368"/>
-      <c r="E23" s="368"/>
-      <c r="F23" s="368"/>
-      <c r="G23" s="368"/>
-      <c r="H23" s="368"/>
-      <c r="I23" s="323"/>
-      <c r="J23" s="368"/>
-      <c r="K23" s="368"/>
-      <c r="L23" s="368" t="s">
+      <c r="C23" s="374"/>
+      <c r="D23" s="373"/>
+      <c r="E23" s="373"/>
+      <c r="F23" s="373"/>
+      <c r="G23" s="373"/>
+      <c r="H23" s="373"/>
+      <c r="I23" s="327"/>
+      <c r="J23" s="373"/>
+      <c r="K23" s="373"/>
+      <c r="L23" s="373" t="s">
         <v>465</v>
       </c>
-      <c r="M23" s="368"/>
-      <c r="N23" s="368"/>
+      <c r="M23" s="373"/>
+      <c r="N23" s="373"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="379"/>
-      <c r="D24" s="368"/>
-      <c r="E24" s="368"/>
-      <c r="F24" s="368"/>
-      <c r="G24" s="368"/>
-      <c r="H24" s="368"/>
-      <c r="I24" s="323"/>
-      <c r="J24" s="368"/>
-      <c r="K24" s="368"/>
+      <c r="C24" s="374"/>
+      <c r="D24" s="373"/>
+      <c r="E24" s="373"/>
+      <c r="F24" s="373"/>
+      <c r="G24" s="373"/>
+      <c r="H24" s="373"/>
+      <c r="I24" s="327"/>
+      <c r="J24" s="373"/>
+      <c r="K24" s="373"/>
       <c r="L24" s="118" t="s">
         <v>463</v>
       </c>
@@ -15992,13 +15998,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="368" t="s">
+      <c r="D25" s="373" t="s">
         <v>466</v>
       </c>
-      <c r="E25" s="368"/>
-      <c r="F25" s="368"/>
-      <c r="G25" s="368"/>
-      <c r="H25" s="368"/>
+      <c r="E25" s="373"/>
+      <c r="F25" s="373"/>
+      <c r="G25" s="373"/>
+      <c r="H25" s="373"/>
       <c r="I25" s="38" t="s">
         <v>467</v>
       </c>
@@ -16012,16 +16018,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="369"/>
-      <c r="E26" s="370"/>
-      <c r="F26" s="370"/>
-      <c r="G26" s="370"/>
-      <c r="H26" s="371"/>
-      <c r="I26" s="376" t="s">
+      <c r="D26" s="375"/>
+      <c r="E26" s="376"/>
+      <c r="F26" s="376"/>
+      <c r="G26" s="376"/>
+      <c r="H26" s="377"/>
+      <c r="I26" s="382" t="s">
         <v>463</v>
       </c>
-      <c r="J26" s="369"/>
-      <c r="K26" s="371"/>
+      <c r="J26" s="375"/>
+      <c r="K26" s="377"/>
       <c r="L26" s="117" t="s">
         <v>464</v>
       </c>
@@ -16030,30 +16036,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="372"/>
-      <c r="E27" s="367"/>
-      <c r="F27" s="367"/>
-      <c r="G27" s="367"/>
-      <c r="H27" s="373"/>
-      <c r="I27" s="377"/>
-      <c r="J27" s="372"/>
-      <c r="K27" s="373"/>
-      <c r="L27" s="368" t="s">
+      <c r="D27" s="378"/>
+      <c r="E27" s="372"/>
+      <c r="F27" s="372"/>
+      <c r="G27" s="372"/>
+      <c r="H27" s="379"/>
+      <c r="I27" s="383"/>
+      <c r="J27" s="378"/>
+      <c r="K27" s="379"/>
+      <c r="L27" s="373" t="s">
         <v>468</v>
       </c>
-      <c r="M27" s="368"/>
-      <c r="N27" s="368"/>
+      <c r="M27" s="373"/>
+      <c r="N27" s="373"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="372"/>
-      <c r="E28" s="367"/>
-      <c r="F28" s="367"/>
-      <c r="G28" s="367"/>
-      <c r="H28" s="373"/>
-      <c r="I28" s="377"/>
-      <c r="J28" s="372"/>
-      <c r="K28" s="373"/>
+      <c r="D28" s="378"/>
+      <c r="E28" s="372"/>
+      <c r="F28" s="372"/>
+      <c r="G28" s="372"/>
+      <c r="H28" s="379"/>
+      <c r="I28" s="383"/>
+      <c r="J28" s="378"/>
+      <c r="K28" s="379"/>
       <c r="L28" s="118" t="s">
         <v>463</v>
       </c>
@@ -16062,14 +16068,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="374"/>
-      <c r="E29" s="358"/>
-      <c r="F29" s="358"/>
-      <c r="G29" s="358"/>
-      <c r="H29" s="375"/>
-      <c r="I29" s="378"/>
-      <c r="J29" s="374"/>
-      <c r="K29" s="375"/>
+      <c r="D29" s="380"/>
+      <c r="E29" s="362"/>
+      <c r="F29" s="362"/>
+      <c r="G29" s="362"/>
+      <c r="H29" s="381"/>
+      <c r="I29" s="384"/>
+      <c r="J29" s="380"/>
+      <c r="K29" s="381"/>
       <c r="L29" s="119" t="s">
         <v>469</v>
       </c>
@@ -16117,13 +16123,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="368" t="s">
+      <c r="D33" s="373" t="s">
         <v>459</v>
       </c>
-      <c r="E33" s="368"/>
-      <c r="F33" s="368"/>
-      <c r="G33" s="368"/>
-      <c r="H33" s="368"/>
+      <c r="E33" s="373"/>
+      <c r="F33" s="373"/>
+      <c r="G33" s="373"/>
+      <c r="H33" s="373"/>
       <c r="I33" s="38" t="s">
         <v>460</v>
       </c>
@@ -16134,33 +16140,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="379">
+      <c r="C34" s="374">
         <v>43909</v>
       </c>
-      <c r="D34" s="368"/>
-      <c r="E34" s="368"/>
-      <c r="F34" s="368"/>
-      <c r="G34" s="368"/>
-      <c r="H34" s="368"/>
-      <c r="I34" s="380"/>
-      <c r="J34" s="368"/>
-      <c r="K34" s="368"/>
-      <c r="L34" s="368" t="s">
+      <c r="D34" s="373"/>
+      <c r="E34" s="373"/>
+      <c r="F34" s="373"/>
+      <c r="G34" s="373"/>
+      <c r="H34" s="373"/>
+      <c r="I34" s="385"/>
+      <c r="J34" s="373"/>
+      <c r="K34" s="373"/>
+      <c r="L34" s="373" t="s">
         <v>462</v>
       </c>
-      <c r="M34" s="368"/>
-      <c r="N34" s="368"/>
+      <c r="M34" s="373"/>
+      <c r="N34" s="373"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="379"/>
-      <c r="D35" s="368"/>
-      <c r="E35" s="368"/>
-      <c r="F35" s="368"/>
-      <c r="G35" s="368"/>
-      <c r="H35" s="368"/>
-      <c r="I35" s="381"/>
-      <c r="J35" s="368"/>
-      <c r="K35" s="368"/>
+      <c r="C35" s="374"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="373"/>
+      <c r="F35" s="373"/>
+      <c r="G35" s="373"/>
+      <c r="H35" s="373"/>
+      <c r="I35" s="386"/>
+      <c r="J35" s="373"/>
+      <c r="K35" s="373"/>
       <c r="L35" s="117" t="s">
         <v>464</v>
       </c>
@@ -16168,31 +16174,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="379"/>
-      <c r="D36" s="368"/>
-      <c r="E36" s="368"/>
-      <c r="F36" s="368"/>
-      <c r="G36" s="368"/>
-      <c r="H36" s="368"/>
-      <c r="I36" s="381"/>
-      <c r="J36" s="368"/>
-      <c r="K36" s="368"/>
-      <c r="L36" s="368" t="s">
+      <c r="C36" s="374"/>
+      <c r="D36" s="373"/>
+      <c r="E36" s="373"/>
+      <c r="F36" s="373"/>
+      <c r="G36" s="373"/>
+      <c r="H36" s="373"/>
+      <c r="I36" s="386"/>
+      <c r="J36" s="373"/>
+      <c r="K36" s="373"/>
+      <c r="L36" s="373" t="s">
         <v>465</v>
       </c>
-      <c r="M36" s="368"/>
-      <c r="N36" s="368"/>
+      <c r="M36" s="373"/>
+      <c r="N36" s="373"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="379"/>
-      <c r="D37" s="368"/>
-      <c r="E37" s="368"/>
-      <c r="F37" s="368"/>
-      <c r="G37" s="368"/>
-      <c r="H37" s="368"/>
-      <c r="I37" s="382"/>
-      <c r="J37" s="368"/>
-      <c r="K37" s="368"/>
+      <c r="C37" s="374"/>
+      <c r="D37" s="373"/>
+      <c r="E37" s="373"/>
+      <c r="F37" s="373"/>
+      <c r="G37" s="373"/>
+      <c r="H37" s="373"/>
+      <c r="I37" s="387"/>
+      <c r="J37" s="373"/>
+      <c r="K37" s="373"/>
       <c r="L37" s="118" t="s">
         <v>470</v>
       </c>
@@ -16203,13 +16209,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="368" t="s">
+      <c r="D38" s="373" t="s">
         <v>466</v>
       </c>
-      <c r="E38" s="368"/>
-      <c r="F38" s="368"/>
-      <c r="G38" s="368"/>
-      <c r="H38" s="368"/>
+      <c r="E38" s="373"/>
+      <c r="F38" s="373"/>
+      <c r="G38" s="373"/>
+      <c r="H38" s="373"/>
       <c r="I38" s="38" t="s">
         <v>467</v>
       </c>
@@ -16223,14 +16229,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="369"/>
-      <c r="E39" s="370"/>
-      <c r="F39" s="370"/>
-      <c r="G39" s="370"/>
-      <c r="H39" s="371"/>
-      <c r="I39" s="376"/>
-      <c r="J39" s="369"/>
-      <c r="K39" s="371"/>
+      <c r="D39" s="375"/>
+      <c r="E39" s="376"/>
+      <c r="F39" s="376"/>
+      <c r="G39" s="376"/>
+      <c r="H39" s="377"/>
+      <c r="I39" s="382"/>
+      <c r="J39" s="375"/>
+      <c r="K39" s="377"/>
       <c r="L39" s="117" t="s">
         <v>464</v>
       </c>
@@ -16239,30 +16245,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="372"/>
-      <c r="E40" s="367"/>
-      <c r="F40" s="367"/>
-      <c r="G40" s="367"/>
-      <c r="H40" s="373"/>
-      <c r="I40" s="377"/>
-      <c r="J40" s="372"/>
-      <c r="K40" s="373"/>
-      <c r="L40" s="368" t="s">
+      <c r="D40" s="378"/>
+      <c r="E40" s="372"/>
+      <c r="F40" s="372"/>
+      <c r="G40" s="372"/>
+      <c r="H40" s="379"/>
+      <c r="I40" s="383"/>
+      <c r="J40" s="378"/>
+      <c r="K40" s="379"/>
+      <c r="L40" s="373" t="s">
         <v>468</v>
       </c>
-      <c r="M40" s="368"/>
-      <c r="N40" s="368"/>
+      <c r="M40" s="373"/>
+      <c r="N40" s="373"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="372"/>
-      <c r="E41" s="367"/>
-      <c r="F41" s="367"/>
-      <c r="G41" s="367"/>
-      <c r="H41" s="373"/>
-      <c r="I41" s="378"/>
-      <c r="J41" s="372"/>
-      <c r="K41" s="373"/>
+      <c r="D41" s="378"/>
+      <c r="E41" s="372"/>
+      <c r="F41" s="372"/>
+      <c r="G41" s="372"/>
+      <c r="H41" s="379"/>
+      <c r="I41" s="384"/>
+      <c r="J41" s="378"/>
+      <c r="K41" s="379"/>
       <c r="L41" s="118" t="s">
         <v>470</v>
       </c>
@@ -16271,16 +16277,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="374"/>
-      <c r="E42" s="358"/>
-      <c r="F42" s="358"/>
-      <c r="G42" s="358"/>
-      <c r="H42" s="375"/>
+      <c r="D42" s="380"/>
+      <c r="E42" s="362"/>
+      <c r="F42" s="362"/>
+      <c r="G42" s="362"/>
+      <c r="H42" s="381"/>
       <c r="I42" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="J42" s="374"/>
-      <c r="K42" s="375"/>
+      <c r="J42" s="380"/>
+      <c r="K42" s="381"/>
       <c r="L42" s="119" t="s">
         <v>469</v>
       </c>
@@ -16592,12 +16598,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -16605,17 +16616,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16637,29 +16643,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="404" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="404"/>
-      <c r="I2" s="404"/>
-      <c r="J2" s="404"/>
-      <c r="K2" s="404"/>
-      <c r="L2" s="404"/>
-      <c r="M2" s="404"/>
-      <c r="N2" s="404"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="404"/>
-      <c r="Q2" s="404"/>
-      <c r="R2" s="404"/>
-      <c r="S2" s="404"/>
-      <c r="T2" s="404"/>
-      <c r="U2" s="404"/>
-      <c r="V2" s="404"/>
+      <c r="B2" s="395" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="395"/>
+      <c r="G2" s="395"/>
+      <c r="H2" s="395"/>
+      <c r="I2" s="395"/>
+      <c r="J2" s="395"/>
+      <c r="K2" s="395"/>
+      <c r="L2" s="395"/>
+      <c r="M2" s="395"/>
+      <c r="N2" s="395"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="395"/>
+      <c r="Q2" s="395"/>
+      <c r="R2" s="395"/>
+      <c r="S2" s="395"/>
+      <c r="T2" s="395"/>
+      <c r="U2" s="395"/>
+      <c r="V2" s="395"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -16692,22 +16698,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="383" t="s">
+      <c r="G5" s="401" t="s">
         <v>521</v>
       </c>
-      <c r="H5" s="383"/>
-      <c r="I5" s="383" t="s">
+      <c r="H5" s="401"/>
+      <c r="I5" s="401" t="s">
         <v>522</v>
       </c>
-      <c r="J5" s="383"/>
-      <c r="K5" s="383"/>
-      <c r="L5" s="383"/>
-      <c r="M5" s="383"/>
-      <c r="N5" s="383"/>
-      <c r="O5" s="383" t="s">
+      <c r="J5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="401"/>
+      <c r="N5" s="401"/>
+      <c r="O5" s="401" t="s">
         <v>523</v>
       </c>
-      <c r="P5" s="383"/>
+      <c r="P5" s="401"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -16719,7 +16725,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="384" t="s">
+      <c r="G6" s="406" t="s">
         <v>524</v>
       </c>
       <c r="H6" s="111"/>
@@ -16748,26 +16754,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="385"/>
-      <c r="H7" s="387" t="s">
+      <c r="G7" s="407"/>
+      <c r="H7" s="409" t="s">
         <v>526</v>
       </c>
-      <c r="I7" s="390" t="s">
+      <c r="I7" s="412" t="s">
         <v>527</v>
       </c>
-      <c r="J7" s="391"/>
-      <c r="K7" s="392" t="s">
+      <c r="J7" s="413"/>
+      <c r="K7" s="414" t="s">
         <v>528</v>
       </c>
-      <c r="L7" s="393"/>
-      <c r="M7" s="390" t="s">
+      <c r="L7" s="415"/>
+      <c r="M7" s="412" t="s">
         <v>529</v>
       </c>
-      <c r="N7" s="391"/>
-      <c r="O7" s="398" t="s">
+      <c r="N7" s="413"/>
+      <c r="O7" s="420" t="s">
         <v>530</v>
       </c>
-      <c r="P7" s="399"/>
+      <c r="P7" s="421"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -16779,16 +16785,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="385"/>
-      <c r="H8" s="388"/>
-      <c r="I8" s="335"/>
-      <c r="J8" s="322"/>
-      <c r="K8" s="394"/>
-      <c r="L8" s="395"/>
-      <c r="M8" s="335"/>
-      <c r="N8" s="322"/>
-      <c r="O8" s="400"/>
-      <c r="P8" s="401"/>
+      <c r="G8" s="407"/>
+      <c r="H8" s="410"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="326"/>
+      <c r="K8" s="416"/>
+      <c r="L8" s="417"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="326"/>
+      <c r="O8" s="422"/>
+      <c r="P8" s="423"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>183</v>
@@ -16806,16 +16812,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="385"/>
-      <c r="H9" s="388"/>
-      <c r="I9" s="335"/>
-      <c r="J9" s="322"/>
-      <c r="K9" s="394"/>
-      <c r="L9" s="395"/>
-      <c r="M9" s="335"/>
-      <c r="N9" s="322"/>
-      <c r="O9" s="400"/>
-      <c r="P9" s="401"/>
+      <c r="G9" s="407"/>
+      <c r="H9" s="410"/>
+      <c r="I9" s="339"/>
+      <c r="J9" s="326"/>
+      <c r="K9" s="416"/>
+      <c r="L9" s="417"/>
+      <c r="M9" s="339"/>
+      <c r="N9" s="326"/>
+      <c r="O9" s="422"/>
+      <c r="P9" s="423"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -16835,16 +16841,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="385"/>
-      <c r="H10" s="388"/>
-      <c r="I10" s="335"/>
-      <c r="J10" s="322"/>
-      <c r="K10" s="394"/>
-      <c r="L10" s="395"/>
-      <c r="M10" s="335"/>
-      <c r="N10" s="322"/>
-      <c r="O10" s="400"/>
-      <c r="P10" s="401"/>
+      <c r="G10" s="407"/>
+      <c r="H10" s="410"/>
+      <c r="I10" s="339"/>
+      <c r="J10" s="326"/>
+      <c r="K10" s="416"/>
+      <c r="L10" s="417"/>
+      <c r="M10" s="339"/>
+      <c r="N10" s="326"/>
+      <c r="O10" s="422"/>
+      <c r="P10" s="423"/>
       <c r="Q10" s="5" t="s">
         <v>188</v>
       </c>
@@ -16860,16 +16866,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="385"/>
-      <c r="H11" s="388"/>
-      <c r="I11" s="335"/>
-      <c r="J11" s="322"/>
-      <c r="K11" s="394"/>
-      <c r="L11" s="395"/>
-      <c r="M11" s="335"/>
-      <c r="N11" s="322"/>
-      <c r="O11" s="400"/>
-      <c r="P11" s="401"/>
+      <c r="G11" s="407"/>
+      <c r="H11" s="410"/>
+      <c r="I11" s="339"/>
+      <c r="J11" s="326"/>
+      <c r="K11" s="416"/>
+      <c r="L11" s="417"/>
+      <c r="M11" s="339"/>
+      <c r="N11" s="326"/>
+      <c r="O11" s="422"/>
+      <c r="P11" s="423"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -16887,16 +16893,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="385"/>
-      <c r="H12" s="388"/>
-      <c r="I12" s="335"/>
-      <c r="J12" s="322"/>
-      <c r="K12" s="394"/>
-      <c r="L12" s="395"/>
-      <c r="M12" s="335"/>
-      <c r="N12" s="322"/>
-      <c r="O12" s="400"/>
-      <c r="P12" s="401"/>
+      <c r="G12" s="407"/>
+      <c r="H12" s="410"/>
+      <c r="I12" s="339"/>
+      <c r="J12" s="326"/>
+      <c r="K12" s="416"/>
+      <c r="L12" s="417"/>
+      <c r="M12" s="339"/>
+      <c r="N12" s="326"/>
+      <c r="O12" s="422"/>
+      <c r="P12" s="423"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -16910,16 +16916,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="385"/>
-      <c r="H13" s="388"/>
-      <c r="I13" s="335"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="394"/>
-      <c r="L13" s="395"/>
-      <c r="M13" s="335"/>
-      <c r="N13" s="322"/>
-      <c r="O13" s="400"/>
-      <c r="P13" s="401"/>
+      <c r="G13" s="407"/>
+      <c r="H13" s="410"/>
+      <c r="I13" s="339"/>
+      <c r="J13" s="326"/>
+      <c r="K13" s="416"/>
+      <c r="L13" s="417"/>
+      <c r="M13" s="339"/>
+      <c r="N13" s="326"/>
+      <c r="O13" s="422"/>
+      <c r="P13" s="423"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -16931,16 +16937,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="385"/>
-      <c r="H14" s="388"/>
-      <c r="I14" s="335"/>
-      <c r="J14" s="322"/>
-      <c r="K14" s="394"/>
-      <c r="L14" s="395"/>
-      <c r="M14" s="335"/>
-      <c r="N14" s="322"/>
-      <c r="O14" s="400"/>
-      <c r="P14" s="401"/>
+      <c r="G14" s="407"/>
+      <c r="H14" s="410"/>
+      <c r="I14" s="339"/>
+      <c r="J14" s="326"/>
+      <c r="K14" s="416"/>
+      <c r="L14" s="417"/>
+      <c r="M14" s="339"/>
+      <c r="N14" s="326"/>
+      <c r="O14" s="422"/>
+      <c r="P14" s="423"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -16954,16 +16960,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="385"/>
-      <c r="H15" s="388"/>
-      <c r="I15" s="335"/>
-      <c r="J15" s="322"/>
-      <c r="K15" s="394"/>
-      <c r="L15" s="395"/>
-      <c r="M15" s="335"/>
-      <c r="N15" s="322"/>
-      <c r="O15" s="400"/>
-      <c r="P15" s="401"/>
+      <c r="G15" s="407"/>
+      <c r="H15" s="410"/>
+      <c r="I15" s="339"/>
+      <c r="J15" s="326"/>
+      <c r="K15" s="416"/>
+      <c r="L15" s="417"/>
+      <c r="M15" s="339"/>
+      <c r="N15" s="326"/>
+      <c r="O15" s="422"/>
+      <c r="P15" s="423"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -16975,16 +16981,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="385"/>
-      <c r="H16" s="388"/>
-      <c r="I16" s="335"/>
-      <c r="J16" s="322"/>
-      <c r="K16" s="394"/>
-      <c r="L16" s="395"/>
-      <c r="M16" s="335"/>
-      <c r="N16" s="322"/>
-      <c r="O16" s="400"/>
-      <c r="P16" s="401"/>
+      <c r="G16" s="407"/>
+      <c r="H16" s="410"/>
+      <c r="I16" s="339"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="416"/>
+      <c r="L16" s="417"/>
+      <c r="M16" s="339"/>
+      <c r="N16" s="326"/>
+      <c r="O16" s="422"/>
+      <c r="P16" s="423"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -16996,16 +17002,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="385"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="335"/>
-      <c r="J17" s="322"/>
-      <c r="K17" s="394"/>
-      <c r="L17" s="395"/>
-      <c r="M17" s="335"/>
-      <c r="N17" s="322"/>
-      <c r="O17" s="400"/>
-      <c r="P17" s="401"/>
+      <c r="G17" s="407"/>
+      <c r="H17" s="410"/>
+      <c r="I17" s="339"/>
+      <c r="J17" s="326"/>
+      <c r="K17" s="416"/>
+      <c r="L17" s="417"/>
+      <c r="M17" s="339"/>
+      <c r="N17" s="326"/>
+      <c r="O17" s="422"/>
+      <c r="P17" s="423"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -17017,16 +17023,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="385"/>
-      <c r="H18" s="388"/>
-      <c r="I18" s="335"/>
-      <c r="J18" s="322"/>
-      <c r="K18" s="394"/>
-      <c r="L18" s="395"/>
-      <c r="M18" s="335"/>
-      <c r="N18" s="322"/>
-      <c r="O18" s="400"/>
-      <c r="P18" s="401"/>
+      <c r="G18" s="407"/>
+      <c r="H18" s="410"/>
+      <c r="I18" s="339"/>
+      <c r="J18" s="326"/>
+      <c r="K18" s="416"/>
+      <c r="L18" s="417"/>
+      <c r="M18" s="339"/>
+      <c r="N18" s="326"/>
+      <c r="O18" s="422"/>
+      <c r="P18" s="423"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -17040,16 +17046,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="385"/>
-      <c r="H19" s="388"/>
-      <c r="I19" s="335"/>
-      <c r="J19" s="322"/>
-      <c r="K19" s="394"/>
-      <c r="L19" s="395"/>
-      <c r="M19" s="335"/>
-      <c r="N19" s="322"/>
-      <c r="O19" s="400"/>
-      <c r="P19" s="401"/>
+      <c r="G19" s="407"/>
+      <c r="H19" s="410"/>
+      <c r="I19" s="339"/>
+      <c r="J19" s="326"/>
+      <c r="K19" s="416"/>
+      <c r="L19" s="417"/>
+      <c r="M19" s="339"/>
+      <c r="N19" s="326"/>
+      <c r="O19" s="422"/>
+      <c r="P19" s="423"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -17061,16 +17067,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="386"/>
-      <c r="H20" s="389"/>
-      <c r="I20" s="337"/>
-      <c r="J20" s="339"/>
-      <c r="K20" s="396"/>
-      <c r="L20" s="397"/>
-      <c r="M20" s="337"/>
-      <c r="N20" s="339"/>
-      <c r="O20" s="402"/>
-      <c r="P20" s="403"/>
+      <c r="G20" s="408"/>
+      <c r="H20" s="411"/>
+      <c r="I20" s="341"/>
+      <c r="J20" s="343"/>
+      <c r="K20" s="418"/>
+      <c r="L20" s="419"/>
+      <c r="M20" s="341"/>
+      <c r="N20" s="343"/>
+      <c r="O20" s="424"/>
+      <c r="P20" s="425"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -17100,27 +17106,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="340" t="s">
+      <c r="D22" s="344" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="341"/>
+      <c r="E22" s="345"/>
       <c r="F22" s="271"/>
       <c r="G22" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="340" t="s">
+      <c r="H22" s="344" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="342"/>
-      <c r="J22" s="342"/>
-      <c r="K22" s="342"/>
-      <c r="L22" s="342"/>
-      <c r="M22" s="342"/>
-      <c r="N22" s="341"/>
-      <c r="O22" s="340" t="s">
+      <c r="I22" s="346"/>
+      <c r="J22" s="346"/>
+      <c r="K22" s="346"/>
+      <c r="L22" s="346"/>
+      <c r="M22" s="346"/>
+      <c r="N22" s="345"/>
+      <c r="O22" s="344" t="s">
         <v>531</v>
       </c>
-      <c r="P22" s="341"/>
+      <c r="P22" s="345"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -17133,7 +17139,7 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -17151,59 +17157,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="404" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C25" s="404"/>
-      <c r="D25" s="404"/>
-      <c r="E25" s="404"/>
-      <c r="F25" s="404"/>
-      <c r="G25" s="404"/>
-      <c r="H25" s="404"/>
-      <c r="I25" s="404"/>
-      <c r="J25" s="404"/>
-      <c r="K25" s="404"/>
-      <c r="L25" s="404"/>
-      <c r="M25" s="404"/>
-      <c r="N25" s="404"/>
-      <c r="O25" s="404"/>
-      <c r="P25" s="404"/>
-      <c r="Q25" s="404"/>
-      <c r="R25" s="404"/>
-      <c r="S25" s="404"/>
-      <c r="T25" s="404"/>
-      <c r="U25" s="404"/>
-      <c r="V25" s="404"/>
+      <c r="B25" s="395" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C25" s="395"/>
+      <c r="D25" s="395"/>
+      <c r="E25" s="395"/>
+      <c r="F25" s="395"/>
+      <c r="G25" s="395"/>
+      <c r="H25" s="395"/>
+      <c r="I25" s="395"/>
+      <c r="J25" s="395"/>
+      <c r="K25" s="395"/>
+      <c r="L25" s="395"/>
+      <c r="M25" s="395"/>
+      <c r="N25" s="395"/>
+      <c r="O25" s="395"/>
+      <c r="P25" s="395"/>
+      <c r="Q25" s="395"/>
+      <c r="R25" s="395"/>
+      <c r="S25" s="395"/>
+      <c r="T25" s="395"/>
+      <c r="U25" s="395"/>
+      <c r="V25" s="395"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="405" t="s">
+      <c r="C26" s="396" t="s">
         <v>577</v>
       </c>
-      <c r="D26" s="405"/>
-      <c r="E26" s="405"/>
-      <c r="F26" s="405"/>
-      <c r="G26" s="405"/>
-      <c r="H26" s="405"/>
-      <c r="I26" s="405"/>
-      <c r="J26" s="405"/>
-      <c r="K26" s="405"/>
-      <c r="L26" s="405"/>
-      <c r="M26" s="405"/>
+      <c r="D26" s="396"/>
+      <c r="E26" s="396"/>
+      <c r="F26" s="396"/>
+      <c r="G26" s="396"/>
+      <c r="H26" s="396"/>
+      <c r="I26" s="396"/>
+      <c r="J26" s="396"/>
+      <c r="K26" s="396"/>
+      <c r="L26" s="396"/>
+      <c r="M26" s="396"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="363" t="s">
+      <c r="E27" s="368" t="s">
         <v>179</v>
       </c>
-      <c r="F27" s="313"/>
-      <c r="G27" s="313"/>
-      <c r="H27" s="329"/>
-      <c r="I27" s="329"/>
-      <c r="J27" s="329"/>
-      <c r="K27" s="329"/>
-      <c r="L27" s="329"/>
-      <c r="M27" s="330"/>
+      <c r="F27" s="317"/>
+      <c r="G27" s="317"/>
+      <c r="H27" s="333"/>
+      <c r="I27" s="333"/>
+      <c r="J27" s="333"/>
+      <c r="K27" s="333"/>
+      <c r="L27" s="333"/>
+      <c r="M27" s="334"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -17224,29 +17230,29 @@
       <c r="C29" s="8"/>
       <c r="D29" s="9"/>
       <c r="E29" s="141" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F29" s="122"/>
       <c r="G29" s="276"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="406" t="s">
+      <c r="O29" s="397" t="s">
         <v>180</v>
       </c>
-      <c r="P29" s="406"/>
-      <c r="Q29" s="406"/>
+      <c r="P29" s="397"/>
+      <c r="Q29" s="397"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
       <c r="E30" s="141" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F30" s="122"/>
       <c r="G30" s="276"/>
@@ -17285,21 +17291,21 @@
         <v>191</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="410" t="s">
+      <c r="E32" s="398" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F32" s="399"/>
+      <c r="G32" s="400"/>
+      <c r="H32" s="398" t="s">
         <v>1107</v>
       </c>
-      <c r="F32" s="411"/>
-      <c r="G32" s="412"/>
-      <c r="H32" s="410" t="s">
+      <c r="I32" s="399"/>
+      <c r="J32" s="400"/>
+      <c r="K32" s="398" t="s">
         <v>1108</v>
       </c>
-      <c r="I32" s="411"/>
-      <c r="J32" s="412"/>
-      <c r="K32" s="410" t="s">
-        <v>1109</v>
-      </c>
-      <c r="L32" s="411"/>
-      <c r="M32" s="412"/>
+      <c r="L32" s="399"/>
+      <c r="M32" s="400"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -17316,15 +17322,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="410"/>
-      <c r="F33" s="411"/>
-      <c r="G33" s="412"/>
-      <c r="H33" s="410"/>
-      <c r="I33" s="411"/>
-      <c r="J33" s="412"/>
-      <c r="K33" s="410"/>
-      <c r="L33" s="411"/>
-      <c r="M33" s="412"/>
+      <c r="E33" s="398"/>
+      <c r="F33" s="399"/>
+      <c r="G33" s="400"/>
+      <c r="H33" s="398"/>
+      <c r="I33" s="399"/>
+      <c r="J33" s="400"/>
+      <c r="K33" s="398"/>
+      <c r="L33" s="399"/>
+      <c r="M33" s="400"/>
       <c r="N33" s="5" t="s">
         <v>188</v>
       </c>
@@ -17341,15 +17347,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="410"/>
-      <c r="F34" s="411"/>
-      <c r="G34" s="412"/>
-      <c r="H34" s="410"/>
-      <c r="I34" s="411"/>
-      <c r="J34" s="412"/>
-      <c r="K34" s="410"/>
-      <c r="L34" s="411"/>
-      <c r="M34" s="412"/>
+      <c r="E34" s="398"/>
+      <c r="F34" s="399"/>
+      <c r="G34" s="400"/>
+      <c r="H34" s="398"/>
+      <c r="I34" s="399"/>
+      <c r="J34" s="400"/>
+      <c r="K34" s="398"/>
+      <c r="L34" s="399"/>
+      <c r="M34" s="400"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -17360,15 +17366,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="410"/>
-      <c r="F35" s="411"/>
-      <c r="G35" s="412"/>
-      <c r="H35" s="410"/>
-      <c r="I35" s="411"/>
-      <c r="J35" s="412"/>
-      <c r="K35" s="410"/>
-      <c r="L35" s="411"/>
-      <c r="M35" s="412"/>
+      <c r="E35" s="398"/>
+      <c r="F35" s="399"/>
+      <c r="G35" s="400"/>
+      <c r="H35" s="398"/>
+      <c r="I35" s="399"/>
+      <c r="J35" s="400"/>
+      <c r="K35" s="398"/>
+      <c r="L35" s="399"/>
+      <c r="M35" s="400"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -17382,17 +17388,17 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="277" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F36" s="120"/>
       <c r="G36" s="82"/>
       <c r="H36" s="134" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I36" s="24"/>
       <c r="J36" s="82"/>
       <c r="K36" s="134" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="L36" s="24"/>
       <c r="M36" s="6"/>
@@ -17405,7 +17411,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
       <c r="E37" s="272" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F37" s="278"/>
       <c r="G37" s="273"/>
@@ -17416,7 +17422,7 @@
       <c r="J37" s="82"/>
       <c r="K37" s="134"/>
       <c r="L37" s="24" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="5"/>
@@ -17428,18 +17434,18 @@
       <c r="C38" s="8"/>
       <c r="D38" s="9"/>
       <c r="E38" s="184" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F38" s="185"/>
       <c r="G38" s="274"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="4"/>
       <c r="L38" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="M38" s="6"/>
     </row>
@@ -17447,7 +17453,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="141" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F39" s="122"/>
       <c r="G39" s="274"/>
@@ -17462,13 +17468,13 @@
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="275" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F40" s="291"/>
       <c r="G40" s="274"/>
       <c r="H40" s="142"/>
       <c r="I40" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="4"/>
@@ -17481,7 +17487,7 @@
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="184" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F41" s="185"/>
       <c r="G41" s="274"/>
@@ -17489,7 +17495,7 @@
         <v>238</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="4"/>
@@ -17499,15 +17505,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="414"/>
-      <c r="F42" s="415"/>
-      <c r="G42" s="415"/>
-      <c r="H42" s="415"/>
-      <c r="I42" s="415"/>
-      <c r="J42" s="415"/>
-      <c r="K42" s="415"/>
-      <c r="L42" s="415"/>
-      <c r="M42" s="416"/>
+      <c r="E42" s="388"/>
+      <c r="F42" s="389"/>
+      <c r="G42" s="389"/>
+      <c r="H42" s="389"/>
+      <c r="I42" s="389"/>
+      <c r="J42" s="389"/>
+      <c r="K42" s="389"/>
+      <c r="L42" s="389"/>
+      <c r="M42" s="390"/>
       <c r="N42" s="40" t="s">
         <v>582</v>
       </c>
@@ -17526,83 +17532,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="340" t="s">
+      <c r="C44" s="344" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="341"/>
-      <c r="E44" s="340" t="s">
+      <c r="D44" s="345"/>
+      <c r="E44" s="344" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="342"/>
-      <c r="G44" s="341"/>
-      <c r="H44" s="340" t="s">
+      <c r="F44" s="346"/>
+      <c r="G44" s="345"/>
+      <c r="H44" s="344" t="s">
         <v>197</v>
       </c>
-      <c r="I44" s="342"/>
-      <c r="J44" s="342"/>
-      <c r="K44" s="342"/>
-      <c r="L44" s="342"/>
-      <c r="M44" s="341"/>
+      <c r="I44" s="346"/>
+      <c r="J44" s="346"/>
+      <c r="K44" s="346"/>
+      <c r="L44" s="346"/>
+      <c r="M44" s="345"/>
       <c r="Q44" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="404" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C47" s="404"/>
-      <c r="D47" s="404"/>
-      <c r="E47" s="404"/>
-      <c r="F47" s="404"/>
-      <c r="G47" s="404"/>
-      <c r="H47" s="404"/>
-      <c r="I47" s="404"/>
-      <c r="J47" s="404"/>
-      <c r="K47" s="404"/>
-      <c r="L47" s="404"/>
-      <c r="M47" s="404"/>
-      <c r="N47" s="404"/>
-      <c r="O47" s="404"/>
-      <c r="P47" s="404"/>
-      <c r="Q47" s="404"/>
-      <c r="R47" s="404"/>
-      <c r="S47" s="404"/>
-      <c r="T47" s="404"/>
-      <c r="U47" s="404"/>
-      <c r="V47" s="404"/>
+      <c r="B47" s="395" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C47" s="395"/>
+      <c r="D47" s="395"/>
+      <c r="E47" s="395"/>
+      <c r="F47" s="395"/>
+      <c r="G47" s="395"/>
+      <c r="H47" s="395"/>
+      <c r="I47" s="395"/>
+      <c r="J47" s="395"/>
+      <c r="K47" s="395"/>
+      <c r="L47" s="395"/>
+      <c r="M47" s="395"/>
+      <c r="N47" s="395"/>
+      <c r="O47" s="395"/>
+      <c r="P47" s="395"/>
+      <c r="Q47" s="395"/>
+      <c r="R47" s="395"/>
+      <c r="S47" s="395"/>
+      <c r="T47" s="395"/>
+      <c r="U47" s="395"/>
+      <c r="V47" s="395"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="405" t="s">
+      <c r="C48" s="396" t="s">
         <v>577</v>
       </c>
-      <c r="D48" s="405"/>
-      <c r="E48" s="405"/>
-      <c r="F48" s="405"/>
-      <c r="G48" s="405"/>
-      <c r="H48" s="405"/>
-      <c r="I48" s="405"/>
-      <c r="J48" s="405"/>
-      <c r="K48" s="405"/>
-      <c r="L48" s="405"/>
-      <c r="M48" s="405"/>
+      <c r="D48" s="396"/>
+      <c r="E48" s="396"/>
+      <c r="F48" s="396"/>
+      <c r="G48" s="396"/>
+      <c r="H48" s="396"/>
+      <c r="I48" s="396"/>
+      <c r="J48" s="396"/>
+      <c r="K48" s="396"/>
+      <c r="L48" s="396"/>
+      <c r="M48" s="396"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="363" t="s">
+      <c r="E49" s="368" t="s">
         <v>179</v>
       </c>
-      <c r="F49" s="313"/>
-      <c r="G49" s="313"/>
-      <c r="H49" s="329"/>
-      <c r="I49" s="329"/>
-      <c r="J49" s="329"/>
-      <c r="K49" s="329"/>
-      <c r="L49" s="329"/>
-      <c r="M49" s="330"/>
+      <c r="F49" s="317"/>
+      <c r="G49" s="317"/>
+      <c r="H49" s="333"/>
+      <c r="I49" s="333"/>
+      <c r="J49" s="333"/>
+      <c r="K49" s="333"/>
+      <c r="L49" s="333"/>
+      <c r="M49" s="334"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -17616,20 +17622,20 @@
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="141" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="251"/>
-      <c r="H50" s="407" t="s">
+      <c r="H50" s="402" t="s">
+        <v>1107</v>
+      </c>
+      <c r="I50" s="403"/>
+      <c r="J50" s="404"/>
+      <c r="K50" s="402" t="s">
         <v>1108</v>
       </c>
-      <c r="I50" s="408"/>
-      <c r="J50" s="409"/>
-      <c r="K50" s="407" t="s">
-        <v>1109</v>
-      </c>
-      <c r="L50" s="408"/>
-      <c r="M50" s="409"/>
+      <c r="L50" s="403"/>
+      <c r="M50" s="404"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -17640,23 +17646,23 @@
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
       <c r="E51" s="281" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F51" s="292"/>
-      <c r="G51" s="413" t="s">
-        <v>1131</v>
-      </c>
-      <c r="H51" s="410"/>
-      <c r="I51" s="411"/>
-      <c r="J51" s="412"/>
-      <c r="K51" s="410"/>
-      <c r="L51" s="411"/>
-      <c r="M51" s="412"/>
-      <c r="O51" s="406" t="s">
+      <c r="G51" s="405" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H51" s="398"/>
+      <c r="I51" s="399"/>
+      <c r="J51" s="400"/>
+      <c r="K51" s="398"/>
+      <c r="L51" s="399"/>
+      <c r="M51" s="400"/>
+      <c r="O51" s="397" t="s">
         <v>180</v>
       </c>
-      <c r="P51" s="406"/>
-      <c r="Q51" s="406"/>
+      <c r="P51" s="397"/>
+      <c r="Q51" s="397"/>
       <c r="S51" s="279"/>
       <c r="T51" s="279"/>
       <c r="W51" s="40" t="s">
@@ -17667,16 +17673,16 @@
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
       <c r="E52" s="282" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F52" s="293"/>
-      <c r="G52" s="413"/>
-      <c r="H52" s="410"/>
-      <c r="I52" s="411"/>
-      <c r="J52" s="412"/>
-      <c r="K52" s="410"/>
-      <c r="L52" s="411"/>
-      <c r="M52" s="412"/>
+      <c r="G52" s="405"/>
+      <c r="H52" s="398"/>
+      <c r="I52" s="399"/>
+      <c r="J52" s="400"/>
+      <c r="K52" s="398"/>
+      <c r="L52" s="399"/>
+      <c r="M52" s="400"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -17684,16 +17690,16 @@
       <c r="C53" s="1"/>
       <c r="D53" s="3"/>
       <c r="E53" s="283" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F53" s="294"/>
-      <c r="G53" s="413"/>
-      <c r="H53" s="410"/>
-      <c r="I53" s="411"/>
-      <c r="J53" s="412"/>
-      <c r="K53" s="410"/>
-      <c r="L53" s="411"/>
-      <c r="M53" s="412"/>
+      <c r="G53" s="405"/>
+      <c r="H53" s="398"/>
+      <c r="I53" s="399"/>
+      <c r="J53" s="400"/>
+      <c r="K53" s="398"/>
+      <c r="L53" s="399"/>
+      <c r="M53" s="400"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>183</v>
@@ -17702,10 +17708,10 @@
         <v>184</v>
       </c>
       <c r="Q53" s="38" t="s">
+        <v>1137</v>
+      </c>
+      <c r="R53" s="153" t="s">
         <v>1138</v>
-      </c>
-      <c r="R53" s="153" t="s">
-        <v>1139</v>
       </c>
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
@@ -17732,11 +17738,11 @@
       <c r="D54" s="6"/>
       <c r="E54" s="280"/>
       <c r="F54" s="295"/>
-      <c r="G54" s="419" t="s">
-        <v>1135</v>
+      <c r="G54" s="393" t="s">
+        <v>1134</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="6"/>
@@ -17779,17 +17785,17 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="417" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F55" s="418"/>
-      <c r="G55" s="420"/>
+      <c r="E55" s="391" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F55" s="392"/>
+      <c r="G55" s="394"/>
       <c r="H55" s="141" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I55" s="122"/>
       <c r="J55" s="276" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="5"/>
@@ -17827,15 +17833,15 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="417"/>
-      <c r="F56" s="418"/>
-      <c r="G56" s="420"/>
+      <c r="E56" s="391"/>
+      <c r="F56" s="392"/>
+      <c r="G56" s="394"/>
       <c r="H56" s="141" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="I56" s="122"/>
       <c r="J56" s="276" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="5"/>
@@ -17859,15 +17865,15 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="417"/>
-      <c r="F57" s="418"/>
-      <c r="G57" s="420"/>
+      <c r="E57" s="391"/>
+      <c r="F57" s="392"/>
+      <c r="G57" s="394"/>
       <c r="H57" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I57" s="5"/>
       <c r="J57" s="6" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K57" s="4"/>
       <c r="L57" s="5"/>
@@ -17891,16 +17897,16 @@
         <v>193</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="417"/>
-      <c r="F58" s="418"/>
-      <c r="G58" s="420"/>
+      <c r="E58" s="391"/>
+      <c r="F58" s="392"/>
+      <c r="G58" s="394"/>
       <c r="H58" s="284" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I58" s="285"/>
       <c r="J58" s="82"/>
       <c r="K58" s="134" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="L58" s="24"/>
       <c r="M58" s="6"/>
@@ -17918,9 +17924,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="417"/>
-      <c r="F59" s="418"/>
-      <c r="G59" s="420"/>
+      <c r="E59" s="391"/>
+      <c r="F59" s="392"/>
+      <c r="G59" s="394"/>
       <c r="H59" s="284" t="s">
         <v>552</v>
       </c>
@@ -17928,7 +17934,7 @@
       <c r="J59" s="82"/>
       <c r="K59" s="134"/>
       <c r="L59" s="24" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M59" s="6"/>
       <c r="N59" s="5"/>
@@ -17945,17 +17951,17 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="417"/>
-      <c r="F60" s="418"/>
-      <c r="G60" s="420"/>
+      <c r="E60" s="391"/>
+      <c r="F60" s="392"/>
+      <c r="G60" s="394"/>
       <c r="H60" s="286"/>
       <c r="I60" s="287" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J60" s="6"/>
       <c r="K60" s="4"/>
       <c r="L60" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="M60" s="6"/>
       <c r="S60" s="189"/>
@@ -17967,12 +17973,12 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="417"/>
-      <c r="F61" s="418"/>
-      <c r="G61" s="420"/>
+      <c r="E61" s="391"/>
+      <c r="F61" s="392"/>
+      <c r="G61" s="394"/>
       <c r="H61" s="286"/>
       <c r="I61" s="287" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="4"/>
@@ -17989,10 +17995,10 @@
       <c r="D62" s="6"/>
       <c r="E62" s="275"/>
       <c r="F62" s="291"/>
-      <c r="G62" s="420"/>
+      <c r="G62" s="394"/>
       <c r="H62" s="288"/>
       <c r="I62" s="290" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="4"/>
@@ -18010,7 +18016,7 @@
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="184" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F63" s="185"/>
       <c r="G63" s="296"/>
@@ -18031,15 +18037,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="414"/>
-      <c r="F64" s="415"/>
-      <c r="G64" s="415"/>
-      <c r="H64" s="415"/>
-      <c r="I64" s="415"/>
-      <c r="J64" s="415"/>
-      <c r="K64" s="415"/>
-      <c r="L64" s="415"/>
-      <c r="M64" s="416"/>
+      <c r="E64" s="388"/>
+      <c r="F64" s="389"/>
+      <c r="G64" s="389"/>
+      <c r="H64" s="389"/>
+      <c r="I64" s="389"/>
+      <c r="J64" s="389"/>
+      <c r="K64" s="389"/>
+      <c r="L64" s="389"/>
+      <c r="M64" s="390"/>
       <c r="N64" s="40" t="s">
         <v>582</v>
       </c>
@@ -18068,25 +18074,25 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="340" t="s">
+      <c r="C66" s="344" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="341"/>
-      <c r="E66" s="340" t="s">
+      <c r="D66" s="345"/>
+      <c r="E66" s="344" t="s">
         <v>196</v>
       </c>
-      <c r="F66" s="342"/>
-      <c r="G66" s="341"/>
-      <c r="H66" s="340" t="s">
+      <c r="F66" s="346"/>
+      <c r="G66" s="345"/>
+      <c r="H66" s="344" t="s">
         <v>197</v>
       </c>
-      <c r="I66" s="342"/>
-      <c r="J66" s="342"/>
-      <c r="K66" s="342"/>
-      <c r="L66" s="342"/>
-      <c r="M66" s="341"/>
+      <c r="I66" s="346"/>
+      <c r="J66" s="346"/>
+      <c r="K66" s="346"/>
+      <c r="L66" s="346"/>
+      <c r="M66" s="345"/>
       <c r="Q66" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="S66" s="24"/>
       <c r="T66" s="24"/>
@@ -18163,7 +18169,7 @@
     <row r="73" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="74" spans="2:24" ht="15.75" thickBot="1">
       <c r="I74" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -18184,7 +18190,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
       <c r="N75" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -18216,7 +18222,7 @@
       <c r="N77" s="4"/>
       <c r="O77" s="5"/>
       <c r="P77" s="230" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="3"/>
@@ -18247,7 +18253,7 @@
       <c r="O79" s="5"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="229" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -18272,7 +18278,7 @@
     </row>
     <row r="81" spans="4:20">
       <c r="D81" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="5"/>
@@ -18283,7 +18289,7 @@
       <c r="O81" s="5"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="38" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
@@ -18299,7 +18305,7 @@
       <c r="O82" s="5"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="38" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
@@ -18313,14 +18319,14 @@
       <c r="M83" s="5"/>
       <c r="N83" s="4"/>
       <c r="O83" s="200" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="P83" s="4"/>
       <c r="Q83" s="38" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="R83" s="6" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
@@ -18335,7 +18341,7 @@
       <c r="O84" s="5"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="38" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
@@ -18351,7 +18357,7 @@
       <c r="O85" s="5"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="38" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
@@ -18367,7 +18373,7 @@
       <c r="O86" s="5"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="38" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
@@ -18383,7 +18389,7 @@
       <c r="O87" s="5"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="297" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
@@ -18433,12 +18439,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="G6:G20"/>
+    <mergeCell ref="H7:H20"/>
+    <mergeCell ref="I7:J20"/>
+    <mergeCell ref="K7:L20"/>
+    <mergeCell ref="M7:N20"/>
+    <mergeCell ref="O7:P20"/>
+    <mergeCell ref="B47:V47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="E49:M49"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
     <mergeCell ref="E42:M42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:G44"/>
@@ -18455,21 +18470,12 @@
     <mergeCell ref="H22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B47:V47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="E49:M49"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="G6:G20"/>
-    <mergeCell ref="H7:H20"/>
-    <mergeCell ref="I7:J20"/>
-    <mergeCell ref="K7:L20"/>
-    <mergeCell ref="M7:N20"/>
-    <mergeCell ref="O7:P20"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -18503,12 +18509,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="421" t="s">
+      <c r="B1" s="426" t="s">
         <v>541</v>
       </c>
-      <c r="C1" s="421"/>
-      <c r="D1" s="421"/>
-      <c r="E1" s="421"/>
+      <c r="C1" s="426"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="426"/>
       <c r="I1" s="40" t="s">
         <v>554</v>
       </c>
@@ -18618,10 +18624,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="367"/>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
+      <c r="B8" s="372"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="372"/>
+      <c r="E8" s="372"/>
       <c r="J8" t="s">
         <v>557</v>
       </c>
@@ -18756,32 +18762,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C2" s="405" t="s">
+      <c r="C2" s="396" t="s">
         <v>577</v>
       </c>
-      <c r="D2" s="405"/>
-      <c r="E2" s="405"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="405"/>
-      <c r="H2" s="405"/>
-      <c r="I2" s="405"/>
-      <c r="J2" s="405"/>
-      <c r="K2" s="405"/>
-      <c r="L2" s="405"/>
+      <c r="D2" s="396"/>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="396"/>
+      <c r="I2" s="396"/>
+      <c r="J2" s="396"/>
+      <c r="K2" s="396"/>
+      <c r="L2" s="396"/>
     </row>
     <row r="3" spans="3:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="363" t="s">
+      <c r="E3" s="368" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="313"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="330"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="333"/>
+      <c r="H3" s="333"/>
+      <c r="I3" s="333"/>
+      <c r="J3" s="333"/>
+      <c r="K3" s="333"/>
+      <c r="L3" s="334"/>
     </row>
     <row r="4" spans="3:16">
       <c r="C4" s="4" t="s">
@@ -18810,11 +18816,11 @@
         <v>596</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="406" t="s">
+      <c r="N5" s="397" t="s">
         <v>180</v>
       </c>
-      <c r="O5" s="406"/>
-      <c r="P5" s="406"/>
+      <c r="O5" s="397"/>
+      <c r="P5" s="397"/>
     </row>
     <row r="6" spans="3:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -18865,20 +18871,20 @@
         <v>191</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="410" t="s">
+      <c r="E8" s="398" t="s">
         <v>578</v>
       </c>
-      <c r="F8" s="412"/>
-      <c r="G8" s="410" t="s">
+      <c r="F8" s="400"/>
+      <c r="G8" s="398" t="s">
         <v>579</v>
       </c>
-      <c r="H8" s="411"/>
-      <c r="I8" s="412"/>
-      <c r="J8" s="410" t="s">
+      <c r="H8" s="399"/>
+      <c r="I8" s="400"/>
+      <c r="J8" s="398" t="s">
         <v>580</v>
       </c>
-      <c r="K8" s="411"/>
-      <c r="L8" s="412"/>
+      <c r="K8" s="399"/>
+      <c r="L8" s="400"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -18895,14 +18901,14 @@
     <row r="9" spans="3:16" ht="15" customHeight="1">
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="410"/>
-      <c r="F9" s="412"/>
-      <c r="G9" s="410"/>
-      <c r="H9" s="411"/>
-      <c r="I9" s="412"/>
-      <c r="J9" s="410"/>
-      <c r="K9" s="411"/>
-      <c r="L9" s="412"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="400"/>
+      <c r="G9" s="398"/>
+      <c r="H9" s="399"/>
+      <c r="I9" s="400"/>
+      <c r="J9" s="398"/>
+      <c r="K9" s="399"/>
+      <c r="L9" s="400"/>
       <c r="M9" s="5" t="s">
         <v>188</v>
       </c>
@@ -18919,14 +18925,14 @@
     <row r="10" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="410"/>
-      <c r="F10" s="412"/>
-      <c r="G10" s="410"/>
-      <c r="H10" s="411"/>
-      <c r="I10" s="412"/>
-      <c r="J10" s="410"/>
-      <c r="K10" s="411"/>
-      <c r="L10" s="412"/>
+      <c r="E10" s="398"/>
+      <c r="F10" s="400"/>
+      <c r="G10" s="398"/>
+      <c r="H10" s="399"/>
+      <c r="I10" s="400"/>
+      <c r="J10" s="398"/>
+      <c r="K10" s="399"/>
+      <c r="L10" s="400"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -18937,14 +18943,14 @@
     <row r="11" spans="3:16" ht="15" customHeight="1">
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="410"/>
-      <c r="F11" s="412"/>
-      <c r="G11" s="410"/>
-      <c r="H11" s="411"/>
-      <c r="I11" s="412"/>
-      <c r="J11" s="410"/>
-      <c r="K11" s="411"/>
-      <c r="L11" s="412"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="400"/>
+      <c r="G11" s="398"/>
+      <c r="H11" s="399"/>
+      <c r="I11" s="400"/>
+      <c r="J11" s="398"/>
+      <c r="K11" s="399"/>
+      <c r="L11" s="400"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -19041,16 +19047,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="414" t="s">
+      <c r="E17" s="388" t="s">
         <v>581</v>
       </c>
-      <c r="F17" s="415"/>
-      <c r="G17" s="415"/>
-      <c r="H17" s="415"/>
-      <c r="I17" s="415"/>
-      <c r="J17" s="415"/>
-      <c r="K17" s="415"/>
-      <c r="L17" s="416"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="389"/>
+      <c r="I17" s="389"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="389"/>
+      <c r="L17" s="390"/>
       <c r="M17" s="40" t="s">
         <v>582</v>
       </c>
@@ -19068,35 +19074,35 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="340" t="s">
+      <c r="C19" s="344" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="341"/>
-      <c r="E19" s="340" t="s">
+      <c r="D19" s="345"/>
+      <c r="E19" s="344" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="341"/>
-      <c r="G19" s="340" t="s">
+      <c r="F19" s="345"/>
+      <c r="G19" s="344" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="342"/>
-      <c r="I19" s="342"/>
-      <c r="J19" s="342"/>
-      <c r="K19" s="342"/>
-      <c r="L19" s="341"/>
+      <c r="H19" s="346"/>
+      <c r="I19" s="346"/>
+      <c r="J19" s="346"/>
+      <c r="K19" s="346"/>
+      <c r="L19" s="345"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="E17:L17"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="E8:F11"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="J8:L11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="E17:L17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P8" r:id="rId1"/>
@@ -19537,22 +19543,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="383" t="s">
+      <c r="E3" s="401" t="s">
         <v>521</v>
       </c>
-      <c r="F3" s="383"/>
-      <c r="G3" s="383" t="s">
+      <c r="F3" s="401"/>
+      <c r="G3" s="401" t="s">
         <v>522</v>
       </c>
-      <c r="H3" s="383"/>
-      <c r="I3" s="383"/>
-      <c r="J3" s="383"/>
-      <c r="K3" s="383"/>
-      <c r="L3" s="383"/>
-      <c r="M3" s="383" t="s">
+      <c r="H3" s="401"/>
+      <c r="I3" s="401"/>
+      <c r="J3" s="401"/>
+      <c r="K3" s="401"/>
+      <c r="L3" s="401"/>
+      <c r="M3" s="401" t="s">
         <v>523</v>
       </c>
-      <c r="N3" s="383"/>
+      <c r="N3" s="401"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -19563,7 +19569,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="384" t="s">
+      <c r="E4" s="406" t="s">
         <v>524</v>
       </c>
       <c r="F4" s="131"/>
@@ -19591,22 +19597,22 @@
         <v>182</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="385"/>
-      <c r="F5" s="345" t="s">
+      <c r="E5" s="407"/>
+      <c r="F5" s="349" t="s">
         <v>624</v>
       </c>
-      <c r="G5" s="346"/>
-      <c r="H5" s="347"/>
-      <c r="I5" s="451" t="s">
+      <c r="G5" s="350"/>
+      <c r="H5" s="351"/>
+      <c r="I5" s="427" t="s">
         <v>625</v>
       </c>
-      <c r="J5" s="452"/>
-      <c r="K5" s="452"/>
-      <c r="L5" s="393"/>
-      <c r="M5" s="451" t="s">
+      <c r="J5" s="428"/>
+      <c r="K5" s="428"/>
+      <c r="L5" s="415"/>
+      <c r="M5" s="427" t="s">
         <v>626</v>
       </c>
-      <c r="N5" s="393"/>
+      <c r="N5" s="415"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -19617,16 +19623,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="385"/>
-      <c r="F6" s="348"/>
-      <c r="G6" s="349"/>
-      <c r="H6" s="350"/>
-      <c r="I6" s="394"/>
-      <c r="J6" s="453"/>
-      <c r="K6" s="453"/>
-      <c r="L6" s="395"/>
-      <c r="M6" s="394"/>
-      <c r="N6" s="395"/>
+      <c r="E6" s="407"/>
+      <c r="F6" s="352"/>
+      <c r="G6" s="353"/>
+      <c r="H6" s="354"/>
+      <c r="I6" s="416"/>
+      <c r="J6" s="429"/>
+      <c r="K6" s="429"/>
+      <c r="L6" s="417"/>
+      <c r="M6" s="416"/>
+      <c r="N6" s="417"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>183</v>
@@ -19643,16 +19649,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="385"/>
-      <c r="F7" s="348"/>
-      <c r="G7" s="349"/>
-      <c r="H7" s="350"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="453"/>
-      <c r="K7" s="453"/>
-      <c r="L7" s="395"/>
-      <c r="M7" s="394"/>
-      <c r="N7" s="395"/>
+      <c r="E7" s="407"/>
+      <c r="F7" s="352"/>
+      <c r="G7" s="353"/>
+      <c r="H7" s="354"/>
+      <c r="I7" s="416"/>
+      <c r="J7" s="429"/>
+      <c r="K7" s="429"/>
+      <c r="L7" s="417"/>
+      <c r="M7" s="416"/>
+      <c r="N7" s="417"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -19671,16 +19677,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="385"/>
-      <c r="F8" s="348"/>
-      <c r="G8" s="349"/>
-      <c r="H8" s="350"/>
-      <c r="I8" s="394"/>
-      <c r="J8" s="453"/>
-      <c r="K8" s="453"/>
-      <c r="L8" s="395"/>
-      <c r="M8" s="394"/>
-      <c r="N8" s="395"/>
+      <c r="E8" s="407"/>
+      <c r="F8" s="352"/>
+      <c r="G8" s="353"/>
+      <c r="H8" s="354"/>
+      <c r="I8" s="416"/>
+      <c r="J8" s="429"/>
+      <c r="K8" s="429"/>
+      <c r="L8" s="417"/>
+      <c r="M8" s="416"/>
+      <c r="N8" s="417"/>
       <c r="O8" s="5" t="s">
         <v>188</v>
       </c>
@@ -19701,16 +19707,16 @@
         <v>191</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="385"/>
-      <c r="F9" s="348"/>
-      <c r="G9" s="349"/>
-      <c r="H9" s="350"/>
-      <c r="I9" s="394"/>
-      <c r="J9" s="453"/>
-      <c r="K9" s="453"/>
-      <c r="L9" s="395"/>
-      <c r="M9" s="394"/>
-      <c r="N9" s="395"/>
+      <c r="E9" s="407"/>
+      <c r="F9" s="352"/>
+      <c r="G9" s="353"/>
+      <c r="H9" s="354"/>
+      <c r="I9" s="416"/>
+      <c r="J9" s="429"/>
+      <c r="K9" s="429"/>
+      <c r="L9" s="417"/>
+      <c r="M9" s="416"/>
+      <c r="N9" s="417"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -19727,16 +19733,16 @@
         <v>540</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="385"/>
-      <c r="F10" s="348"/>
-      <c r="G10" s="349"/>
-      <c r="H10" s="350"/>
-      <c r="I10" s="394"/>
-      <c r="J10" s="453"/>
-      <c r="K10" s="453"/>
-      <c r="L10" s="395"/>
-      <c r="M10" s="394"/>
-      <c r="N10" s="395"/>
+      <c r="E10" s="407"/>
+      <c r="F10" s="352"/>
+      <c r="G10" s="353"/>
+      <c r="H10" s="354"/>
+      <c r="I10" s="416"/>
+      <c r="J10" s="429"/>
+      <c r="K10" s="429"/>
+      <c r="L10" s="417"/>
+      <c r="M10" s="416"/>
+      <c r="N10" s="417"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -19749,16 +19755,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="385"/>
-      <c r="F11" s="348"/>
-      <c r="G11" s="349"/>
-      <c r="H11" s="350"/>
-      <c r="I11" s="394"/>
-      <c r="J11" s="453"/>
-      <c r="K11" s="453"/>
-      <c r="L11" s="395"/>
-      <c r="M11" s="394"/>
-      <c r="N11" s="395"/>
+      <c r="E11" s="407"/>
+      <c r="F11" s="352"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="354"/>
+      <c r="I11" s="416"/>
+      <c r="J11" s="429"/>
+      <c r="K11" s="429"/>
+      <c r="L11" s="417"/>
+      <c r="M11" s="416"/>
+      <c r="N11" s="417"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -19769,16 +19775,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="385"/>
-      <c r="F12" s="348"/>
-      <c r="G12" s="349"/>
-      <c r="H12" s="350"/>
-      <c r="I12" s="394"/>
-      <c r="J12" s="453"/>
-      <c r="K12" s="453"/>
-      <c r="L12" s="395"/>
-      <c r="M12" s="394"/>
-      <c r="N12" s="395"/>
+      <c r="E12" s="407"/>
+      <c r="F12" s="352"/>
+      <c r="G12" s="353"/>
+      <c r="H12" s="354"/>
+      <c r="I12" s="416"/>
+      <c r="J12" s="429"/>
+      <c r="K12" s="429"/>
+      <c r="L12" s="417"/>
+      <c r="M12" s="416"/>
+      <c r="N12" s="417"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -19791,16 +19797,16 @@
         <v>193</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="385"/>
-      <c r="F13" s="348"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="350"/>
-      <c r="I13" s="394"/>
-      <c r="J13" s="453"/>
-      <c r="K13" s="453"/>
-      <c r="L13" s="395"/>
-      <c r="M13" s="394"/>
-      <c r="N13" s="395"/>
+      <c r="E13" s="407"/>
+      <c r="F13" s="352"/>
+      <c r="G13" s="353"/>
+      <c r="H13" s="354"/>
+      <c r="I13" s="416"/>
+      <c r="J13" s="429"/>
+      <c r="K13" s="429"/>
+      <c r="L13" s="417"/>
+      <c r="M13" s="416"/>
+      <c r="N13" s="417"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -19811,16 +19817,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="385"/>
-      <c r="F14" s="348"/>
-      <c r="G14" s="349"/>
-      <c r="H14" s="350"/>
-      <c r="I14" s="394"/>
-      <c r="J14" s="453"/>
-      <c r="K14" s="453"/>
-      <c r="L14" s="395"/>
-      <c r="M14" s="394"/>
-      <c r="N14" s="395"/>
+      <c r="E14" s="407"/>
+      <c r="F14" s="352"/>
+      <c r="G14" s="353"/>
+      <c r="H14" s="354"/>
+      <c r="I14" s="416"/>
+      <c r="J14" s="429"/>
+      <c r="K14" s="429"/>
+      <c r="L14" s="417"/>
+      <c r="M14" s="416"/>
+      <c r="N14" s="417"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -19831,16 +19837,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="385"/>
-      <c r="F15" s="348"/>
-      <c r="G15" s="349"/>
-      <c r="H15" s="350"/>
-      <c r="I15" s="394"/>
-      <c r="J15" s="453"/>
-      <c r="K15" s="453"/>
-      <c r="L15" s="395"/>
-      <c r="M15" s="394"/>
-      <c r="N15" s="395"/>
+      <c r="E15" s="407"/>
+      <c r="F15" s="352"/>
+      <c r="G15" s="353"/>
+      <c r="H15" s="354"/>
+      <c r="I15" s="416"/>
+      <c r="J15" s="429"/>
+      <c r="K15" s="429"/>
+      <c r="L15" s="417"/>
+      <c r="M15" s="416"/>
+      <c r="N15" s="417"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -19851,16 +19857,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="385"/>
-      <c r="F16" s="348"/>
-      <c r="G16" s="349"/>
-      <c r="H16" s="350"/>
-      <c r="I16" s="394"/>
-      <c r="J16" s="453"/>
-      <c r="K16" s="453"/>
-      <c r="L16" s="395"/>
-      <c r="M16" s="394"/>
-      <c r="N16" s="395"/>
+      <c r="E16" s="407"/>
+      <c r="F16" s="352"/>
+      <c r="G16" s="353"/>
+      <c r="H16" s="354"/>
+      <c r="I16" s="416"/>
+      <c r="J16" s="429"/>
+      <c r="K16" s="429"/>
+      <c r="L16" s="417"/>
+      <c r="M16" s="416"/>
+      <c r="N16" s="417"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -19873,16 +19879,16 @@
         <v>194</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="385"/>
-      <c r="F17" s="348"/>
-      <c r="G17" s="349"/>
-      <c r="H17" s="350"/>
-      <c r="I17" s="394"/>
-      <c r="J17" s="453"/>
-      <c r="K17" s="453"/>
-      <c r="L17" s="395"/>
-      <c r="M17" s="394"/>
-      <c r="N17" s="395"/>
+      <c r="E17" s="407"/>
+      <c r="F17" s="352"/>
+      <c r="G17" s="353"/>
+      <c r="H17" s="354"/>
+      <c r="I17" s="416"/>
+      <c r="J17" s="429"/>
+      <c r="K17" s="429"/>
+      <c r="L17" s="417"/>
+      <c r="M17" s="416"/>
+      <c r="N17" s="417"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -19893,16 +19899,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="386"/>
-      <c r="F18" s="351"/>
-      <c r="G18" s="352"/>
-      <c r="H18" s="353"/>
-      <c r="I18" s="396"/>
-      <c r="J18" s="454"/>
-      <c r="K18" s="454"/>
-      <c r="L18" s="397"/>
-      <c r="M18" s="396"/>
-      <c r="N18" s="397"/>
+      <c r="E18" s="408"/>
+      <c r="F18" s="355"/>
+      <c r="G18" s="356"/>
+      <c r="H18" s="357"/>
+      <c r="I18" s="418"/>
+      <c r="J18" s="430"/>
+      <c r="K18" s="430"/>
+      <c r="L18" s="419"/>
+      <c r="M18" s="418"/>
+      <c r="N18" s="419"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -19931,26 +19937,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="340" t="s">
+      <c r="C20" s="344" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="341"/>
+      <c r="D20" s="345"/>
       <c r="E20" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="340" t="s">
+      <c r="F20" s="344" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="342"/>
-      <c r="H20" s="342"/>
-      <c r="I20" s="342"/>
-      <c r="J20" s="342"/>
-      <c r="K20" s="342"/>
-      <c r="L20" s="341"/>
-      <c r="M20" s="340" t="s">
+      <c r="G20" s="346"/>
+      <c r="H20" s="346"/>
+      <c r="I20" s="346"/>
+      <c r="J20" s="346"/>
+      <c r="K20" s="346"/>
+      <c r="L20" s="345"/>
+      <c r="M20" s="344" t="s">
         <v>531</v>
       </c>
-      <c r="N20" s="341"/>
+      <c r="N20" s="345"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -19978,39 +19984,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="406" t="s">
+      <c r="B24" s="397" t="s">
         <v>577</v>
       </c>
-      <c r="C24" s="406"/>
-      <c r="D24" s="405"/>
-      <c r="E24" s="405"/>
-      <c r="F24" s="405"/>
-      <c r="G24" s="405"/>
-      <c r="H24" s="405"/>
-      <c r="I24" s="405"/>
-      <c r="J24" s="405"/>
-      <c r="K24" s="405"/>
-      <c r="M24" s="422" t="s">
+      <c r="C24" s="397"/>
+      <c r="D24" s="396"/>
+      <c r="E24" s="396"/>
+      <c r="F24" s="396"/>
+      <c r="G24" s="396"/>
+      <c r="H24" s="396"/>
+      <c r="I24" s="396"/>
+      <c r="J24" s="396"/>
+      <c r="K24" s="396"/>
+      <c r="M24" s="448" t="s">
         <v>180</v>
       </c>
-      <c r="N24" s="422"/>
-      <c r="O24" s="422"/>
+      <c r="N24" s="448"/>
+      <c r="O24" s="448"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="423" t="s">
-        <v>942</v>
-      </c>
-      <c r="C25" s="371"/>
-      <c r="D25" s="329" t="s">
+      <c r="B25" s="449" t="s">
+        <v>941</v>
+      </c>
+      <c r="C25" s="377"/>
+      <c r="D25" s="333" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="329"/>
-      <c r="F25" s="329"/>
-      <c r="G25" s="329"/>
-      <c r="H25" s="329"/>
-      <c r="I25" s="329"/>
-      <c r="J25" s="329"/>
-      <c r="K25" s="330"/>
+      <c r="E25" s="333"/>
+      <c r="F25" s="333"/>
+      <c r="G25" s="333"/>
+      <c r="H25" s="333"/>
+      <c r="I25" s="333"/>
+      <c r="J25" s="333"/>
+      <c r="K25" s="334"/>
       <c r="M25" s="38" t="s">
         <v>183</v>
       </c>
@@ -20022,22 +20028,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="372"/>
-      <c r="C26" s="373"/>
-      <c r="D26" s="370" t="s">
-        <v>935</v>
-      </c>
-      <c r="E26" s="371"/>
-      <c r="F26" s="449" t="s">
-        <v>935</v>
-      </c>
-      <c r="G26" s="329"/>
-      <c r="H26" s="330"/>
-      <c r="I26" s="328" t="s">
-        <v>939</v>
-      </c>
-      <c r="J26" s="329"/>
-      <c r="K26" s="330"/>
+      <c r="B26" s="378"/>
+      <c r="C26" s="379"/>
+      <c r="D26" s="376" t="s">
+        <v>934</v>
+      </c>
+      <c r="E26" s="377"/>
+      <c r="F26" s="443" t="s">
+        <v>934</v>
+      </c>
+      <c r="G26" s="333"/>
+      <c r="H26" s="334"/>
+      <c r="I26" s="332" t="s">
+        <v>938</v>
+      </c>
+      <c r="J26" s="333"/>
+      <c r="K26" s="334"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -20052,22 +20058,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="372"/>
-      <c r="C27" s="373"/>
-      <c r="D27" s="367" t="s">
-        <v>940</v>
-      </c>
-      <c r="E27" s="373"/>
-      <c r="F27" s="372" t="s">
-        <v>936</v>
-      </c>
-      <c r="G27" s="367"/>
-      <c r="H27" s="327"/>
-      <c r="I27" s="433" t="s">
-        <v>940</v>
-      </c>
-      <c r="J27" s="367"/>
-      <c r="K27" s="327"/>
+      <c r="B27" s="378"/>
+      <c r="C27" s="379"/>
+      <c r="D27" s="372" t="s">
+        <v>939</v>
+      </c>
+      <c r="E27" s="379"/>
+      <c r="F27" s="378" t="s">
+        <v>935</v>
+      </c>
+      <c r="G27" s="372"/>
+      <c r="H27" s="331"/>
+      <c r="I27" s="447" t="s">
+        <v>939</v>
+      </c>
+      <c r="J27" s="372"/>
+      <c r="K27" s="331"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -20082,22 +20088,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="372"/>
-      <c r="C28" s="373"/>
-      <c r="D28" s="367" t="s">
-        <v>937</v>
-      </c>
-      <c r="E28" s="373"/>
-      <c r="F28" s="372" t="s">
-        <v>937</v>
-      </c>
-      <c r="G28" s="367"/>
-      <c r="H28" s="327"/>
-      <c r="I28" s="433" t="s">
-        <v>937</v>
-      </c>
-      <c r="J28" s="367"/>
-      <c r="K28" s="327"/>
+      <c r="B28" s="378"/>
+      <c r="C28" s="379"/>
+      <c r="D28" s="372" t="s">
+        <v>936</v>
+      </c>
+      <c r="E28" s="379"/>
+      <c r="F28" s="378" t="s">
+        <v>936</v>
+      </c>
+      <c r="G28" s="372"/>
+      <c r="H28" s="331"/>
+      <c r="I28" s="447" t="s">
+        <v>936</v>
+      </c>
+      <c r="J28" s="372"/>
+      <c r="K28" s="331"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -20106,22 +20112,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="374"/>
-      <c r="C29" s="375"/>
-      <c r="D29" s="367" t="s">
-        <v>938</v>
-      </c>
-      <c r="E29" s="373"/>
-      <c r="F29" s="450" t="s">
-        <v>938</v>
-      </c>
-      <c r="G29" s="435"/>
-      <c r="H29" s="436"/>
-      <c r="I29" s="434" t="s">
-        <v>938</v>
-      </c>
-      <c r="J29" s="435"/>
-      <c r="K29" s="436"/>
+      <c r="B29" s="380"/>
+      <c r="C29" s="381"/>
+      <c r="D29" s="372" t="s">
+        <v>937</v>
+      </c>
+      <c r="E29" s="379"/>
+      <c r="F29" s="444" t="s">
+        <v>937</v>
+      </c>
+      <c r="G29" s="445"/>
+      <c r="H29" s="446"/>
+      <c r="I29" s="459" t="s">
+        <v>937</v>
+      </c>
+      <c r="J29" s="445"/>
+      <c r="K29" s="446"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -20130,149 +20136,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="331" t="s">
-        <v>941</v>
-      </c>
-      <c r="C30" s="333"/>
-      <c r="D30" s="437" t="s">
+      <c r="B30" s="335" t="s">
+        <v>940</v>
+      </c>
+      <c r="C30" s="337"/>
+      <c r="D30" s="431" t="s">
         <v>578</v>
       </c>
-      <c r="E30" s="438"/>
-      <c r="F30" s="442" t="s">
+      <c r="E30" s="432"/>
+      <c r="F30" s="436" t="s">
         <v>579</v>
       </c>
-      <c r="G30" s="443"/>
-      <c r="H30" s="438"/>
-      <c r="I30" s="442" t="s">
+      <c r="G30" s="437"/>
+      <c r="H30" s="432"/>
+      <c r="I30" s="436" t="s">
         <v>580</v>
       </c>
-      <c r="J30" s="443"/>
-      <c r="K30" s="446"/>
+      <c r="J30" s="437"/>
+      <c r="K30" s="440"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="335"/>
-      <c r="C31" s="336"/>
-      <c r="D31" s="439"/>
-      <c r="E31" s="412"/>
-      <c r="F31" s="410"/>
-      <c r="G31" s="411"/>
-      <c r="H31" s="412"/>
-      <c r="I31" s="410"/>
-      <c r="J31" s="411"/>
-      <c r="K31" s="447"/>
+      <c r="B31" s="339"/>
+      <c r="C31" s="340"/>
+      <c r="D31" s="433"/>
+      <c r="E31" s="400"/>
+      <c r="F31" s="398"/>
+      <c r="G31" s="399"/>
+      <c r="H31" s="400"/>
+      <c r="I31" s="398"/>
+      <c r="J31" s="399"/>
+      <c r="K31" s="441"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="335"/>
-      <c r="C32" s="336"/>
-      <c r="D32" s="439"/>
-      <c r="E32" s="412"/>
-      <c r="F32" s="410"/>
-      <c r="G32" s="411"/>
-      <c r="H32" s="412"/>
-      <c r="I32" s="410"/>
-      <c r="J32" s="411"/>
-      <c r="K32" s="447"/>
+      <c r="B32" s="339"/>
+      <c r="C32" s="340"/>
+      <c r="D32" s="433"/>
+      <c r="E32" s="400"/>
+      <c r="F32" s="398"/>
+      <c r="G32" s="399"/>
+      <c r="H32" s="400"/>
+      <c r="I32" s="398"/>
+      <c r="J32" s="399"/>
+      <c r="K32" s="441"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="335"/>
-      <c r="C33" s="336"/>
-      <c r="D33" s="440"/>
-      <c r="E33" s="441"/>
-      <c r="F33" s="444"/>
-      <c r="G33" s="445"/>
-      <c r="H33" s="441"/>
-      <c r="I33" s="444"/>
-      <c r="J33" s="445"/>
-      <c r="K33" s="448"/>
+      <c r="B33" s="339"/>
+      <c r="C33" s="340"/>
+      <c r="D33" s="434"/>
+      <c r="E33" s="435"/>
+      <c r="F33" s="438"/>
+      <c r="G33" s="439"/>
+      <c r="H33" s="435"/>
+      <c r="I33" s="438"/>
+      <c r="J33" s="439"/>
+      <c r="K33" s="442"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="335"/>
-      <c r="C34" s="322"/>
-      <c r="D34" s="424" t="s">
-        <v>928</v>
-      </c>
-      <c r="E34" s="425"/>
-      <c r="F34" s="424" t="s">
+      <c r="B34" s="339"/>
+      <c r="C34" s="326"/>
+      <c r="D34" s="450" t="s">
+        <v>927</v>
+      </c>
+      <c r="E34" s="451"/>
+      <c r="F34" s="450" t="s">
         <v>600</v>
       </c>
-      <c r="G34" s="430"/>
-      <c r="H34" s="425"/>
-      <c r="I34" s="424" t="s">
-        <v>943</v>
-      </c>
-      <c r="J34" s="430"/>
-      <c r="K34" s="425"/>
+      <c r="G34" s="456"/>
+      <c r="H34" s="451"/>
+      <c r="I34" s="450" t="s">
+        <v>942</v>
+      </c>
+      <c r="J34" s="456"/>
+      <c r="K34" s="451"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="335"/>
-      <c r="C35" s="322"/>
-      <c r="D35" s="426"/>
-      <c r="E35" s="427"/>
-      <c r="F35" s="426"/>
-      <c r="G35" s="431"/>
-      <c r="H35" s="427"/>
-      <c r="I35" s="426"/>
-      <c r="J35" s="431"/>
-      <c r="K35" s="427"/>
+      <c r="B35" s="339"/>
+      <c r="C35" s="326"/>
+      <c r="D35" s="452"/>
+      <c r="E35" s="453"/>
+      <c r="F35" s="452"/>
+      <c r="G35" s="457"/>
+      <c r="H35" s="453"/>
+      <c r="I35" s="452"/>
+      <c r="J35" s="457"/>
+      <c r="K35" s="453"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="335"/>
-      <c r="C36" s="322"/>
-      <c r="D36" s="426"/>
-      <c r="E36" s="427"/>
-      <c r="F36" s="426"/>
-      <c r="G36" s="431"/>
-      <c r="H36" s="427"/>
-      <c r="I36" s="426"/>
-      <c r="J36" s="431"/>
-      <c r="K36" s="427"/>
+      <c r="B36" s="339"/>
+      <c r="C36" s="326"/>
+      <c r="D36" s="452"/>
+      <c r="E36" s="453"/>
+      <c r="F36" s="452"/>
+      <c r="G36" s="457"/>
+      <c r="H36" s="453"/>
+      <c r="I36" s="452"/>
+      <c r="J36" s="457"/>
+      <c r="K36" s="453"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="335"/>
-      <c r="C37" s="322"/>
-      <c r="D37" s="426"/>
-      <c r="E37" s="427"/>
-      <c r="F37" s="426"/>
-      <c r="G37" s="431"/>
-      <c r="H37" s="427"/>
-      <c r="I37" s="426"/>
-      <c r="J37" s="431"/>
-      <c r="K37" s="427"/>
+      <c r="B37" s="339"/>
+      <c r="C37" s="326"/>
+      <c r="D37" s="452"/>
+      <c r="E37" s="453"/>
+      <c r="F37" s="452"/>
+      <c r="G37" s="457"/>
+      <c r="H37" s="453"/>
+      <c r="I37" s="452"/>
+      <c r="J37" s="457"/>
+      <c r="K37" s="453"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="335"/>
-      <c r="C38" s="322"/>
-      <c r="D38" s="428"/>
-      <c r="E38" s="429"/>
-      <c r="F38" s="428"/>
-      <c r="G38" s="432"/>
-      <c r="H38" s="429"/>
-      <c r="I38" s="428"/>
-      <c r="J38" s="432"/>
-      <c r="K38" s="429"/>
+      <c r="B38" s="339"/>
+      <c r="C38" s="326"/>
+      <c r="D38" s="454"/>
+      <c r="E38" s="455"/>
+      <c r="F38" s="454"/>
+      <c r="G38" s="458"/>
+      <c r="H38" s="455"/>
+      <c r="I38" s="454"/>
+      <c r="J38" s="458"/>
+      <c r="K38" s="455"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="337"/>
-      <c r="C39" s="339"/>
-      <c r="D39" s="414" t="s">
+      <c r="B39" s="341"/>
+      <c r="C39" s="343"/>
+      <c r="D39" s="388" t="s">
         <v>581</v>
       </c>
-      <c r="E39" s="415"/>
-      <c r="F39" s="415"/>
-      <c r="G39" s="415"/>
-      <c r="H39" s="415"/>
-      <c r="I39" s="415"/>
-      <c r="J39" s="415"/>
-      <c r="K39" s="416"/>
+      <c r="E39" s="389"/>
+      <c r="F39" s="389"/>
+      <c r="G39" s="389"/>
+      <c r="H39" s="389"/>
+      <c r="I39" s="389"/>
+      <c r="J39" s="389"/>
+      <c r="K39" s="390"/>
       <c r="L39" s="40" t="s">
         <v>582</v>
       </c>
@@ -20290,35 +20296,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="340" t="s">
+      <c r="B41" s="344" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="341"/>
-      <c r="D41" s="340" t="s">
+      <c r="C41" s="345"/>
+      <c r="D41" s="344" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="341"/>
-      <c r="F41" s="340" t="s">
+      <c r="E41" s="345"/>
+      <c r="F41" s="344" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="342"/>
-      <c r="H41" s="342"/>
-      <c r="I41" s="342"/>
-      <c r="J41" s="342"/>
-      <c r="K41" s="341"/>
+      <c r="G41" s="346"/>
+      <c r="H41" s="346"/>
+      <c r="I41" s="346"/>
+      <c r="J41" s="346"/>
+      <c r="K41" s="345"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -20335,17 +20342,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -20775,7 +20781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -20820,13 +20826,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="312" t="s">
+      <c r="A5" s="316" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="313"/>
-      <c r="C5" s="313"/>
-      <c r="D5" s="313"/>
-      <c r="E5" s="314"/>
+      <c r="B5" s="317"/>
+      <c r="C5" s="317"/>
+      <c r="D5" s="317"/>
+      <c r="E5" s="318"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>151</v>
@@ -21063,68 +21069,68 @@
     </row>
     <row r="22" spans="3:17">
       <c r="G22" t="s">
+        <v>1161</v>
+      </c>
+      <c r="K22" t="s">
         <v>1162</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="24" spans="3:17">
       <c r="D24" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G24" t="s">
         <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="25" spans="3:17">
       <c r="D25" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K25" t="s">
         <v>1081</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="26" spans="3:17">
       <c r="D26" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G26" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K26" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="M26" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="27" spans="3:17">
       <c r="D27" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="G27" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K27" t="s">
         <v>1168</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="28" spans="3:17">
       <c r="D28" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G28" t="s">
         <v>1171</v>
       </c>
-      <c r="G28" t="s">
-        <v>1172</v>
-      </c>
       <c r="K28" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="32" spans="3:17">
@@ -21137,18 +21143,18 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" thickBot="1">
       <c r="A33" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C33" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K33" t="s">
         <v>1180</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="C34" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -21164,7 +21170,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="5"/>
@@ -21175,13 +21181,13 @@
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="G36" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="5"/>
@@ -21192,13 +21198,13 @@
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K37" s="4"/>
       <c r="L37" s="5"/>
@@ -21209,13 +21215,13 @@
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G38" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="K38" s="4"/>
       <c r="L38" s="5"/>
@@ -21234,12 +21240,12 @@
     </row>
     <row r="40" spans="1:14">
       <c r="B40" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F40" s="3"/>
       <c r="K40" s="4"/>
@@ -21249,11 +21255,11 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" thickBot="1">
       <c r="B41" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="9"/>
@@ -21264,7 +21270,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C43" t="s">
         <v>268</v>
@@ -21275,15 +21281,15 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" thickBot="1">
       <c r="C44" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K44" t="s">
         <v>1180</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="C45" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -21299,7 +21305,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="6"/>
       <c r="G46" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="5"/>
@@ -21312,7 +21318,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K47" s="4"/>
       <c r="L47" s="5"/>
@@ -21353,7 +21359,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F51" s="3"/>
       <c r="K51" s="4"/>
@@ -21364,7 +21370,7 @@
     <row r="52" spans="3:14" ht="15.75" thickBot="1">
       <c r="C52" s="8"/>
       <c r="D52" s="10" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="9"/>
@@ -21664,7 +21670,7 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="323" t="s">
+      <c r="C36" s="327" t="s">
         <v>168</v>
       </c>
       <c r="D36">
@@ -21691,7 +21697,7 @@
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C37" s="323"/>
+      <c r="C37" s="327"/>
       <c r="D37">
         <v>20</v>
       </c>
@@ -21720,7 +21726,7 @@
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="323" t="s">
+      <c r="C38" s="327" t="s">
         <v>169</v>
       </c>
       <c r="D38">
@@ -21739,7 +21745,7 @@
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39" s="323"/>
+      <c r="C39" s="327"/>
       <c r="D39">
         <v>40</v>
       </c>
@@ -21756,7 +21762,7 @@
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40" s="323"/>
+      <c r="C40" s="327"/>
       <c r="D40">
         <v>50</v>
       </c>
@@ -21773,7 +21779,7 @@
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="323"/>
+      <c r="C41" s="327"/>
       <c r="D41">
         <v>60</v>
       </c>
@@ -21792,7 +21798,7 @@
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="3:15">
-      <c r="C42" s="323"/>
+      <c r="C42" s="327"/>
       <c r="D42">
         <v>70</v>
       </c>
@@ -21809,7 +21815,7 @@
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="3:15">
-      <c r="C43" s="323"/>
+      <c r="C43" s="327"/>
       <c r="D43">
         <v>80</v>
       </c>
@@ -21826,7 +21832,7 @@
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C44" s="323"/>
+      <c r="C44" s="327"/>
       <c r="D44">
         <v>90</v>
       </c>
@@ -21917,7 +21923,7 @@
       </c>
     </row>
     <row r="49" spans="4:14">
-      <c r="D49" s="321">
+      <c r="D49" s="325">
         <v>1</v>
       </c>
       <c r="E49" s="175"/>
@@ -21932,7 +21938,7 @@
       <c r="N49" s="180"/>
     </row>
     <row r="50" spans="4:14">
-      <c r="D50" s="322"/>
+      <c r="D50" s="326"/>
       <c r="E50" s="176"/>
       <c r="F50" s="172"/>
       <c r="G50" s="173"/>
@@ -21945,7 +21951,7 @@
       <c r="N50" s="174"/>
     </row>
     <row r="51" spans="4:14">
-      <c r="D51" s="322"/>
+      <c r="D51" s="326"/>
       <c r="E51" s="176"/>
       <c r="F51" s="172"/>
       <c r="G51" s="173"/>
@@ -21958,7 +21964,7 @@
       <c r="N51" s="174"/>
     </row>
     <row r="52" spans="4:14">
-      <c r="D52" s="322"/>
+      <c r="D52" s="326"/>
       <c r="E52" s="176" t="s">
         <v>690</v>
       </c>
@@ -21975,7 +21981,7 @@
       <c r="N52" s="174"/>
     </row>
     <row r="53" spans="4:14">
-      <c r="D53" s="322"/>
+      <c r="D53" s="326"/>
       <c r="E53" s="176"/>
       <c r="F53" s="172"/>
       <c r="G53" s="173"/>
@@ -21988,7 +21994,7 @@
       <c r="N53" s="174"/>
     </row>
     <row r="54" spans="4:14">
-      <c r="D54" s="322"/>
+      <c r="D54" s="326"/>
       <c r="E54" s="176"/>
       <c r="F54" s="172"/>
       <c r="G54" s="173"/>
@@ -22001,7 +22007,7 @@
       <c r="N54" s="174"/>
     </row>
     <row r="55" spans="4:14" ht="15.75" thickBot="1">
-      <c r="D55" s="322"/>
+      <c r="D55" s="326"/>
       <c r="E55" s="177"/>
       <c r="F55" s="181"/>
       <c r="G55" s="182"/>
@@ -22071,7 +22077,7 @@
     </row>
     <row r="81" spans="3:15">
       <c r="E81" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="83" spans="3:15" ht="15.75" thickBot="1">
@@ -22117,15 +22123,15 @@
       <c r="F84" s="179"/>
       <c r="G84" s="179"/>
       <c r="H84" s="179" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I84" s="179"/>
       <c r="J84" s="179"/>
       <c r="K84" s="179"/>
       <c r="L84" s="179"/>
       <c r="M84" s="179"/>
-      <c r="N84" s="324" t="s">
-        <v>945</v>
+      <c r="N84" s="328" t="s">
+        <v>944</v>
       </c>
       <c r="O84" t="s">
         <v>679</v>
@@ -22145,9 +22151,9 @@
       <c r="K85" s="182"/>
       <c r="L85" s="182"/>
       <c r="M85" s="182"/>
-      <c r="N85" s="324"/>
+      <c r="N85" s="328"/>
       <c r="O85" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="86" spans="3:15">
@@ -22164,11 +22170,11 @@
       <c r="K86" s="235"/>
       <c r="L86" s="235"/>
       <c r="M86" s="299"/>
-      <c r="N86" s="325" t="s">
-        <v>948</v>
+      <c r="N86" s="329" t="s">
+        <v>947</v>
       </c>
       <c r="O86" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="87" spans="3:15">
@@ -22185,7 +22191,7 @@
       <c r="K87" s="236"/>
       <c r="L87" s="236"/>
       <c r="M87" s="301"/>
-      <c r="N87" s="325"/>
+      <c r="N87" s="329"/>
     </row>
     <row r="88" spans="3:15">
       <c r="C88">
@@ -22201,7 +22207,7 @@
       <c r="K88" s="236"/>
       <c r="L88" s="236"/>
       <c r="M88" s="301"/>
-      <c r="N88" s="325"/>
+      <c r="N88" s="329"/>
     </row>
     <row r="89" spans="3:15" ht="15.75" thickBot="1">
       <c r="C89">
@@ -22214,14 +22220,14 @@
       <c r="F89" s="237"/>
       <c r="G89" s="237"/>
       <c r="H89" s="237" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I89" s="237"/>
       <c r="J89" s="237"/>
       <c r="K89" s="237"/>
       <c r="L89" s="237"/>
       <c r="M89" s="303"/>
-      <c r="N89" s="325"/>
+      <c r="N89" s="329"/>
     </row>
     <row r="90" spans="3:15">
       <c r="C90">
@@ -22237,7 +22243,7 @@
       <c r="K90" s="236"/>
       <c r="L90" s="236"/>
       <c r="M90" s="236"/>
-      <c r="N90" s="324"/>
+      <c r="N90" s="328"/>
     </row>
     <row r="91" spans="3:15">
       <c r="C91">
@@ -22253,7 +22259,7 @@
       <c r="K91" s="236"/>
       <c r="L91" s="236"/>
       <c r="M91" s="236"/>
-      <c r="N91" s="324"/>
+      <c r="N91" s="328"/>
     </row>
     <row r="92" spans="3:15" ht="15.75" thickBot="1">
       <c r="C92">
@@ -22269,7 +22275,7 @@
       <c r="K92" s="237"/>
       <c r="L92" s="237"/>
       <c r="M92" s="237"/>
-      <c r="N92" s="324"/>
+      <c r="N92" s="328"/>
     </row>
     <row r="93" spans="3:15" ht="15.75" thickBot="1">
       <c r="C93">
@@ -22286,7 +22292,7 @@
       <c r="L93" s="240"/>
       <c r="M93" s="240"/>
       <c r="N93" s="248" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="O93" t="s">
         <v>689</v>
@@ -22294,7 +22300,7 @@
     </row>
     <row r="94" spans="3:15">
       <c r="C94" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O94" t="s">
         <v>686</v>
@@ -22307,7 +22313,7 @@
     </row>
     <row r="96" spans="3:15" ht="15.75" thickBot="1">
       <c r="O96" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="97" spans="3:13">
@@ -22318,7 +22324,7 @@
       <c r="F97" s="232"/>
       <c r="G97" s="232"/>
       <c r="H97" s="232" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I97" s="232"/>
       <c r="J97" s="232"/>
@@ -22371,7 +22377,7 @@
       </c>
     </row>
     <row r="101" spans="3:13">
-      <c r="C101" s="326">
+      <c r="C101" s="330">
         <v>1</v>
       </c>
       <c r="D101" s="231"/>
@@ -22386,7 +22392,7 @@
       <c r="M101" s="241"/>
     </row>
     <row r="102" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C102" s="327"/>
+      <c r="C102" s="331"/>
       <c r="D102" s="233"/>
       <c r="E102" s="234"/>
       <c r="F102" s="234"/>
@@ -22443,7 +22449,7 @@
       <c r="F108" s="236"/>
       <c r="G108" s="236"/>
       <c r="H108" s="236" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I108" s="236"/>
       <c r="J108" s="236"/>
@@ -22489,88 +22495,88 @@
     </row>
     <row r="112" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="113" spans="4:13">
-      <c r="D113" s="315"/>
-      <c r="E113" s="316"/>
-      <c r="F113" s="316"/>
-      <c r="G113" s="316"/>
-      <c r="H113" s="316"/>
-      <c r="I113" s="316"/>
-      <c r="J113" s="316"/>
-      <c r="K113" s="316"/>
-      <c r="L113" s="316"/>
-      <c r="M113" s="316"/>
+      <c r="D113" s="319"/>
+      <c r="E113" s="320"/>
+      <c r="F113" s="320"/>
+      <c r="G113" s="320"/>
+      <c r="H113" s="320"/>
+      <c r="I113" s="320"/>
+      <c r="J113" s="320"/>
+      <c r="K113" s="320"/>
+      <c r="L113" s="320"/>
+      <c r="M113" s="320"/>
     </row>
     <row r="114" spans="4:13">
-      <c r="D114" s="317"/>
-      <c r="E114" s="318"/>
-      <c r="F114" s="318"/>
-      <c r="G114" s="318"/>
-      <c r="H114" s="318"/>
-      <c r="I114" s="318"/>
-      <c r="J114" s="318"/>
-      <c r="K114" s="318"/>
-      <c r="L114" s="318"/>
-      <c r="M114" s="318"/>
+      <c r="D114" s="321"/>
+      <c r="E114" s="322"/>
+      <c r="F114" s="322"/>
+      <c r="G114" s="322"/>
+      <c r="H114" s="322"/>
+      <c r="I114" s="322"/>
+      <c r="J114" s="322"/>
+      <c r="K114" s="322"/>
+      <c r="L114" s="322"/>
+      <c r="M114" s="322"/>
     </row>
     <row r="115" spans="4:13">
-      <c r="D115" s="317"/>
-      <c r="E115" s="318"/>
-      <c r="F115" s="318"/>
-      <c r="G115" s="318"/>
-      <c r="H115" s="318"/>
-      <c r="I115" s="318"/>
-      <c r="J115" s="318"/>
-      <c r="K115" s="318"/>
-      <c r="L115" s="318"/>
-      <c r="M115" s="318"/>
+      <c r="D115" s="321"/>
+      <c r="E115" s="322"/>
+      <c r="F115" s="322"/>
+      <c r="G115" s="322"/>
+      <c r="H115" s="322"/>
+      <c r="I115" s="322"/>
+      <c r="J115" s="322"/>
+      <c r="K115" s="322"/>
+      <c r="L115" s="322"/>
+      <c r="M115" s="322"/>
     </row>
     <row r="116" spans="4:13">
-      <c r="D116" s="317"/>
-      <c r="E116" s="318"/>
-      <c r="F116" s="318"/>
-      <c r="G116" s="318"/>
-      <c r="H116" s="318"/>
-      <c r="I116" s="318"/>
-      <c r="J116" s="318"/>
-      <c r="K116" s="318"/>
-      <c r="L116" s="318"/>
-      <c r="M116" s="318"/>
+      <c r="D116" s="321"/>
+      <c r="E116" s="322"/>
+      <c r="F116" s="322"/>
+      <c r="G116" s="322"/>
+      <c r="H116" s="322"/>
+      <c r="I116" s="322"/>
+      <c r="J116" s="322"/>
+      <c r="K116" s="322"/>
+      <c r="L116" s="322"/>
+      <c r="M116" s="322"/>
     </row>
     <row r="117" spans="4:13">
-      <c r="D117" s="317"/>
-      <c r="E117" s="318"/>
-      <c r="F117" s="318"/>
-      <c r="G117" s="318"/>
-      <c r="H117" s="318"/>
-      <c r="I117" s="318"/>
-      <c r="J117" s="318"/>
-      <c r="K117" s="318"/>
-      <c r="L117" s="318"/>
-      <c r="M117" s="318"/>
+      <c r="D117" s="321"/>
+      <c r="E117" s="322"/>
+      <c r="F117" s="322"/>
+      <c r="G117" s="322"/>
+      <c r="H117" s="322"/>
+      <c r="I117" s="322"/>
+      <c r="J117" s="322"/>
+      <c r="K117" s="322"/>
+      <c r="L117" s="322"/>
+      <c r="M117" s="322"/>
     </row>
     <row r="118" spans="4:13">
-      <c r="D118" s="317"/>
-      <c r="E118" s="318"/>
-      <c r="F118" s="318"/>
-      <c r="G118" s="318"/>
-      <c r="H118" s="318"/>
-      <c r="I118" s="318"/>
-      <c r="J118" s="318"/>
-      <c r="K118" s="318"/>
-      <c r="L118" s="318"/>
-      <c r="M118" s="318"/>
+      <c r="D118" s="321"/>
+      <c r="E118" s="322"/>
+      <c r="F118" s="322"/>
+      <c r="G118" s="322"/>
+      <c r="H118" s="322"/>
+      <c r="I118" s="322"/>
+      <c r="J118" s="322"/>
+      <c r="K118" s="322"/>
+      <c r="L118" s="322"/>
+      <c r="M118" s="322"/>
     </row>
     <row r="119" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D119" s="319"/>
-      <c r="E119" s="320"/>
-      <c r="F119" s="320"/>
-      <c r="G119" s="320"/>
-      <c r="H119" s="320"/>
-      <c r="I119" s="320"/>
-      <c r="J119" s="320"/>
-      <c r="K119" s="320"/>
-      <c r="L119" s="320"/>
-      <c r="M119" s="320"/>
+      <c r="D119" s="323"/>
+      <c r="E119" s="324"/>
+      <c r="F119" s="324"/>
+      <c r="G119" s="324"/>
+      <c r="H119" s="324"/>
+      <c r="I119" s="324"/>
+      <c r="J119" s="324"/>
+      <c r="K119" s="324"/>
+      <c r="L119" s="324"/>
+      <c r="M119" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22591,7 +22597,7 @@
   <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="F11:L11"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22639,14 +22645,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="328" t="s">
+      <c r="K4" s="332" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="329"/>
-      <c r="M4" s="329"/>
-      <c r="N4" s="329"/>
-      <c r="O4" s="329"/>
-      <c r="P4" s="330"/>
+      <c r="L4" s="333"/>
+      <c r="M4" s="333"/>
+      <c r="N4" s="333"/>
+      <c r="O4" s="333"/>
+      <c r="P4" s="334"/>
       <c r="S4" s="40" t="s">
         <v>180</v>
       </c>
@@ -22689,11 +22695,13 @@
       <c r="K6" s="4"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>1318</v>
+      </c>
       <c r="R6" s="38" t="s">
         <v>183</v>
       </c>
@@ -22722,11 +22730,13 @@
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
       <c r="M7" s="28" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
+      <c r="P7" s="251" t="s">
+        <v>1317</v>
+      </c>
       <c r="Q7" t="s">
         <v>2</v>
       </c>
@@ -22762,12 +22772,12 @@
       <c r="L8" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M8" s="343" t="s">
+      <c r="M8" s="347" t="s">
         <v>212</v>
       </c>
-      <c r="N8" s="344"/>
+      <c r="N8" s="348"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
+      <c r="P8" s="252"/>
       <c r="Q8" t="s">
         <v>188</v>
       </c>
@@ -22805,10 +22815,10 @@
       <c r="L9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="344"/>
-      <c r="N9" s="344"/>
+      <c r="M9" s="348"/>
+      <c r="N9" s="348"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
+      <c r="P9" s="252"/>
       <c r="Q9">
         <v>1000</v>
       </c>
@@ -22832,12 +22842,12 @@
       <c r="J10" s="5"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5" t="s">
-        <v>1195</v>
-      </c>
-      <c r="M10" s="344"/>
-      <c r="N10" s="344"/>
+        <v>1194</v>
+      </c>
+      <c r="M10" s="348"/>
+      <c r="N10" s="348"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
+      <c r="P10" s="252"/>
       <c r="Q10" t="s">
         <v>2</v>
       </c>
@@ -22846,13 +22856,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="331" t="s">
+      <c r="A11" s="335" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="332"/>
-      <c r="C11" s="333"/>
-      <c r="D11" s="333"/>
-      <c r="E11" s="334"/>
+      <c r="B11" s="336"/>
+      <c r="C11" s="337"/>
+      <c r="D11" s="337"/>
+      <c r="E11" s="338"/>
       <c r="F11" t="s">
         <v>210</v>
       </c>
@@ -22861,42 +22871,42 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="344"/>
-      <c r="N11" s="344"/>
+      <c r="M11" s="348"/>
+      <c r="N11" s="348"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
+      <c r="P11" s="252"/>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="335"/>
-      <c r="B12" s="336"/>
-      <c r="C12" s="336"/>
-      <c r="D12" s="336"/>
-      <c r="E12" s="322"/>
+      <c r="A12" s="339"/>
+      <c r="B12" s="340"/>
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="326"/>
       <c r="F12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="344"/>
-      <c r="N12" s="344"/>
+      <c r="M12" s="348"/>
+      <c r="N12" s="348"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="252"/>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="335"/>
-      <c r="B13" s="336"/>
-      <c r="C13" s="336"/>
-      <c r="D13" s="336"/>
-      <c r="E13" s="322"/>
+    <row r="13" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A13" s="339"/>
+      <c r="B13" s="340"/>
+      <c r="C13" s="340"/>
+      <c r="D13" s="340"/>
+      <c r="E13" s="326"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>193</v>
@@ -22904,35 +22914,41 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="344"/>
-      <c r="N13" s="344"/>
+      <c r="M13" s="348"/>
+      <c r="N13" s="348"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="6"/>
+      <c r="P13" s="253"/>
+      <c r="S13" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="337"/>
-      <c r="B14" s="338"/>
-      <c r="C14" s="338"/>
-      <c r="D14" s="338"/>
-      <c r="E14" s="339"/>
+      <c r="A14" s="341"/>
+      <c r="B14" s="342"/>
+      <c r="C14" s="342"/>
+      <c r="D14" s="342"/>
+      <c r="E14" s="343"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
       <c r="K14" s="4"/>
       <c r="L14" s="5"/>
       <c r="M14" s="34" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
+      <c r="S14" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1">
       <c r="C15" s="40" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="8"/>
@@ -22943,6 +22959,9 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
+      <c r="S15" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="24"/>
@@ -22951,7 +22970,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -22962,6 +22981,9 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
+      <c r="S16" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="24"/>
@@ -22981,6 +23003,9 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
+      <c r="S17" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1">
       <c r="A18" s="24"/>
@@ -22998,10 +23023,13 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="9"/>
+      <c r="S18" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1">
       <c r="A19" s="24" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
@@ -23017,6 +23045,9 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
+      <c r="S19" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1">
       <c r="A20" s="24"/>
@@ -23026,20 +23057,23 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="340" t="s">
+      <c r="I20" s="344" t="s">
         <v>195</v>
       </c>
-      <c r="J20" s="341"/>
-      <c r="K20" s="340" t="s">
+      <c r="J20" s="345"/>
+      <c r="K20" s="344" t="s">
         <v>196</v>
       </c>
-      <c r="L20" s="341"/>
-      <c r="M20" s="340" t="s">
+      <c r="L20" s="345"/>
+      <c r="M20" s="344" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="342"/>
-      <c r="O20" s="342"/>
-      <c r="P20" s="341"/>
+      <c r="N20" s="346"/>
+      <c r="O20" s="346"/>
+      <c r="P20" s="345"/>
+      <c r="S20" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1">
       <c r="A21" s="24"/>
@@ -23059,9 +23093,16 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
+      <c r="S21" t="s">
+        <v>283</v>
+      </c>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="S22" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="23.25">
       <c r="A23" s="72" t="s">
@@ -23070,6 +23111,12 @@
       <c r="B23" s="72" t="s">
         <v>198</v>
       </c>
+      <c r="Q23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="R23" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="24" spans="1:21" ht="23.25">
       <c r="A24" s="72" t="s">
@@ -23078,6 +23125,9 @@
       <c r="B24" s="72" t="s">
         <v>199</v>
       </c>
+      <c r="Q24" t="s">
+        <v>1316</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="23.25">
       <c r="A25" s="72" t="s">
@@ -23097,18 +23147,18 @@
     </row>
     <row r="30" spans="1:21">
       <c r="H30" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J30" t="s">
         <v>1148</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="G31" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H31" s="38"/>
       <c r="I31" s="38"/>
@@ -23118,7 +23168,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="G32" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
@@ -23128,7 +23178,7 @@
     </row>
     <row r="33" spans="7:15">
       <c r="G33" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
@@ -23159,23 +23209,23 @@
     </row>
     <row r="38" spans="7:15">
       <c r="H38" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="39" spans="7:15">
       <c r="I39" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="40" spans="7:15">
       <c r="J40" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K40" t="s">
         <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N40" s="38" t="s">
         <v>26</v>
@@ -23186,107 +23236,107 @@
     </row>
     <row r="41" spans="7:15">
       <c r="J41" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K41" t="s">
         <v>30</v>
       </c>
       <c r="L41" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N41" s="38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="O41" s="38" t="s">
         <v>1151</v>
-      </c>
-      <c r="O41" s="38" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="42" spans="7:15">
       <c r="I42" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="43" spans="7:15">
       <c r="I43" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="44" spans="7:15">
       <c r="J44" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K44" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="L44" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="45" spans="7:15">
       <c r="J45" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K45" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="L45" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="46" spans="7:15">
       <c r="I46" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="47" spans="7:15">
       <c r="H47" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="51" spans="5:15">
       <c r="F51" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="52" spans="5:15">
       <c r="G52" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="53" spans="5:15">
       <c r="H53" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I53" t="s">
         <v>183</v>
       </c>
       <c r="J53" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="54" spans="5:15">
       <c r="H54" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I54" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="L54" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N54" t="s">
+        <v>1155</v>
+      </c>
+      <c r="O54" t="s">
         <v>1156</v>
-      </c>
-      <c r="O54" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="55" spans="5:15">
       <c r="G55" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="M55" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="N55" t="s">
         <v>183</v>
@@ -23295,10 +23345,10 @@
     </row>
     <row r="56" spans="5:15">
       <c r="G56" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="M56" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="N56" t="s">
         <v>184</v>
@@ -23307,16 +23357,16 @@
     </row>
     <row r="57" spans="5:15">
       <c r="H57" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I57" t="s">
         <v>184</v>
       </c>
       <c r="J57" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M57" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="O57" s="304" t="s">
         <v>303</v>
@@ -23324,24 +23374,24 @@
     </row>
     <row r="58" spans="5:15">
       <c r="H58" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I58" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="L58" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="59" spans="5:15">
       <c r="G59" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="60" spans="5:15">
       <c r="E60" s="5"/>
       <c r="G60" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -23354,10 +23404,10 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="H61" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J61" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -23367,13 +23417,13 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="H62" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I62" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="L62" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="M62" s="5"/>
     </row>
@@ -23381,7 +23431,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -23393,7 +23443,7 @@
     <row r="64" spans="5:15">
       <c r="E64" s="5"/>
       <c r="F64" s="5" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -23405,120 +23455,120 @@
     </row>
     <row r="67" spans="3:14">
       <c r="J67" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="68" spans="3:14">
       <c r="K68" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="69" spans="3:14">
       <c r="L69" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M69" t="s">
         <v>183</v>
       </c>
       <c r="N69" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="70" spans="3:14">
       <c r="C70" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L70" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M70" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N70" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="71" spans="3:14">
       <c r="D71" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K71" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="72" spans="3:14">
       <c r="D72" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K72" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="73" spans="3:14">
       <c r="D73" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L73" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M73" t="s">
         <v>184</v>
       </c>
       <c r="N73" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="74" spans="3:14">
       <c r="E74" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="L74" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M74" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N74" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="75" spans="3:14">
       <c r="K75" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="76" spans="3:14">
       <c r="K76" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="77" spans="3:14">
       <c r="L77" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N77" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="78" spans="3:14">
       <c r="L78" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M78" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N78" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="79" spans="3:14">
       <c r="K79" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="80" spans="3:14">
       <c r="J80" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
@@ -23664,7 +23714,7 @@
     </row>
     <row r="14" spans="3:15">
       <c r="N14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15" spans="3:15">
@@ -23845,10 +23895,10 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O29" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -23861,19 +23911,19 @@
     </row>
     <row r="31" spans="1:16">
       <c r="B31" t="s">
+        <v>973</v>
+      </c>
+      <c r="E31" t="s">
         <v>974</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>975</v>
       </c>
-      <c r="G31" t="s">
+      <c r="L31" t="s">
         <v>976</v>
       </c>
-      <c r="L31" t="s">
+      <c r="O31" t="s">
         <v>977</v>
-      </c>
-      <c r="O31" t="s">
-        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -23964,13 +24014,13 @@
         <v>182</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="354"/>
-      <c r="L3" s="354"/>
-      <c r="M3" s="354"/>
-      <c r="N3" s="354"/>
-      <c r="O3" s="354"/>
-      <c r="P3" s="354"/>
-      <c r="Q3" s="355"/>
+      <c r="K3" s="358"/>
+      <c r="L3" s="358"/>
+      <c r="M3" s="358"/>
+      <c r="N3" s="358"/>
+      <c r="O3" s="358"/>
+      <c r="P3" s="358"/>
+      <c r="Q3" s="359"/>
       <c r="T3" s="40" t="s">
         <v>180</v>
       </c>
@@ -24040,7 +24090,7 @@
       <c r="K6" s="134"/>
       <c r="L6" s="24"/>
       <c r="M6" s="81" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
@@ -24067,7 +24117,7 @@
         <v>183</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" t="s">
@@ -24083,7 +24133,7 @@
         <v>206</v>
       </c>
       <c r="M7" s="257" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="N7" s="258"/>
       <c r="O7" s="189"/>
@@ -24100,7 +24150,7 @@
         <v>225</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="U7" s="70" t="s">
         <v>190</v>
@@ -24115,7 +24165,7 @@
         <v>184</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>441</v>
@@ -24132,7 +24182,7 @@
         <v>207</v>
       </c>
       <c r="M8" s="259" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="N8" s="260"/>
       <c r="O8" s="189"/>
@@ -24151,7 +24201,7 @@
         <v>211</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>731</v>
@@ -24160,7 +24210,7 @@
         <v>80</v>
       </c>
       <c r="I9" s="196" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="134"/>
@@ -24184,7 +24234,7 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="195" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E10" s="6"/>
       <c r="H10" s="198"/>
@@ -24212,7 +24262,7 @@
         <v>357</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" t="s">
@@ -24238,13 +24288,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="345" t="s">
+      <c r="A12" s="349" t="s">
         <v>694</v>
       </c>
-      <c r="B12" s="346"/>
-      <c r="C12" s="346"/>
-      <c r="D12" s="346"/>
-      <c r="E12" s="347"/>
+      <c r="B12" s="350"/>
+      <c r="C12" s="350"/>
+      <c r="D12" s="350"/>
+      <c r="E12" s="351"/>
       <c r="F12" t="s">
         <v>707</v>
       </c>
@@ -24267,11 +24317,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="348"/>
-      <c r="B13" s="349"/>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="350"/>
+      <c r="A13" s="352"/>
+      <c r="B13" s="353"/>
+      <c r="C13" s="353"/>
+      <c r="D13" s="353"/>
+      <c r="E13" s="354"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -24292,11 +24342,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="348"/>
-      <c r="B14" s="349"/>
-      <c r="C14" s="349"/>
-      <c r="D14" s="349"/>
-      <c r="E14" s="350"/>
+      <c r="A14" s="352"/>
+      <c r="B14" s="353"/>
+      <c r="C14" s="353"/>
+      <c r="D14" s="353"/>
+      <c r="E14" s="354"/>
       <c r="F14" t="s">
         <v>704</v>
       </c>
@@ -24319,11 +24369,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="351"/>
-      <c r="B15" s="352"/>
-      <c r="C15" s="352"/>
-      <c r="D15" s="352"/>
-      <c r="E15" s="353"/>
+      <c r="A15" s="355"/>
+      <c r="B15" s="356"/>
+      <c r="C15" s="356"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="357"/>
       <c r="F15" s="24"/>
       <c r="H15" s="198"/>
       <c r="I15" s="4" t="s">
@@ -24332,7 +24382,7 @@
       <c r="J15" s="5"/>
       <c r="K15" s="4"/>
       <c r="L15" s="24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -24381,17 +24431,17 @@
       <c r="F17" s="194"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="329" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J17" s="329"/>
-      <c r="K17" s="329"/>
-      <c r="L17" s="329"/>
-      <c r="M17" s="329"/>
-      <c r="N17" s="329"/>
-      <c r="O17" s="329"/>
-      <c r="P17" s="329"/>
-      <c r="Q17" s="329"/>
+      <c r="I17" s="333" t="s">
+        <v>1204</v>
+      </c>
+      <c r="J17" s="333"/>
+      <c r="K17" s="333"/>
+      <c r="L17" s="333"/>
+      <c r="M17" s="333"/>
+      <c r="N17" s="333"/>
+      <c r="O17" s="333"/>
+      <c r="P17" s="333"/>
+      <c r="Q17" s="333"/>
       <c r="S17" t="s">
         <v>360</v>
       </c>
@@ -24488,7 +24538,7 @@
       </c>
       <c r="E23" s="16"/>
       <c r="L23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="23.25">
@@ -25104,21 +25154,21 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" t="s">
+        <v>982</v>
+      </c>
+      <c r="C105" t="s">
         <v>983</v>
-      </c>
-      <c r="C105" t="s">
-        <v>984</v>
       </c>
       <c r="H105" s="4">
         <v>80</v>
       </c>
       <c r="I105" s="35" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J105" s="39"/>
       <c r="K105" s="5"/>
       <c r="L105" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="O105" s="1"/>
       <c r="P105" s="2"/>
@@ -25128,10 +25178,10 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" t="s">
+        <v>984</v>
+      </c>
+      <c r="C106" t="s">
         <v>985</v>
-      </c>
-      <c r="C106" t="s">
-        <v>986</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="35"/>
@@ -25146,10 +25196,10 @@
     </row>
     <row r="107" spans="1:19" ht="15.75" thickBot="1">
       <c r="A107" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C107" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="255"/>
@@ -25322,7 +25372,7 @@
     <row r="136" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="137" spans="1:19" ht="15.75" thickBot="1">
       <c r="A137" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -25333,7 +25383,7 @@
       <c r="H137" s="3"/>
       <c r="L137" s="1"/>
       <c r="M137" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -25426,7 +25476,7 @@
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
       <c r="N142" s="24" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O142" s="24" t="s">
         <v>543</v>
@@ -25450,7 +25500,7 @@
         <v>234</v>
       </c>
       <c r="N143" s="38" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O143" s="38">
         <v>3</v>
@@ -25472,7 +25522,7 @@
       <c r="L144" s="4"/>
       <c r="M144" s="8"/>
       <c r="N144" s="38" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O144" s="38" t="b">
         <v>0</v>
@@ -25504,7 +25554,7 @@
     </row>
     <row r="147" spans="1:19">
       <c r="A147" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -25566,10 +25616,10 @@
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -25577,7 +25627,7 @@
       <c r="H150" s="6"/>
       <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
@@ -25679,20 +25729,20 @@
     <row r="158" spans="1:19" ht="15.75" thickBot="1">
       <c r="A158" s="5"/>
       <c r="B158" s="34" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="I158" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="159" spans="1:19" ht="15.75" thickBot="1">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -25712,7 +25762,7 @@
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -25738,13 +25788,13 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L161" s="3"/>
       <c r="M161" s="5"/>
       <c r="N161" s="5"/>
       <c r="O161" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="P161" s="3"/>
       <c r="Q161" s="6"/>
@@ -25752,7 +25802,7 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="5" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -25762,13 +25812,13 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="L162" s="6"/>
       <c r="M162" s="5"/>
       <c r="N162" s="5"/>
       <c r="O162" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
@@ -25777,7 +25827,7 @@
     <row r="163" spans="1:18">
       <c r="A163" s="5"/>
       <c r="B163" s="34" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -25797,7 +25847,7 @@
     <row r="164" spans="1:18" ht="15.75" thickBot="1">
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -25820,13 +25870,13 @@
     <row r="165" spans="1:18" ht="15.75" thickBot="1">
       <c r="B165" s="5"/>
       <c r="C165" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
       <c r="H165" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -25836,7 +25886,7 @@
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="P165" s="5" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
@@ -25844,14 +25894,14 @@
     <row r="166" spans="1:18">
       <c r="F166" s="5"/>
       <c r="H166" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
       <c r="M166" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="N166" s="3"/>
       <c r="O166" s="5"/>
@@ -25877,7 +25927,7 @@
     </row>
     <row r="168" spans="1:18">
       <c r="B168" s="34" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -25888,7 +25938,7 @@
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
       <c r="M168" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="N168" s="6"/>
       <c r="O168" s="5"/>
@@ -25899,7 +25949,7 @@
     <row r="169" spans="1:18" ht="15.75" thickBot="1">
       <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -25919,7 +25969,7 @@
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -25955,22 +26005,22 @@
     </row>
     <row r="173" spans="1:18">
       <c r="H173" s="16" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="174" spans="1:18">
       <c r="H174" s="16" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="175" spans="1:18">
       <c r="H175" s="16" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="272" spans="7:7" ht="15.75" thickBot="1">
       <c r="G272" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="273" spans="7:14">
@@ -26009,7 +26059,7 @@
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
       <c r="K276" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="L276" s="5"/>
       <c r="M276" s="6"/>
@@ -26031,7 +26081,7 @@
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
       <c r="K278" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
@@ -26121,31 +26171,31 @@
     </row>
     <row r="289" spans="5:7">
       <c r="E289" s="16" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="291" spans="5:7">
       <c r="E291" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G291" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="292" spans="5:7">
       <c r="E292" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G292" t="s">
         <v>1201</v>
-      </c>
-      <c r="G292" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="293" spans="5:7">
       <c r="E293" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G293" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
   </sheetData>
@@ -26969,7 +27019,7 @@
         <v>756</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -27066,7 +27116,7 @@
         <v>757</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -27106,7 +27156,7 @@
         <v>759</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
@@ -27123,10 +27173,10 @@
     </row>
     <row r="77" spans="2:17">
       <c r="B77" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C77" t="s">
         <v>1226</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1227</v>
       </c>
       <c r="L77" t="s">
         <v>763</v>
@@ -27166,7 +27216,7 @@
         <v>756</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -27181,7 +27231,7 @@
     </row>
     <row r="85" spans="1:17" ht="15.75" thickBot="1">
       <c r="A85" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="L85" t="s">
         <v>758</v>
@@ -27239,7 +27289,7 @@
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" t="s">
@@ -27255,11 +27305,11 @@
       <c r="D90" s="4"/>
       <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -27274,7 +27324,7 @@
         <v>757</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -27314,7 +27364,7 @@
         <v>759</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
@@ -27323,7 +27373,7 @@
     <row r="95" spans="1:17">
       <c r="M95" s="4"/>
       <c r="N95" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
@@ -27331,10 +27381,10 @@
     </row>
     <row r="96" spans="1:17">
       <c r="B96" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C96" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="L96" t="s">
         <v>763</v>
@@ -27371,7 +27421,7 @@
     <row r="103" spans="4:17" ht="15.75" thickBot="1"/>
     <row r="104" spans="4:17">
       <c r="M104" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="N104" s="38" t="s">
         <v>608</v>
@@ -27380,7 +27430,7 @@
         <v>32</v>
       </c>
       <c r="P104" s="38" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="Q104" s="12">
         <v>12213213</v>
@@ -27389,16 +27439,16 @@
     <row r="105" spans="4:17">
       <c r="M105" s="4"/>
       <c r="N105" s="70" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O105" s="12">
         <v>123123213</v>
       </c>
       <c r="P105" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q105" s="12" t="s">
         <v>1003</v>
-      </c>
-      <c r="Q105" s="12" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="106" spans="4:17" ht="15.75" thickBot="1">
@@ -27455,7 +27505,7 @@
       <c r="G109" s="6"/>
       <c r="I109" s="76"/>
       <c r="M109" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N109" s="38" t="s">
         <v>608</v>
@@ -27464,7 +27514,7 @@
         <v>32</v>
       </c>
       <c r="P109" s="38" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="Q109" s="12">
         <v>12213213</v>
@@ -27484,16 +27534,16 @@
       </c>
       <c r="M110" s="8"/>
       <c r="N110" s="70" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O110" s="12">
         <v>123123213</v>
       </c>
       <c r="P110" s="38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Q110" s="12" t="s">
         <v>1003</v>
-      </c>
-      <c r="Q110" s="12" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="111" spans="4:17" ht="15.75" thickBot="1">
@@ -27596,7 +27646,7 @@
     <row r="125" spans="4:17" ht="15.75" thickBot="1"/>
     <row r="126" spans="4:17">
       <c r="M126" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -27629,7 +27679,7 @@
     </row>
     <row r="129" spans="4:17">
       <c r="D129" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -28058,7 +28108,7 @@
     <row r="167" spans="3:18" ht="15.75" thickBot="1"/>
     <row r="168" spans="3:18">
       <c r="N168" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -28067,7 +28117,7 @@
     </row>
     <row r="169" spans="3:18">
       <c r="C169" s="76" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D169" s="76"/>
       <c r="E169" s="76"/>
@@ -28143,7 +28193,7 @@
     <row r="174" spans="3:18" ht="15.75" thickBot="1">
       <c r="E174" s="4"/>
       <c r="F174" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G174" s="5"/>
       <c r="H174" s="6"/>
@@ -28214,7 +28264,7 @@
       <c r="G179" s="10"/>
       <c r="H179" s="9"/>
       <c r="N179" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="O179" s="5"/>
       <c r="P179" s="5"/>
@@ -28259,7 +28309,7 @@
     <row r="186" spans="3:18" ht="15.75" thickBot="1"/>
     <row r="187" spans="3:18">
       <c r="N187" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -28268,7 +28318,7 @@
     </row>
     <row r="188" spans="3:18">
       <c r="C188" s="76" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D188" s="76"/>
       <c r="E188" s="76"/>
@@ -28286,7 +28336,7 @@
       <c r="L189" s="40"/>
       <c r="M189" s="40"/>
       <c r="N189" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O189" s="5"/>
       <c r="P189" s="5"/>
@@ -28339,7 +28389,7 @@
     <row r="193" spans="5:18" ht="15.75" thickBot="1">
       <c r="E193" s="4"/>
       <c r="F193" s="5" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="G193" s="5"/>
       <c r="H193" s="6"/>
@@ -28421,7 +28471,7 @@
       <c r="L198" s="40"/>
       <c r="M198" s="40"/>
       <c r="N198" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="O198" s="5"/>
       <c r="P198" s="5"/>
@@ -28466,10 +28516,10 @@
     <row r="218" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="219" spans="2:17" ht="15.75" thickBot="1">
       <c r="K219" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" s="2"/>
@@ -28487,7 +28537,7 @@
         <v>303</v>
       </c>
       <c r="F220" s="57" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G220" s="40"/>
       <c r="H220" s="40"/>
@@ -28503,20 +28553,20 @@
     </row>
     <row r="221" spans="2:17">
       <c r="B221" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="K221" s="4"/>
       <c r="L221" s="5"/>
       <c r="M221" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
@@ -28532,7 +28582,7 @@
       <c r="K222" s="4"/>
       <c r="L222" s="5"/>
       <c r="M222" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
@@ -28544,11 +28594,11 @@
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="40" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H223" s="40"/>
       <c r="I223" s="40"/>
@@ -28567,7 +28617,7 @@
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K224" s="4"/>
       <c r="L224" s="5"/>
@@ -28621,7 +28671,7 @@
     </row>
     <row r="228" spans="2:17">
       <c r="B228" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="K228" s="4"/>
       <c r="L228" s="5"/>
@@ -28643,10 +28693,10 @@
     <row r="230" spans="2:17" ht="15.75" thickBot="1"/>
     <row r="231" spans="2:17" ht="15.75" thickBot="1">
       <c r="K231" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="L231" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="M231" s="2"/>
       <c r="N231" s="2"/>
@@ -28664,7 +28714,7 @@
         <v>303</v>
       </c>
       <c r="F232" s="57" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G232" s="40"/>
       <c r="H232" s="40"/>
@@ -28673,23 +28723,23 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="356" t="s">
-        <v>1253</v>
-      </c>
-      <c r="P232" s="357"/>
+      <c r="O232" s="360" t="s">
+        <v>1252</v>
+      </c>
+      <c r="P232" s="361"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">
       <c r="B233" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="K233" s="4"/>
       <c r="L233" s="5" t="s">
@@ -28701,7 +28751,7 @@
         <v>123</v>
       </c>
       <c r="P233" s="38" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Q233" s="6"/>
     </row>
@@ -28726,11 +28776,11 @@
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="F235" s="6"/>
       <c r="G235" s="40" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="H235" s="40"/>
       <c r="I235" s="40"/>
@@ -28750,7 +28800,7 @@
       <c r="E236" s="5"/>
       <c r="F236" s="6"/>
       <c r="H236" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="K236" s="4"/>
       <c r="L236" s="5"/>
@@ -28767,7 +28817,7 @@
       <c r="E237" s="5"/>
       <c r="F237" s="6"/>
       <c r="G237" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="K237" s="4"/>
       <c r="L237" s="5"/>
@@ -28807,7 +28857,7 @@
     </row>
     <row r="240" spans="2:17">
       <c r="B240" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="K240" s="4"/>
       <c r="L240" s="5"/>

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="1417">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -4667,6 +4667,87 @@
   </si>
   <si>
     <t>RestTemplate</t>
+  </si>
+  <si>
+    <t>struts.xml</t>
+  </si>
+  <si>
+    <t>john/john123</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt; http://localhost/abcd &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Struts.xml</t>
+  </si>
+  <si>
+    <t>action javaprogram</t>
+  </si>
+  <si>
+    <t>welcome html</t>
+  </si>
+  <si>
+    <t>error html</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>java pgroram</t>
+  </si>
+  <si>
+    <t>compare userid pwd</t>
+  </si>
+  <si>
+    <t>return response</t>
+  </si>
+  <si>
+    <t>COntROllER</t>
+  </si>
+  <si>
+    <t>MVC</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>STRUTS Action java program</t>
+  </si>
+  <si>
+    <t>Action java program</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>String userid</t>
+  </si>
+  <si>
+    <t>String pwd</t>
+  </si>
+  <si>
+    <t>String firstName &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>String lastname &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>johnathan</t>
+  </si>
+  <si>
+    <t>business logic</t>
+  </si>
+  <si>
+    <t>arraylist</t>
+  </si>
+  <si>
+    <t>mango</t>
   </si>
 </sst>
 </file>
@@ -5413,7 +5494,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -5855,6 +5936,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5999,6 +6096,12 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6028,6 +6131,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6059,9 +6165,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6071,8 +6174,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6134,104 +6288,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6275,37 +6345,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11040,10 +11125,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="361" t="s">
+      <c r="L35" s="373" t="s">
         <v>376</v>
       </c>
-      <c r="M35" s="361"/>
+      <c r="M35" s="373"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -12973,10 +13058,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="362" t="s">
+      <c r="A155" s="374" t="s">
         <v>1019</v>
       </c>
-      <c r="B155" s="362"/>
+      <c r="B155" s="374"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -14441,13 +14526,13 @@
       <c r="B133" t="s">
         <v>848</v>
       </c>
-      <c r="J133" s="459" t="s">
+      <c r="J133" s="316" t="s">
         <v>30</v>
       </c>
-      <c r="K133" s="459" t="s">
+      <c r="K133" s="316" t="s">
         <v>30</v>
       </c>
-      <c r="L133" s="459" t="s">
+      <c r="L133" s="316" t="s">
         <v>354</v>
       </c>
     </row>
@@ -14530,7 +14615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J52" sqref="J52:J54"/>
     </sheetView>
   </sheetViews>
@@ -14566,18 +14651,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="367" t="s">
+      <c r="E6" s="381" t="s">
         <v>408</v>
       </c>
-      <c r="F6" s="317"/>
-      <c r="G6" s="316" t="s">
+      <c r="F6" s="329"/>
+      <c r="G6" s="328" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="316"/>
-      <c r="I6" s="316"/>
-      <c r="J6" s="316"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="317"/>
+      <c r="H6" s="328"/>
+      <c r="I6" s="328"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="329"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -14587,7 +14672,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="365">
+      <c r="D7" s="379">
         <v>80</v>
       </c>
       <c r="E7" s="66"/>
@@ -14605,23 +14690,23 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="365"/>
+      <c r="D8" s="379"/>
       <c r="E8" s="58" t="s">
         <v>410</v>
       </c>
-      <c r="F8" s="462"/>
+      <c r="F8" s="317"/>
       <c r="G8" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="H8" s="462"/>
+      <c r="H8" s="317"/>
       <c r="I8" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="J8" s="462"/>
+      <c r="J8" s="317"/>
       <c r="K8" s="58" t="s">
         <v>413</v>
       </c>
-      <c r="L8" s="462"/>
+      <c r="L8" s="317"/>
       <c r="M8" s="5" t="s">
         <v>1353</v>
       </c>
@@ -14640,7 +14725,7 @@
       <c r="B9" t="s">
         <v>409</v>
       </c>
-      <c r="D9" s="365"/>
+      <c r="D9" s="379"/>
       <c r="E9" s="237"/>
       <c r="F9" s="243"/>
       <c r="G9" s="237"/>
@@ -14664,7 +14749,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="365"/>
+      <c r="D10" s="379"/>
       <c r="E10" s="66"/>
       <c r="F10" s="242"/>
       <c r="G10" s="66"/>
@@ -14688,23 +14773,23 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="365"/>
+      <c r="D11" s="379"/>
       <c r="E11" s="58" t="s">
         <v>414</v>
       </c>
-      <c r="F11" s="462"/>
+      <c r="F11" s="317"/>
       <c r="G11" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="H11" s="462"/>
+      <c r="H11" s="317"/>
       <c r="I11" s="58" t="s">
         <v>416</v>
       </c>
-      <c r="J11" s="462"/>
+      <c r="J11" s="317"/>
       <c r="K11" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="L11" s="462"/>
+      <c r="L11" s="317"/>
       <c r="M11" s="5">
         <v>1000</v>
       </c>
@@ -14717,7 +14802,7 @@
       <c r="B12" s="214" t="s">
         <v>418</v>
       </c>
-      <c r="D12" s="365"/>
+      <c r="D12" s="379"/>
       <c r="E12" s="237"/>
       <c r="F12" s="243"/>
       <c r="G12" s="237"/>
@@ -14735,7 +14820,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="365"/>
+      <c r="D13" s="379"/>
       <c r="E13" s="66"/>
       <c r="F13" s="242"/>
       <c r="G13" s="66"/>
@@ -14751,23 +14836,23 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="365"/>
+      <c r="D14" s="379"/>
       <c r="E14" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="F14" s="462"/>
+      <c r="F14" s="317"/>
       <c r="G14" s="58" t="s">
         <v>420</v>
       </c>
-      <c r="H14" s="462"/>
+      <c r="H14" s="317"/>
       <c r="I14" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="J14" s="462"/>
+      <c r="J14" s="317"/>
       <c r="K14" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="L14" s="462"/>
+      <c r="L14" s="317"/>
       <c r="M14" s="5"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
@@ -14775,7 +14860,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="365"/>
+      <c r="D15" s="379"/>
       <c r="E15" s="237"/>
       <c r="F15" s="243"/>
       <c r="G15" s="237"/>
@@ -14791,15 +14876,15 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="365"/>
+      <c r="D16" s="379"/>
       <c r="E16" s="66"/>
       <c r="F16" s="242"/>
       <c r="G16" s="59"/>
-      <c r="H16" s="462"/>
+      <c r="H16" s="317"/>
       <c r="I16" s="58"/>
-      <c r="J16" s="462"/>
+      <c r="J16" s="317"/>
       <c r="K16" s="59"/>
-      <c r="L16" s="462"/>
+      <c r="L16" s="317"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -14807,23 +14892,23 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="365"/>
+      <c r="D17" s="379"/>
       <c r="E17" s="58" t="s">
         <v>423</v>
       </c>
-      <c r="F17" s="462"/>
+      <c r="F17" s="317"/>
       <c r="G17" s="59" t="s">
         <v>424</v>
       </c>
-      <c r="H17" s="462"/>
+      <c r="H17" s="317"/>
       <c r="I17" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="J17" s="462"/>
+      <c r="J17" s="317"/>
       <c r="K17" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="L17" s="462"/>
+      <c r="L17" s="317"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -14831,14 +14916,14 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="365"/>
+      <c r="D18" s="379"/>
       <c r="E18" s="237"/>
       <c r="F18" s="243"/>
-      <c r="G18" s="471"/>
+      <c r="G18" s="326"/>
       <c r="H18" s="243"/>
-      <c r="I18" s="471"/>
+      <c r="I18" s="326"/>
       <c r="J18" s="243"/>
-      <c r="K18" s="471"/>
+      <c r="K18" s="326"/>
       <c r="L18" s="243"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -14848,20 +14933,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="368" t="s">
+      <c r="E19" s="382" t="s">
         <v>195</v>
       </c>
-      <c r="F19" s="369"/>
-      <c r="G19" s="368" t="s">
+      <c r="F19" s="383"/>
+      <c r="G19" s="382" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="369"/>
-      <c r="I19" s="368" t="s">
+      <c r="H19" s="383"/>
+      <c r="I19" s="382" t="s">
         <v>197</v>
       </c>
-      <c r="J19" s="370"/>
-      <c r="K19" s="370"/>
-      <c r="L19" s="369"/>
+      <c r="J19" s="384"/>
+      <c r="K19" s="384"/>
+      <c r="L19" s="383"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -14926,12 +15011,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="371"/>
-      <c r="H24" s="371"/>
-      <c r="I24" s="371"/>
-      <c r="J24" s="371"/>
-      <c r="K24" s="371"/>
-      <c r="L24" s="371"/>
+      <c r="G24" s="385"/>
+      <c r="H24" s="385"/>
+      <c r="I24" s="385"/>
+      <c r="J24" s="385"/>
+      <c r="K24" s="385"/>
+      <c r="L24" s="385"/>
       <c r="O24" s="40" t="s">
         <v>180</v>
       </c>
@@ -15304,11 +15389,11 @@
       <c r="G47" s="227" t="s">
         <v>909</v>
       </c>
-      <c r="H47" s="359" t="s">
+      <c r="H47" s="371" t="s">
         <v>1380</v>
       </c>
-      <c r="I47" s="366"/>
-      <c r="J47" s="360"/>
+      <c r="I47" s="380"/>
+      <c r="J47" s="372"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -15914,16 +15999,16 @@
         <v>1074</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="363" t="s">
+      <c r="G131" s="377" t="s">
         <v>1067</v>
       </c>
-      <c r="H131" s="363"/>
-      <c r="I131" s="363"/>
-      <c r="J131" s="363"/>
-      <c r="K131" s="363"/>
-      <c r="L131" s="363"/>
-      <c r="M131" s="363"/>
-      <c r="N131" s="363"/>
+      <c r="H131" s="377"/>
+      <c r="I131" s="377"/>
+      <c r="J131" s="377"/>
+      <c r="K131" s="377"/>
+      <c r="L131" s="377"/>
+      <c r="M131" s="377"/>
+      <c r="N131" s="377"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -16060,29 +16145,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="364"/>
-      <c r="H141" s="364"/>
-      <c r="I141" s="364"/>
-      <c r="J141" s="364"/>
-      <c r="K141" s="364"/>
-      <c r="L141" s="364"/>
-      <c r="M141" s="364"/>
-      <c r="N141" s="364"/>
-      <c r="O141" s="364"/>
+      <c r="G141" s="378"/>
+      <c r="H141" s="378"/>
+      <c r="I141" s="378"/>
+      <c r="J141" s="378"/>
+      <c r="K141" s="378"/>
+      <c r="L141" s="378"/>
+      <c r="M141" s="378"/>
+      <c r="N141" s="378"/>
+      <c r="O141" s="378"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="364"/>
-      <c r="H142" s="364"/>
-      <c r="I142" s="364"/>
-      <c r="J142" s="364"/>
-      <c r="K142" s="364"/>
-      <c r="L142" s="364"/>
-      <c r="M142" s="364"/>
-      <c r="N142" s="364"/>
-      <c r="O142" s="364"/>
+      <c r="G142" s="378"/>
+      <c r="H142" s="378"/>
+      <c r="I142" s="378"/>
+      <c r="J142" s="378"/>
+      <c r="K142" s="378"/>
+      <c r="L142" s="378"/>
+      <c r="M142" s="378"/>
+      <c r="N142" s="378"/>
+      <c r="O142" s="378"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -16126,7 +16211,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="460" t="s">
+      <c r="D158" s="375" t="s">
         <v>1346</v>
       </c>
       <c r="E158" s="66"/>
@@ -16139,29 +16224,29 @@
       <c r="L158" s="242"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="461"/>
-      <c r="E159" s="463" t="s">
+      <c r="D159" s="376"/>
+      <c r="E159" s="318" t="s">
         <v>1344</v>
       </c>
-      <c r="F159" s="464"/>
-      <c r="G159" s="463" t="s">
+      <c r="F159" s="319"/>
+      <c r="G159" s="318" t="s">
         <v>1345</v>
       </c>
-      <c r="H159" s="464"/>
-      <c r="I159" s="463" t="s">
+      <c r="H159" s="319"/>
+      <c r="I159" s="318" t="s">
         <v>1348</v>
       </c>
-      <c r="J159" s="464"/>
+      <c r="J159" s="319"/>
       <c r="K159" s="58" t="s">
         <v>1347</v>
       </c>
-      <c r="L159" s="462"/>
+      <c r="L159" s="317"/>
       <c r="M159" t="s">
         <v>1349</v>
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="461"/>
+      <c r="D160" s="376"/>
       <c r="E160" s="237"/>
       <c r="F160" s="243"/>
       <c r="G160" s="237"/>
@@ -16172,43 +16257,43 @@
       <c r="L160" s="243"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="461"/>
-      <c r="E161" s="465"/>
-      <c r="F161" s="466"/>
-      <c r="G161" s="465"/>
-      <c r="H161" s="466"/>
-      <c r="I161" s="465"/>
-      <c r="J161" s="466"/>
-      <c r="K161" s="465"/>
-      <c r="L161" s="466"/>
+      <c r="D161" s="376"/>
+      <c r="E161" s="320"/>
+      <c r="F161" s="321"/>
+      <c r="G161" s="320"/>
+      <c r="H161" s="321"/>
+      <c r="I161" s="320"/>
+      <c r="J161" s="321"/>
+      <c r="K161" s="320"/>
+      <c r="L161" s="321"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="461"/>
-      <c r="E162" s="467"/>
-      <c r="F162" s="468"/>
-      <c r="G162" s="467"/>
-      <c r="H162" s="468"/>
-      <c r="I162" s="467"/>
-      <c r="J162" s="468"/>
-      <c r="K162" s="467"/>
-      <c r="L162" s="468"/>
+      <c r="D162" s="376"/>
+      <c r="E162" s="322"/>
+      <c r="F162" s="323"/>
+      <c r="G162" s="322"/>
+      <c r="H162" s="323"/>
+      <c r="I162" s="322"/>
+      <c r="J162" s="323"/>
+      <c r="K162" s="322"/>
+      <c r="L162" s="323"/>
       <c r="M162" t="s">
         <v>1350</v>
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="461"/>
-      <c r="E163" s="469"/>
-      <c r="F163" s="470"/>
-      <c r="G163" s="469"/>
-      <c r="H163" s="470"/>
-      <c r="I163" s="469"/>
-      <c r="J163" s="470"/>
-      <c r="K163" s="469"/>
-      <c r="L163" s="470"/>
+      <c r="D163" s="376"/>
+      <c r="E163" s="324"/>
+      <c r="F163" s="325"/>
+      <c r="G163" s="324"/>
+      <c r="H163" s="325"/>
+      <c r="I163" s="324"/>
+      <c r="J163" s="325"/>
+      <c r="K163" s="324"/>
+      <c r="L163" s="325"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="461"/>
+      <c r="D164" s="376"/>
       <c r="E164" s="66"/>
       <c r="F164" s="242"/>
       <c r="G164" s="66"/>
@@ -16219,21 +16304,21 @@
       <c r="L164" s="242"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="461"/>
+      <c r="D165" s="376"/>
       <c r="E165" s="58"/>
-      <c r="F165" s="462"/>
+      <c r="F165" s="317"/>
       <c r="G165" s="58"/>
-      <c r="H165" s="462"/>
+      <c r="H165" s="317"/>
       <c r="I165" s="58"/>
-      <c r="J165" s="462"/>
+      <c r="J165" s="317"/>
       <c r="K165" s="58"/>
-      <c r="L165" s="462"/>
+      <c r="L165" s="317"/>
       <c r="M165" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="461"/>
+      <c r="D166" s="376"/>
       <c r="E166" s="237"/>
       <c r="F166" s="243"/>
       <c r="G166" s="237"/>
@@ -16244,39 +16329,39 @@
       <c r="L166" s="243"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="461"/>
+      <c r="D167" s="376"/>
       <c r="E167" s="66"/>
       <c r="F167" s="242"/>
       <c r="G167" s="59"/>
-      <c r="H167" s="462"/>
+      <c r="H167" s="317"/>
       <c r="I167" s="58"/>
-      <c r="J167" s="462"/>
+      <c r="J167" s="317"/>
       <c r="K167" s="59"/>
-      <c r="L167" s="462"/>
+      <c r="L167" s="317"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="461"/>
+      <c r="D168" s="376"/>
       <c r="E168" s="58"/>
-      <c r="F168" s="462"/>
+      <c r="F168" s="317"/>
       <c r="G168" s="59"/>
-      <c r="H168" s="462"/>
+      <c r="H168" s="317"/>
       <c r="I168" s="58"/>
-      <c r="J168" s="462"/>
+      <c r="J168" s="317"/>
       <c r="K168" s="59"/>
-      <c r="L168" s="462"/>
+      <c r="L168" s="317"/>
       <c r="M168" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="461"/>
+      <c r="D169" s="376"/>
       <c r="E169" s="237"/>
       <c r="F169" s="243"/>
-      <c r="G169" s="471"/>
+      <c r="G169" s="326"/>
       <c r="H169" s="243"/>
-      <c r="I169" s="471"/>
+      <c r="I169" s="326"/>
       <c r="J169" s="243"/>
-      <c r="K169" s="471"/>
+      <c r="K169" s="326"/>
       <c r="L169" s="243"/>
     </row>
     <row r="171" spans="4:13">
@@ -16449,16 +16534,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="G24:L24"/>
   </mergeCells>
   <hyperlinks>
@@ -16704,13 +16789,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="372" t="s">
+      <c r="D20" s="386" t="s">
         <v>458</v>
       </c>
-      <c r="E20" s="372"/>
-      <c r="F20" s="372"/>
-      <c r="G20" s="372"/>
-      <c r="H20" s="372"/>
+      <c r="E20" s="386"/>
+      <c r="F20" s="386"/>
+      <c r="G20" s="386"/>
+      <c r="H20" s="386"/>
       <c r="I20" s="38" t="s">
         <v>459</v>
       </c>
@@ -16721,37 +16806,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="383">
+      <c r="C21" s="387">
         <v>43909</v>
       </c>
-      <c r="D21" s="372"/>
-      <c r="E21" s="372"/>
-      <c r="F21" s="372"/>
-      <c r="G21" s="372"/>
-      <c r="H21" s="372"/>
+      <c r="D21" s="386"/>
+      <c r="E21" s="386"/>
+      <c r="F21" s="386"/>
+      <c r="G21" s="386"/>
+      <c r="H21" s="386"/>
       <c r="I21" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="J21" s="372"/>
-      <c r="K21" s="372"/>
-      <c r="L21" s="372" t="s">
+      <c r="J21" s="386"/>
+      <c r="K21" s="386"/>
+      <c r="L21" s="386" t="s">
         <v>461</v>
       </c>
-      <c r="M21" s="372"/>
-      <c r="N21" s="372"/>
+      <c r="M21" s="386"/>
+      <c r="N21" s="386"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="383"/>
-      <c r="D22" s="372"/>
-      <c r="E22" s="372"/>
-      <c r="F22" s="372"/>
-      <c r="G22" s="372"/>
-      <c r="H22" s="372"/>
-      <c r="I22" s="326" t="s">
+      <c r="C22" s="387"/>
+      <c r="D22" s="386"/>
+      <c r="E22" s="386"/>
+      <c r="F22" s="386"/>
+      <c r="G22" s="386"/>
+      <c r="H22" s="386"/>
+      <c r="I22" s="338" t="s">
         <v>462</v>
       </c>
-      <c r="J22" s="372"/>
-      <c r="K22" s="372"/>
+      <c r="J22" s="386"/>
+      <c r="K22" s="386"/>
       <c r="L22" s="117" t="s">
         <v>463</v>
       </c>
@@ -16759,31 +16844,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="383"/>
-      <c r="D23" s="372"/>
-      <c r="E23" s="372"/>
-      <c r="F23" s="372"/>
-      <c r="G23" s="372"/>
-      <c r="H23" s="372"/>
-      <c r="I23" s="326"/>
-      <c r="J23" s="372"/>
-      <c r="K23" s="372"/>
-      <c r="L23" s="372" t="s">
+      <c r="C23" s="387"/>
+      <c r="D23" s="386"/>
+      <c r="E23" s="386"/>
+      <c r="F23" s="386"/>
+      <c r="G23" s="386"/>
+      <c r="H23" s="386"/>
+      <c r="I23" s="338"/>
+      <c r="J23" s="386"/>
+      <c r="K23" s="386"/>
+      <c r="L23" s="386" t="s">
         <v>464</v>
       </c>
-      <c r="M23" s="372"/>
-      <c r="N23" s="372"/>
+      <c r="M23" s="386"/>
+      <c r="N23" s="386"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="383"/>
-      <c r="D24" s="372"/>
-      <c r="E24" s="372"/>
-      <c r="F24" s="372"/>
-      <c r="G24" s="372"/>
-      <c r="H24" s="372"/>
-      <c r="I24" s="326"/>
-      <c r="J24" s="372"/>
-      <c r="K24" s="372"/>
+      <c r="C24" s="387"/>
+      <c r="D24" s="386"/>
+      <c r="E24" s="386"/>
+      <c r="F24" s="386"/>
+      <c r="G24" s="386"/>
+      <c r="H24" s="386"/>
+      <c r="I24" s="338"/>
+      <c r="J24" s="386"/>
+      <c r="K24" s="386"/>
       <c r="L24" s="118" t="s">
         <v>462</v>
       </c>
@@ -16794,13 +16879,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="372" t="s">
+      <c r="D25" s="386" t="s">
         <v>465</v>
       </c>
-      <c r="E25" s="372"/>
-      <c r="F25" s="372"/>
-      <c r="G25" s="372"/>
-      <c r="H25" s="372"/>
+      <c r="E25" s="386"/>
+      <c r="F25" s="386"/>
+      <c r="G25" s="386"/>
+      <c r="H25" s="386"/>
       <c r="I25" s="38" t="s">
         <v>466</v>
       </c>
@@ -16814,16 +16899,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="373"/>
-      <c r="E26" s="374"/>
-      <c r="F26" s="374"/>
-      <c r="G26" s="374"/>
-      <c r="H26" s="375"/>
-      <c r="I26" s="380" t="s">
+      <c r="D26" s="388"/>
+      <c r="E26" s="389"/>
+      <c r="F26" s="389"/>
+      <c r="G26" s="389"/>
+      <c r="H26" s="390"/>
+      <c r="I26" s="395" t="s">
         <v>462</v>
       </c>
-      <c r="J26" s="373"/>
-      <c r="K26" s="375"/>
+      <c r="J26" s="388"/>
+      <c r="K26" s="390"/>
       <c r="L26" s="117" t="s">
         <v>463</v>
       </c>
@@ -16832,30 +16917,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="376"/>
-      <c r="E27" s="371"/>
-      <c r="F27" s="371"/>
-      <c r="G27" s="371"/>
-      <c r="H27" s="377"/>
-      <c r="I27" s="381"/>
-      <c r="J27" s="376"/>
-      <c r="K27" s="377"/>
-      <c r="L27" s="372" t="s">
+      <c r="D27" s="391"/>
+      <c r="E27" s="385"/>
+      <c r="F27" s="385"/>
+      <c r="G27" s="385"/>
+      <c r="H27" s="392"/>
+      <c r="I27" s="396"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="392"/>
+      <c r="L27" s="386" t="s">
         <v>467</v>
       </c>
-      <c r="M27" s="372"/>
-      <c r="N27" s="372"/>
+      <c r="M27" s="386"/>
+      <c r="N27" s="386"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="376"/>
-      <c r="E28" s="371"/>
-      <c r="F28" s="371"/>
-      <c r="G28" s="371"/>
-      <c r="H28" s="377"/>
-      <c r="I28" s="381"/>
-      <c r="J28" s="376"/>
-      <c r="K28" s="377"/>
+      <c r="D28" s="391"/>
+      <c r="E28" s="385"/>
+      <c r="F28" s="385"/>
+      <c r="G28" s="385"/>
+      <c r="H28" s="392"/>
+      <c r="I28" s="396"/>
+      <c r="J28" s="391"/>
+      <c r="K28" s="392"/>
       <c r="L28" s="118" t="s">
         <v>462</v>
       </c>
@@ -16864,14 +16949,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="378"/>
-      <c r="E29" s="361"/>
-      <c r="F29" s="361"/>
-      <c r="G29" s="361"/>
-      <c r="H29" s="379"/>
-      <c r="I29" s="382"/>
-      <c r="J29" s="378"/>
-      <c r="K29" s="379"/>
+      <c r="D29" s="393"/>
+      <c r="E29" s="373"/>
+      <c r="F29" s="373"/>
+      <c r="G29" s="373"/>
+      <c r="H29" s="394"/>
+      <c r="I29" s="397"/>
+      <c r="J29" s="393"/>
+      <c r="K29" s="394"/>
       <c r="L29" s="119" t="s">
         <v>468</v>
       </c>
@@ -16919,13 +17004,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="372" t="s">
+      <c r="D33" s="386" t="s">
         <v>458</v>
       </c>
-      <c r="E33" s="372"/>
-      <c r="F33" s="372"/>
-      <c r="G33" s="372"/>
-      <c r="H33" s="372"/>
+      <c r="E33" s="386"/>
+      <c r="F33" s="386"/>
+      <c r="G33" s="386"/>
+      <c r="H33" s="386"/>
       <c r="I33" s="38" t="s">
         <v>459</v>
       </c>
@@ -16936,33 +17021,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="383">
+      <c r="C34" s="387">
         <v>43909</v>
       </c>
-      <c r="D34" s="372"/>
-      <c r="E34" s="372"/>
-      <c r="F34" s="372"/>
-      <c r="G34" s="372"/>
-      <c r="H34" s="372"/>
-      <c r="I34" s="384"/>
-      <c r="J34" s="372"/>
-      <c r="K34" s="372"/>
-      <c r="L34" s="372" t="s">
+      <c r="D34" s="386"/>
+      <c r="E34" s="386"/>
+      <c r="F34" s="386"/>
+      <c r="G34" s="386"/>
+      <c r="H34" s="386"/>
+      <c r="I34" s="398"/>
+      <c r="J34" s="386"/>
+      <c r="K34" s="386"/>
+      <c r="L34" s="386" t="s">
         <v>461</v>
       </c>
-      <c r="M34" s="372"/>
-      <c r="N34" s="372"/>
+      <c r="M34" s="386"/>
+      <c r="N34" s="386"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="383"/>
-      <c r="D35" s="372"/>
-      <c r="E35" s="372"/>
-      <c r="F35" s="372"/>
-      <c r="G35" s="372"/>
-      <c r="H35" s="372"/>
-      <c r="I35" s="385"/>
-      <c r="J35" s="372"/>
-      <c r="K35" s="372"/>
+      <c r="C35" s="387"/>
+      <c r="D35" s="386"/>
+      <c r="E35" s="386"/>
+      <c r="F35" s="386"/>
+      <c r="G35" s="386"/>
+      <c r="H35" s="386"/>
+      <c r="I35" s="399"/>
+      <c r="J35" s="386"/>
+      <c r="K35" s="386"/>
       <c r="L35" s="117" t="s">
         <v>463</v>
       </c>
@@ -16970,31 +17055,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="383"/>
-      <c r="D36" s="372"/>
-      <c r="E36" s="372"/>
-      <c r="F36" s="372"/>
-      <c r="G36" s="372"/>
-      <c r="H36" s="372"/>
-      <c r="I36" s="385"/>
-      <c r="J36" s="372"/>
-      <c r="K36" s="372"/>
-      <c r="L36" s="372" t="s">
+      <c r="C36" s="387"/>
+      <c r="D36" s="386"/>
+      <c r="E36" s="386"/>
+      <c r="F36" s="386"/>
+      <c r="G36" s="386"/>
+      <c r="H36" s="386"/>
+      <c r="I36" s="399"/>
+      <c r="J36" s="386"/>
+      <c r="K36" s="386"/>
+      <c r="L36" s="386" t="s">
         <v>464</v>
       </c>
-      <c r="M36" s="372"/>
-      <c r="N36" s="372"/>
+      <c r="M36" s="386"/>
+      <c r="N36" s="386"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="383"/>
-      <c r="D37" s="372"/>
-      <c r="E37" s="372"/>
-      <c r="F37" s="372"/>
-      <c r="G37" s="372"/>
-      <c r="H37" s="372"/>
-      <c r="I37" s="386"/>
-      <c r="J37" s="372"/>
-      <c r="K37" s="372"/>
+      <c r="C37" s="387"/>
+      <c r="D37" s="386"/>
+      <c r="E37" s="386"/>
+      <c r="F37" s="386"/>
+      <c r="G37" s="386"/>
+      <c r="H37" s="386"/>
+      <c r="I37" s="400"/>
+      <c r="J37" s="386"/>
+      <c r="K37" s="386"/>
       <c r="L37" s="118" t="s">
         <v>469</v>
       </c>
@@ -17005,13 +17090,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="372" t="s">
+      <c r="D38" s="386" t="s">
         <v>465</v>
       </c>
-      <c r="E38" s="372"/>
-      <c r="F38" s="372"/>
-      <c r="G38" s="372"/>
-      <c r="H38" s="372"/>
+      <c r="E38" s="386"/>
+      <c r="F38" s="386"/>
+      <c r="G38" s="386"/>
+      <c r="H38" s="386"/>
       <c r="I38" s="38" t="s">
         <v>466</v>
       </c>
@@ -17025,14 +17110,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="373"/>
-      <c r="E39" s="374"/>
-      <c r="F39" s="374"/>
-      <c r="G39" s="374"/>
-      <c r="H39" s="375"/>
-      <c r="I39" s="380"/>
-      <c r="J39" s="373"/>
-      <c r="K39" s="375"/>
+      <c r="D39" s="388"/>
+      <c r="E39" s="389"/>
+      <c r="F39" s="389"/>
+      <c r="G39" s="389"/>
+      <c r="H39" s="390"/>
+      <c r="I39" s="395"/>
+      <c r="J39" s="388"/>
+      <c r="K39" s="390"/>
       <c r="L39" s="117" t="s">
         <v>463</v>
       </c>
@@ -17041,30 +17126,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="376"/>
-      <c r="E40" s="371"/>
-      <c r="F40" s="371"/>
-      <c r="G40" s="371"/>
-      <c r="H40" s="377"/>
-      <c r="I40" s="381"/>
-      <c r="J40" s="376"/>
-      <c r="K40" s="377"/>
-      <c r="L40" s="372" t="s">
+      <c r="D40" s="391"/>
+      <c r="E40" s="385"/>
+      <c r="F40" s="385"/>
+      <c r="G40" s="385"/>
+      <c r="H40" s="392"/>
+      <c r="I40" s="396"/>
+      <c r="J40" s="391"/>
+      <c r="K40" s="392"/>
+      <c r="L40" s="386" t="s">
         <v>467</v>
       </c>
-      <c r="M40" s="372"/>
-      <c r="N40" s="372"/>
+      <c r="M40" s="386"/>
+      <c r="N40" s="386"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="376"/>
-      <c r="E41" s="371"/>
-      <c r="F41" s="371"/>
-      <c r="G41" s="371"/>
-      <c r="H41" s="377"/>
-      <c r="I41" s="382"/>
-      <c r="J41" s="376"/>
-      <c r="K41" s="377"/>
+      <c r="D41" s="391"/>
+      <c r="E41" s="385"/>
+      <c r="F41" s="385"/>
+      <c r="G41" s="385"/>
+      <c r="H41" s="392"/>
+      <c r="I41" s="397"/>
+      <c r="J41" s="391"/>
+      <c r="K41" s="392"/>
       <c r="L41" s="118" t="s">
         <v>469</v>
       </c>
@@ -17073,16 +17158,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="378"/>
-      <c r="E42" s="361"/>
-      <c r="F42" s="361"/>
-      <c r="G42" s="361"/>
-      <c r="H42" s="379"/>
+      <c r="D42" s="393"/>
+      <c r="E42" s="373"/>
+      <c r="F42" s="373"/>
+      <c r="G42" s="373"/>
+      <c r="H42" s="394"/>
       <c r="I42" s="38" t="s">
         <v>460</v>
       </c>
-      <c r="J42" s="378"/>
-      <c r="K42" s="379"/>
+      <c r="J42" s="393"/>
+      <c r="K42" s="394"/>
       <c r="L42" s="119" t="s">
         <v>468</v>
       </c>
@@ -17394,12 +17479,17 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -17407,17 +17497,12 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17425,10 +17510,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X90"/>
+  <dimension ref="A2:X155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N147" sqref="N147:P156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17494,22 +17579,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="387" t="s">
+      <c r="G5" s="414" t="s">
         <v>520</v>
       </c>
-      <c r="H5" s="387"/>
-      <c r="I5" s="387" t="s">
+      <c r="H5" s="414"/>
+      <c r="I5" s="414" t="s">
         <v>521</v>
       </c>
-      <c r="J5" s="387"/>
-      <c r="K5" s="387"/>
-      <c r="L5" s="387"/>
-      <c r="M5" s="387"/>
-      <c r="N5" s="387"/>
-      <c r="O5" s="387" t="s">
+      <c r="J5" s="414"/>
+      <c r="K5" s="414"/>
+      <c r="L5" s="414"/>
+      <c r="M5" s="414"/>
+      <c r="N5" s="414"/>
+      <c r="O5" s="414" t="s">
         <v>522</v>
       </c>
-      <c r="P5" s="387"/>
+      <c r="P5" s="414"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -17521,7 +17606,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="388" t="s">
+      <c r="G6" s="419" t="s">
         <v>523</v>
       </c>
       <c r="H6" s="111"/>
@@ -17550,26 +17635,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="389"/>
-      <c r="H7" s="391" t="s">
+      <c r="G7" s="420"/>
+      <c r="H7" s="422" t="s">
         <v>525</v>
       </c>
-      <c r="I7" s="394" t="s">
+      <c r="I7" s="425" t="s">
         <v>526</v>
       </c>
-      <c r="J7" s="395"/>
-      <c r="K7" s="396" t="s">
+      <c r="J7" s="426"/>
+      <c r="K7" s="427" t="s">
         <v>527</v>
       </c>
-      <c r="L7" s="397"/>
-      <c r="M7" s="394" t="s">
+      <c r="L7" s="428"/>
+      <c r="M7" s="425" t="s">
         <v>528</v>
       </c>
-      <c r="N7" s="395"/>
-      <c r="O7" s="402" t="s">
+      <c r="N7" s="426"/>
+      <c r="O7" s="433" t="s">
         <v>529</v>
       </c>
-      <c r="P7" s="403"/>
+      <c r="P7" s="434"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -17581,16 +17666,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="389"/>
-      <c r="H8" s="392"/>
-      <c r="I8" s="338"/>
-      <c r="J8" s="325"/>
-      <c r="K8" s="398"/>
-      <c r="L8" s="399"/>
-      <c r="M8" s="338"/>
-      <c r="N8" s="325"/>
-      <c r="O8" s="404"/>
-      <c r="P8" s="405"/>
+      <c r="G8" s="420"/>
+      <c r="H8" s="423"/>
+      <c r="I8" s="350"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="429"/>
+      <c r="L8" s="430"/>
+      <c r="M8" s="350"/>
+      <c r="N8" s="337"/>
+      <c r="O8" s="435"/>
+      <c r="P8" s="436"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>183</v>
@@ -17608,16 +17693,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="389"/>
-      <c r="H9" s="392"/>
-      <c r="I9" s="338"/>
-      <c r="J9" s="325"/>
-      <c r="K9" s="398"/>
-      <c r="L9" s="399"/>
-      <c r="M9" s="338"/>
-      <c r="N9" s="325"/>
-      <c r="O9" s="404"/>
-      <c r="P9" s="405"/>
+      <c r="G9" s="420"/>
+      <c r="H9" s="423"/>
+      <c r="I9" s="350"/>
+      <c r="J9" s="337"/>
+      <c r="K9" s="429"/>
+      <c r="L9" s="430"/>
+      <c r="M9" s="350"/>
+      <c r="N9" s="337"/>
+      <c r="O9" s="435"/>
+      <c r="P9" s="436"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -17637,16 +17722,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="389"/>
-      <c r="H10" s="392"/>
-      <c r="I10" s="338"/>
-      <c r="J10" s="325"/>
-      <c r="K10" s="398"/>
-      <c r="L10" s="399"/>
-      <c r="M10" s="338"/>
-      <c r="N10" s="325"/>
-      <c r="O10" s="404"/>
-      <c r="P10" s="405"/>
+      <c r="G10" s="420"/>
+      <c r="H10" s="423"/>
+      <c r="I10" s="350"/>
+      <c r="J10" s="337"/>
+      <c r="K10" s="429"/>
+      <c r="L10" s="430"/>
+      <c r="M10" s="350"/>
+      <c r="N10" s="337"/>
+      <c r="O10" s="435"/>
+      <c r="P10" s="436"/>
       <c r="Q10" s="5" t="s">
         <v>188</v>
       </c>
@@ -17662,16 +17747,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="389"/>
-      <c r="H11" s="392"/>
-      <c r="I11" s="338"/>
-      <c r="J11" s="325"/>
-      <c r="K11" s="398"/>
-      <c r="L11" s="399"/>
-      <c r="M11" s="338"/>
-      <c r="N11" s="325"/>
-      <c r="O11" s="404"/>
-      <c r="P11" s="405"/>
+      <c r="G11" s="420"/>
+      <c r="H11" s="423"/>
+      <c r="I11" s="350"/>
+      <c r="J11" s="337"/>
+      <c r="K11" s="429"/>
+      <c r="L11" s="430"/>
+      <c r="M11" s="350"/>
+      <c r="N11" s="337"/>
+      <c r="O11" s="435"/>
+      <c r="P11" s="436"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -17689,16 +17774,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="389"/>
-      <c r="H12" s="392"/>
-      <c r="I12" s="338"/>
-      <c r="J12" s="325"/>
-      <c r="K12" s="398"/>
-      <c r="L12" s="399"/>
-      <c r="M12" s="338"/>
-      <c r="N12" s="325"/>
-      <c r="O12" s="404"/>
-      <c r="P12" s="405"/>
+      <c r="G12" s="420"/>
+      <c r="H12" s="423"/>
+      <c r="I12" s="350"/>
+      <c r="J12" s="337"/>
+      <c r="K12" s="429"/>
+      <c r="L12" s="430"/>
+      <c r="M12" s="350"/>
+      <c r="N12" s="337"/>
+      <c r="O12" s="435"/>
+      <c r="P12" s="436"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -17712,16 +17797,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="389"/>
-      <c r="H13" s="392"/>
-      <c r="I13" s="338"/>
-      <c r="J13" s="325"/>
-      <c r="K13" s="398"/>
-      <c r="L13" s="399"/>
-      <c r="M13" s="338"/>
-      <c r="N13" s="325"/>
-      <c r="O13" s="404"/>
-      <c r="P13" s="405"/>
+      <c r="G13" s="420"/>
+      <c r="H13" s="423"/>
+      <c r="I13" s="350"/>
+      <c r="J13" s="337"/>
+      <c r="K13" s="429"/>
+      <c r="L13" s="430"/>
+      <c r="M13" s="350"/>
+      <c r="N13" s="337"/>
+      <c r="O13" s="435"/>
+      <c r="P13" s="436"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -17733,16 +17818,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="389"/>
-      <c r="H14" s="392"/>
-      <c r="I14" s="338"/>
-      <c r="J14" s="325"/>
-      <c r="K14" s="398"/>
-      <c r="L14" s="399"/>
-      <c r="M14" s="338"/>
-      <c r="N14" s="325"/>
-      <c r="O14" s="404"/>
-      <c r="P14" s="405"/>
+      <c r="G14" s="420"/>
+      <c r="H14" s="423"/>
+      <c r="I14" s="350"/>
+      <c r="J14" s="337"/>
+      <c r="K14" s="429"/>
+      <c r="L14" s="430"/>
+      <c r="M14" s="350"/>
+      <c r="N14" s="337"/>
+      <c r="O14" s="435"/>
+      <c r="P14" s="436"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -17756,16 +17841,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="389"/>
-      <c r="H15" s="392"/>
-      <c r="I15" s="338"/>
-      <c r="J15" s="325"/>
-      <c r="K15" s="398"/>
-      <c r="L15" s="399"/>
-      <c r="M15" s="338"/>
-      <c r="N15" s="325"/>
-      <c r="O15" s="404"/>
-      <c r="P15" s="405"/>
+      <c r="G15" s="420"/>
+      <c r="H15" s="423"/>
+      <c r="I15" s="350"/>
+      <c r="J15" s="337"/>
+      <c r="K15" s="429"/>
+      <c r="L15" s="430"/>
+      <c r="M15" s="350"/>
+      <c r="N15" s="337"/>
+      <c r="O15" s="435"/>
+      <c r="P15" s="436"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -17777,16 +17862,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="389"/>
-      <c r="H16" s="392"/>
-      <c r="I16" s="338"/>
-      <c r="J16" s="325"/>
-      <c r="K16" s="398"/>
-      <c r="L16" s="399"/>
-      <c r="M16" s="338"/>
-      <c r="N16" s="325"/>
-      <c r="O16" s="404"/>
-      <c r="P16" s="405"/>
+      <c r="G16" s="420"/>
+      <c r="H16" s="423"/>
+      <c r="I16" s="350"/>
+      <c r="J16" s="337"/>
+      <c r="K16" s="429"/>
+      <c r="L16" s="430"/>
+      <c r="M16" s="350"/>
+      <c r="N16" s="337"/>
+      <c r="O16" s="435"/>
+      <c r="P16" s="436"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -17798,16 +17883,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="389"/>
-      <c r="H17" s="392"/>
-      <c r="I17" s="338"/>
-      <c r="J17" s="325"/>
-      <c r="K17" s="398"/>
-      <c r="L17" s="399"/>
-      <c r="M17" s="338"/>
-      <c r="N17" s="325"/>
-      <c r="O17" s="404"/>
-      <c r="P17" s="405"/>
+      <c r="G17" s="420"/>
+      <c r="H17" s="423"/>
+      <c r="I17" s="350"/>
+      <c r="J17" s="337"/>
+      <c r="K17" s="429"/>
+      <c r="L17" s="430"/>
+      <c r="M17" s="350"/>
+      <c r="N17" s="337"/>
+      <c r="O17" s="435"/>
+      <c r="P17" s="436"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -17819,16 +17904,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="389"/>
-      <c r="H18" s="392"/>
-      <c r="I18" s="338"/>
-      <c r="J18" s="325"/>
-      <c r="K18" s="398"/>
-      <c r="L18" s="399"/>
-      <c r="M18" s="338"/>
-      <c r="N18" s="325"/>
-      <c r="O18" s="404"/>
-      <c r="P18" s="405"/>
+      <c r="G18" s="420"/>
+      <c r="H18" s="423"/>
+      <c r="I18" s="350"/>
+      <c r="J18" s="337"/>
+      <c r="K18" s="429"/>
+      <c r="L18" s="430"/>
+      <c r="M18" s="350"/>
+      <c r="N18" s="337"/>
+      <c r="O18" s="435"/>
+      <c r="P18" s="436"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -17842,16 +17927,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="389"/>
-      <c r="H19" s="392"/>
-      <c r="I19" s="338"/>
-      <c r="J19" s="325"/>
-      <c r="K19" s="398"/>
-      <c r="L19" s="399"/>
-      <c r="M19" s="338"/>
-      <c r="N19" s="325"/>
-      <c r="O19" s="404"/>
-      <c r="P19" s="405"/>
+      <c r="G19" s="420"/>
+      <c r="H19" s="423"/>
+      <c r="I19" s="350"/>
+      <c r="J19" s="337"/>
+      <c r="K19" s="429"/>
+      <c r="L19" s="430"/>
+      <c r="M19" s="350"/>
+      <c r="N19" s="337"/>
+      <c r="O19" s="435"/>
+      <c r="P19" s="436"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -17863,16 +17948,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="390"/>
-      <c r="H20" s="393"/>
-      <c r="I20" s="340"/>
-      <c r="J20" s="342"/>
-      <c r="K20" s="400"/>
-      <c r="L20" s="401"/>
-      <c r="M20" s="340"/>
-      <c r="N20" s="342"/>
-      <c r="O20" s="406"/>
-      <c r="P20" s="407"/>
+      <c r="G20" s="421"/>
+      <c r="H20" s="424"/>
+      <c r="I20" s="352"/>
+      <c r="J20" s="354"/>
+      <c r="K20" s="431"/>
+      <c r="L20" s="432"/>
+      <c r="M20" s="352"/>
+      <c r="N20" s="354"/>
+      <c r="O20" s="437"/>
+      <c r="P20" s="438"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -17902,27 +17987,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="343" t="s">
+      <c r="D22" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="344"/>
+      <c r="E22" s="356"/>
       <c r="F22" s="270"/>
       <c r="G22" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="H22" s="343" t="s">
+      <c r="H22" s="355" t="s">
         <v>197</v>
       </c>
-      <c r="I22" s="345"/>
-      <c r="J22" s="345"/>
-      <c r="K22" s="345"/>
-      <c r="L22" s="345"/>
-      <c r="M22" s="345"/>
-      <c r="N22" s="344"/>
-      <c r="O22" s="343" t="s">
+      <c r="I22" s="357"/>
+      <c r="J22" s="357"/>
+      <c r="K22" s="357"/>
+      <c r="L22" s="357"/>
+      <c r="M22" s="357"/>
+      <c r="N22" s="356"/>
+      <c r="O22" s="355" t="s">
         <v>530</v>
       </c>
-      <c r="P22" s="344"/>
+      <c r="P22" s="356"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -17995,17 +18080,17 @@
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="367" t="s">
+      <c r="E27" s="381" t="s">
         <v>179</v>
       </c>
-      <c r="F27" s="316"/>
-      <c r="G27" s="316"/>
-      <c r="H27" s="332"/>
-      <c r="I27" s="332"/>
-      <c r="J27" s="332"/>
-      <c r="K27" s="332"/>
-      <c r="L27" s="332"/>
-      <c r="M27" s="333"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="344"/>
+      <c r="I27" s="344"/>
+      <c r="J27" s="344"/>
+      <c r="K27" s="344"/>
+      <c r="L27" s="344"/>
+      <c r="M27" s="345"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -18087,21 +18172,21 @@
         <v>191</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="414" t="s">
+      <c r="E32" s="411" t="s">
         <v>1105</v>
       </c>
-      <c r="F32" s="415"/>
-      <c r="G32" s="416"/>
-      <c r="H32" s="414" t="s">
+      <c r="F32" s="412"/>
+      <c r="G32" s="413"/>
+      <c r="H32" s="411" t="s">
         <v>1106</v>
       </c>
-      <c r="I32" s="415"/>
-      <c r="J32" s="416"/>
-      <c r="K32" s="414" t="s">
+      <c r="I32" s="412"/>
+      <c r="J32" s="413"/>
+      <c r="K32" s="411" t="s">
         <v>1107</v>
       </c>
-      <c r="L32" s="415"/>
-      <c r="M32" s="416"/>
+      <c r="L32" s="412"/>
+      <c r="M32" s="413"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -18118,15 +18203,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="414"/>
-      <c r="F33" s="415"/>
-      <c r="G33" s="416"/>
-      <c r="H33" s="414"/>
-      <c r="I33" s="415"/>
-      <c r="J33" s="416"/>
-      <c r="K33" s="414"/>
-      <c r="L33" s="415"/>
-      <c r="M33" s="416"/>
+      <c r="E33" s="411"/>
+      <c r="F33" s="412"/>
+      <c r="G33" s="413"/>
+      <c r="H33" s="411"/>
+      <c r="I33" s="412"/>
+      <c r="J33" s="413"/>
+      <c r="K33" s="411"/>
+      <c r="L33" s="412"/>
+      <c r="M33" s="413"/>
       <c r="N33" s="5" t="s">
         <v>188</v>
       </c>
@@ -18143,15 +18228,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="414"/>
-      <c r="F34" s="415"/>
-      <c r="G34" s="416"/>
-      <c r="H34" s="414"/>
-      <c r="I34" s="415"/>
-      <c r="J34" s="416"/>
-      <c r="K34" s="414"/>
-      <c r="L34" s="415"/>
-      <c r="M34" s="416"/>
+      <c r="E34" s="411"/>
+      <c r="F34" s="412"/>
+      <c r="G34" s="413"/>
+      <c r="H34" s="411"/>
+      <c r="I34" s="412"/>
+      <c r="J34" s="413"/>
+      <c r="K34" s="411"/>
+      <c r="L34" s="412"/>
+      <c r="M34" s="413"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -18162,15 +18247,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="414"/>
-      <c r="F35" s="415"/>
-      <c r="G35" s="416"/>
-      <c r="H35" s="414"/>
-      <c r="I35" s="415"/>
-      <c r="J35" s="416"/>
-      <c r="K35" s="414"/>
-      <c r="L35" s="415"/>
-      <c r="M35" s="416"/>
+      <c r="E35" s="411"/>
+      <c r="F35" s="412"/>
+      <c r="G35" s="413"/>
+      <c r="H35" s="411"/>
+      <c r="I35" s="412"/>
+      <c r="J35" s="413"/>
+      <c r="K35" s="411"/>
+      <c r="L35" s="412"/>
+      <c r="M35" s="413"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -18301,15 +18386,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="418"/>
-      <c r="F42" s="419"/>
-      <c r="G42" s="419"/>
-      <c r="H42" s="419"/>
-      <c r="I42" s="419"/>
-      <c r="J42" s="419"/>
-      <c r="K42" s="419"/>
-      <c r="L42" s="419"/>
-      <c r="M42" s="420"/>
+      <c r="E42" s="401"/>
+      <c r="F42" s="402"/>
+      <c r="G42" s="402"/>
+      <c r="H42" s="402"/>
+      <c r="I42" s="402"/>
+      <c r="J42" s="402"/>
+      <c r="K42" s="402"/>
+      <c r="L42" s="402"/>
+      <c r="M42" s="403"/>
       <c r="N42" s="40" t="s">
         <v>581</v>
       </c>
@@ -18328,23 +18413,23 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="343" t="s">
+      <c r="C44" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="D44" s="344"/>
-      <c r="E44" s="343" t="s">
+      <c r="D44" s="356"/>
+      <c r="E44" s="355" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="345"/>
-      <c r="G44" s="344"/>
-      <c r="H44" s="343" t="s">
+      <c r="F44" s="357"/>
+      <c r="G44" s="356"/>
+      <c r="H44" s="355" t="s">
         <v>197</v>
       </c>
-      <c r="I44" s="345"/>
-      <c r="J44" s="345"/>
-      <c r="K44" s="345"/>
-      <c r="L44" s="345"/>
-      <c r="M44" s="344"/>
+      <c r="I44" s="357"/>
+      <c r="J44" s="357"/>
+      <c r="K44" s="357"/>
+      <c r="L44" s="357"/>
+      <c r="M44" s="356"/>
       <c r="Q44" t="s">
         <v>1104</v>
       </c>
@@ -18394,17 +18479,17 @@
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="367" t="s">
+      <c r="E49" s="381" t="s">
         <v>179</v>
       </c>
-      <c r="F49" s="316"/>
-      <c r="G49" s="316"/>
-      <c r="H49" s="332"/>
-      <c r="I49" s="332"/>
-      <c r="J49" s="332"/>
-      <c r="K49" s="332"/>
-      <c r="L49" s="332"/>
-      <c r="M49" s="333"/>
+      <c r="F49" s="328"/>
+      <c r="G49" s="328"/>
+      <c r="H49" s="344"/>
+      <c r="I49" s="344"/>
+      <c r="J49" s="344"/>
+      <c r="K49" s="344"/>
+      <c r="L49" s="344"/>
+      <c r="M49" s="345"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -18422,16 +18507,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="250"/>
-      <c r="H50" s="411" t="s">
+      <c r="H50" s="415" t="s">
         <v>1106</v>
       </c>
-      <c r="I50" s="412"/>
-      <c r="J50" s="413"/>
-      <c r="K50" s="411" t="s">
+      <c r="I50" s="416"/>
+      <c r="J50" s="417"/>
+      <c r="K50" s="415" t="s">
         <v>1107</v>
       </c>
-      <c r="L50" s="412"/>
-      <c r="M50" s="413"/>
+      <c r="L50" s="416"/>
+      <c r="M50" s="417"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -18445,15 +18530,15 @@
         <v>1121</v>
       </c>
       <c r="F51" s="291"/>
-      <c r="G51" s="417" t="s">
+      <c r="G51" s="418" t="s">
         <v>1129</v>
       </c>
-      <c r="H51" s="414"/>
-      <c r="I51" s="415"/>
-      <c r="J51" s="416"/>
-      <c r="K51" s="414"/>
-      <c r="L51" s="415"/>
-      <c r="M51" s="416"/>
+      <c r="H51" s="411"/>
+      <c r="I51" s="412"/>
+      <c r="J51" s="413"/>
+      <c r="K51" s="411"/>
+      <c r="L51" s="412"/>
+      <c r="M51" s="413"/>
       <c r="O51" s="410" t="s">
         <v>180</v>
       </c>
@@ -18472,13 +18557,13 @@
         <v>1122</v>
       </c>
       <c r="F52" s="292"/>
-      <c r="G52" s="417"/>
-      <c r="H52" s="414"/>
-      <c r="I52" s="415"/>
-      <c r="J52" s="416"/>
-      <c r="K52" s="414"/>
-      <c r="L52" s="415"/>
-      <c r="M52" s="416"/>
+      <c r="G52" s="418"/>
+      <c r="H52" s="411"/>
+      <c r="I52" s="412"/>
+      <c r="J52" s="413"/>
+      <c r="K52" s="411"/>
+      <c r="L52" s="412"/>
+      <c r="M52" s="413"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -18489,13 +18574,13 @@
         <v>1123</v>
       </c>
       <c r="F53" s="293"/>
-      <c r="G53" s="417"/>
-      <c r="H53" s="414"/>
-      <c r="I53" s="415"/>
-      <c r="J53" s="416"/>
-      <c r="K53" s="414"/>
-      <c r="L53" s="415"/>
-      <c r="M53" s="416"/>
+      <c r="G53" s="418"/>
+      <c r="H53" s="411"/>
+      <c r="I53" s="412"/>
+      <c r="J53" s="413"/>
+      <c r="K53" s="411"/>
+      <c r="L53" s="412"/>
+      <c r="M53" s="413"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>183</v>
@@ -18534,7 +18619,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="279"/>
       <c r="F54" s="294"/>
-      <c r="G54" s="423" t="s">
+      <c r="G54" s="406" t="s">
         <v>1133</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -18581,11 +18666,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="421" t="s">
+      <c r="E55" s="404" t="s">
         <v>1134</v>
       </c>
-      <c r="F55" s="422"/>
-      <c r="G55" s="424"/>
+      <c r="F55" s="405"/>
+      <c r="G55" s="407"/>
       <c r="H55" s="141" t="s">
         <v>1125</v>
       </c>
@@ -18629,9 +18714,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="421"/>
-      <c r="F56" s="422"/>
-      <c r="G56" s="424"/>
+      <c r="E56" s="404"/>
+      <c r="F56" s="405"/>
+      <c r="G56" s="407"/>
       <c r="H56" s="141" t="s">
         <v>1126</v>
       </c>
@@ -18661,9 +18746,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="421"/>
-      <c r="F57" s="422"/>
-      <c r="G57" s="424"/>
+      <c r="E57" s="404"/>
+      <c r="F57" s="405"/>
+      <c r="G57" s="407"/>
       <c r="H57" s="4" t="s">
         <v>1138</v>
       </c>
@@ -18693,9 +18778,9 @@
         <v>193</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="421"/>
-      <c r="F58" s="422"/>
-      <c r="G58" s="424"/>
+      <c r="E58" s="404"/>
+      <c r="F58" s="405"/>
+      <c r="G58" s="407"/>
       <c r="H58" s="283" t="s">
         <v>1124</v>
       </c>
@@ -18720,9 +18805,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="421"/>
-      <c r="F59" s="422"/>
-      <c r="G59" s="424"/>
+      <c r="E59" s="404"/>
+      <c r="F59" s="405"/>
+      <c r="G59" s="407"/>
       <c r="H59" s="283" t="s">
         <v>551</v>
       </c>
@@ -18747,9 +18832,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="421"/>
-      <c r="F60" s="422"/>
-      <c r="G60" s="424"/>
+      <c r="E60" s="404"/>
+      <c r="F60" s="405"/>
+      <c r="G60" s="407"/>
       <c r="H60" s="285"/>
       <c r="I60" s="286" t="s">
         <v>1140</v>
@@ -18769,9 +18854,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="421"/>
-      <c r="F61" s="422"/>
-      <c r="G61" s="424"/>
+      <c r="E61" s="404"/>
+      <c r="F61" s="405"/>
+      <c r="G61" s="407"/>
       <c r="H61" s="285"/>
       <c r="I61" s="286" t="s">
         <v>1141</v>
@@ -18791,7 +18876,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="274"/>
       <c r="F62" s="290"/>
-      <c r="G62" s="424"/>
+      <c r="G62" s="407"/>
       <c r="H62" s="287"/>
       <c r="I62" s="289" t="s">
         <v>1142</v>
@@ -18833,15 +18918,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="418"/>
-      <c r="F64" s="419"/>
-      <c r="G64" s="419"/>
-      <c r="H64" s="419"/>
-      <c r="I64" s="419"/>
-      <c r="J64" s="419"/>
-      <c r="K64" s="419"/>
-      <c r="L64" s="419"/>
-      <c r="M64" s="420"/>
+      <c r="E64" s="401"/>
+      <c r="F64" s="402"/>
+      <c r="G64" s="402"/>
+      <c r="H64" s="402"/>
+      <c r="I64" s="402"/>
+      <c r="J64" s="402"/>
+      <c r="K64" s="402"/>
+      <c r="L64" s="402"/>
+      <c r="M64" s="403"/>
       <c r="N64" s="40" t="s">
         <v>581</v>
       </c>
@@ -18870,23 +18955,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="343" t="s">
+      <c r="C66" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="D66" s="344"/>
-      <c r="E66" s="343" t="s">
+      <c r="D66" s="356"/>
+      <c r="E66" s="355" t="s">
         <v>196</v>
       </c>
-      <c r="F66" s="345"/>
-      <c r="G66" s="344"/>
-      <c r="H66" s="343" t="s">
+      <c r="F66" s="357"/>
+      <c r="G66" s="356"/>
+      <c r="H66" s="355" t="s">
         <v>197</v>
       </c>
-      <c r="I66" s="345"/>
-      <c r="J66" s="345"/>
-      <c r="K66" s="345"/>
-      <c r="L66" s="345"/>
-      <c r="M66" s="344"/>
+      <c r="I66" s="357"/>
+      <c r="J66" s="357"/>
+      <c r="K66" s="357"/>
+      <c r="L66" s="357"/>
+      <c r="M66" s="356"/>
       <c r="Q66" t="s">
         <v>1104</v>
       </c>
@@ -18907,6 +18992,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
+      <c r="C68" s="386" t="s">
+        <v>182</v>
+      </c>
+      <c r="D68" s="386"/>
+      <c r="E68" s="386" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F68" s="386"/>
+      <c r="G68" s="386"/>
+      <c r="H68" s="386" t="s">
+        <v>1406</v>
+      </c>
+      <c r="I68" s="386"/>
+      <c r="J68" s="386"/>
+      <c r="K68" s="386"/>
+      <c r="L68" s="386"/>
+      <c r="M68" s="386"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -19233,14 +19335,494 @@
       <c r="S90" s="10"/>
       <c r="T90" s="9"/>
     </row>
+    <row r="104" spans="2:16">
+      <c r="H104" s="17"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="19"/>
+    </row>
+    <row r="105" spans="2:16">
+      <c r="H105" s="20"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="315" t="s">
+        <v>283</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="L105" s="17" t="s">
+        <v>1394</v>
+      </c>
+      <c r="M105" s="18"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="P105" s="21"/>
+    </row>
+    <row r="106" spans="2:16">
+      <c r="H106" s="20"/>
+      <c r="I106" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J106" s="315" t="s">
+        <v>283</v>
+      </c>
+      <c r="K106" s="5"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="N106" s="21"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="21" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16">
+      <c r="H107" s="20"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="19" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="L107" s="22"/>
+      <c r="M107" s="26" t="s">
+        <v>1400</v>
+      </c>
+      <c r="N107" s="23"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="21" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16">
+      <c r="B108" s="17"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="19"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J108" s="21"/>
+      <c r="K108" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="21"/>
+    </row>
+    <row r="109" spans="2:16">
+      <c r="B109" s="20"/>
+      <c r="C109" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E109" s="21"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="24" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L109" s="17" t="s">
+        <v>1395</v>
+      </c>
+      <c r="M109" s="18"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="21"/>
+    </row>
+    <row r="110" spans="2:16">
+      <c r="B110" s="20"/>
+      <c r="C110" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E110" s="21"/>
+      <c r="F110" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="21"/>
+    </row>
+    <row r="111" spans="2:16">
+      <c r="B111" s="20"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E111" s="21"/>
+      <c r="F111" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="21"/>
+    </row>
+    <row r="112" spans="2:16">
+      <c r="B112" s="20"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="21"/>
+      <c r="F112" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J112" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K112" s="5"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="23"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="21"/>
+    </row>
+    <row r="113" spans="2:16">
+      <c r="B113" s="20"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="21"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="21"/>
+    </row>
+    <row r="114" spans="2:16">
+      <c r="B114" s="22"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="23"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20" t="s">
+        <v>1404</v>
+      </c>
+      <c r="J114" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="21"/>
+    </row>
+    <row r="115" spans="2:16">
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="M115" s="18"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="21"/>
+    </row>
+    <row r="116" spans="2:16">
+      <c r="B116" s="17" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="19"/>
+      <c r="H116" s="20"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="21"/>
+    </row>
+    <row r="117" spans="2:16">
+      <c r="B117" s="20"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="21"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="20"/>
+      <c r="M117" s="5"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="5"/>
+      <c r="P117" s="21"/>
+    </row>
+    <row r="118" spans="2:16">
+      <c r="B118" s="20"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E118" s="21"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="5"/>
+      <c r="P118" s="21"/>
+    </row>
+    <row r="119" spans="2:16">
+      <c r="B119" s="20"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="21"/>
+      <c r="H119" s="20"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="5"/>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
+      <c r="P119" s="21"/>
+    </row>
+    <row r="120" spans="2:16">
+      <c r="B120" s="22"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="23"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+      <c r="N120" s="5"/>
+      <c r="O120" s="5"/>
+      <c r="P120" s="21"/>
+    </row>
+    <row r="121" spans="2:16">
+      <c r="E121" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="21"/>
+    </row>
+    <row r="122" spans="2:16">
+      <c r="H122" s="22"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="26"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="26"/>
+      <c r="M122" s="26"/>
+      <c r="N122" s="26"/>
+      <c r="O122" s="26"/>
+      <c r="P122" s="23"/>
+    </row>
+    <row r="147" spans="2:16">
+      <c r="C147" t="s">
+        <v>208</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1407</v>
+      </c>
+      <c r="N147" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="148" spans="2:16">
+      <c r="B148" s="17"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="19"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="19"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="19"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="18"/>
+      <c r="P148" s="19"/>
+    </row>
+    <row r="149" spans="2:16">
+      <c r="B149" s="20"/>
+      <c r="C149" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G149" s="20"/>
+      <c r="H149" s="21"/>
+      <c r="J149" s="20" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K149" s="5"/>
+      <c r="L149" s="21"/>
+      <c r="N149" s="20"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="21"/>
+    </row>
+    <row r="150" spans="2:16">
+      <c r="B150" s="20"/>
+      <c r="C150" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G150" s="20"/>
+      <c r="H150" s="21"/>
+      <c r="J150" s="20" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K150" s="5"/>
+      <c r="L150" s="21"/>
+      <c r="N150" s="20"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="21"/>
+    </row>
+    <row r="151" spans="2:16">
+      <c r="B151" s="20"/>
+      <c r="C151" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D151" s="21"/>
+      <c r="G151" s="20"/>
+      <c r="H151" s="21"/>
+      <c r="J151" s="473" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K151" s="28"/>
+      <c r="L151" s="223"/>
+      <c r="N151" s="20" t="s">
+        <v>1241</v>
+      </c>
+      <c r="O151" s="5"/>
+      <c r="P151" s="21"/>
+    </row>
+    <row r="152" spans="2:16">
+      <c r="B152" s="20"/>
+      <c r="C152" s="5"/>
+      <c r="D152" s="21"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="21"/>
+      <c r="J152" s="20" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K152" s="5"/>
+      <c r="L152" s="21"/>
+      <c r="N152" s="20"/>
+      <c r="O152" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="P152" s="21" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="153" spans="2:16">
+      <c r="B153" s="22"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="23"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="23"/>
+      <c r="J153" s="22" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K153" s="26"/>
+      <c r="L153" s="23"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="P153" s="23" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="154" spans="2:16">
+      <c r="J154" s="99" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K154" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="155" spans="2:16">
+      <c r="K155" t="s">
+        <v>1150</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
+  <mergeCells count="40">
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:M68"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="G6:G20"/>
+    <mergeCell ref="H7:H20"/>
+    <mergeCell ref="I7:J20"/>
+    <mergeCell ref="K7:L20"/>
+    <mergeCell ref="M7:N20"/>
+    <mergeCell ref="O7:P20"/>
+    <mergeCell ref="B47:V47"/>
+    <mergeCell ref="C48:M48"/>
+    <mergeCell ref="E49:M49"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="H50:J53"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
     <mergeCell ref="E42:M42"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:G44"/>
@@ -19257,21 +19839,12 @@
     <mergeCell ref="H22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B47:V47"/>
-    <mergeCell ref="C48:M48"/>
-    <mergeCell ref="E49:M49"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="G6:G20"/>
-    <mergeCell ref="H7:H20"/>
-    <mergeCell ref="I7:J20"/>
-    <mergeCell ref="K7:L20"/>
-    <mergeCell ref="M7:N20"/>
-    <mergeCell ref="O7:P20"/>
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -19305,12 +19878,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="425" t="s">
+      <c r="B1" s="439" t="s">
         <v>540</v>
       </c>
-      <c r="C1" s="425"/>
-      <c r="D1" s="425"/>
-      <c r="E1" s="425"/>
+      <c r="C1" s="439"/>
+      <c r="D1" s="439"/>
+      <c r="E1" s="439"/>
       <c r="I1" s="40" t="s">
         <v>553</v>
       </c>
@@ -19420,10 +19993,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="371"/>
-      <c r="C8" s="371"/>
-      <c r="D8" s="371"/>
-      <c r="E8" s="371"/>
+      <c r="B8" s="385"/>
+      <c r="C8" s="385"/>
+      <c r="D8" s="385"/>
+      <c r="E8" s="385"/>
       <c r="J8" t="s">
         <v>556</v>
       </c>
@@ -19574,16 +20147,16 @@
     <row r="3" spans="3:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="367" t="s">
+      <c r="E3" s="381" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="316"/>
-      <c r="G3" s="332"/>
-      <c r="H3" s="332"/>
-      <c r="I3" s="332"/>
-      <c r="J3" s="332"/>
-      <c r="K3" s="332"/>
-      <c r="L3" s="333"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="344"/>
+      <c r="H3" s="344"/>
+      <c r="I3" s="344"/>
+      <c r="J3" s="344"/>
+      <c r="K3" s="344"/>
+      <c r="L3" s="345"/>
     </row>
     <row r="4" spans="3:16">
       <c r="C4" s="4" t="s">
@@ -19667,20 +20240,20 @@
         <v>191</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="414" t="s">
+      <c r="E8" s="411" t="s">
         <v>577</v>
       </c>
-      <c r="F8" s="416"/>
-      <c r="G8" s="414" t="s">
+      <c r="F8" s="413"/>
+      <c r="G8" s="411" t="s">
         <v>578</v>
       </c>
-      <c r="H8" s="415"/>
-      <c r="I8" s="416"/>
-      <c r="J8" s="414" t="s">
+      <c r="H8" s="412"/>
+      <c r="I8" s="413"/>
+      <c r="J8" s="411" t="s">
         <v>579</v>
       </c>
-      <c r="K8" s="415"/>
-      <c r="L8" s="416"/>
+      <c r="K8" s="412"/>
+      <c r="L8" s="413"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -19697,14 +20270,14 @@
     <row r="9" spans="3:16" ht="15" customHeight="1">
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="414"/>
-      <c r="F9" s="416"/>
-      <c r="G9" s="414"/>
-      <c r="H9" s="415"/>
-      <c r="I9" s="416"/>
-      <c r="J9" s="414"/>
-      <c r="K9" s="415"/>
-      <c r="L9" s="416"/>
+      <c r="E9" s="411"/>
+      <c r="F9" s="413"/>
+      <c r="G9" s="411"/>
+      <c r="H9" s="412"/>
+      <c r="I9" s="413"/>
+      <c r="J9" s="411"/>
+      <c r="K9" s="412"/>
+      <c r="L9" s="413"/>
       <c r="M9" s="5" t="s">
         <v>188</v>
       </c>
@@ -19721,14 +20294,14 @@
     <row r="10" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="414"/>
-      <c r="F10" s="416"/>
-      <c r="G10" s="414"/>
-      <c r="H10" s="415"/>
-      <c r="I10" s="416"/>
-      <c r="J10" s="414"/>
-      <c r="K10" s="415"/>
-      <c r="L10" s="416"/>
+      <c r="E10" s="411"/>
+      <c r="F10" s="413"/>
+      <c r="G10" s="411"/>
+      <c r="H10" s="412"/>
+      <c r="I10" s="413"/>
+      <c r="J10" s="411"/>
+      <c r="K10" s="412"/>
+      <c r="L10" s="413"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -19739,14 +20312,14 @@
     <row r="11" spans="3:16" ht="15" customHeight="1">
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="414"/>
-      <c r="F11" s="416"/>
-      <c r="G11" s="414"/>
-      <c r="H11" s="415"/>
-      <c r="I11" s="416"/>
-      <c r="J11" s="414"/>
-      <c r="K11" s="415"/>
-      <c r="L11" s="416"/>
+      <c r="E11" s="411"/>
+      <c r="F11" s="413"/>
+      <c r="G11" s="411"/>
+      <c r="H11" s="412"/>
+      <c r="I11" s="413"/>
+      <c r="J11" s="411"/>
+      <c r="K11" s="412"/>
+      <c r="L11" s="413"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -19843,16 +20416,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="418" t="s">
+      <c r="E17" s="401" t="s">
         <v>580</v>
       </c>
-      <c r="F17" s="419"/>
-      <c r="G17" s="419"/>
-      <c r="H17" s="419"/>
-      <c r="I17" s="419"/>
-      <c r="J17" s="419"/>
-      <c r="K17" s="419"/>
-      <c r="L17" s="420"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="402"/>
+      <c r="H17" s="402"/>
+      <c r="I17" s="402"/>
+      <c r="J17" s="402"/>
+      <c r="K17" s="402"/>
+      <c r="L17" s="403"/>
       <c r="M17" s="40" t="s">
         <v>581</v>
       </c>
@@ -19870,35 +20443,35 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="343" t="s">
+      <c r="C19" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="344"/>
-      <c r="E19" s="343" t="s">
+      <c r="D19" s="356"/>
+      <c r="E19" s="355" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="344"/>
-      <c r="G19" s="343" t="s">
+      <c r="F19" s="356"/>
+      <c r="G19" s="355" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="345"/>
-      <c r="I19" s="345"/>
-      <c r="J19" s="345"/>
-      <c r="K19" s="345"/>
-      <c r="L19" s="344"/>
+      <c r="H19" s="357"/>
+      <c r="I19" s="357"/>
+      <c r="J19" s="357"/>
+      <c r="K19" s="357"/>
+      <c r="L19" s="356"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="E17:L17"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="E8:F11"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="J8:L11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="E17:L17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P8" r:id="rId1"/>
@@ -20339,22 +20912,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="387" t="s">
+      <c r="E3" s="414" t="s">
         <v>520</v>
       </c>
-      <c r="F3" s="387"/>
-      <c r="G3" s="387" t="s">
+      <c r="F3" s="414"/>
+      <c r="G3" s="414" t="s">
         <v>521</v>
       </c>
-      <c r="H3" s="387"/>
-      <c r="I3" s="387"/>
-      <c r="J3" s="387"/>
-      <c r="K3" s="387"/>
-      <c r="L3" s="387"/>
-      <c r="M3" s="387" t="s">
+      <c r="H3" s="414"/>
+      <c r="I3" s="414"/>
+      <c r="J3" s="414"/>
+      <c r="K3" s="414"/>
+      <c r="L3" s="414"/>
+      <c r="M3" s="414" t="s">
         <v>522</v>
       </c>
-      <c r="N3" s="387"/>
+      <c r="N3" s="414"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -20365,7 +20938,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="388" t="s">
+      <c r="E4" s="419" t="s">
         <v>523</v>
       </c>
       <c r="F4" s="131"/>
@@ -20393,22 +20966,22 @@
         <v>182</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="389"/>
-      <c r="F5" s="348" t="s">
+      <c r="E5" s="420"/>
+      <c r="F5" s="360" t="s">
         <v>623</v>
       </c>
-      <c r="G5" s="349"/>
-      <c r="H5" s="350"/>
-      <c r="I5" s="455" t="s">
+      <c r="G5" s="361"/>
+      <c r="H5" s="362"/>
+      <c r="I5" s="440" t="s">
         <v>624</v>
       </c>
-      <c r="J5" s="456"/>
-      <c r="K5" s="456"/>
-      <c r="L5" s="397"/>
-      <c r="M5" s="455" t="s">
+      <c r="J5" s="441"/>
+      <c r="K5" s="441"/>
+      <c r="L5" s="428"/>
+      <c r="M5" s="440" t="s">
         <v>625</v>
       </c>
-      <c r="N5" s="397"/>
+      <c r="N5" s="428"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -20419,16 +20992,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="389"/>
-      <c r="F6" s="351"/>
-      <c r="G6" s="352"/>
-      <c r="H6" s="353"/>
-      <c r="I6" s="398"/>
-      <c r="J6" s="457"/>
-      <c r="K6" s="457"/>
-      <c r="L6" s="399"/>
-      <c r="M6" s="398"/>
-      <c r="N6" s="399"/>
+      <c r="E6" s="420"/>
+      <c r="F6" s="363"/>
+      <c r="G6" s="364"/>
+      <c r="H6" s="365"/>
+      <c r="I6" s="429"/>
+      <c r="J6" s="442"/>
+      <c r="K6" s="442"/>
+      <c r="L6" s="430"/>
+      <c r="M6" s="429"/>
+      <c r="N6" s="430"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>183</v>
@@ -20445,16 +21018,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="389"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="352"/>
-      <c r="H7" s="353"/>
-      <c r="I7" s="398"/>
-      <c r="J7" s="457"/>
-      <c r="K7" s="457"/>
-      <c r="L7" s="399"/>
-      <c r="M7" s="398"/>
-      <c r="N7" s="399"/>
+      <c r="E7" s="420"/>
+      <c r="F7" s="363"/>
+      <c r="G7" s="364"/>
+      <c r="H7" s="365"/>
+      <c r="I7" s="429"/>
+      <c r="J7" s="442"/>
+      <c r="K7" s="442"/>
+      <c r="L7" s="430"/>
+      <c r="M7" s="429"/>
+      <c r="N7" s="430"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -20473,16 +21046,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="389"/>
-      <c r="F8" s="351"/>
-      <c r="G8" s="352"/>
-      <c r="H8" s="353"/>
-      <c r="I8" s="398"/>
-      <c r="J8" s="457"/>
-      <c r="K8" s="457"/>
-      <c r="L8" s="399"/>
-      <c r="M8" s="398"/>
-      <c r="N8" s="399"/>
+      <c r="E8" s="420"/>
+      <c r="F8" s="363"/>
+      <c r="G8" s="364"/>
+      <c r="H8" s="365"/>
+      <c r="I8" s="429"/>
+      <c r="J8" s="442"/>
+      <c r="K8" s="442"/>
+      <c r="L8" s="430"/>
+      <c r="M8" s="429"/>
+      <c r="N8" s="430"/>
       <c r="O8" s="5" t="s">
         <v>188</v>
       </c>
@@ -20503,16 +21076,16 @@
         <v>191</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="389"/>
-      <c r="F9" s="351"/>
-      <c r="G9" s="352"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="398"/>
-      <c r="J9" s="457"/>
-      <c r="K9" s="457"/>
-      <c r="L9" s="399"/>
-      <c r="M9" s="398"/>
-      <c r="N9" s="399"/>
+      <c r="E9" s="420"/>
+      <c r="F9" s="363"/>
+      <c r="G9" s="364"/>
+      <c r="H9" s="365"/>
+      <c r="I9" s="429"/>
+      <c r="J9" s="442"/>
+      <c r="K9" s="442"/>
+      <c r="L9" s="430"/>
+      <c r="M9" s="429"/>
+      <c r="N9" s="430"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -20529,16 +21102,16 @@
         <v>539</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="389"/>
-      <c r="F10" s="351"/>
-      <c r="G10" s="352"/>
-      <c r="H10" s="353"/>
-      <c r="I10" s="398"/>
-      <c r="J10" s="457"/>
-      <c r="K10" s="457"/>
-      <c r="L10" s="399"/>
-      <c r="M10" s="398"/>
-      <c r="N10" s="399"/>
+      <c r="E10" s="420"/>
+      <c r="F10" s="363"/>
+      <c r="G10" s="364"/>
+      <c r="H10" s="365"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="442"/>
+      <c r="K10" s="442"/>
+      <c r="L10" s="430"/>
+      <c r="M10" s="429"/>
+      <c r="N10" s="430"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -20551,16 +21124,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="389"/>
-      <c r="F11" s="351"/>
-      <c r="G11" s="352"/>
-      <c r="H11" s="353"/>
-      <c r="I11" s="398"/>
-      <c r="J11" s="457"/>
-      <c r="K11" s="457"/>
-      <c r="L11" s="399"/>
-      <c r="M11" s="398"/>
-      <c r="N11" s="399"/>
+      <c r="E11" s="420"/>
+      <c r="F11" s="363"/>
+      <c r="G11" s="364"/>
+      <c r="H11" s="365"/>
+      <c r="I11" s="429"/>
+      <c r="J11" s="442"/>
+      <c r="K11" s="442"/>
+      <c r="L11" s="430"/>
+      <c r="M11" s="429"/>
+      <c r="N11" s="430"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -20571,16 +21144,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="389"/>
-      <c r="F12" s="351"/>
-      <c r="G12" s="352"/>
-      <c r="H12" s="353"/>
-      <c r="I12" s="398"/>
-      <c r="J12" s="457"/>
-      <c r="K12" s="457"/>
-      <c r="L12" s="399"/>
-      <c r="M12" s="398"/>
-      <c r="N12" s="399"/>
+      <c r="E12" s="420"/>
+      <c r="F12" s="363"/>
+      <c r="G12" s="364"/>
+      <c r="H12" s="365"/>
+      <c r="I12" s="429"/>
+      <c r="J12" s="442"/>
+      <c r="K12" s="442"/>
+      <c r="L12" s="430"/>
+      <c r="M12" s="429"/>
+      <c r="N12" s="430"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -20593,16 +21166,16 @@
         <v>193</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="389"/>
-      <c r="F13" s="351"/>
-      <c r="G13" s="352"/>
-      <c r="H13" s="353"/>
-      <c r="I13" s="398"/>
-      <c r="J13" s="457"/>
-      <c r="K13" s="457"/>
-      <c r="L13" s="399"/>
-      <c r="M13" s="398"/>
-      <c r="N13" s="399"/>
+      <c r="E13" s="420"/>
+      <c r="F13" s="363"/>
+      <c r="G13" s="364"/>
+      <c r="H13" s="365"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="442"/>
+      <c r="K13" s="442"/>
+      <c r="L13" s="430"/>
+      <c r="M13" s="429"/>
+      <c r="N13" s="430"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -20613,16 +21186,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="389"/>
-      <c r="F14" s="351"/>
-      <c r="G14" s="352"/>
-      <c r="H14" s="353"/>
-      <c r="I14" s="398"/>
-      <c r="J14" s="457"/>
-      <c r="K14" s="457"/>
-      <c r="L14" s="399"/>
-      <c r="M14" s="398"/>
-      <c r="N14" s="399"/>
+      <c r="E14" s="420"/>
+      <c r="F14" s="363"/>
+      <c r="G14" s="364"/>
+      <c r="H14" s="365"/>
+      <c r="I14" s="429"/>
+      <c r="J14" s="442"/>
+      <c r="K14" s="442"/>
+      <c r="L14" s="430"/>
+      <c r="M14" s="429"/>
+      <c r="N14" s="430"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -20633,16 +21206,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="389"/>
-      <c r="F15" s="351"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="353"/>
-      <c r="I15" s="398"/>
-      <c r="J15" s="457"/>
-      <c r="K15" s="457"/>
-      <c r="L15" s="399"/>
-      <c r="M15" s="398"/>
-      <c r="N15" s="399"/>
+      <c r="E15" s="420"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="364"/>
+      <c r="H15" s="365"/>
+      <c r="I15" s="429"/>
+      <c r="J15" s="442"/>
+      <c r="K15" s="442"/>
+      <c r="L15" s="430"/>
+      <c r="M15" s="429"/>
+      <c r="N15" s="430"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -20653,16 +21226,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="389"/>
-      <c r="F16" s="351"/>
-      <c r="G16" s="352"/>
-      <c r="H16" s="353"/>
-      <c r="I16" s="398"/>
-      <c r="J16" s="457"/>
-      <c r="K16" s="457"/>
-      <c r="L16" s="399"/>
-      <c r="M16" s="398"/>
-      <c r="N16" s="399"/>
+      <c r="E16" s="420"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="364"/>
+      <c r="H16" s="365"/>
+      <c r="I16" s="429"/>
+      <c r="J16" s="442"/>
+      <c r="K16" s="442"/>
+      <c r="L16" s="430"/>
+      <c r="M16" s="429"/>
+      <c r="N16" s="430"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -20675,16 +21248,16 @@
         <v>194</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="389"/>
-      <c r="F17" s="351"/>
-      <c r="G17" s="352"/>
-      <c r="H17" s="353"/>
-      <c r="I17" s="398"/>
-      <c r="J17" s="457"/>
-      <c r="K17" s="457"/>
-      <c r="L17" s="399"/>
-      <c r="M17" s="398"/>
-      <c r="N17" s="399"/>
+      <c r="E17" s="420"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="364"/>
+      <c r="H17" s="365"/>
+      <c r="I17" s="429"/>
+      <c r="J17" s="442"/>
+      <c r="K17" s="442"/>
+      <c r="L17" s="430"/>
+      <c r="M17" s="429"/>
+      <c r="N17" s="430"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -20695,16 +21268,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="390"/>
-      <c r="F18" s="354"/>
-      <c r="G18" s="355"/>
-      <c r="H18" s="356"/>
-      <c r="I18" s="400"/>
-      <c r="J18" s="458"/>
-      <c r="K18" s="458"/>
-      <c r="L18" s="401"/>
-      <c r="M18" s="400"/>
-      <c r="N18" s="401"/>
+      <c r="E18" s="421"/>
+      <c r="F18" s="366"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="368"/>
+      <c r="I18" s="431"/>
+      <c r="J18" s="443"/>
+      <c r="K18" s="443"/>
+      <c r="L18" s="432"/>
+      <c r="M18" s="431"/>
+      <c r="N18" s="432"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -20733,26 +21306,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="343" t="s">
+      <c r="C20" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="344"/>
+      <c r="D20" s="356"/>
       <c r="E20" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="343" t="s">
+      <c r="F20" s="355" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="345"/>
-      <c r="H20" s="345"/>
-      <c r="I20" s="345"/>
-      <c r="J20" s="345"/>
-      <c r="K20" s="345"/>
-      <c r="L20" s="344"/>
-      <c r="M20" s="343" t="s">
+      <c r="G20" s="357"/>
+      <c r="H20" s="357"/>
+      <c r="I20" s="357"/>
+      <c r="J20" s="357"/>
+      <c r="K20" s="357"/>
+      <c r="L20" s="356"/>
+      <c r="M20" s="355" t="s">
         <v>530</v>
       </c>
-      <c r="N20" s="344"/>
+      <c r="N20" s="356"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -20792,27 +21365,27 @@
       <c r="I24" s="409"/>
       <c r="J24" s="409"/>
       <c r="K24" s="409"/>
-      <c r="M24" s="426" t="s">
+      <c r="M24" s="461" t="s">
         <v>180</v>
       </c>
-      <c r="N24" s="426"/>
-      <c r="O24" s="426"/>
+      <c r="N24" s="461"/>
+      <c r="O24" s="461"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="427" t="s">
+      <c r="B25" s="462" t="s">
         <v>940</v>
       </c>
-      <c r="C25" s="375"/>
-      <c r="D25" s="332" t="s">
+      <c r="C25" s="390"/>
+      <c r="D25" s="344" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="332"/>
-      <c r="F25" s="332"/>
-      <c r="G25" s="332"/>
-      <c r="H25" s="332"/>
-      <c r="I25" s="332"/>
-      <c r="J25" s="332"/>
-      <c r="K25" s="333"/>
+      <c r="E25" s="344"/>
+      <c r="F25" s="344"/>
+      <c r="G25" s="344"/>
+      <c r="H25" s="344"/>
+      <c r="I25" s="344"/>
+      <c r="J25" s="344"/>
+      <c r="K25" s="345"/>
       <c r="M25" s="38" t="s">
         <v>183</v>
       </c>
@@ -20824,22 +21397,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="376"/>
-      <c r="C26" s="377"/>
-      <c r="D26" s="374" t="s">
+      <c r="B26" s="391"/>
+      <c r="C26" s="392"/>
+      <c r="D26" s="389" t="s">
         <v>933</v>
       </c>
-      <c r="E26" s="375"/>
-      <c r="F26" s="453" t="s">
+      <c r="E26" s="390"/>
+      <c r="F26" s="456" t="s">
         <v>933</v>
       </c>
-      <c r="G26" s="332"/>
-      <c r="H26" s="333"/>
-      <c r="I26" s="331" t="s">
+      <c r="G26" s="344"/>
+      <c r="H26" s="345"/>
+      <c r="I26" s="343" t="s">
         <v>937</v>
       </c>
-      <c r="J26" s="332"/>
-      <c r="K26" s="333"/>
+      <c r="J26" s="344"/>
+      <c r="K26" s="345"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -20854,22 +21427,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="376"/>
-      <c r="C27" s="377"/>
-      <c r="D27" s="371" t="s">
+      <c r="B27" s="391"/>
+      <c r="C27" s="392"/>
+      <c r="D27" s="385" t="s">
         <v>938</v>
       </c>
-      <c r="E27" s="377"/>
-      <c r="F27" s="376" t="s">
+      <c r="E27" s="392"/>
+      <c r="F27" s="391" t="s">
         <v>934</v>
       </c>
-      <c r="G27" s="371"/>
-      <c r="H27" s="330"/>
-      <c r="I27" s="437" t="s">
+      <c r="G27" s="385"/>
+      <c r="H27" s="342"/>
+      <c r="I27" s="460" t="s">
         <v>938</v>
       </c>
-      <c r="J27" s="371"/>
-      <c r="K27" s="330"/>
+      <c r="J27" s="385"/>
+      <c r="K27" s="342"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -20884,22 +21457,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="376"/>
-      <c r="C28" s="377"/>
-      <c r="D28" s="371" t="s">
+      <c r="B28" s="391"/>
+      <c r="C28" s="392"/>
+      <c r="D28" s="385" t="s">
         <v>935</v>
       </c>
-      <c r="E28" s="377"/>
-      <c r="F28" s="376" t="s">
+      <c r="E28" s="392"/>
+      <c r="F28" s="391" t="s">
         <v>935</v>
       </c>
-      <c r="G28" s="371"/>
-      <c r="H28" s="330"/>
-      <c r="I28" s="437" t="s">
+      <c r="G28" s="385"/>
+      <c r="H28" s="342"/>
+      <c r="I28" s="460" t="s">
         <v>935</v>
       </c>
-      <c r="J28" s="371"/>
-      <c r="K28" s="330"/>
+      <c r="J28" s="385"/>
+      <c r="K28" s="342"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -20908,22 +21481,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="378"/>
-      <c r="C29" s="379"/>
-      <c r="D29" s="371" t="s">
+      <c r="B29" s="393"/>
+      <c r="C29" s="394"/>
+      <c r="D29" s="385" t="s">
         <v>936</v>
       </c>
-      <c r="E29" s="377"/>
-      <c r="F29" s="454" t="s">
+      <c r="E29" s="392"/>
+      <c r="F29" s="457" t="s">
         <v>936</v>
       </c>
-      <c r="G29" s="439"/>
-      <c r="H29" s="440"/>
-      <c r="I29" s="438" t="s">
+      <c r="G29" s="458"/>
+      <c r="H29" s="459"/>
+      <c r="I29" s="472" t="s">
         <v>936</v>
       </c>
-      <c r="J29" s="439"/>
-      <c r="K29" s="440"/>
+      <c r="J29" s="458"/>
+      <c r="K29" s="459"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -20932,149 +21505,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="334" t="s">
+      <c r="B30" s="346" t="s">
         <v>939</v>
       </c>
-      <c r="C30" s="336"/>
-      <c r="D30" s="441" t="s">
+      <c r="C30" s="348"/>
+      <c r="D30" s="444" t="s">
         <v>577</v>
       </c>
-      <c r="E30" s="442"/>
-      <c r="F30" s="446" t="s">
+      <c r="E30" s="445"/>
+      <c r="F30" s="449" t="s">
         <v>578</v>
       </c>
-      <c r="G30" s="447"/>
-      <c r="H30" s="442"/>
-      <c r="I30" s="446" t="s">
+      <c r="G30" s="450"/>
+      <c r="H30" s="445"/>
+      <c r="I30" s="449" t="s">
         <v>579</v>
       </c>
-      <c r="J30" s="447"/>
-      <c r="K30" s="450"/>
+      <c r="J30" s="450"/>
+      <c r="K30" s="453"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="338"/>
-      <c r="C31" s="339"/>
-      <c r="D31" s="443"/>
-      <c r="E31" s="416"/>
-      <c r="F31" s="414"/>
-      <c r="G31" s="415"/>
-      <c r="H31" s="416"/>
-      <c r="I31" s="414"/>
-      <c r="J31" s="415"/>
-      <c r="K31" s="451"/>
+      <c r="B31" s="350"/>
+      <c r="C31" s="351"/>
+      <c r="D31" s="446"/>
+      <c r="E31" s="413"/>
+      <c r="F31" s="411"/>
+      <c r="G31" s="412"/>
+      <c r="H31" s="413"/>
+      <c r="I31" s="411"/>
+      <c r="J31" s="412"/>
+      <c r="K31" s="454"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="338"/>
-      <c r="C32" s="339"/>
-      <c r="D32" s="443"/>
-      <c r="E32" s="416"/>
-      <c r="F32" s="414"/>
-      <c r="G32" s="415"/>
-      <c r="H32" s="416"/>
-      <c r="I32" s="414"/>
-      <c r="J32" s="415"/>
-      <c r="K32" s="451"/>
+      <c r="B32" s="350"/>
+      <c r="C32" s="351"/>
+      <c r="D32" s="446"/>
+      <c r="E32" s="413"/>
+      <c r="F32" s="411"/>
+      <c r="G32" s="412"/>
+      <c r="H32" s="413"/>
+      <c r="I32" s="411"/>
+      <c r="J32" s="412"/>
+      <c r="K32" s="454"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="338"/>
-      <c r="C33" s="339"/>
-      <c r="D33" s="444"/>
-      <c r="E33" s="445"/>
-      <c r="F33" s="448"/>
-      <c r="G33" s="449"/>
-      <c r="H33" s="445"/>
-      <c r="I33" s="448"/>
-      <c r="J33" s="449"/>
-      <c r="K33" s="452"/>
+      <c r="B33" s="350"/>
+      <c r="C33" s="351"/>
+      <c r="D33" s="447"/>
+      <c r="E33" s="448"/>
+      <c r="F33" s="451"/>
+      <c r="G33" s="452"/>
+      <c r="H33" s="448"/>
+      <c r="I33" s="451"/>
+      <c r="J33" s="452"/>
+      <c r="K33" s="455"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="338"/>
-      <c r="C34" s="325"/>
-      <c r="D34" s="428" t="s">
+      <c r="B34" s="350"/>
+      <c r="C34" s="337"/>
+      <c r="D34" s="463" t="s">
         <v>926</v>
       </c>
-      <c r="E34" s="429"/>
-      <c r="F34" s="428" t="s">
+      <c r="E34" s="464"/>
+      <c r="F34" s="463" t="s">
         <v>599</v>
       </c>
-      <c r="G34" s="434"/>
-      <c r="H34" s="429"/>
-      <c r="I34" s="428" t="s">
+      <c r="G34" s="469"/>
+      <c r="H34" s="464"/>
+      <c r="I34" s="463" t="s">
         <v>941</v>
       </c>
-      <c r="J34" s="434"/>
-      <c r="K34" s="429"/>
+      <c r="J34" s="469"/>
+      <c r="K34" s="464"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="338"/>
-      <c r="C35" s="325"/>
-      <c r="D35" s="430"/>
-      <c r="E35" s="431"/>
-      <c r="F35" s="430"/>
-      <c r="G35" s="435"/>
-      <c r="H35" s="431"/>
-      <c r="I35" s="430"/>
-      <c r="J35" s="435"/>
-      <c r="K35" s="431"/>
+      <c r="B35" s="350"/>
+      <c r="C35" s="337"/>
+      <c r="D35" s="465"/>
+      <c r="E35" s="466"/>
+      <c r="F35" s="465"/>
+      <c r="G35" s="470"/>
+      <c r="H35" s="466"/>
+      <c r="I35" s="465"/>
+      <c r="J35" s="470"/>
+      <c r="K35" s="466"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="338"/>
-      <c r="C36" s="325"/>
-      <c r="D36" s="430"/>
-      <c r="E36" s="431"/>
-      <c r="F36" s="430"/>
-      <c r="G36" s="435"/>
-      <c r="H36" s="431"/>
-      <c r="I36" s="430"/>
-      <c r="J36" s="435"/>
-      <c r="K36" s="431"/>
+      <c r="B36" s="350"/>
+      <c r="C36" s="337"/>
+      <c r="D36" s="465"/>
+      <c r="E36" s="466"/>
+      <c r="F36" s="465"/>
+      <c r="G36" s="470"/>
+      <c r="H36" s="466"/>
+      <c r="I36" s="465"/>
+      <c r="J36" s="470"/>
+      <c r="K36" s="466"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="338"/>
-      <c r="C37" s="325"/>
-      <c r="D37" s="430"/>
-      <c r="E37" s="431"/>
-      <c r="F37" s="430"/>
-      <c r="G37" s="435"/>
-      <c r="H37" s="431"/>
-      <c r="I37" s="430"/>
-      <c r="J37" s="435"/>
-      <c r="K37" s="431"/>
+      <c r="B37" s="350"/>
+      <c r="C37" s="337"/>
+      <c r="D37" s="465"/>
+      <c r="E37" s="466"/>
+      <c r="F37" s="465"/>
+      <c r="G37" s="470"/>
+      <c r="H37" s="466"/>
+      <c r="I37" s="465"/>
+      <c r="J37" s="470"/>
+      <c r="K37" s="466"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="338"/>
-      <c r="C38" s="325"/>
-      <c r="D38" s="432"/>
-      <c r="E38" s="433"/>
-      <c r="F38" s="432"/>
-      <c r="G38" s="436"/>
-      <c r="H38" s="433"/>
-      <c r="I38" s="432"/>
-      <c r="J38" s="436"/>
-      <c r="K38" s="433"/>
+      <c r="B38" s="350"/>
+      <c r="C38" s="337"/>
+      <c r="D38" s="467"/>
+      <c r="E38" s="468"/>
+      <c r="F38" s="467"/>
+      <c r="G38" s="471"/>
+      <c r="H38" s="468"/>
+      <c r="I38" s="467"/>
+      <c r="J38" s="471"/>
+      <c r="K38" s="468"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="340"/>
-      <c r="C39" s="342"/>
-      <c r="D39" s="418" t="s">
+      <c r="B39" s="352"/>
+      <c r="C39" s="354"/>
+      <c r="D39" s="401" t="s">
         <v>580</v>
       </c>
-      <c r="E39" s="419"/>
-      <c r="F39" s="419"/>
-      <c r="G39" s="419"/>
-      <c r="H39" s="419"/>
-      <c r="I39" s="419"/>
-      <c r="J39" s="419"/>
-      <c r="K39" s="420"/>
+      <c r="E39" s="402"/>
+      <c r="F39" s="402"/>
+      <c r="G39" s="402"/>
+      <c r="H39" s="402"/>
+      <c r="I39" s="402"/>
+      <c r="J39" s="402"/>
+      <c r="K39" s="403"/>
       <c r="L39" s="40" t="s">
         <v>581</v>
       </c>
@@ -21092,35 +21665,36 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="343" t="s">
+      <c r="B41" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="344"/>
-      <c r="D41" s="343" t="s">
+      <c r="C41" s="356"/>
+      <c r="D41" s="355" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="344"/>
-      <c r="F41" s="343" t="s">
+      <c r="E41" s="356"/>
+      <c r="F41" s="355" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="345"/>
-      <c r="H41" s="345"/>
-      <c r="I41" s="345"/>
-      <c r="J41" s="345"/>
-      <c r="K41" s="344"/>
+      <c r="G41" s="357"/>
+      <c r="H41" s="357"/>
+      <c r="I41" s="357"/>
+      <c r="J41" s="357"/>
+      <c r="K41" s="356"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -21137,17 +21711,16 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -21622,13 +22195,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="315" t="s">
+      <c r="A5" s="327" t="s">
         <v>156</v>
       </c>
-      <c r="B5" s="316"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="317"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="328"/>
+      <c r="E5" s="329"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>151</v>
@@ -22466,7 +23039,7 @@
       <c r="O35" s="5"/>
     </row>
     <row r="36" spans="3:15">
-      <c r="C36" s="326" t="s">
+      <c r="C36" s="338" t="s">
         <v>168</v>
       </c>
       <c r="D36">
@@ -22493,7 +23066,7 @@
       <c r="O36" s="5"/>
     </row>
     <row r="37" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C37" s="326"/>
+      <c r="C37" s="338"/>
       <c r="D37">
         <v>20</v>
       </c>
@@ -22522,7 +23095,7 @@
       <c r="O37" s="5"/>
     </row>
     <row r="38" spans="3:15">
-      <c r="C38" s="326" t="s">
+      <c r="C38" s="338" t="s">
         <v>169</v>
       </c>
       <c r="D38">
@@ -22541,7 +23114,7 @@
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="3:15">
-      <c r="C39" s="326"/>
+      <c r="C39" s="338"/>
       <c r="D39">
         <v>40</v>
       </c>
@@ -22558,7 +23131,7 @@
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="3:15">
-      <c r="C40" s="326"/>
+      <c r="C40" s="338"/>
       <c r="D40">
         <v>50</v>
       </c>
@@ -22575,7 +23148,7 @@
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="3:15">
-      <c r="C41" s="326"/>
+      <c r="C41" s="338"/>
       <c r="D41">
         <v>60</v>
       </c>
@@ -22594,7 +23167,7 @@
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="3:15">
-      <c r="C42" s="326"/>
+      <c r="C42" s="338"/>
       <c r="D42">
         <v>70</v>
       </c>
@@ -22611,7 +23184,7 @@
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="3:15">
-      <c r="C43" s="326"/>
+      <c r="C43" s="338"/>
       <c r="D43">
         <v>80</v>
       </c>
@@ -22628,7 +23201,7 @@
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C44" s="326"/>
+      <c r="C44" s="338"/>
       <c r="D44">
         <v>90</v>
       </c>
@@ -22719,7 +23292,7 @@
       </c>
     </row>
     <row r="49" spans="4:14">
-      <c r="D49" s="324">
+      <c r="D49" s="336">
         <v>1</v>
       </c>
       <c r="E49" s="174"/>
@@ -22734,7 +23307,7 @@
       <c r="N49" s="179"/>
     </row>
     <row r="50" spans="4:14">
-      <c r="D50" s="325"/>
+      <c r="D50" s="337"/>
       <c r="E50" s="175"/>
       <c r="F50" s="171"/>
       <c r="G50" s="172"/>
@@ -22747,7 +23320,7 @@
       <c r="N50" s="173"/>
     </row>
     <row r="51" spans="4:14">
-      <c r="D51" s="325"/>
+      <c r="D51" s="337"/>
       <c r="E51" s="175"/>
       <c r="F51" s="171"/>
       <c r="G51" s="172"/>
@@ -22760,7 +23333,7 @@
       <c r="N51" s="173"/>
     </row>
     <row r="52" spans="4:14">
-      <c r="D52" s="325"/>
+      <c r="D52" s="337"/>
       <c r="E52" s="175" t="s">
         <v>689</v>
       </c>
@@ -22777,7 +23350,7 @@
       <c r="N52" s="173"/>
     </row>
     <row r="53" spans="4:14">
-      <c r="D53" s="325"/>
+      <c r="D53" s="337"/>
       <c r="E53" s="175"/>
       <c r="F53" s="171"/>
       <c r="G53" s="172"/>
@@ -22790,7 +23363,7 @@
       <c r="N53" s="173"/>
     </row>
     <row r="54" spans="4:14">
-      <c r="D54" s="325"/>
+      <c r="D54" s="337"/>
       <c r="E54" s="175"/>
       <c r="F54" s="171"/>
       <c r="G54" s="172"/>
@@ -22803,7 +23376,7 @@
       <c r="N54" s="173"/>
     </row>
     <row r="55" spans="4:14" ht="15.75" thickBot="1">
-      <c r="D55" s="325"/>
+      <c r="D55" s="337"/>
       <c r="E55" s="176"/>
       <c r="F55" s="180"/>
       <c r="G55" s="181"/>
@@ -22926,7 +23499,7 @@
       <c r="K84" s="178"/>
       <c r="L84" s="178"/>
       <c r="M84" s="178"/>
-      <c r="N84" s="327" t="s">
+      <c r="N84" s="339" t="s">
         <v>943</v>
       </c>
       <c r="O84" t="s">
@@ -22947,7 +23520,7 @@
       <c r="K85" s="181"/>
       <c r="L85" s="181"/>
       <c r="M85" s="181"/>
-      <c r="N85" s="327"/>
+      <c r="N85" s="339"/>
       <c r="O85" t="s">
         <v>944</v>
       </c>
@@ -22966,7 +23539,7 @@
       <c r="K86" s="234"/>
       <c r="L86" s="234"/>
       <c r="M86" s="298"/>
-      <c r="N86" s="328" t="s">
+      <c r="N86" s="340" t="s">
         <v>946</v>
       </c>
       <c r="O86" t="s">
@@ -22987,7 +23560,7 @@
       <c r="K87" s="235"/>
       <c r="L87" s="235"/>
       <c r="M87" s="300"/>
-      <c r="N87" s="328"/>
+      <c r="N87" s="340"/>
     </row>
     <row r="88" spans="3:15">
       <c r="C88">
@@ -23003,7 +23576,7 @@
       <c r="K88" s="235"/>
       <c r="L88" s="235"/>
       <c r="M88" s="300"/>
-      <c r="N88" s="328"/>
+      <c r="N88" s="340"/>
     </row>
     <row r="89" spans="3:15" ht="15.75" thickBot="1">
       <c r="C89">
@@ -23023,7 +23596,7 @@
       <c r="K89" s="236"/>
       <c r="L89" s="236"/>
       <c r="M89" s="302"/>
-      <c r="N89" s="328"/>
+      <c r="N89" s="340"/>
     </row>
     <row r="90" spans="3:15">
       <c r="C90">
@@ -23039,7 +23612,7 @@
       <c r="K90" s="235"/>
       <c r="L90" s="235"/>
       <c r="M90" s="235"/>
-      <c r="N90" s="327"/>
+      <c r="N90" s="339"/>
     </row>
     <row r="91" spans="3:15">
       <c r="C91">
@@ -23055,7 +23628,7 @@
       <c r="K91" s="235"/>
       <c r="L91" s="235"/>
       <c r="M91" s="235"/>
-      <c r="N91" s="327"/>
+      <c r="N91" s="339"/>
     </row>
     <row r="92" spans="3:15" ht="15.75" thickBot="1">
       <c r="C92">
@@ -23071,7 +23644,7 @@
       <c r="K92" s="236"/>
       <c r="L92" s="236"/>
       <c r="M92" s="236"/>
-      <c r="N92" s="327"/>
+      <c r="N92" s="339"/>
     </row>
     <row r="93" spans="3:15" ht="15.75" thickBot="1">
       <c r="C93">
@@ -23173,7 +23746,7 @@
       </c>
     </row>
     <row r="101" spans="3:13">
-      <c r="C101" s="329">
+      <c r="C101" s="341">
         <v>1</v>
       </c>
       <c r="D101" s="230"/>
@@ -23188,7 +23761,7 @@
       <c r="M101" s="240"/>
     </row>
     <row r="102" spans="3:13" ht="15.75" thickBot="1">
-      <c r="C102" s="330"/>
+      <c r="C102" s="342"/>
       <c r="D102" s="232"/>
       <c r="E102" s="233"/>
       <c r="F102" s="233"/>
@@ -23291,88 +23864,88 @@
     </row>
     <row r="112" spans="3:13" ht="15.75" thickBot="1"/>
     <row r="113" spans="4:13">
-      <c r="D113" s="318"/>
-      <c r="E113" s="319"/>
-      <c r="F113" s="319"/>
-      <c r="G113" s="319"/>
-      <c r="H113" s="319"/>
-      <c r="I113" s="319"/>
-      <c r="J113" s="319"/>
-      <c r="K113" s="319"/>
-      <c r="L113" s="319"/>
-      <c r="M113" s="319"/>
+      <c r="D113" s="330"/>
+      <c r="E113" s="331"/>
+      <c r="F113" s="331"/>
+      <c r="G113" s="331"/>
+      <c r="H113" s="331"/>
+      <c r="I113" s="331"/>
+      <c r="J113" s="331"/>
+      <c r="K113" s="331"/>
+      <c r="L113" s="331"/>
+      <c r="M113" s="331"/>
     </row>
     <row r="114" spans="4:13">
-      <c r="D114" s="320"/>
-      <c r="E114" s="321"/>
-      <c r="F114" s="321"/>
-      <c r="G114" s="321"/>
-      <c r="H114" s="321"/>
-      <c r="I114" s="321"/>
-      <c r="J114" s="321"/>
-      <c r="K114" s="321"/>
-      <c r="L114" s="321"/>
-      <c r="M114" s="321"/>
+      <c r="D114" s="332"/>
+      <c r="E114" s="333"/>
+      <c r="F114" s="333"/>
+      <c r="G114" s="333"/>
+      <c r="H114" s="333"/>
+      <c r="I114" s="333"/>
+      <c r="J114" s="333"/>
+      <c r="K114" s="333"/>
+      <c r="L114" s="333"/>
+      <c r="M114" s="333"/>
     </row>
     <row r="115" spans="4:13">
-      <c r="D115" s="320"/>
-      <c r="E115" s="321"/>
-      <c r="F115" s="321"/>
-      <c r="G115" s="321"/>
-      <c r="H115" s="321"/>
-      <c r="I115" s="321"/>
-      <c r="J115" s="321"/>
-      <c r="K115" s="321"/>
-      <c r="L115" s="321"/>
-      <c r="M115" s="321"/>
+      <c r="D115" s="332"/>
+      <c r="E115" s="333"/>
+      <c r="F115" s="333"/>
+      <c r="G115" s="333"/>
+      <c r="H115" s="333"/>
+      <c r="I115" s="333"/>
+      <c r="J115" s="333"/>
+      <c r="K115" s="333"/>
+      <c r="L115" s="333"/>
+      <c r="M115" s="333"/>
     </row>
     <row r="116" spans="4:13">
-      <c r="D116" s="320"/>
-      <c r="E116" s="321"/>
-      <c r="F116" s="321"/>
-      <c r="G116" s="321"/>
-      <c r="H116" s="321"/>
-      <c r="I116" s="321"/>
-      <c r="J116" s="321"/>
-      <c r="K116" s="321"/>
-      <c r="L116" s="321"/>
-      <c r="M116" s="321"/>
+      <c r="D116" s="332"/>
+      <c r="E116" s="333"/>
+      <c r="F116" s="333"/>
+      <c r="G116" s="333"/>
+      <c r="H116" s="333"/>
+      <c r="I116" s="333"/>
+      <c r="J116" s="333"/>
+      <c r="K116" s="333"/>
+      <c r="L116" s="333"/>
+      <c r="M116" s="333"/>
     </row>
     <row r="117" spans="4:13">
-      <c r="D117" s="320"/>
-      <c r="E117" s="321"/>
-      <c r="F117" s="321"/>
-      <c r="G117" s="321"/>
-      <c r="H117" s="321"/>
-      <c r="I117" s="321"/>
-      <c r="J117" s="321"/>
-      <c r="K117" s="321"/>
-      <c r="L117" s="321"/>
-      <c r="M117" s="321"/>
+      <c r="D117" s="332"/>
+      <c r="E117" s="333"/>
+      <c r="F117" s="333"/>
+      <c r="G117" s="333"/>
+      <c r="H117" s="333"/>
+      <c r="I117" s="333"/>
+      <c r="J117" s="333"/>
+      <c r="K117" s="333"/>
+      <c r="L117" s="333"/>
+      <c r="M117" s="333"/>
     </row>
     <row r="118" spans="4:13">
-      <c r="D118" s="320"/>
-      <c r="E118" s="321"/>
-      <c r="F118" s="321"/>
-      <c r="G118" s="321"/>
-      <c r="H118" s="321"/>
-      <c r="I118" s="321"/>
-      <c r="J118" s="321"/>
-      <c r="K118" s="321"/>
-      <c r="L118" s="321"/>
-      <c r="M118" s="321"/>
+      <c r="D118" s="332"/>
+      <c r="E118" s="333"/>
+      <c r="F118" s="333"/>
+      <c r="G118" s="333"/>
+      <c r="H118" s="333"/>
+      <c r="I118" s="333"/>
+      <c r="J118" s="333"/>
+      <c r="K118" s="333"/>
+      <c r="L118" s="333"/>
+      <c r="M118" s="333"/>
     </row>
     <row r="119" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D119" s="322"/>
-      <c r="E119" s="323"/>
-      <c r="F119" s="323"/>
-      <c r="G119" s="323"/>
-      <c r="H119" s="323"/>
-      <c r="I119" s="323"/>
-      <c r="J119" s="323"/>
-      <c r="K119" s="323"/>
-      <c r="L119" s="323"/>
-      <c r="M119" s="323"/>
+      <c r="D119" s="334"/>
+      <c r="E119" s="335"/>
+      <c r="F119" s="335"/>
+      <c r="G119" s="335"/>
+      <c r="H119" s="335"/>
+      <c r="I119" s="335"/>
+      <c r="J119" s="335"/>
+      <c r="K119" s="335"/>
+      <c r="L119" s="335"/>
+      <c r="M119" s="335"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23446,14 +24019,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="331" t="s">
+      <c r="K4" s="343" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="332"/>
-      <c r="M4" s="332"/>
-      <c r="N4" s="332"/>
-      <c r="O4" s="332"/>
-      <c r="P4" s="333"/>
+      <c r="L4" s="344"/>
+      <c r="M4" s="344"/>
+      <c r="N4" s="344"/>
+      <c r="O4" s="344"/>
+      <c r="P4" s="345"/>
       <c r="Q4" s="115" t="s">
         <v>283</v>
       </c>
@@ -23578,10 +24151,10 @@
       <c r="L8" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="M8" s="346" t="s">
+      <c r="M8" s="358" t="s">
         <v>212</v>
       </c>
-      <c r="N8" s="347"/>
+      <c r="N8" s="359"/>
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
@@ -23623,8 +24196,8 @@
       <c r="L9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="M9" s="347"/>
-      <c r="N9" s="347"/>
+      <c r="M9" s="359"/>
+      <c r="N9" s="359"/>
       <c r="O9" s="5" t="s">
         <v>188</v>
       </c>
@@ -23660,8 +24233,8 @@
       <c r="L10" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="M10" s="347"/>
-      <c r="N10" s="347"/>
+      <c r="M10" s="359"/>
+      <c r="N10" s="359"/>
       <c r="O10" s="5"/>
       <c r="P10" s="251" t="s">
         <v>401</v>
@@ -23678,13 +24251,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="334" t="s">
+      <c r="A11" s="346" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="335"/>
-      <c r="C11" s="336"/>
-      <c r="D11" s="336"/>
-      <c r="E11" s="337"/>
+      <c r="B11" s="347"/>
+      <c r="C11" s="348"/>
+      <c r="D11" s="348"/>
+      <c r="E11" s="349"/>
       <c r="F11" t="s">
         <v>210</v>
       </c>
@@ -23693,8 +24266,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="347"/>
-      <c r="N11" s="347"/>
+      <c r="M11" s="359"/>
+      <c r="N11" s="359"/>
       <c r="O11" s="5"/>
       <c r="P11" s="251" t="s">
         <v>402</v>
@@ -23704,11 +24277,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="338"/>
-      <c r="B12" s="339"/>
-      <c r="C12" s="339"/>
-      <c r="D12" s="339"/>
-      <c r="E12" s="325"/>
+      <c r="A12" s="350"/>
+      <c r="B12" s="351"/>
+      <c r="C12" s="351"/>
+      <c r="D12" s="351"/>
+      <c r="E12" s="337"/>
       <c r="F12" t="s">
         <v>970</v>
       </c>
@@ -23717,8 +24290,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="347"/>
-      <c r="N12" s="347"/>
+      <c r="M12" s="359"/>
+      <c r="N12" s="359"/>
       <c r="O12" s="5"/>
       <c r="P12" s="251" t="s">
         <v>1331</v>
@@ -23728,11 +24301,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="338"/>
-      <c r="B13" s="339"/>
-      <c r="C13" s="339"/>
-      <c r="D13" s="339"/>
-      <c r="E13" s="325"/>
+      <c r="A13" s="350"/>
+      <c r="B13" s="351"/>
+      <c r="C13" s="351"/>
+      <c r="D13" s="351"/>
+      <c r="E13" s="337"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>193</v>
@@ -23740,8 +24313,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="347"/>
-      <c r="N13" s="347"/>
+      <c r="M13" s="359"/>
+      <c r="N13" s="359"/>
       <c r="O13" s="28"/>
       <c r="P13" s="252"/>
       <c r="S13" t="s">
@@ -23749,11 +24322,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="340"/>
-      <c r="B14" s="341"/>
-      <c r="C14" s="341"/>
-      <c r="D14" s="341"/>
-      <c r="E14" s="342"/>
+      <c r="A14" s="352"/>
+      <c r="B14" s="353"/>
+      <c r="C14" s="353"/>
+      <c r="D14" s="353"/>
+      <c r="E14" s="354"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -23883,20 +24456,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="343" t="s">
+      <c r="I20" s="355" t="s">
         <v>195</v>
       </c>
-      <c r="J20" s="344"/>
-      <c r="K20" s="343" t="s">
+      <c r="J20" s="356"/>
+      <c r="K20" s="355" t="s">
         <v>196</v>
       </c>
-      <c r="L20" s="344"/>
-      <c r="M20" s="343" t="s">
+      <c r="L20" s="356"/>
+      <c r="M20" s="355" t="s">
         <v>197</v>
       </c>
-      <c r="N20" s="345"/>
-      <c r="O20" s="345"/>
-      <c r="P20" s="344"/>
+      <c r="N20" s="357"/>
+      <c r="O20" s="357"/>
+      <c r="P20" s="356"/>
       <c r="S20" t="s">
         <v>283</v>
       </c>
@@ -24841,13 +25414,13 @@
         <v>182</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="357"/>
-      <c r="L3" s="357"/>
-      <c r="M3" s="357"/>
-      <c r="N3" s="357"/>
-      <c r="O3" s="357"/>
-      <c r="P3" s="357"/>
-      <c r="Q3" s="358"/>
+      <c r="K3" s="369"/>
+      <c r="L3" s="369"/>
+      <c r="M3" s="369"/>
+      <c r="N3" s="369"/>
+      <c r="O3" s="369"/>
+      <c r="P3" s="369"/>
+      <c r="Q3" s="370"/>
       <c r="T3" s="40" t="s">
         <v>180</v>
       </c>
@@ -25115,13 +25688,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="348" t="s">
+      <c r="A12" s="360" t="s">
         <v>693</v>
       </c>
-      <c r="B12" s="349"/>
-      <c r="C12" s="349"/>
-      <c r="D12" s="349"/>
-      <c r="E12" s="350"/>
+      <c r="B12" s="361"/>
+      <c r="C12" s="361"/>
+      <c r="D12" s="361"/>
+      <c r="E12" s="362"/>
       <c r="F12" t="s">
         <v>706</v>
       </c>
@@ -25144,11 +25717,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="351"/>
-      <c r="B13" s="352"/>
-      <c r="C13" s="352"/>
-      <c r="D13" s="352"/>
-      <c r="E13" s="353"/>
+      <c r="A13" s="363"/>
+      <c r="B13" s="364"/>
+      <c r="C13" s="364"/>
+      <c r="D13" s="364"/>
+      <c r="E13" s="365"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -25169,11 +25742,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="351"/>
-      <c r="B14" s="352"/>
-      <c r="C14" s="352"/>
-      <c r="D14" s="352"/>
-      <c r="E14" s="353"/>
+      <c r="A14" s="363"/>
+      <c r="B14" s="364"/>
+      <c r="C14" s="364"/>
+      <c r="D14" s="364"/>
+      <c r="E14" s="365"/>
       <c r="F14" t="s">
         <v>703</v>
       </c>
@@ -25196,11 +25769,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="354"/>
-      <c r="B15" s="355"/>
-      <c r="C15" s="355"/>
-      <c r="D15" s="355"/>
-      <c r="E15" s="356"/>
+      <c r="A15" s="366"/>
+      <c r="B15" s="367"/>
+      <c r="C15" s="367"/>
+      <c r="D15" s="367"/>
+      <c r="E15" s="368"/>
       <c r="F15" s="24"/>
       <c r="H15" s="197"/>
       <c r="I15" s="4" t="s">
@@ -25258,17 +25831,17 @@
       <c r="F17" s="193"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="332" t="s">
+      <c r="I17" s="344" t="s">
         <v>1203</v>
       </c>
-      <c r="J17" s="332"/>
-      <c r="K17" s="332"/>
-      <c r="L17" s="332"/>
-      <c r="M17" s="332"/>
-      <c r="N17" s="332"/>
-      <c r="O17" s="332"/>
-      <c r="P17" s="332"/>
-      <c r="Q17" s="332"/>
+      <c r="J17" s="344"/>
+      <c r="K17" s="344"/>
+      <c r="L17" s="344"/>
+      <c r="M17" s="344"/>
+      <c r="N17" s="344"/>
+      <c r="O17" s="344"/>
+      <c r="P17" s="344"/>
+      <c r="Q17" s="344"/>
       <c r="S17" t="s">
         <v>360</v>
       </c>
@@ -29550,10 +30123,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="359" t="s">
+      <c r="O232" s="371" t="s">
         <v>1251</v>
       </c>
-      <c r="P232" s="360"/>
+      <c r="P232" s="372"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="1552">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5047,6 +5047,117 @@
   </si>
   <si>
     <t>Filter</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>&lt;table border="1px"&gt;</t>
+  </si>
+  <si>
+    <t>Userid</t>
+  </si>
+  <si>
+    <t>pasword</t>
+  </si>
+  <si>
+    <t>&lt;input type="text" name="user" id="user" &gt;&lt;/input&gt;</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>&lt;input type="password"  name="pass" id="pass" &gt;&lt;/input&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="submit"&gt;&lt;/input&gt;</t>
+  </si>
+  <si>
+    <t>1024 pixels</t>
+  </si>
+  <si>
+    <t>750 pixels</t>
+  </si>
+  <si>
+    <t>Front end / view tech</t>
+  </si>
+  <si>
+    <t>WAR = Web Archive… All Files needed to run website</t>
+  </si>
+  <si>
+    <t>WEB SERVER SOFTWARE = TOMCAT</t>
+  </si>
+  <si>
+    <t>javascript</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>images/video/audio</t>
+  </si>
+  <si>
+    <t>FRONT-END</t>
+  </si>
+  <si>
+    <t>BACKEND</t>
+  </si>
+  <si>
+    <t>http://1.2.3.4/welcome.html</t>
+  </si>
+  <si>
+    <t>http = 80</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>register.html
+welcome.html</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt; html code &lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>SERVER</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt; css code &lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt; image &lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>1) download html code</t>
+  </si>
+  <si>
+    <t>2) go through the code</t>
+  </si>
+  <si>
+    <t>3) if any reference to another program/file.. It will make another trip to server and download that too</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt; js code &lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>JAVA
+sysout(hello);
+Trillion $ google search algorithm</t>
+  </si>
+  <si>
+    <t>Event listeners</t>
   </si>
 </sst>
 </file>
@@ -5250,7 +5361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5392,6 +5503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5805,7 +5922,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="509">
+  <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6301,6 +6418,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6309,12 +6447,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6325,8 +6457,44 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6347,12 +6515,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6424,6 +6586,18 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6445,23 +6619,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6493,6 +6652,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6502,59 +6664,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6616,6 +6727,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6637,17 +6799,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6691,72 +6889,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13830,10 +13975,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="382" t="s">
+      <c r="L35" s="411" t="s">
         <v>374</v>
       </c>
-      <c r="M35" s="382"/>
+      <c r="M35" s="411"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -15763,10 +15908,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="383" t="s">
+      <c r="A155" s="412" t="s">
         <v>1000</v>
       </c>
-      <c r="B155" s="383"/>
+      <c r="B155" s="412"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -17356,18 +17501,18 @@
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="391" t="s">
+      <c r="E6" s="413" t="s">
         <v>406</v>
       </c>
-      <c r="F6" s="345"/>
-      <c r="G6" s="344" t="s">
+      <c r="F6" s="366"/>
+      <c r="G6" s="365" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="344"/>
-      <c r="I6" s="344"/>
-      <c r="J6" s="344"/>
-      <c r="K6" s="344"/>
-      <c r="L6" s="345"/>
+      <c r="H6" s="365"/>
+      <c r="I6" s="365"/>
+      <c r="J6" s="365"/>
+      <c r="K6" s="365"/>
+      <c r="L6" s="366"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -17377,7 +17522,7 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="388">
+      <c r="D7" s="421">
         <v>80</v>
       </c>
       <c r="E7" s="66"/>
@@ -17395,7 +17540,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="388"/>
+      <c r="D8" s="421"/>
       <c r="E8" s="58" t="s">
         <v>408</v>
       </c>
@@ -17430,7 +17575,7 @@
       <c r="B9" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="388"/>
+      <c r="D9" s="421"/>
       <c r="E9" s="237"/>
       <c r="F9" s="243"/>
       <c r="G9" s="237"/>
@@ -17454,7 +17599,7 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="388"/>
+      <c r="D10" s="421"/>
       <c r="E10" s="66"/>
       <c r="F10" s="242"/>
       <c r="G10" s="66"/>
@@ -17478,7 +17623,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="388"/>
+      <c r="D11" s="421"/>
       <c r="E11" s="58" t="s">
         <v>412</v>
       </c>
@@ -17507,7 +17652,7 @@
       <c r="B12" s="214" t="s">
         <v>416</v>
       </c>
-      <c r="D12" s="388"/>
+      <c r="D12" s="421"/>
       <c r="E12" s="237"/>
       <c r="F12" s="243"/>
       <c r="G12" s="237"/>
@@ -17525,7 +17670,7 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="388"/>
+      <c r="D13" s="421"/>
       <c r="E13" s="66"/>
       <c r="F13" s="242"/>
       <c r="G13" s="66"/>
@@ -17541,7 +17686,7 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="388"/>
+      <c r="D14" s="421"/>
       <c r="E14" s="58" t="s">
         <v>417</v>
       </c>
@@ -17565,7 +17710,7 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="388"/>
+      <c r="D15" s="421"/>
       <c r="E15" s="237"/>
       <c r="F15" s="243"/>
       <c r="G15" s="237"/>
@@ -17581,7 +17726,7 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="388"/>
+      <c r="D16" s="421"/>
       <c r="E16" s="66"/>
       <c r="F16" s="242"/>
       <c r="G16" s="59"/>
@@ -17597,7 +17742,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="388"/>
+      <c r="D17" s="421"/>
       <c r="E17" s="58" t="s">
         <v>421</v>
       </c>
@@ -17621,7 +17766,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="388"/>
+      <c r="D18" s="421"/>
       <c r="E18" s="237"/>
       <c r="F18" s="243"/>
       <c r="G18" s="326"/>
@@ -17638,20 +17783,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="392" t="s">
+      <c r="E19" s="414" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="393"/>
-      <c r="G19" s="392" t="s">
+      <c r="F19" s="415"/>
+      <c r="G19" s="414" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="393"/>
-      <c r="I19" s="392" t="s">
+      <c r="H19" s="415"/>
+      <c r="I19" s="414" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="394"/>
-      <c r="K19" s="394"/>
-      <c r="L19" s="393"/>
+      <c r="J19" s="416"/>
+      <c r="K19" s="416"/>
+      <c r="L19" s="415"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -17716,12 +17861,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="390"/>
-      <c r="H24" s="390"/>
-      <c r="I24" s="390"/>
-      <c r="J24" s="390"/>
-      <c r="K24" s="390"/>
-      <c r="L24" s="390"/>
+      <c r="G24" s="423"/>
+      <c r="H24" s="423"/>
+      <c r="I24" s="423"/>
+      <c r="J24" s="423"/>
+      <c r="K24" s="423"/>
+      <c r="L24" s="423"/>
       <c r="O24" s="40" t="s">
         <v>178</v>
       </c>
@@ -18094,11 +18239,11 @@
       <c r="G47" s="227" t="s">
         <v>890</v>
       </c>
-      <c r="H47" s="380" t="s">
+      <c r="H47" s="409" t="s">
         <v>1361</v>
       </c>
-      <c r="I47" s="389"/>
-      <c r="J47" s="381"/>
+      <c r="I47" s="422"/>
+      <c r="J47" s="410"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -18704,16 +18849,16 @@
         <v>1055</v>
       </c>
       <c r="F131" s="38"/>
-      <c r="G131" s="386" t="s">
+      <c r="G131" s="419" t="s">
         <v>1048</v>
       </c>
-      <c r="H131" s="386"/>
-      <c r="I131" s="386"/>
-      <c r="J131" s="386"/>
-      <c r="K131" s="386"/>
-      <c r="L131" s="386"/>
-      <c r="M131" s="386"/>
-      <c r="N131" s="386"/>
+      <c r="H131" s="419"/>
+      <c r="I131" s="419"/>
+      <c r="J131" s="419"/>
+      <c r="K131" s="419"/>
+      <c r="L131" s="419"/>
+      <c r="M131" s="419"/>
+      <c r="N131" s="419"/>
       <c r="O131" s="38"/>
     </row>
     <row r="132" spans="2:15">
@@ -18850,29 +18995,29 @@
     </row>
     <row r="141" spans="2:15">
       <c r="F141" s="38"/>
-      <c r="G141" s="387"/>
-      <c r="H141" s="387"/>
-      <c r="I141" s="387"/>
-      <c r="J141" s="387"/>
-      <c r="K141" s="387"/>
-      <c r="L141" s="387"/>
-      <c r="M141" s="387"/>
-      <c r="N141" s="387"/>
-      <c r="O141" s="387"/>
+      <c r="G141" s="420"/>
+      <c r="H141" s="420"/>
+      <c r="I141" s="420"/>
+      <c r="J141" s="420"/>
+      <c r="K141" s="420"/>
+      <c r="L141" s="420"/>
+      <c r="M141" s="420"/>
+      <c r="N141" s="420"/>
+      <c r="O141" s="420"/>
     </row>
     <row r="142" spans="2:15">
       <c r="F142" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="387"/>
-      <c r="H142" s="387"/>
-      <c r="I142" s="387"/>
-      <c r="J142" s="387"/>
-      <c r="K142" s="387"/>
-      <c r="L142" s="387"/>
-      <c r="M142" s="387"/>
-      <c r="N142" s="387"/>
-      <c r="O142" s="387"/>
+      <c r="G142" s="420"/>
+      <c r="H142" s="420"/>
+      <c r="I142" s="420"/>
+      <c r="J142" s="420"/>
+      <c r="K142" s="420"/>
+      <c r="L142" s="420"/>
+      <c r="M142" s="420"/>
+      <c r="N142" s="420"/>
+      <c r="O142" s="420"/>
     </row>
     <row r="146" spans="4:13">
       <c r="F146" t="s">
@@ -18916,7 +19061,7 @@
     </row>
     <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="158" spans="4:13">
-      <c r="D158" s="384" t="s">
+      <c r="D158" s="417" t="s">
         <v>1327</v>
       </c>
       <c r="E158" s="66"/>
@@ -18929,7 +19074,7 @@
       <c r="L158" s="242"/>
     </row>
     <row r="159" spans="4:13">
-      <c r="D159" s="385"/>
+      <c r="D159" s="418"/>
       <c r="E159" s="318" t="s">
         <v>1325</v>
       </c>
@@ -18951,7 +19096,7 @@
       </c>
     </row>
     <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="385"/>
+      <c r="D160" s="418"/>
       <c r="E160" s="237"/>
       <c r="F160" s="243"/>
       <c r="G160" s="237"/>
@@ -18962,7 +19107,7 @@
       <c r="L160" s="243"/>
     </row>
     <row r="161" spans="4:13">
-      <c r="D161" s="385"/>
+      <c r="D161" s="418"/>
       <c r="E161" s="320"/>
       <c r="F161" s="321"/>
       <c r="G161" s="320"/>
@@ -18973,7 +19118,7 @@
       <c r="L161" s="321"/>
     </row>
     <row r="162" spans="4:13">
-      <c r="D162" s="385"/>
+      <c r="D162" s="418"/>
       <c r="E162" s="322"/>
       <c r="F162" s="323"/>
       <c r="G162" s="322"/>
@@ -18987,7 +19132,7 @@
       </c>
     </row>
     <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="385"/>
+      <c r="D163" s="418"/>
       <c r="E163" s="324"/>
       <c r="F163" s="325"/>
       <c r="G163" s="324"/>
@@ -18998,7 +19143,7 @@
       <c r="L163" s="325"/>
     </row>
     <row r="164" spans="4:13">
-      <c r="D164" s="385"/>
+      <c r="D164" s="418"/>
       <c r="E164" s="66"/>
       <c r="F164" s="242"/>
       <c r="G164" s="66"/>
@@ -19009,7 +19154,7 @@
       <c r="L164" s="242"/>
     </row>
     <row r="165" spans="4:13">
-      <c r="D165" s="385"/>
+      <c r="D165" s="418"/>
       <c r="E165" s="58"/>
       <c r="F165" s="317"/>
       <c r="G165" s="58"/>
@@ -19023,7 +19168,7 @@
       </c>
     </row>
     <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="385"/>
+      <c r="D166" s="418"/>
       <c r="E166" s="237"/>
       <c r="F166" s="243"/>
       <c r="G166" s="237"/>
@@ -19034,7 +19179,7 @@
       <c r="L166" s="243"/>
     </row>
     <row r="167" spans="4:13">
-      <c r="D167" s="385"/>
+      <c r="D167" s="418"/>
       <c r="E167" s="66"/>
       <c r="F167" s="242"/>
       <c r="G167" s="59"/>
@@ -19045,7 +19190,7 @@
       <c r="L167" s="317"/>
     </row>
     <row r="168" spans="4:13">
-      <c r="D168" s="385"/>
+      <c r="D168" s="418"/>
       <c r="E168" s="58"/>
       <c r="F168" s="317"/>
       <c r="G168" s="59"/>
@@ -19059,7 +19204,7 @@
       </c>
     </row>
     <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="385"/>
+      <c r="D169" s="418"/>
       <c r="E169" s="237"/>
       <c r="F169" s="243"/>
       <c r="G169" s="326"/>
@@ -19239,17 +19384,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:L19"/>
     <mergeCell ref="D158:D169"/>
     <mergeCell ref="G131:N131"/>
     <mergeCell ref="G141:O142"/>
     <mergeCell ref="D7:D18"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="G24:L24"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -19494,13 +19639,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="395" t="s">
+      <c r="D20" s="424" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="395"/>
-      <c r="F20" s="395"/>
-      <c r="G20" s="395"/>
-      <c r="H20" s="395"/>
+      <c r="E20" s="424"/>
+      <c r="F20" s="424"/>
+      <c r="G20" s="424"/>
+      <c r="H20" s="424"/>
       <c r="I20" s="38" t="s">
         <v>457</v>
       </c>
@@ -19511,37 +19656,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="396">
+      <c r="C21" s="435">
         <v>43909</v>
       </c>
-      <c r="D21" s="395"/>
-      <c r="E21" s="395"/>
-      <c r="F21" s="395"/>
-      <c r="G21" s="395"/>
-      <c r="H21" s="395"/>
+      <c r="D21" s="424"/>
+      <c r="E21" s="424"/>
+      <c r="F21" s="424"/>
+      <c r="G21" s="424"/>
+      <c r="H21" s="424"/>
       <c r="I21" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J21" s="395"/>
-      <c r="K21" s="395"/>
-      <c r="L21" s="395" t="s">
+      <c r="J21" s="424"/>
+      <c r="K21" s="424"/>
+      <c r="L21" s="424" t="s">
         <v>459</v>
       </c>
-      <c r="M21" s="395"/>
-      <c r="N21" s="395"/>
+      <c r="M21" s="424"/>
+      <c r="N21" s="424"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="396"/>
-      <c r="D22" s="395"/>
-      <c r="E22" s="395"/>
-      <c r="F22" s="395"/>
-      <c r="G22" s="395"/>
-      <c r="H22" s="395"/>
-      <c r="I22" s="348" t="s">
+      <c r="C22" s="435"/>
+      <c r="D22" s="424"/>
+      <c r="E22" s="424"/>
+      <c r="F22" s="424"/>
+      <c r="G22" s="424"/>
+      <c r="H22" s="424"/>
+      <c r="I22" s="367" t="s">
         <v>460</v>
       </c>
-      <c r="J22" s="395"/>
-      <c r="K22" s="395"/>
+      <c r="J22" s="424"/>
+      <c r="K22" s="424"/>
       <c r="L22" s="117" t="s">
         <v>461</v>
       </c>
@@ -19549,31 +19694,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="396"/>
-      <c r="D23" s="395"/>
-      <c r="E23" s="395"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="395"/>
-      <c r="H23" s="395"/>
-      <c r="I23" s="348"/>
-      <c r="J23" s="395"/>
-      <c r="K23" s="395"/>
-      <c r="L23" s="395" t="s">
+      <c r="C23" s="435"/>
+      <c r="D23" s="424"/>
+      <c r="E23" s="424"/>
+      <c r="F23" s="424"/>
+      <c r="G23" s="424"/>
+      <c r="H23" s="424"/>
+      <c r="I23" s="367"/>
+      <c r="J23" s="424"/>
+      <c r="K23" s="424"/>
+      <c r="L23" s="424" t="s">
         <v>462</v>
       </c>
-      <c r="M23" s="395"/>
-      <c r="N23" s="395"/>
+      <c r="M23" s="424"/>
+      <c r="N23" s="424"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="396"/>
-      <c r="D24" s="395"/>
-      <c r="E24" s="395"/>
-      <c r="F24" s="395"/>
-      <c r="G24" s="395"/>
-      <c r="H24" s="395"/>
-      <c r="I24" s="348"/>
-      <c r="J24" s="395"/>
-      <c r="K24" s="395"/>
+      <c r="C24" s="435"/>
+      <c r="D24" s="424"/>
+      <c r="E24" s="424"/>
+      <c r="F24" s="424"/>
+      <c r="G24" s="424"/>
+      <c r="H24" s="424"/>
+      <c r="I24" s="367"/>
+      <c r="J24" s="424"/>
+      <c r="K24" s="424"/>
       <c r="L24" s="118" t="s">
         <v>460</v>
       </c>
@@ -19584,13 +19729,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="395" t="s">
+      <c r="D25" s="424" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="395"/>
-      <c r="F25" s="395"/>
-      <c r="G25" s="395"/>
-      <c r="H25" s="395"/>
+      <c r="E25" s="424"/>
+      <c r="F25" s="424"/>
+      <c r="G25" s="424"/>
+      <c r="H25" s="424"/>
       <c r="I25" s="38" t="s">
         <v>464</v>
       </c>
@@ -19604,16 +19749,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="397"/>
-      <c r="E26" s="398"/>
-      <c r="F26" s="398"/>
-      <c r="G26" s="398"/>
-      <c r="H26" s="399"/>
-      <c r="I26" s="404" t="s">
+      <c r="D26" s="425"/>
+      <c r="E26" s="426"/>
+      <c r="F26" s="426"/>
+      <c r="G26" s="426"/>
+      <c r="H26" s="427"/>
+      <c r="I26" s="432" t="s">
         <v>460</v>
       </c>
-      <c r="J26" s="397"/>
-      <c r="K26" s="399"/>
+      <c r="J26" s="425"/>
+      <c r="K26" s="427"/>
       <c r="L26" s="117" t="s">
         <v>461</v>
       </c>
@@ -19622,30 +19767,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="400"/>
-      <c r="E27" s="390"/>
-      <c r="F27" s="390"/>
-      <c r="G27" s="390"/>
-      <c r="H27" s="401"/>
-      <c r="I27" s="405"/>
-      <c r="J27" s="400"/>
-      <c r="K27" s="401"/>
-      <c r="L27" s="395" t="s">
+      <c r="D27" s="428"/>
+      <c r="E27" s="423"/>
+      <c r="F27" s="423"/>
+      <c r="G27" s="423"/>
+      <c r="H27" s="429"/>
+      <c r="I27" s="433"/>
+      <c r="J27" s="428"/>
+      <c r="K27" s="429"/>
+      <c r="L27" s="424" t="s">
         <v>465</v>
       </c>
-      <c r="M27" s="395"/>
-      <c r="N27" s="395"/>
+      <c r="M27" s="424"/>
+      <c r="N27" s="424"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="400"/>
-      <c r="E28" s="390"/>
-      <c r="F28" s="390"/>
-      <c r="G28" s="390"/>
-      <c r="H28" s="401"/>
-      <c r="I28" s="405"/>
-      <c r="J28" s="400"/>
-      <c r="K28" s="401"/>
+      <c r="D28" s="428"/>
+      <c r="E28" s="423"/>
+      <c r="F28" s="423"/>
+      <c r="G28" s="423"/>
+      <c r="H28" s="429"/>
+      <c r="I28" s="433"/>
+      <c r="J28" s="428"/>
+      <c r="K28" s="429"/>
       <c r="L28" s="118" t="s">
         <v>460</v>
       </c>
@@ -19654,14 +19799,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="402"/>
-      <c r="E29" s="382"/>
-      <c r="F29" s="382"/>
-      <c r="G29" s="382"/>
-      <c r="H29" s="403"/>
-      <c r="I29" s="406"/>
-      <c r="J29" s="402"/>
-      <c r="K29" s="403"/>
+      <c r="D29" s="430"/>
+      <c r="E29" s="411"/>
+      <c r="F29" s="411"/>
+      <c r="G29" s="411"/>
+      <c r="H29" s="431"/>
+      <c r="I29" s="434"/>
+      <c r="J29" s="430"/>
+      <c r="K29" s="431"/>
       <c r="L29" s="119" t="s">
         <v>466</v>
       </c>
@@ -19709,13 +19854,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="395" t="s">
+      <c r="D33" s="424" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="395"/>
-      <c r="F33" s="395"/>
-      <c r="G33" s="395"/>
-      <c r="H33" s="395"/>
+      <c r="E33" s="424"/>
+      <c r="F33" s="424"/>
+      <c r="G33" s="424"/>
+      <c r="H33" s="424"/>
       <c r="I33" s="38" t="s">
         <v>457</v>
       </c>
@@ -19726,33 +19871,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="396">
+      <c r="C34" s="435">
         <v>43909</v>
       </c>
-      <c r="D34" s="395"/>
-      <c r="E34" s="395"/>
-      <c r="F34" s="395"/>
-      <c r="G34" s="395"/>
-      <c r="H34" s="395"/>
-      <c r="I34" s="407"/>
-      <c r="J34" s="395"/>
-      <c r="K34" s="395"/>
-      <c r="L34" s="395" t="s">
+      <c r="D34" s="424"/>
+      <c r="E34" s="424"/>
+      <c r="F34" s="424"/>
+      <c r="G34" s="424"/>
+      <c r="H34" s="424"/>
+      <c r="I34" s="436"/>
+      <c r="J34" s="424"/>
+      <c r="K34" s="424"/>
+      <c r="L34" s="424" t="s">
         <v>459</v>
       </c>
-      <c r="M34" s="395"/>
-      <c r="N34" s="395"/>
+      <c r="M34" s="424"/>
+      <c r="N34" s="424"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="396"/>
-      <c r="D35" s="395"/>
-      <c r="E35" s="395"/>
-      <c r="F35" s="395"/>
-      <c r="G35" s="395"/>
-      <c r="H35" s="395"/>
-      <c r="I35" s="408"/>
-      <c r="J35" s="395"/>
-      <c r="K35" s="395"/>
+      <c r="C35" s="435"/>
+      <c r="D35" s="424"/>
+      <c r="E35" s="424"/>
+      <c r="F35" s="424"/>
+      <c r="G35" s="424"/>
+      <c r="H35" s="424"/>
+      <c r="I35" s="437"/>
+      <c r="J35" s="424"/>
+      <c r="K35" s="424"/>
       <c r="L35" s="117" t="s">
         <v>461</v>
       </c>
@@ -19760,31 +19905,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="396"/>
-      <c r="D36" s="395"/>
-      <c r="E36" s="395"/>
-      <c r="F36" s="395"/>
-      <c r="G36" s="395"/>
-      <c r="H36" s="395"/>
-      <c r="I36" s="408"/>
-      <c r="J36" s="395"/>
-      <c r="K36" s="395"/>
-      <c r="L36" s="395" t="s">
+      <c r="C36" s="435"/>
+      <c r="D36" s="424"/>
+      <c r="E36" s="424"/>
+      <c r="F36" s="424"/>
+      <c r="G36" s="424"/>
+      <c r="H36" s="424"/>
+      <c r="I36" s="437"/>
+      <c r="J36" s="424"/>
+      <c r="K36" s="424"/>
+      <c r="L36" s="424" t="s">
         <v>462</v>
       </c>
-      <c r="M36" s="395"/>
-      <c r="N36" s="395"/>
+      <c r="M36" s="424"/>
+      <c r="N36" s="424"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="396"/>
-      <c r="D37" s="395"/>
-      <c r="E37" s="395"/>
-      <c r="F37" s="395"/>
-      <c r="G37" s="395"/>
-      <c r="H37" s="395"/>
-      <c r="I37" s="409"/>
-      <c r="J37" s="395"/>
-      <c r="K37" s="395"/>
+      <c r="C37" s="435"/>
+      <c r="D37" s="424"/>
+      <c r="E37" s="424"/>
+      <c r="F37" s="424"/>
+      <c r="G37" s="424"/>
+      <c r="H37" s="424"/>
+      <c r="I37" s="438"/>
+      <c r="J37" s="424"/>
+      <c r="K37" s="424"/>
       <c r="L37" s="118" t="s">
         <v>467</v>
       </c>
@@ -19795,13 +19940,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="395" t="s">
+      <c r="D38" s="424" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="395"/>
-      <c r="F38" s="395"/>
-      <c r="G38" s="395"/>
-      <c r="H38" s="395"/>
+      <c r="E38" s="424"/>
+      <c r="F38" s="424"/>
+      <c r="G38" s="424"/>
+      <c r="H38" s="424"/>
       <c r="I38" s="38" t="s">
         <v>464</v>
       </c>
@@ -19815,14 +19960,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="397"/>
-      <c r="E39" s="398"/>
-      <c r="F39" s="398"/>
-      <c r="G39" s="398"/>
-      <c r="H39" s="399"/>
-      <c r="I39" s="404"/>
-      <c r="J39" s="397"/>
-      <c r="K39" s="399"/>
+      <c r="D39" s="425"/>
+      <c r="E39" s="426"/>
+      <c r="F39" s="426"/>
+      <c r="G39" s="426"/>
+      <c r="H39" s="427"/>
+      <c r="I39" s="432"/>
+      <c r="J39" s="425"/>
+      <c r="K39" s="427"/>
       <c r="L39" s="117" t="s">
         <v>461</v>
       </c>
@@ -19831,30 +19976,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="400"/>
-      <c r="E40" s="390"/>
-      <c r="F40" s="390"/>
-      <c r="G40" s="390"/>
-      <c r="H40" s="401"/>
-      <c r="I40" s="405"/>
-      <c r="J40" s="400"/>
-      <c r="K40" s="401"/>
-      <c r="L40" s="395" t="s">
+      <c r="D40" s="428"/>
+      <c r="E40" s="423"/>
+      <c r="F40" s="423"/>
+      <c r="G40" s="423"/>
+      <c r="H40" s="429"/>
+      <c r="I40" s="433"/>
+      <c r="J40" s="428"/>
+      <c r="K40" s="429"/>
+      <c r="L40" s="424" t="s">
         <v>465</v>
       </c>
-      <c r="M40" s="395"/>
-      <c r="N40" s="395"/>
+      <c r="M40" s="424"/>
+      <c r="N40" s="424"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="400"/>
-      <c r="E41" s="390"/>
-      <c r="F41" s="390"/>
-      <c r="G41" s="390"/>
-      <c r="H41" s="401"/>
-      <c r="I41" s="406"/>
-      <c r="J41" s="400"/>
-      <c r="K41" s="401"/>
+      <c r="D41" s="428"/>
+      <c r="E41" s="423"/>
+      <c r="F41" s="423"/>
+      <c r="G41" s="423"/>
+      <c r="H41" s="429"/>
+      <c r="I41" s="434"/>
+      <c r="J41" s="428"/>
+      <c r="K41" s="429"/>
       <c r="L41" s="118" t="s">
         <v>467</v>
       </c>
@@ -19863,16 +20008,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="402"/>
-      <c r="E42" s="382"/>
-      <c r="F42" s="382"/>
-      <c r="G42" s="382"/>
-      <c r="H42" s="403"/>
+      <c r="D42" s="430"/>
+      <c r="E42" s="411"/>
+      <c r="F42" s="411"/>
+      <c r="G42" s="411"/>
+      <c r="H42" s="431"/>
       <c r="I42" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="J42" s="402"/>
-      <c r="K42" s="403"/>
+      <c r="J42" s="430"/>
+      <c r="K42" s="431"/>
       <c r="L42" s="119" t="s">
         <v>466</v>
       </c>
@@ -20184,17 +20329,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -20202,12 +20342,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20229,29 +20374,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="420" t="s">
+      <c r="B2" s="460" t="s">
         <v>1083</v>
       </c>
-      <c r="C2" s="420"/>
-      <c r="D2" s="420"/>
-      <c r="E2" s="420"/>
-      <c r="F2" s="420"/>
-      <c r="G2" s="420"/>
-      <c r="H2" s="420"/>
-      <c r="I2" s="420"/>
-      <c r="J2" s="420"/>
-      <c r="K2" s="420"/>
-      <c r="L2" s="420"/>
-      <c r="M2" s="420"/>
-      <c r="N2" s="420"/>
-      <c r="O2" s="420"/>
-      <c r="P2" s="420"/>
-      <c r="Q2" s="420"/>
-      <c r="R2" s="420"/>
-      <c r="S2" s="420"/>
-      <c r="T2" s="420"/>
-      <c r="U2" s="420"/>
-      <c r="V2" s="420"/>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="460"/>
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="460"/>
+      <c r="I2" s="460"/>
+      <c r="J2" s="460"/>
+      <c r="K2" s="460"/>
+      <c r="L2" s="460"/>
+      <c r="M2" s="460"/>
+      <c r="N2" s="460"/>
+      <c r="O2" s="460"/>
+      <c r="P2" s="460"/>
+      <c r="Q2" s="460"/>
+      <c r="R2" s="460"/>
+      <c r="S2" s="460"/>
+      <c r="T2" s="460"/>
+      <c r="U2" s="460"/>
+      <c r="V2" s="460"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -20284,22 +20429,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="423" t="s">
+      <c r="G5" s="439" t="s">
         <v>518</v>
       </c>
-      <c r="H5" s="423"/>
-      <c r="I5" s="423" t="s">
+      <c r="H5" s="439"/>
+      <c r="I5" s="439" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="423"/>
-      <c r="K5" s="423"/>
-      <c r="L5" s="423"/>
-      <c r="M5" s="423"/>
-      <c r="N5" s="423"/>
-      <c r="O5" s="423" t="s">
+      <c r="J5" s="439"/>
+      <c r="K5" s="439"/>
+      <c r="L5" s="439"/>
+      <c r="M5" s="439"/>
+      <c r="N5" s="439"/>
+      <c r="O5" s="439" t="s">
         <v>520</v>
       </c>
-      <c r="P5" s="423"/>
+      <c r="P5" s="439"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -20311,7 +20456,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="428" t="s">
+      <c r="G6" s="440" t="s">
         <v>521</v>
       </c>
       <c r="H6" s="111"/>
@@ -20340,26 +20485,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="429"/>
-      <c r="H7" s="431" t="s">
+      <c r="G7" s="441"/>
+      <c r="H7" s="443" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="434" t="s">
+      <c r="I7" s="446" t="s">
         <v>524</v>
       </c>
-      <c r="J7" s="435"/>
-      <c r="K7" s="436" t="s">
+      <c r="J7" s="447"/>
+      <c r="K7" s="448" t="s">
         <v>525</v>
       </c>
-      <c r="L7" s="437"/>
-      <c r="M7" s="434" t="s">
+      <c r="L7" s="449"/>
+      <c r="M7" s="446" t="s">
         <v>526</v>
       </c>
-      <c r="N7" s="435"/>
-      <c r="O7" s="442" t="s">
+      <c r="N7" s="447"/>
+      <c r="O7" s="454" t="s">
         <v>527</v>
       </c>
-      <c r="P7" s="443"/>
+      <c r="P7" s="455"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -20371,16 +20516,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="429"/>
-      <c r="H8" s="432"/>
-      <c r="I8" s="359"/>
-      <c r="J8" s="347"/>
-      <c r="K8" s="438"/>
-      <c r="L8" s="439"/>
-      <c r="M8" s="359"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="444"/>
-      <c r="P8" s="445"/>
+      <c r="G8" s="441"/>
+      <c r="H8" s="444"/>
+      <c r="I8" s="370"/>
+      <c r="J8" s="372"/>
+      <c r="K8" s="450"/>
+      <c r="L8" s="451"/>
+      <c r="M8" s="370"/>
+      <c r="N8" s="372"/>
+      <c r="O8" s="456"/>
+      <c r="P8" s="457"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>181</v>
@@ -20398,16 +20543,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="429"/>
-      <c r="H9" s="432"/>
-      <c r="I9" s="359"/>
-      <c r="J9" s="347"/>
-      <c r="K9" s="438"/>
-      <c r="L9" s="439"/>
-      <c r="M9" s="359"/>
-      <c r="N9" s="347"/>
-      <c r="O9" s="444"/>
-      <c r="P9" s="445"/>
+      <c r="G9" s="441"/>
+      <c r="H9" s="444"/>
+      <c r="I9" s="370"/>
+      <c r="J9" s="372"/>
+      <c r="K9" s="450"/>
+      <c r="L9" s="451"/>
+      <c r="M9" s="370"/>
+      <c r="N9" s="372"/>
+      <c r="O9" s="456"/>
+      <c r="P9" s="457"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -20427,16 +20572,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="429"/>
-      <c r="H10" s="432"/>
-      <c r="I10" s="359"/>
-      <c r="J10" s="347"/>
-      <c r="K10" s="438"/>
-      <c r="L10" s="439"/>
-      <c r="M10" s="359"/>
-      <c r="N10" s="347"/>
-      <c r="O10" s="444"/>
-      <c r="P10" s="445"/>
+      <c r="G10" s="441"/>
+      <c r="H10" s="444"/>
+      <c r="I10" s="370"/>
+      <c r="J10" s="372"/>
+      <c r="K10" s="450"/>
+      <c r="L10" s="451"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="372"/>
+      <c r="O10" s="456"/>
+      <c r="P10" s="457"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -20452,16 +20597,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="429"/>
-      <c r="H11" s="432"/>
-      <c r="I11" s="359"/>
-      <c r="J11" s="347"/>
-      <c r="K11" s="438"/>
-      <c r="L11" s="439"/>
-      <c r="M11" s="359"/>
-      <c r="N11" s="347"/>
-      <c r="O11" s="444"/>
-      <c r="P11" s="445"/>
+      <c r="G11" s="441"/>
+      <c r="H11" s="444"/>
+      <c r="I11" s="370"/>
+      <c r="J11" s="372"/>
+      <c r="K11" s="450"/>
+      <c r="L11" s="451"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="372"/>
+      <c r="O11" s="456"/>
+      <c r="P11" s="457"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -20479,16 +20624,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="429"/>
-      <c r="H12" s="432"/>
-      <c r="I12" s="359"/>
-      <c r="J12" s="347"/>
-      <c r="K12" s="438"/>
-      <c r="L12" s="439"/>
-      <c r="M12" s="359"/>
-      <c r="N12" s="347"/>
-      <c r="O12" s="444"/>
-      <c r="P12" s="445"/>
+      <c r="G12" s="441"/>
+      <c r="H12" s="444"/>
+      <c r="I12" s="370"/>
+      <c r="J12" s="372"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="451"/>
+      <c r="M12" s="370"/>
+      <c r="N12" s="372"/>
+      <c r="O12" s="456"/>
+      <c r="P12" s="457"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -20502,16 +20647,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="429"/>
-      <c r="H13" s="432"/>
-      <c r="I13" s="359"/>
-      <c r="J13" s="347"/>
-      <c r="K13" s="438"/>
-      <c r="L13" s="439"/>
-      <c r="M13" s="359"/>
-      <c r="N13" s="347"/>
-      <c r="O13" s="444"/>
-      <c r="P13" s="445"/>
+      <c r="G13" s="441"/>
+      <c r="H13" s="444"/>
+      <c r="I13" s="370"/>
+      <c r="J13" s="372"/>
+      <c r="K13" s="450"/>
+      <c r="L13" s="451"/>
+      <c r="M13" s="370"/>
+      <c r="N13" s="372"/>
+      <c r="O13" s="456"/>
+      <c r="P13" s="457"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -20523,16 +20668,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="429"/>
-      <c r="H14" s="432"/>
-      <c r="I14" s="359"/>
-      <c r="J14" s="347"/>
-      <c r="K14" s="438"/>
-      <c r="L14" s="439"/>
-      <c r="M14" s="359"/>
-      <c r="N14" s="347"/>
-      <c r="O14" s="444"/>
-      <c r="P14" s="445"/>
+      <c r="G14" s="441"/>
+      <c r="H14" s="444"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="372"/>
+      <c r="K14" s="450"/>
+      <c r="L14" s="451"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="372"/>
+      <c r="O14" s="456"/>
+      <c r="P14" s="457"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -20546,16 +20691,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="429"/>
-      <c r="H15" s="432"/>
-      <c r="I15" s="359"/>
-      <c r="J15" s="347"/>
-      <c r="K15" s="438"/>
-      <c r="L15" s="439"/>
-      <c r="M15" s="359"/>
-      <c r="N15" s="347"/>
-      <c r="O15" s="444"/>
-      <c r="P15" s="445"/>
+      <c r="G15" s="441"/>
+      <c r="H15" s="444"/>
+      <c r="I15" s="370"/>
+      <c r="J15" s="372"/>
+      <c r="K15" s="450"/>
+      <c r="L15" s="451"/>
+      <c r="M15" s="370"/>
+      <c r="N15" s="372"/>
+      <c r="O15" s="456"/>
+      <c r="P15" s="457"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -20567,16 +20712,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="429"/>
-      <c r="H16" s="432"/>
-      <c r="I16" s="359"/>
-      <c r="J16" s="347"/>
-      <c r="K16" s="438"/>
-      <c r="L16" s="439"/>
-      <c r="M16" s="359"/>
-      <c r="N16" s="347"/>
-      <c r="O16" s="444"/>
-      <c r="P16" s="445"/>
+      <c r="G16" s="441"/>
+      <c r="H16" s="444"/>
+      <c r="I16" s="370"/>
+      <c r="J16" s="372"/>
+      <c r="K16" s="450"/>
+      <c r="L16" s="451"/>
+      <c r="M16" s="370"/>
+      <c r="N16" s="372"/>
+      <c r="O16" s="456"/>
+      <c r="P16" s="457"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -20588,16 +20733,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="429"/>
-      <c r="H17" s="432"/>
-      <c r="I17" s="359"/>
-      <c r="J17" s="347"/>
-      <c r="K17" s="438"/>
-      <c r="L17" s="439"/>
-      <c r="M17" s="359"/>
-      <c r="N17" s="347"/>
-      <c r="O17" s="444"/>
-      <c r="P17" s="445"/>
+      <c r="G17" s="441"/>
+      <c r="H17" s="444"/>
+      <c r="I17" s="370"/>
+      <c r="J17" s="372"/>
+      <c r="K17" s="450"/>
+      <c r="L17" s="451"/>
+      <c r="M17" s="370"/>
+      <c r="N17" s="372"/>
+      <c r="O17" s="456"/>
+      <c r="P17" s="457"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -20609,16 +20754,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="429"/>
-      <c r="H18" s="432"/>
-      <c r="I18" s="359"/>
-      <c r="J18" s="347"/>
-      <c r="K18" s="438"/>
-      <c r="L18" s="439"/>
-      <c r="M18" s="359"/>
-      <c r="N18" s="347"/>
-      <c r="O18" s="444"/>
-      <c r="P18" s="445"/>
+      <c r="G18" s="441"/>
+      <c r="H18" s="444"/>
+      <c r="I18" s="370"/>
+      <c r="J18" s="372"/>
+      <c r="K18" s="450"/>
+      <c r="L18" s="451"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="372"/>
+      <c r="O18" s="456"/>
+      <c r="P18" s="457"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -20632,16 +20777,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="429"/>
-      <c r="H19" s="432"/>
-      <c r="I19" s="359"/>
-      <c r="J19" s="347"/>
-      <c r="K19" s="438"/>
-      <c r="L19" s="439"/>
-      <c r="M19" s="359"/>
-      <c r="N19" s="347"/>
-      <c r="O19" s="444"/>
-      <c r="P19" s="445"/>
+      <c r="G19" s="441"/>
+      <c r="H19" s="444"/>
+      <c r="I19" s="370"/>
+      <c r="J19" s="372"/>
+      <c r="K19" s="450"/>
+      <c r="L19" s="451"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="372"/>
+      <c r="O19" s="456"/>
+      <c r="P19" s="457"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -20653,16 +20798,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="430"/>
-      <c r="H20" s="433"/>
-      <c r="I20" s="361"/>
-      <c r="J20" s="363"/>
-      <c r="K20" s="440"/>
-      <c r="L20" s="441"/>
-      <c r="M20" s="361"/>
-      <c r="N20" s="363"/>
-      <c r="O20" s="446"/>
-      <c r="P20" s="447"/>
+      <c r="G20" s="442"/>
+      <c r="H20" s="445"/>
+      <c r="I20" s="390"/>
+      <c r="J20" s="392"/>
+      <c r="K20" s="452"/>
+      <c r="L20" s="453"/>
+      <c r="M20" s="390"/>
+      <c r="N20" s="392"/>
+      <c r="O20" s="458"/>
+      <c r="P20" s="459"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -20692,27 +20837,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="364" t="s">
+      <c r="D22" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="365"/>
+      <c r="E22" s="394"/>
       <c r="F22" s="270"/>
       <c r="G22" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="364" t="s">
+      <c r="H22" s="393" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="366"/>
-      <c r="J22" s="366"/>
-      <c r="K22" s="366"/>
-      <c r="L22" s="366"/>
-      <c r="M22" s="366"/>
-      <c r="N22" s="365"/>
-      <c r="O22" s="364" t="s">
+      <c r="I22" s="395"/>
+      <c r="J22" s="395"/>
+      <c r="K22" s="395"/>
+      <c r="L22" s="395"/>
+      <c r="M22" s="395"/>
+      <c r="N22" s="394"/>
+      <c r="O22" s="393" t="s">
         <v>528</v>
       </c>
-      <c r="P22" s="365"/>
+      <c r="P22" s="394"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -20743,59 +20888,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="420" t="s">
+      <c r="B25" s="460" t="s">
         <v>1082</v>
       </c>
-      <c r="C25" s="420"/>
-      <c r="D25" s="420"/>
-      <c r="E25" s="420"/>
-      <c r="F25" s="420"/>
-      <c r="G25" s="420"/>
-      <c r="H25" s="420"/>
-      <c r="I25" s="420"/>
-      <c r="J25" s="420"/>
-      <c r="K25" s="420"/>
-      <c r="L25" s="420"/>
-      <c r="M25" s="420"/>
-      <c r="N25" s="420"/>
-      <c r="O25" s="420"/>
-      <c r="P25" s="420"/>
-      <c r="Q25" s="420"/>
-      <c r="R25" s="420"/>
-      <c r="S25" s="420"/>
-      <c r="T25" s="420"/>
-      <c r="U25" s="420"/>
-      <c r="V25" s="420"/>
+      <c r="C25" s="460"/>
+      <c r="D25" s="460"/>
+      <c r="E25" s="460"/>
+      <c r="F25" s="460"/>
+      <c r="G25" s="460"/>
+      <c r="H25" s="460"/>
+      <c r="I25" s="460"/>
+      <c r="J25" s="460"/>
+      <c r="K25" s="460"/>
+      <c r="L25" s="460"/>
+      <c r="M25" s="460"/>
+      <c r="N25" s="460"/>
+      <c r="O25" s="460"/>
+      <c r="P25" s="460"/>
+      <c r="Q25" s="460"/>
+      <c r="R25" s="460"/>
+      <c r="S25" s="460"/>
+      <c r="T25" s="460"/>
+      <c r="U25" s="460"/>
+      <c r="V25" s="460"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="421" t="s">
+      <c r="C26" s="461" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="421"/>
-      <c r="E26" s="421"/>
-      <c r="F26" s="421"/>
-      <c r="G26" s="421"/>
-      <c r="H26" s="421"/>
-      <c r="I26" s="421"/>
-      <c r="J26" s="421"/>
-      <c r="K26" s="421"/>
-      <c r="L26" s="421"/>
-      <c r="M26" s="421"/>
+      <c r="D26" s="461"/>
+      <c r="E26" s="461"/>
+      <c r="F26" s="461"/>
+      <c r="G26" s="461"/>
+      <c r="H26" s="461"/>
+      <c r="I26" s="461"/>
+      <c r="J26" s="461"/>
+      <c r="K26" s="461"/>
+      <c r="L26" s="461"/>
+      <c r="M26" s="461"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="391" t="s">
+      <c r="E27" s="413" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="344"/>
-      <c r="G27" s="344"/>
-      <c r="H27" s="353"/>
-      <c r="I27" s="353"/>
-      <c r="J27" s="353"/>
-      <c r="K27" s="353"/>
-      <c r="L27" s="353"/>
-      <c r="M27" s="354"/>
+      <c r="F27" s="365"/>
+      <c r="G27" s="365"/>
+      <c r="H27" s="384"/>
+      <c r="I27" s="384"/>
+      <c r="J27" s="384"/>
+      <c r="K27" s="384"/>
+      <c r="L27" s="384"/>
+      <c r="M27" s="385"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -20828,11 +20973,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="422" t="s">
+      <c r="O29" s="462" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="422"/>
-      <c r="Q29" s="422"/>
+      <c r="P29" s="462"/>
+      <c r="Q29" s="462"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -20877,21 +21022,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="417" t="s">
+      <c r="E32" s="466" t="s">
         <v>1086</v>
       </c>
-      <c r="F32" s="418"/>
-      <c r="G32" s="419"/>
-      <c r="H32" s="417" t="s">
+      <c r="F32" s="467"/>
+      <c r="G32" s="468"/>
+      <c r="H32" s="466" t="s">
         <v>1087</v>
       </c>
-      <c r="I32" s="418"/>
-      <c r="J32" s="419"/>
-      <c r="K32" s="417" t="s">
+      <c r="I32" s="467"/>
+      <c r="J32" s="468"/>
+      <c r="K32" s="466" t="s">
         <v>1088</v>
       </c>
-      <c r="L32" s="418"/>
-      <c r="M32" s="419"/>
+      <c r="L32" s="467"/>
+      <c r="M32" s="468"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -20908,15 +21053,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="417"/>
-      <c r="F33" s="418"/>
-      <c r="G33" s="419"/>
-      <c r="H33" s="417"/>
-      <c r="I33" s="418"/>
-      <c r="J33" s="419"/>
-      <c r="K33" s="417"/>
-      <c r="L33" s="418"/>
-      <c r="M33" s="419"/>
+      <c r="E33" s="466"/>
+      <c r="F33" s="467"/>
+      <c r="G33" s="468"/>
+      <c r="H33" s="466"/>
+      <c r="I33" s="467"/>
+      <c r="J33" s="468"/>
+      <c r="K33" s="466"/>
+      <c r="L33" s="467"/>
+      <c r="M33" s="468"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -20933,15 +21078,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="417"/>
-      <c r="F34" s="418"/>
-      <c r="G34" s="419"/>
-      <c r="H34" s="417"/>
-      <c r="I34" s="418"/>
-      <c r="J34" s="419"/>
-      <c r="K34" s="417"/>
-      <c r="L34" s="418"/>
-      <c r="M34" s="419"/>
+      <c r="E34" s="466"/>
+      <c r="F34" s="467"/>
+      <c r="G34" s="468"/>
+      <c r="H34" s="466"/>
+      <c r="I34" s="467"/>
+      <c r="J34" s="468"/>
+      <c r="K34" s="466"/>
+      <c r="L34" s="467"/>
+      <c r="M34" s="468"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -20952,15 +21097,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="417"/>
-      <c r="F35" s="418"/>
-      <c r="G35" s="419"/>
-      <c r="H35" s="417"/>
-      <c r="I35" s="418"/>
-      <c r="J35" s="419"/>
-      <c r="K35" s="417"/>
-      <c r="L35" s="418"/>
-      <c r="M35" s="419"/>
+      <c r="E35" s="466"/>
+      <c r="F35" s="467"/>
+      <c r="G35" s="468"/>
+      <c r="H35" s="466"/>
+      <c r="I35" s="467"/>
+      <c r="J35" s="468"/>
+      <c r="K35" s="466"/>
+      <c r="L35" s="467"/>
+      <c r="M35" s="468"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -21091,15 +21236,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="410"/>
-      <c r="F42" s="411"/>
-      <c r="G42" s="411"/>
-      <c r="H42" s="411"/>
-      <c r="I42" s="411"/>
-      <c r="J42" s="411"/>
-      <c r="K42" s="411"/>
-      <c r="L42" s="411"/>
-      <c r="M42" s="412"/>
+      <c r="E42" s="470"/>
+      <c r="F42" s="471"/>
+      <c r="G42" s="471"/>
+      <c r="H42" s="471"/>
+      <c r="I42" s="471"/>
+      <c r="J42" s="471"/>
+      <c r="K42" s="471"/>
+      <c r="L42" s="471"/>
+      <c r="M42" s="472"/>
       <c r="N42" s="40" t="s">
         <v>575</v>
       </c>
@@ -21118,83 +21263,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="364" t="s">
+      <c r="C44" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="365"/>
-      <c r="E44" s="364" t="s">
+      <c r="D44" s="394"/>
+      <c r="E44" s="393" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="366"/>
-      <c r="G44" s="365"/>
-      <c r="H44" s="364" t="s">
+      <c r="F44" s="395"/>
+      <c r="G44" s="394"/>
+      <c r="H44" s="393" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="366"/>
-      <c r="J44" s="366"/>
-      <c r="K44" s="366"/>
-      <c r="L44" s="366"/>
-      <c r="M44" s="365"/>
+      <c r="I44" s="395"/>
+      <c r="J44" s="395"/>
+      <c r="K44" s="395"/>
+      <c r="L44" s="395"/>
+      <c r="M44" s="394"/>
       <c r="Q44" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="420" t="s">
+      <c r="B47" s="460" t="s">
         <v>1084</v>
       </c>
-      <c r="C47" s="420"/>
-      <c r="D47" s="420"/>
-      <c r="E47" s="420"/>
-      <c r="F47" s="420"/>
-      <c r="G47" s="420"/>
-      <c r="H47" s="420"/>
-      <c r="I47" s="420"/>
-      <c r="J47" s="420"/>
-      <c r="K47" s="420"/>
-      <c r="L47" s="420"/>
-      <c r="M47" s="420"/>
-      <c r="N47" s="420"/>
-      <c r="O47" s="420"/>
-      <c r="P47" s="420"/>
-      <c r="Q47" s="420"/>
-      <c r="R47" s="420"/>
-      <c r="S47" s="420"/>
-      <c r="T47" s="420"/>
-      <c r="U47" s="420"/>
-      <c r="V47" s="420"/>
+      <c r="C47" s="460"/>
+      <c r="D47" s="460"/>
+      <c r="E47" s="460"/>
+      <c r="F47" s="460"/>
+      <c r="G47" s="460"/>
+      <c r="H47" s="460"/>
+      <c r="I47" s="460"/>
+      <c r="J47" s="460"/>
+      <c r="K47" s="460"/>
+      <c r="L47" s="460"/>
+      <c r="M47" s="460"/>
+      <c r="N47" s="460"/>
+      <c r="O47" s="460"/>
+      <c r="P47" s="460"/>
+      <c r="Q47" s="460"/>
+      <c r="R47" s="460"/>
+      <c r="S47" s="460"/>
+      <c r="T47" s="460"/>
+      <c r="U47" s="460"/>
+      <c r="V47" s="460"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="421" t="s">
+      <c r="C48" s="461" t="s">
         <v>570</v>
       </c>
-      <c r="D48" s="421"/>
-      <c r="E48" s="421"/>
-      <c r="F48" s="421"/>
-      <c r="G48" s="421"/>
-      <c r="H48" s="421"/>
-      <c r="I48" s="421"/>
-      <c r="J48" s="421"/>
-      <c r="K48" s="421"/>
-      <c r="L48" s="421"/>
-      <c r="M48" s="421"/>
+      <c r="D48" s="461"/>
+      <c r="E48" s="461"/>
+      <c r="F48" s="461"/>
+      <c r="G48" s="461"/>
+      <c r="H48" s="461"/>
+      <c r="I48" s="461"/>
+      <c r="J48" s="461"/>
+      <c r="K48" s="461"/>
+      <c r="L48" s="461"/>
+      <c r="M48" s="461"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="391" t="s">
+      <c r="E49" s="413" t="s">
         <v>177</v>
       </c>
-      <c r="F49" s="344"/>
-      <c r="G49" s="344"/>
-      <c r="H49" s="353"/>
-      <c r="I49" s="353"/>
-      <c r="J49" s="353"/>
-      <c r="K49" s="353"/>
-      <c r="L49" s="353"/>
-      <c r="M49" s="354"/>
+      <c r="F49" s="365"/>
+      <c r="G49" s="365"/>
+      <c r="H49" s="384"/>
+      <c r="I49" s="384"/>
+      <c r="J49" s="384"/>
+      <c r="K49" s="384"/>
+      <c r="L49" s="384"/>
+      <c r="M49" s="385"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -21212,16 +21357,16 @@
       </c>
       <c r="F50" s="122"/>
       <c r="G50" s="250"/>
-      <c r="H50" s="424" t="s">
+      <c r="H50" s="463" t="s">
         <v>1087</v>
       </c>
-      <c r="I50" s="425"/>
-      <c r="J50" s="426"/>
-      <c r="K50" s="424" t="s">
+      <c r="I50" s="464"/>
+      <c r="J50" s="465"/>
+      <c r="K50" s="463" t="s">
         <v>1088</v>
       </c>
-      <c r="L50" s="425"/>
-      <c r="M50" s="426"/>
+      <c r="L50" s="464"/>
+      <c r="M50" s="465"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -21235,20 +21380,20 @@
         <v>1102</v>
       </c>
       <c r="F51" s="291"/>
-      <c r="G51" s="427" t="s">
+      <c r="G51" s="469" t="s">
         <v>1110</v>
       </c>
-      <c r="H51" s="417"/>
-      <c r="I51" s="418"/>
-      <c r="J51" s="419"/>
-      <c r="K51" s="417"/>
-      <c r="L51" s="418"/>
-      <c r="M51" s="419"/>
-      <c r="O51" s="422" t="s">
+      <c r="H51" s="466"/>
+      <c r="I51" s="467"/>
+      <c r="J51" s="468"/>
+      <c r="K51" s="466"/>
+      <c r="L51" s="467"/>
+      <c r="M51" s="468"/>
+      <c r="O51" s="462" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="422"/>
-      <c r="Q51" s="422"/>
+      <c r="P51" s="462"/>
+      <c r="Q51" s="462"/>
       <c r="S51" s="278"/>
       <c r="T51" s="278"/>
       <c r="W51" s="40" t="s">
@@ -21262,13 +21407,13 @@
         <v>1103</v>
       </c>
       <c r="F52" s="292"/>
-      <c r="G52" s="427"/>
-      <c r="H52" s="417"/>
-      <c r="I52" s="418"/>
-      <c r="J52" s="419"/>
-      <c r="K52" s="417"/>
-      <c r="L52" s="418"/>
-      <c r="M52" s="419"/>
+      <c r="G52" s="469"/>
+      <c r="H52" s="466"/>
+      <c r="I52" s="467"/>
+      <c r="J52" s="468"/>
+      <c r="K52" s="466"/>
+      <c r="L52" s="467"/>
+      <c r="M52" s="468"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -21279,13 +21424,13 @@
         <v>1104</v>
       </c>
       <c r="F53" s="293"/>
-      <c r="G53" s="427"/>
-      <c r="H53" s="417"/>
-      <c r="I53" s="418"/>
-      <c r="J53" s="419"/>
-      <c r="K53" s="417"/>
-      <c r="L53" s="418"/>
-      <c r="M53" s="419"/>
+      <c r="G53" s="469"/>
+      <c r="H53" s="466"/>
+      <c r="I53" s="467"/>
+      <c r="J53" s="468"/>
+      <c r="K53" s="466"/>
+      <c r="L53" s="467"/>
+      <c r="M53" s="468"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>181</v>
@@ -21324,7 +21469,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="279"/>
       <c r="F54" s="294"/>
-      <c r="G54" s="415" t="s">
+      <c r="G54" s="475" t="s">
         <v>1114</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -21371,11 +21516,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="413" t="s">
+      <c r="E55" s="473" t="s">
         <v>1115</v>
       </c>
-      <c r="F55" s="414"/>
-      <c r="G55" s="416"/>
+      <c r="F55" s="474"/>
+      <c r="G55" s="476"/>
       <c r="H55" s="141" t="s">
         <v>1106</v>
       </c>
@@ -21419,9 +21564,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="413"/>
-      <c r="F56" s="414"/>
-      <c r="G56" s="416"/>
+      <c r="E56" s="473"/>
+      <c r="F56" s="474"/>
+      <c r="G56" s="476"/>
       <c r="H56" s="141" t="s">
         <v>1107</v>
       </c>
@@ -21451,9 +21596,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="413"/>
-      <c r="F57" s="414"/>
-      <c r="G57" s="416"/>
+      <c r="E57" s="473"/>
+      <c r="F57" s="474"/>
+      <c r="G57" s="476"/>
       <c r="H57" s="4" t="s">
         <v>1119</v>
       </c>
@@ -21483,9 +21628,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="413"/>
-      <c r="F58" s="414"/>
-      <c r="G58" s="416"/>
+      <c r="E58" s="473"/>
+      <c r="F58" s="474"/>
+      <c r="G58" s="476"/>
       <c r="H58" s="283" t="s">
         <v>1105</v>
       </c>
@@ -21510,9 +21655,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="413"/>
-      <c r="F59" s="414"/>
-      <c r="G59" s="416"/>
+      <c r="E59" s="473"/>
+      <c r="F59" s="474"/>
+      <c r="G59" s="476"/>
       <c r="H59" s="283" t="s">
         <v>549</v>
       </c>
@@ -21537,9 +21682,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="413"/>
-      <c r="F60" s="414"/>
-      <c r="G60" s="416"/>
+      <c r="E60" s="473"/>
+      <c r="F60" s="474"/>
+      <c r="G60" s="476"/>
       <c r="H60" s="285"/>
       <c r="I60" s="286" t="s">
         <v>1121</v>
@@ -21559,9 +21704,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="413"/>
-      <c r="F61" s="414"/>
-      <c r="G61" s="416"/>
+      <c r="E61" s="473"/>
+      <c r="F61" s="474"/>
+      <c r="G61" s="476"/>
       <c r="H61" s="285"/>
       <c r="I61" s="286" t="s">
         <v>1122</v>
@@ -21581,7 +21726,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="274"/>
       <c r="F62" s="290"/>
-      <c r="G62" s="416"/>
+      <c r="G62" s="476"/>
       <c r="H62" s="287"/>
       <c r="I62" s="289" t="s">
         <v>1123</v>
@@ -21623,15 +21768,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="410"/>
-      <c r="F64" s="411"/>
-      <c r="G64" s="411"/>
-      <c r="H64" s="411"/>
-      <c r="I64" s="411"/>
-      <c r="J64" s="411"/>
-      <c r="K64" s="411"/>
-      <c r="L64" s="411"/>
-      <c r="M64" s="412"/>
+      <c r="E64" s="470"/>
+      <c r="F64" s="471"/>
+      <c r="G64" s="471"/>
+      <c r="H64" s="471"/>
+      <c r="I64" s="471"/>
+      <c r="J64" s="471"/>
+      <c r="K64" s="471"/>
+      <c r="L64" s="471"/>
+      <c r="M64" s="472"/>
       <c r="N64" s="40" t="s">
         <v>575</v>
       </c>
@@ -21660,23 +21805,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="364" t="s">
+      <c r="C66" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="365"/>
-      <c r="E66" s="364" t="s">
+      <c r="D66" s="394"/>
+      <c r="E66" s="393" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="366"/>
-      <c r="G66" s="365"/>
-      <c r="H66" s="364" t="s">
+      <c r="F66" s="395"/>
+      <c r="G66" s="394"/>
+      <c r="H66" s="393" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="366"/>
-      <c r="J66" s="366"/>
-      <c r="K66" s="366"/>
-      <c r="L66" s="366"/>
-      <c r="M66" s="365"/>
+      <c r="I66" s="395"/>
+      <c r="J66" s="395"/>
+      <c r="K66" s="395"/>
+      <c r="L66" s="395"/>
+      <c r="M66" s="394"/>
       <c r="Q66" t="s">
         <v>1085</v>
       </c>
@@ -21697,23 +21842,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="395" t="s">
+      <c r="C68" s="424" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="395"/>
-      <c r="E68" s="395" t="s">
+      <c r="D68" s="424"/>
+      <c r="E68" s="424" t="s">
         <v>1371</v>
       </c>
-      <c r="F68" s="395"/>
-      <c r="G68" s="395"/>
-      <c r="H68" s="395" t="s">
+      <c r="F68" s="424"/>
+      <c r="G68" s="424"/>
+      <c r="H68" s="424" t="s">
         <v>1387</v>
       </c>
-      <c r="I68" s="395"/>
-      <c r="J68" s="395"/>
-      <c r="K68" s="395"/>
-      <c r="L68" s="395"/>
-      <c r="M68" s="395"/>
+      <c r="I68" s="424"/>
+      <c r="J68" s="424"/>
+      <c r="K68" s="424"/>
+      <c r="L68" s="424"/>
+      <c r="M68" s="424"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -22510,6 +22655,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -22526,30 +22695,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -22583,12 +22728,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="448" t="s">
+      <c r="B1" s="477" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="448"/>
-      <c r="D1" s="448"/>
-      <c r="E1" s="448"/>
+      <c r="C1" s="477"/>
+      <c r="D1" s="477"/>
+      <c r="E1" s="477"/>
       <c r="I1" s="40" t="s">
         <v>551</v>
       </c>
@@ -22705,12 +22850,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="390" t="s">
+      <c r="B8" s="423" t="s">
         <v>1409</v>
       </c>
-      <c r="C8" s="390"/>
-      <c r="D8" s="390"/>
-      <c r="E8" s="390"/>
+      <c r="C8" s="423"/>
+      <c r="D8" s="423"/>
+      <c r="E8" s="423"/>
       <c r="J8" s="32" t="s">
         <v>554</v>
       </c>
@@ -22883,32 +23028,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="421" t="s">
+      <c r="C2" s="461" t="s">
         <v>570</v>
       </c>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
+      <c r="D2" s="461"/>
+      <c r="E2" s="461"/>
+      <c r="F2" s="461"/>
+      <c r="G2" s="461"/>
+      <c r="H2" s="461"/>
+      <c r="I2" s="461"/>
+      <c r="J2" s="461"/>
+      <c r="K2" s="461"/>
+      <c r="L2" s="461"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="391" t="s">
+      <c r="E3" s="413" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="344"/>
-      <c r="G3" s="353"/>
-      <c r="H3" s="353"/>
-      <c r="I3" s="353"/>
-      <c r="J3" s="353"/>
-      <c r="K3" s="353"/>
-      <c r="L3" s="354"/>
+      <c r="F3" s="365"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="384"/>
+      <c r="I3" s="384"/>
+      <c r="J3" s="384"/>
+      <c r="K3" s="384"/>
+      <c r="L3" s="385"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -22939,11 +23084,11 @@
         <v>589</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="422" t="s">
+      <c r="N5" s="462" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="422"/>
-      <c r="P5" s="422"/>
+      <c r="O5" s="462"/>
+      <c r="P5" s="462"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -22994,20 +23139,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="417" t="s">
+      <c r="E8" s="466" t="s">
         <v>571</v>
       </c>
-      <c r="F8" s="419"/>
-      <c r="G8" s="417" t="s">
+      <c r="F8" s="468"/>
+      <c r="G8" s="466" t="s">
         <v>572</v>
       </c>
-      <c r="H8" s="418"/>
-      <c r="I8" s="419"/>
-      <c r="J8" s="417" t="s">
+      <c r="H8" s="467"/>
+      <c r="I8" s="468"/>
+      <c r="J8" s="466" t="s">
         <v>573</v>
       </c>
-      <c r="K8" s="418"/>
-      <c r="L8" s="419"/>
+      <c r="K8" s="467"/>
+      <c r="L8" s="468"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -23030,14 +23175,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="417"/>
-      <c r="F9" s="419"/>
-      <c r="G9" s="417"/>
-      <c r="H9" s="418"/>
-      <c r="I9" s="419"/>
-      <c r="J9" s="417"/>
-      <c r="K9" s="418"/>
-      <c r="L9" s="419"/>
+      <c r="E9" s="466"/>
+      <c r="F9" s="468"/>
+      <c r="G9" s="466"/>
+      <c r="H9" s="467"/>
+      <c r="I9" s="468"/>
+      <c r="J9" s="466"/>
+      <c r="K9" s="467"/>
+      <c r="L9" s="468"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -23057,14 +23202,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="417"/>
-      <c r="F10" s="419"/>
-      <c r="G10" s="417"/>
-      <c r="H10" s="418"/>
-      <c r="I10" s="419"/>
-      <c r="J10" s="417"/>
-      <c r="K10" s="418"/>
-      <c r="L10" s="419"/>
+      <c r="E10" s="466"/>
+      <c r="F10" s="468"/>
+      <c r="G10" s="466"/>
+      <c r="H10" s="467"/>
+      <c r="I10" s="468"/>
+      <c r="J10" s="466"/>
+      <c r="K10" s="467"/>
+      <c r="L10" s="468"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -23078,14 +23223,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="417"/>
-      <c r="F11" s="419"/>
-      <c r="G11" s="417"/>
-      <c r="H11" s="418"/>
-      <c r="I11" s="419"/>
-      <c r="J11" s="417"/>
-      <c r="K11" s="418"/>
-      <c r="L11" s="419"/>
+      <c r="E11" s="466"/>
+      <c r="F11" s="468"/>
+      <c r="G11" s="466"/>
+      <c r="H11" s="467"/>
+      <c r="I11" s="468"/>
+      <c r="J11" s="466"/>
+      <c r="K11" s="467"/>
+      <c r="L11" s="468"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -23188,16 +23333,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="410" t="s">
+      <c r="E17" s="470" t="s">
         <v>574</v>
       </c>
-      <c r="F17" s="411"/>
-      <c r="G17" s="411"/>
-      <c r="H17" s="411"/>
-      <c r="I17" s="411"/>
-      <c r="J17" s="411"/>
-      <c r="K17" s="411"/>
-      <c r="L17" s="412"/>
+      <c r="F17" s="471"/>
+      <c r="G17" s="471"/>
+      <c r="H17" s="471"/>
+      <c r="I17" s="471"/>
+      <c r="J17" s="471"/>
+      <c r="K17" s="471"/>
+      <c r="L17" s="472"/>
       <c r="M17" s="40" t="s">
         <v>575</v>
       </c>
@@ -23215,40 +23360,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="364" t="s">
+      <c r="C19" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="365"/>
-      <c r="E19" s="364" t="s">
+      <c r="D19" s="394"/>
+      <c r="E19" s="393" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="365"/>
-      <c r="G19" s="364" t="s">
+      <c r="F19" s="394"/>
+      <c r="G19" s="393" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="366"/>
-      <c r="I19" s="366"/>
-      <c r="J19" s="366"/>
-      <c r="K19" s="366"/>
-      <c r="L19" s="365"/>
+      <c r="H19" s="395"/>
+      <c r="I19" s="395"/>
+      <c r="J19" s="395"/>
+      <c r="K19" s="395"/>
+      <c r="L19" s="394"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="449" t="s">
+      <c r="E21" s="478" t="s">
         <v>1400</v>
       </c>
-      <c r="F21" s="450"/>
+      <c r="F21" s="479"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="451"/>
-      <c r="F22" s="452"/>
+      <c r="E22" s="480"/>
+      <c r="F22" s="481"/>
       <c r="J22" t="s">
         <v>1418</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="451"/>
-      <c r="F23" s="452"/>
+      <c r="E23" s="480"/>
+      <c r="F23" s="481"/>
       <c r="H23" t="s">
         <v>1421</v>
       </c>
@@ -23260,8 +23405,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="453"/>
-      <c r="F24" s="454"/>
+      <c r="E24" s="482"/>
+      <c r="F24" s="483"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -23716,22 +23861,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="423" t="s">
+      <c r="E3" s="439" t="s">
         <v>518</v>
       </c>
-      <c r="F3" s="423"/>
-      <c r="G3" s="423" t="s">
+      <c r="F3" s="439"/>
+      <c r="G3" s="439" t="s">
         <v>519</v>
       </c>
-      <c r="H3" s="423"/>
-      <c r="I3" s="423"/>
-      <c r="J3" s="423"/>
-      <c r="K3" s="423"/>
-      <c r="L3" s="423"/>
-      <c r="M3" s="423" t="s">
+      <c r="H3" s="439"/>
+      <c r="I3" s="439"/>
+      <c r="J3" s="439"/>
+      <c r="K3" s="439"/>
+      <c r="L3" s="439"/>
+      <c r="M3" s="439" t="s">
         <v>520</v>
       </c>
-      <c r="N3" s="423"/>
+      <c r="N3" s="439"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -23742,7 +23887,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="428" t="s">
+      <c r="E4" s="440" t="s">
         <v>521</v>
       </c>
       <c r="F4" s="131"/>
@@ -23770,22 +23915,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="429"/>
-      <c r="F5" s="369" t="s">
+      <c r="E5" s="441"/>
+      <c r="F5" s="398" t="s">
         <v>617</v>
       </c>
-      <c r="G5" s="370"/>
-      <c r="H5" s="371"/>
-      <c r="I5" s="455" t="s">
+      <c r="G5" s="399"/>
+      <c r="H5" s="400"/>
+      <c r="I5" s="514" t="s">
         <v>618</v>
       </c>
-      <c r="J5" s="456"/>
-      <c r="K5" s="456"/>
-      <c r="L5" s="437"/>
-      <c r="M5" s="455" t="s">
+      <c r="J5" s="515"/>
+      <c r="K5" s="515"/>
+      <c r="L5" s="449"/>
+      <c r="M5" s="514" t="s">
         <v>619</v>
       </c>
-      <c r="N5" s="437"/>
+      <c r="N5" s="449"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -23796,16 +23941,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="429"/>
-      <c r="F6" s="372"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
-      <c r="I6" s="438"/>
-      <c r="J6" s="457"/>
-      <c r="K6" s="457"/>
-      <c r="L6" s="439"/>
-      <c r="M6" s="438"/>
-      <c r="N6" s="439"/>
+      <c r="E6" s="441"/>
+      <c r="F6" s="401"/>
+      <c r="G6" s="402"/>
+      <c r="H6" s="403"/>
+      <c r="I6" s="450"/>
+      <c r="J6" s="516"/>
+      <c r="K6" s="516"/>
+      <c r="L6" s="451"/>
+      <c r="M6" s="450"/>
+      <c r="N6" s="451"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>181</v>
@@ -23822,16 +23967,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="429"/>
-      <c r="F7" s="372"/>
-      <c r="G7" s="373"/>
-      <c r="H7" s="374"/>
-      <c r="I7" s="438"/>
-      <c r="J7" s="457"/>
-      <c r="K7" s="457"/>
-      <c r="L7" s="439"/>
-      <c r="M7" s="438"/>
-      <c r="N7" s="439"/>
+      <c r="E7" s="441"/>
+      <c r="F7" s="401"/>
+      <c r="G7" s="402"/>
+      <c r="H7" s="403"/>
+      <c r="I7" s="450"/>
+      <c r="J7" s="516"/>
+      <c r="K7" s="516"/>
+      <c r="L7" s="451"/>
+      <c r="M7" s="450"/>
+      <c r="N7" s="451"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -23850,16 +23995,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="429"/>
-      <c r="F8" s="372"/>
-      <c r="G8" s="373"/>
-      <c r="H8" s="374"/>
-      <c r="I8" s="438"/>
-      <c r="J8" s="457"/>
-      <c r="K8" s="457"/>
-      <c r="L8" s="439"/>
-      <c r="M8" s="438"/>
-      <c r="N8" s="439"/>
+      <c r="E8" s="441"/>
+      <c r="F8" s="401"/>
+      <c r="G8" s="402"/>
+      <c r="H8" s="403"/>
+      <c r="I8" s="450"/>
+      <c r="J8" s="516"/>
+      <c r="K8" s="516"/>
+      <c r="L8" s="451"/>
+      <c r="M8" s="450"/>
+      <c r="N8" s="451"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -23880,16 +24025,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="429"/>
-      <c r="F9" s="372"/>
-      <c r="G9" s="373"/>
-      <c r="H9" s="374"/>
-      <c r="I9" s="438"/>
-      <c r="J9" s="457"/>
-      <c r="K9" s="457"/>
-      <c r="L9" s="439"/>
-      <c r="M9" s="438"/>
-      <c r="N9" s="439"/>
+      <c r="E9" s="441"/>
+      <c r="F9" s="401"/>
+      <c r="G9" s="402"/>
+      <c r="H9" s="403"/>
+      <c r="I9" s="450"/>
+      <c r="J9" s="516"/>
+      <c r="K9" s="516"/>
+      <c r="L9" s="451"/>
+      <c r="M9" s="450"/>
+      <c r="N9" s="451"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -23906,16 +24051,16 @@
         <v>537</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="429"/>
-      <c r="F10" s="372"/>
-      <c r="G10" s="373"/>
-      <c r="H10" s="374"/>
-      <c r="I10" s="438"/>
-      <c r="J10" s="457"/>
-      <c r="K10" s="457"/>
-      <c r="L10" s="439"/>
-      <c r="M10" s="438"/>
-      <c r="N10" s="439"/>
+      <c r="E10" s="441"/>
+      <c r="F10" s="401"/>
+      <c r="G10" s="402"/>
+      <c r="H10" s="403"/>
+      <c r="I10" s="450"/>
+      <c r="J10" s="516"/>
+      <c r="K10" s="516"/>
+      <c r="L10" s="451"/>
+      <c r="M10" s="450"/>
+      <c r="N10" s="451"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -23928,16 +24073,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="429"/>
-      <c r="F11" s="372"/>
-      <c r="G11" s="373"/>
-      <c r="H11" s="374"/>
-      <c r="I11" s="438"/>
-      <c r="J11" s="457"/>
-      <c r="K11" s="457"/>
-      <c r="L11" s="439"/>
-      <c r="M11" s="438"/>
-      <c r="N11" s="439"/>
+      <c r="E11" s="441"/>
+      <c r="F11" s="401"/>
+      <c r="G11" s="402"/>
+      <c r="H11" s="403"/>
+      <c r="I11" s="450"/>
+      <c r="J11" s="516"/>
+      <c r="K11" s="516"/>
+      <c r="L11" s="451"/>
+      <c r="M11" s="450"/>
+      <c r="N11" s="451"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -23948,16 +24093,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="429"/>
-      <c r="F12" s="372"/>
-      <c r="G12" s="373"/>
-      <c r="H12" s="374"/>
-      <c r="I12" s="438"/>
-      <c r="J12" s="457"/>
-      <c r="K12" s="457"/>
-      <c r="L12" s="439"/>
-      <c r="M12" s="438"/>
-      <c r="N12" s="439"/>
+      <c r="E12" s="441"/>
+      <c r="F12" s="401"/>
+      <c r="G12" s="402"/>
+      <c r="H12" s="403"/>
+      <c r="I12" s="450"/>
+      <c r="J12" s="516"/>
+      <c r="K12" s="516"/>
+      <c r="L12" s="451"/>
+      <c r="M12" s="450"/>
+      <c r="N12" s="451"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -23970,16 +24115,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="429"/>
-      <c r="F13" s="372"/>
-      <c r="G13" s="373"/>
-      <c r="H13" s="374"/>
-      <c r="I13" s="438"/>
-      <c r="J13" s="457"/>
-      <c r="K13" s="457"/>
-      <c r="L13" s="439"/>
-      <c r="M13" s="438"/>
-      <c r="N13" s="439"/>
+      <c r="E13" s="441"/>
+      <c r="F13" s="401"/>
+      <c r="G13" s="402"/>
+      <c r="H13" s="403"/>
+      <c r="I13" s="450"/>
+      <c r="J13" s="516"/>
+      <c r="K13" s="516"/>
+      <c r="L13" s="451"/>
+      <c r="M13" s="450"/>
+      <c r="N13" s="451"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -23990,16 +24135,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="429"/>
-      <c r="F14" s="372"/>
-      <c r="G14" s="373"/>
-      <c r="H14" s="374"/>
-      <c r="I14" s="438"/>
-      <c r="J14" s="457"/>
-      <c r="K14" s="457"/>
-      <c r="L14" s="439"/>
-      <c r="M14" s="438"/>
-      <c r="N14" s="439"/>
+      <c r="E14" s="441"/>
+      <c r="F14" s="401"/>
+      <c r="G14" s="402"/>
+      <c r="H14" s="403"/>
+      <c r="I14" s="450"/>
+      <c r="J14" s="516"/>
+      <c r="K14" s="516"/>
+      <c r="L14" s="451"/>
+      <c r="M14" s="450"/>
+      <c r="N14" s="451"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -24010,16 +24155,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="429"/>
-      <c r="F15" s="372"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="438"/>
-      <c r="J15" s="457"/>
-      <c r="K15" s="457"/>
-      <c r="L15" s="439"/>
-      <c r="M15" s="438"/>
-      <c r="N15" s="439"/>
+      <c r="E15" s="441"/>
+      <c r="F15" s="401"/>
+      <c r="G15" s="402"/>
+      <c r="H15" s="403"/>
+      <c r="I15" s="450"/>
+      <c r="J15" s="516"/>
+      <c r="K15" s="516"/>
+      <c r="L15" s="451"/>
+      <c r="M15" s="450"/>
+      <c r="N15" s="451"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -24030,16 +24175,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="429"/>
-      <c r="F16" s="372"/>
-      <c r="G16" s="373"/>
-      <c r="H16" s="374"/>
-      <c r="I16" s="438"/>
-      <c r="J16" s="457"/>
-      <c r="K16" s="457"/>
-      <c r="L16" s="439"/>
-      <c r="M16" s="438"/>
-      <c r="N16" s="439"/>
+      <c r="E16" s="441"/>
+      <c r="F16" s="401"/>
+      <c r="G16" s="402"/>
+      <c r="H16" s="403"/>
+      <c r="I16" s="450"/>
+      <c r="J16" s="516"/>
+      <c r="K16" s="516"/>
+      <c r="L16" s="451"/>
+      <c r="M16" s="450"/>
+      <c r="N16" s="451"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -24052,16 +24197,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="429"/>
-      <c r="F17" s="372"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="374"/>
-      <c r="I17" s="438"/>
-      <c r="J17" s="457"/>
-      <c r="K17" s="457"/>
-      <c r="L17" s="439"/>
-      <c r="M17" s="438"/>
-      <c r="N17" s="439"/>
+      <c r="E17" s="441"/>
+      <c r="F17" s="401"/>
+      <c r="G17" s="402"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="450"/>
+      <c r="J17" s="516"/>
+      <c r="K17" s="516"/>
+      <c r="L17" s="451"/>
+      <c r="M17" s="450"/>
+      <c r="N17" s="451"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -24072,16 +24217,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="430"/>
-      <c r="F18" s="375"/>
-      <c r="G18" s="376"/>
-      <c r="H18" s="377"/>
-      <c r="I18" s="440"/>
-      <c r="J18" s="458"/>
-      <c r="K18" s="458"/>
-      <c r="L18" s="441"/>
-      <c r="M18" s="440"/>
-      <c r="N18" s="441"/>
+      <c r="E18" s="442"/>
+      <c r="F18" s="404"/>
+      <c r="G18" s="405"/>
+      <c r="H18" s="406"/>
+      <c r="I18" s="452"/>
+      <c r="J18" s="517"/>
+      <c r="K18" s="517"/>
+      <c r="L18" s="453"/>
+      <c r="M18" s="452"/>
+      <c r="N18" s="453"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -24110,26 +24255,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="364" t="s">
+      <c r="C20" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="365"/>
+      <c r="D20" s="394"/>
       <c r="E20" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="364" t="s">
+      <c r="F20" s="393" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="366"/>
-      <c r="H20" s="366"/>
-      <c r="I20" s="366"/>
-      <c r="J20" s="366"/>
-      <c r="K20" s="366"/>
-      <c r="L20" s="365"/>
-      <c r="M20" s="364" t="s">
+      <c r="G20" s="395"/>
+      <c r="H20" s="395"/>
+      <c r="I20" s="395"/>
+      <c r="J20" s="395"/>
+      <c r="K20" s="395"/>
+      <c r="L20" s="394"/>
+      <c r="M20" s="393" t="s">
         <v>528</v>
       </c>
-      <c r="N20" s="365"/>
+      <c r="N20" s="394"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -24157,39 +24302,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="422" t="s">
+      <c r="B24" s="462" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="422"/>
-      <c r="D24" s="421"/>
-      <c r="E24" s="421"/>
-      <c r="F24" s="421"/>
-      <c r="G24" s="421"/>
-      <c r="H24" s="421"/>
-      <c r="I24" s="421"/>
-      <c r="J24" s="421"/>
-      <c r="K24" s="421"/>
-      <c r="M24" s="476" t="s">
+      <c r="C24" s="462"/>
+      <c r="D24" s="461"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="461"/>
+      <c r="G24" s="461"/>
+      <c r="H24" s="461"/>
+      <c r="I24" s="461"/>
+      <c r="J24" s="461"/>
+      <c r="K24" s="461"/>
+      <c r="M24" s="484" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="476"/>
-      <c r="O24" s="476"/>
+      <c r="N24" s="484"/>
+      <c r="O24" s="484"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="477" t="s">
+      <c r="B25" s="485" t="s">
         <v>921</v>
       </c>
-      <c r="C25" s="399"/>
-      <c r="D25" s="353" t="s">
+      <c r="C25" s="427"/>
+      <c r="D25" s="384" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="353"/>
-      <c r="F25" s="353"/>
-      <c r="G25" s="353"/>
-      <c r="H25" s="353"/>
-      <c r="I25" s="353"/>
-      <c r="J25" s="353"/>
-      <c r="K25" s="354"/>
+      <c r="E25" s="384"/>
+      <c r="F25" s="384"/>
+      <c r="G25" s="384"/>
+      <c r="H25" s="384"/>
+      <c r="I25" s="384"/>
+      <c r="J25" s="384"/>
+      <c r="K25" s="385"/>
       <c r="M25" s="38" t="s">
         <v>181</v>
       </c>
@@ -24201,22 +24346,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="400"/>
-      <c r="C26" s="401"/>
-      <c r="D26" s="398" t="s">
+      <c r="B26" s="428"/>
+      <c r="C26" s="429"/>
+      <c r="D26" s="426" t="s">
         <v>914</v>
       </c>
-      <c r="E26" s="399"/>
-      <c r="F26" s="471" t="s">
+      <c r="E26" s="427"/>
+      <c r="F26" s="512" t="s">
         <v>914</v>
       </c>
-      <c r="G26" s="353"/>
-      <c r="H26" s="354"/>
-      <c r="I26" s="352" t="s">
+      <c r="G26" s="384"/>
+      <c r="H26" s="385"/>
+      <c r="I26" s="383" t="s">
         <v>918</v>
       </c>
-      <c r="J26" s="353"/>
-      <c r="K26" s="354"/>
+      <c r="J26" s="384"/>
+      <c r="K26" s="385"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -24231,22 +24376,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="400"/>
-      <c r="C27" s="401"/>
-      <c r="D27" s="390" t="s">
+      <c r="B27" s="428"/>
+      <c r="C27" s="429"/>
+      <c r="D27" s="423" t="s">
         <v>919</v>
       </c>
-      <c r="E27" s="401"/>
-      <c r="F27" s="400" t="s">
+      <c r="E27" s="429"/>
+      <c r="F27" s="428" t="s">
         <v>915</v>
       </c>
-      <c r="G27" s="390"/>
-      <c r="H27" s="351"/>
-      <c r="I27" s="475" t="s">
+      <c r="G27" s="423"/>
+      <c r="H27" s="496"/>
+      <c r="I27" s="495" t="s">
         <v>919</v>
       </c>
-      <c r="J27" s="390"/>
-      <c r="K27" s="351"/>
+      <c r="J27" s="423"/>
+      <c r="K27" s="496"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -24261,22 +24406,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="400"/>
-      <c r="C28" s="401"/>
-      <c r="D28" s="390" t="s">
+      <c r="B28" s="428"/>
+      <c r="C28" s="429"/>
+      <c r="D28" s="423" t="s">
         <v>916</v>
       </c>
-      <c r="E28" s="401"/>
-      <c r="F28" s="400" t="s">
+      <c r="E28" s="429"/>
+      <c r="F28" s="428" t="s">
         <v>916</v>
       </c>
-      <c r="G28" s="390"/>
-      <c r="H28" s="351"/>
-      <c r="I28" s="475" t="s">
+      <c r="G28" s="423"/>
+      <c r="H28" s="496"/>
+      <c r="I28" s="495" t="s">
         <v>916</v>
       </c>
-      <c r="J28" s="390"/>
-      <c r="K28" s="351"/>
+      <c r="J28" s="423"/>
+      <c r="K28" s="496"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -24285,22 +24430,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="402"/>
-      <c r="C29" s="403"/>
-      <c r="D29" s="390" t="s">
+      <c r="B29" s="430"/>
+      <c r="C29" s="431"/>
+      <c r="D29" s="423" t="s">
         <v>917</v>
       </c>
-      <c r="E29" s="401"/>
-      <c r="F29" s="472" t="s">
+      <c r="E29" s="429"/>
+      <c r="F29" s="513" t="s">
         <v>917</v>
       </c>
-      <c r="G29" s="473"/>
-      <c r="H29" s="474"/>
-      <c r="I29" s="487" t="s">
+      <c r="G29" s="498"/>
+      <c r="H29" s="499"/>
+      <c r="I29" s="497" t="s">
         <v>917</v>
       </c>
-      <c r="J29" s="473"/>
-      <c r="K29" s="474"/>
+      <c r="J29" s="498"/>
+      <c r="K29" s="499"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -24309,149 +24454,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="355" t="s">
+      <c r="B30" s="386" t="s">
         <v>920</v>
       </c>
-      <c r="C30" s="357"/>
-      <c r="D30" s="459" t="s">
+      <c r="C30" s="388"/>
+      <c r="D30" s="500" t="s">
         <v>571</v>
       </c>
-      <c r="E30" s="460"/>
-      <c r="F30" s="464" t="s">
+      <c r="E30" s="501"/>
+      <c r="F30" s="505" t="s">
         <v>572</v>
       </c>
-      <c r="G30" s="465"/>
-      <c r="H30" s="460"/>
-      <c r="I30" s="464" t="s">
+      <c r="G30" s="506"/>
+      <c r="H30" s="501"/>
+      <c r="I30" s="505" t="s">
         <v>573</v>
       </c>
-      <c r="J30" s="465"/>
-      <c r="K30" s="468"/>
+      <c r="J30" s="506"/>
+      <c r="K30" s="509"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="359"/>
-      <c r="C31" s="360"/>
-      <c r="D31" s="461"/>
-      <c r="E31" s="419"/>
-      <c r="F31" s="417"/>
-      <c r="G31" s="418"/>
-      <c r="H31" s="419"/>
-      <c r="I31" s="417"/>
-      <c r="J31" s="418"/>
-      <c r="K31" s="469"/>
+      <c r="B31" s="370"/>
+      <c r="C31" s="375"/>
+      <c r="D31" s="502"/>
+      <c r="E31" s="468"/>
+      <c r="F31" s="466"/>
+      <c r="G31" s="467"/>
+      <c r="H31" s="468"/>
+      <c r="I31" s="466"/>
+      <c r="J31" s="467"/>
+      <c r="K31" s="510"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="359"/>
-      <c r="C32" s="360"/>
-      <c r="D32" s="461"/>
-      <c r="E32" s="419"/>
-      <c r="F32" s="417"/>
-      <c r="G32" s="418"/>
-      <c r="H32" s="419"/>
-      <c r="I32" s="417"/>
-      <c r="J32" s="418"/>
-      <c r="K32" s="469"/>
+      <c r="B32" s="370"/>
+      <c r="C32" s="375"/>
+      <c r="D32" s="502"/>
+      <c r="E32" s="468"/>
+      <c r="F32" s="466"/>
+      <c r="G32" s="467"/>
+      <c r="H32" s="468"/>
+      <c r="I32" s="466"/>
+      <c r="J32" s="467"/>
+      <c r="K32" s="510"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="359"/>
-      <c r="C33" s="360"/>
-      <c r="D33" s="462"/>
-      <c r="E33" s="463"/>
-      <c r="F33" s="466"/>
-      <c r="G33" s="467"/>
-      <c r="H33" s="463"/>
-      <c r="I33" s="466"/>
-      <c r="J33" s="467"/>
-      <c r="K33" s="470"/>
+      <c r="B33" s="370"/>
+      <c r="C33" s="375"/>
+      <c r="D33" s="503"/>
+      <c r="E33" s="504"/>
+      <c r="F33" s="507"/>
+      <c r="G33" s="508"/>
+      <c r="H33" s="504"/>
+      <c r="I33" s="507"/>
+      <c r="J33" s="508"/>
+      <c r="K33" s="511"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="359"/>
-      <c r="C34" s="347"/>
-      <c r="D34" s="478" t="s">
+      <c r="B34" s="370"/>
+      <c r="C34" s="372"/>
+      <c r="D34" s="486" t="s">
         <v>907</v>
       </c>
-      <c r="E34" s="479"/>
-      <c r="F34" s="478" t="s">
+      <c r="E34" s="487"/>
+      <c r="F34" s="486" t="s">
         <v>593</v>
       </c>
-      <c r="G34" s="484"/>
-      <c r="H34" s="479"/>
-      <c r="I34" s="478" t="s">
+      <c r="G34" s="492"/>
+      <c r="H34" s="487"/>
+      <c r="I34" s="486" t="s">
         <v>922</v>
       </c>
-      <c r="J34" s="484"/>
-      <c r="K34" s="479"/>
+      <c r="J34" s="492"/>
+      <c r="K34" s="487"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="359"/>
-      <c r="C35" s="347"/>
-      <c r="D35" s="480"/>
-      <c r="E35" s="481"/>
-      <c r="F35" s="480"/>
-      <c r="G35" s="485"/>
-      <c r="H35" s="481"/>
-      <c r="I35" s="480"/>
-      <c r="J35" s="485"/>
-      <c r="K35" s="481"/>
+      <c r="B35" s="370"/>
+      <c r="C35" s="372"/>
+      <c r="D35" s="488"/>
+      <c r="E35" s="489"/>
+      <c r="F35" s="488"/>
+      <c r="G35" s="493"/>
+      <c r="H35" s="489"/>
+      <c r="I35" s="488"/>
+      <c r="J35" s="493"/>
+      <c r="K35" s="489"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="359"/>
-      <c r="C36" s="347"/>
-      <c r="D36" s="480"/>
-      <c r="E36" s="481"/>
-      <c r="F36" s="480"/>
-      <c r="G36" s="485"/>
-      <c r="H36" s="481"/>
-      <c r="I36" s="480"/>
-      <c r="J36" s="485"/>
-      <c r="K36" s="481"/>
+      <c r="B36" s="370"/>
+      <c r="C36" s="372"/>
+      <c r="D36" s="488"/>
+      <c r="E36" s="489"/>
+      <c r="F36" s="488"/>
+      <c r="G36" s="493"/>
+      <c r="H36" s="489"/>
+      <c r="I36" s="488"/>
+      <c r="J36" s="493"/>
+      <c r="K36" s="489"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="359"/>
-      <c r="C37" s="347"/>
-      <c r="D37" s="480"/>
-      <c r="E37" s="481"/>
-      <c r="F37" s="480"/>
-      <c r="G37" s="485"/>
-      <c r="H37" s="481"/>
-      <c r="I37" s="480"/>
-      <c r="J37" s="485"/>
-      <c r="K37" s="481"/>
+      <c r="B37" s="370"/>
+      <c r="C37" s="372"/>
+      <c r="D37" s="488"/>
+      <c r="E37" s="489"/>
+      <c r="F37" s="488"/>
+      <c r="G37" s="493"/>
+      <c r="H37" s="489"/>
+      <c r="I37" s="488"/>
+      <c r="J37" s="493"/>
+      <c r="K37" s="489"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="359"/>
-      <c r="C38" s="347"/>
-      <c r="D38" s="482"/>
-      <c r="E38" s="483"/>
-      <c r="F38" s="482"/>
-      <c r="G38" s="486"/>
-      <c r="H38" s="483"/>
-      <c r="I38" s="482"/>
-      <c r="J38" s="486"/>
-      <c r="K38" s="483"/>
+      <c r="B38" s="370"/>
+      <c r="C38" s="372"/>
+      <c r="D38" s="490"/>
+      <c r="E38" s="491"/>
+      <c r="F38" s="490"/>
+      <c r="G38" s="494"/>
+      <c r="H38" s="491"/>
+      <c r="I38" s="490"/>
+      <c r="J38" s="494"/>
+      <c r="K38" s="491"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="361"/>
-      <c r="C39" s="363"/>
-      <c r="D39" s="410" t="s">
+      <c r="B39" s="390"/>
+      <c r="C39" s="392"/>
+      <c r="D39" s="470" t="s">
         <v>574</v>
       </c>
-      <c r="E39" s="411"/>
-      <c r="F39" s="411"/>
-      <c r="G39" s="411"/>
-      <c r="H39" s="411"/>
-      <c r="I39" s="411"/>
-      <c r="J39" s="411"/>
-      <c r="K39" s="412"/>
+      <c r="E39" s="471"/>
+      <c r="F39" s="471"/>
+      <c r="G39" s="471"/>
+      <c r="H39" s="471"/>
+      <c r="I39" s="471"/>
+      <c r="J39" s="471"/>
+      <c r="K39" s="472"/>
       <c r="L39" s="40" t="s">
         <v>575</v>
       </c>
@@ -24469,36 +24614,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="364" t="s">
+      <c r="B41" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="365"/>
-      <c r="D41" s="364" t="s">
+      <c r="C41" s="394"/>
+      <c r="D41" s="393" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="365"/>
-      <c r="F41" s="364" t="s">
+      <c r="E41" s="394"/>
+      <c r="F41" s="393" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="366"/>
-      <c r="H41" s="366"/>
-      <c r="I41" s="366"/>
-      <c r="J41" s="366"/>
-      <c r="K41" s="365"/>
+      <c r="G41" s="395"/>
+      <c r="H41" s="395"/>
+      <c r="I41" s="395"/>
+      <c r="J41" s="395"/>
+      <c r="K41" s="394"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -24515,16 +24659,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -25086,13 +25231,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="343" t="s">
+      <c r="A5" s="364" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="344"/>
-      <c r="C5" s="344"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="345"/>
+      <c r="B5" s="365"/>
+      <c r="C5" s="365"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="366"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>149</v>
@@ -25657,8 +25802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:P218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25680,42 +25825,42 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1">
-      <c r="D5" s="488">
+      <c r="D5" s="343">
         <v>0.1</v>
       </c>
-      <c r="E5" s="488">
+      <c r="E5" s="343">
         <v>0.2</v>
       </c>
-      <c r="F5" s="488">
+      <c r="F5" s="343">
         <v>0.3</v>
       </c>
-      <c r="G5" s="488">
+      <c r="G5" s="343">
         <v>0.4</v>
       </c>
-      <c r="H5" s="488">
+      <c r="H5" s="343">
         <v>0.5</v>
       </c>
-      <c r="I5" s="488">
+      <c r="I5" s="343">
         <v>0.6</v>
       </c>
-      <c r="J5" s="488">
+      <c r="J5" s="343">
         <v>0.7</v>
       </c>
-      <c r="K5" s="488">
+      <c r="K5" s="343">
         <v>0.8</v>
       </c>
-      <c r="L5" s="488">
+      <c r="L5" s="343">
         <v>0.9</v>
       </c>
-      <c r="M5" s="488">
+      <c r="M5" s="343">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="488">
+      <c r="C6" s="343">
         <v>0.1</v>
       </c>
-      <c r="D6" s="489"/>
+      <c r="D6" s="344"/>
       <c r="E6" s="65"/>
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
@@ -25724,32 +25869,32 @@
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
-      <c r="M6" s="490"/>
-      <c r="N6" s="359" t="s">
+      <c r="M6" s="345"/>
+      <c r="N6" s="370" t="s">
         <v>1514</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C7" s="488">
+      <c r="C7" s="343">
         <v>0.2</v>
       </c>
-      <c r="D7" s="491"/>
-      <c r="E7" s="492"/>
-      <c r="F7" s="492"/>
-      <c r="G7" s="492"/>
-      <c r="H7" s="492"/>
-      <c r="I7" s="492"/>
-      <c r="J7" s="492"/>
-      <c r="K7" s="492"/>
-      <c r="L7" s="492"/>
-      <c r="M7" s="493"/>
-      <c r="N7" s="359"/>
+      <c r="D7" s="346"/>
+      <c r="E7" s="347"/>
+      <c r="F7" s="347"/>
+      <c r="G7" s="347"/>
+      <c r="H7" s="347"/>
+      <c r="I7" s="347"/>
+      <c r="J7" s="347"/>
+      <c r="K7" s="347"/>
+      <c r="L7" s="347"/>
+      <c r="M7" s="348"/>
+      <c r="N7" s="370"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="C8" s="488">
+      <c r="C8" s="343">
         <v>0.3</v>
       </c>
-      <c r="D8" s="506"/>
+      <c r="D8" s="361"/>
       <c r="E8" s="178"/>
       <c r="F8" s="178"/>
       <c r="G8" s="178"/>
@@ -25759,15 +25904,15 @@
       <c r="K8" s="178"/>
       <c r="L8" s="178"/>
       <c r="M8" s="179"/>
-      <c r="N8" s="359" t="s">
+      <c r="N8" s="370" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="488">
+      <c r="C9" s="343">
         <v>0.4</v>
       </c>
-      <c r="D9" s="507"/>
+      <c r="D9" s="362"/>
       <c r="E9" s="172"/>
       <c r="F9" s="172"/>
       <c r="G9" s="172"/>
@@ -25777,13 +25922,13 @@
       <c r="K9" s="172"/>
       <c r="L9" s="172"/>
       <c r="M9" s="173"/>
-      <c r="N9" s="359"/>
+      <c r="N9" s="370"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="C10" s="488">
+      <c r="C10" s="343">
         <v>0.5</v>
       </c>
-      <c r="D10" s="507" t="s">
+      <c r="D10" s="362" t="s">
         <v>1515</v>
       </c>
       <c r="E10" s="172"/>
@@ -25797,13 +25942,13 @@
       <c r="K10" s="172"/>
       <c r="L10" s="172"/>
       <c r="M10" s="173"/>
-      <c r="N10" s="359"/>
+      <c r="N10" s="370"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="488">
+      <c r="C11" s="343">
         <v>0.6</v>
       </c>
-      <c r="D11" s="507"/>
+      <c r="D11" s="362"/>
       <c r="E11" s="172"/>
       <c r="F11" s="172"/>
       <c r="G11" s="172"/>
@@ -25813,13 +25958,13 @@
       <c r="K11" s="172"/>
       <c r="L11" s="172"/>
       <c r="M11" s="173"/>
-      <c r="N11" s="359"/>
+      <c r="N11" s="370"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C12" s="488">
+      <c r="C12" s="343">
         <v>0.7</v>
       </c>
-      <c r="D12" s="508"/>
+      <c r="D12" s="363"/>
       <c r="E12" s="172"/>
       <c r="F12" s="172"/>
       <c r="G12" s="172"/>
@@ -25829,13 +25974,13 @@
       <c r="K12" s="172"/>
       <c r="L12" s="172"/>
       <c r="M12" s="173"/>
-      <c r="N12" s="359"/>
+      <c r="N12" s="370"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="C13" s="488">
+      <c r="C13" s="343">
         <v>0.8</v>
       </c>
-      <c r="D13" s="507"/>
+      <c r="D13" s="362"/>
       <c r="E13" s="172"/>
       <c r="F13" s="172"/>
       <c r="G13" s="172"/>
@@ -25845,13 +25990,13 @@
       <c r="K13" s="172"/>
       <c r="L13" s="172"/>
       <c r="M13" s="173"/>
-      <c r="N13" s="359"/>
+      <c r="N13" s="370"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C14" s="488">
+      <c r="C14" s="343">
         <v>0.9</v>
       </c>
-      <c r="D14" s="508"/>
+      <c r="D14" s="363"/>
       <c r="E14" s="181"/>
       <c r="F14" s="181"/>
       <c r="G14" s="181"/>
@@ -25861,114 +26006,364 @@
       <c r="K14" s="181"/>
       <c r="L14" s="181"/>
       <c r="M14" s="182"/>
-      <c r="N14" s="359"/>
+      <c r="N14" s="370"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C15" s="488">
+      <c r="C15" s="343">
         <v>1</v>
       </c>
-      <c r="D15" s="500"/>
-      <c r="E15" s="501"/>
-      <c r="F15" s="501"/>
-      <c r="G15" s="501"/>
-      <c r="H15" s="501"/>
-      <c r="I15" s="501"/>
-      <c r="J15" s="501"/>
-      <c r="K15" s="501"/>
-      <c r="L15" s="501"/>
-      <c r="M15" s="502"/>
+      <c r="D15" s="355"/>
+      <c r="E15" s="356"/>
+      <c r="F15" s="356"/>
+      <c r="G15" s="356"/>
+      <c r="H15" s="356"/>
+      <c r="I15" s="356"/>
+      <c r="J15" s="356"/>
+      <c r="K15" s="356"/>
+      <c r="L15" s="356"/>
+      <c r="M15" s="357"/>
       <c r="N15" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="17" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="18" spans="4:13">
-      <c r="D18" s="503"/>
-      <c r="E18" s="498"/>
-      <c r="F18" s="498"/>
-      <c r="G18" s="498"/>
-      <c r="H18" s="498"/>
-      <c r="I18" s="498"/>
-      <c r="J18" s="498"/>
-      <c r="K18" s="498"/>
-      <c r="L18" s="498"/>
-      <c r="M18" s="499"/>
+      <c r="D18" s="358"/>
+      <c r="E18" s="353"/>
+      <c r="F18" s="353"/>
+      <c r="G18" s="353"/>
+      <c r="H18" s="353"/>
+      <c r="I18" s="353"/>
+      <c r="J18" s="353"/>
+      <c r="K18" s="353"/>
+      <c r="L18" s="353"/>
+      <c r="M18" s="354"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="504"/>
-      <c r="E19" s="494"/>
-      <c r="F19" s="494"/>
-      <c r="G19" s="494"/>
-      <c r="H19" s="494"/>
-      <c r="I19" s="494"/>
-      <c r="J19" s="494"/>
-      <c r="K19" s="494"/>
-      <c r="L19" s="494"/>
-      <c r="M19" s="495"/>
+      <c r="D19" s="359"/>
+      <c r="E19" s="349"/>
+      <c r="F19" s="349"/>
+      <c r="G19" s="349"/>
+      <c r="H19" s="349"/>
+      <c r="I19" s="349"/>
+      <c r="J19" s="349"/>
+      <c r="K19" s="349"/>
+      <c r="L19" s="349"/>
+      <c r="M19" s="350"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="504" t="s">
+      <c r="D20" s="359" t="s">
         <v>1515</v>
       </c>
-      <c r="E20" s="494"/>
-      <c r="F20" s="494"/>
-      <c r="G20" s="494"/>
-      <c r="H20" s="494"/>
-      <c r="I20" s="494" t="s">
+      <c r="E20" s="349"/>
+      <c r="F20" s="349"/>
+      <c r="G20" s="349"/>
+      <c r="H20" s="349"/>
+      <c r="I20" s="349" t="s">
         <v>930</v>
       </c>
-      <c r="J20" s="494"/>
-      <c r="K20" s="494"/>
-      <c r="L20" s="494"/>
-      <c r="M20" s="495"/>
+      <c r="J20" s="349"/>
+      <c r="K20" s="349"/>
+      <c r="L20" s="349"/>
+      <c r="M20" s="350"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="504"/>
-      <c r="E21" s="494"/>
-      <c r="F21" s="494"/>
-      <c r="G21" s="494"/>
-      <c r="H21" s="494"/>
-      <c r="I21" s="494"/>
-      <c r="J21" s="494"/>
-      <c r="K21" s="494"/>
-      <c r="L21" s="494"/>
-      <c r="M21" s="495"/>
+      <c r="D21" s="359"/>
+      <c r="E21" s="349"/>
+      <c r="F21" s="349"/>
+      <c r="G21" s="349"/>
+      <c r="H21" s="349"/>
+      <c r="I21" s="349"/>
+      <c r="J21" s="349"/>
+      <c r="K21" s="349"/>
+      <c r="L21" s="349"/>
+      <c r="M21" s="350"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="504"/>
-      <c r="E22" s="494"/>
-      <c r="F22" s="494"/>
-      <c r="G22" s="494"/>
-      <c r="H22" s="494"/>
-      <c r="I22" s="494"/>
-      <c r="J22" s="494"/>
-      <c r="K22" s="494"/>
-      <c r="L22" s="494"/>
-      <c r="M22" s="495"/>
+      <c r="D22" s="359"/>
+      <c r="E22" s="349"/>
+      <c r="F22" s="349"/>
+      <c r="G22" s="349"/>
+      <c r="H22" s="349"/>
+      <c r="I22" s="349"/>
+      <c r="J22" s="349"/>
+      <c r="K22" s="349"/>
+      <c r="L22" s="349"/>
+      <c r="M22" s="350"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="504"/>
-      <c r="E23" s="494"/>
-      <c r="F23" s="494"/>
-      <c r="G23" s="494"/>
-      <c r="H23" s="494"/>
-      <c r="I23" s="494"/>
-      <c r="J23" s="494"/>
-      <c r="K23" s="494"/>
-      <c r="L23" s="494"/>
-      <c r="M23" s="495"/>
+      <c r="D23" s="359"/>
+      <c r="E23" s="349"/>
+      <c r="F23" s="349"/>
+      <c r="G23" s="349"/>
+      <c r="H23" s="349"/>
+      <c r="I23" s="349"/>
+      <c r="J23" s="349"/>
+      <c r="K23" s="349"/>
+      <c r="L23" s="349"/>
+      <c r="M23" s="350"/>
     </row>
     <row r="24" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D24" s="505"/>
-      <c r="E24" s="496"/>
-      <c r="F24" s="496"/>
-      <c r="G24" s="496"/>
-      <c r="H24" s="496"/>
-      <c r="I24" s="496"/>
-      <c r="J24" s="496"/>
-      <c r="K24" s="496"/>
-      <c r="L24" s="496"/>
-      <c r="M24" s="497"/>
+      <c r="D24" s="360"/>
+      <c r="E24" s="351"/>
+      <c r="F24" s="351"/>
+      <c r="G24" s="351"/>
+      <c r="H24" s="351"/>
+      <c r="I24" s="351"/>
+      <c r="J24" s="351"/>
+      <c r="K24" s="351"/>
+      <c r="L24" s="351"/>
+      <c r="M24" s="352"/>
+    </row>
+    <row r="27" spans="4:13">
+      <c r="D27" s="38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13">
+      <c r="D28" s="38" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H28" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13">
+      <c r="D29" s="38" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I29" t="s">
+        <v>938</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K29" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13">
+      <c r="I30" t="s">
+        <v>938</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K30" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13">
+      <c r="H31" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13">
+      <c r="H32" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11">
+      <c r="I33" t="s">
+        <v>938</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1516</v>
+      </c>
+      <c r="K33" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11">
+      <c r="I34" t="s">
+        <v>938</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K34" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11">
+      <c r="H35" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11">
+      <c r="H36" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11">
+      <c r="I37" t="s">
+        <v>938</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1517</v>
+      </c>
+      <c r="K37" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11">
+      <c r="I38" t="s">
+        <v>938</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K38" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11">
+      <c r="H39" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11">
+      <c r="G40" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11">
+      <c r="D43" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="G43" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11">
+      <c r="D44" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="H44" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11">
+      <c r="E45" s="38" t="s">
+        <v>673</v>
+      </c>
+      <c r="I45" t="s">
+        <v>938</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K45" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11">
+      <c r="I46" t="s">
+        <v>938</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1522</v>
+      </c>
+      <c r="K46" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11">
+      <c r="H47" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11">
+      <c r="H48" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D49" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" t="s">
+        <v>938</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1523</v>
+      </c>
+      <c r="K49" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" t="s">
+        <v>938</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K50" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="H51" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="H52" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="I53" t="s">
+        <v>938</v>
+      </c>
+      <c r="K53" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="I54" t="s">
+        <v>938</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1525</v>
+      </c>
+      <c r="K54" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="H55" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="G56" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="101" spans="4:16" ht="15.75" thickBot="1">
       <c r="E101">
@@ -26237,7 +26632,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="348" t="s">
+      <c r="C135" s="367" t="s">
         <v>166</v>
       </c>
       <c r="D135">
@@ -26264,7 +26659,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="348"/>
+      <c r="C136" s="367"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -26293,7 +26688,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="348" t="s">
+      <c r="C137" s="367" t="s">
         <v>167</v>
       </c>
       <c r="D137">
@@ -26312,7 +26707,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="348"/>
+      <c r="C138" s="367"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -26329,7 +26724,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="348"/>
+      <c r="C139" s="367"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -26346,7 +26741,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="348"/>
+      <c r="C140" s="367"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -26365,7 +26760,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="348"/>
+      <c r="C141" s="367"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -26382,7 +26777,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="348"/>
+      <c r="C142" s="367"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -26399,7 +26794,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="348"/>
+      <c r="C143" s="367"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -26490,7 +26885,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="346">
+      <c r="D148" s="371">
         <v>1</v>
       </c>
       <c r="E148" s="174"/>
@@ -26505,7 +26900,7 @@
       <c r="N148" s="179"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="347"/>
+      <c r="D149" s="372"/>
       <c r="E149" s="175"/>
       <c r="F149" s="171"/>
       <c r="G149" s="172"/>
@@ -26518,7 +26913,7 @@
       <c r="N149" s="173"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="347"/>
+      <c r="D150" s="372"/>
       <c r="E150" s="175"/>
       <c r="F150" s="171"/>
       <c r="G150" s="172"/>
@@ -26531,7 +26926,7 @@
       <c r="N150" s="173"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="347"/>
+      <c r="D151" s="372"/>
       <c r="E151" s="175" t="s">
         <v>670</v>
       </c>
@@ -26548,7 +26943,7 @@
       <c r="N151" s="173"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="347"/>
+      <c r="D152" s="372"/>
       <c r="E152" s="175"/>
       <c r="F152" s="171"/>
       <c r="G152" s="172"/>
@@ -26561,7 +26956,7 @@
       <c r="N152" s="173"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="347"/>
+      <c r="D153" s="372"/>
       <c r="E153" s="175"/>
       <c r="F153" s="171"/>
       <c r="G153" s="172"/>
@@ -26574,7 +26969,7 @@
       <c r="N153" s="173"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="347"/>
+      <c r="D154" s="372"/>
       <c r="E154" s="176"/>
       <c r="F154" s="180"/>
       <c r="G154" s="181"/>
@@ -26697,7 +27092,7 @@
       <c r="K183" s="178"/>
       <c r="L183" s="178"/>
       <c r="M183" s="178"/>
-      <c r="N183" s="349" t="s">
+      <c r="N183" s="368" t="s">
         <v>924</v>
       </c>
       <c r="O183" t="s">
@@ -26718,7 +27113,7 @@
       <c r="K184" s="181"/>
       <c r="L184" s="181"/>
       <c r="M184" s="181"/>
-      <c r="N184" s="349"/>
+      <c r="N184" s="368"/>
       <c r="O184" t="s">
         <v>925</v>
       </c>
@@ -26737,7 +27132,7 @@
       <c r="K185" s="234"/>
       <c r="L185" s="234"/>
       <c r="M185" s="298"/>
-      <c r="N185" s="350" t="s">
+      <c r="N185" s="369" t="s">
         <v>927</v>
       </c>
       <c r="O185" t="s">
@@ -26758,7 +27153,7 @@
       <c r="K186" s="235"/>
       <c r="L186" s="235"/>
       <c r="M186" s="300"/>
-      <c r="N186" s="350"/>
+      <c r="N186" s="369"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -26774,7 +27169,7 @@
       <c r="K187" s="235"/>
       <c r="L187" s="235"/>
       <c r="M187" s="300"/>
-      <c r="N187" s="350"/>
+      <c r="N187" s="369"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -26794,7 +27189,7 @@
       <c r="K188" s="236"/>
       <c r="L188" s="236"/>
       <c r="M188" s="302"/>
-      <c r="N188" s="350"/>
+      <c r="N188" s="369"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -26810,7 +27205,7 @@
       <c r="K189" s="235"/>
       <c r="L189" s="235"/>
       <c r="M189" s="235"/>
-      <c r="N189" s="349"/>
+      <c r="N189" s="368"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -26826,7 +27221,7 @@
       <c r="K190" s="235"/>
       <c r="L190" s="235"/>
       <c r="M190" s="235"/>
-      <c r="N190" s="349"/>
+      <c r="N190" s="368"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -26842,7 +27237,7 @@
       <c r="K191" s="236"/>
       <c r="L191" s="236"/>
       <c r="M191" s="236"/>
-      <c r="N191" s="349"/>
+      <c r="N191" s="368"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -27147,13 +27542,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N14"/>
-    <mergeCell ref="D148:D154"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="C137:C143"/>
     <mergeCell ref="N183:N184"/>
     <mergeCell ref="N185:N191"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N14"/>
+    <mergeCell ref="D148:D154"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27161,10 +27556,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:N13"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M87" sqref="M87:N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27175,6 +27570,9 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:21">
+      <c r="B2" t="s">
+        <v>1528</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>148</v>
       </c>
@@ -27217,14 +27615,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="352" t="s">
+      <c r="K4" s="383" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="353"/>
-      <c r="M4" s="353"/>
-      <c r="N4" s="353"/>
-      <c r="O4" s="353"/>
-      <c r="P4" s="354"/>
+      <c r="L4" s="384"/>
+      <c r="M4" s="384"/>
+      <c r="N4" s="384"/>
+      <c r="O4" s="384"/>
+      <c r="P4" s="385"/>
       <c r="Q4" s="115" t="s">
         <v>281</v>
       </c>
@@ -27349,10 +27747,10 @@
       <c r="L8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="367" t="s">
+      <c r="M8" s="396" t="s">
         <v>210</v>
       </c>
-      <c r="N8" s="368"/>
+      <c r="N8" s="397"/>
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
@@ -27379,7 +27777,7 @@
         <v>209</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1308</v>
+        <v>661</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="24" t="s">
@@ -27394,8 +27792,8 @@
       <c r="L9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="368"/>
-      <c r="N9" s="368"/>
+      <c r="M9" s="397"/>
+      <c r="N9" s="397"/>
       <c r="O9" s="5" t="s">
         <v>186</v>
       </c>
@@ -27431,8 +27829,8 @@
       <c r="L10" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="M10" s="368"/>
-      <c r="N10" s="368"/>
+      <c r="M10" s="397"/>
+      <c r="N10" s="397"/>
       <c r="O10" s="5"/>
       <c r="P10" s="251" t="s">
         <v>399</v>
@@ -27449,13 +27847,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A11" s="355" t="s">
+      <c r="A11" s="386" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="356"/>
-      <c r="C11" s="357"/>
-      <c r="D11" s="357"/>
-      <c r="E11" s="358"/>
+      <c r="B11" s="387"/>
+      <c r="C11" s="388"/>
+      <c r="D11" s="388"/>
+      <c r="E11" s="389"/>
       <c r="F11" t="s">
         <v>208</v>
       </c>
@@ -27464,8 +27862,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="368"/>
-      <c r="N11" s="368"/>
+      <c r="M11" s="397"/>
+      <c r="N11" s="397"/>
       <c r="O11" s="5"/>
       <c r="P11" s="251" t="s">
         <v>400</v>
@@ -27475,11 +27873,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="359"/>
-      <c r="B12" s="360"/>
-      <c r="C12" s="360"/>
-      <c r="D12" s="360"/>
-      <c r="E12" s="347"/>
+      <c r="A12" s="370"/>
+      <c r="B12" s="375"/>
+      <c r="C12" s="375"/>
+      <c r="D12" s="375"/>
+      <c r="E12" s="372"/>
       <c r="F12" t="s">
         <v>951</v>
       </c>
@@ -27488,8 +27886,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="368"/>
-      <c r="N12" s="368"/>
+      <c r="M12" s="397"/>
+      <c r="N12" s="397"/>
       <c r="O12" s="5"/>
       <c r="P12" s="251" t="s">
         <v>1312</v>
@@ -27499,11 +27897,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A13" s="359"/>
-      <c r="B13" s="360"/>
-      <c r="C13" s="360"/>
-      <c r="D13" s="360"/>
-      <c r="E13" s="347"/>
+      <c r="A13" s="370"/>
+      <c r="B13" s="375"/>
+      <c r="C13" s="375"/>
+      <c r="D13" s="375"/>
+      <c r="E13" s="372"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>191</v>
@@ -27511,8 +27909,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="368"/>
-      <c r="N13" s="368"/>
+      <c r="M13" s="397"/>
+      <c r="N13" s="397"/>
       <c r="O13" s="28"/>
       <c r="P13" s="252"/>
       <c r="S13" t="s">
@@ -27520,11 +27918,11 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1">
-      <c r="A14" s="361"/>
-      <c r="B14" s="362"/>
-      <c r="C14" s="362"/>
-      <c r="D14" s="362"/>
-      <c r="E14" s="363"/>
+      <c r="A14" s="390"/>
+      <c r="B14" s="391"/>
+      <c r="C14" s="391"/>
+      <c r="D14" s="391"/>
+      <c r="E14" s="392"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -27561,7 +27959,9 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="24"/>
+      <c r="A16" s="518" t="s">
+        <v>1551</v>
+      </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -27654,20 +28054,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="364" t="s">
+      <c r="I20" s="393" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="365"/>
-      <c r="K20" s="364" t="s">
+      <c r="J20" s="394"/>
+      <c r="K20" s="393" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="365"/>
-      <c r="M20" s="364" t="s">
+      <c r="L20" s="394"/>
+      <c r="M20" s="393" t="s">
         <v>195</v>
       </c>
-      <c r="N20" s="366"/>
-      <c r="O20" s="366"/>
-      <c r="P20" s="365"/>
+      <c r="N20" s="395"/>
+      <c r="O20" s="395"/>
+      <c r="P20" s="394"/>
       <c r="S20" t="s">
         <v>281</v>
       </c>
@@ -28168,14 +28568,396 @@
         <v>936</v>
       </c>
     </row>
+    <row r="82" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A82" t="s">
+        <v>1541</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A83" t="s">
+        <v>429</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="253" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="57"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="374" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B85" s="375"/>
+      <c r="C85" s="375"/>
+      <c r="D85" s="375"/>
+      <c r="E85" s="375"/>
+      <c r="F85" s="6" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="35" t="s">
+        <v>1530</v>
+      </c>
+      <c r="J85" s="28"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="39"/>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="6"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="39"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="6"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="382" t="s">
+        <v>1539</v>
+      </c>
+      <c r="L87" s="377"/>
+      <c r="M87" s="382" t="s">
+        <v>1550</v>
+      </c>
+      <c r="N87" s="377"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="380"/>
+      <c r="L88" s="381"/>
+      <c r="M88" s="378"/>
+      <c r="N88" s="379"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A89" s="4"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="6" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H89" s="11">
+        <v>80</v>
+      </c>
+      <c r="I89" s="35"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="376" t="s">
+        <v>1531</v>
+      </c>
+      <c r="L89" s="377"/>
+      <c r="M89" s="378"/>
+      <c r="N89" s="379"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="28"/>
+      <c r="K90" s="380"/>
+      <c r="L90" s="381"/>
+      <c r="M90" s="378"/>
+      <c r="N90" s="379"/>
+      <c r="O90" s="28"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="376" t="s">
+        <v>1532</v>
+      </c>
+      <c r="L91" s="377"/>
+      <c r="M91" s="378"/>
+      <c r="N91" s="379"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="380"/>
+      <c r="L92" s="381"/>
+      <c r="M92" s="378"/>
+      <c r="N92" s="379"/>
+      <c r="O92" s="28"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="6"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="376" t="s">
+        <v>1533</v>
+      </c>
+      <c r="L93" s="377"/>
+      <c r="M93" s="378"/>
+      <c r="N93" s="379"/>
+      <c r="O93" s="28"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="6"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="28"/>
+      <c r="K94" s="378"/>
+      <c r="L94" s="379"/>
+      <c r="M94" s="378"/>
+      <c r="N94" s="379"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="1:17" ht="15.75" thickBot="1">
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="28"/>
+      <c r="K95" s="380"/>
+      <c r="L95" s="381"/>
+      <c r="M95" s="380"/>
+      <c r="N95" s="381"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="6" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="28"/>
+      <c r="K96" s="373" t="s">
+        <v>1534</v>
+      </c>
+      <c r="L96" s="373"/>
+      <c r="M96" s="373" t="s">
+        <v>1535</v>
+      </c>
+      <c r="N96" s="373"/>
+      <c r="O96" s="28"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="6"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="28"/>
+      <c r="O97" s="28"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="6"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="254"/>
+      <c r="J98" s="310"/>
+      <c r="K98" s="310"/>
+      <c r="L98" s="310"/>
+      <c r="M98" s="310"/>
+      <c r="N98" s="310"/>
+      <c r="O98" s="310"/>
+      <c r="P98" s="255"/>
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A99" s="8"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="9"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="9"/>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="B100" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="B101" s="4"/>
+      <c r="C101" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="C102" s="5" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="C103" t="s">
+        <v>1548</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="14">
     <mergeCell ref="K4:P4"/>
     <mergeCell ref="A11:E14"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M8:N13"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="K93:L95"/>
+    <mergeCell ref="K91:L92"/>
+    <mergeCell ref="K89:L90"/>
+    <mergeCell ref="K87:L88"/>
+    <mergeCell ref="M87:N95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>
@@ -28184,9 +28966,10 @@
     <hyperlink ref="A5" r:id="rId4"/>
     <hyperlink ref="M14" r:id="rId5"/>
     <hyperlink ref="S9" r:id="rId6"/>
+    <hyperlink ref="A85" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -28612,13 +29395,13 @@
         <v>180</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="378"/>
-      <c r="L3" s="378"/>
-      <c r="M3" s="378"/>
-      <c r="N3" s="378"/>
-      <c r="O3" s="378"/>
-      <c r="P3" s="378"/>
-      <c r="Q3" s="379"/>
+      <c r="K3" s="407"/>
+      <c r="L3" s="407"/>
+      <c r="M3" s="407"/>
+      <c r="N3" s="407"/>
+      <c r="O3" s="407"/>
+      <c r="P3" s="407"/>
+      <c r="Q3" s="408"/>
       <c r="T3" s="40" t="s">
         <v>178</v>
       </c>
@@ -28886,13 +29669,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="369" t="s">
+      <c r="A12" s="398" t="s">
         <v>674</v>
       </c>
-      <c r="B12" s="370"/>
-      <c r="C12" s="370"/>
-      <c r="D12" s="370"/>
-      <c r="E12" s="371"/>
+      <c r="B12" s="399"/>
+      <c r="C12" s="399"/>
+      <c r="D12" s="399"/>
+      <c r="E12" s="400"/>
       <c r="F12" t="s">
         <v>687</v>
       </c>
@@ -28915,11 +29698,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="372"/>
-      <c r="B13" s="373"/>
-      <c r="C13" s="373"/>
-      <c r="D13" s="373"/>
-      <c r="E13" s="374"/>
+      <c r="A13" s="401"/>
+      <c r="B13" s="402"/>
+      <c r="C13" s="402"/>
+      <c r="D13" s="402"/>
+      <c r="E13" s="403"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -28940,11 +29723,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="372"/>
-      <c r="B14" s="373"/>
-      <c r="C14" s="373"/>
-      <c r="D14" s="373"/>
-      <c r="E14" s="374"/>
+      <c r="A14" s="401"/>
+      <c r="B14" s="402"/>
+      <c r="C14" s="402"/>
+      <c r="D14" s="402"/>
+      <c r="E14" s="403"/>
       <c r="F14" t="s">
         <v>684</v>
       </c>
@@ -28967,11 +29750,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="375"/>
-      <c r="B15" s="376"/>
-      <c r="C15" s="376"/>
-      <c r="D15" s="376"/>
-      <c r="E15" s="377"/>
+      <c r="A15" s="404"/>
+      <c r="B15" s="405"/>
+      <c r="C15" s="405"/>
+      <c r="D15" s="405"/>
+      <c r="E15" s="406"/>
       <c r="F15" s="24"/>
       <c r="H15" s="197"/>
       <c r="I15" s="4" t="s">
@@ -29029,17 +29812,17 @@
       <c r="F17" s="193"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="353" t="s">
+      <c r="I17" s="384" t="s">
         <v>1184</v>
       </c>
-      <c r="J17" s="353"/>
-      <c r="K17" s="353"/>
-      <c r="L17" s="353"/>
-      <c r="M17" s="353"/>
-      <c r="N17" s="353"/>
-      <c r="O17" s="353"/>
-      <c r="P17" s="353"/>
-      <c r="Q17" s="353"/>
+      <c r="J17" s="384"/>
+      <c r="K17" s="384"/>
+      <c r="L17" s="384"/>
+      <c r="M17" s="384"/>
+      <c r="N17" s="384"/>
+      <c r="O17" s="384"/>
+      <c r="P17" s="384"/>
+      <c r="Q17" s="384"/>
       <c r="S17" t="s">
         <v>358</v>
       </c>
@@ -33325,10 +34108,10 @@
       <c r="K232" s="35"/>
       <c r="M232" s="5"/>
       <c r="N232" s="5"/>
-      <c r="O232" s="380" t="s">
+      <c r="O232" s="409" t="s">
         <v>1232</v>
       </c>
-      <c r="P232" s="381"/>
+      <c r="P232" s="410"/>
       <c r="Q232" s="6"/>
     </row>
     <row r="233" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3563" uniqueCount="1713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1747">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5691,6 +5691,108 @@
   </si>
   <si>
     <t>method call</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>American Airline</t>
+  </si>
+  <si>
+    <t>FlightWebService</t>
+  </si>
+  <si>
+    <t>searchFlights</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>&lt;flight&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;src&gt;NY&lt;/src&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;dest&gt;Chicago&lt;/dest&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/flight&gt;</t>
+  </si>
+  <si>
+    <t>&lt;flights&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;airline&gt;AA123&lt;/airline&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;airline&gt;AA256&lt;/airline&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;airline&gt;AA444&lt;/airline&gt;</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>SMTP</t>
+  </si>
+  <si>
+    <t>REST</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt; http://www.aa.com/flights/NY/Chicago &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt; http://www.aa.com/flights?src=NY&amp;dest=Chicago  &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>{  "src" :"NY" , "dest":"chicago"}</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt;&gt;&gt; &lt;src&gt;ny&lt;/src&gt; &lt;dest&gt;chicago&lt;/dest&gt; &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt; AA123,AA456,AA444 &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt; {airine:aa123, airline:aa456, airline:aa444 } &lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt; &lt;fligt&gt;aa123&lt;/flights&gt; &lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>convert into Java objects</t>
+  </si>
+  <si>
+    <t>storing results/content in the browser</t>
+  </si>
+  <si>
+    <t>http://www.amazon.com</t>
+  </si>
+  <si>
+    <t>Internet traffic</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">everthing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">about </t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>4 lanes</t>
+  </si>
+  <si>
+    <t>Car</t>
   </si>
 </sst>
 </file>
@@ -6498,7 +6600,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="545">
+  <cellXfs count="558">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6807,7 +6909,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7039,6 +7140,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7066,6 +7179,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7085,9 +7237,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7113,42 +7262,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7213,16 +7326,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7240,23 +7353,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7288,6 +7386,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7297,59 +7398,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7405,6 +7455,57 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7426,17 +7527,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7477,57 +7614,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8556,7 +8681,7 @@
       <c r="F35" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H35" s="327" t="s">
+      <c r="H35" s="326" t="s">
         <v>75</v>
       </c>
       <c r="I35" s="123"/>
@@ -8576,7 +8701,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
-      <c r="H36" s="327" t="s">
+      <c r="H36" s="326" t="s">
         <v>610</v>
       </c>
       <c r="I36" s="123"/>
@@ -8783,7 +8908,7 @@
       <c r="E50" s="5" t="s">
         <v>1429</v>
       </c>
-      <c r="F50" s="333" t="s">
+      <c r="F50" s="332" t="s">
         <v>119</v>
       </c>
       <c r="G50" s="123" t="s">
@@ -8848,7 +8973,7 @@
       <c r="F53" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H53" s="327" t="s">
+      <c r="H53" s="326" t="s">
         <v>75</v>
       </c>
       <c r="I53" s="123"/>
@@ -8866,7 +8991,7 @@
       <c r="D54" s="9"/>
       <c r="E54" s="5"/>
       <c r="F54" s="6"/>
-      <c r="H54" s="327" t="s">
+      <c r="H54" s="326" t="s">
         <v>610</v>
       </c>
       <c r="I54" s="123"/>
@@ -8978,7 +9103,7 @@
       <c r="B62" s="38">
         <v>3</v>
       </c>
-      <c r="C62" s="328" t="s">
+      <c r="C62" s="327" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="38" t="s">
@@ -8987,7 +9112,7 @@
       <c r="E62" s="38" t="s">
         <v>601</v>
       </c>
-      <c r="F62" s="329" t="s">
+      <c r="F62" s="328" t="s">
         <v>60</v>
       </c>
       <c r="G62" s="38"/>
@@ -9027,7 +9152,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="28"/>
       <c r="G65" s="38"/>
-      <c r="K65" s="330">
+      <c r="K65" s="329">
         <v>443</v>
       </c>
       <c r="L65" s="5" t="s">
@@ -9042,7 +9167,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="28"/>
       <c r="G66" s="38"/>
-      <c r="K66" s="331"/>
+      <c r="K66" s="330"/>
       <c r="L66" s="10"/>
       <c r="M66" s="9"/>
     </row>
@@ -9065,7 +9190,7 @@
       <c r="J68" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="332" t="s">
+      <c r="K68" s="331" t="s">
         <v>601</v>
       </c>
       <c r="L68" s="2"/>
@@ -9086,7 +9211,7 @@
         <v>10004</v>
       </c>
       <c r="G69" s="38"/>
-      <c r="K69" s="330">
+      <c r="K69" s="329">
         <v>443</v>
       </c>
       <c r="L69" s="5" t="s">
@@ -9099,7 +9224,7 @@
       <c r="G70" t="s">
         <v>10</v>
       </c>
-      <c r="K70" s="331"/>
+      <c r="K70" s="330"/>
       <c r="L70" s="10"/>
       <c r="M70" s="9"/>
     </row>
@@ -9115,7 +9240,7 @@
       <c r="J72" t="s">
         <v>106</v>
       </c>
-      <c r="K72" s="332" t="s">
+      <c r="K72" s="331" t="s">
         <v>60</v>
       </c>
       <c r="L72" s="2"/>
@@ -9136,7 +9261,7 @@
       <c r="H73" s="40"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="330">
+      <c r="K73" s="329">
         <v>443</v>
       </c>
       <c r="L73" s="5" t="s">
@@ -13929,7 +14054,7 @@
       <c r="A5" t="s">
         <v>342</v>
       </c>
-      <c r="C5" s="306" t="s">
+      <c r="C5" s="305" t="s">
         <v>299</v>
       </c>
       <c r="D5" s="84" t="s">
@@ -13941,7 +14066,7 @@
       <c r="F5" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="G5" s="306" t="s">
+      <c r="G5" s="305" t="s">
         <v>1235</v>
       </c>
       <c r="H5" s="84">
@@ -13979,7 +14104,7 @@
       <c r="F6" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="G6" s="248" t="s">
+      <c r="G6" s="247" t="s">
         <v>520</v>
       </c>
       <c r="H6" s="84">
@@ -14008,15 +14133,15 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="C7" s="306"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="306"/>
-      <c r="H7" s="306"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
       <c r="I7" s="85"/>
       <c r="J7" s="84"/>
-      <c r="K7" s="306"/>
+      <c r="K7" s="305"/>
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
     </row>
@@ -14059,25 +14184,25 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="C10" s="249" t="s">
+      <c r="C10" s="248" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="249" t="s">
+      <c r="D10" s="248" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="249" t="s">
+      <c r="E10" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="249" t="s">
+      <c r="F10" s="248" t="s">
         <v>300</v>
       </c>
-      <c r="G10" s="249" t="s">
+      <c r="G10" s="248" t="s">
         <v>301</v>
       </c>
-      <c r="H10" s="249">
+      <c r="H10" s="248">
         <v>12345</v>
       </c>
-      <c r="I10" s="266" t="s">
+      <c r="I10" s="265" t="s">
         <v>302</v>
       </c>
       <c r="J10" s="103">
@@ -14577,7 +14702,7 @@
         <v>299</v>
       </c>
       <c r="E26" s="49"/>
-      <c r="F26" s="248" t="s">
+      <c r="F26" s="247" t="s">
         <v>299</v>
       </c>
       <c r="G26" s="84" t="s">
@@ -14882,10 +15007,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="437" t="s">
+      <c r="L35" s="440" t="s">
         <v>346</v>
       </c>
-      <c r="M35" s="437"/>
+      <c r="M35" s="440"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -14944,7 +15069,7 @@
         <v>299</v>
       </c>
       <c r="E37" s="24"/>
-      <c r="F37" s="306" t="s">
+      <c r="F37" s="305" t="s">
         <v>1260</v>
       </c>
       <c r="G37" s="84" t="s">
@@ -14989,7 +15114,7 @@
         <v>299</v>
       </c>
       <c r="E38" s="24"/>
-      <c r="F38" s="306" t="s">
+      <c r="F38" s="305" t="s">
         <v>1260</v>
       </c>
       <c r="G38" s="84" t="s">
@@ -15075,13 +15200,13 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="24"/>
-      <c r="F40" s="306" t="s">
+      <c r="F40" s="305" t="s">
         <v>1264</v>
       </c>
-      <c r="G40" s="306" t="s">
+      <c r="G40" s="305" t="s">
         <v>1265</v>
       </c>
-      <c r="H40" s="306" t="s">
+      <c r="H40" s="305" t="s">
         <v>732</v>
       </c>
       <c r="I40" s="84"/>
@@ -16070,7 +16195,7 @@
       <c r="H74" s="84"/>
       <c r="I74" s="86"/>
       <c r="J74" s="84"/>
-      <c r="K74" s="306" t="s">
+      <c r="K74" s="305" t="s">
         <v>1261</v>
       </c>
       <c r="L74" s="84"/>
@@ -16195,10 +16320,10 @@
       <c r="Q82" s="101"/>
     </row>
     <row r="83" spans="2:17">
-      <c r="F83" s="311" t="s">
+      <c r="F83" s="310" t="s">
         <v>1271</v>
       </c>
-      <c r="G83" s="311"/>
+      <c r="G83" s="310"/>
       <c r="H83" t="s">
         <v>1274</v>
       </c>
@@ -16210,10 +16335,10 @@
       <c r="D84" s="84" t="s">
         <v>298</v>
       </c>
-      <c r="F84" s="311" t="s">
+      <c r="F84" s="310" t="s">
         <v>1272</v>
       </c>
-      <c r="H84" s="311" t="s">
+      <c r="H84" s="310" t="s">
         <v>1273</v>
       </c>
     </row>
@@ -16224,7 +16349,7 @@
       <c r="D85" s="97">
         <v>1000</v>
       </c>
-      <c r="H85" s="311"/>
+      <c r="H85" s="310"/>
     </row>
     <row r="86" spans="2:17">
       <c r="C86" s="97" t="s">
@@ -16233,7 +16358,7 @@
       <c r="D86" s="97">
         <v>500</v>
       </c>
-      <c r="H86" s="311"/>
+      <c r="H86" s="310"/>
     </row>
     <row r="87" spans="2:17">
       <c r="C87" s="97" t="s">
@@ -16242,7 +16367,7 @@
       <c r="D87" s="97">
         <v>500</v>
       </c>
-      <c r="H87" s="311"/>
+      <c r="H87" s="310"/>
     </row>
     <row r="88" spans="2:17">
       <c r="C88" s="94" t="s">
@@ -16251,7 +16376,7 @@
       <c r="D88" s="97">
         <v>2000</v>
       </c>
-      <c r="H88" s="311"/>
+      <c r="H88" s="310"/>
     </row>
     <row r="89" spans="2:17">
       <c r="C89" s="87" t="s">
@@ -16260,7 +16385,7 @@
       <c r="D89" s="105">
         <v>500</v>
       </c>
-      <c r="H89" s="311"/>
+      <c r="H89" s="310"/>
     </row>
     <row r="90" spans="2:17">
       <c r="C90" s="87" t="s">
@@ -16767,7 +16892,7 @@
       <c r="N151" s="38">
         <v>1000</v>
       </c>
-      <c r="O151" s="312">
+      <c r="O151" s="311">
         <v>37623</v>
       </c>
     </row>
@@ -16790,7 +16915,7 @@
       <c r="N152" s="38">
         <v>900</v>
       </c>
-      <c r="O152" s="312">
+      <c r="O152" s="311">
         <v>37624</v>
       </c>
     </row>
@@ -16810,15 +16935,15 @@
       <c r="N153" s="38">
         <v>444</v>
       </c>
-      <c r="O153" s="312">
+      <c r="O153" s="311">
         <v>37624</v>
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="438" t="s">
+      <c r="A155" s="441" t="s">
         <v>972</v>
       </c>
-      <c r="B155" s="438"/>
+      <c r="B155" s="441"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -16827,10 +16952,10 @@
       <c r="B156" s="93" t="s">
         <v>1253</v>
       </c>
-      <c r="C156" s="305" t="s">
+      <c r="C156" s="304" t="s">
         <v>1254</v>
       </c>
-      <c r="D156" s="305" t="s">
+      <c r="D156" s="304" t="s">
         <v>1255</v>
       </c>
       <c r="J156" t="s">
@@ -16841,30 +16966,30 @@
       </c>
     </row>
     <row r="157" spans="1:17">
-      <c r="A157" s="306" t="s">
+      <c r="A157" s="305" t="s">
         <v>1256</v>
       </c>
-      <c r="B157" s="306">
+      <c r="B157" s="305">
         <v>1</v>
       </c>
-      <c r="C157" s="306" t="s">
+      <c r="C157" s="305" t="s">
         <v>26</v>
       </c>
-      <c r="D157" s="306">
+      <c r="D157" s="305">
         <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:17">
-      <c r="A158" s="306" t="s">
+      <c r="A158" s="305" t="s">
         <v>1257</v>
       </c>
-      <c r="B158" s="306">
+      <c r="B158" s="305">
         <v>1</v>
       </c>
-      <c r="C158" s="306" t="s">
+      <c r="C158" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="D158" s="306">
+      <c r="D158" s="305">
         <v>101</v>
       </c>
       <c r="J158" t="s">
@@ -16872,16 +16997,16 @@
       </c>
     </row>
     <row r="159" spans="1:17">
-      <c r="A159" s="306" t="s">
+      <c r="A159" s="305" t="s">
         <v>1256</v>
       </c>
-      <c r="B159" s="306">
+      <c r="B159" s="305">
         <v>2</v>
       </c>
-      <c r="C159" s="306" t="s">
+      <c r="C159" s="305" t="s">
         <v>26</v>
       </c>
-      <c r="D159" s="306">
+      <c r="D159" s="305">
         <v>102</v>
       </c>
       <c r="J159" t="s">
@@ -16889,16 +17014,16 @@
       </c>
     </row>
     <row r="160" spans="1:17">
-      <c r="A160" s="306" t="s">
+      <c r="A160" s="305" t="s">
         <v>1257</v>
       </c>
-      <c r="B160" s="306">
+      <c r="B160" s="305">
         <v>2</v>
       </c>
-      <c r="C160" s="306" t="s">
+      <c r="C160" s="305" t="s">
         <v>26</v>
       </c>
-      <c r="D160" s="306">
+      <c r="D160" s="305">
         <v>101</v>
       </c>
     </row>
@@ -16908,7 +17033,7 @@
       </c>
     </row>
     <row r="162" spans="3:13">
-      <c r="C162" s="307" t="s">
+      <c r="C162" s="306" t="s">
         <v>1259</v>
       </c>
       <c r="D162" t="s">
@@ -16953,7 +17078,7 @@
       <c r="I169" s="38" t="s">
         <v>1238</v>
       </c>
-      <c r="J169" s="313">
+      <c r="J169" s="312">
         <v>123345</v>
       </c>
       <c r="K169" s="38" t="s">
@@ -16990,28 +17115,28 @@
       </c>
     </row>
     <row r="175" spans="3:13">
-      <c r="E175" s="314" t="s">
+      <c r="E175" s="313" t="s">
         <v>181</v>
       </c>
-      <c r="F175" s="314" t="s">
+      <c r="F175" s="313" t="s">
         <v>953</v>
       </c>
-      <c r="H175" s="314" t="s">
+      <c r="H175" s="313" t="s">
         <v>181</v>
       </c>
-      <c r="I175" s="314" t="s">
+      <c r="I175" s="313" t="s">
         <v>1244</v>
       </c>
-      <c r="J175" s="314" t="s">
+      <c r="J175" s="313" t="s">
         <v>574</v>
       </c>
-      <c r="K175" s="314" t="s">
+      <c r="K175" s="313" t="s">
         <v>1227</v>
       </c>
-      <c r="L175" s="314" t="s">
+      <c r="L175" s="313" t="s">
         <v>1237</v>
       </c>
-      <c r="M175" s="314" t="s">
+      <c r="M175" s="313" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -17234,7 +17359,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="250" t="s">
+      <c r="K4" s="249" t="s">
         <v>1611</v>
       </c>
       <c r="M4" s="38" t="s">
@@ -17267,7 +17392,7 @@
         <v>1613</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="251" t="s">
+      <c r="K5" s="250" t="s">
         <v>1612</v>
       </c>
       <c r="L5" t="s">
@@ -17298,7 +17423,7 @@
         <v>1629</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="251"/>
+      <c r="K6" s="250"/>
       <c r="M6" s="38" t="s">
         <v>30</v>
       </c>
@@ -17324,7 +17449,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="251"/>
+      <c r="K7" s="250"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
       <c r="O7" s="38"/>
@@ -17342,7 +17467,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="251"/>
+      <c r="K8" s="250"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
       <c r="O8" s="38"/>
@@ -17365,7 +17490,7 @@
         <v>1613</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="251"/>
+      <c r="K9" s="250"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
       <c r="O9" s="38"/>
@@ -17381,7 +17506,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="251"/>
+      <c r="K10" s="250"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
@@ -17394,7 +17519,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="251"/>
+      <c r="K11" s="250"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
@@ -17412,7 +17537,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="251"/>
+      <c r="K12" s="250"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -17430,7 +17555,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="251"/>
+      <c r="K13" s="250"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
@@ -17453,7 +17578,7 @@
         <v>1613</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="252"/>
+      <c r="K14" s="251"/>
       <c r="O14" t="s">
         <v>269</v>
       </c>
@@ -17603,19 +17728,19 @@
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="439" t="s">
+      <c r="B29" s="442" t="s">
         <v>1363</v>
       </c>
-      <c r="C29" s="439"/>
-      <c r="D29" s="439"/>
-      <c r="E29" s="439"/>
-      <c r="F29" s="439"/>
-      <c r="I29" s="439" t="s">
+      <c r="C29" s="442"/>
+      <c r="D29" s="442"/>
+      <c r="E29" s="442"/>
+      <c r="F29" s="442"/>
+      <c r="I29" s="442" t="s">
         <v>1643</v>
       </c>
-      <c r="J29" s="439"/>
-      <c r="K29" s="439"/>
-      <c r="L29" s="439"/>
+      <c r="J29" s="442"/>
+      <c r="K29" s="442"/>
+      <c r="L29" s="442"/>
     </row>
     <row r="31" spans="2:17">
       <c r="I31" t="s">
@@ -17665,7 +17790,7 @@
       <c r="E35" s="38">
         <v>1234</v>
       </c>
-      <c r="F35" s="373" t="s">
+      <c r="F35" s="372" t="s">
         <v>1639</v>
       </c>
       <c r="J35" t="s">
@@ -17685,7 +17810,7 @@
       <c r="E36" s="38">
         <v>3456</v>
       </c>
-      <c r="F36" s="373" t="s">
+      <c r="F36" s="372" t="s">
         <v>1640</v>
       </c>
       <c r="J36" t="s">
@@ -18055,10 +18180,10 @@
     </row>
     <row r="62" spans="1:13">
       <c r="E62" s="4"/>
-      <c r="F62" s="381" t="s">
+      <c r="F62" s="380" t="s">
         <v>999</v>
       </c>
-      <c r="G62" s="381" t="s">
+      <c r="G62" s="380" t="s">
         <v>1679</v>
       </c>
       <c r="H62" s="5"/>
@@ -18070,10 +18195,10 @@
     </row>
     <row r="63" spans="1:13">
       <c r="E63" s="4"/>
-      <c r="F63" s="381" t="s">
+      <c r="F63" s="380" t="s">
         <v>1684</v>
       </c>
-      <c r="G63" s="381" t="s">
+      <c r="G63" s="380" t="s">
         <v>1685</v>
       </c>
       <c r="H63" s="5"/>
@@ -18085,10 +18210,10 @@
     </row>
     <row r="64" spans="1:13">
       <c r="E64" s="4"/>
-      <c r="F64" s="380">
+      <c r="F64" s="379">
         <v>4000</v>
       </c>
-      <c r="G64" s="380">
+      <c r="G64" s="379">
         <v>2000</v>
       </c>
       <c r="H64" s="5"/>
@@ -18900,10 +19025,10 @@
         <v>953</v>
       </c>
       <c r="H244" s="12"/>
-      <c r="J244" s="264" t="s">
+      <c r="J244" s="263" t="s">
         <v>774</v>
       </c>
-      <c r="K244" s="264" t="s">
+      <c r="K244" s="263" t="s">
         <v>296</v>
       </c>
       <c r="L244" s="12" t="s">
@@ -18922,13 +19047,13 @@
       <c r="F245" s="38"/>
       <c r="G245" s="38"/>
       <c r="H245" s="70"/>
-      <c r="J245" s="248">
+      <c r="J245" s="247">
         <v>1</v>
       </c>
-      <c r="K245" s="248" t="s">
+      <c r="K245" s="247" t="s">
         <v>303</v>
       </c>
-      <c r="L245" s="248">
+      <c r="L245" s="247">
         <v>2</v>
       </c>
       <c r="N245" t="s">
@@ -18955,13 +19080,13 @@
         <v>345</v>
       </c>
       <c r="H246" s="70"/>
-      <c r="J246" s="248">
+      <c r="J246" s="247">
         <v>2</v>
       </c>
-      <c r="K246" s="248" t="s">
+      <c r="K246" s="247" t="s">
         <v>981</v>
       </c>
-      <c r="L246" s="248">
+      <c r="L246" s="247">
         <v>1</v>
       </c>
       <c r="N246" t="s">
@@ -18991,13 +19116,13 @@
         <v>123</v>
       </c>
       <c r="H247" s="70"/>
-      <c r="J247" s="248">
+      <c r="J247" s="247">
         <v>3</v>
       </c>
-      <c r="K247" s="248" t="s">
+      <c r="K247" s="247" t="s">
         <v>336</v>
       </c>
-      <c r="L247" s="248">
+      <c r="L247" s="247">
         <v>2</v>
       </c>
     </row>
@@ -19007,13 +19132,13 @@
       <c r="F248" s="38"/>
       <c r="G248" s="38"/>
       <c r="H248" s="38"/>
-      <c r="J248" s="248">
+      <c r="J248" s="247">
         <v>3</v>
       </c>
-      <c r="K248" s="248" t="s">
+      <c r="K248" s="247" t="s">
         <v>981</v>
       </c>
-      <c r="L248" s="248">
+      <c r="L248" s="247">
         <v>2</v>
       </c>
     </row>
@@ -19023,9 +19148,9 @@
       <c r="F249" s="38"/>
       <c r="G249" s="38"/>
       <c r="H249" s="38"/>
-      <c r="J249" s="248"/>
-      <c r="K249" s="248"/>
-      <c r="L249" s="248"/>
+      <c r="J249" s="247"/>
+      <c r="K249" s="247"/>
+      <c r="L249" s="247"/>
     </row>
     <row r="250" spans="1:15">
       <c r="D250" t="s">
@@ -19072,7 +19197,7 @@
       <c r="G255" s="38"/>
       <c r="H255" s="38"/>
       <c r="I255" s="38"/>
-      <c r="J255" s="263"/>
+      <c r="J255" s="262"/>
       <c r="K255" s="38"/>
     </row>
     <row r="256" spans="1:15">
@@ -19080,7 +19205,7 @@
       <c r="G256" s="38"/>
       <c r="H256" s="38"/>
       <c r="I256" s="38"/>
-      <c r="J256" s="263"/>
+      <c r="J256" s="262"/>
       <c r="K256" s="38"/>
     </row>
     <row r="257" spans="1:14">
@@ -19218,7 +19343,7 @@
       <c r="E270" t="s">
         <v>1002</v>
       </c>
-      <c r="F270" s="265"/>
+      <c r="F270" s="264"/>
       <c r="G270" s="38"/>
       <c r="H270" s="24" t="s">
         <v>1001</v>
@@ -19263,25 +19388,28 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q203"/>
+  <dimension ref="A2:Q255"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52:J54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="1:17">
       <c r="B2" s="37" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
       <c r="B4" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1">
+      <c r="D4" s="16" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
       <c r="D5" s="1" t="s">
         <v>148</v>
       </c>
@@ -19299,20 +19427,20 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="449" t="s">
+      <c r="E6" s="546" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="384"/>
-      <c r="G6" s="383" t="s">
+      <c r="F6" s="547"/>
+      <c r="G6" s="548" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="383"/>
-      <c r="I6" s="383"/>
-      <c r="J6" s="383"/>
-      <c r="K6" s="383"/>
-      <c r="L6" s="384"/>
+      <c r="H6" s="548"/>
+      <c r="I6" s="548"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="548"/>
+      <c r="L6" s="547"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -19321,42 +19449,47 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="D7" s="444">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="B7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D7" s="447">
         <v>80</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="242"/>
+      <c r="E7" s="549" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F7" s="550"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="549"/>
+      <c r="J7" s="550"/>
       <c r="K7" s="66"/>
-      <c r="L7" s="242"/>
+      <c r="L7" s="241"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="D8" s="444"/>
-      <c r="E8" s="58" t="s">
+    <row r="8" spans="1:17" ht="15" customHeight="1">
+      <c r="D8" s="447"/>
+      <c r="E8" s="378" t="s">
         <v>380</v>
       </c>
-      <c r="F8" s="316"/>
-      <c r="G8" s="58" t="s">
+      <c r="F8" s="551"/>
+      <c r="G8" s="378" t="s">
         <v>381</v>
       </c>
-      <c r="H8" s="316"/>
-      <c r="I8" s="58" t="s">
+      <c r="H8" s="551"/>
+      <c r="I8" s="378" t="s">
         <v>382</v>
       </c>
-      <c r="J8" s="316"/>
+      <c r="J8" s="551"/>
       <c r="K8" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="L8" s="316"/>
+      <c r="L8" s="315"/>
       <c r="M8" s="5" t="s">
         <v>1291</v>
       </c>
@@ -19371,19 +19504,19 @@
       </c>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
       <c r="B9" t="s">
         <v>379</v>
       </c>
-      <c r="D9" s="444"/>
-      <c r="E9" s="237"/>
-      <c r="F9" s="243"/>
-      <c r="G9" s="237"/>
-      <c r="H9" s="243"/>
-      <c r="I9" s="237"/>
-      <c r="J9" s="243"/>
-      <c r="K9" s="237"/>
-      <c r="L9" s="243"/>
+      <c r="D9" s="447"/>
+      <c r="E9" s="552"/>
+      <c r="F9" s="553"/>
+      <c r="G9" s="552"/>
+      <c r="H9" s="553"/>
+      <c r="I9" s="552"/>
+      <c r="J9" s="553"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="242"/>
       <c r="M9" s="5" t="s">
         <v>2</v>
       </c>
@@ -19398,16 +19531,19 @@
       </c>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="D10" s="444"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="242"/>
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D10" s="447"/>
+      <c r="E10" s="549"/>
+      <c r="F10" s="550"/>
+      <c r="G10" s="549"/>
+      <c r="H10" s="550"/>
+      <c r="I10" s="549"/>
+      <c r="J10" s="550"/>
+      <c r="K10" s="549"/>
+      <c r="L10" s="550"/>
       <c r="M10" s="5" t="s">
         <v>186</v>
       </c>
@@ -19422,24 +19558,24 @@
       </c>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="D11" s="444"/>
-      <c r="E11" s="58" t="s">
+    <row r="11" spans="1:17" ht="15" customHeight="1">
+      <c r="D11" s="447"/>
+      <c r="E11" s="378" t="s">
         <v>384</v>
       </c>
-      <c r="F11" s="316"/>
-      <c r="G11" s="58" t="s">
+      <c r="F11" s="551"/>
+      <c r="G11" s="378" t="s">
         <v>385</v>
       </c>
-      <c r="H11" s="316"/>
-      <c r="I11" s="58" t="s">
+      <c r="H11" s="551"/>
+      <c r="I11" s="378" t="s">
         <v>386</v>
       </c>
-      <c r="J11" s="316"/>
-      <c r="K11" s="58" t="s">
+      <c r="J11" s="551"/>
+      <c r="K11" s="378" t="s">
         <v>387</v>
       </c>
-      <c r="L11" s="316"/>
+      <c r="L11" s="551"/>
       <c r="M11" s="5">
         <v>1000</v>
       </c>
@@ -19448,19 +19584,19 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="214" t="s">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="213" t="s">
         <v>388</v>
       </c>
-      <c r="D12" s="444"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="243"/>
-      <c r="G12" s="237"/>
-      <c r="H12" s="243"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="243"/>
-      <c r="K12" s="237"/>
-      <c r="L12" s="243"/>
+      <c r="D12" s="447"/>
+      <c r="E12" s="552"/>
+      <c r="F12" s="553"/>
+      <c r="G12" s="552"/>
+      <c r="H12" s="553"/>
+      <c r="I12" s="552"/>
+      <c r="J12" s="553"/>
+      <c r="K12" s="552"/>
+      <c r="L12" s="553"/>
       <c r="M12" s="5" t="s">
         <v>2</v>
       </c>
@@ -19469,72 +19605,84 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="D13" s="444"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="242"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="242"/>
+    <row r="13" spans="1:17" ht="15" customHeight="1">
+      <c r="B13" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D13" s="447"/>
+      <c r="E13" s="549"/>
+      <c r="F13" s="550"/>
+      <c r="G13" s="549"/>
+      <c r="H13" s="550"/>
+      <c r="I13" s="549"/>
+      <c r="J13" s="550"/>
+      <c r="K13" s="549"/>
+      <c r="L13" s="550"/>
       <c r="M13" s="5"/>
       <c r="N13" s="38"/>
       <c r="O13" s="38"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="D14" s="444"/>
-      <c r="E14" s="58" t="s">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
+      <c r="B14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D14" s="447"/>
+      <c r="E14" s="378" t="s">
         <v>389</v>
       </c>
-      <c r="F14" s="316"/>
-      <c r="G14" s="58" t="s">
+      <c r="F14" s="551"/>
+      <c r="G14" s="378" t="s">
         <v>390</v>
       </c>
-      <c r="H14" s="316"/>
-      <c r="I14" s="58" t="s">
+      <c r="H14" s="551"/>
+      <c r="I14" s="378" t="s">
         <v>391</v>
       </c>
-      <c r="J14" s="316"/>
-      <c r="K14" s="58" t="s">
+      <c r="J14" s="551"/>
+      <c r="K14" s="378" t="s">
         <v>392</v>
       </c>
-      <c r="L14" s="316"/>
+      <c r="L14" s="551"/>
       <c r="M14" s="5"/>
       <c r="N14" s="38"/>
       <c r="O14" s="38"/>
       <c r="P14" s="38"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="2:17" ht="15.75" customHeight="1" thickBot="1">
-      <c r="D15" s="444"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="243"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="243"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="243"/>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B15" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D15" s="447"/>
+      <c r="E15" s="552"/>
+      <c r="F15" s="553"/>
+      <c r="G15" s="552"/>
+      <c r="H15" s="553"/>
+      <c r="I15" s="552"/>
+      <c r="J15" s="553"/>
+      <c r="K15" s="552"/>
+      <c r="L15" s="553"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="D16" s="444"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="316"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="316"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="316"/>
+    <row r="16" spans="1:17" ht="15" customHeight="1">
+      <c r="B16" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D16" s="447"/>
+      <c r="E16" s="549"/>
+      <c r="F16" s="550"/>
+      <c r="G16" s="554"/>
+      <c r="H16" s="551"/>
+      <c r="I16" s="378"/>
+      <c r="J16" s="551"/>
+      <c r="K16" s="554"/>
+      <c r="L16" s="551"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -19542,23 +19690,23 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="444"/>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="447"/>
+      <c r="E17" s="378" t="s">
         <v>393</v>
       </c>
-      <c r="F17" s="316"/>
-      <c r="G17" s="59" t="s">
+      <c r="F17" s="551"/>
+      <c r="G17" s="554" t="s">
         <v>394</v>
       </c>
-      <c r="H17" s="316"/>
-      <c r="I17" s="58" t="s">
+      <c r="H17" s="551"/>
+      <c r="I17" s="378" t="s">
         <v>395</v>
       </c>
-      <c r="J17" s="316"/>
-      <c r="K17" s="59" t="s">
+      <c r="J17" s="551"/>
+      <c r="K17" s="554" t="s">
         <v>396</v>
       </c>
-      <c r="L17" s="316"/>
+      <c r="L17" s="551"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -19566,15 +19714,15 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="444"/>
-      <c r="E18" s="237"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="325"/>
-      <c r="H18" s="243"/>
-      <c r="I18" s="325"/>
-      <c r="J18" s="243"/>
-      <c r="K18" s="325"/>
-      <c r="L18" s="243"/>
+      <c r="D18" s="447"/>
+      <c r="E18" s="552"/>
+      <c r="F18" s="553"/>
+      <c r="G18" s="555"/>
+      <c r="H18" s="553"/>
+      <c r="I18" s="555"/>
+      <c r="J18" s="553"/>
+      <c r="K18" s="555"/>
+      <c r="L18" s="553"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -19583,20 +19731,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="450" t="s">
+      <c r="E19" s="444" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="451"/>
-      <c r="G19" s="450" t="s">
+      <c r="F19" s="445"/>
+      <c r="G19" s="444" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="451"/>
-      <c r="I19" s="450" t="s">
+      <c r="H19" s="445"/>
+      <c r="I19" s="444" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="452"/>
-      <c r="K19" s="452"/>
-      <c r="L19" s="451"/>
+      <c r="J19" s="446"/>
+      <c r="K19" s="446"/>
+      <c r="L19" s="445"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -19661,19 +19809,19 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="448"/>
-      <c r="H24" s="448"/>
-      <c r="I24" s="448"/>
-      <c r="J24" s="448"/>
-      <c r="K24" s="448"/>
-      <c r="L24" s="448"/>
+      <c r="G24" s="451"/>
+      <c r="H24" s="451"/>
+      <c r="I24" s="451"/>
+      <c r="J24" s="451"/>
+      <c r="K24" s="451"/>
+      <c r="L24" s="451"/>
       <c r="O24" s="40" t="s">
         <v>178</v>
       </c>
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D25" s="216">
+      <c r="D25" s="215">
         <v>80</v>
       </c>
       <c r="E25" s="7" t="s">
@@ -19695,10 +19843,10 @@
       <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" thickBot="1">
-      <c r="B26" s="214" t="s">
+      <c r="B26" s="213" t="s">
         <v>397</v>
       </c>
-      <c r="D26" s="217"/>
+      <c r="D26" s="216"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -19718,10 +19866,10 @@
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D27" s="215">
+      <c r="D27" s="214">
         <v>5050</v>
       </c>
-      <c r="E27" s="269" t="s">
+      <c r="E27" s="268" t="s">
         <v>398</v>
       </c>
       <c r="F27" s="150"/>
@@ -19753,7 +19901,7 @@
       <c r="A28" t="s">
         <v>1017</v>
       </c>
-      <c r="D28" s="217"/>
+      <c r="D28" s="216"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
@@ -19780,7 +19928,7 @@
       <c r="A29" t="s">
         <v>1019</v>
       </c>
-      <c r="D29" s="215">
+      <c r="D29" s="214">
         <v>6060</v>
       </c>
       <c r="E29" s="7" t="s">
@@ -19809,7 +19957,7 @@
       <c r="A30" t="s">
         <v>1018</v>
       </c>
-      <c r="D30" s="217"/>
+      <c r="D30" s="216"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -19827,7 +19975,7 @@
       <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D31" s="215">
+      <c r="D31" s="214">
         <v>7070</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -19850,7 +19998,7 @@
       <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D32" s="217"/>
+      <c r="D32" s="216"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
@@ -19865,23 +20013,23 @@
       <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D33" s="215">
+      <c r="D33" s="214">
         <v>8080</v>
       </c>
-      <c r="E33" s="212" t="s">
+      <c r="E33" s="556" t="s">
         <v>394</v>
       </c>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213" t="s">
+      <c r="F33" s="557"/>
+      <c r="G33" s="557" t="s">
         <v>395</v>
       </c>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213" t="s">
+      <c r="H33" s="557"/>
+      <c r="I33" s="212" t="s">
         <v>383</v>
       </c>
-      <c r="J33" s="213"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="108"/>
+      <c r="J33" s="212"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="151"/>
       <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:17" ht="15.75" thickBot="1">
@@ -19931,11 +20079,13 @@
       <c r="F41" t="s">
         <v>148</v>
       </c>
-      <c r="G41" s="218" t="s">
+      <c r="G41" s="217" t="s">
         <v>400</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="I41" s="2" t="s">
+        <v>1713</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="L41" t="s">
         <v>870</v>
@@ -20019,10 +20169,10 @@
       <c r="F46" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="G46" s="267" t="s">
+      <c r="G46" s="266" t="s">
         <v>1015</v>
       </c>
-      <c r="H46" s="268"/>
+      <c r="H46" s="267"/>
       <c r="I46" s="24" t="s">
         <v>402</v>
       </c>
@@ -20036,14 +20186,14 @@
     <row r="47" spans="1:17" ht="15.75" thickBot="1">
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
-      <c r="G47" s="227" t="s">
+      <c r="G47" s="226" t="s">
         <v>862</v>
       </c>
-      <c r="H47" s="445" t="s">
+      <c r="H47" s="448" t="s">
         <v>1318</v>
       </c>
-      <c r="I47" s="446"/>
-      <c r="J47" s="447"/>
+      <c r="I47" s="449"/>
+      <c r="J47" s="450"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -20116,24 +20266,26 @@
       <c r="F52" t="s">
         <v>1303</v>
       </c>
-      <c r="G52" s="221" t="s">
+      <c r="G52" s="220" t="s">
         <v>406</v>
       </c>
-      <c r="H52" s="222"/>
-      <c r="I52" s="220"/>
-      <c r="J52" s="226" t="s">
+      <c r="H52" s="221" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I52" s="219"/>
+      <c r="J52" s="225" t="s">
         <v>407</v>
       </c>
-      <c r="K52" s="219"/>
-      <c r="L52" s="220" t="s">
+      <c r="K52" s="218"/>
+      <c r="L52" s="219" t="s">
         <v>1304</v>
       </c>
-      <c r="M52" s="218" t="s">
+      <c r="M52" s="217" t="s">
         <v>408</v>
       </c>
-      <c r="N52" s="219"/>
-      <c r="O52" s="220"/>
-      <c r="P52" s="218" t="s">
+      <c r="N52" s="218"/>
+      <c r="O52" s="219"/>
+      <c r="P52" s="217" t="s">
         <v>409</v>
       </c>
       <c r="Q52" s="3"/>
@@ -20151,7 +20303,7 @@
       <c r="G53" s="20" t="s">
         <v>825</v>
       </c>
-      <c r="H53" s="223" t="s">
+      <c r="H53" s="222" t="s">
         <v>831</v>
       </c>
       <c r="J53" s="35" t="s">
@@ -20175,10 +20327,10 @@
       <c r="F54" s="40" t="s">
         <v>399</v>
       </c>
-      <c r="G54" s="225" t="s">
+      <c r="G54" s="224" t="s">
         <v>826</v>
       </c>
-      <c r="H54" s="224"/>
+      <c r="H54" s="223"/>
       <c r="I54" t="s">
         <v>857</v>
       </c>
@@ -20303,7 +20455,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:13">
       <c r="B65" s="76" t="s">
         <v>847</v>
       </c>
@@ -20314,7 +20466,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:13">
       <c r="B66" s="76" t="s">
         <v>848</v>
       </c>
@@ -20325,7 +20477,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:13">
       <c r="B67" s="76" t="s">
         <v>846</v>
       </c>
@@ -20336,7 +20488,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:13">
       <c r="B68" s="76" t="s">
         <v>849</v>
       </c>
@@ -20347,7 +20499,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:13">
       <c r="B69" s="76" t="s">
         <v>850</v>
       </c>
@@ -20358,7 +20510,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:13">
       <c r="B70" s="76" t="s">
         <v>853</v>
       </c>
@@ -20369,7 +20521,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:13">
       <c r="B71" s="76" t="s">
         <v>1031</v>
       </c>
@@ -20380,12 +20532,20 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:13">
       <c r="C72" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
+    <row r="73" spans="2:13">
+      <c r="D73" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13">
       <c r="D75" t="s">
         <v>831</v>
       </c>
@@ -20393,808 +20553,1135 @@
         <v>871</v>
       </c>
     </row>
-    <row r="84" spans="3:14" ht="15.75" thickBot="1"/>
-    <row r="85" spans="3:14">
-      <c r="C85" s="1"/>
-      <c r="D85" s="3"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14">
-      <c r="C86" s="4"/>
-      <c r="D86" s="6"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="6"/>
-    </row>
-    <row r="87" spans="3:14">
-      <c r="C87" s="4"/>
-      <c r="D87" s="6"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="6"/>
-    </row>
-    <row r="88" spans="3:14">
-      <c r="C88" s="4"/>
-      <c r="D88" s="6"/>
-      <c r="M88" s="4" t="s">
+    <row r="76" spans="2:13" ht="15.75" thickBot="1">
+      <c r="B76" t="s">
+        <v>400</v>
+      </c>
+      <c r="J76" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="3"/>
+      <c r="G77" t="s">
+        <v>1718</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="6"/>
+      <c r="F78" t="s">
+        <v>114</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I78" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K78" s="24" t="s">
+        <v>1737</v>
+      </c>
+      <c r="L78" s="5"/>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="2:13">
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+      <c r="G79" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J79" s="4"/>
+      <c r="K79" s="49" t="s">
+        <v>1726</v>
+      </c>
+      <c r="L79" s="5"/>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="2:13">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
+      <c r="G80" t="s">
+        <v>1721</v>
+      </c>
+      <c r="J80" s="4"/>
+      <c r="K80" s="5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="L80" s="5"/>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="40" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H81" s="40" t="s">
+        <v>1727</v>
+      </c>
+      <c r="I81" s="40"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="4"/>
+      <c r="C82" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="6"/>
+      <c r="G82" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J82" s="4"/>
+      <c r="K82" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="L82" s="5"/>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
+      <c r="F83" t="s">
+        <v>270</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="6"/>
+      <c r="G84" t="s">
+        <v>1724</v>
+      </c>
+      <c r="J84" s="4"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B85" s="8"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9"/>
+      <c r="G85" t="s">
+        <v>1725</v>
+      </c>
+      <c r="J85" s="8"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="9"/>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="G86" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" ht="15.75" thickBot="1">
+      <c r="D91" t="s">
+        <v>831</v>
+      </c>
+      <c r="F91" t="s">
+        <v>871</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B92" t="s">
+        <v>400</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="3"/>
+      <c r="F93" t="s">
+        <v>1729</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="6"/>
+      <c r="F94" t="s">
+        <v>1731</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="N94" s="5"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="6"/>
+      <c r="F95" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1732</v>
+      </c>
+      <c r="J95" t="s">
+        <v>509</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="N95" s="5"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="4"/>
+      <c r="C96" s="5" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D96" s="5"/>
+      <c r="E96" s="6"/>
+      <c r="F96" t="s">
+        <v>1733</v>
+      </c>
+      <c r="L96" s="4" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="2:15">
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="544" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G97" s="442"/>
+      <c r="H97" s="442"/>
+      <c r="I97" s="442"/>
+      <c r="J97" s="442"/>
+      <c r="K97" s="545"/>
+      <c r="L97" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="6"/>
+      <c r="F98" t="s">
+        <v>1734</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="6"/>
+      <c r="F99" t="s">
+        <v>1735</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="6"/>
+      <c r="F100" t="s">
+        <v>1736</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="9"/>
+    </row>
+    <row r="101" spans="2:15" ht="15.75" thickBot="1">
+      <c r="B101" s="8"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="136" spans="3:14" ht="15.75" thickBot="1"/>
+    <row r="137" spans="3:14">
+      <c r="C137" s="1"/>
+      <c r="D137" s="3"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="3"/>
+    </row>
+    <row r="138" spans="3:14">
+      <c r="C138" s="4"/>
+      <c r="D138" s="6"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="6"/>
+    </row>
+    <row r="139" spans="3:14">
+      <c r="C139" s="4"/>
+      <c r="D139" s="6"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="6"/>
+    </row>
+    <row r="140" spans="3:14">
+      <c r="C140" s="4"/>
+      <c r="D140" s="6"/>
+      <c r="M140" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="N88" s="6"/>
-    </row>
-    <row r="89" spans="3:14">
-      <c r="C89" s="4" t="s">
+      <c r="N140" s="6"/>
+    </row>
+    <row r="141" spans="3:14">
+      <c r="C141" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="D89" s="6"/>
-      <c r="M89" s="4" t="s">
+      <c r="D141" s="6"/>
+      <c r="M141" s="4" t="s">
         <v>876</v>
       </c>
-      <c r="N89" s="6"/>
-    </row>
-    <row r="90" spans="3:14">
-      <c r="C90" s="4" t="s">
+      <c r="N141" s="6"/>
+    </row>
+    <row r="142" spans="3:14">
+      <c r="C142" s="4" t="s">
         <v>874</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="F90" t="s">
+      <c r="D142" s="6"/>
+      <c r="F142" t="s">
         <v>461</v>
       </c>
-      <c r="M90" s="4"/>
-      <c r="N90" s="6"/>
-    </row>
-    <row r="91" spans="3:14">
-      <c r="C91" s="4"/>
-      <c r="D91" s="6"/>
-      <c r="F91" t="s">
+      <c r="M142" s="4"/>
+      <c r="N142" s="6"/>
+    </row>
+    <row r="143" spans="3:14">
+      <c r="C143" s="4"/>
+      <c r="D143" s="6"/>
+      <c r="F143" t="s">
         <v>462</v>
       </c>
-      <c r="M91" s="4"/>
-      <c r="N91" s="6"/>
-    </row>
-    <row r="92" spans="3:14" ht="15.75" thickBot="1">
-      <c r="C92" s="8"/>
-      <c r="D92" s="9"/>
-      <c r="G92" t="s">
+      <c r="M143" s="4"/>
+      <c r="N143" s="6"/>
+    </row>
+    <row r="144" spans="3:14" ht="15.75" thickBot="1">
+      <c r="C144" s="8"/>
+      <c r="D144" s="9"/>
+      <c r="G144" t="s">
         <v>464</v>
       </c>
-      <c r="M92" s="8"/>
-      <c r="N92" s="9"/>
-    </row>
-    <row r="93" spans="3:14">
-      <c r="C93" t="s">
+      <c r="M144" s="8"/>
+      <c r="N144" s="9"/>
+    </row>
+    <row r="145" spans="3:14">
+      <c r="C145" t="s">
         <v>453</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H145" t="s">
         <v>465</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M145" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="94" spans="3:14">
-      <c r="C94" s="123" t="s">
+    <row r="146" spans="3:14">
+      <c r="C146" s="123" t="s">
         <v>460</v>
       </c>
-      <c r="D94" s="123"/>
-      <c r="E94" t="s">
+      <c r="D146" s="123"/>
+      <c r="E146" t="s">
         <v>463</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H146" t="s">
         <v>466</v>
       </c>
-      <c r="M94" s="16" t="s">
+      <c r="M146" s="16" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="95" spans="3:14">
-      <c r="C95" s="123"/>
-      <c r="D95" s="123"/>
-      <c r="M95" s="124"/>
-      <c r="N95" s="32"/>
-    </row>
-    <row r="96" spans="3:14">
-      <c r="C96" s="32"/>
-      <c r="D96" s="124"/>
-      <c r="H96" t="s">
+    <row r="147" spans="3:14">
+      <c r="C147" s="123"/>
+      <c r="D147" s="123"/>
+      <c r="M147" s="124"/>
+      <c r="N147" s="32"/>
+    </row>
+    <row r="148" spans="3:14">
+      <c r="C148" s="32"/>
+      <c r="D148" s="124"/>
+      <c r="H148" t="s">
         <v>484</v>
       </c>
-      <c r="M96" s="124"/>
-      <c r="N96" s="32"/>
-    </row>
-    <row r="97" spans="3:14">
-      <c r="C97" s="32"/>
-      <c r="D97" s="124"/>
-      <c r="M97" s="124"/>
-      <c r="N97" s="32"/>
-    </row>
-    <row r="98" spans="3:14">
-      <c r="C98" s="32"/>
-      <c r="D98" s="124"/>
-      <c r="M98" s="124"/>
-      <c r="N98" s="32"/>
-    </row>
-    <row r="99" spans="3:14">
-      <c r="C99" s="32"/>
-      <c r="D99" s="124"/>
-      <c r="M99" s="124"/>
-      <c r="N99" s="32"/>
-    </row>
-    <row r="100" spans="3:14">
-      <c r="C100" s="32"/>
-      <c r="D100" s="124" t="s">
+      <c r="M148" s="124"/>
+      <c r="N148" s="32"/>
+    </row>
+    <row r="149" spans="3:14">
+      <c r="C149" s="32"/>
+      <c r="D149" s="124"/>
+      <c r="M149" s="124"/>
+      <c r="N149" s="32"/>
+    </row>
+    <row r="150" spans="3:14">
+      <c r="C150" s="32"/>
+      <c r="D150" s="124"/>
+      <c r="M150" s="124"/>
+      <c r="N150" s="32"/>
+    </row>
+    <row r="151" spans="3:14">
+      <c r="C151" s="32"/>
+      <c r="D151" s="124"/>
+      <c r="M151" s="124"/>
+      <c r="N151" s="32"/>
+    </row>
+    <row r="152" spans="3:14">
+      <c r="C152" s="32"/>
+      <c r="D152" s="124" t="s">
         <v>268</v>
       </c>
-      <c r="E100" s="124"/>
-      <c r="F100" s="124"/>
-      <c r="G100" s="124" t="s">
+      <c r="E152" s="124"/>
+      <c r="F152" s="124"/>
+      <c r="G152" s="124" t="s">
         <v>456</v>
       </c>
-      <c r="H100" s="124"/>
-      <c r="I100" s="124" t="s">
+      <c r="H152" s="124"/>
+      <c r="I152" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="J100" s="124"/>
-      <c r="K100" s="124"/>
-      <c r="L100" s="124"/>
-      <c r="M100" s="124"/>
-      <c r="N100" s="32"/>
-    </row>
-    <row r="101" spans="3:14">
-      <c r="C101" s="32"/>
-      <c r="D101" s="32" t="s">
+      <c r="J152" s="124"/>
+      <c r="K152" s="124"/>
+      <c r="L152" s="124"/>
+      <c r="M152" s="124"/>
+      <c r="N152" s="32"/>
+    </row>
+    <row r="153" spans="3:14">
+      <c r="C153" s="32"/>
+      <c r="D153" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32" t="s">
+      <c r="E153" s="32"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="H101" s="32"/>
-      <c r="I101" s="32" t="s">
+      <c r="H153" s="32"/>
+      <c r="I153" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="J101" s="32"/>
-      <c r="K101" s="32"/>
-      <c r="L101" s="32"/>
-      <c r="M101" s="32"/>
-      <c r="N101" s="32"/>
-    </row>
-    <row r="103" spans="3:14">
-      <c r="F103" t="s">
+      <c r="J153" s="32"/>
+      <c r="K153" s="32"/>
+      <c r="L153" s="32"/>
+      <c r="M153" s="32"/>
+      <c r="N153" s="32"/>
+    </row>
+    <row r="155" spans="3:14">
+      <c r="F155" t="s">
         <v>467</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I155" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="104" spans="3:14">
-      <c r="I104" t="s">
+    <row r="156" spans="3:14">
+      <c r="I156" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="105" spans="3:14">
-      <c r="I105" t="s">
+    <row r="157" spans="3:14">
+      <c r="I157" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="3:14">
-      <c r="I106" t="s">
+    <row r="158" spans="3:14" ht="15" customHeight="1">
+      <c r="I158" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="3:14">
-      <c r="I107" t="s">
+    <row r="159" spans="3:14">
+      <c r="I159" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="108" spans="3:14">
-      <c r="I108" t="s">
+    <row r="160" spans="3:14">
+      <c r="I160" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="109" spans="3:14">
-      <c r="I109" t="s">
+    <row r="161" spans="6:9">
+      <c r="I161" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="110" spans="3:14">
-      <c r="I110" t="s">
+    <row r="162" spans="6:9">
+      <c r="I162" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="111" spans="3:14">
-      <c r="I111" t="s">
+    <row r="163" spans="6:9">
+      <c r="I163" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="113" spans="6:9">
-      <c r="F113">
+    <row r="165" spans="6:9">
+      <c r="F165">
         <v>3</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I165" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="114" spans="6:9">
-      <c r="I114" t="s">
+    <row r="166" spans="6:9">
+      <c r="I166" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="6:9">
-      <c r="I115" t="s">
+    <row r="167" spans="6:9">
+      <c r="I167" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="116" spans="6:9">
-      <c r="I116" t="s">
+    <row r="168" spans="6:9">
+      <c r="I168" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="117" spans="6:9">
-      <c r="I117" t="s">
+    <row r="169" spans="6:9">
+      <c r="I169" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="118" spans="6:9">
-      <c r="I118" t="s">
+    <row r="170" spans="6:9">
+      <c r="I170" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="119" spans="6:9">
-      <c r="I119" t="s">
+    <row r="171" spans="6:9">
+      <c r="I171" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="131" spans="2:15">
-      <c r="D131" t="s">
+    <row r="183" spans="2:15">
+      <c r="D183" t="s">
         <v>1027</v>
       </c>
-      <c r="F131" s="38"/>
-      <c r="G131" s="442" t="s">
+      <c r="F183" s="38"/>
+      <c r="G183" s="383" t="s">
         <v>1020</v>
       </c>
-      <c r="H131" s="442"/>
-      <c r="I131" s="442"/>
-      <c r="J131" s="442"/>
-      <c r="K131" s="442"/>
-      <c r="L131" s="442"/>
-      <c r="M131" s="442"/>
-      <c r="N131" s="442"/>
-      <c r="O131" s="38"/>
-    </row>
-    <row r="132" spans="2:15">
-      <c r="B132" t="s">
+      <c r="H183" s="383"/>
+      <c r="I183" s="383"/>
+      <c r="J183" s="383"/>
+      <c r="K183" s="383"/>
+      <c r="L183" s="383"/>
+      <c r="M183" s="383"/>
+      <c r="N183" s="383"/>
+      <c r="O183" s="38"/>
+    </row>
+    <row r="184" spans="2:15">
+      <c r="B184" t="s">
         <v>1026</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D184" t="s">
         <v>193</v>
       </c>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="163"/>
-      <c r="I132" s="163"/>
-      <c r="J132" s="38"/>
-      <c r="K132" s="38"/>
-      <c r="L132" s="38"/>
-      <c r="M132" s="38"/>
-      <c r="N132" s="38"/>
-      <c r="O132" s="38"/>
-    </row>
-    <row r="133" spans="2:15">
-      <c r="F133" s="38" t="s">
+      <c r="F184" s="38"/>
+      <c r="G184" s="38"/>
+      <c r="H184" s="163"/>
+      <c r="I184" s="163"/>
+      <c r="J184" s="38"/>
+      <c r="K184" s="38"/>
+      <c r="L184" s="38"/>
+      <c r="M184" s="38"/>
+      <c r="N184" s="38"/>
+      <c r="O184" s="38"/>
+    </row>
+    <row r="185" spans="2:15">
+      <c r="F185" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="G133" s="38"/>
-      <c r="H133" s="163" t="s">
+      <c r="G185" s="38"/>
+      <c r="H185" s="163" t="s">
         <v>1023</v>
       </c>
-      <c r="I133" s="163"/>
-      <c r="J133" s="38"/>
-      <c r="K133" s="38"/>
-      <c r="L133" s="38"/>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38"/>
-      <c r="O133" s="38"/>
-    </row>
-    <row r="134" spans="2:15">
-      <c r="D134" t="s">
+      <c r="I185" s="163"/>
+      <c r="J185" s="38"/>
+      <c r="K185" s="38"/>
+      <c r="L185" s="38"/>
+      <c r="M185" s="38"/>
+      <c r="N185" s="38"/>
+      <c r="O185" s="38"/>
+    </row>
+    <row r="186" spans="2:15">
+      <c r="D186" t="s">
         <v>1028</v>
       </c>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="163"/>
-      <c r="I134" s="163"/>
-      <c r="J134" s="38"/>
-      <c r="K134" s="38"/>
-      <c r="L134" s="38"/>
-      <c r="M134" s="38"/>
-      <c r="N134" s="38"/>
-      <c r="O134" s="38"/>
-    </row>
-    <row r="135" spans="2:15">
-      <c r="F135" s="38" t="s">
+      <c r="F186" s="38"/>
+      <c r="G186" s="38"/>
+      <c r="H186" s="163"/>
+      <c r="I186" s="163"/>
+      <c r="J186" s="38"/>
+      <c r="K186" s="38"/>
+      <c r="L186" s="38"/>
+      <c r="M186" s="38"/>
+      <c r="N186" s="38"/>
+      <c r="O186" s="38"/>
+    </row>
+    <row r="187" spans="2:15">
+      <c r="F187" s="38" t="s">
         <v>1021</v>
       </c>
-      <c r="G135" s="38"/>
-      <c r="H135" s="163" t="s">
+      <c r="G187" s="38"/>
+      <c r="H187" s="163" t="s">
         <v>1024</v>
       </c>
-      <c r="I135" s="163"/>
-      <c r="J135" s="38"/>
-      <c r="K135" s="38"/>
-      <c r="L135" s="38"/>
-      <c r="M135" s="38"/>
-      <c r="N135" s="38"/>
-      <c r="O135" s="38"/>
-    </row>
-    <row r="136" spans="2:15">
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="163"/>
-      <c r="I136" s="163"/>
-      <c r="J136" s="38"/>
-      <c r="K136" s="38"/>
-      <c r="L136" s="38"/>
-      <c r="M136" s="38"/>
-      <c r="N136" s="38"/>
-      <c r="O136" s="38"/>
-    </row>
-    <row r="137" spans="2:15">
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="163"/>
-      <c r="I137" s="163"/>
-      <c r="J137" s="38"/>
-      <c r="K137" s="38"/>
-      <c r="L137" s="38"/>
-      <c r="M137" s="38"/>
-      <c r="N137" s="38"/>
-      <c r="O137" s="38"/>
-    </row>
-    <row r="138" spans="2:15">
-      <c r="D138" t="s">
+      <c r="I187" s="163"/>
+      <c r="J187" s="38"/>
+      <c r="K187" s="38"/>
+      <c r="L187" s="38"/>
+      <c r="M187" s="38"/>
+      <c r="N187" s="38"/>
+      <c r="O187" s="38"/>
+    </row>
+    <row r="188" spans="2:15">
+      <c r="F188" s="38"/>
+      <c r="G188" s="38"/>
+      <c r="H188" s="163"/>
+      <c r="I188" s="163"/>
+      <c r="J188" s="38"/>
+      <c r="K188" s="38"/>
+      <c r="L188" s="38"/>
+      <c r="M188" s="38"/>
+      <c r="N188" s="38"/>
+      <c r="O188" s="38"/>
+    </row>
+    <row r="189" spans="2:15">
+      <c r="F189" s="38"/>
+      <c r="G189" s="38"/>
+      <c r="H189" s="163"/>
+      <c r="I189" s="163"/>
+      <c r="J189" s="38"/>
+      <c r="K189" s="38"/>
+      <c r="L189" s="38"/>
+      <c r="M189" s="38"/>
+      <c r="N189" s="38"/>
+      <c r="O189" s="38"/>
+    </row>
+    <row r="190" spans="2:15">
+      <c r="D190" t="s">
         <v>1029</v>
       </c>
-      <c r="F138" s="38" t="s">
+      <c r="F190" s="38" t="s">
         <v>1022</v>
       </c>
-      <c r="G138" s="38"/>
-      <c r="H138" s="163" t="s">
+      <c r="G190" s="38"/>
+      <c r="H190" s="163" t="s">
         <v>1025</v>
       </c>
-      <c r="I138" s="163"/>
-      <c r="J138" s="38"/>
-      <c r="K138" s="38"/>
-      <c r="L138" s="38"/>
-      <c r="M138" s="38"/>
-      <c r="N138" s="38"/>
-      <c r="O138" s="38"/>
-    </row>
-    <row r="139" spans="2:15">
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="163"/>
-      <c r="I139" s="163"/>
-      <c r="J139" s="38"/>
-      <c r="K139" s="38"/>
-      <c r="L139" s="38"/>
-      <c r="M139" s="38"/>
-      <c r="N139" s="38"/>
-      <c r="O139" s="38"/>
-    </row>
-    <row r="140" spans="2:15">
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="163"/>
-      <c r="I140" s="163"/>
-      <c r="J140" s="38"/>
-      <c r="K140" s="38"/>
-      <c r="L140" s="38"/>
-      <c r="M140" s="38"/>
-      <c r="N140" s="38"/>
-      <c r="O140" s="38"/>
-    </row>
-    <row r="141" spans="2:15">
-      <c r="F141" s="38"/>
-      <c r="G141" s="443"/>
-      <c r="H141" s="443"/>
-      <c r="I141" s="443"/>
-      <c r="J141" s="443"/>
-      <c r="K141" s="443"/>
-      <c r="L141" s="443"/>
-      <c r="M141" s="443"/>
-      <c r="N141" s="443"/>
-      <c r="O141" s="443"/>
-    </row>
-    <row r="142" spans="2:15">
-      <c r="F142" s="38" t="s">
+      <c r="I190" s="163"/>
+      <c r="J190" s="38"/>
+      <c r="K190" s="38"/>
+      <c r="L190" s="38"/>
+      <c r="M190" s="38"/>
+      <c r="N190" s="38"/>
+      <c r="O190" s="38"/>
+    </row>
+    <row r="191" spans="2:15">
+      <c r="F191" s="38"/>
+      <c r="G191" s="38"/>
+      <c r="H191" s="163"/>
+      <c r="I191" s="163"/>
+      <c r="J191" s="38"/>
+      <c r="K191" s="38"/>
+      <c r="L191" s="38"/>
+      <c r="M191" s="38"/>
+      <c r="N191" s="38"/>
+      <c r="O191" s="38"/>
+    </row>
+    <row r="192" spans="2:15">
+      <c r="F192" s="38"/>
+      <c r="G192" s="38"/>
+      <c r="H192" s="163"/>
+      <c r="I192" s="163"/>
+      <c r="J192" s="38"/>
+      <c r="K192" s="38"/>
+      <c r="L192" s="38"/>
+      <c r="M192" s="38"/>
+      <c r="N192" s="38"/>
+      <c r="O192" s="38"/>
+    </row>
+    <row r="193" spans="6:15">
+      <c r="F193" s="38"/>
+      <c r="G193" s="384"/>
+      <c r="H193" s="384"/>
+      <c r="I193" s="384"/>
+      <c r="J193" s="384"/>
+      <c r="K193" s="384"/>
+      <c r="L193" s="384"/>
+      <c r="M193" s="384"/>
+      <c r="N193" s="384"/>
+      <c r="O193" s="384"/>
+    </row>
+    <row r="194" spans="6:15">
+      <c r="F194" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G142" s="443"/>
-      <c r="H142" s="443"/>
-      <c r="I142" s="443"/>
-      <c r="J142" s="443"/>
-      <c r="K142" s="443"/>
-      <c r="L142" s="443"/>
-      <c r="M142" s="443"/>
-      <c r="N142" s="443"/>
-      <c r="O142" s="443"/>
-    </row>
-    <row r="146" spans="4:13">
-      <c r="F146" t="s">
+      <c r="G194" s="384"/>
+      <c r="H194" s="384"/>
+      <c r="I194" s="384"/>
+      <c r="J194" s="384"/>
+      <c r="K194" s="384"/>
+      <c r="L194" s="384"/>
+      <c r="M194" s="384"/>
+      <c r="N194" s="384"/>
+      <c r="O194" s="384"/>
+    </row>
+    <row r="198" spans="6:15">
+      <c r="F198" t="s">
         <v>1319</v>
       </c>
-      <c r="J146" t="s">
+      <c r="J198" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="147" spans="4:13">
-      <c r="F147" t="s">
+    <row r="199" spans="6:15">
+      <c r="F199" t="s">
         <v>1321</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J199" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="148" spans="4:13">
-      <c r="F148" t="s">
+    <row r="200" spans="6:15">
+      <c r="F200" t="s">
         <v>1322</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J200" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="149" spans="4:13">
-      <c r="F149" t="s">
+    <row r="201" spans="6:15">
+      <c r="F201" t="s">
         <v>1325</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J201" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="150" spans="4:13">
-      <c r="F150" t="s">
+    <row r="202" spans="6:15">
+      <c r="F202" t="s">
         <v>852</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J202" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="157" spans="4:13" ht="15.75" thickBot="1"/>
-    <row r="158" spans="4:13">
-      <c r="D158" s="440" t="s">
+    <row r="209" spans="4:13" ht="15.75" thickBot="1"/>
+    <row r="210" spans="4:13" ht="45">
+      <c r="D210" s="381" t="s">
         <v>1284</v>
       </c>
-      <c r="E158" s="66"/>
-      <c r="F158" s="242"/>
-      <c r="G158" s="66"/>
-      <c r="H158" s="242"/>
-      <c r="I158" s="66"/>
-      <c r="J158" s="242"/>
-      <c r="K158" s="66"/>
-      <c r="L158" s="242"/>
-    </row>
-    <row r="159" spans="4:13">
-      <c r="D159" s="441"/>
-      <c r="E159" s="317" t="s">
+      <c r="E210" s="66"/>
+      <c r="F210" s="241"/>
+      <c r="G210" s="66"/>
+      <c r="H210" s="241"/>
+      <c r="I210" s="66"/>
+      <c r="J210" s="241"/>
+      <c r="K210" s="66"/>
+      <c r="L210" s="241"/>
+    </row>
+    <row r="211" spans="4:13">
+      <c r="D211" s="382"/>
+      <c r="E211" s="316" t="s">
         <v>1282</v>
       </c>
-      <c r="F159" s="318"/>
-      <c r="G159" s="317" t="s">
+      <c r="F211" s="317"/>
+      <c r="G211" s="316" t="s">
         <v>1283</v>
       </c>
-      <c r="H159" s="318"/>
-      <c r="I159" s="317" t="s">
+      <c r="H211" s="317"/>
+      <c r="I211" s="316" t="s">
         <v>1286</v>
       </c>
-      <c r="J159" s="318"/>
-      <c r="K159" s="58" t="s">
+      <c r="J211" s="317"/>
+      <c r="K211" s="58" t="s">
         <v>1285</v>
       </c>
-      <c r="L159" s="316"/>
-      <c r="M159" t="s">
+      <c r="L211" s="315"/>
+      <c r="M211" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="160" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D160" s="441"/>
-      <c r="E160" s="237"/>
-      <c r="F160" s="243"/>
-      <c r="G160" s="237"/>
-      <c r="H160" s="243"/>
-      <c r="I160" s="237"/>
-      <c r="J160" s="243"/>
-      <c r="K160" s="237"/>
-      <c r="L160" s="243"/>
-    </row>
-    <row r="161" spans="4:13">
-      <c r="D161" s="441"/>
-      <c r="E161" s="319"/>
-      <c r="F161" s="320"/>
-      <c r="G161" s="319"/>
-      <c r="H161" s="320"/>
-      <c r="I161" s="319"/>
-      <c r="J161" s="320"/>
-      <c r="K161" s="319"/>
-      <c r="L161" s="320"/>
-    </row>
-    <row r="162" spans="4:13">
-      <c r="D162" s="441"/>
-      <c r="E162" s="321"/>
-      <c r="F162" s="322"/>
-      <c r="G162" s="321"/>
-      <c r="H162" s="322"/>
-      <c r="I162" s="321"/>
-      <c r="J162" s="322"/>
-      <c r="K162" s="321"/>
-      <c r="L162" s="322"/>
-      <c r="M162" t="s">
+    <row r="212" spans="4:13" ht="15.75" thickBot="1">
+      <c r="D212" s="382"/>
+      <c r="E212" s="236"/>
+      <c r="F212" s="242"/>
+      <c r="G212" s="236"/>
+      <c r="H212" s="242"/>
+      <c r="I212" s="236"/>
+      <c r="J212" s="242"/>
+      <c r="K212" s="236"/>
+      <c r="L212" s="242"/>
+    </row>
+    <row r="213" spans="4:13">
+      <c r="D213" s="382"/>
+      <c r="E213" s="318"/>
+      <c r="F213" s="319"/>
+      <c r="G213" s="318"/>
+      <c r="H213" s="319"/>
+      <c r="I213" s="318"/>
+      <c r="J213" s="319"/>
+      <c r="K213" s="318"/>
+      <c r="L213" s="319"/>
+    </row>
+    <row r="214" spans="4:13">
+      <c r="D214" s="382"/>
+      <c r="E214" s="320"/>
+      <c r="F214" s="321"/>
+      <c r="G214" s="320"/>
+      <c r="H214" s="321"/>
+      <c r="I214" s="320"/>
+      <c r="J214" s="321"/>
+      <c r="K214" s="320"/>
+      <c r="L214" s="321"/>
+      <c r="M214" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="163" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D163" s="441"/>
-      <c r="E163" s="323"/>
-      <c r="F163" s="324"/>
-      <c r="G163" s="323"/>
-      <c r="H163" s="324"/>
-      <c r="I163" s="323"/>
-      <c r="J163" s="324"/>
-      <c r="K163" s="323"/>
-      <c r="L163" s="324"/>
-    </row>
-    <row r="164" spans="4:13">
-      <c r="D164" s="441"/>
-      <c r="E164" s="66"/>
-      <c r="F164" s="242"/>
-      <c r="G164" s="66"/>
-      <c r="H164" s="242"/>
-      <c r="I164" s="66"/>
-      <c r="J164" s="242"/>
-      <c r="K164" s="66"/>
-      <c r="L164" s="242"/>
-    </row>
-    <row r="165" spans="4:13">
-      <c r="D165" s="441"/>
-      <c r="E165" s="58"/>
-      <c r="F165" s="316"/>
-      <c r="G165" s="58"/>
-      <c r="H165" s="316"/>
-      <c r="I165" s="58"/>
-      <c r="J165" s="316"/>
-      <c r="K165" s="58"/>
-      <c r="L165" s="316"/>
-      <c r="M165" t="s">
+    <row r="215" spans="4:13" ht="15.75" thickBot="1">
+      <c r="D215" s="382"/>
+      <c r="E215" s="322"/>
+      <c r="F215" s="323"/>
+      <c r="G215" s="322"/>
+      <c r="H215" s="323"/>
+      <c r="I215" s="322"/>
+      <c r="J215" s="323"/>
+      <c r="K215" s="322"/>
+      <c r="L215" s="323"/>
+    </row>
+    <row r="216" spans="4:13">
+      <c r="D216" s="382"/>
+      <c r="E216" s="66"/>
+      <c r="F216" s="241"/>
+      <c r="G216" s="66"/>
+      <c r="H216" s="241"/>
+      <c r="I216" s="66"/>
+      <c r="J216" s="241"/>
+      <c r="K216" s="66"/>
+      <c r="L216" s="241"/>
+    </row>
+    <row r="217" spans="4:13">
+      <c r="D217" s="382"/>
+      <c r="E217" s="58"/>
+      <c r="F217" s="315"/>
+      <c r="G217" s="58"/>
+      <c r="H217" s="315"/>
+      <c r="I217" s="58"/>
+      <c r="J217" s="315"/>
+      <c r="K217" s="58"/>
+      <c r="L217" s="315"/>
+      <c r="M217" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="166" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D166" s="441"/>
-      <c r="E166" s="237"/>
-      <c r="F166" s="243"/>
-      <c r="G166" s="237"/>
-      <c r="H166" s="243"/>
-      <c r="I166" s="237"/>
-      <c r="J166" s="243"/>
-      <c r="K166" s="237"/>
-      <c r="L166" s="243"/>
-    </row>
-    <row r="167" spans="4:13">
-      <c r="D167" s="441"/>
-      <c r="E167" s="66"/>
-      <c r="F167" s="242"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="316"/>
-      <c r="I167" s="58"/>
-      <c r="J167" s="316"/>
-      <c r="K167" s="59"/>
-      <c r="L167" s="316"/>
-    </row>
-    <row r="168" spans="4:13">
-      <c r="D168" s="441"/>
-      <c r="E168" s="58"/>
-      <c r="F168" s="316"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="316"/>
-      <c r="I168" s="58"/>
-      <c r="J168" s="316"/>
-      <c r="K168" s="59"/>
-      <c r="L168" s="316"/>
-      <c r="M168" t="s">
+    <row r="218" spans="4:13" ht="15.75" thickBot="1">
+      <c r="D218" s="382"/>
+      <c r="E218" s="236"/>
+      <c r="F218" s="242"/>
+      <c r="G218" s="236"/>
+      <c r="H218" s="242"/>
+      <c r="I218" s="236"/>
+      <c r="J218" s="242"/>
+      <c r="K218" s="236"/>
+      <c r="L218" s="242"/>
+    </row>
+    <row r="219" spans="4:13">
+      <c r="D219" s="382"/>
+      <c r="E219" s="66"/>
+      <c r="F219" s="241"/>
+      <c r="G219" s="59"/>
+      <c r="H219" s="315"/>
+      <c r="I219" s="58"/>
+      <c r="J219" s="315"/>
+      <c r="K219" s="59"/>
+      <c r="L219" s="315"/>
+    </row>
+    <row r="220" spans="4:13">
+      <c r="D220" s="382"/>
+      <c r="E220" s="58"/>
+      <c r="F220" s="315"/>
+      <c r="G220" s="59"/>
+      <c r="H220" s="315"/>
+      <c r="I220" s="58"/>
+      <c r="J220" s="315"/>
+      <c r="K220" s="59"/>
+      <c r="L220" s="315"/>
+      <c r="M220" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="169" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D169" s="441"/>
-      <c r="E169" s="237"/>
-      <c r="F169" s="243"/>
-      <c r="G169" s="325"/>
-      <c r="H169" s="243"/>
-      <c r="I169" s="325"/>
-      <c r="J169" s="243"/>
-      <c r="K169" s="325"/>
-      <c r="L169" s="243"/>
-    </row>
-    <row r="171" spans="4:13">
-      <c r="D171" t="s">
+    <row r="221" spans="4:13" ht="15.75" thickBot="1">
+      <c r="D221" s="382"/>
+      <c r="E221" s="236"/>
+      <c r="F221" s="242"/>
+      <c r="G221" s="324"/>
+      <c r="H221" s="242"/>
+      <c r="I221" s="324"/>
+      <c r="J221" s="242"/>
+      <c r="K221" s="324"/>
+      <c r="L221" s="242"/>
+    </row>
+    <row r="223" spans="4:13">
+      <c r="D223" t="s">
         <v>1292</v>
       </c>
-      <c r="E171" s="160"/>
-      <c r="F171" s="160"/>
-      <c r="G171" s="160"/>
-      <c r="H171" s="160"/>
-      <c r="I171" s="160"/>
-      <c r="J171" s="160"/>
-      <c r="K171" s="160"/>
-      <c r="L171" s="160"/>
-    </row>
-    <row r="173" spans="4:13">
-      <c r="D173" t="s">
+      <c r="E223" s="160"/>
+      <c r="F223" s="160"/>
+      <c r="G223" s="160"/>
+      <c r="H223" s="160"/>
+      <c r="I223" s="160"/>
+      <c r="J223" s="160"/>
+      <c r="K223" s="160"/>
+      <c r="L223" s="160"/>
+    </row>
+    <row r="225" spans="4:12">
+      <c r="D225" t="s">
         <v>1293</v>
       </c>
-      <c r="E173" s="38"/>
-      <c r="F173" s="38"/>
-      <c r="G173" s="38"/>
-      <c r="H173" s="38"/>
-      <c r="I173" s="38"/>
-      <c r="J173" s="38"/>
-      <c r="K173" s="38"/>
-      <c r="L173" s="38"/>
-    </row>
-    <row r="175" spans="4:13">
-      <c r="D175" t="s">
+      <c r="E225" s="38"/>
+      <c r="F225" s="38"/>
+      <c r="G225" s="38"/>
+      <c r="H225" s="38"/>
+      <c r="I225" s="38"/>
+      <c r="J225" s="38"/>
+      <c r="K225" s="38"/>
+      <c r="L225" s="38"/>
+    </row>
+    <row r="227" spans="4:12">
+      <c r="D227" t="s">
         <v>1294</v>
       </c>
-      <c r="E175" s="38"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="38"/>
-      <c r="H175" s="38"/>
-      <c r="I175" s="38"/>
-      <c r="J175" s="38"/>
-      <c r="K175" s="38"/>
-      <c r="L175" s="38"/>
-    </row>
-    <row r="177" spans="4:12">
-      <c r="D177" t="s">
+      <c r="E227" s="38"/>
+      <c r="F227" s="38"/>
+      <c r="G227" s="38"/>
+      <c r="H227" s="38"/>
+      <c r="I227" s="38"/>
+      <c r="J227" s="38"/>
+      <c r="K227" s="38"/>
+      <c r="L227" s="38"/>
+    </row>
+    <row r="229" spans="4:12">
+      <c r="D229" t="s">
         <v>1295</v>
       </c>
-      <c r="E177" s="38"/>
-      <c r="F177" s="38"/>
-      <c r="G177" s="38"/>
-      <c r="H177" s="38"/>
-      <c r="I177" s="38"/>
-      <c r="J177" s="38"/>
-      <c r="K177" s="38"/>
-      <c r="L177" s="38"/>
-    </row>
-    <row r="190" spans="4:12">
-      <c r="I190" t="s">
+      <c r="E229" s="38"/>
+      <c r="F229" s="38"/>
+      <c r="G229" s="38"/>
+      <c r="H229" s="38"/>
+      <c r="I229" s="38"/>
+      <c r="J229" s="38"/>
+      <c r="K229" s="38"/>
+      <c r="L229" s="38"/>
+    </row>
+    <row r="242" spans="6:13">
+      <c r="I242" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="191" spans="4:12">
-      <c r="I191" t="s">
+    <row r="243" spans="6:13">
+      <c r="I243" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="193" spans="6:13">
-      <c r="I193" s="32"/>
-    </row>
-    <row r="194" spans="6:13">
-      <c r="I194" s="32"/>
-      <c r="M194" t="s">
+    <row r="245" spans="6:13">
+      <c r="I245" s="32"/>
+    </row>
+    <row r="246" spans="6:13">
+      <c r="I246" s="32"/>
+      <c r="M246" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="195" spans="6:13">
-      <c r="F195" s="32"/>
-      <c r="G195" s="32"/>
-      <c r="H195" s="32"/>
-      <c r="I195" s="32">
+    <row r="247" spans="6:13">
+      <c r="F247" s="32"/>
+      <c r="G247" s="32"/>
+      <c r="H247" s="32"/>
+      <c r="I247" s="32">
         <v>80</v>
       </c>
-      <c r="J195" s="32"/>
-      <c r="K195" s="32"/>
-      <c r="L195" s="32"/>
-    </row>
-    <row r="196" spans="6:13">
-      <c r="F196" t="s">
+      <c r="J247" s="32"/>
+      <c r="K247" s="32"/>
+      <c r="L247" s="32"/>
+    </row>
+    <row r="248" spans="6:13">
+      <c r="F248" t="s">
         <v>1047</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H248" t="s">
         <v>1048</v>
       </c>
-      <c r="J196" t="s">
+      <c r="J248" t="s">
         <v>1049</v>
       </c>
-      <c r="L196" t="s">
+      <c r="L248" t="s">
         <v>1050</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M248" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="197" spans="6:13">
-      <c r="F197" t="s">
+    <row r="249" spans="6:13">
+      <c r="F249" t="s">
         <v>1043</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H249" t="s">
         <v>1044</v>
       </c>
-      <c r="J197" t="s">
+      <c r="J249" t="s">
         <v>1045</v>
       </c>
-      <c r="L197" t="s">
+      <c r="L249" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="198" spans="6:13">
-      <c r="F198" t="s">
+    <row r="250" spans="6:13">
+      <c r="F250" t="s">
         <v>1039</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H250" t="s">
         <v>1040</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J250" t="s">
         <v>1041</v>
       </c>
-      <c r="L198" t="s">
+      <c r="L250" t="s">
         <v>1042</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M250" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="199" spans="6:13">
-      <c r="F199" s="40"/>
-      <c r="H199" s="40"/>
-      <c r="J199" s="40"/>
-      <c r="L199" s="40"/>
-    </row>
-    <row r="200" spans="6:13">
-      <c r="F200" s="40"/>
-      <c r="H200" s="40"/>
-      <c r="J200" s="40"/>
-      <c r="L200" s="40"/>
-    </row>
-    <row r="201" spans="6:13">
-      <c r="F201" s="40" t="s">
+    <row r="251" spans="6:13">
+      <c r="F251" s="40"/>
+      <c r="H251" s="40"/>
+      <c r="J251" s="40"/>
+      <c r="L251" s="40"/>
+    </row>
+    <row r="252" spans="6:13">
+      <c r="F252" s="40"/>
+      <c r="H252" s="40"/>
+      <c r="J252" s="40"/>
+      <c r="L252" s="40"/>
+    </row>
+    <row r="253" spans="6:13">
+      <c r="F253" s="40" t="s">
         <v>1034</v>
       </c>
-      <c r="H201" s="40" t="s">
+      <c r="H253" s="40" t="s">
         <v>1035</v>
       </c>
-      <c r="J201" s="40" t="s">
+      <c r="J253" s="40" t="s">
         <v>1036</v>
       </c>
-      <c r="L201" s="40" t="s">
+      <c r="L253" s="40" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="202" spans="6:13">
-      <c r="F202" s="40"/>
-      <c r="H202" s="40"/>
-      <c r="J202" s="40"/>
-      <c r="L202" s="40"/>
-    </row>
-    <row r="203" spans="6:13">
-      <c r="F203" s="40"/>
-      <c r="H203" s="40"/>
-      <c r="J203" s="40"/>
-      <c r="L203" s="40"/>
+    <row r="254" spans="6:13">
+      <c r="F254" s="40"/>
+      <c r="H254" s="40"/>
+      <c r="J254" s="40"/>
+      <c r="L254" s="40"/>
+    </row>
+    <row r="255" spans="6:13">
+      <c r="F255" s="40"/>
+      <c r="H255" s="40"/>
+      <c r="J255" s="40"/>
+      <c r="L255" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
+    <mergeCell ref="D7:D18"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="F97:K97"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:L19"/>
-    <mergeCell ref="D158:D169"/>
-    <mergeCell ref="G131:N131"/>
-    <mergeCell ref="G141:O142"/>
-    <mergeCell ref="D7:D18"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="G24:L24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P9" r:id="rId1"/>
@@ -21208,9 +21695,10 @@
     <hyperlink ref="C41" r:id="rId9"/>
     <hyperlink ref="C50" r:id="rId10"/>
     <hyperlink ref="G49" r:id="rId11" display="HTTP://soapur"/>
+    <hyperlink ref="D4" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -21439,13 +21927,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="453" t="s">
+      <c r="D20" s="452" t="s">
         <v>428</v>
       </c>
-      <c r="E20" s="453"/>
-      <c r="F20" s="453"/>
-      <c r="G20" s="453"/>
-      <c r="H20" s="453"/>
+      <c r="E20" s="452"/>
+      <c r="F20" s="452"/>
+      <c r="G20" s="452"/>
+      <c r="H20" s="452"/>
       <c r="I20" s="38" t="s">
         <v>429</v>
       </c>
@@ -21456,37 +21944,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="454">
+      <c r="C21" s="463">
         <v>43909</v>
       </c>
-      <c r="D21" s="453"/>
-      <c r="E21" s="453"/>
-      <c r="F21" s="453"/>
-      <c r="G21" s="453"/>
-      <c r="H21" s="453"/>
+      <c r="D21" s="452"/>
+      <c r="E21" s="452"/>
+      <c r="F21" s="452"/>
+      <c r="G21" s="452"/>
+      <c r="H21" s="452"/>
       <c r="I21" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="J21" s="453"/>
-      <c r="K21" s="453"/>
-      <c r="L21" s="453" t="s">
+      <c r="J21" s="452"/>
+      <c r="K21" s="452"/>
+      <c r="L21" s="452" t="s">
         <v>431</v>
       </c>
-      <c r="M21" s="453"/>
-      <c r="N21" s="453"/>
+      <c r="M21" s="452"/>
+      <c r="N21" s="452"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="454"/>
-      <c r="D22" s="453"/>
-      <c r="E22" s="453"/>
-      <c r="F22" s="453"/>
-      <c r="G22" s="453"/>
-      <c r="H22" s="453"/>
-      <c r="I22" s="385" t="s">
+      <c r="C22" s="463"/>
+      <c r="D22" s="452"/>
+      <c r="E22" s="452"/>
+      <c r="F22" s="452"/>
+      <c r="G22" s="452"/>
+      <c r="H22" s="452"/>
+      <c r="I22" s="388" t="s">
         <v>432</v>
       </c>
-      <c r="J22" s="453"/>
-      <c r="K22" s="453"/>
+      <c r="J22" s="452"/>
+      <c r="K22" s="452"/>
       <c r="L22" s="117" t="s">
         <v>433</v>
       </c>
@@ -21494,31 +21982,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="454"/>
-      <c r="D23" s="453"/>
-      <c r="E23" s="453"/>
-      <c r="F23" s="453"/>
-      <c r="G23" s="453"/>
-      <c r="H23" s="453"/>
-      <c r="I23" s="385"/>
-      <c r="J23" s="453"/>
-      <c r="K23" s="453"/>
-      <c r="L23" s="453" t="s">
+      <c r="C23" s="463"/>
+      <c r="D23" s="452"/>
+      <c r="E23" s="452"/>
+      <c r="F23" s="452"/>
+      <c r="G23" s="452"/>
+      <c r="H23" s="452"/>
+      <c r="I23" s="388"/>
+      <c r="J23" s="452"/>
+      <c r="K23" s="452"/>
+      <c r="L23" s="452" t="s">
         <v>434</v>
       </c>
-      <c r="M23" s="453"/>
-      <c r="N23" s="453"/>
+      <c r="M23" s="452"/>
+      <c r="N23" s="452"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="454"/>
-      <c r="D24" s="453"/>
-      <c r="E24" s="453"/>
-      <c r="F24" s="453"/>
-      <c r="G24" s="453"/>
-      <c r="H24" s="453"/>
-      <c r="I24" s="385"/>
-      <c r="J24" s="453"/>
-      <c r="K24" s="453"/>
+      <c r="C24" s="463"/>
+      <c r="D24" s="452"/>
+      <c r="E24" s="452"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="452"/>
+      <c r="H24" s="452"/>
+      <c r="I24" s="388"/>
+      <c r="J24" s="452"/>
+      <c r="K24" s="452"/>
       <c r="L24" s="118" t="s">
         <v>432</v>
       </c>
@@ -21529,13 +22017,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="453" t="s">
+      <c r="D25" s="452" t="s">
         <v>435</v>
       </c>
-      <c r="E25" s="453"/>
-      <c r="F25" s="453"/>
-      <c r="G25" s="453"/>
-      <c r="H25" s="453"/>
+      <c r="E25" s="452"/>
+      <c r="F25" s="452"/>
+      <c r="G25" s="452"/>
+      <c r="H25" s="452"/>
       <c r="I25" s="38" t="s">
         <v>436</v>
       </c>
@@ -21549,16 +22037,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="455"/>
-      <c r="E26" s="456"/>
-      <c r="F26" s="456"/>
-      <c r="G26" s="456"/>
-      <c r="H26" s="457"/>
-      <c r="I26" s="462" t="s">
+      <c r="D26" s="453"/>
+      <c r="E26" s="454"/>
+      <c r="F26" s="454"/>
+      <c r="G26" s="454"/>
+      <c r="H26" s="455"/>
+      <c r="I26" s="460" t="s">
         <v>432</v>
       </c>
-      <c r="J26" s="455"/>
-      <c r="K26" s="457"/>
+      <c r="J26" s="453"/>
+      <c r="K26" s="455"/>
       <c r="L26" s="117" t="s">
         <v>433</v>
       </c>
@@ -21567,30 +22055,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="458"/>
-      <c r="E27" s="448"/>
-      <c r="F27" s="448"/>
-      <c r="G27" s="448"/>
-      <c r="H27" s="459"/>
-      <c r="I27" s="463"/>
-      <c r="J27" s="458"/>
-      <c r="K27" s="459"/>
-      <c r="L27" s="453" t="s">
+      <c r="D27" s="456"/>
+      <c r="E27" s="451"/>
+      <c r="F27" s="451"/>
+      <c r="G27" s="451"/>
+      <c r="H27" s="457"/>
+      <c r="I27" s="461"/>
+      <c r="J27" s="456"/>
+      <c r="K27" s="457"/>
+      <c r="L27" s="452" t="s">
         <v>437</v>
       </c>
-      <c r="M27" s="453"/>
-      <c r="N27" s="453"/>
+      <c r="M27" s="452"/>
+      <c r="N27" s="452"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="458"/>
-      <c r="E28" s="448"/>
-      <c r="F28" s="448"/>
-      <c r="G28" s="448"/>
-      <c r="H28" s="459"/>
-      <c r="I28" s="463"/>
-      <c r="J28" s="458"/>
-      <c r="K28" s="459"/>
+      <c r="D28" s="456"/>
+      <c r="E28" s="451"/>
+      <c r="F28" s="451"/>
+      <c r="G28" s="451"/>
+      <c r="H28" s="457"/>
+      <c r="I28" s="461"/>
+      <c r="J28" s="456"/>
+      <c r="K28" s="457"/>
       <c r="L28" s="118" t="s">
         <v>432</v>
       </c>
@@ -21599,14 +22087,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="460"/>
-      <c r="E29" s="437"/>
-      <c r="F29" s="437"/>
-      <c r="G29" s="437"/>
-      <c r="H29" s="461"/>
-      <c r="I29" s="464"/>
-      <c r="J29" s="460"/>
-      <c r="K29" s="461"/>
+      <c r="D29" s="458"/>
+      <c r="E29" s="440"/>
+      <c r="F29" s="440"/>
+      <c r="G29" s="440"/>
+      <c r="H29" s="459"/>
+      <c r="I29" s="462"/>
+      <c r="J29" s="458"/>
+      <c r="K29" s="459"/>
       <c r="L29" s="119" t="s">
         <v>438</v>
       </c>
@@ -21654,13 +22142,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="453" t="s">
+      <c r="D33" s="452" t="s">
         <v>428</v>
       </c>
-      <c r="E33" s="453"/>
-      <c r="F33" s="453"/>
-      <c r="G33" s="453"/>
-      <c r="H33" s="453"/>
+      <c r="E33" s="452"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="452"/>
+      <c r="H33" s="452"/>
       <c r="I33" s="38" t="s">
         <v>429</v>
       </c>
@@ -21671,33 +22159,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="454">
+      <c r="C34" s="463">
         <v>43909</v>
       </c>
-      <c r="D34" s="453"/>
-      <c r="E34" s="453"/>
-      <c r="F34" s="453"/>
-      <c r="G34" s="453"/>
-      <c r="H34" s="453"/>
-      <c r="I34" s="465"/>
-      <c r="J34" s="453"/>
-      <c r="K34" s="453"/>
-      <c r="L34" s="453" t="s">
+      <c r="D34" s="452"/>
+      <c r="E34" s="452"/>
+      <c r="F34" s="452"/>
+      <c r="G34" s="452"/>
+      <c r="H34" s="452"/>
+      <c r="I34" s="464"/>
+      <c r="J34" s="452"/>
+      <c r="K34" s="452"/>
+      <c r="L34" s="452" t="s">
         <v>431</v>
       </c>
-      <c r="M34" s="453"/>
-      <c r="N34" s="453"/>
+      <c r="M34" s="452"/>
+      <c r="N34" s="452"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="454"/>
-      <c r="D35" s="453"/>
-      <c r="E35" s="453"/>
-      <c r="F35" s="453"/>
-      <c r="G35" s="453"/>
-      <c r="H35" s="453"/>
-      <c r="I35" s="466"/>
-      <c r="J35" s="453"/>
-      <c r="K35" s="453"/>
+      <c r="C35" s="463"/>
+      <c r="D35" s="452"/>
+      <c r="E35" s="452"/>
+      <c r="F35" s="452"/>
+      <c r="G35" s="452"/>
+      <c r="H35" s="452"/>
+      <c r="I35" s="465"/>
+      <c r="J35" s="452"/>
+      <c r="K35" s="452"/>
       <c r="L35" s="117" t="s">
         <v>433</v>
       </c>
@@ -21705,31 +22193,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="454"/>
-      <c r="D36" s="453"/>
-      <c r="E36" s="453"/>
-      <c r="F36" s="453"/>
-      <c r="G36" s="453"/>
-      <c r="H36" s="453"/>
-      <c r="I36" s="466"/>
-      <c r="J36" s="453"/>
-      <c r="K36" s="453"/>
-      <c r="L36" s="453" t="s">
+      <c r="C36" s="463"/>
+      <c r="D36" s="452"/>
+      <c r="E36" s="452"/>
+      <c r="F36" s="452"/>
+      <c r="G36" s="452"/>
+      <c r="H36" s="452"/>
+      <c r="I36" s="465"/>
+      <c r="J36" s="452"/>
+      <c r="K36" s="452"/>
+      <c r="L36" s="452" t="s">
         <v>434</v>
       </c>
-      <c r="M36" s="453"/>
-      <c r="N36" s="453"/>
+      <c r="M36" s="452"/>
+      <c r="N36" s="452"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="454"/>
-      <c r="D37" s="453"/>
-      <c r="E37" s="453"/>
-      <c r="F37" s="453"/>
-      <c r="G37" s="453"/>
-      <c r="H37" s="453"/>
-      <c r="I37" s="467"/>
-      <c r="J37" s="453"/>
-      <c r="K37" s="453"/>
+      <c r="C37" s="463"/>
+      <c r="D37" s="452"/>
+      <c r="E37" s="452"/>
+      <c r="F37" s="452"/>
+      <c r="G37" s="452"/>
+      <c r="H37" s="452"/>
+      <c r="I37" s="466"/>
+      <c r="J37" s="452"/>
+      <c r="K37" s="452"/>
       <c r="L37" s="118" t="s">
         <v>439</v>
       </c>
@@ -21740,13 +22228,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="453" t="s">
+      <c r="D38" s="452" t="s">
         <v>435</v>
       </c>
-      <c r="E38" s="453"/>
-      <c r="F38" s="453"/>
-      <c r="G38" s="453"/>
-      <c r="H38" s="453"/>
+      <c r="E38" s="452"/>
+      <c r="F38" s="452"/>
+      <c r="G38" s="452"/>
+      <c r="H38" s="452"/>
       <c r="I38" s="38" t="s">
         <v>436</v>
       </c>
@@ -21760,14 +22248,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="455"/>
-      <c r="E39" s="456"/>
-      <c r="F39" s="456"/>
-      <c r="G39" s="456"/>
-      <c r="H39" s="457"/>
-      <c r="I39" s="462"/>
-      <c r="J39" s="455"/>
-      <c r="K39" s="457"/>
+      <c r="D39" s="453"/>
+      <c r="E39" s="454"/>
+      <c r="F39" s="454"/>
+      <c r="G39" s="454"/>
+      <c r="H39" s="455"/>
+      <c r="I39" s="460"/>
+      <c r="J39" s="453"/>
+      <c r="K39" s="455"/>
       <c r="L39" s="117" t="s">
         <v>433</v>
       </c>
@@ -21776,30 +22264,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="458"/>
-      <c r="E40" s="448"/>
-      <c r="F40" s="448"/>
-      <c r="G40" s="448"/>
-      <c r="H40" s="459"/>
-      <c r="I40" s="463"/>
-      <c r="J40" s="458"/>
-      <c r="K40" s="459"/>
-      <c r="L40" s="453" t="s">
+      <c r="D40" s="456"/>
+      <c r="E40" s="451"/>
+      <c r="F40" s="451"/>
+      <c r="G40" s="451"/>
+      <c r="H40" s="457"/>
+      <c r="I40" s="461"/>
+      <c r="J40" s="456"/>
+      <c r="K40" s="457"/>
+      <c r="L40" s="452" t="s">
         <v>437</v>
       </c>
-      <c r="M40" s="453"/>
-      <c r="N40" s="453"/>
+      <c r="M40" s="452"/>
+      <c r="N40" s="452"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="458"/>
-      <c r="E41" s="448"/>
-      <c r="F41" s="448"/>
-      <c r="G41" s="448"/>
-      <c r="H41" s="459"/>
-      <c r="I41" s="464"/>
-      <c r="J41" s="458"/>
-      <c r="K41" s="459"/>
+      <c r="D41" s="456"/>
+      <c r="E41" s="451"/>
+      <c r="F41" s="451"/>
+      <c r="G41" s="451"/>
+      <c r="H41" s="457"/>
+      <c r="I41" s="462"/>
+      <c r="J41" s="456"/>
+      <c r="K41" s="457"/>
       <c r="L41" s="118" t="s">
         <v>439</v>
       </c>
@@ -21808,16 +22296,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="460"/>
-      <c r="E42" s="437"/>
-      <c r="F42" s="437"/>
-      <c r="G42" s="437"/>
-      <c r="H42" s="461"/>
+      <c r="D42" s="458"/>
+      <c r="E42" s="440"/>
+      <c r="F42" s="440"/>
+      <c r="G42" s="440"/>
+      <c r="H42" s="459"/>
       <c r="I42" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="J42" s="460"/>
-      <c r="K42" s="461"/>
+      <c r="J42" s="458"/>
+      <c r="K42" s="459"/>
       <c r="L42" s="119" t="s">
         <v>438</v>
       </c>
@@ -22129,17 +22617,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H42"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:K42"/>
-    <mergeCell ref="L40:N40"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:K37"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="C21:C24"/>
     <mergeCell ref="D21:H24"/>
     <mergeCell ref="J21:K24"/>
@@ -22147,12 +22630,17 @@
     <mergeCell ref="D26:H29"/>
     <mergeCell ref="I26:I29"/>
     <mergeCell ref="J26:K29"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:K37"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H42"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:K42"/>
+    <mergeCell ref="L40:N40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22174,29 +22662,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="478" t="s">
+      <c r="B2" s="486" t="s">
         <v>1055</v>
       </c>
-      <c r="C2" s="478"/>
-      <c r="D2" s="478"/>
-      <c r="E2" s="478"/>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
-      <c r="K2" s="478"/>
-      <c r="L2" s="478"/>
-      <c r="M2" s="478"/>
-      <c r="N2" s="478"/>
-      <c r="O2" s="478"/>
-      <c r="P2" s="478"/>
-      <c r="Q2" s="478"/>
-      <c r="R2" s="478"/>
-      <c r="S2" s="478"/>
-      <c r="T2" s="478"/>
-      <c r="U2" s="478"/>
-      <c r="V2" s="478"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
+      <c r="L2" s="486"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="486"/>
+      <c r="O2" s="486"/>
+      <c r="P2" s="486"/>
+      <c r="Q2" s="486"/>
+      <c r="R2" s="486"/>
+      <c r="S2" s="486"/>
+      <c r="T2" s="486"/>
+      <c r="U2" s="486"/>
+      <c r="V2" s="486"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -22229,22 +22717,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="481" t="s">
+      <c r="G5" s="467" t="s">
         <v>490</v>
       </c>
-      <c r="H5" s="481"/>
-      <c r="I5" s="481" t="s">
+      <c r="H5" s="467"/>
+      <c r="I5" s="467" t="s">
         <v>491</v>
       </c>
-      <c r="J5" s="481"/>
-      <c r="K5" s="481"/>
-      <c r="L5" s="481"/>
-      <c r="M5" s="481"/>
-      <c r="N5" s="481"/>
-      <c r="O5" s="481" t="s">
+      <c r="J5" s="467"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="467"/>
+      <c r="M5" s="467"/>
+      <c r="N5" s="467"/>
+      <c r="O5" s="467" t="s">
         <v>492</v>
       </c>
-      <c r="P5" s="481"/>
+      <c r="P5" s="467"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -22256,7 +22744,7 @@
       <c r="D6" s="135"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
-      <c r="G6" s="486" t="s">
+      <c r="G6" s="468" t="s">
         <v>493</v>
       </c>
       <c r="H6" s="111"/>
@@ -22285,26 +22773,26 @@
       </c>
       <c r="E7" s="138"/>
       <c r="F7" s="138"/>
-      <c r="G7" s="408"/>
-      <c r="H7" s="487" t="s">
+      <c r="G7" s="395"/>
+      <c r="H7" s="469" t="s">
         <v>495</v>
       </c>
-      <c r="I7" s="490" t="s">
+      <c r="I7" s="472" t="s">
         <v>496</v>
       </c>
-      <c r="J7" s="491"/>
-      <c r="K7" s="492" t="s">
+      <c r="J7" s="473"/>
+      <c r="K7" s="474" t="s">
         <v>497</v>
       </c>
-      <c r="L7" s="493"/>
-      <c r="M7" s="490" t="s">
+      <c r="L7" s="475"/>
+      <c r="M7" s="472" t="s">
         <v>498</v>
       </c>
-      <c r="N7" s="491"/>
-      <c r="O7" s="498" t="s">
+      <c r="N7" s="473"/>
+      <c r="O7" s="480" t="s">
         <v>499</v>
       </c>
-      <c r="P7" s="499"/>
+      <c r="P7" s="481"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -22316,16 +22804,16 @@
       <c r="D8" s="139"/>
       <c r="E8" s="140"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="408"/>
-      <c r="H8" s="488"/>
-      <c r="I8" s="388"/>
-      <c r="J8" s="390"/>
-      <c r="K8" s="494"/>
-      <c r="L8" s="495"/>
-      <c r="M8" s="388"/>
-      <c r="N8" s="390"/>
-      <c r="O8" s="500"/>
-      <c r="P8" s="501"/>
+      <c r="G8" s="395"/>
+      <c r="H8" s="470"/>
+      <c r="I8" s="391"/>
+      <c r="J8" s="393"/>
+      <c r="K8" s="476"/>
+      <c r="L8" s="477"/>
+      <c r="M8" s="391"/>
+      <c r="N8" s="393"/>
+      <c r="O8" s="482"/>
+      <c r="P8" s="483"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>181</v>
@@ -22343,16 +22831,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="408"/>
-      <c r="H9" s="488"/>
-      <c r="I9" s="388"/>
-      <c r="J9" s="390"/>
-      <c r="K9" s="494"/>
-      <c r="L9" s="495"/>
-      <c r="M9" s="388"/>
-      <c r="N9" s="390"/>
-      <c r="O9" s="500"/>
-      <c r="P9" s="501"/>
+      <c r="G9" s="395"/>
+      <c r="H9" s="470"/>
+      <c r="I9" s="391"/>
+      <c r="J9" s="393"/>
+      <c r="K9" s="476"/>
+      <c r="L9" s="477"/>
+      <c r="M9" s="391"/>
+      <c r="N9" s="393"/>
+      <c r="O9" s="482"/>
+      <c r="P9" s="483"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -22372,16 +22860,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="408"/>
-      <c r="H10" s="488"/>
-      <c r="I10" s="388"/>
-      <c r="J10" s="390"/>
-      <c r="K10" s="494"/>
-      <c r="L10" s="495"/>
-      <c r="M10" s="388"/>
-      <c r="N10" s="390"/>
-      <c r="O10" s="500"/>
-      <c r="P10" s="501"/>
+      <c r="G10" s="395"/>
+      <c r="H10" s="470"/>
+      <c r="I10" s="391"/>
+      <c r="J10" s="393"/>
+      <c r="K10" s="476"/>
+      <c r="L10" s="477"/>
+      <c r="M10" s="391"/>
+      <c r="N10" s="393"/>
+      <c r="O10" s="482"/>
+      <c r="P10" s="483"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -22397,16 +22885,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="408"/>
-      <c r="H11" s="488"/>
-      <c r="I11" s="388"/>
-      <c r="J11" s="390"/>
-      <c r="K11" s="494"/>
-      <c r="L11" s="495"/>
-      <c r="M11" s="388"/>
-      <c r="N11" s="390"/>
-      <c r="O11" s="500"/>
-      <c r="P11" s="501"/>
+      <c r="G11" s="395"/>
+      <c r="H11" s="470"/>
+      <c r="I11" s="391"/>
+      <c r="J11" s="393"/>
+      <c r="K11" s="476"/>
+      <c r="L11" s="477"/>
+      <c r="M11" s="391"/>
+      <c r="N11" s="393"/>
+      <c r="O11" s="482"/>
+      <c r="P11" s="483"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -22424,16 +22912,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="408"/>
-      <c r="H12" s="488"/>
-      <c r="I12" s="388"/>
-      <c r="J12" s="390"/>
-      <c r="K12" s="494"/>
-      <c r="L12" s="495"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="390"/>
-      <c r="O12" s="500"/>
-      <c r="P12" s="501"/>
+      <c r="G12" s="395"/>
+      <c r="H12" s="470"/>
+      <c r="I12" s="391"/>
+      <c r="J12" s="393"/>
+      <c r="K12" s="476"/>
+      <c r="L12" s="477"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="393"/>
+      <c r="O12" s="482"/>
+      <c r="P12" s="483"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -22447,16 +22935,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="408"/>
-      <c r="H13" s="488"/>
-      <c r="I13" s="388"/>
-      <c r="J13" s="390"/>
-      <c r="K13" s="494"/>
-      <c r="L13" s="495"/>
-      <c r="M13" s="388"/>
-      <c r="N13" s="390"/>
-      <c r="O13" s="500"/>
-      <c r="P13" s="501"/>
+      <c r="G13" s="395"/>
+      <c r="H13" s="470"/>
+      <c r="I13" s="391"/>
+      <c r="J13" s="393"/>
+      <c r="K13" s="476"/>
+      <c r="L13" s="477"/>
+      <c r="M13" s="391"/>
+      <c r="N13" s="393"/>
+      <c r="O13" s="482"/>
+      <c r="P13" s="483"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -22468,16 +22956,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="408"/>
-      <c r="H14" s="488"/>
-      <c r="I14" s="388"/>
-      <c r="J14" s="390"/>
-      <c r="K14" s="494"/>
-      <c r="L14" s="495"/>
-      <c r="M14" s="388"/>
-      <c r="N14" s="390"/>
-      <c r="O14" s="500"/>
-      <c r="P14" s="501"/>
+      <c r="G14" s="395"/>
+      <c r="H14" s="470"/>
+      <c r="I14" s="391"/>
+      <c r="J14" s="393"/>
+      <c r="K14" s="476"/>
+      <c r="L14" s="477"/>
+      <c r="M14" s="391"/>
+      <c r="N14" s="393"/>
+      <c r="O14" s="482"/>
+      <c r="P14" s="483"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -22491,16 +22979,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="408"/>
-      <c r="H15" s="488"/>
-      <c r="I15" s="388"/>
-      <c r="J15" s="390"/>
-      <c r="K15" s="494"/>
-      <c r="L15" s="495"/>
-      <c r="M15" s="388"/>
-      <c r="N15" s="390"/>
-      <c r="O15" s="500"/>
-      <c r="P15" s="501"/>
+      <c r="G15" s="395"/>
+      <c r="H15" s="470"/>
+      <c r="I15" s="391"/>
+      <c r="J15" s="393"/>
+      <c r="K15" s="476"/>
+      <c r="L15" s="477"/>
+      <c r="M15" s="391"/>
+      <c r="N15" s="393"/>
+      <c r="O15" s="482"/>
+      <c r="P15" s="483"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -22512,16 +23000,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="408"/>
-      <c r="H16" s="488"/>
-      <c r="I16" s="388"/>
-      <c r="J16" s="390"/>
-      <c r="K16" s="494"/>
-      <c r="L16" s="495"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="390"/>
-      <c r="O16" s="500"/>
-      <c r="P16" s="501"/>
+      <c r="G16" s="395"/>
+      <c r="H16" s="470"/>
+      <c r="I16" s="391"/>
+      <c r="J16" s="393"/>
+      <c r="K16" s="476"/>
+      <c r="L16" s="477"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="393"/>
+      <c r="O16" s="482"/>
+      <c r="P16" s="483"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -22533,16 +23021,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="408"/>
-      <c r="H17" s="488"/>
-      <c r="I17" s="388"/>
-      <c r="J17" s="390"/>
-      <c r="K17" s="494"/>
-      <c r="L17" s="495"/>
-      <c r="M17" s="388"/>
-      <c r="N17" s="390"/>
-      <c r="O17" s="500"/>
-      <c r="P17" s="501"/>
+      <c r="G17" s="395"/>
+      <c r="H17" s="470"/>
+      <c r="I17" s="391"/>
+      <c r="J17" s="393"/>
+      <c r="K17" s="476"/>
+      <c r="L17" s="477"/>
+      <c r="M17" s="391"/>
+      <c r="N17" s="393"/>
+      <c r="O17" s="482"/>
+      <c r="P17" s="483"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -22554,16 +23042,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="408"/>
-      <c r="H18" s="488"/>
-      <c r="I18" s="388"/>
-      <c r="J18" s="390"/>
-      <c r="K18" s="494"/>
-      <c r="L18" s="495"/>
-      <c r="M18" s="388"/>
-      <c r="N18" s="390"/>
-      <c r="O18" s="500"/>
-      <c r="P18" s="501"/>
+      <c r="G18" s="395"/>
+      <c r="H18" s="470"/>
+      <c r="I18" s="391"/>
+      <c r="J18" s="393"/>
+      <c r="K18" s="476"/>
+      <c r="L18" s="477"/>
+      <c r="M18" s="391"/>
+      <c r="N18" s="393"/>
+      <c r="O18" s="482"/>
+      <c r="P18" s="483"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -22577,16 +23065,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="408"/>
-      <c r="H19" s="488"/>
-      <c r="I19" s="388"/>
-      <c r="J19" s="390"/>
-      <c r="K19" s="494"/>
-      <c r="L19" s="495"/>
-      <c r="M19" s="388"/>
-      <c r="N19" s="390"/>
-      <c r="O19" s="500"/>
-      <c r="P19" s="501"/>
+      <c r="G19" s="395"/>
+      <c r="H19" s="470"/>
+      <c r="I19" s="391"/>
+      <c r="J19" s="393"/>
+      <c r="K19" s="476"/>
+      <c r="L19" s="477"/>
+      <c r="M19" s="391"/>
+      <c r="N19" s="393"/>
+      <c r="O19" s="482"/>
+      <c r="P19" s="483"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -22598,16 +23086,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="409"/>
-      <c r="H20" s="489"/>
-      <c r="I20" s="399"/>
-      <c r="J20" s="401"/>
-      <c r="K20" s="496"/>
-      <c r="L20" s="497"/>
-      <c r="M20" s="399"/>
-      <c r="N20" s="401"/>
-      <c r="O20" s="502"/>
-      <c r="P20" s="503"/>
+      <c r="G20" s="396"/>
+      <c r="H20" s="471"/>
+      <c r="I20" s="414"/>
+      <c r="J20" s="416"/>
+      <c r="K20" s="478"/>
+      <c r="L20" s="479"/>
+      <c r="M20" s="414"/>
+      <c r="N20" s="416"/>
+      <c r="O20" s="484"/>
+      <c r="P20" s="485"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -22637,27 +23125,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="402" t="s">
+      <c r="D22" s="417" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="403"/>
-      <c r="F22" s="270"/>
+      <c r="E22" s="418"/>
+      <c r="F22" s="269"/>
       <c r="G22" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="402" t="s">
+      <c r="H22" s="417" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="404"/>
-      <c r="J22" s="404"/>
-      <c r="K22" s="404"/>
-      <c r="L22" s="404"/>
-      <c r="M22" s="404"/>
-      <c r="N22" s="403"/>
-      <c r="O22" s="402" t="s">
+      <c r="I22" s="419"/>
+      <c r="J22" s="419"/>
+      <c r="K22" s="419"/>
+      <c r="L22" s="419"/>
+      <c r="M22" s="419"/>
+      <c r="N22" s="418"/>
+      <c r="O22" s="417" t="s">
         <v>500</v>
       </c>
-      <c r="P22" s="403"/>
+      <c r="P22" s="418"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -22688,59 +23176,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="478" t="s">
+      <c r="B25" s="486" t="s">
         <v>1054</v>
       </c>
-      <c r="C25" s="478"/>
-      <c r="D25" s="478"/>
-      <c r="E25" s="478"/>
-      <c r="F25" s="478"/>
-      <c r="G25" s="478"/>
-      <c r="H25" s="478"/>
-      <c r="I25" s="478"/>
-      <c r="J25" s="478"/>
-      <c r="K25" s="478"/>
-      <c r="L25" s="478"/>
-      <c r="M25" s="478"/>
-      <c r="N25" s="478"/>
-      <c r="O25" s="478"/>
-      <c r="P25" s="478"/>
-      <c r="Q25" s="478"/>
-      <c r="R25" s="478"/>
-      <c r="S25" s="478"/>
-      <c r="T25" s="478"/>
-      <c r="U25" s="478"/>
-      <c r="V25" s="478"/>
+      <c r="C25" s="486"/>
+      <c r="D25" s="486"/>
+      <c r="E25" s="486"/>
+      <c r="F25" s="486"/>
+      <c r="G25" s="486"/>
+      <c r="H25" s="486"/>
+      <c r="I25" s="486"/>
+      <c r="J25" s="486"/>
+      <c r="K25" s="486"/>
+      <c r="L25" s="486"/>
+      <c r="M25" s="486"/>
+      <c r="N25" s="486"/>
+      <c r="O25" s="486"/>
+      <c r="P25" s="486"/>
+      <c r="Q25" s="486"/>
+      <c r="R25" s="486"/>
+      <c r="S25" s="486"/>
+      <c r="T25" s="486"/>
+      <c r="U25" s="486"/>
+      <c r="V25" s="486"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="479" t="s">
+      <c r="C26" s="487" t="s">
         <v>542</v>
       </c>
-      <c r="D26" s="479"/>
-      <c r="E26" s="479"/>
-      <c r="F26" s="479"/>
-      <c r="G26" s="479"/>
-      <c r="H26" s="479"/>
-      <c r="I26" s="479"/>
-      <c r="J26" s="479"/>
-      <c r="K26" s="479"/>
-      <c r="L26" s="479"/>
-      <c r="M26" s="479"/>
+      <c r="D26" s="487"/>
+      <c r="E26" s="487"/>
+      <c r="F26" s="487"/>
+      <c r="G26" s="487"/>
+      <c r="H26" s="487"/>
+      <c r="I26" s="487"/>
+      <c r="J26" s="487"/>
+      <c r="K26" s="487"/>
+      <c r="L26" s="487"/>
+      <c r="M26" s="487"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="449" t="s">
+      <c r="E27" s="443" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="383"/>
-      <c r="G27" s="383"/>
-      <c r="H27" s="392"/>
-      <c r="I27" s="392"/>
-      <c r="J27" s="392"/>
-      <c r="K27" s="392"/>
-      <c r="L27" s="392"/>
-      <c r="M27" s="393"/>
+      <c r="F27" s="386"/>
+      <c r="G27" s="386"/>
+      <c r="H27" s="408"/>
+      <c r="I27" s="408"/>
+      <c r="J27" s="408"/>
+      <c r="K27" s="408"/>
+      <c r="L27" s="408"/>
+      <c r="M27" s="409"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -22764,7 +23252,7 @@
         <v>1073</v>
       </c>
       <c r="F29" s="122"/>
-      <c r="G29" s="275"/>
+      <c r="G29" s="274"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5" t="s">
         <v>1061</v>
@@ -22773,11 +23261,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="480" t="s">
+      <c r="O29" s="488" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="480"/>
-      <c r="Q29" s="480"/>
+      <c r="P29" s="488"/>
+      <c r="Q29" s="488"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -22786,7 +23274,7 @@
         <v>1074</v>
       </c>
       <c r="F30" s="122"/>
-      <c r="G30" s="275"/>
+      <c r="G30" s="274"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
@@ -22822,21 +23310,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="475" t="s">
+      <c r="E32" s="492" t="s">
         <v>1058</v>
       </c>
-      <c r="F32" s="476"/>
-      <c r="G32" s="477"/>
-      <c r="H32" s="475" t="s">
+      <c r="F32" s="493"/>
+      <c r="G32" s="494"/>
+      <c r="H32" s="492" t="s">
         <v>1059</v>
       </c>
-      <c r="I32" s="476"/>
-      <c r="J32" s="477"/>
-      <c r="K32" s="475" t="s">
+      <c r="I32" s="493"/>
+      <c r="J32" s="494"/>
+      <c r="K32" s="492" t="s">
         <v>1060</v>
       </c>
-      <c r="L32" s="476"/>
-      <c r="M32" s="477"/>
+      <c r="L32" s="493"/>
+      <c r="M32" s="494"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -22853,15 +23341,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="475"/>
-      <c r="F33" s="476"/>
-      <c r="G33" s="477"/>
-      <c r="H33" s="475"/>
-      <c r="I33" s="476"/>
-      <c r="J33" s="477"/>
-      <c r="K33" s="475"/>
-      <c r="L33" s="476"/>
-      <c r="M33" s="477"/>
+      <c r="E33" s="492"/>
+      <c r="F33" s="493"/>
+      <c r="G33" s="494"/>
+      <c r="H33" s="492"/>
+      <c r="I33" s="493"/>
+      <c r="J33" s="494"/>
+      <c r="K33" s="492"/>
+      <c r="L33" s="493"/>
+      <c r="M33" s="494"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -22878,15 +23366,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="475"/>
-      <c r="F34" s="476"/>
-      <c r="G34" s="477"/>
-      <c r="H34" s="475"/>
-      <c r="I34" s="476"/>
-      <c r="J34" s="477"/>
-      <c r="K34" s="475"/>
-      <c r="L34" s="476"/>
-      <c r="M34" s="477"/>
+      <c r="E34" s="492"/>
+      <c r="F34" s="493"/>
+      <c r="G34" s="494"/>
+      <c r="H34" s="492"/>
+      <c r="I34" s="493"/>
+      <c r="J34" s="494"/>
+      <c r="K34" s="492"/>
+      <c r="L34" s="493"/>
+      <c r="M34" s="494"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -22897,15 +23385,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="475"/>
-      <c r="F35" s="476"/>
-      <c r="G35" s="477"/>
-      <c r="H35" s="475"/>
-      <c r="I35" s="476"/>
-      <c r="J35" s="477"/>
-      <c r="K35" s="475"/>
-      <c r="L35" s="476"/>
-      <c r="M35" s="477"/>
+      <c r="E35" s="492"/>
+      <c r="F35" s="493"/>
+      <c r="G35" s="494"/>
+      <c r="H35" s="492"/>
+      <c r="I35" s="493"/>
+      <c r="J35" s="494"/>
+      <c r="K35" s="492"/>
+      <c r="L35" s="493"/>
+      <c r="M35" s="494"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -22918,7 +23406,7 @@
         <v>191</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="276" t="s">
+      <c r="E36" s="275" t="s">
         <v>1075</v>
       </c>
       <c r="F36" s="120"/>
@@ -22941,11 +23429,11 @@
     <row r="37" spans="2:22">
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="271" t="s">
+      <c r="E37" s="270" t="s">
         <v>1062</v>
       </c>
-      <c r="F37" s="277"/>
-      <c r="G37" s="272"/>
+      <c r="F37" s="276"/>
+      <c r="G37" s="271"/>
       <c r="H37" s="134" t="s">
         <v>521</v>
       </c>
@@ -22968,7 +23456,7 @@
         <v>1063</v>
       </c>
       <c r="F38" s="184"/>
-      <c r="G38" s="273"/>
+      <c r="G38" s="272"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5" t="s">
         <v>1065</v>
@@ -22987,7 +23475,7 @@
         <v>1076</v>
       </c>
       <c r="F39" s="122"/>
-      <c r="G39" s="273"/>
+      <c r="G39" s="272"/>
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
       <c r="J39" s="6"/>
@@ -22998,11 +23486,11 @@
     <row r="40" spans="2:22">
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="274" t="s">
+      <c r="E40" s="273" t="s">
         <v>1071</v>
       </c>
-      <c r="F40" s="290"/>
-      <c r="G40" s="273"/>
+      <c r="F40" s="289"/>
+      <c r="G40" s="272"/>
       <c r="H40" s="142"/>
       <c r="I40" s="5" t="s">
         <v>1069</v>
@@ -23021,7 +23509,7 @@
         <v>1072</v>
       </c>
       <c r="F41" s="184"/>
-      <c r="G41" s="273"/>
+      <c r="G41" s="272"/>
       <c r="H41" s="143" t="s">
         <v>235</v>
       </c>
@@ -23036,15 +23524,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="468"/>
-      <c r="F42" s="469"/>
-      <c r="G42" s="469"/>
-      <c r="H42" s="469"/>
-      <c r="I42" s="469"/>
-      <c r="J42" s="469"/>
-      <c r="K42" s="469"/>
-      <c r="L42" s="469"/>
-      <c r="M42" s="470"/>
+      <c r="E42" s="496"/>
+      <c r="F42" s="497"/>
+      <c r="G42" s="497"/>
+      <c r="H42" s="497"/>
+      <c r="I42" s="497"/>
+      <c r="J42" s="497"/>
+      <c r="K42" s="497"/>
+      <c r="L42" s="497"/>
+      <c r="M42" s="498"/>
       <c r="N42" s="40" t="s">
         <v>547</v>
       </c>
@@ -23063,83 +23551,83 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="402" t="s">
+      <c r="C44" s="417" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="403"/>
-      <c r="E44" s="402" t="s">
+      <c r="D44" s="418"/>
+      <c r="E44" s="417" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="404"/>
-      <c r="G44" s="403"/>
-      <c r="H44" s="402" t="s">
+      <c r="F44" s="419"/>
+      <c r="G44" s="418"/>
+      <c r="H44" s="417" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="404"/>
-      <c r="J44" s="404"/>
-      <c r="K44" s="404"/>
-      <c r="L44" s="404"/>
-      <c r="M44" s="403"/>
+      <c r="I44" s="419"/>
+      <c r="J44" s="419"/>
+      <c r="K44" s="419"/>
+      <c r="L44" s="419"/>
+      <c r="M44" s="418"/>
       <c r="Q44" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="478" t="s">
+      <c r="B47" s="486" t="s">
         <v>1056</v>
       </c>
-      <c r="C47" s="478"/>
-      <c r="D47" s="478"/>
-      <c r="E47" s="478"/>
-      <c r="F47" s="478"/>
-      <c r="G47" s="478"/>
-      <c r="H47" s="478"/>
-      <c r="I47" s="478"/>
-      <c r="J47" s="478"/>
-      <c r="K47" s="478"/>
-      <c r="L47" s="478"/>
-      <c r="M47" s="478"/>
-      <c r="N47" s="478"/>
-      <c r="O47" s="478"/>
-      <c r="P47" s="478"/>
-      <c r="Q47" s="478"/>
-      <c r="R47" s="478"/>
-      <c r="S47" s="478"/>
-      <c r="T47" s="478"/>
-      <c r="U47" s="478"/>
-      <c r="V47" s="478"/>
+      <c r="C47" s="486"/>
+      <c r="D47" s="486"/>
+      <c r="E47" s="486"/>
+      <c r="F47" s="486"/>
+      <c r="G47" s="486"/>
+      <c r="H47" s="486"/>
+      <c r="I47" s="486"/>
+      <c r="J47" s="486"/>
+      <c r="K47" s="486"/>
+      <c r="L47" s="486"/>
+      <c r="M47" s="486"/>
+      <c r="N47" s="486"/>
+      <c r="O47" s="486"/>
+      <c r="P47" s="486"/>
+      <c r="Q47" s="486"/>
+      <c r="R47" s="486"/>
+      <c r="S47" s="486"/>
+      <c r="T47" s="486"/>
+      <c r="U47" s="486"/>
+      <c r="V47" s="486"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="479" t="s">
+      <c r="C48" s="487" t="s">
         <v>542</v>
       </c>
-      <c r="D48" s="479"/>
-      <c r="E48" s="479"/>
-      <c r="F48" s="479"/>
-      <c r="G48" s="479"/>
-      <c r="H48" s="479"/>
-      <c r="I48" s="479"/>
-      <c r="J48" s="479"/>
-      <c r="K48" s="479"/>
-      <c r="L48" s="479"/>
-      <c r="M48" s="479"/>
+      <c r="D48" s="487"/>
+      <c r="E48" s="487"/>
+      <c r="F48" s="487"/>
+      <c r="G48" s="487"/>
+      <c r="H48" s="487"/>
+      <c r="I48" s="487"/>
+      <c r="J48" s="487"/>
+      <c r="K48" s="487"/>
+      <c r="L48" s="487"/>
+      <c r="M48" s="487"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="449" t="s">
+      <c r="E49" s="443" t="s">
         <v>177</v>
       </c>
-      <c r="F49" s="383"/>
-      <c r="G49" s="383"/>
-      <c r="H49" s="392"/>
-      <c r="I49" s="392"/>
-      <c r="J49" s="392"/>
-      <c r="K49" s="392"/>
-      <c r="L49" s="392"/>
-      <c r="M49" s="393"/>
+      <c r="F49" s="386"/>
+      <c r="G49" s="386"/>
+      <c r="H49" s="408"/>
+      <c r="I49" s="408"/>
+      <c r="J49" s="408"/>
+      <c r="K49" s="408"/>
+      <c r="L49" s="408"/>
+      <c r="M49" s="409"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -23156,17 +23644,17 @@
         <v>1073</v>
       </c>
       <c r="F50" s="122"/>
-      <c r="G50" s="250"/>
-      <c r="H50" s="482" t="s">
+      <c r="G50" s="249"/>
+      <c r="H50" s="489" t="s">
         <v>1059</v>
       </c>
-      <c r="I50" s="483"/>
-      <c r="J50" s="484"/>
-      <c r="K50" s="482" t="s">
+      <c r="I50" s="490"/>
+      <c r="J50" s="491"/>
+      <c r="K50" s="489" t="s">
         <v>1060</v>
       </c>
-      <c r="L50" s="483"/>
-      <c r="M50" s="484"/>
+      <c r="L50" s="490"/>
+      <c r="M50" s="491"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -23176,26 +23664,26 @@
     <row r="51" spans="1:24" ht="15.75" thickBot="1">
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="280" t="s">
+      <c r="E51" s="279" t="s">
         <v>1074</v>
       </c>
-      <c r="F51" s="291"/>
-      <c r="G51" s="485" t="s">
+      <c r="F51" s="290"/>
+      <c r="G51" s="495" t="s">
         <v>1082</v>
       </c>
-      <c r="H51" s="475"/>
-      <c r="I51" s="476"/>
-      <c r="J51" s="477"/>
-      <c r="K51" s="475"/>
-      <c r="L51" s="476"/>
-      <c r="M51" s="477"/>
-      <c r="O51" s="480" t="s">
+      <c r="H51" s="492"/>
+      <c r="I51" s="493"/>
+      <c r="J51" s="494"/>
+      <c r="K51" s="492"/>
+      <c r="L51" s="493"/>
+      <c r="M51" s="494"/>
+      <c r="O51" s="488" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="480"/>
-      <c r="Q51" s="480"/>
-      <c r="S51" s="278"/>
-      <c r="T51" s="278"/>
+      <c r="P51" s="488"/>
+      <c r="Q51" s="488"/>
+      <c r="S51" s="277"/>
+      <c r="T51" s="277"/>
       <c r="W51" s="40" t="s">
         <v>178</v>
       </c>
@@ -23203,34 +23691,34 @@
     <row r="52" spans="1:24" ht="15.75" thickBot="1">
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="281" t="s">
+      <c r="E52" s="280" t="s">
         <v>1075</v>
       </c>
-      <c r="F52" s="292"/>
-      <c r="G52" s="485"/>
-      <c r="H52" s="475"/>
-      <c r="I52" s="476"/>
-      <c r="J52" s="477"/>
-      <c r="K52" s="475"/>
-      <c r="L52" s="476"/>
-      <c r="M52" s="477"/>
+      <c r="F52" s="291"/>
+      <c r="G52" s="495"/>
+      <c r="H52" s="492"/>
+      <c r="I52" s="493"/>
+      <c r="J52" s="494"/>
+      <c r="K52" s="492"/>
+      <c r="L52" s="493"/>
+      <c r="M52" s="494"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
     <row r="53" spans="1:24">
       <c r="C53" s="1"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="282" t="s">
+      <c r="E53" s="281" t="s">
         <v>1076</v>
       </c>
-      <c r="F53" s="293"/>
-      <c r="G53" s="485"/>
-      <c r="H53" s="475"/>
-      <c r="I53" s="476"/>
-      <c r="J53" s="477"/>
-      <c r="K53" s="475"/>
-      <c r="L53" s="476"/>
-      <c r="M53" s="477"/>
+      <c r="F53" s="292"/>
+      <c r="G53" s="495"/>
+      <c r="H53" s="492"/>
+      <c r="I53" s="493"/>
+      <c r="J53" s="494"/>
+      <c r="K53" s="492"/>
+      <c r="L53" s="493"/>
+      <c r="M53" s="494"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>181</v>
@@ -23267,9 +23755,9 @@
         <v>189</v>
       </c>
       <c r="D54" s="6"/>
-      <c r="E54" s="279"/>
-      <c r="F54" s="294"/>
-      <c r="G54" s="473" t="s">
+      <c r="E54" s="278"/>
+      <c r="F54" s="293"/>
+      <c r="G54" s="501" t="s">
         <v>1086</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -23316,16 +23804,16 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="471" t="s">
+      <c r="E55" s="499" t="s">
         <v>1087</v>
       </c>
-      <c r="F55" s="472"/>
-      <c r="G55" s="474"/>
+      <c r="F55" s="500"/>
+      <c r="G55" s="502"/>
       <c r="H55" s="141" t="s">
         <v>1078</v>
       </c>
       <c r="I55" s="122"/>
-      <c r="J55" s="275" t="s">
+      <c r="J55" s="274" t="s">
         <v>1080</v>
       </c>
       <c r="K55" s="4"/>
@@ -23364,14 +23852,14 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="471"/>
-      <c r="F56" s="472"/>
-      <c r="G56" s="474"/>
+      <c r="E56" s="499"/>
+      <c r="F56" s="500"/>
+      <c r="G56" s="502"/>
       <c r="H56" s="141" t="s">
         <v>1079</v>
       </c>
       <c r="I56" s="122"/>
-      <c r="J56" s="275" t="s">
+      <c r="J56" s="274" t="s">
         <v>1080</v>
       </c>
       <c r="K56" s="4"/>
@@ -23396,9 +23884,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="471"/>
-      <c r="F57" s="472"/>
-      <c r="G57" s="474"/>
+      <c r="E57" s="499"/>
+      <c r="F57" s="500"/>
+      <c r="G57" s="502"/>
       <c r="H57" s="4" t="s">
         <v>1091</v>
       </c>
@@ -23428,13 +23916,13 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="471"/>
-      <c r="F58" s="472"/>
-      <c r="G58" s="474"/>
-      <c r="H58" s="283" t="s">
+      <c r="E58" s="499"/>
+      <c r="F58" s="500"/>
+      <c r="G58" s="502"/>
+      <c r="H58" s="282" t="s">
         <v>1077</v>
       </c>
-      <c r="I58" s="284"/>
+      <c r="I58" s="283"/>
       <c r="J58" s="82"/>
       <c r="K58" s="134" t="s">
         <v>1092</v>
@@ -23455,13 +23943,13 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="471"/>
-      <c r="F59" s="472"/>
-      <c r="G59" s="474"/>
-      <c r="H59" s="283" t="s">
+      <c r="E59" s="499"/>
+      <c r="F59" s="500"/>
+      <c r="G59" s="502"/>
+      <c r="H59" s="282" t="s">
         <v>521</v>
       </c>
-      <c r="I59" s="284"/>
+      <c r="I59" s="283"/>
       <c r="J59" s="82"/>
       <c r="K59" s="134"/>
       <c r="L59" s="24" t="s">
@@ -23482,11 +23970,11 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="471"/>
-      <c r="F60" s="472"/>
-      <c r="G60" s="474"/>
-      <c r="H60" s="285"/>
-      <c r="I60" s="286" t="s">
+      <c r="E60" s="499"/>
+      <c r="F60" s="500"/>
+      <c r="G60" s="502"/>
+      <c r="H60" s="284"/>
+      <c r="I60" s="285" t="s">
         <v>1093</v>
       </c>
       <c r="J60" s="6"/>
@@ -23504,11 +23992,11 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="471"/>
-      <c r="F61" s="472"/>
-      <c r="G61" s="474"/>
-      <c r="H61" s="285"/>
-      <c r="I61" s="286" t="s">
+      <c r="E61" s="499"/>
+      <c r="F61" s="500"/>
+      <c r="G61" s="502"/>
+      <c r="H61" s="284"/>
+      <c r="I61" s="285" t="s">
         <v>1094</v>
       </c>
       <c r="J61" s="6"/>
@@ -23524,11 +24012,11 @@
     <row r="62" spans="1:24" ht="15.75" thickBot="1">
       <c r="C62" s="4"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="274"/>
-      <c r="F62" s="290"/>
-      <c r="G62" s="474"/>
-      <c r="H62" s="287"/>
-      <c r="I62" s="289" t="s">
+      <c r="E62" s="273"/>
+      <c r="F62" s="289"/>
+      <c r="G62" s="502"/>
+      <c r="H62" s="286"/>
+      <c r="I62" s="288" t="s">
         <v>1095</v>
       </c>
       <c r="J62" s="6"/>
@@ -23550,11 +24038,11 @@
         <v>878</v>
       </c>
       <c r="F63" s="184"/>
-      <c r="G63" s="295"/>
-      <c r="H63" s="288" t="s">
+      <c r="G63" s="294"/>
+      <c r="H63" s="287" t="s">
         <v>235</v>
       </c>
-      <c r="I63" s="289"/>
+      <c r="I63" s="288"/>
       <c r="J63" s="9"/>
       <c r="K63" s="8"/>
       <c r="L63" s="10"/>
@@ -23568,15 +24056,15 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="468"/>
-      <c r="F64" s="469"/>
-      <c r="G64" s="469"/>
-      <c r="H64" s="469"/>
-      <c r="I64" s="469"/>
-      <c r="J64" s="469"/>
-      <c r="K64" s="469"/>
-      <c r="L64" s="469"/>
-      <c r="M64" s="470"/>
+      <c r="E64" s="496"/>
+      <c r="F64" s="497"/>
+      <c r="G64" s="497"/>
+      <c r="H64" s="497"/>
+      <c r="I64" s="497"/>
+      <c r="J64" s="497"/>
+      <c r="K64" s="497"/>
+      <c r="L64" s="497"/>
+      <c r="M64" s="498"/>
       <c r="N64" s="40" t="s">
         <v>547</v>
       </c>
@@ -23605,23 +24093,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="402" t="s">
+      <c r="C66" s="417" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="403"/>
-      <c r="E66" s="402" t="s">
+      <c r="D66" s="418"/>
+      <c r="E66" s="417" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="404"/>
-      <c r="G66" s="403"/>
-      <c r="H66" s="402" t="s">
+      <c r="F66" s="419"/>
+      <c r="G66" s="418"/>
+      <c r="H66" s="417" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="404"/>
-      <c r="J66" s="404"/>
-      <c r="K66" s="404"/>
-      <c r="L66" s="404"/>
-      <c r="M66" s="403"/>
+      <c r="I66" s="419"/>
+      <c r="J66" s="419"/>
+      <c r="K66" s="419"/>
+      <c r="L66" s="419"/>
+      <c r="M66" s="418"/>
       <c r="Q66" t="s">
         <v>1057</v>
       </c>
@@ -23642,23 +24130,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="453" t="s">
+      <c r="C68" s="452" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="453"/>
-      <c r="E68" s="453" t="s">
+      <c r="D68" s="452"/>
+      <c r="E68" s="452" t="s">
         <v>1328</v>
       </c>
-      <c r="F68" s="453"/>
-      <c r="G68" s="453"/>
-      <c r="H68" s="453" t="s">
+      <c r="F68" s="452"/>
+      <c r="G68" s="452"/>
+      <c r="H68" s="452" t="s">
         <v>1344</v>
       </c>
-      <c r="I68" s="453"/>
-      <c r="J68" s="453"/>
-      <c r="K68" s="453"/>
-      <c r="L68" s="453"/>
-      <c r="M68" s="453"/>
+      <c r="I68" s="452"/>
+      <c r="J68" s="452"/>
+      <c r="K68" s="452"/>
+      <c r="L68" s="452"/>
+      <c r="M68" s="452"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -23769,7 +24257,7 @@
       <c r="M77" s="5"/>
       <c r="N77" s="4"/>
       <c r="O77" s="5"/>
-      <c r="P77" s="229" t="s">
+      <c r="P77" s="228" t="s">
         <v>882</v>
       </c>
       <c r="Q77" s="2"/>
@@ -23800,7 +24288,7 @@
       <c r="N79" s="4"/>
       <c r="O79" s="5"/>
       <c r="P79" s="4"/>
-      <c r="Q79" s="228" t="s">
+      <c r="Q79" s="227" t="s">
         <v>883</v>
       </c>
       <c r="R79" s="6"/>
@@ -23936,7 +24424,7 @@
       <c r="N87" s="4"/>
       <c r="O87" s="5"/>
       <c r="P87" s="4"/>
-      <c r="Q87" s="296" t="s">
+      <c r="Q87" s="295" t="s">
         <v>1097</v>
       </c>
       <c r="R87" s="6"/>
@@ -23999,7 +24487,7 @@
     <row r="105" spans="2:16">
       <c r="H105" s="20"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="315" t="s">
+      <c r="J105" s="314" t="s">
         <v>269</v>
       </c>
       <c r="K105" s="5" t="s">
@@ -24020,7 +24508,7 @@
       <c r="I106" s="5" t="s">
         <v>1331</v>
       </c>
-      <c r="J106" s="315" t="s">
+      <c r="J106" s="314" t="s">
         <v>269</v>
       </c>
       <c r="K106" s="5"/>
@@ -24391,11 +24879,11 @@
       <c r="D151" s="21"/>
       <c r="G151" s="20"/>
       <c r="H151" s="21"/>
-      <c r="J151" s="326" t="s">
+      <c r="J151" s="325" t="s">
         <v>1352</v>
       </c>
       <c r="K151" s="28"/>
-      <c r="L151" s="223"/>
+      <c r="L151" s="222"/>
       <c r="N151" s="20" t="s">
         <v>1194</v>
       </c>
@@ -24455,6 +24943,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E64:M64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:M66"/>
+    <mergeCell ref="E55:F61"/>
+    <mergeCell ref="G54:G62"/>
+    <mergeCell ref="E32:G35"/>
+    <mergeCell ref="H32:J35"/>
+    <mergeCell ref="K32:M35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B25:V25"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="E27:M27"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K50:M53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="E42:M42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:M44"/>
     <mergeCell ref="C68:D68"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="H68:M68"/>
@@ -24471,30 +24983,6 @@
     <mergeCell ref="E49:M49"/>
     <mergeCell ref="O51:Q51"/>
     <mergeCell ref="H50:J53"/>
-    <mergeCell ref="K50:M53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="E42:M42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="B2:V2"/>
-    <mergeCell ref="B25:V25"/>
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="E27:M27"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E32:G35"/>
-    <mergeCell ref="H32:J35"/>
-    <mergeCell ref="K32:M35"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="E64:M64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:M66"/>
-    <mergeCell ref="E55:F61"/>
-    <mergeCell ref="G54:G62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T9" r:id="rId1"/>
@@ -24528,12 +25016,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="504" t="s">
+      <c r="B1" s="503" t="s">
         <v>510</v>
       </c>
-      <c r="C1" s="504"/>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
       <c r="I1" s="40" t="s">
         <v>523</v>
       </c>
@@ -24650,12 +25138,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="448" t="s">
+      <c r="B8" s="451" t="s">
         <v>1366</v>
       </c>
-      <c r="C8" s="448"/>
-      <c r="D8" s="448"/>
-      <c r="E8" s="448"/>
+      <c r="C8" s="451"/>
+      <c r="D8" s="451"/>
+      <c r="E8" s="451"/>
       <c r="J8" s="32" t="s">
         <v>526</v>
       </c>
@@ -24828,32 +25316,32 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="479" t="s">
+      <c r="C2" s="487" t="s">
         <v>542</v>
       </c>
-      <c r="D2" s="479"/>
-      <c r="E2" s="479"/>
-      <c r="F2" s="479"/>
-      <c r="G2" s="479"/>
-      <c r="H2" s="479"/>
-      <c r="I2" s="479"/>
-      <c r="J2" s="479"/>
-      <c r="K2" s="479"/>
-      <c r="L2" s="479"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
+      <c r="K2" s="487"/>
+      <c r="L2" s="487"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="449" t="s">
+      <c r="E3" s="443" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="383"/>
-      <c r="G3" s="392"/>
-      <c r="H3" s="392"/>
-      <c r="I3" s="392"/>
-      <c r="J3" s="392"/>
-      <c r="K3" s="392"/>
-      <c r="L3" s="393"/>
+      <c r="F3" s="386"/>
+      <c r="G3" s="408"/>
+      <c r="H3" s="408"/>
+      <c r="I3" s="408"/>
+      <c r="J3" s="408"/>
+      <c r="K3" s="408"/>
+      <c r="L3" s="409"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
@@ -24884,11 +25372,11 @@
         <v>561</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="480" t="s">
+      <c r="N5" s="488" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="480"/>
-      <c r="P5" s="480"/>
+      <c r="O5" s="488"/>
+      <c r="P5" s="488"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -24939,20 +25427,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="475" t="s">
+      <c r="E8" s="492" t="s">
         <v>543</v>
       </c>
-      <c r="F8" s="477"/>
-      <c r="G8" s="475" t="s">
+      <c r="F8" s="494"/>
+      <c r="G8" s="492" t="s">
         <v>544</v>
       </c>
-      <c r="H8" s="476"/>
-      <c r="I8" s="477"/>
-      <c r="J8" s="475" t="s">
+      <c r="H8" s="493"/>
+      <c r="I8" s="494"/>
+      <c r="J8" s="492" t="s">
         <v>545</v>
       </c>
-      <c r="K8" s="476"/>
-      <c r="L8" s="477"/>
+      <c r="K8" s="493"/>
+      <c r="L8" s="494"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -24975,14 +25463,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="475"/>
-      <c r="F9" s="477"/>
-      <c r="G9" s="475"/>
-      <c r="H9" s="476"/>
-      <c r="I9" s="477"/>
-      <c r="J9" s="475"/>
-      <c r="K9" s="476"/>
-      <c r="L9" s="477"/>
+      <c r="E9" s="492"/>
+      <c r="F9" s="494"/>
+      <c r="G9" s="492"/>
+      <c r="H9" s="493"/>
+      <c r="I9" s="494"/>
+      <c r="J9" s="492"/>
+      <c r="K9" s="493"/>
+      <c r="L9" s="494"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -25002,14 +25490,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="475"/>
-      <c r="F10" s="477"/>
-      <c r="G10" s="475"/>
-      <c r="H10" s="476"/>
-      <c r="I10" s="477"/>
-      <c r="J10" s="475"/>
-      <c r="K10" s="476"/>
-      <c r="L10" s="477"/>
+      <c r="E10" s="492"/>
+      <c r="F10" s="494"/>
+      <c r="G10" s="492"/>
+      <c r="H10" s="493"/>
+      <c r="I10" s="494"/>
+      <c r="J10" s="492"/>
+      <c r="K10" s="493"/>
+      <c r="L10" s="494"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -25023,14 +25511,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="475"/>
-      <c r="F11" s="477"/>
-      <c r="G11" s="475"/>
-      <c r="H11" s="476"/>
-      <c r="I11" s="477"/>
-      <c r="J11" s="475"/>
-      <c r="K11" s="476"/>
-      <c r="L11" s="477"/>
+      <c r="E11" s="492"/>
+      <c r="F11" s="494"/>
+      <c r="G11" s="492"/>
+      <c r="H11" s="493"/>
+      <c r="I11" s="494"/>
+      <c r="J11" s="492"/>
+      <c r="K11" s="493"/>
+      <c r="L11" s="494"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -25133,16 +25621,16 @@
     <row r="17" spans="3:15" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="468" t="s">
+      <c r="E17" s="496" t="s">
         <v>546</v>
       </c>
-      <c r="F17" s="469"/>
-      <c r="G17" s="469"/>
-      <c r="H17" s="469"/>
-      <c r="I17" s="469"/>
-      <c r="J17" s="469"/>
-      <c r="K17" s="469"/>
-      <c r="L17" s="470"/>
+      <c r="F17" s="497"/>
+      <c r="G17" s="497"/>
+      <c r="H17" s="497"/>
+      <c r="I17" s="497"/>
+      <c r="J17" s="497"/>
+      <c r="K17" s="497"/>
+      <c r="L17" s="498"/>
       <c r="M17" s="40" t="s">
         <v>547</v>
       </c>
@@ -25160,40 +25648,40 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="402" t="s">
+      <c r="C19" s="417" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="403"/>
-      <c r="E19" s="402" t="s">
+      <c r="D19" s="418"/>
+      <c r="E19" s="417" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="403"/>
-      <c r="G19" s="402" t="s">
+      <c r="F19" s="418"/>
+      <c r="G19" s="417" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="404"/>
-      <c r="I19" s="404"/>
-      <c r="J19" s="404"/>
-      <c r="K19" s="404"/>
-      <c r="L19" s="403"/>
+      <c r="H19" s="419"/>
+      <c r="I19" s="419"/>
+      <c r="J19" s="419"/>
+      <c r="K19" s="419"/>
+      <c r="L19" s="418"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="505" t="s">
+      <c r="E21" s="504" t="s">
         <v>1357</v>
       </c>
-      <c r="F21" s="506"/>
+      <c r="F21" s="505"/>
     </row>
     <row r="22" spans="3:15">
-      <c r="E22" s="507"/>
-      <c r="F22" s="508"/>
+      <c r="E22" s="506"/>
+      <c r="F22" s="507"/>
       <c r="J22" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="23" spans="3:15">
-      <c r="E23" s="507"/>
-      <c r="F23" s="508"/>
+      <c r="E23" s="506"/>
+      <c r="F23" s="507"/>
       <c r="H23" t="s">
         <v>1378</v>
       </c>
@@ -25205,8 +25693,8 @@
       </c>
     </row>
     <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="509"/>
-      <c r="F24" s="510"/>
+      <c r="E24" s="508"/>
+      <c r="F24" s="509"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -25930,22 +26418,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="481" t="s">
+      <c r="E3" s="467" t="s">
         <v>490</v>
       </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481" t="s">
+      <c r="F3" s="467"/>
+      <c r="G3" s="467" t="s">
         <v>491</v>
       </c>
-      <c r="H3" s="481"/>
-      <c r="I3" s="481"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="481"/>
-      <c r="L3" s="481"/>
-      <c r="M3" s="481" t="s">
+      <c r="H3" s="467"/>
+      <c r="I3" s="467"/>
+      <c r="J3" s="467"/>
+      <c r="K3" s="467"/>
+      <c r="L3" s="467"/>
+      <c r="M3" s="467" t="s">
         <v>492</v>
       </c>
-      <c r="N3" s="481"/>
+      <c r="N3" s="467"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -25956,7 +26444,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="135"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="486" t="s">
+      <c r="E4" s="468" t="s">
         <v>493</v>
       </c>
       <c r="F4" s="131"/>
@@ -25984,22 +26472,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="138"/>
-      <c r="E5" s="408"/>
-      <c r="F5" s="419" t="s">
+      <c r="E5" s="395"/>
+      <c r="F5" s="422" t="s">
         <v>589</v>
       </c>
-      <c r="G5" s="420"/>
-      <c r="H5" s="421"/>
-      <c r="I5" s="511" t="s">
+      <c r="G5" s="423"/>
+      <c r="H5" s="424"/>
+      <c r="I5" s="540" t="s">
         <v>590</v>
       </c>
-      <c r="J5" s="512"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="493"/>
-      <c r="M5" s="511" t="s">
+      <c r="J5" s="541"/>
+      <c r="K5" s="541"/>
+      <c r="L5" s="475"/>
+      <c r="M5" s="540" t="s">
         <v>591</v>
       </c>
-      <c r="N5" s="493"/>
+      <c r="N5" s="475"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -26010,16 +26498,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
-      <c r="E6" s="408"/>
-      <c r="F6" s="422"/>
-      <c r="G6" s="423"/>
-      <c r="H6" s="424"/>
-      <c r="I6" s="494"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="495"/>
-      <c r="M6" s="494"/>
-      <c r="N6" s="495"/>
+      <c r="E6" s="395"/>
+      <c r="F6" s="425"/>
+      <c r="G6" s="426"/>
+      <c r="H6" s="427"/>
+      <c r="I6" s="476"/>
+      <c r="J6" s="542"/>
+      <c r="K6" s="542"/>
+      <c r="L6" s="477"/>
+      <c r="M6" s="476"/>
+      <c r="N6" s="477"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>181</v>
@@ -26036,16 +26524,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="408"/>
-      <c r="F7" s="422"/>
-      <c r="G7" s="423"/>
-      <c r="H7" s="424"/>
-      <c r="I7" s="494"/>
-      <c r="J7" s="513"/>
-      <c r="K7" s="513"/>
-      <c r="L7" s="495"/>
-      <c r="M7" s="494"/>
-      <c r="N7" s="495"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="425"/>
+      <c r="G7" s="426"/>
+      <c r="H7" s="427"/>
+      <c r="I7" s="476"/>
+      <c r="J7" s="542"/>
+      <c r="K7" s="542"/>
+      <c r="L7" s="477"/>
+      <c r="M7" s="476"/>
+      <c r="N7" s="477"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -26064,16 +26552,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="408"/>
-      <c r="F8" s="422"/>
-      <c r="G8" s="423"/>
-      <c r="H8" s="424"/>
-      <c r="I8" s="494"/>
-      <c r="J8" s="513"/>
-      <c r="K8" s="513"/>
-      <c r="L8" s="495"/>
-      <c r="M8" s="494"/>
-      <c r="N8" s="495"/>
+      <c r="E8" s="395"/>
+      <c r="F8" s="425"/>
+      <c r="G8" s="426"/>
+      <c r="H8" s="427"/>
+      <c r="I8" s="476"/>
+      <c r="J8" s="542"/>
+      <c r="K8" s="542"/>
+      <c r="L8" s="477"/>
+      <c r="M8" s="476"/>
+      <c r="N8" s="477"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -26094,16 +26582,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="408"/>
-      <c r="F9" s="422"/>
-      <c r="G9" s="423"/>
-      <c r="H9" s="424"/>
-      <c r="I9" s="494"/>
-      <c r="J9" s="513"/>
-      <c r="K9" s="513"/>
-      <c r="L9" s="495"/>
-      <c r="M9" s="494"/>
-      <c r="N9" s="495"/>
+      <c r="E9" s="395"/>
+      <c r="F9" s="425"/>
+      <c r="G9" s="426"/>
+      <c r="H9" s="427"/>
+      <c r="I9" s="476"/>
+      <c r="J9" s="542"/>
+      <c r="K9" s="542"/>
+      <c r="L9" s="477"/>
+      <c r="M9" s="476"/>
+      <c r="N9" s="477"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -26120,16 +26608,16 @@
         <v>509</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="408"/>
-      <c r="F10" s="422"/>
-      <c r="G10" s="423"/>
-      <c r="H10" s="424"/>
-      <c r="I10" s="494"/>
-      <c r="J10" s="513"/>
-      <c r="K10" s="513"/>
-      <c r="L10" s="495"/>
-      <c r="M10" s="494"/>
-      <c r="N10" s="495"/>
+      <c r="E10" s="395"/>
+      <c r="F10" s="425"/>
+      <c r="G10" s="426"/>
+      <c r="H10" s="427"/>
+      <c r="I10" s="476"/>
+      <c r="J10" s="542"/>
+      <c r="K10" s="542"/>
+      <c r="L10" s="477"/>
+      <c r="M10" s="476"/>
+      <c r="N10" s="477"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -26142,16 +26630,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="408"/>
-      <c r="F11" s="422"/>
-      <c r="G11" s="423"/>
-      <c r="H11" s="424"/>
-      <c r="I11" s="494"/>
-      <c r="J11" s="513"/>
-      <c r="K11" s="513"/>
-      <c r="L11" s="495"/>
-      <c r="M11" s="494"/>
-      <c r="N11" s="495"/>
+      <c r="E11" s="395"/>
+      <c r="F11" s="425"/>
+      <c r="G11" s="426"/>
+      <c r="H11" s="427"/>
+      <c r="I11" s="476"/>
+      <c r="J11" s="542"/>
+      <c r="K11" s="542"/>
+      <c r="L11" s="477"/>
+      <c r="M11" s="476"/>
+      <c r="N11" s="477"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -26162,16 +26650,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="408"/>
-      <c r="F12" s="422"/>
-      <c r="G12" s="423"/>
-      <c r="H12" s="424"/>
-      <c r="I12" s="494"/>
-      <c r="J12" s="513"/>
-      <c r="K12" s="513"/>
-      <c r="L12" s="495"/>
-      <c r="M12" s="494"/>
-      <c r="N12" s="495"/>
+      <c r="E12" s="395"/>
+      <c r="F12" s="425"/>
+      <c r="G12" s="426"/>
+      <c r="H12" s="427"/>
+      <c r="I12" s="476"/>
+      <c r="J12" s="542"/>
+      <c r="K12" s="542"/>
+      <c r="L12" s="477"/>
+      <c r="M12" s="476"/>
+      <c r="N12" s="477"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -26184,16 +26672,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="422"/>
-      <c r="G13" s="423"/>
-      <c r="H13" s="424"/>
-      <c r="I13" s="494"/>
-      <c r="J13" s="513"/>
-      <c r="K13" s="513"/>
-      <c r="L13" s="495"/>
-      <c r="M13" s="494"/>
-      <c r="N13" s="495"/>
+      <c r="E13" s="395"/>
+      <c r="F13" s="425"/>
+      <c r="G13" s="426"/>
+      <c r="H13" s="427"/>
+      <c r="I13" s="476"/>
+      <c r="J13" s="542"/>
+      <c r="K13" s="542"/>
+      <c r="L13" s="477"/>
+      <c r="M13" s="476"/>
+      <c r="N13" s="477"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -26204,16 +26692,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="408"/>
-      <c r="F14" s="422"/>
-      <c r="G14" s="423"/>
-      <c r="H14" s="424"/>
-      <c r="I14" s="494"/>
-      <c r="J14" s="513"/>
-      <c r="K14" s="513"/>
-      <c r="L14" s="495"/>
-      <c r="M14" s="494"/>
-      <c r="N14" s="495"/>
+      <c r="E14" s="395"/>
+      <c r="F14" s="425"/>
+      <c r="G14" s="426"/>
+      <c r="H14" s="427"/>
+      <c r="I14" s="476"/>
+      <c r="J14" s="542"/>
+      <c r="K14" s="542"/>
+      <c r="L14" s="477"/>
+      <c r="M14" s="476"/>
+      <c r="N14" s="477"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -26224,16 +26712,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="408"/>
-      <c r="F15" s="422"/>
-      <c r="G15" s="423"/>
-      <c r="H15" s="424"/>
-      <c r="I15" s="494"/>
-      <c r="J15" s="513"/>
-      <c r="K15" s="513"/>
-      <c r="L15" s="495"/>
-      <c r="M15" s="494"/>
-      <c r="N15" s="495"/>
+      <c r="E15" s="395"/>
+      <c r="F15" s="425"/>
+      <c r="G15" s="426"/>
+      <c r="H15" s="427"/>
+      <c r="I15" s="476"/>
+      <c r="J15" s="542"/>
+      <c r="K15" s="542"/>
+      <c r="L15" s="477"/>
+      <c r="M15" s="476"/>
+      <c r="N15" s="477"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -26244,16 +26732,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="408"/>
-      <c r="F16" s="422"/>
-      <c r="G16" s="423"/>
-      <c r="H16" s="424"/>
-      <c r="I16" s="494"/>
-      <c r="J16" s="513"/>
-      <c r="K16" s="513"/>
-      <c r="L16" s="495"/>
-      <c r="M16" s="494"/>
-      <c r="N16" s="495"/>
+      <c r="E16" s="395"/>
+      <c r="F16" s="425"/>
+      <c r="G16" s="426"/>
+      <c r="H16" s="427"/>
+      <c r="I16" s="476"/>
+      <c r="J16" s="542"/>
+      <c r="K16" s="542"/>
+      <c r="L16" s="477"/>
+      <c r="M16" s="476"/>
+      <c r="N16" s="477"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -26266,16 +26754,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="408"/>
-      <c r="F17" s="422"/>
-      <c r="G17" s="423"/>
-      <c r="H17" s="424"/>
-      <c r="I17" s="494"/>
-      <c r="J17" s="513"/>
-      <c r="K17" s="513"/>
-      <c r="L17" s="495"/>
-      <c r="M17" s="494"/>
-      <c r="N17" s="495"/>
+      <c r="E17" s="395"/>
+      <c r="F17" s="425"/>
+      <c r="G17" s="426"/>
+      <c r="H17" s="427"/>
+      <c r="I17" s="476"/>
+      <c r="J17" s="542"/>
+      <c r="K17" s="542"/>
+      <c r="L17" s="477"/>
+      <c r="M17" s="476"/>
+      <c r="N17" s="477"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -26286,16 +26774,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="409"/>
-      <c r="F18" s="425"/>
-      <c r="G18" s="426"/>
-      <c r="H18" s="427"/>
-      <c r="I18" s="496"/>
-      <c r="J18" s="514"/>
-      <c r="K18" s="514"/>
-      <c r="L18" s="497"/>
-      <c r="M18" s="496"/>
-      <c r="N18" s="497"/>
+      <c r="E18" s="396"/>
+      <c r="F18" s="428"/>
+      <c r="G18" s="429"/>
+      <c r="H18" s="430"/>
+      <c r="I18" s="478"/>
+      <c r="J18" s="543"/>
+      <c r="K18" s="543"/>
+      <c r="L18" s="479"/>
+      <c r="M18" s="478"/>
+      <c r="N18" s="479"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -26324,26 +26812,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="402" t="s">
+      <c r="C20" s="417" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="403"/>
+      <c r="D20" s="418"/>
       <c r="E20" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="402" t="s">
+      <c r="F20" s="417" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="404"/>
-      <c r="H20" s="404"/>
-      <c r="I20" s="404"/>
-      <c r="J20" s="404"/>
-      <c r="K20" s="404"/>
-      <c r="L20" s="403"/>
-      <c r="M20" s="402" t="s">
+      <c r="G20" s="419"/>
+      <c r="H20" s="419"/>
+      <c r="I20" s="419"/>
+      <c r="J20" s="419"/>
+      <c r="K20" s="419"/>
+      <c r="L20" s="418"/>
+      <c r="M20" s="417" t="s">
         <v>500</v>
       </c>
-      <c r="N20" s="403"/>
+      <c r="N20" s="418"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -26371,39 +26859,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="480" t="s">
+      <c r="B24" s="488" t="s">
         <v>542</v>
       </c>
-      <c r="C24" s="480"/>
-      <c r="D24" s="479"/>
-      <c r="E24" s="479"/>
-      <c r="F24" s="479"/>
-      <c r="G24" s="479"/>
-      <c r="H24" s="479"/>
-      <c r="I24" s="479"/>
-      <c r="J24" s="479"/>
-      <c r="K24" s="479"/>
-      <c r="M24" s="533" t="s">
+      <c r="C24" s="488"/>
+      <c r="D24" s="487"/>
+      <c r="E24" s="487"/>
+      <c r="F24" s="487"/>
+      <c r="G24" s="487"/>
+      <c r="H24" s="487"/>
+      <c r="I24" s="487"/>
+      <c r="J24" s="487"/>
+      <c r="K24" s="487"/>
+      <c r="M24" s="510" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="533"/>
-      <c r="O24" s="533"/>
+      <c r="N24" s="510"/>
+      <c r="O24" s="510"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="534" t="s">
+      <c r="B25" s="511" t="s">
         <v>893</v>
       </c>
-      <c r="C25" s="457"/>
-      <c r="D25" s="392" t="s">
+      <c r="C25" s="455"/>
+      <c r="D25" s="408" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="392"/>
-      <c r="F25" s="392"/>
-      <c r="G25" s="392"/>
-      <c r="H25" s="392"/>
-      <c r="I25" s="392"/>
-      <c r="J25" s="392"/>
-      <c r="K25" s="393"/>
+      <c r="E25" s="408"/>
+      <c r="F25" s="408"/>
+      <c r="G25" s="408"/>
+      <c r="H25" s="408"/>
+      <c r="I25" s="408"/>
+      <c r="J25" s="408"/>
+      <c r="K25" s="409"/>
       <c r="M25" s="38" t="s">
         <v>181</v>
       </c>
@@ -26415,22 +26903,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="458"/>
-      <c r="C26" s="459"/>
-      <c r="D26" s="456" t="s">
+      <c r="B26" s="456"/>
+      <c r="C26" s="457"/>
+      <c r="D26" s="454" t="s">
         <v>886</v>
       </c>
-      <c r="E26" s="457"/>
-      <c r="F26" s="527" t="s">
+      <c r="E26" s="455"/>
+      <c r="F26" s="538" t="s">
         <v>886</v>
       </c>
-      <c r="G26" s="392"/>
-      <c r="H26" s="393"/>
-      <c r="I26" s="391" t="s">
+      <c r="G26" s="408"/>
+      <c r="H26" s="409"/>
+      <c r="I26" s="407" t="s">
         <v>890</v>
       </c>
-      <c r="J26" s="392"/>
-      <c r="K26" s="393"/>
+      <c r="J26" s="408"/>
+      <c r="K26" s="409"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -26445,22 +26933,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="458"/>
-      <c r="C27" s="459"/>
-      <c r="D27" s="448" t="s">
+      <c r="B27" s="456"/>
+      <c r="C27" s="457"/>
+      <c r="D27" s="451" t="s">
         <v>891</v>
       </c>
-      <c r="E27" s="459"/>
-      <c r="F27" s="458" t="s">
+      <c r="E27" s="457"/>
+      <c r="F27" s="456" t="s">
         <v>887</v>
       </c>
-      <c r="G27" s="448"/>
-      <c r="H27" s="528"/>
-      <c r="I27" s="532" t="s">
+      <c r="G27" s="451"/>
+      <c r="H27" s="522"/>
+      <c r="I27" s="521" t="s">
         <v>891</v>
       </c>
-      <c r="J27" s="448"/>
-      <c r="K27" s="528"/>
+      <c r="J27" s="451"/>
+      <c r="K27" s="522"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -26475,22 +26963,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="458"/>
-      <c r="C28" s="459"/>
-      <c r="D28" s="448" t="s">
+      <c r="B28" s="456"/>
+      <c r="C28" s="457"/>
+      <c r="D28" s="451" t="s">
         <v>888</v>
       </c>
-      <c r="E28" s="459"/>
-      <c r="F28" s="458" t="s">
+      <c r="E28" s="457"/>
+      <c r="F28" s="456" t="s">
         <v>888</v>
       </c>
-      <c r="G28" s="448"/>
-      <c r="H28" s="528"/>
-      <c r="I28" s="532" t="s">
+      <c r="G28" s="451"/>
+      <c r="H28" s="522"/>
+      <c r="I28" s="521" t="s">
         <v>888</v>
       </c>
-      <c r="J28" s="448"/>
-      <c r="K28" s="528"/>
+      <c r="J28" s="451"/>
+      <c r="K28" s="522"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -26499,22 +26987,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="460"/>
-      <c r="C29" s="461"/>
-      <c r="D29" s="448" t="s">
+      <c r="B29" s="458"/>
+      <c r="C29" s="459"/>
+      <c r="D29" s="451" t="s">
         <v>889</v>
       </c>
-      <c r="E29" s="459"/>
-      <c r="F29" s="529" t="s">
+      <c r="E29" s="457"/>
+      <c r="F29" s="539" t="s">
         <v>889</v>
       </c>
-      <c r="G29" s="530"/>
-      <c r="H29" s="531"/>
-      <c r="I29" s="544" t="s">
+      <c r="G29" s="524"/>
+      <c r="H29" s="525"/>
+      <c r="I29" s="523" t="s">
         <v>889</v>
       </c>
-      <c r="J29" s="530"/>
-      <c r="K29" s="531"/>
+      <c r="J29" s="524"/>
+      <c r="K29" s="525"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -26523,149 +27011,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="394" t="s">
+      <c r="B30" s="410" t="s">
         <v>892</v>
       </c>
-      <c r="C30" s="396"/>
-      <c r="D30" s="515" t="s">
+      <c r="C30" s="412"/>
+      <c r="D30" s="526" t="s">
         <v>543</v>
       </c>
-      <c r="E30" s="516"/>
-      <c r="F30" s="520" t="s">
+      <c r="E30" s="527"/>
+      <c r="F30" s="531" t="s">
         <v>544</v>
       </c>
-      <c r="G30" s="521"/>
-      <c r="H30" s="516"/>
-      <c r="I30" s="520" t="s">
+      <c r="G30" s="532"/>
+      <c r="H30" s="527"/>
+      <c r="I30" s="531" t="s">
         <v>545</v>
       </c>
-      <c r="J30" s="521"/>
-      <c r="K30" s="524"/>
+      <c r="J30" s="532"/>
+      <c r="K30" s="535"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="388"/>
-      <c r="C31" s="398"/>
-      <c r="D31" s="517"/>
-      <c r="E31" s="477"/>
-      <c r="F31" s="475"/>
-      <c r="G31" s="476"/>
-      <c r="H31" s="477"/>
-      <c r="I31" s="475"/>
-      <c r="J31" s="476"/>
-      <c r="K31" s="525"/>
+      <c r="B31" s="391"/>
+      <c r="C31" s="399"/>
+      <c r="D31" s="528"/>
+      <c r="E31" s="494"/>
+      <c r="F31" s="492"/>
+      <c r="G31" s="493"/>
+      <c r="H31" s="494"/>
+      <c r="I31" s="492"/>
+      <c r="J31" s="493"/>
+      <c r="K31" s="536"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="388"/>
-      <c r="C32" s="398"/>
-      <c r="D32" s="517"/>
-      <c r="E32" s="477"/>
-      <c r="F32" s="475"/>
-      <c r="G32" s="476"/>
-      <c r="H32" s="477"/>
-      <c r="I32" s="475"/>
-      <c r="J32" s="476"/>
-      <c r="K32" s="525"/>
+      <c r="B32" s="391"/>
+      <c r="C32" s="399"/>
+      <c r="D32" s="528"/>
+      <c r="E32" s="494"/>
+      <c r="F32" s="492"/>
+      <c r="G32" s="493"/>
+      <c r="H32" s="494"/>
+      <c r="I32" s="492"/>
+      <c r="J32" s="493"/>
+      <c r="K32" s="536"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="388"/>
-      <c r="C33" s="398"/>
-      <c r="D33" s="518"/>
-      <c r="E33" s="519"/>
-      <c r="F33" s="522"/>
-      <c r="G33" s="523"/>
-      <c r="H33" s="519"/>
-      <c r="I33" s="522"/>
-      <c r="J33" s="523"/>
-      <c r="K33" s="526"/>
+      <c r="B33" s="391"/>
+      <c r="C33" s="399"/>
+      <c r="D33" s="529"/>
+      <c r="E33" s="530"/>
+      <c r="F33" s="533"/>
+      <c r="G33" s="534"/>
+      <c r="H33" s="530"/>
+      <c r="I33" s="533"/>
+      <c r="J33" s="534"/>
+      <c r="K33" s="537"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="388"/>
-      <c r="C34" s="390"/>
-      <c r="D34" s="535" t="s">
+      <c r="B34" s="391"/>
+      <c r="C34" s="393"/>
+      <c r="D34" s="512" t="s">
         <v>879</v>
       </c>
-      <c r="E34" s="536"/>
-      <c r="F34" s="535" t="s">
+      <c r="E34" s="513"/>
+      <c r="F34" s="512" t="s">
         <v>565</v>
       </c>
-      <c r="G34" s="541"/>
-      <c r="H34" s="536"/>
-      <c r="I34" s="535" t="s">
+      <c r="G34" s="518"/>
+      <c r="H34" s="513"/>
+      <c r="I34" s="512" t="s">
         <v>894</v>
       </c>
-      <c r="J34" s="541"/>
-      <c r="K34" s="536"/>
+      <c r="J34" s="518"/>
+      <c r="K34" s="513"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="388"/>
-      <c r="C35" s="390"/>
-      <c r="D35" s="537"/>
-      <c r="E35" s="538"/>
-      <c r="F35" s="537"/>
-      <c r="G35" s="542"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="537"/>
-      <c r="J35" s="542"/>
-      <c r="K35" s="538"/>
+      <c r="B35" s="391"/>
+      <c r="C35" s="393"/>
+      <c r="D35" s="514"/>
+      <c r="E35" s="515"/>
+      <c r="F35" s="514"/>
+      <c r="G35" s="519"/>
+      <c r="H35" s="515"/>
+      <c r="I35" s="514"/>
+      <c r="J35" s="519"/>
+      <c r="K35" s="515"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="388"/>
-      <c r="C36" s="390"/>
-      <c r="D36" s="537"/>
-      <c r="E36" s="538"/>
-      <c r="F36" s="537"/>
-      <c r="G36" s="542"/>
-      <c r="H36" s="538"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="542"/>
-      <c r="K36" s="538"/>
+      <c r="B36" s="391"/>
+      <c r="C36" s="393"/>
+      <c r="D36" s="514"/>
+      <c r="E36" s="515"/>
+      <c r="F36" s="514"/>
+      <c r="G36" s="519"/>
+      <c r="H36" s="515"/>
+      <c r="I36" s="514"/>
+      <c r="J36" s="519"/>
+      <c r="K36" s="515"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="388"/>
-      <c r="C37" s="390"/>
-      <c r="D37" s="537"/>
-      <c r="E37" s="538"/>
-      <c r="F37" s="537"/>
-      <c r="G37" s="542"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="537"/>
-      <c r="J37" s="542"/>
-      <c r="K37" s="538"/>
+      <c r="B37" s="391"/>
+      <c r="C37" s="393"/>
+      <c r="D37" s="514"/>
+      <c r="E37" s="515"/>
+      <c r="F37" s="514"/>
+      <c r="G37" s="519"/>
+      <c r="H37" s="515"/>
+      <c r="I37" s="514"/>
+      <c r="J37" s="519"/>
+      <c r="K37" s="515"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="388"/>
-      <c r="C38" s="390"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="540"/>
-      <c r="F38" s="539"/>
-      <c r="G38" s="543"/>
-      <c r="H38" s="540"/>
-      <c r="I38" s="539"/>
-      <c r="J38" s="543"/>
-      <c r="K38" s="540"/>
+      <c r="B38" s="391"/>
+      <c r="C38" s="393"/>
+      <c r="D38" s="516"/>
+      <c r="E38" s="517"/>
+      <c r="F38" s="516"/>
+      <c r="G38" s="520"/>
+      <c r="H38" s="517"/>
+      <c r="I38" s="516"/>
+      <c r="J38" s="520"/>
+      <c r="K38" s="517"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="399"/>
-      <c r="C39" s="401"/>
-      <c r="D39" s="468" t="s">
+      <c r="B39" s="414"/>
+      <c r="C39" s="416"/>
+      <c r="D39" s="496" t="s">
         <v>546</v>
       </c>
-      <c r="E39" s="469"/>
-      <c r="F39" s="469"/>
-      <c r="G39" s="469"/>
-      <c r="H39" s="469"/>
-      <c r="I39" s="469"/>
-      <c r="J39" s="469"/>
-      <c r="K39" s="470"/>
+      <c r="E39" s="497"/>
+      <c r="F39" s="497"/>
+      <c r="G39" s="497"/>
+      <c r="H39" s="497"/>
+      <c r="I39" s="497"/>
+      <c r="J39" s="497"/>
+      <c r="K39" s="498"/>
       <c r="L39" s="40" t="s">
         <v>547</v>
       </c>
@@ -26683,36 +27171,35 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="402" t="s">
+      <c r="B41" s="417" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="403"/>
-      <c r="D41" s="402" t="s">
+      <c r="C41" s="418"/>
+      <c r="D41" s="417" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="403"/>
-      <c r="F41" s="402" t="s">
+      <c r="E41" s="418"/>
+      <c r="F41" s="417" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="404"/>
-      <c r="H41" s="404"/>
-      <c r="I41" s="404"/>
-      <c r="J41" s="404"/>
-      <c r="K41" s="403"/>
+      <c r="G41" s="419"/>
+      <c r="H41" s="419"/>
+      <c r="I41" s="419"/>
+      <c r="J41" s="419"/>
+      <c r="K41" s="418"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="B30:C39"/>
-    <mergeCell ref="B25:C29"/>
-    <mergeCell ref="D34:E38"/>
-    <mergeCell ref="F34:H38"/>
-    <mergeCell ref="I34:K38"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E4:E18"/>
+    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="F5:H18"/>
+    <mergeCell ref="I5:L18"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F41:K41"/>
@@ -26729,16 +27216,17 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="F5:H18"/>
-    <mergeCell ref="I5:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="E4:E18"/>
-    <mergeCell ref="M5:N18"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="B30:C39"/>
+    <mergeCell ref="B25:C29"/>
+    <mergeCell ref="D34:E38"/>
+    <mergeCell ref="F34:H38"/>
+    <mergeCell ref="I34:K38"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="R7" r:id="rId1"/>
@@ -27031,13 +27519,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="382" t="s">
+      <c r="A5" s="385" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="383"/>
-      <c r="C5" s="383"/>
-      <c r="D5" s="383"/>
-      <c r="E5" s="384"/>
+      <c r="B5" s="386"/>
+      <c r="C5" s="386"/>
+      <c r="D5" s="386"/>
+      <c r="E5" s="387"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>149</v>
@@ -27625,42 +28113,42 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1">
-      <c r="D5" s="342">
+      <c r="D5" s="341">
         <v>0.1</v>
       </c>
-      <c r="E5" s="342">
+      <c r="E5" s="341">
         <v>0.2</v>
       </c>
-      <c r="F5" s="342">
+      <c r="F5" s="341">
         <v>0.3</v>
       </c>
-      <c r="G5" s="342">
+      <c r="G5" s="341">
         <v>0.4</v>
       </c>
-      <c r="H5" s="342">
+      <c r="H5" s="341">
         <v>0.5</v>
       </c>
-      <c r="I5" s="342">
+      <c r="I5" s="341">
         <v>0.6</v>
       </c>
-      <c r="J5" s="342">
+      <c r="J5" s="341">
         <v>0.7</v>
       </c>
-      <c r="K5" s="342">
+      <c r="K5" s="341">
         <v>0.8</v>
       </c>
-      <c r="L5" s="342">
+      <c r="L5" s="341">
         <v>0.9</v>
       </c>
-      <c r="M5" s="342">
+      <c r="M5" s="341">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="C6" s="342">
+      <c r="C6" s="341">
         <v>0.1</v>
       </c>
-      <c r="D6" s="343"/>
+      <c r="D6" s="342"/>
       <c r="E6" s="65"/>
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
@@ -27669,32 +28157,32 @@
       <c r="J6" s="65"/>
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
-      <c r="M6" s="344"/>
-      <c r="N6" s="388" t="s">
+      <c r="M6" s="343"/>
+      <c r="N6" s="391" t="s">
         <v>1471</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C7" s="342">
+      <c r="C7" s="341">
         <v>0.2</v>
       </c>
-      <c r="D7" s="345"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="346"/>
-      <c r="G7" s="346"/>
-      <c r="H7" s="346"/>
-      <c r="I7" s="346"/>
-      <c r="J7" s="346"/>
-      <c r="K7" s="346"/>
-      <c r="L7" s="346"/>
-      <c r="M7" s="347"/>
-      <c r="N7" s="388"/>
+      <c r="D7" s="344"/>
+      <c r="E7" s="345"/>
+      <c r="F7" s="345"/>
+      <c r="G7" s="345"/>
+      <c r="H7" s="345"/>
+      <c r="I7" s="345"/>
+      <c r="J7" s="345"/>
+      <c r="K7" s="345"/>
+      <c r="L7" s="345"/>
+      <c r="M7" s="346"/>
+      <c r="N7" s="391"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="C8" s="342">
+      <c r="C8" s="341">
         <v>0.3</v>
       </c>
-      <c r="D8" s="360"/>
+      <c r="D8" s="359"/>
       <c r="E8" s="178"/>
       <c r="F8" s="178"/>
       <c r="G8" s="178"/>
@@ -27704,15 +28192,15 @@
       <c r="K8" s="178"/>
       <c r="L8" s="178"/>
       <c r="M8" s="179"/>
-      <c r="N8" s="388" t="s">
+      <c r="N8" s="391" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:14">
-      <c r="C9" s="342">
+      <c r="C9" s="341">
         <v>0.4</v>
       </c>
-      <c r="D9" s="361"/>
+      <c r="D9" s="360"/>
       <c r="E9" s="172"/>
       <c r="F9" s="172"/>
       <c r="G9" s="172"/>
@@ -27722,13 +28210,13 @@
       <c r="K9" s="172"/>
       <c r="L9" s="172"/>
       <c r="M9" s="173"/>
-      <c r="N9" s="388"/>
+      <c r="N9" s="391"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="C10" s="342">
+      <c r="C10" s="341">
         <v>0.5</v>
       </c>
-      <c r="D10" s="361" t="s">
+      <c r="D10" s="360" t="s">
         <v>1472</v>
       </c>
       <c r="E10" s="172"/>
@@ -27742,13 +28230,13 @@
       <c r="K10" s="172"/>
       <c r="L10" s="172"/>
       <c r="M10" s="173"/>
-      <c r="N10" s="388"/>
+      <c r="N10" s="391"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="C11" s="342">
+      <c r="C11" s="341">
         <v>0.6</v>
       </c>
-      <c r="D11" s="361"/>
+      <c r="D11" s="360"/>
       <c r="E11" s="172"/>
       <c r="F11" s="172"/>
       <c r="G11" s="172"/>
@@ -27758,13 +28246,13 @@
       <c r="K11" s="172"/>
       <c r="L11" s="172"/>
       <c r="M11" s="173"/>
-      <c r="N11" s="388"/>
+      <c r="N11" s="391"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C12" s="342">
+      <c r="C12" s="341">
         <v>0.7</v>
       </c>
-      <c r="D12" s="362"/>
+      <c r="D12" s="361"/>
       <c r="E12" s="172"/>
       <c r="F12" s="172"/>
       <c r="G12" s="172"/>
@@ -27774,13 +28262,13 @@
       <c r="K12" s="172"/>
       <c r="L12" s="172"/>
       <c r="M12" s="173"/>
-      <c r="N12" s="388"/>
+      <c r="N12" s="391"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="C13" s="342">
+      <c r="C13" s="341">
         <v>0.8</v>
       </c>
-      <c r="D13" s="361"/>
+      <c r="D13" s="360"/>
       <c r="E13" s="172"/>
       <c r="F13" s="172"/>
       <c r="G13" s="172"/>
@@ -27790,13 +28278,13 @@
       <c r="K13" s="172"/>
       <c r="L13" s="172"/>
       <c r="M13" s="173"/>
-      <c r="N13" s="388"/>
+      <c r="N13" s="391"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C14" s="342">
+      <c r="C14" s="341">
         <v>0.9</v>
       </c>
-      <c r="D14" s="362"/>
+      <c r="D14" s="361"/>
       <c r="E14" s="181"/>
       <c r="F14" s="181"/>
       <c r="G14" s="181"/>
@@ -27806,114 +28294,114 @@
       <c r="K14" s="181"/>
       <c r="L14" s="181"/>
       <c r="M14" s="182"/>
-      <c r="N14" s="388"/>
+      <c r="N14" s="391"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C15" s="342">
+      <c r="C15" s="341">
         <v>1</v>
       </c>
-      <c r="D15" s="354"/>
-      <c r="E15" s="355"/>
-      <c r="F15" s="355"/>
-      <c r="G15" s="355"/>
-      <c r="H15" s="355"/>
-      <c r="I15" s="355"/>
-      <c r="J15" s="355"/>
-      <c r="K15" s="355"/>
-      <c r="L15" s="355"/>
-      <c r="M15" s="356"/>
+      <c r="D15" s="353"/>
+      <c r="E15" s="354"/>
+      <c r="F15" s="354"/>
+      <c r="G15" s="354"/>
+      <c r="H15" s="354"/>
+      <c r="I15" s="354"/>
+      <c r="J15" s="354"/>
+      <c r="K15" s="354"/>
+      <c r="L15" s="354"/>
+      <c r="M15" s="355"/>
       <c r="N15" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="17" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="18" spans="4:13">
-      <c r="D18" s="357"/>
-      <c r="E18" s="352"/>
-      <c r="F18" s="352"/>
-      <c r="G18" s="352"/>
-      <c r="H18" s="352"/>
-      <c r="I18" s="352"/>
-      <c r="J18" s="352"/>
-      <c r="K18" s="352"/>
-      <c r="L18" s="352"/>
-      <c r="M18" s="353"/>
+      <c r="D18" s="356"/>
+      <c r="E18" s="351"/>
+      <c r="F18" s="351"/>
+      <c r="G18" s="351"/>
+      <c r="H18" s="351"/>
+      <c r="I18" s="351"/>
+      <c r="J18" s="351"/>
+      <c r="K18" s="351"/>
+      <c r="L18" s="351"/>
+      <c r="M18" s="352"/>
     </row>
     <row r="19" spans="4:13">
-      <c r="D19" s="358"/>
-      <c r="E19" s="348"/>
-      <c r="F19" s="348"/>
-      <c r="G19" s="348"/>
-      <c r="H19" s="348"/>
-      <c r="I19" s="348"/>
-      <c r="J19" s="348"/>
-      <c r="K19" s="348"/>
-      <c r="L19" s="348"/>
-      <c r="M19" s="349"/>
+      <c r="D19" s="357"/>
+      <c r="E19" s="347"/>
+      <c r="F19" s="347"/>
+      <c r="G19" s="347"/>
+      <c r="H19" s="347"/>
+      <c r="I19" s="347"/>
+      <c r="J19" s="347"/>
+      <c r="K19" s="347"/>
+      <c r="L19" s="347"/>
+      <c r="M19" s="348"/>
     </row>
     <row r="20" spans="4:13">
-      <c r="D20" s="358" t="s">
+      <c r="D20" s="357" t="s">
         <v>1472</v>
       </c>
-      <c r="E20" s="348"/>
-      <c r="F20" s="348"/>
-      <c r="G20" s="348"/>
-      <c r="H20" s="348"/>
-      <c r="I20" s="348" t="s">
+      <c r="E20" s="347"/>
+      <c r="F20" s="347"/>
+      <c r="G20" s="347"/>
+      <c r="H20" s="347"/>
+      <c r="I20" s="347" t="s">
         <v>902</v>
       </c>
-      <c r="J20" s="348"/>
-      <c r="K20" s="348"/>
-      <c r="L20" s="348"/>
-      <c r="M20" s="349"/>
+      <c r="J20" s="347"/>
+      <c r="K20" s="347"/>
+      <c r="L20" s="347"/>
+      <c r="M20" s="348"/>
     </row>
     <row r="21" spans="4:13">
-      <c r="D21" s="358"/>
-      <c r="E21" s="348"/>
-      <c r="F21" s="348"/>
-      <c r="G21" s="348"/>
-      <c r="H21" s="348"/>
-      <c r="I21" s="348"/>
-      <c r="J21" s="348"/>
-      <c r="K21" s="348"/>
-      <c r="L21" s="348"/>
-      <c r="M21" s="349"/>
+      <c r="D21" s="357"/>
+      <c r="E21" s="347"/>
+      <c r="F21" s="347"/>
+      <c r="G21" s="347"/>
+      <c r="H21" s="347"/>
+      <c r="I21" s="347"/>
+      <c r="J21" s="347"/>
+      <c r="K21" s="347"/>
+      <c r="L21" s="347"/>
+      <c r="M21" s="348"/>
     </row>
     <row r="22" spans="4:13">
-      <c r="D22" s="358"/>
-      <c r="E22" s="348"/>
-      <c r="F22" s="348"/>
-      <c r="G22" s="348"/>
-      <c r="H22" s="348"/>
-      <c r="I22" s="348"/>
-      <c r="J22" s="348"/>
-      <c r="K22" s="348"/>
-      <c r="L22" s="348"/>
-      <c r="M22" s="349"/>
+      <c r="D22" s="357"/>
+      <c r="E22" s="347"/>
+      <c r="F22" s="347"/>
+      <c r="G22" s="347"/>
+      <c r="H22" s="347"/>
+      <c r="I22" s="347"/>
+      <c r="J22" s="347"/>
+      <c r="K22" s="347"/>
+      <c r="L22" s="347"/>
+      <c r="M22" s="348"/>
     </row>
     <row r="23" spans="4:13">
-      <c r="D23" s="358"/>
-      <c r="E23" s="348"/>
-      <c r="F23" s="348"/>
-      <c r="G23" s="348"/>
-      <c r="H23" s="348"/>
-      <c r="I23" s="348"/>
-      <c r="J23" s="348"/>
-      <c r="K23" s="348"/>
-      <c r="L23" s="348"/>
-      <c r="M23" s="349"/>
+      <c r="D23" s="357"/>
+      <c r="E23" s="347"/>
+      <c r="F23" s="347"/>
+      <c r="G23" s="347"/>
+      <c r="H23" s="347"/>
+      <c r="I23" s="347"/>
+      <c r="J23" s="347"/>
+      <c r="K23" s="347"/>
+      <c r="L23" s="347"/>
+      <c r="M23" s="348"/>
     </row>
     <row r="24" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D24" s="359"/>
-      <c r="E24" s="350"/>
-      <c r="F24" s="350"/>
-      <c r="G24" s="350"/>
-      <c r="H24" s="350"/>
-      <c r="I24" s="350"/>
-      <c r="J24" s="350"/>
-      <c r="K24" s="350"/>
-      <c r="L24" s="350"/>
-      <c r="M24" s="351"/>
+      <c r="D24" s="358"/>
+      <c r="E24" s="349"/>
+      <c r="F24" s="349"/>
+      <c r="G24" s="349"/>
+      <c r="H24" s="349"/>
+      <c r="I24" s="349"/>
+      <c r="J24" s="349"/>
+      <c r="K24" s="349"/>
+      <c r="L24" s="349"/>
+      <c r="M24" s="350"/>
     </row>
     <row r="27" spans="4:13">
       <c r="D27" s="38" t="s">
@@ -28432,7 +28920,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="385" t="s">
+      <c r="C135" s="388" t="s">
         <v>166</v>
       </c>
       <c r="D135">
@@ -28459,7 +28947,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="385"/>
+      <c r="C136" s="388"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -28488,7 +28976,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="385" t="s">
+      <c r="C137" s="388" t="s">
         <v>167</v>
       </c>
       <c r="D137">
@@ -28507,7 +28995,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="385"/>
+      <c r="C138" s="388"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -28524,7 +29012,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="385"/>
+      <c r="C139" s="388"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -28541,7 +29029,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="385"/>
+      <c r="C140" s="388"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -28560,7 +29048,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="385"/>
+      <c r="C141" s="388"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -28577,7 +29065,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="385"/>
+      <c r="C142" s="388"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -28594,7 +29082,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="385"/>
+      <c r="C143" s="388"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -28685,7 +29173,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="389">
+      <c r="D148" s="392">
         <v>1</v>
       </c>
       <c r="E148" s="174"/>
@@ -28700,7 +29188,7 @@
       <c r="N148" s="179"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="390"/>
+      <c r="D149" s="393"/>
       <c r="E149" s="175"/>
       <c r="F149" s="171"/>
       <c r="G149" s="172"/>
@@ -28713,7 +29201,7 @@
       <c r="N149" s="173"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="390"/>
+      <c r="D150" s="393"/>
       <c r="E150" s="175"/>
       <c r="F150" s="171"/>
       <c r="G150" s="172"/>
@@ -28726,7 +29214,7 @@
       <c r="N150" s="173"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="390"/>
+      <c r="D151" s="393"/>
       <c r="E151" s="175" t="s">
         <v>642</v>
       </c>
@@ -28743,7 +29231,7 @@
       <c r="N151" s="173"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="390"/>
+      <c r="D152" s="393"/>
       <c r="E152" s="175"/>
       <c r="F152" s="171"/>
       <c r="G152" s="172"/>
@@ -28756,7 +29244,7 @@
       <c r="N152" s="173"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="390"/>
+      <c r="D153" s="393"/>
       <c r="E153" s="175"/>
       <c r="F153" s="171"/>
       <c r="G153" s="172"/>
@@ -28769,7 +29257,7 @@
       <c r="N153" s="173"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="390"/>
+      <c r="D154" s="393"/>
       <c r="E154" s="176"/>
       <c r="F154" s="180"/>
       <c r="G154" s="181"/>
@@ -28881,7 +29369,7 @@
       <c r="D183" s="66" t="s">
         <v>631</v>
       </c>
-      <c r="E183" s="242"/>
+      <c r="E183" s="241"/>
       <c r="F183" s="178"/>
       <c r="G183" s="178"/>
       <c r="H183" s="178" t="s">
@@ -28892,7 +29380,7 @@
       <c r="K183" s="178"/>
       <c r="L183" s="178"/>
       <c r="M183" s="178"/>
-      <c r="N183" s="386" t="s">
+      <c r="N183" s="389" t="s">
         <v>896</v>
       </c>
       <c r="O183" t="s">
@@ -28903,8 +29391,8 @@
       <c r="C184">
         <v>20</v>
       </c>
-      <c r="D184" s="237"/>
-      <c r="E184" s="243"/>
+      <c r="D184" s="236"/>
+      <c r="E184" s="242"/>
       <c r="F184" s="181"/>
       <c r="G184" s="181"/>
       <c r="H184" s="181"/>
@@ -28913,7 +29401,7 @@
       <c r="K184" s="181"/>
       <c r="L184" s="181"/>
       <c r="M184" s="181"/>
-      <c r="N184" s="386"/>
+      <c r="N184" s="389"/>
       <c r="O184" t="s">
         <v>897</v>
       </c>
@@ -28922,17 +29410,17 @@
       <c r="C185">
         <v>30</v>
       </c>
-      <c r="D185" s="244"/>
-      <c r="E185" s="297"/>
-      <c r="F185" s="234"/>
-      <c r="G185" s="234"/>
-      <c r="H185" s="234"/>
-      <c r="I185" s="234"/>
-      <c r="J185" s="234"/>
-      <c r="K185" s="234"/>
-      <c r="L185" s="234"/>
-      <c r="M185" s="298"/>
-      <c r="N185" s="387" t="s">
+      <c r="D185" s="243"/>
+      <c r="E185" s="296"/>
+      <c r="F185" s="233"/>
+      <c r="G185" s="233"/>
+      <c r="H185" s="233"/>
+      <c r="I185" s="233"/>
+      <c r="J185" s="233"/>
+      <c r="K185" s="233"/>
+      <c r="L185" s="233"/>
+      <c r="M185" s="297"/>
+      <c r="N185" s="390" t="s">
         <v>899</v>
       </c>
       <c r="O185" t="s">
@@ -28943,117 +29431,117 @@
       <c r="C186">
         <v>40</v>
       </c>
-      <c r="D186" s="245"/>
-      <c r="E186" s="299"/>
-      <c r="F186" s="235"/>
-      <c r="G186" s="235"/>
-      <c r="H186" s="235"/>
-      <c r="I186" s="235"/>
-      <c r="J186" s="235"/>
-      <c r="K186" s="235"/>
-      <c r="L186" s="235"/>
-      <c r="M186" s="300"/>
-      <c r="N186" s="387"/>
+      <c r="D186" s="244"/>
+      <c r="E186" s="298"/>
+      <c r="F186" s="234"/>
+      <c r="G186" s="234"/>
+      <c r="H186" s="234"/>
+      <c r="I186" s="234"/>
+      <c r="J186" s="234"/>
+      <c r="K186" s="234"/>
+      <c r="L186" s="234"/>
+      <c r="M186" s="299"/>
+      <c r="N186" s="390"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
         <v>50</v>
       </c>
-      <c r="D187" s="245"/>
-      <c r="E187" s="299"/>
-      <c r="F187" s="235"/>
-      <c r="G187" s="235"/>
-      <c r="H187" s="235"/>
-      <c r="I187" s="235"/>
-      <c r="J187" s="235"/>
-      <c r="K187" s="235"/>
-      <c r="L187" s="235"/>
-      <c r="M187" s="300"/>
-      <c r="N187" s="387"/>
+      <c r="D187" s="244"/>
+      <c r="E187" s="298"/>
+      <c r="F187" s="234"/>
+      <c r="G187" s="234"/>
+      <c r="H187" s="234"/>
+      <c r="I187" s="234"/>
+      <c r="J187" s="234"/>
+      <c r="K187" s="234"/>
+      <c r="L187" s="234"/>
+      <c r="M187" s="299"/>
+      <c r="N187" s="390"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
         <v>60</v>
       </c>
-      <c r="D188" s="245" t="s">
+      <c r="D188" s="244" t="s">
         <v>642</v>
       </c>
-      <c r="E188" s="301"/>
-      <c r="F188" s="236"/>
-      <c r="G188" s="236"/>
-      <c r="H188" s="236" t="s">
+      <c r="E188" s="300"/>
+      <c r="F188" s="235"/>
+      <c r="G188" s="235"/>
+      <c r="H188" s="235" t="s">
         <v>902</v>
       </c>
-      <c r="I188" s="236"/>
-      <c r="J188" s="236"/>
-      <c r="K188" s="236"/>
-      <c r="L188" s="236"/>
-      <c r="M188" s="302"/>
-      <c r="N188" s="387"/>
+      <c r="I188" s="235"/>
+      <c r="J188" s="235"/>
+      <c r="K188" s="235"/>
+      <c r="L188" s="235"/>
+      <c r="M188" s="301"/>
+      <c r="N188" s="390"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
         <v>70</v>
       </c>
-      <c r="D189" s="245"/>
-      <c r="E189" s="235"/>
-      <c r="F189" s="235"/>
-      <c r="G189" s="235"/>
-      <c r="H189" s="235"/>
-      <c r="I189" s="235"/>
-      <c r="J189" s="235"/>
-      <c r="K189" s="235"/>
-      <c r="L189" s="235"/>
-      <c r="M189" s="235"/>
-      <c r="N189" s="386"/>
+      <c r="D189" s="244"/>
+      <c r="E189" s="234"/>
+      <c r="F189" s="234"/>
+      <c r="G189" s="234"/>
+      <c r="H189" s="234"/>
+      <c r="I189" s="234"/>
+      <c r="J189" s="234"/>
+      <c r="K189" s="234"/>
+      <c r="L189" s="234"/>
+      <c r="M189" s="234"/>
+      <c r="N189" s="389"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
         <v>80</v>
       </c>
-      <c r="D190" s="245"/>
-      <c r="E190" s="235"/>
-      <c r="F190" s="235"/>
-      <c r="G190" s="235"/>
-      <c r="H190" s="235"/>
-      <c r="I190" s="235"/>
-      <c r="J190" s="235"/>
-      <c r="K190" s="235"/>
-      <c r="L190" s="235"/>
-      <c r="M190" s="235"/>
-      <c r="N190" s="386"/>
+      <c r="D190" s="244"/>
+      <c r="E190" s="234"/>
+      <c r="F190" s="234"/>
+      <c r="G190" s="234"/>
+      <c r="H190" s="234"/>
+      <c r="I190" s="234"/>
+      <c r="J190" s="234"/>
+      <c r="K190" s="234"/>
+      <c r="L190" s="234"/>
+      <c r="M190" s="234"/>
+      <c r="N190" s="389"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
         <v>90</v>
       </c>
-      <c r="D191" s="246"/>
-      <c r="E191" s="236"/>
-      <c r="F191" s="236"/>
-      <c r="G191" s="236"/>
-      <c r="H191" s="236"/>
-      <c r="I191" s="236"/>
-      <c r="J191" s="236"/>
-      <c r="K191" s="236"/>
-      <c r="L191" s="236"/>
-      <c r="M191" s="236"/>
-      <c r="N191" s="386"/>
+      <c r="D191" s="245"/>
+      <c r="E191" s="235"/>
+      <c r="F191" s="235"/>
+      <c r="G191" s="235"/>
+      <c r="H191" s="235"/>
+      <c r="I191" s="235"/>
+      <c r="J191" s="235"/>
+      <c r="K191" s="235"/>
+      <c r="L191" s="235"/>
+      <c r="M191" s="235"/>
+      <c r="N191" s="389"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
         <v>100</v>
       </c>
-      <c r="D192" s="238"/>
-      <c r="E192" s="239"/>
-      <c r="F192" s="239"/>
-      <c r="G192" s="239"/>
-      <c r="H192" s="239"/>
-      <c r="I192" s="239"/>
-      <c r="J192" s="239"/>
-      <c r="K192" s="239"/>
-      <c r="L192" s="239"/>
-      <c r="M192" s="239"/>
-      <c r="N192" s="247" t="s">
+      <c r="D192" s="237"/>
+      <c r="E192" s="238"/>
+      <c r="F192" s="238"/>
+      <c r="G192" s="238"/>
+      <c r="H192" s="238"/>
+      <c r="I192" s="238"/>
+      <c r="J192" s="238"/>
+      <c r="K192" s="238"/>
+      <c r="L192" s="238"/>
+      <c r="M192" s="238"/>
+      <c r="N192" s="246" t="s">
         <v>900</v>
       </c>
       <c r="O192" t="s">
@@ -29082,29 +29570,29 @@
       <c r="D196" s="66" t="s">
         <v>631</v>
       </c>
-      <c r="E196" s="242"/>
-      <c r="F196" s="231"/>
-      <c r="G196" s="231"/>
-      <c r="H196" s="231" t="s">
+      <c r="E196" s="241"/>
+      <c r="F196" s="230"/>
+      <c r="G196" s="230"/>
+      <c r="H196" s="230" t="s">
         <v>903</v>
       </c>
-      <c r="I196" s="231"/>
-      <c r="J196" s="231"/>
-      <c r="K196" s="231"/>
-      <c r="L196" s="231"/>
-      <c r="M196" s="231"/>
+      <c r="I196" s="230"/>
+      <c r="J196" s="230"/>
+      <c r="K196" s="230"/>
+      <c r="L196" s="230"/>
+      <c r="M196" s="230"/>
     </row>
     <row r="197" spans="3:15" ht="15.75" thickBot="1">
-      <c r="D197" s="237"/>
-      <c r="E197" s="243"/>
-      <c r="F197" s="233"/>
-      <c r="G197" s="233"/>
-      <c r="H197" s="233"/>
-      <c r="I197" s="233"/>
-      <c r="J197" s="233"/>
-      <c r="K197" s="233"/>
-      <c r="L197" s="233"/>
-      <c r="M197" s="233"/>
+      <c r="D197" s="236"/>
+      <c r="E197" s="242"/>
+      <c r="F197" s="232"/>
+      <c r="G197" s="232"/>
+      <c r="H197" s="232"/>
+      <c r="I197" s="232"/>
+      <c r="J197" s="232"/>
+      <c r="K197" s="232"/>
+      <c r="L197" s="232"/>
+      <c r="M197" s="232"/>
     </row>
     <row r="199" spans="3:15" ht="15.75" thickBot="1">
       <c r="D199">
@@ -29139,206 +29627,206 @@
       </c>
     </row>
     <row r="200" spans="3:15">
-      <c r="C200" s="340">
+      <c r="C200" s="339">
         <v>1</v>
       </c>
-      <c r="D200" s="230"/>
-      <c r="E200" s="231"/>
-      <c r="F200" s="231"/>
-      <c r="G200" s="231"/>
-      <c r="H200" s="231"/>
-      <c r="I200" s="231"/>
-      <c r="J200" s="231"/>
-      <c r="K200" s="231"/>
-      <c r="L200" s="231"/>
-      <c r="M200" s="240"/>
+      <c r="D200" s="229"/>
+      <c r="E200" s="230"/>
+      <c r="F200" s="230"/>
+      <c r="G200" s="230"/>
+      <c r="H200" s="230"/>
+      <c r="I200" s="230"/>
+      <c r="J200" s="230"/>
+      <c r="K200" s="230"/>
+      <c r="L200" s="230"/>
+      <c r="M200" s="239"/>
     </row>
     <row r="201" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C201" s="341"/>
-      <c r="D201" s="232"/>
-      <c r="E201" s="233"/>
-      <c r="F201" s="233"/>
-      <c r="G201" s="233"/>
-      <c r="H201" s="233"/>
-      <c r="I201" s="233"/>
-      <c r="J201" s="233"/>
-      <c r="K201" s="233"/>
-      <c r="L201" s="233"/>
-      <c r="M201" s="241"/>
+      <c r="C201" s="340"/>
+      <c r="D201" s="231"/>
+      <c r="E201" s="232"/>
+      <c r="F201" s="232"/>
+      <c r="G201" s="232"/>
+      <c r="H201" s="232"/>
+      <c r="I201" s="232"/>
+      <c r="J201" s="232"/>
+      <c r="K201" s="232"/>
+      <c r="L201" s="232"/>
+      <c r="M201" s="240"/>
     </row>
     <row r="203" spans="3:15" ht="15.75" thickBot="1"/>
     <row r="204" spans="3:15">
-      <c r="D204" s="244"/>
-      <c r="E204" s="234"/>
-      <c r="F204" s="234"/>
-      <c r="G204" s="234"/>
-      <c r="H204" s="234"/>
-      <c r="I204" s="234"/>
-      <c r="J204" s="234"/>
-      <c r="K204" s="234"/>
-      <c r="L204" s="234"/>
-      <c r="M204" s="234"/>
+      <c r="D204" s="243"/>
+      <c r="E204" s="233"/>
+      <c r="F204" s="233"/>
+      <c r="G204" s="233"/>
+      <c r="H204" s="233"/>
+      <c r="I204" s="233"/>
+      <c r="J204" s="233"/>
+      <c r="K204" s="233"/>
+      <c r="L204" s="233"/>
+      <c r="M204" s="233"/>
     </row>
     <row r="205" spans="3:15">
-      <c r="D205" s="245"/>
-      <c r="E205" s="235"/>
-      <c r="F205" s="235"/>
-      <c r="G205" s="235"/>
-      <c r="H205" s="235"/>
-      <c r="I205" s="235"/>
-      <c r="J205" s="235"/>
-      <c r="K205" s="235"/>
-      <c r="L205" s="235"/>
-      <c r="M205" s="235"/>
+      <c r="D205" s="244"/>
+      <c r="E205" s="234"/>
+      <c r="F205" s="234"/>
+      <c r="G205" s="234"/>
+      <c r="H205" s="234"/>
+      <c r="I205" s="234"/>
+      <c r="J205" s="234"/>
+      <c r="K205" s="234"/>
+      <c r="L205" s="234"/>
+      <c r="M205" s="234"/>
     </row>
     <row r="206" spans="3:15">
-      <c r="D206" s="245"/>
-      <c r="E206" s="235"/>
-      <c r="F206" s="235"/>
-      <c r="G206" s="235"/>
-      <c r="H206" s="235"/>
-      <c r="I206" s="235"/>
-      <c r="J206" s="235"/>
-      <c r="K206" s="235"/>
-      <c r="L206" s="235"/>
-      <c r="M206" s="235"/>
+      <c r="D206" s="244"/>
+      <c r="E206" s="234"/>
+      <c r="F206" s="234"/>
+      <c r="G206" s="234"/>
+      <c r="H206" s="234"/>
+      <c r="I206" s="234"/>
+      <c r="J206" s="234"/>
+      <c r="K206" s="234"/>
+      <c r="L206" s="234"/>
+      <c r="M206" s="234"/>
     </row>
     <row r="207" spans="3:15">
-      <c r="D207" s="245" t="s">
+      <c r="D207" s="244" t="s">
         <v>642</v>
       </c>
-      <c r="E207" s="235"/>
-      <c r="F207" s="235"/>
-      <c r="G207" s="235"/>
-      <c r="H207" s="235" t="s">
+      <c r="E207" s="234"/>
+      <c r="F207" s="234"/>
+      <c r="G207" s="234"/>
+      <c r="H207" s="234" t="s">
         <v>902</v>
       </c>
-      <c r="I207" s="235"/>
-      <c r="J207" s="235"/>
-      <c r="K207" s="235"/>
-      <c r="L207" s="235"/>
-      <c r="M207" s="235"/>
+      <c r="I207" s="234"/>
+      <c r="J207" s="234"/>
+      <c r="K207" s="234"/>
+      <c r="L207" s="234"/>
+      <c r="M207" s="234"/>
     </row>
     <row r="208" spans="3:15">
-      <c r="D208" s="245"/>
-      <c r="E208" s="235"/>
-      <c r="F208" s="235"/>
-      <c r="G208" s="235"/>
-      <c r="H208" s="235"/>
-      <c r="I208" s="235"/>
-      <c r="J208" s="235"/>
-      <c r="K208" s="235"/>
-      <c r="L208" s="235"/>
-      <c r="M208" s="235"/>
+      <c r="D208" s="244"/>
+      <c r="E208" s="234"/>
+      <c r="F208" s="234"/>
+      <c r="G208" s="234"/>
+      <c r="H208" s="234"/>
+      <c r="I208" s="234"/>
+      <c r="J208" s="234"/>
+      <c r="K208" s="234"/>
+      <c r="L208" s="234"/>
+      <c r="M208" s="234"/>
     </row>
     <row r="209" spans="4:13">
-      <c r="D209" s="245"/>
-      <c r="E209" s="235"/>
-      <c r="F209" s="235"/>
-      <c r="G209" s="235"/>
-      <c r="H209" s="235"/>
-      <c r="I209" s="235"/>
-      <c r="J209" s="235"/>
-      <c r="K209" s="235"/>
-      <c r="L209" s="235"/>
-      <c r="M209" s="235"/>
+      <c r="D209" s="244"/>
+      <c r="E209" s="234"/>
+      <c r="F209" s="234"/>
+      <c r="G209" s="234"/>
+      <c r="H209" s="234"/>
+      <c r="I209" s="234"/>
+      <c r="J209" s="234"/>
+      <c r="K209" s="234"/>
+      <c r="L209" s="234"/>
+      <c r="M209" s="234"/>
     </row>
     <row r="210" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D210" s="246"/>
-      <c r="E210" s="236"/>
-      <c r="F210" s="236"/>
-      <c r="G210" s="236"/>
-      <c r="H210" s="236"/>
-      <c r="I210" s="236"/>
-      <c r="J210" s="236"/>
-      <c r="K210" s="236"/>
-      <c r="L210" s="236"/>
-      <c r="M210" s="236"/>
+      <c r="D210" s="245"/>
+      <c r="E210" s="235"/>
+      <c r="F210" s="235"/>
+      <c r="G210" s="235"/>
+      <c r="H210" s="235"/>
+      <c r="I210" s="235"/>
+      <c r="J210" s="235"/>
+      <c r="K210" s="235"/>
+      <c r="L210" s="235"/>
+      <c r="M210" s="235"/>
     </row>
     <row r="211" spans="4:13" ht="15.75" thickBot="1"/>
     <row r="212" spans="4:13">
-      <c r="D212" s="334"/>
-      <c r="E212" s="335"/>
-      <c r="F212" s="335"/>
-      <c r="G212" s="335"/>
-      <c r="H212" s="335"/>
-      <c r="I212" s="335"/>
-      <c r="J212" s="335"/>
-      <c r="K212" s="335"/>
-      <c r="L212" s="335"/>
-      <c r="M212" s="335"/>
+      <c r="D212" s="333"/>
+      <c r="E212" s="334"/>
+      <c r="F212" s="334"/>
+      <c r="G212" s="334"/>
+      <c r="H212" s="334"/>
+      <c r="I212" s="334"/>
+      <c r="J212" s="334"/>
+      <c r="K212" s="334"/>
+      <c r="L212" s="334"/>
+      <c r="M212" s="334"/>
     </row>
     <row r="213" spans="4:13">
-      <c r="D213" s="336"/>
-      <c r="E213" s="337"/>
-      <c r="F213" s="337"/>
-      <c r="G213" s="337"/>
-      <c r="H213" s="337"/>
-      <c r="I213" s="337"/>
-      <c r="J213" s="337"/>
-      <c r="K213" s="337"/>
-      <c r="L213" s="337"/>
-      <c r="M213" s="337"/>
+      <c r="D213" s="335"/>
+      <c r="E213" s="336"/>
+      <c r="F213" s="336"/>
+      <c r="G213" s="336"/>
+      <c r="H213" s="336"/>
+      <c r="I213" s="336"/>
+      <c r="J213" s="336"/>
+      <c r="K213" s="336"/>
+      <c r="L213" s="336"/>
+      <c r="M213" s="336"/>
     </row>
     <row r="214" spans="4:13">
-      <c r="D214" s="336"/>
-      <c r="E214" s="337"/>
-      <c r="F214" s="337"/>
-      <c r="G214" s="337"/>
-      <c r="H214" s="337"/>
-      <c r="I214" s="337"/>
-      <c r="J214" s="337"/>
-      <c r="K214" s="337"/>
-      <c r="L214" s="337"/>
-      <c r="M214" s="337"/>
+      <c r="D214" s="335"/>
+      <c r="E214" s="336"/>
+      <c r="F214" s="336"/>
+      <c r="G214" s="336"/>
+      <c r="H214" s="336"/>
+      <c r="I214" s="336"/>
+      <c r="J214" s="336"/>
+      <c r="K214" s="336"/>
+      <c r="L214" s="336"/>
+      <c r="M214" s="336"/>
     </row>
     <row r="215" spans="4:13">
-      <c r="D215" s="336"/>
-      <c r="E215" s="337"/>
-      <c r="F215" s="337"/>
-      <c r="G215" s="337"/>
-      <c r="H215" s="337"/>
-      <c r="I215" s="337"/>
-      <c r="J215" s="337"/>
-      <c r="K215" s="337"/>
-      <c r="L215" s="337"/>
-      <c r="M215" s="337"/>
+      <c r="D215" s="335"/>
+      <c r="E215" s="336"/>
+      <c r="F215" s="336"/>
+      <c r="G215" s="336"/>
+      <c r="H215" s="336"/>
+      <c r="I215" s="336"/>
+      <c r="J215" s="336"/>
+      <c r="K215" s="336"/>
+      <c r="L215" s="336"/>
+      <c r="M215" s="336"/>
     </row>
     <row r="216" spans="4:13">
-      <c r="D216" s="336"/>
-      <c r="E216" s="337"/>
-      <c r="F216" s="337"/>
-      <c r="G216" s="337"/>
-      <c r="H216" s="337"/>
-      <c r="I216" s="337"/>
-      <c r="J216" s="337"/>
-      <c r="K216" s="337"/>
-      <c r="L216" s="337"/>
-      <c r="M216" s="337"/>
+      <c r="D216" s="335"/>
+      <c r="E216" s="336"/>
+      <c r="F216" s="336"/>
+      <c r="G216" s="336"/>
+      <c r="H216" s="336"/>
+      <c r="I216" s="336"/>
+      <c r="J216" s="336"/>
+      <c r="K216" s="336"/>
+      <c r="L216" s="336"/>
+      <c r="M216" s="336"/>
     </row>
     <row r="217" spans="4:13">
-      <c r="D217" s="336"/>
-      <c r="E217" s="337"/>
-      <c r="F217" s="337"/>
-      <c r="G217" s="337"/>
-      <c r="H217" s="337"/>
-      <c r="I217" s="337"/>
-      <c r="J217" s="337"/>
-      <c r="K217" s="337"/>
-      <c r="L217" s="337"/>
-      <c r="M217" s="337"/>
+      <c r="D217" s="335"/>
+      <c r="E217" s="336"/>
+      <c r="F217" s="336"/>
+      <c r="G217" s="336"/>
+      <c r="H217" s="336"/>
+      <c r="I217" s="336"/>
+      <c r="J217" s="336"/>
+      <c r="K217" s="336"/>
+      <c r="L217" s="336"/>
+      <c r="M217" s="336"/>
     </row>
     <row r="218" spans="4:13" ht="15.75" thickBot="1">
-      <c r="D218" s="338"/>
-      <c r="E218" s="339"/>
-      <c r="F218" s="339"/>
-      <c r="G218" s="339"/>
-      <c r="H218" s="339"/>
-      <c r="I218" s="339"/>
-      <c r="J218" s="339"/>
-      <c r="K218" s="339"/>
-      <c r="L218" s="339"/>
-      <c r="M218" s="339"/>
+      <c r="D218" s="337"/>
+      <c r="E218" s="338"/>
+      <c r="F218" s="338"/>
+      <c r="G218" s="338"/>
+      <c r="H218" s="338"/>
+      <c r="I218" s="338"/>
+      <c r="J218" s="338"/>
+      <c r="K218" s="338"/>
+      <c r="L218" s="338"/>
+      <c r="M218" s="338"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -29358,8 +29846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15:P15"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29415,14 +29903,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="391" t="s">
+      <c r="K4" s="407" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
-      <c r="N4" s="392"/>
-      <c r="O4" s="392"/>
-      <c r="P4" s="393"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="408"/>
+      <c r="N4" s="408"/>
+      <c r="O4" s="408"/>
+      <c r="P4" s="409"/>
       <c r="Q4" s="115" t="s">
         <v>269</v>
       </c>
@@ -29516,7 +30004,7 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="250" t="s">
+      <c r="P7" s="249" t="s">
         <v>1269</v>
       </c>
       <c r="Q7" s="115" t="s">
@@ -29554,14 +30042,14 @@
       <c r="L8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="405" t="s">
+      <c r="M8" s="420" t="s">
         <v>209</v>
       </c>
-      <c r="N8" s="406"/>
+      <c r="N8" s="421"/>
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="251"/>
+      <c r="P8" s="250"/>
       <c r="Q8" s="115" t="s">
         <v>269</v>
       </c>
@@ -29591,12 +30079,12 @@
       <c r="L9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="406"/>
-      <c r="N9" s="406"/>
+      <c r="M9" s="421"/>
+      <c r="N9" s="421"/>
       <c r="O9" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="P9" s="251" t="s">
+      <c r="P9" s="250" t="s">
         <v>1279</v>
       </c>
       <c r="Q9" s="115" t="s">
@@ -29617,7 +30105,7 @@
       <c r="B10" s="26" t="s">
         <v>1510</v>
       </c>
-      <c r="C10" s="366" t="s">
+      <c r="C10" s="365" t="s">
         <v>1509</v>
       </c>
       <c r="D10" s="26"/>
@@ -29632,10 +30120,10 @@
       <c r="L10" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="M10" s="406"/>
-      <c r="N10" s="406"/>
+      <c r="M10" s="421"/>
+      <c r="N10" s="421"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="251" t="s">
+      <c r="P10" s="250" t="s">
         <v>371</v>
       </c>
       <c r="Q10" t="s">
@@ -29646,13 +30134,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="394" t="s">
+      <c r="A11" s="410" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="395"/>
-      <c r="C11" s="396"/>
-      <c r="D11" s="396"/>
-      <c r="E11" s="397"/>
+      <c r="B11" s="411"/>
+      <c r="C11" s="412"/>
+      <c r="D11" s="412"/>
+      <c r="E11" s="413"/>
       <c r="F11" t="s">
         <v>1513</v>
       </c>
@@ -29661,10 +30149,10 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="406"/>
-      <c r="N11" s="406"/>
+      <c r="M11" s="421"/>
+      <c r="N11" s="421"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="251" t="s">
+      <c r="P11" s="250" t="s">
         <v>372</v>
       </c>
       <c r="R11" s="38"/>
@@ -29672,11 +30160,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="388"/>
-      <c r="B12" s="398"/>
-      <c r="C12" s="398"/>
-      <c r="D12" s="398"/>
-      <c r="E12" s="390"/>
+      <c r="A12" s="391"/>
+      <c r="B12" s="399"/>
+      <c r="C12" s="399"/>
+      <c r="D12" s="399"/>
+      <c r="E12" s="393"/>
       <c r="F12" t="s">
         <v>923</v>
       </c>
@@ -29685,10 +30173,10 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="406"/>
-      <c r="N12" s="406"/>
+      <c r="M12" s="421"/>
+      <c r="N12" s="421"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="251" t="s">
+      <c r="P12" s="250" t="s">
         <v>1281</v>
       </c>
       <c r="R12" s="38"/>
@@ -29696,11 +30184,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="388"/>
-      <c r="B13" s="398"/>
-      <c r="C13" s="398"/>
-      <c r="D13" s="398"/>
-      <c r="E13" s="390"/>
+      <c r="A13" s="391"/>
+      <c r="B13" s="399"/>
+      <c r="C13" s="399"/>
+      <c r="D13" s="399"/>
+      <c r="E13" s="393"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>191</v>
@@ -29708,20 +30196,20 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="406"/>
-      <c r="N13" s="406"/>
+      <c r="M13" s="421"/>
+      <c r="N13" s="421"/>
       <c r="O13" s="28"/>
-      <c r="P13" s="251"/>
+      <c r="P13" s="250"/>
       <c r="S13" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="399"/>
-      <c r="B14" s="400"/>
-      <c r="C14" s="400"/>
-      <c r="D14" s="400"/>
-      <c r="E14" s="401"/>
+      <c r="A14" s="414"/>
+      <c r="B14" s="415"/>
+      <c r="C14" s="415"/>
+      <c r="D14" s="415"/>
+      <c r="E14" s="416"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -29732,7 +30220,7 @@
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="251"/>
+      <c r="P14" s="250"/>
       <c r="R14" t="s">
         <v>1606</v>
       </c>
@@ -29762,7 +30250,7 @@
         <v>1709</v>
       </c>
       <c r="O15" s="5"/>
-      <c r="P15" s="251" t="s">
+      <c r="P15" s="250" t="s">
         <v>1712</v>
       </c>
       <c r="R15">
@@ -29776,7 +30264,7 @@
       </c>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="363" t="s">
+      <c r="A16" s="362" t="s">
         <v>1508</v>
       </c>
       <c r="B16" s="24"/>
@@ -29798,7 +30286,7 @@
         <v>1711</v>
       </c>
       <c r="O16" s="5"/>
-      <c r="P16" s="251"/>
+      <c r="P16" s="250"/>
       <c r="R16" t="s">
         <v>35</v>
       </c>
@@ -29826,7 +30314,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="252"/>
+      <c r="P17" s="251"/>
       <c r="R17" t="s">
         <v>35</v>
       </c>
@@ -29897,20 +30385,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="402" t="s">
+      <c r="I20" s="417" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="403"/>
-      <c r="K20" s="402" t="s">
+      <c r="J20" s="418"/>
+      <c r="K20" s="417" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="403"/>
-      <c r="M20" s="402" t="s">
+      <c r="L20" s="418"/>
+      <c r="M20" s="417" t="s">
         <v>1601</v>
       </c>
-      <c r="N20" s="404"/>
-      <c r="O20" s="404"/>
-      <c r="P20" s="403"/>
+      <c r="N20" s="419"/>
+      <c r="O20" s="419"/>
+      <c r="P20" s="418"/>
       <c r="S20" t="s">
         <v>269</v>
       </c>
@@ -30219,7 +30707,7 @@
       <c r="M57" t="s">
         <v>1106</v>
       </c>
-      <c r="O57" s="303" t="s">
+      <c r="O57" s="302" t="s">
         <v>275</v>
       </c>
     </row>
@@ -30460,7 +30948,7 @@
         <v>1495</v>
       </c>
       <c r="H84" s="4"/>
-      <c r="I84" s="253" t="s">
+      <c r="I84" s="252" t="s">
         <v>1486</v>
       </c>
       <c r="J84" s="56"/>
@@ -30473,13 +30961,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="411" t="s">
+      <c r="A85" s="398" t="s">
         <v>1493</v>
       </c>
-      <c r="B85" s="398"/>
-      <c r="C85" s="398"/>
-      <c r="D85" s="398"/>
-      <c r="E85" s="398"/>
+      <c r="B85" s="399"/>
+      <c r="C85" s="399"/>
+      <c r="D85" s="399"/>
+      <c r="E85" s="399"/>
       <c r="F85" s="6" t="s">
         <v>1497</v>
       </c>
@@ -30526,14 +31014,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="35"/>
       <c r="J87" s="28"/>
-      <c r="K87" s="418" t="s">
+      <c r="K87" s="406" t="s">
         <v>1496</v>
       </c>
-      <c r="L87" s="413"/>
-      <c r="M87" s="418" t="s">
+      <c r="L87" s="401"/>
+      <c r="M87" s="406" t="s">
         <v>1507</v>
       </c>
-      <c r="N87" s="413"/>
+      <c r="N87" s="401"/>
       <c r="O87" s="28"/>
       <c r="P87" s="39"/>
       <c r="Q87" s="6"/>
@@ -30550,10 +31038,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="35"/>
       <c r="J88" s="28"/>
-      <c r="K88" s="416"/>
-      <c r="L88" s="417"/>
-      <c r="M88" s="414"/>
-      <c r="N88" s="415"/>
+      <c r="K88" s="404"/>
+      <c r="L88" s="405"/>
+      <c r="M88" s="402"/>
+      <c r="N88" s="403"/>
       <c r="O88" s="28"/>
       <c r="P88" s="39"/>
       <c r="Q88" s="6"/>
@@ -30572,12 +31060,12 @@
       </c>
       <c r="I89" s="35"/>
       <c r="J89" s="28"/>
-      <c r="K89" s="412" t="s">
+      <c r="K89" s="400" t="s">
         <v>1488</v>
       </c>
-      <c r="L89" s="413"/>
-      <c r="M89" s="414"/>
-      <c r="N89" s="415"/>
+      <c r="L89" s="401"/>
+      <c r="M89" s="402"/>
+      <c r="N89" s="403"/>
       <c r="O89" s="28"/>
       <c r="P89" s="39"/>
       <c r="Q89" s="6"/>
@@ -30592,10 +31080,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="35"/>
       <c r="J90" s="28"/>
-      <c r="K90" s="416"/>
-      <c r="L90" s="417"/>
-      <c r="M90" s="414"/>
-      <c r="N90" s="415"/>
+      <c r="K90" s="404"/>
+      <c r="L90" s="405"/>
+      <c r="M90" s="402"/>
+      <c r="N90" s="403"/>
       <c r="O90" s="28"/>
       <c r="P90" s="39"/>
       <c r="Q90" s="6"/>
@@ -30612,12 +31100,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="35"/>
       <c r="J91" s="28"/>
-      <c r="K91" s="412" t="s">
+      <c r="K91" s="400" t="s">
         <v>1489</v>
       </c>
-      <c r="L91" s="413"/>
-      <c r="M91" s="414"/>
-      <c r="N91" s="415"/>
+      <c r="L91" s="401"/>
+      <c r="M91" s="402"/>
+      <c r="N91" s="403"/>
       <c r="O91" s="28"/>
       <c r="P91" s="39"/>
       <c r="Q91" s="6"/>
@@ -30634,10 +31122,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="35"/>
       <c r="J92" s="28"/>
-      <c r="K92" s="416"/>
-      <c r="L92" s="417"/>
-      <c r="M92" s="414"/>
-      <c r="N92" s="415"/>
+      <c r="K92" s="404"/>
+      <c r="L92" s="405"/>
+      <c r="M92" s="402"/>
+      <c r="N92" s="403"/>
       <c r="O92" s="28"/>
       <c r="P92" s="39"/>
       <c r="Q92" s="6"/>
@@ -30652,12 +31140,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="35"/>
       <c r="J93" s="28"/>
-      <c r="K93" s="412" t="s">
+      <c r="K93" s="400" t="s">
         <v>1490</v>
       </c>
-      <c r="L93" s="413"/>
-      <c r="M93" s="414"/>
-      <c r="N93" s="415"/>
+      <c r="L93" s="401"/>
+      <c r="M93" s="402"/>
+      <c r="N93" s="403"/>
       <c r="O93" s="28"/>
       <c r="P93" s="39"/>
       <c r="Q93" s="6"/>
@@ -30669,10 +31157,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="35"/>
       <c r="J94" s="28"/>
-      <c r="K94" s="414"/>
-      <c r="L94" s="415"/>
-      <c r="M94" s="414"/>
-      <c r="N94" s="415"/>
+      <c r="K94" s="402"/>
+      <c r="L94" s="403"/>
+      <c r="M94" s="402"/>
+      <c r="N94" s="403"/>
       <c r="O94" s="28"/>
       <c r="P94" s="39"/>
       <c r="Q94" s="6"/>
@@ -30686,10 +31174,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="35"/>
       <c r="J95" s="28"/>
-      <c r="K95" s="416"/>
-      <c r="L95" s="417"/>
-      <c r="M95" s="416"/>
-      <c r="N95" s="417"/>
+      <c r="K95" s="404"/>
+      <c r="L95" s="405"/>
+      <c r="M95" s="404"/>
+      <c r="N95" s="405"/>
       <c r="O95" s="28"/>
       <c r="P95" s="39"/>
       <c r="Q95" s="6"/>
@@ -30706,14 +31194,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="35"/>
       <c r="J96" s="28"/>
-      <c r="K96" s="410" t="s">
+      <c r="K96" s="397" t="s">
         <v>1491</v>
       </c>
-      <c r="L96" s="410"/>
-      <c r="M96" s="410" t="s">
+      <c r="L96" s="397"/>
+      <c r="M96" s="397" t="s">
         <v>1492</v>
       </c>
-      <c r="N96" s="410"/>
+      <c r="N96" s="397"/>
       <c r="O96" s="28"/>
       <c r="P96" s="39"/>
       <c r="Q96" s="6"/>
@@ -30744,14 +31232,14 @@
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="254"/>
-      <c r="J98" s="310"/>
-      <c r="K98" s="310"/>
-      <c r="L98" s="310"/>
-      <c r="M98" s="310"/>
-      <c r="N98" s="310"/>
-      <c r="O98" s="310"/>
-      <c r="P98" s="255"/>
+      <c r="I98" s="253"/>
+      <c r="J98" s="309"/>
+      <c r="K98" s="309"/>
+      <c r="L98" s="309"/>
+      <c r="M98" s="309"/>
+      <c r="N98" s="309"/>
+      <c r="O98" s="309"/>
+      <c r="P98" s="254"/>
       <c r="Q98" s="6"/>
     </row>
     <row r="99" spans="1:17" ht="15.75" thickBot="1">
@@ -30829,7 +31317,7 @@
     </row>
     <row r="115" spans="1:15" ht="15.75" thickBot="1">
       <c r="A115" s="7"/>
-      <c r="B115" s="367" t="s">
+      <c r="B115" s="366" t="s">
         <v>1515</v>
       </c>
       <c r="C115" s="107"/>
@@ -30837,7 +31325,7 @@
       <c r="E115" s="107"/>
       <c r="F115" s="108"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="407" t="s">
+      <c r="J115" s="394" t="s">
         <v>1522</v>
       </c>
       <c r="K115" s="2"/>
@@ -30854,7 +31342,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="408"/>
+      <c r="J116" s="395"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -30869,7 +31357,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="408"/>
+      <c r="J117" s="395"/>
       <c r="K117" s="5" t="s">
         <v>38</v>
       </c>
@@ -30886,7 +31374,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="408"/>
+      <c r="J118" s="395"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -30901,7 +31389,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="408"/>
+      <c r="J119" s="395"/>
       <c r="K119" s="5" t="s">
         <v>723</v>
       </c>
@@ -30921,7 +31409,7 @@
         <v>1521</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="408"/>
+      <c r="J120" s="395"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -30941,7 +31429,7 @@
         <v>267</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="408"/>
+      <c r="J121" s="395"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -30958,7 +31446,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="408"/>
+      <c r="J122" s="395"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1518</v>
@@ -30977,7 +31465,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="408"/>
+      <c r="J123" s="395"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1516</v>
@@ -30994,7 +31482,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="408"/>
+      <c r="J124" s="395"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>38</v>
@@ -31011,7 +31499,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="408"/>
+      <c r="J125" s="395"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -31026,7 +31514,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="409"/>
+      <c r="J126" s="396"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -31076,6 +31564,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="A11:E14"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="M8:N13"/>
     <mergeCell ref="J115:J126"/>
     <mergeCell ref="K96:L96"/>
     <mergeCell ref="M96:N96"/>
@@ -31085,12 +31579,6 @@
     <mergeCell ref="K89:L90"/>
     <mergeCell ref="K87:L88"/>
     <mergeCell ref="M87:N95"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="A11:E14"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="M8:N13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="T7" r:id="rId1"/>
@@ -31530,13 +32018,13 @@
         <v>180</v>
       </c>
       <c r="J3" s="148"/>
-      <c r="K3" s="428"/>
-      <c r="L3" s="428"/>
-      <c r="M3" s="428"/>
-      <c r="N3" s="428"/>
-      <c r="O3" s="428"/>
-      <c r="P3" s="428"/>
-      <c r="Q3" s="429"/>
+      <c r="K3" s="431"/>
+      <c r="L3" s="431"/>
+      <c r="M3" s="431"/>
+      <c r="N3" s="431"/>
+      <c r="O3" s="431"/>
+      <c r="P3" s="431"/>
+      <c r="Q3" s="432"/>
       <c r="T3" s="40" t="s">
         <v>178</v>
       </c>
@@ -31648,10 +32136,10 @@
       <c r="L7" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="M7" s="256" t="s">
+      <c r="M7" s="255" t="s">
         <v>940</v>
       </c>
-      <c r="N7" s="257"/>
+      <c r="N7" s="256"/>
       <c r="O7" s="188"/>
       <c r="P7" s="189" t="s">
         <v>377</v>
@@ -31697,10 +32185,10 @@
       <c r="L8" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="M8" s="258" t="s">
+      <c r="M8" s="257" t="s">
         <v>941</v>
       </c>
-      <c r="N8" s="259"/>
+      <c r="N8" s="258"/>
       <c r="O8" s="188"/>
       <c r="P8" s="190"/>
       <c r="Q8" s="33"/>
@@ -31731,8 +32219,8 @@
       <c r="J9" s="24"/>
       <c r="K9" s="134"/>
       <c r="L9" s="80"/>
-      <c r="M9" s="258"/>
-      <c r="N9" s="259"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="258"/>
       <c r="O9" s="188" t="s">
         <v>326</v>
       </c>
@@ -31760,8 +32248,8 @@
       <c r="L10" s="80" t="s">
         <v>262</v>
       </c>
-      <c r="M10" s="258"/>
-      <c r="N10" s="259"/>
+      <c r="M10" s="257"/>
+      <c r="N10" s="258"/>
       <c r="O10" s="188"/>
       <c r="P10" s="190" t="s">
         <v>1</v>
@@ -31792,8 +32280,8 @@
       <c r="L11" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="M11" s="258"/>
-      <c r="N11" s="259"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="258"/>
       <c r="O11" s="188"/>
       <c r="P11" s="190" t="s">
         <v>163</v>
@@ -31804,13 +32292,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="419" t="s">
+      <c r="A12" s="422" t="s">
         <v>646</v>
       </c>
-      <c r="B12" s="420"/>
-      <c r="C12" s="420"/>
-      <c r="D12" s="420"/>
-      <c r="E12" s="421"/>
+      <c r="B12" s="423"/>
+      <c r="C12" s="423"/>
+      <c r="D12" s="423"/>
+      <c r="E12" s="424"/>
       <c r="F12" t="s">
         <v>659</v>
       </c>
@@ -31823,8 +32311,8 @@
       <c r="L12" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="M12" s="260"/>
-      <c r="N12" s="261"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="260"/>
       <c r="O12" s="188"/>
       <c r="P12" s="191"/>
       <c r="Q12" s="82"/>
@@ -31833,11 +32321,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="422"/>
-      <c r="B13" s="423"/>
-      <c r="C13" s="423"/>
-      <c r="D13" s="423"/>
-      <c r="E13" s="424"/>
+      <c r="A13" s="425"/>
+      <c r="B13" s="426"/>
+      <c r="C13" s="426"/>
+      <c r="D13" s="426"/>
+      <c r="E13" s="427"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -31858,11 +32346,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="422"/>
-      <c r="B14" s="423"/>
-      <c r="C14" s="423"/>
-      <c r="D14" s="423"/>
-      <c r="E14" s="424"/>
+      <c r="A14" s="425"/>
+      <c r="B14" s="426"/>
+      <c r="C14" s="426"/>
+      <c r="D14" s="426"/>
+      <c r="E14" s="427"/>
       <c r="F14" t="s">
         <v>656</v>
       </c>
@@ -31885,11 +32373,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="425"/>
-      <c r="B15" s="426"/>
-      <c r="C15" s="426"/>
-      <c r="D15" s="426"/>
-      <c r="E15" s="427"/>
+      <c r="A15" s="428"/>
+      <c r="B15" s="429"/>
+      <c r="C15" s="429"/>
+      <c r="D15" s="429"/>
+      <c r="E15" s="430"/>
       <c r="F15" s="24"/>
       <c r="H15" s="197"/>
       <c r="I15" s="4" t="s">
@@ -31947,17 +32435,17 @@
       <c r="F17" s="193"/>
       <c r="G17" s="129"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="392" t="s">
+      <c r="I17" s="408" t="s">
         <v>1156</v>
       </c>
-      <c r="J17" s="392"/>
-      <c r="K17" s="392"/>
-      <c r="L17" s="392"/>
-      <c r="M17" s="392"/>
-      <c r="N17" s="392"/>
-      <c r="O17" s="392"/>
-      <c r="P17" s="392"/>
-      <c r="Q17" s="392"/>
+      <c r="J17" s="408"/>
+      <c r="K17" s="408"/>
+      <c r="L17" s="408"/>
+      <c r="M17" s="408"/>
+      <c r="N17" s="408"/>
+      <c r="O17" s="408"/>
+      <c r="P17" s="408"/>
+      <c r="Q17" s="408"/>
       <c r="S17" t="s">
         <v>330</v>
       </c>
@@ -32663,10 +33151,10 @@
     </row>
     <row r="104" spans="1:19" ht="15.75" thickBot="1">
       <c r="H104" s="4"/>
-      <c r="I104" s="253"/>
+      <c r="I104" s="252"/>
       <c r="J104" s="57"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="250"/>
+      <c r="L104" s="249"/>
     </row>
     <row r="105" spans="1:19">
       <c r="A105" t="s">
@@ -32703,7 +33191,7 @@
       <c r="I106" s="35"/>
       <c r="J106" s="39"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="251"/>
+      <c r="L106" s="250"/>
       <c r="O106" s="4"/>
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
@@ -32718,10 +33206,10 @@
         <v>938</v>
       </c>
       <c r="H107" s="4"/>
-      <c r="I107" s="254"/>
-      <c r="J107" s="255"/>
+      <c r="I107" s="253"/>
+      <c r="J107" s="254"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="252"/>
+      <c r="L107" s="251"/>
       <c r="O107" s="4"/>
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
@@ -32791,35 +33279,35 @@
       <c r="I115" s="1"/>
       <c r="J115" s="3"/>
       <c r="K115" s="5"/>
-      <c r="L115" s="250"/>
+      <c r="L115" s="249"/>
     </row>
     <row r="116" spans="8:19">
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="6"/>
       <c r="K116" s="5"/>
-      <c r="L116" s="251"/>
+      <c r="L116" s="250"/>
     </row>
     <row r="117" spans="8:19">
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="6"/>
       <c r="K117" s="5"/>
-      <c r="L117" s="251"/>
+      <c r="L117" s="250"/>
     </row>
     <row r="118" spans="8:19" ht="15.75" thickBot="1">
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="6"/>
       <c r="K118" s="5"/>
-      <c r="L118" s="251"/>
+      <c r="L118" s="250"/>
     </row>
     <row r="119" spans="8:19" ht="15.75" thickBot="1">
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="6"/>
       <c r="K119" s="5"/>
-      <c r="L119" s="252"/>
+      <c r="L119" s="251"/>
       <c r="O119" s="1"/>
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
@@ -32918,7 +33406,7 @@
       <c r="G138" s="5"/>
       <c r="H138" s="6"/>
       <c r="L138" s="4"/>
-      <c r="M138" s="229"/>
+      <c r="M138" s="228"/>
       <c r="N138" s="38"/>
       <c r="O138" s="38"/>
       <c r="P138" s="3"/>
@@ -33012,7 +33500,7 @@
       <c r="G143" s="5"/>
       <c r="H143" s="6"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="262">
+      <c r="M143" s="261">
         <v>234</v>
       </c>
       <c r="N143" s="38" t="s">
@@ -33604,7 +34092,7 @@
       <c r="N278" s="6"/>
     </row>
     <row r="279" spans="7:14" ht="15.75" thickBot="1">
-      <c r="G279" s="304">
+      <c r="G279" s="303">
         <v>80</v>
       </c>
       <c r="H279" s="4"/>
@@ -33880,7 +34368,7 @@
       <c r="O10" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="Q10" s="326" t="s">
+      <c r="Q10" s="325" t="s">
         <v>1581</v>
       </c>
     </row>
@@ -34351,10 +34839,10 @@
       <c r="B51" s="4"/>
       <c r="E51" s="6"/>
       <c r="K51" s="149"/>
-      <c r="L51" s="368"/>
+      <c r="L51" s="367"/>
       <c r="M51" s="71"/>
       <c r="N51" s="71"/>
-      <c r="O51" s="369"/>
+      <c r="O51" s="368"/>
     </row>
     <row r="52" spans="1:15">
       <c r="B52" s="4"/>
@@ -34365,13 +34853,13 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
-      <c r="K53" s="370" t="s">
+      <c r="K53" s="369" t="s">
         <v>1538</v>
       </c>
-      <c r="L53" s="371"/>
-      <c r="M53" s="371"/>
-      <c r="N53" s="371"/>
-      <c r="O53" s="372"/>
+      <c r="L53" s="370"/>
+      <c r="M53" s="370"/>
+      <c r="N53" s="370"/>
+      <c r="O53" s="371"/>
     </row>
     <row r="54" spans="1:15">
       <c r="B54" s="4"/>
@@ -34382,7 +34870,7 @@
       <c r="L54" s="194"/>
       <c r="M54" s="24"/>
       <c r="N54" s="24"/>
-      <c r="O54" s="373"/>
+      <c r="O54" s="372"/>
     </row>
     <row r="55" spans="1:15">
       <c r="B55" s="4"/>
@@ -34395,7 +34883,7 @@
       </c>
       <c r="M55" s="24"/>
       <c r="N55" s="24"/>
-      <c r="O55" s="373"/>
+      <c r="O55" s="372"/>
     </row>
     <row r="56" spans="1:15">
       <c r="B56" s="4"/>
@@ -34406,7 +34894,7 @@
       <c r="L56" s="24"/>
       <c r="M56" s="80"/>
       <c r="N56" s="24"/>
-      <c r="O56" s="373"/>
+      <c r="O56" s="372"/>
     </row>
     <row r="57" spans="1:15">
       <c r="B57" s="4"/>
@@ -34417,7 +34905,7 @@
       <c r="L57" s="24"/>
       <c r="M57" s="24"/>
       <c r="N57" s="24"/>
-      <c r="O57" s="373"/>
+      <c r="O57" s="372"/>
     </row>
     <row r="58" spans="1:15">
       <c r="B58" s="4"/>
@@ -34428,18 +34916,18 @@
       <c r="L58" s="24"/>
       <c r="M58" s="24"/>
       <c r="N58" s="24"/>
-      <c r="O58" s="373"/>
+      <c r="O58" s="372"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" thickBot="1">
       <c r="B59" s="8"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="9"/>
-      <c r="K59" s="374"/>
-      <c r="L59" s="375"/>
+      <c r="K59" s="373"/>
+      <c r="L59" s="374"/>
       <c r="M59" s="79"/>
       <c r="N59" s="79"/>
-      <c r="O59" s="376"/>
+      <c r="O59" s="375"/>
     </row>
     <row r="60" spans="1:15">
       <c r="K60" s="5"/>
@@ -34570,10 +35058,10 @@
         <v>1546</v>
       </c>
       <c r="K72" s="149"/>
-      <c r="L72" s="368"/>
+      <c r="L72" s="367"/>
       <c r="M72" s="71"/>
       <c r="N72" s="71"/>
-      <c r="O72" s="369"/>
+      <c r="O72" s="368"/>
     </row>
     <row r="73" spans="2:15">
       <c r="B73" s="4"/>
@@ -34584,13 +35072,13 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
-      <c r="K74" s="370" t="s">
+      <c r="K74" s="369" t="s">
         <v>1538</v>
       </c>
-      <c r="L74" s="371"/>
-      <c r="M74" s="371"/>
-      <c r="N74" s="371"/>
-      <c r="O74" s="372"/>
+      <c r="L74" s="370"/>
+      <c r="M74" s="370"/>
+      <c r="N74" s="370"/>
+      <c r="O74" s="371"/>
     </row>
     <row r="75" spans="2:15">
       <c r="B75" s="4"/>
@@ -34601,7 +35089,7 @@
       <c r="L75" s="194"/>
       <c r="M75" s="24"/>
       <c r="N75" s="24"/>
-      <c r="O75" s="373"/>
+      <c r="O75" s="372"/>
     </row>
     <row r="76" spans="2:15">
       <c r="B76" s="4"/>
@@ -34617,7 +35105,7 @@
       </c>
       <c r="M76" s="24"/>
       <c r="N76" s="24"/>
-      <c r="O76" s="373"/>
+      <c r="O76" s="372"/>
     </row>
     <row r="77" spans="2:15">
       <c r="B77" s="4"/>
@@ -34631,7 +35119,7 @@
       <c r="L77" s="24"/>
       <c r="M77" s="80"/>
       <c r="N77" s="24"/>
-      <c r="O77" s="373"/>
+      <c r="O77" s="372"/>
     </row>
     <row r="78" spans="2:15">
       <c r="B78" s="4"/>
@@ -34642,7 +35130,7 @@
       <c r="L78" s="24"/>
       <c r="M78" s="24"/>
       <c r="N78" s="24"/>
-      <c r="O78" s="373"/>
+      <c r="O78" s="372"/>
     </row>
     <row r="79" spans="2:15">
       <c r="B79" s="4"/>
@@ -34653,18 +35141,18 @@
       <c r="L79" s="24"/>
       <c r="M79" s="24"/>
       <c r="N79" s="24"/>
-      <c r="O79" s="373"/>
+      <c r="O79" s="372"/>
     </row>
     <row r="80" spans="2:15" ht="15.75" thickBot="1">
       <c r="B80" s="8"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="9"/>
-      <c r="K80" s="374"/>
-      <c r="L80" s="375"/>
+      <c r="K80" s="373"/>
+      <c r="L80" s="374"/>
       <c r="M80" s="79"/>
       <c r="N80" s="79"/>
-      <c r="O80" s="376"/>
+      <c r="O80" s="375"/>
     </row>
     <row r="81" spans="1:17" ht="15.75" thickBot="1">
       <c r="K81" s="8"/>
@@ -35070,10 +35558,10 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="430">
+      <c r="O109" s="433">
         <v>123</v>
       </c>
-      <c r="P109" s="328" t="s">
+      <c r="P109" s="327" t="s">
         <v>747</v>
       </c>
       <c r="Q109" s="38" t="s">
@@ -35092,8 +35580,8 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="408"/>
-      <c r="P110" s="328"/>
+      <c r="O110" s="395"/>
+      <c r="P110" s="327"/>
       <c r="Q110" s="38" t="s">
         <v>336</v>
       </c>
@@ -35110,8 +35598,8 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="408"/>
-      <c r="P111" s="328"/>
+      <c r="O111" s="395"/>
+      <c r="P111" s="327"/>
       <c r="Q111" s="38" t="s">
         <v>981</v>
       </c>
@@ -35128,8 +35616,8 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="408"/>
-      <c r="P112" s="328"/>
+      <c r="O112" s="395"/>
+      <c r="P112" s="327"/>
       <c r="Q112" s="38"/>
     </row>
     <row r="113" spans="1:17" ht="15.75" thickBot="1">
@@ -35147,8 +35635,8 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="409"/>
-      <c r="P113" s="328"/>
+      <c r="O113" s="396"/>
+      <c r="P113" s="327"/>
       <c r="Q113" s="38"/>
     </row>
     <row r="114" spans="1:17">
@@ -35172,10 +35660,10 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="430">
+      <c r="O114" s="433">
         <v>456</v>
       </c>
-      <c r="P114" s="328" t="s">
+      <c r="P114" s="327" t="s">
         <v>747</v>
       </c>
       <c r="Q114" s="38" t="s">
@@ -35194,8 +35682,8 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="408"/>
-      <c r="P115" s="328"/>
+      <c r="O115" s="395"/>
+      <c r="P115" s="327"/>
       <c r="Q115" s="38" t="s">
         <v>1567</v>
       </c>
@@ -35215,8 +35703,8 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="408"/>
-      <c r="P116" s="328"/>
+      <c r="O116" s="395"/>
+      <c r="P116" s="327"/>
       <c r="Q116" s="38"/>
     </row>
     <row r="117" spans="1:17" ht="15.75" thickBot="1">
@@ -35234,8 +35722,8 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="409"/>
-      <c r="P117" s="328"/>
+      <c r="O117" s="396"/>
+      <c r="P117" s="327"/>
       <c r="Q117" s="38"/>
     </row>
     <row r="118" spans="1:17" ht="15.75" thickBot="1">
@@ -35250,10 +35738,10 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="430">
+      <c r="O118" s="433">
         <v>777</v>
       </c>
-      <c r="P118" s="328"/>
+      <c r="P118" s="327"/>
       <c r="Q118" s="38"/>
     </row>
     <row r="119" spans="1:17">
@@ -35273,8 +35761,8 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="408"/>
-      <c r="P119" s="328"/>
+      <c r="O119" s="395"/>
+      <c r="P119" s="327"/>
       <c r="Q119" s="38"/>
     </row>
     <row r="120" spans="1:17" ht="15.75" thickBot="1">
@@ -35292,8 +35780,8 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="408"/>
-      <c r="P120" s="328"/>
+      <c r="O120" s="395"/>
+      <c r="P120" s="327"/>
       <c r="Q120" s="38"/>
     </row>
     <row r="121" spans="1:17" ht="15.75" thickBot="1">
@@ -35311,8 +35799,8 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="409"/>
-      <c r="P121" s="328"/>
+      <c r="O121" s="396"/>
+      <c r="P121" s="327"/>
       <c r="Q121" s="38"/>
     </row>
     <row r="122" spans="1:17" ht="15.75" thickBot="1">
@@ -35473,13 +35961,13 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="434">
+      <c r="O133" s="437">
         <v>123</v>
       </c>
-      <c r="P133" s="431" t="s">
+      <c r="P133" s="434" t="s">
         <v>747</v>
       </c>
-      <c r="Q133" s="378" t="s">
+      <c r="Q133" s="377" t="s">
         <v>303</v>
       </c>
     </row>
@@ -35495,9 +35983,9 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="435"/>
-      <c r="P134" s="432"/>
-      <c r="Q134" s="378" t="s">
+      <c r="O134" s="438"/>
+      <c r="P134" s="435"/>
+      <c r="Q134" s="377" t="s">
         <v>336</v>
       </c>
     </row>
@@ -35513,9 +36001,9 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="435"/>
-      <c r="P135" s="432"/>
-      <c r="Q135" s="378"/>
+      <c r="O135" s="438"/>
+      <c r="P135" s="435"/>
+      <c r="Q135" s="377"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
       <c r="A136" s="4"/>
@@ -35533,9 +36021,9 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="435"/>
-      <c r="P136" s="432"/>
-      <c r="Q136" s="378"/>
+      <c r="O136" s="438"/>
+      <c r="P136" s="435"/>
+      <c r="Q136" s="377"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
       <c r="A137" s="4"/>
@@ -35556,9 +36044,9 @@
       <c r="L137" s="28"/>
       <c r="M137" s="39"/>
       <c r="N137" s="28"/>
-      <c r="O137" s="436"/>
-      <c r="P137" s="433"/>
-      <c r="Q137" s="378"/>
+      <c r="O137" s="439"/>
+      <c r="P137" s="436"/>
+      <c r="Q137" s="377"/>
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="4"/>
@@ -35577,8 +36065,8 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="430"/>
-      <c r="P138" s="328"/>
+      <c r="O138" s="433"/>
+      <c r="P138" s="327"/>
       <c r="Q138" s="38"/>
     </row>
     <row r="139" spans="1:17">
@@ -35593,8 +36081,8 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="408"/>
-      <c r="P139" s="328"/>
+      <c r="O139" s="395"/>
+      <c r="P139" s="327"/>
       <c r="Q139" s="38"/>
     </row>
     <row r="140" spans="1:17">
@@ -35611,8 +36099,8 @@
       <c r="L140" s="49"/>
       <c r="M140" s="61"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="408"/>
-      <c r="P140" s="328"/>
+      <c r="O140" s="395"/>
+      <c r="P140" s="327"/>
       <c r="Q140" s="38"/>
     </row>
     <row r="141" spans="1:17" ht="15.75" thickBot="1">
@@ -35630,8 +36118,8 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="409"/>
-      <c r="P141" s="328"/>
+      <c r="O141" s="396"/>
+      <c r="P141" s="327"/>
       <c r="Q141" s="38"/>
     </row>
     <row r="142" spans="1:17" ht="15.75" thickBot="1">
@@ -35648,8 +36136,8 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="430"/>
-      <c r="P142" s="328"/>
+      <c r="O142" s="433"/>
+      <c r="P142" s="327"/>
       <c r="Q142" s="38"/>
     </row>
     <row r="143" spans="1:17">
@@ -35666,10 +36154,10 @@
       <c r="L143" s="198" t="s">
         <v>1574</v>
       </c>
-      <c r="M143" s="377"/>
+      <c r="M143" s="376"/>
       <c r="N143" s="198"/>
-      <c r="O143" s="408"/>
-      <c r="P143" s="328"/>
+      <c r="O143" s="395"/>
+      <c r="P143" s="327"/>
       <c r="Q143" s="38"/>
     </row>
     <row r="144" spans="1:17" ht="15.75" thickBot="1">
@@ -35684,8 +36172,8 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="408"/>
-      <c r="P144" s="328"/>
+      <c r="O144" s="395"/>
+      <c r="P144" s="327"/>
       <c r="Q144" s="38"/>
     </row>
     <row r="145" spans="1:17" ht="15.75" thickBot="1">
@@ -35695,7 +36183,7 @@
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-      <c r="J145" s="379" t="s">
+      <c r="J145" s="378" t="s">
         <v>1575</v>
       </c>
       <c r="K145" s="4" t="s">
@@ -35704,8 +36192,8 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="409"/>
-      <c r="P145" s="328"/>
+      <c r="O145" s="396"/>
+      <c r="P145" s="327"/>
       <c r="Q145" s="38"/>
     </row>
     <row r="146" spans="1:17" ht="15.75" thickBot="1">
@@ -37292,8 +37780,8 @@
       <c r="F293" s="5"/>
       <c r="G293" s="5"/>
       <c r="H293" s="6"/>
-      <c r="J293" s="308"/>
-      <c r="K293" s="309"/>
+      <c r="J293" s="307"/>
+      <c r="K293" s="308"/>
       <c r="L293" s="40"/>
       <c r="N293" s="4"/>
       <c r="O293" s="5"/>
@@ -37489,8 +37977,8 @@
       <c r="F312" s="5"/>
       <c r="G312" s="5"/>
       <c r="H312" s="6"/>
-      <c r="J312" s="308"/>
-      <c r="K312" s="309"/>
+      <c r="J312" s="307"/>
+      <c r="K312" s="308"/>
       <c r="N312" s="4"/>
       <c r="O312" s="5"/>
       <c r="P312" s="5"/>
@@ -37572,8 +38060,8 @@
     <row r="318" spans="3:18" ht="15.75" thickBot="1">
       <c r="E318" s="8"/>
       <c r="F318" s="10"/>
-      <c r="G318" s="310"/>
-      <c r="H318" s="255"/>
+      <c r="G318" s="309"/>
+      <c r="H318" s="254"/>
       <c r="I318" s="40" t="s">
         <v>186</v>
       </c>
@@ -37834,10 +38322,10 @@
       <c r="K352" s="35"/>
       <c r="M352" s="5"/>
       <c r="N352" s="5"/>
-      <c r="O352" s="364" t="s">
+      <c r="O352" s="363" t="s">
         <v>1204</v>
       </c>
-      <c r="P352" s="365"/>
+      <c r="P352" s="364"/>
       <c r="Q352" s="6"/>
     </row>
     <row r="353" spans="2:17">

--- a/jee_latest_st.xlsx
+++ b/jee_latest_st.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19155" windowHeight="7590" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="1664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3595" uniqueCount="1686">
   <si>
     <t>java server - tomcat</t>
   </si>
@@ -5523,6 +5523,72 @@
   </si>
   <si>
     <t>Car</t>
+  </si>
+  <si>
+    <t>Java program</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>10:00:00  10:00:30</t>
+  </si>
+  <si>
+    <t>HTML/JSP/Strut tags</t>
+  </si>
+  <si>
+    <t>Website code - spring framework</t>
+  </si>
+  <si>
+    <t>Customer3</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; iphone add 2 cart &gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>scope=session</t>
+  </si>
+  <si>
+    <t>maintained customer is shopping</t>
+  </si>
+  <si>
+    <t>scope=protype / request</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;  updating email &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>short term scope</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;&gt;&gt; comon amazon info &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>scope=singleton</t>
+  </si>
+  <si>
+    <t>Shared common object across entire website</t>
+  </si>
+  <si>
+    <t>add2Cart</t>
+  </si>
+  <si>
+    <t>CartStrutAction</t>
+  </si>
+  <si>
+    <t>CartService</t>
+  </si>
+  <si>
+    <t>@scope("session")</t>
+  </si>
+  <si>
+    <t>@service</t>
+  </si>
+  <si>
+    <t>@scope("singleton")</t>
   </si>
 </sst>
 </file>
@@ -6330,7 +6396,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="547">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -6874,6 +6940,9 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7366,9 +7435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12627,7 +12694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -12908,8 +12975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53:K69"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14723,10 +14790,10 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="436" t="s">
+      <c r="L35" s="437" t="s">
         <v>346</v>
       </c>
-      <c r="M35" s="436"/>
+      <c r="M35" s="437"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
@@ -16656,10 +16723,10 @@
       </c>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="437" t="s">
+      <c r="A155" s="438" t="s">
         <v>939</v>
       </c>
-      <c r="B155" s="437"/>
+      <c r="B155" s="438"/>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="93" t="s">
@@ -17444,19 +17511,19 @@
       </c>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="438" t="s">
+      <c r="B29" s="439" t="s">
         <v>1280</v>
       </c>
-      <c r="C29" s="438"/>
-      <c r="D29" s="438"/>
-      <c r="E29" s="438"/>
-      <c r="F29" s="438"/>
-      <c r="I29" s="438" t="s">
+      <c r="C29" s="439"/>
+      <c r="D29" s="439"/>
+      <c r="E29" s="439"/>
+      <c r="F29" s="439"/>
+      <c r="I29" s="439" t="s">
         <v>1560</v>
       </c>
-      <c r="J29" s="438"/>
-      <c r="K29" s="438"/>
-      <c r="L29" s="438"/>
+      <c r="J29" s="439"/>
+      <c r="K29" s="439"/>
+      <c r="L29" s="439"/>
     </row>
     <row r="31" spans="2:17">
       <c r="I31" t="s">
@@ -19106,7 +19173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A95" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
@@ -19145,18 +19212,18 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
       <c r="D6" s="4"/>
-      <c r="E6" s="446" t="s">
+      <c r="E6" s="447" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="447"/>
-      <c r="G6" s="448" t="s">
+      <c r="F6" s="448"/>
+      <c r="G6" s="449" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="448"/>
-      <c r="I6" s="448"/>
-      <c r="J6" s="448"/>
-      <c r="K6" s="448"/>
-      <c r="L6" s="447"/>
+      <c r="H6" s="449"/>
+      <c r="I6" s="449"/>
+      <c r="J6" s="449"/>
+      <c r="K6" s="449"/>
+      <c r="L6" s="448"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="28" t="s">
@@ -19169,7 +19236,7 @@
       <c r="B7" t="s">
         <v>1657</v>
       </c>
-      <c r="D7" s="439">
+      <c r="D7" s="440">
         <v>80</v>
       </c>
       <c r="E7" s="372" t="s">
@@ -19189,7 +19256,7 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1">
-      <c r="D8" s="439"/>
+      <c r="D8" s="440"/>
       <c r="E8" s="367" t="s">
         <v>380</v>
       </c>
@@ -19224,7 +19291,7 @@
       <c r="B9" t="s">
         <v>379</v>
       </c>
-      <c r="D9" s="439"/>
+      <c r="D9" s="440"/>
       <c r="E9" s="375"/>
       <c r="F9" s="376"/>
       <c r="G9" s="375"/>
@@ -19251,7 +19318,7 @@
       <c r="A10" t="s">
         <v>1662</v>
       </c>
-      <c r="D10" s="439"/>
+      <c r="D10" s="440"/>
       <c r="E10" s="372"/>
       <c r="F10" s="373"/>
       <c r="G10" s="372"/>
@@ -19275,7 +19342,7 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1">
-      <c r="D11" s="439"/>
+      <c r="D11" s="440"/>
       <c r="E11" s="367" t="s">
         <v>384</v>
       </c>
@@ -19304,7 +19371,7 @@
       <c r="B12" s="211" t="s">
         <v>388</v>
       </c>
-      <c r="D12" s="439"/>
+      <c r="D12" s="440"/>
       <c r="E12" s="375"/>
       <c r="F12" s="376"/>
       <c r="G12" s="375"/>
@@ -19325,7 +19392,7 @@
       <c r="B13" t="s">
         <v>1658</v>
       </c>
-      <c r="D13" s="439"/>
+      <c r="D13" s="440"/>
       <c r="E13" s="372"/>
       <c r="F13" s="373"/>
       <c r="G13" s="372"/>
@@ -19344,7 +19411,7 @@
       <c r="B14" t="s">
         <v>1659</v>
       </c>
-      <c r="D14" s="439"/>
+      <c r="D14" s="440"/>
       <c r="E14" s="367" t="s">
         <v>389</v>
       </c>
@@ -19371,7 +19438,7 @@
       <c r="B15" t="s">
         <v>1660</v>
       </c>
-      <c r="D15" s="439"/>
+      <c r="D15" s="440"/>
       <c r="E15" s="375"/>
       <c r="F15" s="376"/>
       <c r="G15" s="375"/>
@@ -19390,7 +19457,7 @@
       <c r="B16" t="s">
         <v>1661</v>
       </c>
-      <c r="D16" s="439"/>
+      <c r="D16" s="440"/>
       <c r="E16" s="372"/>
       <c r="F16" s="373"/>
       <c r="G16" s="377"/>
@@ -19406,7 +19473,7 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="D17" s="439"/>
+      <c r="D17" s="440"/>
       <c r="E17" s="367" t="s">
         <v>393</v>
       </c>
@@ -19430,7 +19497,7 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1">
-      <c r="D18" s="439"/>
+      <c r="D18" s="440"/>
       <c r="E18" s="375"/>
       <c r="F18" s="376"/>
       <c r="G18" s="378"/>
@@ -19447,20 +19514,20 @@
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1">
       <c r="D19" s="8"/>
-      <c r="E19" s="449" t="s">
+      <c r="E19" s="450" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="450"/>
-      <c r="G19" s="449" t="s">
+      <c r="F19" s="451"/>
+      <c r="G19" s="450" t="s">
         <v>194</v>
       </c>
-      <c r="H19" s="450"/>
-      <c r="I19" s="449" t="s">
+      <c r="H19" s="451"/>
+      <c r="I19" s="450" t="s">
         <v>195</v>
       </c>
-      <c r="J19" s="451"/>
-      <c r="K19" s="451"/>
-      <c r="L19" s="450"/>
+      <c r="J19" s="452"/>
+      <c r="K19" s="452"/>
+      <c r="L19" s="451"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -19525,12 +19592,12 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="443"/>
-      <c r="H24" s="443"/>
-      <c r="I24" s="443"/>
-      <c r="J24" s="443"/>
-      <c r="K24" s="443"/>
-      <c r="L24" s="443"/>
+      <c r="G24" s="444"/>
+      <c r="H24" s="444"/>
+      <c r="I24" s="444"/>
+      <c r="J24" s="444"/>
+      <c r="K24" s="444"/>
+      <c r="L24" s="444"/>
       <c r="O24" s="40" t="s">
         <v>178</v>
       </c>
@@ -19905,11 +19972,11 @@
       <c r="G47" s="224" t="s">
         <v>832</v>
       </c>
-      <c r="H47" s="440" t="s">
+      <c r="H47" s="441" t="s">
         <v>1243</v>
       </c>
-      <c r="I47" s="441"/>
-      <c r="J47" s="442"/>
+      <c r="I47" s="442"/>
+      <c r="J47" s="443"/>
     </row>
     <row r="48" spans="1:17">
       <c r="F48" t="s">
@@ -20532,14 +20599,14 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="6"/>
-      <c r="F97" s="444" t="s">
+      <c r="F97" s="445" t="s">
         <v>1477</v>
       </c>
-      <c r="G97" s="438"/>
-      <c r="H97" s="438"/>
-      <c r="I97" s="438"/>
-      <c r="J97" s="438"/>
-      <c r="K97" s="445"/>
+      <c r="G97" s="439"/>
+      <c r="H97" s="439"/>
+      <c r="I97" s="439"/>
+      <c r="J97" s="439"/>
+      <c r="K97" s="446"/>
       <c r="L97" s="4" t="s">
         <v>1647</v>
       </c>
@@ -22059,7 +22126,7 @@
     <row r="210" spans="2:17">
       <c r="B210" s="24"/>
       <c r="C210" s="24"/>
-      <c r="D210" s="545"/>
+      <c r="D210" s="381"/>
       <c r="E210" s="24"/>
       <c r="F210" s="24"/>
       <c r="G210" s="24"/>
@@ -23140,13 +23207,13 @@
       <c r="C20" s="116">
         <v>43908</v>
       </c>
-      <c r="D20" s="452" t="s">
+      <c r="D20" s="453" t="s">
         <v>428</v>
       </c>
-      <c r="E20" s="452"/>
-      <c r="F20" s="452"/>
-      <c r="G20" s="452"/>
-      <c r="H20" s="452"/>
+      <c r="E20" s="453"/>
+      <c r="F20" s="453"/>
+      <c r="G20" s="453"/>
+      <c r="H20" s="453"/>
       <c r="I20" s="38" t="s">
         <v>429</v>
       </c>
@@ -23157,37 +23224,37 @@
       <c r="N20" s="38"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="453">
+      <c r="C21" s="454">
         <v>43909</v>
       </c>
-      <c r="D21" s="452"/>
-      <c r="E21" s="452"/>
-      <c r="F21" s="452"/>
-      <c r="G21" s="452"/>
-      <c r="H21" s="452"/>
+      <c r="D21" s="453"/>
+      <c r="E21" s="453"/>
+      <c r="F21" s="453"/>
+      <c r="G21" s="453"/>
+      <c r="H21" s="453"/>
       <c r="I21" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="J21" s="452"/>
-      <c r="K21" s="452"/>
-      <c r="L21" s="452" t="s">
+      <c r="J21" s="453"/>
+      <c r="K21" s="453"/>
+      <c r="L21" s="453" t="s">
         <v>431</v>
       </c>
-      <c r="M21" s="452"/>
-      <c r="N21" s="452"/>
+      <c r="M21" s="453"/>
+      <c r="N21" s="453"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="453"/>
-      <c r="D22" s="452"/>
-      <c r="E22" s="452"/>
-      <c r="F22" s="452"/>
-      <c r="G22" s="452"/>
-      <c r="H22" s="452"/>
-      <c r="I22" s="384" t="s">
+      <c r="C22" s="454"/>
+      <c r="D22" s="453"/>
+      <c r="E22" s="453"/>
+      <c r="F22" s="453"/>
+      <c r="G22" s="453"/>
+      <c r="H22" s="453"/>
+      <c r="I22" s="385" t="s">
         <v>432</v>
       </c>
-      <c r="J22" s="452"/>
-      <c r="K22" s="452"/>
+      <c r="J22" s="453"/>
+      <c r="K22" s="453"/>
       <c r="L22" s="117" t="s">
         <v>433</v>
       </c>
@@ -23195,31 +23262,31 @@
       <c r="N22" s="38"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="453"/>
-      <c r="D23" s="452"/>
-      <c r="E23" s="452"/>
-      <c r="F23" s="452"/>
-      <c r="G23" s="452"/>
-      <c r="H23" s="452"/>
-      <c r="I23" s="384"/>
-      <c r="J23" s="452"/>
-      <c r="K23" s="452"/>
-      <c r="L23" s="452" t="s">
+      <c r="C23" s="454"/>
+      <c r="D23" s="453"/>
+      <c r="E23" s="453"/>
+      <c r="F23" s="453"/>
+      <c r="G23" s="453"/>
+      <c r="H23" s="453"/>
+      <c r="I23" s="385"/>
+      <c r="J23" s="453"/>
+      <c r="K23" s="453"/>
+      <c r="L23" s="453" t="s">
         <v>434</v>
       </c>
-      <c r="M23" s="452"/>
-      <c r="N23" s="452"/>
+      <c r="M23" s="453"/>
+      <c r="N23" s="453"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="453"/>
-      <c r="D24" s="452"/>
-      <c r="E24" s="452"/>
-      <c r="F24" s="452"/>
-      <c r="G24" s="452"/>
-      <c r="H24" s="452"/>
-      <c r="I24" s="384"/>
-      <c r="J24" s="452"/>
-      <c r="K24" s="452"/>
+      <c r="C24" s="454"/>
+      <c r="D24" s="453"/>
+      <c r="E24" s="453"/>
+      <c r="F24" s="453"/>
+      <c r="G24" s="453"/>
+      <c r="H24" s="453"/>
+      <c r="I24" s="385"/>
+      <c r="J24" s="453"/>
+      <c r="K24" s="453"/>
       <c r="L24" s="118" t="s">
         <v>432</v>
       </c>
@@ -23230,13 +23297,13 @@
       <c r="C25" s="116">
         <v>43910</v>
       </c>
-      <c r="D25" s="452" t="s">
+      <c r="D25" s="453" t="s">
         <v>435</v>
       </c>
-      <c r="E25" s="452"/>
-      <c r="F25" s="452"/>
-      <c r="G25" s="452"/>
-      <c r="H25" s="452"/>
+      <c r="E25" s="453"/>
+      <c r="F25" s="453"/>
+      <c r="G25" s="453"/>
+      <c r="H25" s="453"/>
       <c r="I25" s="38" t="s">
         <v>436</v>
       </c>
@@ -23250,16 +23317,16 @@
       <c r="C26" s="116">
         <v>43911</v>
       </c>
-      <c r="D26" s="454"/>
-      <c r="E26" s="455"/>
-      <c r="F26" s="455"/>
-      <c r="G26" s="455"/>
-      <c r="H26" s="456"/>
-      <c r="I26" s="461" t="s">
+      <c r="D26" s="455"/>
+      <c r="E26" s="456"/>
+      <c r="F26" s="456"/>
+      <c r="G26" s="456"/>
+      <c r="H26" s="457"/>
+      <c r="I26" s="462" t="s">
         <v>432</v>
       </c>
-      <c r="J26" s="454"/>
-      <c r="K26" s="456"/>
+      <c r="J26" s="455"/>
+      <c r="K26" s="457"/>
       <c r="L26" s="117" t="s">
         <v>433</v>
       </c>
@@ -23268,30 +23335,30 @@
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="38"/>
-      <c r="D27" s="457"/>
-      <c r="E27" s="443"/>
-      <c r="F27" s="443"/>
-      <c r="G27" s="443"/>
-      <c r="H27" s="458"/>
-      <c r="I27" s="462"/>
-      <c r="J27" s="457"/>
-      <c r="K27" s="458"/>
-      <c r="L27" s="452" t="s">
+      <c r="D27" s="458"/>
+      <c r="E27" s="444"/>
+      <c r="F27" s="444"/>
+      <c r="G27" s="444"/>
+      <c r="H27" s="459"/>
+      <c r="I27" s="463"/>
+      <c r="J27" s="458"/>
+      <c r="K27" s="459"/>
+      <c r="L27" s="453" t="s">
         <v>437</v>
       </c>
-      <c r="M27" s="452"/>
-      <c r="N27" s="452"/>
+      <c r="M27" s="453"/>
+      <c r="N27" s="453"/>
     </row>
     <row r="28" spans="3:14">
       <c r="C28" s="38"/>
-      <c r="D28" s="457"/>
-      <c r="E28" s="443"/>
-      <c r="F28" s="443"/>
-      <c r="G28" s="443"/>
-      <c r="H28" s="458"/>
-      <c r="I28" s="462"/>
-      <c r="J28" s="457"/>
-      <c r="K28" s="458"/>
+      <c r="D28" s="458"/>
+      <c r="E28" s="444"/>
+      <c r="F28" s="444"/>
+      <c r="G28" s="444"/>
+      <c r="H28" s="459"/>
+      <c r="I28" s="463"/>
+      <c r="J28" s="458"/>
+      <c r="K28" s="459"/>
       <c r="L28" s="118" t="s">
         <v>432</v>
       </c>
@@ -23300,14 +23367,14 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="38"/>
-      <c r="D29" s="459"/>
-      <c r="E29" s="436"/>
-      <c r="F29" s="436"/>
-      <c r="G29" s="436"/>
-      <c r="H29" s="460"/>
-      <c r="I29" s="463"/>
-      <c r="J29" s="459"/>
-      <c r="K29" s="460"/>
+      <c r="D29" s="460"/>
+      <c r="E29" s="437"/>
+      <c r="F29" s="437"/>
+      <c r="G29" s="437"/>
+      <c r="H29" s="461"/>
+      <c r="I29" s="464"/>
+      <c r="J29" s="460"/>
+      <c r="K29" s="461"/>
       <c r="L29" s="119" t="s">
         <v>438</v>
       </c>
@@ -23355,13 +23422,13 @@
       <c r="C33" s="116">
         <v>43908</v>
       </c>
-      <c r="D33" s="452" t="s">
+      <c r="D33" s="453" t="s">
         <v>428</v>
       </c>
-      <c r="E33" s="452"/>
-      <c r="F33" s="452"/>
-      <c r="G33" s="452"/>
-      <c r="H33" s="452"/>
+      <c r="E33" s="453"/>
+      <c r="F33" s="453"/>
+      <c r="G33" s="453"/>
+      <c r="H33" s="453"/>
       <c r="I33" s="38" t="s">
         <v>429</v>
       </c>
@@ -23372,33 +23439,33 @@
       <c r="N33" s="38"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="C34" s="453">
+      <c r="C34" s="454">
         <v>43909</v>
       </c>
-      <c r="D34" s="452"/>
-      <c r="E34" s="452"/>
-      <c r="F34" s="452"/>
-      <c r="G34" s="452"/>
-      <c r="H34" s="452"/>
-      <c r="I34" s="464"/>
-      <c r="J34" s="452"/>
-      <c r="K34" s="452"/>
-      <c r="L34" s="452" t="s">
+      <c r="D34" s="453"/>
+      <c r="E34" s="453"/>
+      <c r="F34" s="453"/>
+      <c r="G34" s="453"/>
+      <c r="H34" s="453"/>
+      <c r="I34" s="465"/>
+      <c r="J34" s="453"/>
+      <c r="K34" s="453"/>
+      <c r="L34" s="453" t="s">
         <v>431</v>
       </c>
-      <c r="M34" s="452"/>
-      <c r="N34" s="452"/>
+      <c r="M34" s="453"/>
+      <c r="N34" s="453"/>
     </row>
     <row r="35" spans="1:14">
-      <c r="C35" s="453"/>
-      <c r="D35" s="452"/>
-      <c r="E35" s="452"/>
-      <c r="F35" s="452"/>
-      <c r="G35" s="452"/>
-      <c r="H35" s="452"/>
-      <c r="I35" s="465"/>
-      <c r="J35" s="452"/>
-      <c r="K35" s="452"/>
+      <c r="C35" s="454"/>
+      <c r="D35" s="453"/>
+      <c r="E35" s="453"/>
+      <c r="F35" s="453"/>
+      <c r="G35" s="453"/>
+      <c r="H35" s="453"/>
+      <c r="I35" s="466"/>
+      <c r="J35" s="453"/>
+      <c r="K35" s="453"/>
       <c r="L35" s="117" t="s">
         <v>433</v>
       </c>
@@ -23406,31 +23473,31 @@
       <c r="N35" s="38"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="C36" s="453"/>
-      <c r="D36" s="452"/>
-      <c r="E36" s="452"/>
-      <c r="F36" s="452"/>
-      <c r="G36" s="452"/>
-      <c r="H36" s="452"/>
-      <c r="I36" s="465"/>
-      <c r="J36" s="452"/>
-      <c r="K36" s="452"/>
-      <c r="L36" s="452" t="s">
+      <c r="C36" s="454"/>
+      <c r="D36" s="453"/>
+      <c r="E36" s="453"/>
+      <c r="F36" s="453"/>
+      <c r="G36" s="453"/>
+      <c r="H36" s="453"/>
+      <c r="I36" s="466"/>
+      <c r="J36" s="453"/>
+      <c r="K36" s="453"/>
+      <c r="L36" s="453" t="s">
         <v>434</v>
       </c>
-      <c r="M36" s="452"/>
-      <c r="N36" s="452"/>
+      <c r="M36" s="453"/>
+      <c r="N36" s="453"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="453"/>
-      <c r="D37" s="452"/>
-      <c r="E37" s="452"/>
-      <c r="F37" s="452"/>
-      <c r="G37" s="452"/>
-      <c r="H37" s="452"/>
-      <c r="I37" s="466"/>
-      <c r="J37" s="452"/>
-      <c r="K37" s="452"/>
+      <c r="C37" s="454"/>
+      <c r="D37" s="453"/>
+      <c r="E37" s="453"/>
+      <c r="F37" s="453"/>
+      <c r="G37" s="453"/>
+      <c r="H37" s="453"/>
+      <c r="I37" s="467"/>
+      <c r="J37" s="453"/>
+      <c r="K37" s="453"/>
       <c r="L37" s="118" t="s">
         <v>439</v>
       </c>
@@ -23441,13 +23508,13 @@
       <c r="C38" s="116">
         <v>43910</v>
       </c>
-      <c r="D38" s="452" t="s">
+      <c r="D38" s="453" t="s">
         <v>435</v>
       </c>
-      <c r="E38" s="452"/>
-      <c r="F38" s="452"/>
-      <c r="G38" s="452"/>
-      <c r="H38" s="452"/>
+      <c r="E38" s="453"/>
+      <c r="F38" s="453"/>
+      <c r="G38" s="453"/>
+      <c r="H38" s="453"/>
       <c r="I38" s="38" t="s">
         <v>436</v>
       </c>
@@ -23461,14 +23528,14 @@
       <c r="C39" s="116">
         <v>43911</v>
       </c>
-      <c r="D39" s="454"/>
-      <c r="E39" s="455"/>
-      <c r="F39" s="455"/>
-      <c r="G39" s="455"/>
-      <c r="H39" s="456"/>
-      <c r="I39" s="461"/>
-      <c r="J39" s="454"/>
-      <c r="K39" s="456"/>
+      <c r="D39" s="455"/>
+      <c r="E39" s="456"/>
+      <c r="F39" s="456"/>
+      <c r="G39" s="456"/>
+      <c r="H39" s="457"/>
+      <c r="I39" s="462"/>
+      <c r="J39" s="455"/>
+      <c r="K39" s="457"/>
       <c r="L39" s="117" t="s">
         <v>433</v>
       </c>
@@ -23477,30 +23544,30 @@
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="38"/>
-      <c r="D40" s="457"/>
-      <c r="E40" s="443"/>
-      <c r="F40" s="443"/>
-      <c r="G40" s="443"/>
-      <c r="H40" s="458"/>
-      <c r="I40" s="462"/>
-      <c r="J40" s="457"/>
-      <c r="K40" s="458"/>
-      <c r="L40" s="452" t="s">
+      <c r="D40" s="458"/>
+      <c r="E40" s="444"/>
+      <c r="F40" s="444"/>
+      <c r="G40" s="444"/>
+      <c r="H40" s="459"/>
+      <c r="I40" s="463"/>
+      <c r="J40" s="458"/>
+      <c r="K40" s="459"/>
+      <c r="L40" s="453" t="s">
         <v>437</v>
       </c>
-      <c r="M40" s="452"/>
-      <c r="N40" s="452"/>
+      <c r="M40" s="453"/>
+      <c r="N40" s="453"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="38"/>
-      <c r="D41" s="457"/>
-      <c r="E41" s="443"/>
-      <c r="F41" s="443"/>
-      <c r="G41" s="443"/>
-      <c r="H41" s="458"/>
-      <c r="I41" s="463"/>
-      <c r="J41" s="457"/>
-      <c r="K41" s="458"/>
+      <c r="D41" s="458"/>
+      <c r="E41" s="444"/>
+      <c r="F41" s="444"/>
+      <c r="G41" s="444"/>
+      <c r="H41" s="459"/>
+      <c r="I41" s="464"/>
+      <c r="J41" s="458"/>
+      <c r="K41" s="459"/>
       <c r="L41" s="118" t="s">
         <v>439</v>
       </c>
@@ -23509,16 +23576,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="38"/>
-      <c r="D42" s="459"/>
-      <c r="E42" s="436"/>
-      <c r="F42" s="436"/>
-      <c r="G42" s="436"/>
-      <c r="H42" s="460"/>
+      <c r="D42" s="460"/>
+      <c r="E42" s="437"/>
+      <c r="F42" s="437"/>
+      <c r="G42" s="437"/>
+      <c r="H42" s="461"/>
       <c r="I42" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="J42" s="459"/>
-      <c r="K42" s="460"/>
+      <c r="J42" s="460"/>
+      <c r="K42" s="461"/>
       <c r="L42" s="119" t="s">
         <v>438</v>
       </c>
@@ -23863,8 +23930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:X155"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N147" sqref="N147:P156"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23875,29 +23942,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="21">
-      <c r="B2" s="477" t="s">
+      <c r="B2" s="478" t="s">
         <v>993</v>
       </c>
-      <c r="C2" s="477"/>
-      <c r="D2" s="477"/>
-      <c r="E2" s="477"/>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="477"/>
-      <c r="I2" s="477"/>
-      <c r="J2" s="477"/>
-      <c r="K2" s="477"/>
-      <c r="L2" s="477"/>
-      <c r="M2" s="477"/>
-      <c r="N2" s="477"/>
-      <c r="O2" s="477"/>
-      <c r="P2" s="477"/>
-      <c r="Q2" s="477"/>
-      <c r="R2" s="477"/>
-      <c r="S2" s="477"/>
-      <c r="T2" s="477"/>
-      <c r="U2" s="477"/>
-      <c r="V2" s="477"/>
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="478"/>
+      <c r="I2" s="478"/>
+      <c r="J2" s="478"/>
+      <c r="K2" s="478"/>
+      <c r="L2" s="478"/>
+      <c r="M2" s="478"/>
+      <c r="N2" s="478"/>
+      <c r="O2" s="478"/>
+      <c r="P2" s="478"/>
+      <c r="Q2" s="478"/>
+      <c r="R2" s="478"/>
+      <c r="S2" s="478"/>
+      <c r="T2" s="478"/>
+      <c r="U2" s="478"/>
+      <c r="V2" s="478"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:22">
@@ -23930,22 +23997,22 @@
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="481" t="s">
+      <c r="G5" s="482" t="s">
         <v>460</v>
       </c>
-      <c r="H5" s="481"/>
-      <c r="I5" s="481" t="s">
+      <c r="H5" s="482"/>
+      <c r="I5" s="482" t="s">
         <v>461</v>
       </c>
-      <c r="J5" s="481"/>
-      <c r="K5" s="481"/>
-      <c r="L5" s="481"/>
-      <c r="M5" s="481"/>
-      <c r="N5" s="481"/>
-      <c r="O5" s="481" t="s">
+      <c r="J5" s="482"/>
+      <c r="K5" s="482"/>
+      <c r="L5" s="482"/>
+      <c r="M5" s="482"/>
+      <c r="N5" s="482"/>
+      <c r="O5" s="482" t="s">
         <v>462</v>
       </c>
-      <c r="P5" s="481"/>
+      <c r="P5" s="482"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -23957,7 +24024,7 @@
       <c r="D6" s="134"/>
       <c r="E6" s="135"/>
       <c r="F6" s="137"/>
-      <c r="G6" s="486" t="s">
+      <c r="G6" s="487" t="s">
         <v>463</v>
       </c>
       <c r="H6" s="111"/>
@@ -23986,26 +24053,26 @@
       </c>
       <c r="E7" s="137"/>
       <c r="F7" s="137"/>
-      <c r="G7" s="407"/>
-      <c r="H7" s="487" t="s">
+      <c r="G7" s="408"/>
+      <c r="H7" s="488" t="s">
         <v>465</v>
       </c>
-      <c r="I7" s="490" t="s">
+      <c r="I7" s="491" t="s">
         <v>466</v>
       </c>
-      <c r="J7" s="491"/>
-      <c r="K7" s="492" t="s">
+      <c r="J7" s="492"/>
+      <c r="K7" s="493" t="s">
         <v>467</v>
       </c>
-      <c r="L7" s="493"/>
-      <c r="M7" s="490" t="s">
+      <c r="L7" s="494"/>
+      <c r="M7" s="491" t="s">
         <v>468</v>
       </c>
-      <c r="N7" s="491"/>
-      <c r="O7" s="498" t="s">
+      <c r="N7" s="492"/>
+      <c r="O7" s="499" t="s">
         <v>469</v>
       </c>
-      <c r="P7" s="499"/>
+      <c r="P7" s="500"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -24017,16 +24084,16 @@
       <c r="D8" s="138"/>
       <c r="E8" s="139"/>
       <c r="F8" s="137"/>
-      <c r="G8" s="407"/>
-      <c r="H8" s="488"/>
-      <c r="I8" s="387"/>
-      <c r="J8" s="389"/>
-      <c r="K8" s="494"/>
-      <c r="L8" s="495"/>
-      <c r="M8" s="387"/>
-      <c r="N8" s="389"/>
-      <c r="O8" s="500"/>
-      <c r="P8" s="501"/>
+      <c r="G8" s="408"/>
+      <c r="H8" s="489"/>
+      <c r="I8" s="388"/>
+      <c r="J8" s="390"/>
+      <c r="K8" s="495"/>
+      <c r="L8" s="496"/>
+      <c r="M8" s="388"/>
+      <c r="N8" s="390"/>
+      <c r="O8" s="501"/>
+      <c r="P8" s="502"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="38" t="s">
         <v>181</v>
@@ -24044,16 +24111,16 @@
       <c r="D9" s="4"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="407"/>
-      <c r="H9" s="488"/>
-      <c r="I9" s="387"/>
-      <c r="J9" s="389"/>
-      <c r="K9" s="494"/>
-      <c r="L9" s="495"/>
-      <c r="M9" s="387"/>
-      <c r="N9" s="389"/>
-      <c r="O9" s="500"/>
-      <c r="P9" s="501"/>
+      <c r="G9" s="408"/>
+      <c r="H9" s="489"/>
+      <c r="I9" s="388"/>
+      <c r="J9" s="390"/>
+      <c r="K9" s="495"/>
+      <c r="L9" s="496"/>
+      <c r="M9" s="388"/>
+      <c r="N9" s="390"/>
+      <c r="O9" s="501"/>
+      <c r="P9" s="502"/>
       <c r="Q9" s="5" t="s">
         <v>2</v>
       </c>
@@ -24073,16 +24140,16 @@
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="407"/>
-      <c r="H10" s="488"/>
-      <c r="I10" s="387"/>
-      <c r="J10" s="389"/>
-      <c r="K10" s="494"/>
-      <c r="L10" s="495"/>
-      <c r="M10" s="387"/>
-      <c r="N10" s="389"/>
-      <c r="O10" s="500"/>
-      <c r="P10" s="501"/>
+      <c r="G10" s="408"/>
+      <c r="H10" s="489"/>
+      <c r="I10" s="388"/>
+      <c r="J10" s="390"/>
+      <c r="K10" s="495"/>
+      <c r="L10" s="496"/>
+      <c r="M10" s="388"/>
+      <c r="N10" s="390"/>
+      <c r="O10" s="501"/>
+      <c r="P10" s="502"/>
       <c r="Q10" s="5" t="s">
         <v>186</v>
       </c>
@@ -24098,16 +24165,16 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="407"/>
-      <c r="H11" s="488"/>
-      <c r="I11" s="387"/>
-      <c r="J11" s="389"/>
-      <c r="K11" s="494"/>
-      <c r="L11" s="495"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="389"/>
-      <c r="O11" s="500"/>
-      <c r="P11" s="501"/>
+      <c r="G11" s="408"/>
+      <c r="H11" s="489"/>
+      <c r="I11" s="388"/>
+      <c r="J11" s="390"/>
+      <c r="K11" s="495"/>
+      <c r="L11" s="496"/>
+      <c r="M11" s="388"/>
+      <c r="N11" s="390"/>
+      <c r="O11" s="501"/>
+      <c r="P11" s="502"/>
       <c r="Q11" s="5">
         <v>1000</v>
       </c>
@@ -24125,16 +24192,16 @@
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="407"/>
-      <c r="H12" s="488"/>
-      <c r="I12" s="387"/>
-      <c r="J12" s="389"/>
-      <c r="K12" s="494"/>
-      <c r="L12" s="495"/>
-      <c r="M12" s="387"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="500"/>
-      <c r="P12" s="501"/>
+      <c r="G12" s="408"/>
+      <c r="H12" s="489"/>
+      <c r="I12" s="388"/>
+      <c r="J12" s="390"/>
+      <c r="K12" s="495"/>
+      <c r="L12" s="496"/>
+      <c r="M12" s="388"/>
+      <c r="N12" s="390"/>
+      <c r="O12" s="501"/>
+      <c r="P12" s="502"/>
       <c r="Q12" s="5" t="s">
         <v>2</v>
       </c>
@@ -24148,16 +24215,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="407"/>
-      <c r="H13" s="488"/>
-      <c r="I13" s="387"/>
-      <c r="J13" s="389"/>
-      <c r="K13" s="494"/>
-      <c r="L13" s="495"/>
-      <c r="M13" s="387"/>
-      <c r="N13" s="389"/>
-      <c r="O13" s="500"/>
-      <c r="P13" s="501"/>
+      <c r="G13" s="408"/>
+      <c r="H13" s="489"/>
+      <c r="I13" s="388"/>
+      <c r="J13" s="390"/>
+      <c r="K13" s="495"/>
+      <c r="L13" s="496"/>
+      <c r="M13" s="388"/>
+      <c r="N13" s="390"/>
+      <c r="O13" s="501"/>
+      <c r="P13" s="502"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -24169,16 +24236,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="407"/>
-      <c r="H14" s="488"/>
-      <c r="I14" s="387"/>
-      <c r="J14" s="389"/>
-      <c r="K14" s="494"/>
-      <c r="L14" s="495"/>
-      <c r="M14" s="387"/>
-      <c r="N14" s="389"/>
-      <c r="O14" s="500"/>
-      <c r="P14" s="501"/>
+      <c r="G14" s="408"/>
+      <c r="H14" s="489"/>
+      <c r="I14" s="388"/>
+      <c r="J14" s="390"/>
+      <c r="K14" s="495"/>
+      <c r="L14" s="496"/>
+      <c r="M14" s="388"/>
+      <c r="N14" s="390"/>
+      <c r="O14" s="501"/>
+      <c r="P14" s="502"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -24192,16 +24259,16 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="407"/>
-      <c r="H15" s="488"/>
-      <c r="I15" s="387"/>
-      <c r="J15" s="389"/>
-      <c r="K15" s="494"/>
-      <c r="L15" s="495"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="389"/>
-      <c r="O15" s="500"/>
-      <c r="P15" s="501"/>
+      <c r="G15" s="408"/>
+      <c r="H15" s="489"/>
+      <c r="I15" s="388"/>
+      <c r="J15" s="390"/>
+      <c r="K15" s="495"/>
+      <c r="L15" s="496"/>
+      <c r="M15" s="388"/>
+      <c r="N15" s="390"/>
+      <c r="O15" s="501"/>
+      <c r="P15" s="502"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
@@ -24213,16 +24280,16 @@
       <c r="D16" s="4"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="407"/>
-      <c r="H16" s="488"/>
-      <c r="I16" s="387"/>
-      <c r="J16" s="389"/>
-      <c r="K16" s="494"/>
-      <c r="L16" s="495"/>
-      <c r="M16" s="387"/>
-      <c r="N16" s="389"/>
-      <c r="O16" s="500"/>
-      <c r="P16" s="501"/>
+      <c r="G16" s="408"/>
+      <c r="H16" s="489"/>
+      <c r="I16" s="388"/>
+      <c r="J16" s="390"/>
+      <c r="K16" s="495"/>
+      <c r="L16" s="496"/>
+      <c r="M16" s="388"/>
+      <c r="N16" s="390"/>
+      <c r="O16" s="501"/>
+      <c r="P16" s="502"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
@@ -24234,16 +24301,16 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="407"/>
-      <c r="H17" s="488"/>
-      <c r="I17" s="387"/>
-      <c r="J17" s="389"/>
-      <c r="K17" s="494"/>
-      <c r="L17" s="495"/>
-      <c r="M17" s="387"/>
-      <c r="N17" s="389"/>
-      <c r="O17" s="500"/>
-      <c r="P17" s="501"/>
+      <c r="G17" s="408"/>
+      <c r="H17" s="489"/>
+      <c r="I17" s="388"/>
+      <c r="J17" s="390"/>
+      <c r="K17" s="495"/>
+      <c r="L17" s="496"/>
+      <c r="M17" s="388"/>
+      <c r="N17" s="390"/>
+      <c r="O17" s="501"/>
+      <c r="P17" s="502"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
@@ -24255,16 +24322,16 @@
       <c r="D18" s="4"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="407"/>
-      <c r="H18" s="488"/>
-      <c r="I18" s="387"/>
-      <c r="J18" s="389"/>
-      <c r="K18" s="494"/>
-      <c r="L18" s="495"/>
-      <c r="M18" s="387"/>
-      <c r="N18" s="389"/>
-      <c r="O18" s="500"/>
-      <c r="P18" s="501"/>
+      <c r="G18" s="408"/>
+      <c r="H18" s="489"/>
+      <c r="I18" s="388"/>
+      <c r="J18" s="390"/>
+      <c r="K18" s="495"/>
+      <c r="L18" s="496"/>
+      <c r="M18" s="388"/>
+      <c r="N18" s="390"/>
+      <c r="O18" s="501"/>
+      <c r="P18" s="502"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
@@ -24278,16 +24345,16 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="407"/>
-      <c r="H19" s="488"/>
-      <c r="I19" s="387"/>
-      <c r="J19" s="389"/>
-      <c r="K19" s="494"/>
-      <c r="L19" s="495"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="389"/>
-      <c r="O19" s="500"/>
-      <c r="P19" s="501"/>
+      <c r="G19" s="408"/>
+      <c r="H19" s="489"/>
+      <c r="I19" s="388"/>
+      <c r="J19" s="390"/>
+      <c r="K19" s="495"/>
+      <c r="L19" s="496"/>
+      <c r="M19" s="388"/>
+      <c r="N19" s="390"/>
+      <c r="O19" s="501"/>
+      <c r="P19" s="502"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
@@ -24299,16 +24366,16 @@
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="408"/>
-      <c r="H20" s="489"/>
-      <c r="I20" s="398"/>
-      <c r="J20" s="400"/>
-      <c r="K20" s="496"/>
-      <c r="L20" s="497"/>
-      <c r="M20" s="398"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="502"/>
-      <c r="P20" s="503"/>
+      <c r="G20" s="409"/>
+      <c r="H20" s="490"/>
+      <c r="I20" s="399"/>
+      <c r="J20" s="401"/>
+      <c r="K20" s="497"/>
+      <c r="L20" s="498"/>
+      <c r="M20" s="399"/>
+      <c r="N20" s="401"/>
+      <c r="O20" s="503"/>
+      <c r="P20" s="504"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
@@ -24338,27 +24405,27 @@
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1">
       <c r="C22" s="4"/>
-      <c r="D22" s="401" t="s">
+      <c r="D22" s="402" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="402"/>
+      <c r="E22" s="403"/>
       <c r="F22" s="267"/>
       <c r="G22" s="110" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="401" t="s">
+      <c r="H22" s="402" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="403"/>
-      <c r="J22" s="403"/>
-      <c r="K22" s="403"/>
-      <c r="L22" s="403"/>
-      <c r="M22" s="403"/>
-      <c r="N22" s="402"/>
-      <c r="O22" s="401" t="s">
+      <c r="I22" s="404"/>
+      <c r="J22" s="404"/>
+      <c r="K22" s="404"/>
+      <c r="L22" s="404"/>
+      <c r="M22" s="404"/>
+      <c r="N22" s="403"/>
+      <c r="O22" s="402" t="s">
         <v>470</v>
       </c>
-      <c r="P22" s="402"/>
+      <c r="P22" s="403"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
@@ -24389,59 +24456,59 @@
       <c r="U23" s="9"/>
     </row>
     <row r="25" spans="2:22" ht="21">
-      <c r="B25" s="477" t="s">
+      <c r="B25" s="478" t="s">
         <v>992</v>
       </c>
-      <c r="C25" s="477"/>
-      <c r="D25" s="477"/>
-      <c r="E25" s="477"/>
-      <c r="F25" s="477"/>
-      <c r="G25" s="477"/>
-      <c r="H25" s="477"/>
-      <c r="I25" s="477"/>
-      <c r="J25" s="477"/>
-      <c r="K25" s="477"/>
-      <c r="L25" s="477"/>
-      <c r="M25" s="477"/>
-      <c r="N25" s="477"/>
-      <c r="O25" s="477"/>
-      <c r="P25" s="477"/>
-      <c r="Q25" s="477"/>
-      <c r="R25" s="477"/>
-      <c r="S25" s="477"/>
-      <c r="T25" s="477"/>
-      <c r="U25" s="477"/>
-      <c r="V25" s="477"/>
+      <c r="C25" s="478"/>
+      <c r="D25" s="478"/>
+      <c r="E25" s="478"/>
+      <c r="F25" s="478"/>
+      <c r="G25" s="478"/>
+      <c r="H25" s="478"/>
+      <c r="I25" s="478"/>
+      <c r="J25" s="478"/>
+      <c r="K25" s="478"/>
+      <c r="L25" s="478"/>
+      <c r="M25" s="478"/>
+      <c r="N25" s="478"/>
+      <c r="O25" s="478"/>
+      <c r="P25" s="478"/>
+      <c r="Q25" s="478"/>
+      <c r="R25" s="478"/>
+      <c r="S25" s="478"/>
+      <c r="T25" s="478"/>
+      <c r="U25" s="478"/>
+      <c r="V25" s="478"/>
     </row>
     <row r="26" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C26" s="478" t="s">
+      <c r="C26" s="479" t="s">
         <v>512</v>
       </c>
-      <c r="D26" s="478"/>
-      <c r="E26" s="478"/>
-      <c r="F26" s="478"/>
-      <c r="G26" s="478"/>
-      <c r="H26" s="478"/>
-      <c r="I26" s="478"/>
-      <c r="J26" s="478"/>
-      <c r="K26" s="478"/>
-      <c r="L26" s="478"/>
-      <c r="M26" s="478"/>
+      <c r="D26" s="479"/>
+      <c r="E26" s="479"/>
+      <c r="F26" s="479"/>
+      <c r="G26" s="479"/>
+      <c r="H26" s="479"/>
+      <c r="I26" s="479"/>
+      <c r="J26" s="479"/>
+      <c r="K26" s="479"/>
+      <c r="L26" s="479"/>
+      <c r="M26" s="479"/>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1">
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="479" t="s">
+      <c r="E27" s="480" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="382"/>
-      <c r="G27" s="382"/>
-      <c r="H27" s="391"/>
-      <c r="I27" s="391"/>
-      <c r="J27" s="391"/>
-      <c r="K27" s="391"/>
-      <c r="L27" s="391"/>
-      <c r="M27" s="392"/>
+      <c r="F27" s="383"/>
+      <c r="G27" s="383"/>
+      <c r="H27" s="392"/>
+      <c r="I27" s="392"/>
+      <c r="J27" s="392"/>
+      <c r="K27" s="392"/>
+      <c r="L27" s="392"/>
+      <c r="M27" s="393"/>
     </row>
     <row r="28" spans="2:22">
       <c r="C28" s="4" t="s">
@@ -24474,11 +24541,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="5"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="480" t="s">
+      <c r="O29" s="481" t="s">
         <v>178</v>
       </c>
-      <c r="P29" s="480"/>
-      <c r="Q29" s="480"/>
+      <c r="P29" s="481"/>
+      <c r="Q29" s="481"/>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1">
       <c r="C30" s="4"/>
@@ -24523,21 +24590,21 @@
         <v>189</v>
       </c>
       <c r="D32" s="6"/>
-      <c r="E32" s="474" t="s">
+      <c r="E32" s="475" t="s">
         <v>996</v>
       </c>
-      <c r="F32" s="475"/>
-      <c r="G32" s="476"/>
-      <c r="H32" s="474" t="s">
+      <c r="F32" s="476"/>
+      <c r="G32" s="477"/>
+      <c r="H32" s="475" t="s">
         <v>997</v>
       </c>
-      <c r="I32" s="475"/>
-      <c r="J32" s="476"/>
-      <c r="K32" s="474" t="s">
+      <c r="I32" s="476"/>
+      <c r="J32" s="477"/>
+      <c r="K32" s="475" t="s">
         <v>998</v>
       </c>
-      <c r="L32" s="475"/>
-      <c r="M32" s="476"/>
+      <c r="L32" s="476"/>
+      <c r="M32" s="477"/>
       <c r="N32" s="5" t="s">
         <v>2</v>
       </c>
@@ -24554,15 +24621,15 @@
     <row r="33" spans="2:22">
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="474"/>
-      <c r="F33" s="475"/>
-      <c r="G33" s="476"/>
-      <c r="H33" s="474"/>
-      <c r="I33" s="475"/>
-      <c r="J33" s="476"/>
-      <c r="K33" s="474"/>
-      <c r="L33" s="475"/>
-      <c r="M33" s="476"/>
+      <c r="E33" s="475"/>
+      <c r="F33" s="476"/>
+      <c r="G33" s="477"/>
+      <c r="H33" s="475"/>
+      <c r="I33" s="476"/>
+      <c r="J33" s="477"/>
+      <c r="K33" s="475"/>
+      <c r="L33" s="476"/>
+      <c r="M33" s="477"/>
       <c r="N33" s="5" t="s">
         <v>186</v>
       </c>
@@ -24579,15 +24646,15 @@
     <row r="34" spans="2:22" ht="15.75" thickBot="1">
       <c r="C34" s="8"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="474"/>
-      <c r="F34" s="475"/>
-      <c r="G34" s="476"/>
-      <c r="H34" s="474"/>
-      <c r="I34" s="475"/>
-      <c r="J34" s="476"/>
-      <c r="K34" s="474"/>
-      <c r="L34" s="475"/>
-      <c r="M34" s="476"/>
+      <c r="E34" s="475"/>
+      <c r="F34" s="476"/>
+      <c r="G34" s="477"/>
+      <c r="H34" s="475"/>
+      <c r="I34" s="476"/>
+      <c r="J34" s="477"/>
+      <c r="K34" s="475"/>
+      <c r="L34" s="476"/>
+      <c r="M34" s="477"/>
       <c r="N34" s="5">
         <v>1000</v>
       </c>
@@ -24598,15 +24665,15 @@
     <row r="35" spans="2:22">
       <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="474"/>
-      <c r="F35" s="475"/>
-      <c r="G35" s="476"/>
-      <c r="H35" s="474"/>
-      <c r="I35" s="475"/>
-      <c r="J35" s="476"/>
-      <c r="K35" s="474"/>
-      <c r="L35" s="475"/>
-      <c r="M35" s="476"/>
+      <c r="E35" s="475"/>
+      <c r="F35" s="476"/>
+      <c r="G35" s="477"/>
+      <c r="H35" s="475"/>
+      <c r="I35" s="476"/>
+      <c r="J35" s="477"/>
+      <c r="K35" s="475"/>
+      <c r="L35" s="476"/>
+      <c r="M35" s="477"/>
       <c r="N35" s="5" t="s">
         <v>2</v>
       </c>
@@ -24737,15 +24804,15 @@
     <row r="42" spans="2:22" ht="19.5" thickBot="1">
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="467"/>
-      <c r="F42" s="468"/>
-      <c r="G42" s="468"/>
-      <c r="H42" s="468"/>
-      <c r="I42" s="468"/>
-      <c r="J42" s="468"/>
-      <c r="K42" s="468"/>
-      <c r="L42" s="468"/>
-      <c r="M42" s="469"/>
+      <c r="E42" s="468"/>
+      <c r="F42" s="469"/>
+      <c r="G42" s="469"/>
+      <c r="H42" s="469"/>
+      <c r="I42" s="469"/>
+      <c r="J42" s="469"/>
+      <c r="K42" s="469"/>
+      <c r="L42" s="469"/>
+      <c r="M42" s="470"/>
       <c r="N42" s="40" t="s">
         <v>517</v>
       </c>
@@ -24764,83 +24831,97 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C44" s="401" t="s">
+      <c r="C44" s="402" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="402"/>
-      <c r="E44" s="401" t="s">
+      <c r="D44" s="403"/>
+      <c r="E44" s="402" t="s">
         <v>194</v>
       </c>
-      <c r="F44" s="403"/>
-      <c r="G44" s="402"/>
-      <c r="H44" s="401" t="s">
+      <c r="F44" s="404"/>
+      <c r="G44" s="403"/>
+      <c r="H44" s="402" t="s">
         <v>195</v>
       </c>
-      <c r="I44" s="403"/>
-      <c r="J44" s="403"/>
-      <c r="K44" s="403"/>
-      <c r="L44" s="403"/>
-      <c r="M44" s="402"/>
+      <c r="I44" s="404"/>
+      <c r="J44" s="404"/>
+      <c r="K44" s="404"/>
+      <c r="L44" s="404"/>
+      <c r="M44" s="403"/>
       <c r="Q44" t="s">
         <v>995</v>
       </c>
     </row>
+    <row r="45" spans="2:22">
+      <c r="C45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1664</v>
+      </c>
+    </row>
     <row r="47" spans="2:22" ht="21">
-      <c r="B47" s="477" t="s">
+      <c r="B47" s="478" t="s">
         <v>994</v>
       </c>
-      <c r="C47" s="477"/>
-      <c r="D47" s="477"/>
-      <c r="E47" s="477"/>
-      <c r="F47" s="477"/>
-      <c r="G47" s="477"/>
-      <c r="H47" s="477"/>
-      <c r="I47" s="477"/>
-      <c r="J47" s="477"/>
-      <c r="K47" s="477"/>
-      <c r="L47" s="477"/>
-      <c r="M47" s="477"/>
-      <c r="N47" s="477"/>
-      <c r="O47" s="477"/>
-      <c r="P47" s="477"/>
-      <c r="Q47" s="477"/>
-      <c r="R47" s="477"/>
-      <c r="S47" s="477"/>
-      <c r="T47" s="477"/>
-      <c r="U47" s="477"/>
-      <c r="V47" s="477"/>
+      <c r="C47" s="478"/>
+      <c r="D47" s="478"/>
+      <c r="E47" s="478"/>
+      <c r="F47" s="478"/>
+      <c r="G47" s="478"/>
+      <c r="H47" s="478"/>
+      <c r="I47" s="478"/>
+      <c r="J47" s="478"/>
+      <c r="K47" s="478"/>
+      <c r="L47" s="478"/>
+      <c r="M47" s="478"/>
+      <c r="N47" s="478"/>
+      <c r="O47" s="478"/>
+      <c r="P47" s="478"/>
+      <c r="Q47" s="478"/>
+      <c r="R47" s="478"/>
+      <c r="S47" s="478"/>
+      <c r="T47" s="478"/>
+      <c r="U47" s="478"/>
+      <c r="V47" s="478"/>
     </row>
     <row r="48" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C48" s="478" t="s">
+      <c r="C48" s="479" t="s">
         <v>512</v>
       </c>
-      <c r="D48" s="478"/>
-      <c r="E48" s="478"/>
-      <c r="F48" s="478"/>
-      <c r="G48" s="478"/>
-      <c r="H48" s="478"/>
-      <c r="I48" s="478"/>
-      <c r="J48" s="478"/>
-      <c r="K48" s="478"/>
-      <c r="L48" s="478"/>
-      <c r="M48" s="478"/>
+      <c r="D48" s="479"/>
+      <c r="E48" s="479"/>
+      <c r="F48" s="479"/>
+      <c r="G48" s="479"/>
+      <c r="H48" s="479"/>
+      <c r="I48" s="479"/>
+      <c r="J48" s="479"/>
+      <c r="K48" s="479"/>
+      <c r="L48" s="479"/>
+      <c r="M48" s="479"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
     <row r="49" spans="1:24" ht="15.75" thickBot="1">
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="479" t="s">
+      <c r="E49" s="480" t="s">
         <v>177</v>
       </c>
-      <c r="F49" s="382"/>
-      <c r="G49" s="382"/>
-      <c r="H49" s="391"/>
-      <c r="I49" s="391"/>
-      <c r="J49" s="391"/>
-      <c r="K49" s="391"/>
-      <c r="L49" s="391"/>
-      <c r="M49" s="392"/>
+      <c r="F49" s="383"/>
+      <c r="G49" s="383"/>
+      <c r="H49" s="392"/>
+      <c r="I49" s="392"/>
+      <c r="J49" s="392"/>
+      <c r="K49" s="392"/>
+      <c r="L49" s="392"/>
+      <c r="M49" s="393"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="18"/>
@@ -24857,17 +24938,19 @@
         <v>1011</v>
       </c>
       <c r="F50" s="122"/>
-      <c r="G50" s="247"/>
-      <c r="H50" s="482" t="s">
+      <c r="G50" s="247" t="s">
+        <v>1665</v>
+      </c>
+      <c r="H50" s="483" t="s">
         <v>997</v>
       </c>
-      <c r="I50" s="483"/>
-      <c r="J50" s="484"/>
-      <c r="K50" s="482" t="s">
+      <c r="I50" s="484"/>
+      <c r="J50" s="485"/>
+      <c r="K50" s="483" t="s">
         <v>998</v>
       </c>
-      <c r="L50" s="483"/>
-      <c r="M50" s="484"/>
+      <c r="L50" s="484"/>
+      <c r="M50" s="485"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
       <c r="W50" t="s">
@@ -24881,20 +24964,20 @@
         <v>1012</v>
       </c>
       <c r="F51" s="288"/>
-      <c r="G51" s="485" t="s">
+      <c r="G51" s="486" t="s">
         <v>1020</v>
       </c>
-      <c r="H51" s="474"/>
-      <c r="I51" s="475"/>
-      <c r="J51" s="476"/>
-      <c r="K51" s="474"/>
-      <c r="L51" s="475"/>
-      <c r="M51" s="476"/>
-      <c r="O51" s="480" t="s">
+      <c r="H51" s="475"/>
+      <c r="I51" s="476"/>
+      <c r="J51" s="477"/>
+      <c r="K51" s="475"/>
+      <c r="L51" s="476"/>
+      <c r="M51" s="477"/>
+      <c r="O51" s="481" t="s">
         <v>178</v>
       </c>
-      <c r="P51" s="480"/>
-      <c r="Q51" s="480"/>
+      <c r="P51" s="481"/>
+      <c r="Q51" s="481"/>
       <c r="S51" s="275"/>
       <c r="T51" s="275"/>
       <c r="W51" s="40" t="s">
@@ -24908,13 +24991,13 @@
         <v>1013</v>
       </c>
       <c r="F52" s="289"/>
-      <c r="G52" s="485"/>
-      <c r="H52" s="474"/>
-      <c r="I52" s="475"/>
-      <c r="J52" s="476"/>
-      <c r="K52" s="474"/>
-      <c r="L52" s="475"/>
-      <c r="M52" s="476"/>
+      <c r="G52" s="486"/>
+      <c r="H52" s="475"/>
+      <c r="I52" s="476"/>
+      <c r="J52" s="477"/>
+      <c r="K52" s="475"/>
+      <c r="L52" s="476"/>
+      <c r="M52" s="477"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
@@ -24925,13 +25008,13 @@
         <v>1014</v>
       </c>
       <c r="F53" s="290"/>
-      <c r="G53" s="485"/>
-      <c r="H53" s="474"/>
-      <c r="I53" s="475"/>
-      <c r="J53" s="476"/>
-      <c r="K53" s="474"/>
-      <c r="L53" s="475"/>
-      <c r="M53" s="476"/>
+      <c r="G53" s="486"/>
+      <c r="H53" s="475"/>
+      <c r="I53" s="476"/>
+      <c r="J53" s="477"/>
+      <c r="K53" s="475"/>
+      <c r="L53" s="476"/>
+      <c r="M53" s="477"/>
       <c r="N53" s="5"/>
       <c r="O53" s="38" t="s">
         <v>181</v>
@@ -24970,7 +25053,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="276"/>
       <c r="F54" s="291"/>
-      <c r="G54" s="472" t="s">
+      <c r="G54" s="473" t="s">
         <v>1024</v>
       </c>
       <c r="H54" s="4" t="s">
@@ -25017,11 +25100,11 @@
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="470" t="s">
+      <c r="E55" s="471" t="s">
         <v>1025</v>
       </c>
-      <c r="F55" s="471"/>
-      <c r="G55" s="473"/>
+      <c r="F55" s="472"/>
+      <c r="G55" s="474"/>
       <c r="H55" s="140" t="s">
         <v>1016</v>
       </c>
@@ -25065,9 +25148,9 @@
     <row r="56" spans="1:24" ht="15.75" customHeight="1" thickBot="1">
       <c r="C56" s="8"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="470"/>
-      <c r="F56" s="471"/>
-      <c r="G56" s="473"/>
+      <c r="E56" s="471"/>
+      <c r="F56" s="472"/>
+      <c r="G56" s="474"/>
       <c r="H56" s="140" t="s">
         <v>1017</v>
       </c>
@@ -25097,9 +25180,9 @@
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="470"/>
-      <c r="F57" s="471"/>
-      <c r="G57" s="473"/>
+      <c r="E57" s="471"/>
+      <c r="F57" s="472"/>
+      <c r="G57" s="474"/>
       <c r="H57" s="4" t="s">
         <v>1029</v>
       </c>
@@ -25129,9 +25212,9 @@
         <v>191</v>
       </c>
       <c r="D58" s="6"/>
-      <c r="E58" s="470"/>
-      <c r="F58" s="471"/>
-      <c r="G58" s="473"/>
+      <c r="E58" s="471"/>
+      <c r="F58" s="472"/>
+      <c r="G58" s="474"/>
       <c r="H58" s="280" t="s">
         <v>1015</v>
       </c>
@@ -25156,9 +25239,9 @@
     <row r="59" spans="1:24">
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="470"/>
-      <c r="F59" s="471"/>
-      <c r="G59" s="473"/>
+      <c r="E59" s="471"/>
+      <c r="F59" s="472"/>
+      <c r="G59" s="474"/>
       <c r="H59" s="280" t="s">
         <v>491</v>
       </c>
@@ -25183,9 +25266,9 @@
     <row r="60" spans="1:24" ht="15.75" thickBot="1">
       <c r="C60" s="8"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="470"/>
-      <c r="F60" s="471"/>
-      <c r="G60" s="473"/>
+      <c r="E60" s="471"/>
+      <c r="F60" s="472"/>
+      <c r="G60" s="474"/>
       <c r="H60" s="282"/>
       <c r="I60" s="283" t="s">
         <v>1031</v>
@@ -25205,9 +25288,9 @@
     <row r="61" spans="1:24">
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="470"/>
-      <c r="F61" s="471"/>
-      <c r="G61" s="473"/>
+      <c r="E61" s="471"/>
+      <c r="F61" s="472"/>
+      <c r="G61" s="474"/>
       <c r="H61" s="282"/>
       <c r="I61" s="283" t="s">
         <v>1032</v>
@@ -25227,7 +25310,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="271"/>
       <c r="F62" s="287"/>
-      <c r="G62" s="473"/>
+      <c r="G62" s="474"/>
       <c r="H62" s="284"/>
       <c r="I62" s="286" t="s">
         <v>1033</v>
@@ -25269,15 +25352,17 @@
     <row r="64" spans="1:24" ht="19.5" thickBot="1">
       <c r="C64" s="8"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="467"/>
-      <c r="F64" s="468"/>
-      <c r="G64" s="468"/>
-      <c r="H64" s="468"/>
-      <c r="I64" s="468"/>
-      <c r="J64" s="468"/>
-      <c r="K64" s="468"/>
-      <c r="L64" s="468"/>
-      <c r="M64" s="469"/>
+      <c r="E64" s="468" t="s">
+        <v>1666</v>
+      </c>
+      <c r="F64" s="469"/>
+      <c r="G64" s="469"/>
+      <c r="H64" s="469"/>
+      <c r="I64" s="469"/>
+      <c r="J64" s="469"/>
+      <c r="K64" s="469"/>
+      <c r="L64" s="469"/>
+      <c r="M64" s="470"/>
       <c r="N64" s="40" t="s">
         <v>517</v>
       </c>
@@ -25306,23 +25391,23 @@
       </c>
     </row>
     <row r="66" spans="2:24" ht="15.75" thickBot="1">
-      <c r="C66" s="401" t="s">
+      <c r="C66" s="402" t="s">
         <v>193</v>
       </c>
-      <c r="D66" s="402"/>
-      <c r="E66" s="401" t="s">
+      <c r="D66" s="403"/>
+      <c r="E66" s="402" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="403"/>
-      <c r="G66" s="402"/>
-      <c r="H66" s="401" t="s">
+      <c r="F66" s="404"/>
+      <c r="G66" s="403"/>
+      <c r="H66" s="402" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="403"/>
-      <c r="J66" s="403"/>
-      <c r="K66" s="403"/>
-      <c r="L66" s="403"/>
-      <c r="M66" s="402"/>
+      <c r="I66" s="404"/>
+      <c r="J66" s="404"/>
+      <c r="K66" s="404"/>
+      <c r="L66" s="404"/>
+      <c r="M66" s="403"/>
       <c r="Q66" t="s">
         <v>995</v>
       </c>
@@ -25343,23 +25428,23 @@
       </c>
     </row>
     <row r="68" spans="2:24">
-      <c r="C68" s="452" t="s">
+      <c r="C68" s="453" t="s">
         <v>180</v>
       </c>
-      <c r="D68" s="452"/>
-      <c r="E68" s="452" t="s">
+      <c r="D68" s="453"/>
+      <c r="E68" s="453" t="s">
         <v>1245</v>
       </c>
-      <c r="F68" s="452"/>
-      <c r="G68" s="452"/>
-      <c r="H68" s="452" t="s">
+      <c r="F68" s="453"/>
+      <c r="G68" s="453"/>
+      <c r="H68" s="453" t="s">
         <v>1261</v>
       </c>
-      <c r="I68" s="452"/>
-      <c r="J68" s="452"/>
-      <c r="K68" s="452"/>
-      <c r="L68" s="452"/>
-      <c r="M68" s="452"/>
+      <c r="I68" s="453"/>
+      <c r="J68" s="453"/>
+      <c r="K68" s="453"/>
+      <c r="L68" s="453"/>
+      <c r="M68" s="453"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
       <c r="U68" s="2" t="s">
@@ -26229,12 +26314,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="504" t="s">
+      <c r="B1" s="505" t="s">
         <v>480</v>
       </c>
-      <c r="C1" s="504"/>
-      <c r="D1" s="504"/>
-      <c r="E1" s="504"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
       <c r="I1" s="40" t="s">
         <v>493</v>
       </c>
@@ -26351,12 +26436,12 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="443" t="s">
+      <c r="B8" s="444" t="s">
         <v>1283</v>
       </c>
-      <c r="C8" s="443"/>
-      <c r="D8" s="443"/>
-      <c r="E8" s="443"/>
+      <c r="C8" s="444"/>
+      <c r="D8" s="444"/>
+      <c r="E8" s="444"/>
       <c r="J8" s="32" t="s">
         <v>496</v>
       </c>
@@ -26520,45 +26605,45 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:P24"/>
+  <dimension ref="A2:R81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1">
-      <c r="C2" s="478" t="s">
+      <c r="C2" s="479" t="s">
         <v>512</v>
       </c>
-      <c r="D2" s="478"/>
-      <c r="E2" s="478"/>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
-      <c r="K2" s="478"/>
-      <c r="L2" s="478"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="479"/>
+      <c r="F2" s="479"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="479"/>
+      <c r="I2" s="479"/>
+      <c r="J2" s="479"/>
+      <c r="K2" s="479"/>
+      <c r="L2" s="479"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="479" t="s">
+      <c r="E3" s="480" t="s">
         <v>177</v>
       </c>
-      <c r="F3" s="382"/>
-      <c r="G3" s="391"/>
-      <c r="H3" s="391"/>
-      <c r="I3" s="391"/>
-      <c r="J3" s="391"/>
-      <c r="K3" s="391"/>
-      <c r="L3" s="392"/>
+      <c r="F3" s="383"/>
+      <c r="G3" s="392"/>
+      <c r="H3" s="392"/>
+      <c r="I3" s="392"/>
+      <c r="J3" s="392"/>
+      <c r="K3" s="392"/>
+      <c r="L3" s="393"/>
     </row>
     <row r="4" spans="1:16">
       <c r="C4" s="4" t="s">
-        <v>180</v>
+        <v>1667</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
@@ -26585,11 +26670,11 @@
         <v>531</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="N5" s="480" t="s">
+      <c r="N5" s="481" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="480"/>
-      <c r="P5" s="480"/>
+      <c r="O5" s="481"/>
+      <c r="P5" s="481"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
       <c r="C6" s="4"/>
@@ -26640,20 +26725,20 @@
         <v>189</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="474" t="s">
+      <c r="E8" s="475" t="s">
         <v>513</v>
       </c>
-      <c r="F8" s="476"/>
-      <c r="G8" s="474" t="s">
+      <c r="F8" s="477"/>
+      <c r="G8" s="475" t="s">
         <v>514</v>
       </c>
-      <c r="H8" s="475"/>
-      <c r="I8" s="476"/>
-      <c r="J8" s="474" t="s">
+      <c r="H8" s="476"/>
+      <c r="I8" s="477"/>
+      <c r="J8" s="475" t="s">
         <v>515</v>
       </c>
-      <c r="K8" s="475"/>
-      <c r="L8" s="476"/>
+      <c r="K8" s="476"/>
+      <c r="L8" s="477"/>
       <c r="M8" s="5" t="s">
         <v>2</v>
       </c>
@@ -26676,14 +26761,14 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="474"/>
-      <c r="F9" s="476"/>
-      <c r="G9" s="474"/>
-      <c r="H9" s="475"/>
-      <c r="I9" s="476"/>
-      <c r="J9" s="474"/>
-      <c r="K9" s="475"/>
-      <c r="L9" s="476"/>
+      <c r="E9" s="475"/>
+      <c r="F9" s="477"/>
+      <c r="G9" s="475"/>
+      <c r="H9" s="476"/>
+      <c r="I9" s="477"/>
+      <c r="J9" s="475"/>
+      <c r="K9" s="476"/>
+      <c r="L9" s="477"/>
       <c r="M9" s="5" t="s">
         <v>186</v>
       </c>
@@ -26703,14 +26788,14 @@
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="474"/>
-      <c r="F10" s="476"/>
-      <c r="G10" s="474"/>
-      <c r="H10" s="475"/>
-      <c r="I10" s="476"/>
-      <c r="J10" s="474"/>
-      <c r="K10" s="475"/>
-      <c r="L10" s="476"/>
+      <c r="E10" s="475"/>
+      <c r="F10" s="477"/>
+      <c r="G10" s="475"/>
+      <c r="H10" s="476"/>
+      <c r="I10" s="477"/>
+      <c r="J10" s="475"/>
+      <c r="K10" s="476"/>
+      <c r="L10" s="477"/>
       <c r="M10" s="5">
         <v>1000</v>
       </c>
@@ -26724,14 +26809,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="474"/>
-      <c r="F11" s="476"/>
-      <c r="G11" s="474"/>
-      <c r="H11" s="475"/>
-      <c r="I11" s="476"/>
-      <c r="J11" s="474"/>
-      <c r="K11" s="475"/>
-      <c r="L11" s="476"/>
+      <c r="E11" s="475"/>
+      <c r="F11" s="477"/>
+      <c r="G11" s="475"/>
+      <c r="H11" s="476"/>
+      <c r="I11" s="477"/>
+      <c r="J11" s="475"/>
+      <c r="K11" s="476"/>
+      <c r="L11" s="477"/>
       <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
@@ -26831,26 +26916,26 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="3:15" ht="19.5" thickBot="1">
+    <row r="17" spans="2:18" ht="19.5" thickBot="1">
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="467" t="s">
+      <c r="E17" s="468" t="s">
         <v>516</v>
       </c>
-      <c r="F17" s="468"/>
-      <c r="G17" s="468"/>
-      <c r="H17" s="468"/>
-      <c r="I17" s="468"/>
-      <c r="J17" s="468"/>
-      <c r="K17" s="468"/>
-      <c r="L17" s="469"/>
+      <c r="F17" s="469"/>
+      <c r="G17" s="469"/>
+      <c r="H17" s="469"/>
+      <c r="I17" s="469"/>
+      <c r="J17" s="469"/>
+      <c r="K17" s="469"/>
+      <c r="L17" s="470"/>
       <c r="M17" s="40" t="s">
         <v>517</v>
       </c>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
     </row>
-    <row r="18" spans="3:15" ht="15.75" thickBot="1">
+    <row r="18" spans="2:18" ht="15.75" thickBot="1">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -26860,41 +26945,41 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C19" s="401" t="s">
+    <row r="19" spans="2:18" ht="15.75" thickBot="1">
+      <c r="C19" s="402" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="402"/>
-      <c r="E19" s="401" t="s">
+      <c r="D19" s="403"/>
+      <c r="E19" s="402" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="402"/>
-      <c r="G19" s="401" t="s">
+      <c r="F19" s="403"/>
+      <c r="G19" s="402" t="s">
         <v>195</v>
       </c>
-      <c r="H19" s="403"/>
-      <c r="I19" s="403"/>
-      <c r="J19" s="403"/>
-      <c r="K19" s="403"/>
-      <c r="L19" s="402"/>
-    </row>
-    <row r="20" spans="3:15" ht="15.75" thickBot="1"/>
-    <row r="21" spans="3:15" ht="15" customHeight="1">
-      <c r="E21" s="505" t="s">
+      <c r="H19" s="404"/>
+      <c r="I19" s="404"/>
+      <c r="J19" s="404"/>
+      <c r="K19" s="404"/>
+      <c r="L19" s="403"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="21" spans="2:18" ht="15" customHeight="1">
+      <c r="E21" s="506" t="s">
         <v>1274</v>
       </c>
-      <c r="F21" s="506"/>
-    </row>
-    <row r="22" spans="3:15">
-      <c r="E22" s="507"/>
-      <c r="F22" s="508"/>
+      <c r="F21" s="507"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="E22" s="508"/>
+      <c r="F22" s="509"/>
       <c r="J22" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
-      <c r="E23" s="507"/>
-      <c r="F23" s="508"/>
+    <row r="23" spans="2:18">
+      <c r="E23" s="508"/>
+      <c r="F23" s="509"/>
       <c r="H23" t="s">
         <v>1295</v>
       </c>
@@ -26905,9 +26990,780 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="24" spans="3:15" ht="15.75" thickBot="1">
-      <c r="E24" s="509"/>
-      <c r="F24" s="510"/>
+    <row r="24" spans="2:18" ht="15.75" thickBot="1">
+      <c r="E24" s="510"/>
+      <c r="F24" s="511"/>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="26" spans="2:18" ht="15.75" thickBot="1">
+      <c r="G26" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B27" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5" t="s">
+        <v>1671</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="5" t="s">
+        <v>1672</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="2:18" ht="15.75" thickBot="1">
+      <c r="B30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="2:18" ht="15.75" thickBot="1">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="5" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1">
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="B37" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="5" t="s">
+        <v>1679</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B40" s="8"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" thickBot="1">
+      <c r="G42" s="8"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="9"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="L44" s="546" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" thickBot="1">
+      <c r="L45" s="546" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3"/>
+      <c r="G46" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="L46" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A47" s="4"/>
+      <c r="B47" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
+      <c r="J48" t="s">
+        <v>479</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
+      <c r="L49" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A52" s="8"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" thickBot="1">
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A54" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A55" s="4"/>
+      <c r="B55" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
+      <c r="L55" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="J56" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="6"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="6"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
+      <c r="L58" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A60" s="8"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" thickBot="1">
+      <c r="G61" s="8"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="9"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="L64" s="546" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" thickBot="1">
+      <c r="L65" s="546" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A66" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3"/>
+      <c r="G66" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3"/>
+      <c r="L66" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A67" s="4"/>
+      <c r="B67" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="6"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="6"/>
+      <c r="J68" t="s">
+        <v>479</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="6"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="6"/>
+      <c r="L69" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N69" s="6"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="6"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="N70" s="6"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="6"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="N71" s="6"/>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A72" s="8"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="9"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="6"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="N72" s="6"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" thickBot="1">
+      <c r="G73" s="4"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="6"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="6"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="6"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="6"/>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A75" s="4"/>
+      <c r="B75" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="6"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="6"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="J76" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L76" s="4"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="6"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="6"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="6"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="6"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="6"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="6"/>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A80" s="8"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="9"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="6"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G81" s="8"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="9"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -27631,22 +28487,22 @@
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="481" t="s">
+      <c r="E3" s="482" t="s">
         <v>460</v>
       </c>
-      <c r="F3" s="481"/>
-      <c r="G3" s="481" t="s">
+      <c r="F3" s="482"/>
+      <c r="G3" s="482" t="s">
         <v>461</v>
       </c>
-      <c r="H3" s="481"/>
-      <c r="I3" s="481"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="481"/>
-      <c r="L3" s="481"/>
-      <c r="M3" s="481" t="s">
+      <c r="H3" s="482"/>
+      <c r="I3" s="482"/>
+      <c r="J3" s="482"/>
+      <c r="K3" s="482"/>
+      <c r="L3" s="482"/>
+      <c r="M3" s="482" t="s">
         <v>462</v>
       </c>
-      <c r="N3" s="481"/>
+      <c r="N3" s="482"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -27657,7 +28513,7 @@
       <c r="B4" s="4"/>
       <c r="C4" s="134"/>
       <c r="D4" s="135"/>
-      <c r="E4" s="486" t="s">
+      <c r="E4" s="487" t="s">
         <v>463</v>
       </c>
       <c r="F4" s="130"/>
@@ -27685,22 +28541,22 @@
         <v>180</v>
       </c>
       <c r="D5" s="137"/>
-      <c r="E5" s="407"/>
-      <c r="F5" s="418" t="s">
+      <c r="E5" s="408"/>
+      <c r="F5" s="419" t="s">
         <v>559</v>
       </c>
-      <c r="G5" s="419"/>
-      <c r="H5" s="420"/>
-      <c r="I5" s="511" t="s">
+      <c r="G5" s="420"/>
+      <c r="H5" s="421"/>
+      <c r="I5" s="512" t="s">
         <v>560</v>
       </c>
-      <c r="J5" s="512"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="493"/>
-      <c r="M5" s="511" t="s">
+      <c r="J5" s="513"/>
+      <c r="K5" s="513"/>
+      <c r="L5" s="494"/>
+      <c r="M5" s="512" t="s">
         <v>561</v>
       </c>
-      <c r="N5" s="493"/>
+      <c r="N5" s="494"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -27711,16 +28567,16 @@
       <c r="B6" s="4"/>
       <c r="C6" s="138"/>
       <c r="D6" s="139"/>
-      <c r="E6" s="407"/>
-      <c r="F6" s="421"/>
-      <c r="G6" s="422"/>
-      <c r="H6" s="423"/>
-      <c r="I6" s="494"/>
-      <c r="J6" s="513"/>
-      <c r="K6" s="513"/>
-      <c r="L6" s="495"/>
-      <c r="M6" s="494"/>
-      <c r="N6" s="495"/>
+      <c r="E6" s="408"/>
+      <c r="F6" s="422"/>
+      <c r="G6" s="423"/>
+      <c r="H6" s="424"/>
+      <c r="I6" s="495"/>
+      <c r="J6" s="514"/>
+      <c r="K6" s="514"/>
+      <c r="L6" s="496"/>
+      <c r="M6" s="495"/>
+      <c r="N6" s="496"/>
       <c r="O6" s="5"/>
       <c r="P6" s="38" t="s">
         <v>181</v>
@@ -27737,16 +28593,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="407"/>
-      <c r="F7" s="421"/>
-      <c r="G7" s="422"/>
-      <c r="H7" s="423"/>
-      <c r="I7" s="494"/>
-      <c r="J7" s="513"/>
-      <c r="K7" s="513"/>
-      <c r="L7" s="495"/>
-      <c r="M7" s="494"/>
-      <c r="N7" s="495"/>
+      <c r="E7" s="408"/>
+      <c r="F7" s="422"/>
+      <c r="G7" s="423"/>
+      <c r="H7" s="424"/>
+      <c r="I7" s="495"/>
+      <c r="J7" s="514"/>
+      <c r="K7" s="514"/>
+      <c r="L7" s="496"/>
+      <c r="M7" s="495"/>
+      <c r="N7" s="496"/>
       <c r="O7" s="5" t="s">
         <v>2</v>
       </c>
@@ -27765,16 +28621,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="407"/>
-      <c r="F8" s="421"/>
-      <c r="G8" s="422"/>
-      <c r="H8" s="423"/>
-      <c r="I8" s="494"/>
-      <c r="J8" s="513"/>
-      <c r="K8" s="513"/>
-      <c r="L8" s="495"/>
-      <c r="M8" s="494"/>
-      <c r="N8" s="495"/>
+      <c r="E8" s="408"/>
+      <c r="F8" s="422"/>
+      <c r="G8" s="423"/>
+      <c r="H8" s="424"/>
+      <c r="I8" s="495"/>
+      <c r="J8" s="514"/>
+      <c r="K8" s="514"/>
+      <c r="L8" s="496"/>
+      <c r="M8" s="495"/>
+      <c r="N8" s="496"/>
       <c r="O8" s="5" t="s">
         <v>186</v>
       </c>
@@ -27795,16 +28651,16 @@
         <v>189</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="407"/>
-      <c r="F9" s="421"/>
-      <c r="G9" s="422"/>
-      <c r="H9" s="423"/>
-      <c r="I9" s="494"/>
-      <c r="J9" s="513"/>
-      <c r="K9" s="513"/>
-      <c r="L9" s="495"/>
-      <c r="M9" s="494"/>
-      <c r="N9" s="495"/>
+      <c r="E9" s="408"/>
+      <c r="F9" s="422"/>
+      <c r="G9" s="423"/>
+      <c r="H9" s="424"/>
+      <c r="I9" s="495"/>
+      <c r="J9" s="514"/>
+      <c r="K9" s="514"/>
+      <c r="L9" s="496"/>
+      <c r="M9" s="495"/>
+      <c r="N9" s="496"/>
       <c r="O9" s="5">
         <v>1000</v>
       </c>
@@ -27821,16 +28677,16 @@
         <v>479</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="407"/>
-      <c r="F10" s="421"/>
-      <c r="G10" s="422"/>
-      <c r="H10" s="423"/>
-      <c r="I10" s="494"/>
-      <c r="J10" s="513"/>
-      <c r="K10" s="513"/>
-      <c r="L10" s="495"/>
-      <c r="M10" s="494"/>
-      <c r="N10" s="495"/>
+      <c r="E10" s="408"/>
+      <c r="F10" s="422"/>
+      <c r="G10" s="423"/>
+      <c r="H10" s="424"/>
+      <c r="I10" s="495"/>
+      <c r="J10" s="514"/>
+      <c r="K10" s="514"/>
+      <c r="L10" s="496"/>
+      <c r="M10" s="495"/>
+      <c r="N10" s="496"/>
       <c r="O10" s="5" t="s">
         <v>2</v>
       </c>
@@ -27843,16 +28699,16 @@
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="407"/>
-      <c r="F11" s="421"/>
-      <c r="G11" s="422"/>
-      <c r="H11" s="423"/>
-      <c r="I11" s="494"/>
-      <c r="J11" s="513"/>
-      <c r="K11" s="513"/>
-      <c r="L11" s="495"/>
-      <c r="M11" s="494"/>
-      <c r="N11" s="495"/>
+      <c r="E11" s="408"/>
+      <c r="F11" s="422"/>
+      <c r="G11" s="423"/>
+      <c r="H11" s="424"/>
+      <c r="I11" s="495"/>
+      <c r="J11" s="514"/>
+      <c r="K11" s="514"/>
+      <c r="L11" s="496"/>
+      <c r="M11" s="495"/>
+      <c r="N11" s="496"/>
       <c r="O11" s="5"/>
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
@@ -27863,16 +28719,16 @@
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="407"/>
-      <c r="F12" s="421"/>
-      <c r="G12" s="422"/>
-      <c r="H12" s="423"/>
-      <c r="I12" s="494"/>
-      <c r="J12" s="513"/>
-      <c r="K12" s="513"/>
-      <c r="L12" s="495"/>
-      <c r="M12" s="494"/>
-      <c r="N12" s="495"/>
+      <c r="E12" s="408"/>
+      <c r="F12" s="422"/>
+      <c r="G12" s="423"/>
+      <c r="H12" s="424"/>
+      <c r="I12" s="495"/>
+      <c r="J12" s="514"/>
+      <c r="K12" s="514"/>
+      <c r="L12" s="496"/>
+      <c r="M12" s="495"/>
+      <c r="N12" s="496"/>
       <c r="O12" s="5"/>
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
@@ -27885,16 +28741,16 @@
         <v>191</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="407"/>
-      <c r="F13" s="421"/>
-      <c r="G13" s="422"/>
-      <c r="H13" s="423"/>
-      <c r="I13" s="494"/>
-      <c r="J13" s="513"/>
-      <c r="K13" s="513"/>
-      <c r="L13" s="495"/>
-      <c r="M13" s="494"/>
-      <c r="N13" s="495"/>
+      <c r="E13" s="408"/>
+      <c r="F13" s="422"/>
+      <c r="G13" s="423"/>
+      <c r="H13" s="424"/>
+      <c r="I13" s="495"/>
+      <c r="J13" s="514"/>
+      <c r="K13" s="514"/>
+      <c r="L13" s="496"/>
+      <c r="M13" s="495"/>
+      <c r="N13" s="496"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
@@ -27905,16 +28761,16 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="407"/>
-      <c r="F14" s="421"/>
-      <c r="G14" s="422"/>
-      <c r="H14" s="423"/>
-      <c r="I14" s="494"/>
-      <c r="J14" s="513"/>
-      <c r="K14" s="513"/>
-      <c r="L14" s="495"/>
-      <c r="M14" s="494"/>
-      <c r="N14" s="495"/>
+      <c r="E14" s="408"/>
+      <c r="F14" s="422"/>
+      <c r="G14" s="423"/>
+      <c r="H14" s="424"/>
+      <c r="I14" s="495"/>
+      <c r="J14" s="514"/>
+      <c r="K14" s="514"/>
+      <c r="L14" s="496"/>
+      <c r="M14" s="495"/>
+      <c r="N14" s="496"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -27925,16 +28781,16 @@
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="407"/>
-      <c r="F15" s="421"/>
-      <c r="G15" s="422"/>
-      <c r="H15" s="423"/>
-      <c r="I15" s="494"/>
-      <c r="J15" s="513"/>
-      <c r="K15" s="513"/>
-      <c r="L15" s="495"/>
-      <c r="M15" s="494"/>
-      <c r="N15" s="495"/>
+      <c r="E15" s="408"/>
+      <c r="F15" s="422"/>
+      <c r="G15" s="423"/>
+      <c r="H15" s="424"/>
+      <c r="I15" s="495"/>
+      <c r="J15" s="514"/>
+      <c r="K15" s="514"/>
+      <c r="L15" s="496"/>
+      <c r="M15" s="495"/>
+      <c r="N15" s="496"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -27945,16 +28801,16 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="407"/>
-      <c r="F16" s="421"/>
-      <c r="G16" s="422"/>
-      <c r="H16" s="423"/>
-      <c r="I16" s="494"/>
-      <c r="J16" s="513"/>
-      <c r="K16" s="513"/>
-      <c r="L16" s="495"/>
-      <c r="M16" s="494"/>
-      <c r="N16" s="495"/>
+      <c r="E16" s="408"/>
+      <c r="F16" s="422"/>
+      <c r="G16" s="423"/>
+      <c r="H16" s="424"/>
+      <c r="I16" s="495"/>
+      <c r="J16" s="514"/>
+      <c r="K16" s="514"/>
+      <c r="L16" s="496"/>
+      <c r="M16" s="495"/>
+      <c r="N16" s="496"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -27967,16 +28823,16 @@
         <v>192</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="407"/>
-      <c r="F17" s="421"/>
-      <c r="G17" s="422"/>
-      <c r="H17" s="423"/>
-      <c r="I17" s="494"/>
-      <c r="J17" s="513"/>
-      <c r="K17" s="513"/>
-      <c r="L17" s="495"/>
-      <c r="M17" s="494"/>
-      <c r="N17" s="495"/>
+      <c r="E17" s="408"/>
+      <c r="F17" s="422"/>
+      <c r="G17" s="423"/>
+      <c r="H17" s="424"/>
+      <c r="I17" s="495"/>
+      <c r="J17" s="514"/>
+      <c r="K17" s="514"/>
+      <c r="L17" s="496"/>
+      <c r="M17" s="495"/>
+      <c r="N17" s="496"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
@@ -27987,16 +28843,16 @@
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="408"/>
-      <c r="F18" s="424"/>
-      <c r="G18" s="425"/>
-      <c r="H18" s="426"/>
-      <c r="I18" s="496"/>
-      <c r="J18" s="514"/>
-      <c r="K18" s="514"/>
-      <c r="L18" s="497"/>
-      <c r="M18" s="496"/>
-      <c r="N18" s="497"/>
+      <c r="E18" s="409"/>
+      <c r="F18" s="425"/>
+      <c r="G18" s="426"/>
+      <c r="H18" s="427"/>
+      <c r="I18" s="497"/>
+      <c r="J18" s="515"/>
+      <c r="K18" s="515"/>
+      <c r="L18" s="498"/>
+      <c r="M18" s="497"/>
+      <c r="N18" s="498"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -28025,26 +28881,26 @@
     </row>
     <row r="20" spans="2:19" ht="15.75" thickBot="1">
       <c r="B20" s="4"/>
-      <c r="C20" s="401" t="s">
+      <c r="C20" s="402" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="402"/>
+      <c r="D20" s="403"/>
       <c r="E20" s="129" t="s">
         <v>194</v>
       </c>
-      <c r="F20" s="401" t="s">
+      <c r="F20" s="402" t="s">
         <v>195</v>
       </c>
-      <c r="G20" s="403"/>
-      <c r="H20" s="403"/>
-      <c r="I20" s="403"/>
-      <c r="J20" s="403"/>
-      <c r="K20" s="403"/>
-      <c r="L20" s="402"/>
-      <c r="M20" s="401" t="s">
+      <c r="G20" s="404"/>
+      <c r="H20" s="404"/>
+      <c r="I20" s="404"/>
+      <c r="J20" s="404"/>
+      <c r="K20" s="404"/>
+      <c r="L20" s="403"/>
+      <c r="M20" s="402" t="s">
         <v>470</v>
       </c>
-      <c r="N20" s="402"/>
+      <c r="N20" s="403"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
@@ -28072,39 +28928,39 @@
       <c r="S21" s="9"/>
     </row>
     <row r="24" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B24" s="480" t="s">
+      <c r="B24" s="481" t="s">
         <v>512</v>
       </c>
-      <c r="C24" s="480"/>
-      <c r="D24" s="478"/>
-      <c r="E24" s="478"/>
-      <c r="F24" s="478"/>
-      <c r="G24" s="478"/>
-      <c r="H24" s="478"/>
-      <c r="I24" s="478"/>
-      <c r="J24" s="478"/>
-      <c r="K24" s="478"/>
-      <c r="M24" s="533" t="s">
+      <c r="C24" s="481"/>
+      <c r="D24" s="479"/>
+      <c r="E24" s="479"/>
+      <c r="F24" s="479"/>
+      <c r="G24" s="479"/>
+      <c r="H24" s="479"/>
+      <c r="I24" s="479"/>
+      <c r="J24" s="479"/>
+      <c r="K24" s="479"/>
+      <c r="M24" s="534" t="s">
         <v>178</v>
       </c>
-      <c r="N24" s="533"/>
-      <c r="O24" s="533"/>
+      <c r="N24" s="534"/>
+      <c r="O24" s="534"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1">
-      <c r="B25" s="534" t="s">
+      <c r="B25" s="535" t="s">
         <v>860</v>
       </c>
-      <c r="C25" s="456"/>
-      <c r="D25" s="391" t="s">
+      <c r="C25" s="457"/>
+      <c r="D25" s="392" t="s">
         <v>177</v>
       </c>
-      <c r="E25" s="391"/>
-      <c r="F25" s="391"/>
-      <c r="G25" s="391"/>
-      <c r="H25" s="391"/>
-      <c r="I25" s="391"/>
-      <c r="J25" s="391"/>
-      <c r="K25" s="392"/>
+      <c r="E25" s="392"/>
+      <c r="F25" s="392"/>
+      <c r="G25" s="392"/>
+      <c r="H25" s="392"/>
+      <c r="I25" s="392"/>
+      <c r="J25" s="392"/>
+      <c r="K25" s="393"/>
       <c r="M25" s="38" t="s">
         <v>181</v>
       </c>
@@ -28116,22 +28972,22 @@
       </c>
     </row>
     <row r="26" spans="2:19">
-      <c r="B26" s="457"/>
-      <c r="C26" s="458"/>
-      <c r="D26" s="455" t="s">
+      <c r="B26" s="458"/>
+      <c r="C26" s="459"/>
+      <c r="D26" s="456" t="s">
         <v>853</v>
       </c>
-      <c r="E26" s="456"/>
-      <c r="F26" s="527" t="s">
+      <c r="E26" s="457"/>
+      <c r="F26" s="528" t="s">
         <v>853</v>
       </c>
-      <c r="G26" s="391"/>
-      <c r="H26" s="392"/>
-      <c r="I26" s="390" t="s">
+      <c r="G26" s="392"/>
+      <c r="H26" s="393"/>
+      <c r="I26" s="391" t="s">
         <v>857</v>
       </c>
-      <c r="J26" s="391"/>
-      <c r="K26" s="392"/>
+      <c r="J26" s="392"/>
+      <c r="K26" s="393"/>
       <c r="L26" s="5" t="s">
         <v>2</v>
       </c>
@@ -28146,22 +29002,22 @@
       </c>
     </row>
     <row r="27" spans="2:19">
-      <c r="B27" s="457"/>
-      <c r="C27" s="458"/>
-      <c r="D27" s="443" t="s">
+      <c r="B27" s="458"/>
+      <c r="C27" s="459"/>
+      <c r="D27" s="444" t="s">
         <v>858</v>
       </c>
-      <c r="E27" s="458"/>
-      <c r="F27" s="457" t="s">
+      <c r="E27" s="459"/>
+      <c r="F27" s="458" t="s">
         <v>854</v>
       </c>
-      <c r="G27" s="443"/>
-      <c r="H27" s="528"/>
-      <c r="I27" s="532" t="s">
+      <c r="G27" s="444"/>
+      <c r="H27" s="529"/>
+      <c r="I27" s="533" t="s">
         <v>858</v>
       </c>
-      <c r="J27" s="443"/>
-      <c r="K27" s="528"/>
+      <c r="J27" s="444"/>
+      <c r="K27" s="529"/>
       <c r="L27" s="5" t="s">
         <v>2</v>
       </c>
@@ -28176,22 +29032,22 @@
       </c>
     </row>
     <row r="28" spans="2:19">
-      <c r="B28" s="457"/>
-      <c r="C28" s="458"/>
-      <c r="D28" s="443" t="s">
+      <c r="B28" s="458"/>
+      <c r="C28" s="459"/>
+      <c r="D28" s="444" t="s">
         <v>855</v>
       </c>
-      <c r="E28" s="458"/>
-      <c r="F28" s="457" t="s">
+      <c r="E28" s="459"/>
+      <c r="F28" s="458" t="s">
         <v>855</v>
       </c>
-      <c r="G28" s="443"/>
-      <c r="H28" s="528"/>
-      <c r="I28" s="532" t="s">
+      <c r="G28" s="444"/>
+      <c r="H28" s="529"/>
+      <c r="I28" s="533" t="s">
         <v>855</v>
       </c>
-      <c r="J28" s="443"/>
-      <c r="K28" s="528"/>
+      <c r="J28" s="444"/>
+      <c r="K28" s="529"/>
       <c r="L28" s="5" t="s">
         <v>2</v>
       </c>
@@ -28200,22 +29056,22 @@
       <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:19">
-      <c r="B29" s="459"/>
-      <c r="C29" s="460"/>
-      <c r="D29" s="443" t="s">
+      <c r="B29" s="460"/>
+      <c r="C29" s="461"/>
+      <c r="D29" s="444" t="s">
         <v>856</v>
       </c>
-      <c r="E29" s="458"/>
-      <c r="F29" s="529" t="s">
+      <c r="E29" s="459"/>
+      <c r="F29" s="530" t="s">
         <v>856</v>
       </c>
-      <c r="G29" s="530"/>
-      <c r="H29" s="531"/>
-      <c r="I29" s="544" t="s">
+      <c r="G29" s="531"/>
+      <c r="H29" s="532"/>
+      <c r="I29" s="545" t="s">
         <v>856</v>
       </c>
-      <c r="J29" s="530"/>
-      <c r="K29" s="531"/>
+      <c r="J29" s="531"/>
+      <c r="K29" s="532"/>
       <c r="L29" s="24" t="s">
         <v>2</v>
       </c>
@@ -28224,149 +29080,149 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="B30" s="393" t="s">
+      <c r="B30" s="394" t="s">
         <v>859</v>
       </c>
-      <c r="C30" s="395"/>
-      <c r="D30" s="515" t="s">
+      <c r="C30" s="396"/>
+      <c r="D30" s="516" t="s">
         <v>513</v>
       </c>
-      <c r="E30" s="516"/>
-      <c r="F30" s="520" t="s">
+      <c r="E30" s="517"/>
+      <c r="F30" s="521" t="s">
         <v>514</v>
       </c>
-      <c r="G30" s="521"/>
-      <c r="H30" s="516"/>
-      <c r="I30" s="520" t="s">
+      <c r="G30" s="522"/>
+      <c r="H30" s="517"/>
+      <c r="I30" s="521" t="s">
         <v>515</v>
       </c>
-      <c r="J30" s="521"/>
-      <c r="K30" s="524"/>
+      <c r="J30" s="522"/>
+      <c r="K30" s="525"/>
       <c r="L30" s="5"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:19">
-      <c r="B31" s="387"/>
-      <c r="C31" s="397"/>
-      <c r="D31" s="517"/>
-      <c r="E31" s="476"/>
-      <c r="F31" s="474"/>
-      <c r="G31" s="475"/>
-      <c r="H31" s="476"/>
-      <c r="I31" s="474"/>
-      <c r="J31" s="475"/>
-      <c r="K31" s="525"/>
+      <c r="B31" s="388"/>
+      <c r="C31" s="398"/>
+      <c r="D31" s="518"/>
+      <c r="E31" s="477"/>
+      <c r="F31" s="475"/>
+      <c r="G31" s="476"/>
+      <c r="H31" s="477"/>
+      <c r="I31" s="475"/>
+      <c r="J31" s="476"/>
+      <c r="K31" s="526"/>
       <c r="L31" s="5"/>
       <c r="M31" s="38"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="B32" s="387"/>
-      <c r="C32" s="397"/>
-      <c r="D32" s="517"/>
-      <c r="E32" s="476"/>
-      <c r="F32" s="474"/>
-      <c r="G32" s="475"/>
-      <c r="H32" s="476"/>
-      <c r="I32" s="474"/>
-      <c r="J32" s="475"/>
-      <c r="K32" s="525"/>
+      <c r="B32" s="388"/>
+      <c r="C32" s="398"/>
+      <c r="D32" s="518"/>
+      <c r="E32" s="477"/>
+      <c r="F32" s="475"/>
+      <c r="G32" s="476"/>
+      <c r="H32" s="477"/>
+      <c r="I32" s="475"/>
+      <c r="J32" s="476"/>
+      <c r="K32" s="526"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="387"/>
-      <c r="C33" s="397"/>
-      <c r="D33" s="518"/>
-      <c r="E33" s="519"/>
-      <c r="F33" s="522"/>
-      <c r="G33" s="523"/>
-      <c r="H33" s="519"/>
-      <c r="I33" s="522"/>
-      <c r="J33" s="523"/>
-      <c r="K33" s="526"/>
+      <c r="B33" s="388"/>
+      <c r="C33" s="398"/>
+      <c r="D33" s="519"/>
+      <c r="E33" s="520"/>
+      <c r="F33" s="523"/>
+      <c r="G33" s="524"/>
+      <c r="H33" s="520"/>
+      <c r="I33" s="523"/>
+      <c r="J33" s="524"/>
+      <c r="K33" s="527"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="387"/>
-      <c r="C34" s="389"/>
-      <c r="D34" s="535" t="s">
+      <c r="B34" s="388"/>
+      <c r="C34" s="390"/>
+      <c r="D34" s="536" t="s">
         <v>846</v>
       </c>
-      <c r="E34" s="536"/>
-      <c r="F34" s="535" t="s">
+      <c r="E34" s="537"/>
+      <c r="F34" s="536" t="s">
         <v>535</v>
       </c>
-      <c r="G34" s="541"/>
-      <c r="H34" s="536"/>
-      <c r="I34" s="535" t="s">
+      <c r="G34" s="542"/>
+      <c r="H34" s="537"/>
+      <c r="I34" s="536" t="s">
         <v>861</v>
       </c>
-      <c r="J34" s="541"/>
-      <c r="K34" s="536"/>
+      <c r="J34" s="542"/>
+      <c r="K34" s="537"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="387"/>
-      <c r="C35" s="389"/>
-      <c r="D35" s="537"/>
-      <c r="E35" s="538"/>
-      <c r="F35" s="537"/>
-      <c r="G35" s="542"/>
-      <c r="H35" s="538"/>
-      <c r="I35" s="537"/>
-      <c r="J35" s="542"/>
-      <c r="K35" s="538"/>
+      <c r="B35" s="388"/>
+      <c r="C35" s="390"/>
+      <c r="D35" s="538"/>
+      <c r="E35" s="539"/>
+      <c r="F35" s="538"/>
+      <c r="G35" s="543"/>
+      <c r="H35" s="539"/>
+      <c r="I35" s="538"/>
+      <c r="J35" s="543"/>
+      <c r="K35" s="539"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="387"/>
-      <c r="C36" s="389"/>
-      <c r="D36" s="537"/>
-      <c r="E36" s="538"/>
-      <c r="F36" s="537"/>
-      <c r="G36" s="542"/>
-      <c r="H36" s="538"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="542"/>
-      <c r="K36" s="538"/>
+      <c r="B36" s="388"/>
+      <c r="C36" s="390"/>
+      <c r="D36" s="538"/>
+      <c r="E36" s="539"/>
+      <c r="F36" s="538"/>
+      <c r="G36" s="543"/>
+      <c r="H36" s="539"/>
+      <c r="I36" s="538"/>
+      <c r="J36" s="543"/>
+      <c r="K36" s="539"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="387"/>
-      <c r="C37" s="389"/>
-      <c r="D37" s="537"/>
-      <c r="E37" s="538"/>
-      <c r="F37" s="537"/>
-      <c r="G37" s="542"/>
-      <c r="H37" s="538"/>
-      <c r="I37" s="537"/>
-      <c r="J37" s="542"/>
-      <c r="K37" s="538"/>
+      <c r="B37" s="388"/>
+      <c r="C37" s="390"/>
+      <c r="D37" s="538"/>
+      <c r="E37" s="539"/>
+      <c r="F37" s="538"/>
+      <c r="G37" s="543"/>
+      <c r="H37" s="539"/>
+      <c r="I37" s="538"/>
+      <c r="J37" s="543"/>
+      <c r="K37" s="539"/>
     </row>
     <row r="38" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B38" s="387"/>
-      <c r="C38" s="389"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="540"/>
-      <c r="F38" s="539"/>
-      <c r="G38" s="543"/>
-      <c r="H38" s="540"/>
-      <c r="I38" s="539"/>
-      <c r="J38" s="543"/>
-      <c r="K38" s="540"/>
+      <c r="B38" s="388"/>
+      <c r="C38" s="390"/>
+      <c r="D38" s="540"/>
+      <c r="E38" s="541"/>
+      <c r="F38" s="540"/>
+      <c r="G38" s="544"/>
+      <c r="H38" s="541"/>
+      <c r="I38" s="540"/>
+      <c r="J38" s="544"/>
+      <c r="K38" s="541"/>
     </row>
     <row r="39" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B39" s="398"/>
-      <c r="C39" s="400"/>
-      <c r="D39" s="467" t="s">
+      <c r="B39" s="399"/>
+      <c r="C39" s="401"/>
+      <c r="D39" s="468" t="s">
         <v>516</v>
       </c>
-      <c r="E39" s="468"/>
-      <c r="F39" s="468"/>
-      <c r="G39" s="468"/>
-      <c r="H39" s="468"/>
-      <c r="I39" s="468"/>
-      <c r="J39" s="468"/>
-      <c r="K39" s="469"/>
+      <c r="E39" s="469"/>
+      <c r="F39" s="469"/>
+      <c r="G39" s="469"/>
+      <c r="H39" s="469"/>
+      <c r="I39" s="469"/>
+      <c r="J39" s="469"/>
+      <c r="K39" s="470"/>
       <c r="L39" s="40" t="s">
         <v>517</v>
       </c>
@@ -28384,22 +29240,22 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B41" s="401" t="s">
+      <c r="B41" s="402" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="402"/>
-      <c r="D41" s="401" t="s">
+      <c r="C41" s="403"/>
+      <c r="D41" s="402" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="402"/>
-      <c r="F41" s="401" t="s">
+      <c r="E41" s="403"/>
+      <c r="F41" s="402" t="s">
         <v>195</v>
       </c>
-      <c r="G41" s="403"/>
-      <c r="H41" s="403"/>
-      <c r="I41" s="403"/>
-      <c r="J41" s="403"/>
-      <c r="K41" s="402"/>
+      <c r="G41" s="404"/>
+      <c r="H41" s="404"/>
+      <c r="I41" s="404"/>
+      <c r="J41" s="404"/>
+      <c r="K41" s="403"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -28732,13 +29588,13 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1">
-      <c r="A5" s="381" t="s">
+      <c r="A5" s="382" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="382"/>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="383"/>
+      <c r="B5" s="383"/>
+      <c r="C5" s="383"/>
+      <c r="D5" s="383"/>
+      <c r="E5" s="384"/>
       <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>149</v>
@@ -29371,7 +30227,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
       <c r="M6" s="332"/>
-      <c r="N6" s="387" t="s">
+      <c r="N6" s="388" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -29389,7 +30245,7 @@
       <c r="K7" s="334"/>
       <c r="L7" s="334"/>
       <c r="M7" s="335"/>
-      <c r="N7" s="387"/>
+      <c r="N7" s="388"/>
     </row>
     <row r="8" spans="2:14">
       <c r="C8" s="330">
@@ -29405,7 +30261,7 @@
       <c r="K8" s="176"/>
       <c r="L8" s="176"/>
       <c r="M8" s="177"/>
-      <c r="N8" s="387" t="s">
+      <c r="N8" s="388" t="s">
         <v>167</v>
       </c>
     </row>
@@ -29423,7 +30279,7 @@
       <c r="K9" s="170"/>
       <c r="L9" s="170"/>
       <c r="M9" s="171"/>
-      <c r="N9" s="387"/>
+      <c r="N9" s="388"/>
     </row>
     <row r="10" spans="2:14">
       <c r="C10" s="330">
@@ -29443,7 +30299,7 @@
       <c r="K10" s="170"/>
       <c r="L10" s="170"/>
       <c r="M10" s="171"/>
-      <c r="N10" s="387"/>
+      <c r="N10" s="388"/>
     </row>
     <row r="11" spans="2:14">
       <c r="C11" s="330">
@@ -29459,7 +30315,7 @@
       <c r="K11" s="170"/>
       <c r="L11" s="170"/>
       <c r="M11" s="171"/>
-      <c r="N11" s="387"/>
+      <c r="N11" s="388"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1">
       <c r="C12" s="330">
@@ -29475,7 +30331,7 @@
       <c r="K12" s="170"/>
       <c r="L12" s="170"/>
       <c r="M12" s="171"/>
-      <c r="N12" s="387"/>
+      <c r="N12" s="388"/>
     </row>
     <row r="13" spans="2:14">
       <c r="C13" s="330">
@@ -29491,7 +30347,7 @@
       <c r="K13" s="170"/>
       <c r="L13" s="170"/>
       <c r="M13" s="171"/>
-      <c r="N13" s="387"/>
+      <c r="N13" s="388"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickBot="1">
       <c r="C14" s="330">
@@ -29507,7 +30363,7 @@
       <c r="K14" s="179"/>
       <c r="L14" s="179"/>
       <c r="M14" s="180"/>
-      <c r="N14" s="387"/>
+      <c r="N14" s="388"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" thickBot="1">
       <c r="C15" s="330">
@@ -30133,7 +30989,7 @@
       <c r="O134" s="5"/>
     </row>
     <row r="135" spans="3:15">
-      <c r="C135" s="384" t="s">
+      <c r="C135" s="385" t="s">
         <v>166</v>
       </c>
       <c r="D135">
@@ -30160,7 +31016,7 @@
       <c r="O135" s="5"/>
     </row>
     <row r="136" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C136" s="384"/>
+      <c r="C136" s="385"/>
       <c r="D136">
         <v>20</v>
       </c>
@@ -30189,7 +31045,7 @@
       <c r="O136" s="5"/>
     </row>
     <row r="137" spans="3:15">
-      <c r="C137" s="384" t="s">
+      <c r="C137" s="385" t="s">
         <v>167</v>
       </c>
       <c r="D137">
@@ -30208,7 +31064,7 @@
       <c r="O137" s="5"/>
     </row>
     <row r="138" spans="3:15">
-      <c r="C138" s="384"/>
+      <c r="C138" s="385"/>
       <c r="D138">
         <v>40</v>
       </c>
@@ -30225,7 +31081,7 @@
       <c r="O138" s="5"/>
     </row>
     <row r="139" spans="3:15">
-      <c r="C139" s="384"/>
+      <c r="C139" s="385"/>
       <c r="D139">
         <v>50</v>
       </c>
@@ -30242,7 +31098,7 @@
       <c r="O139" s="5"/>
     </row>
     <row r="140" spans="3:15">
-      <c r="C140" s="384"/>
+      <c r="C140" s="385"/>
       <c r="D140">
         <v>60</v>
       </c>
@@ -30261,7 +31117,7 @@
       <c r="O140" s="5"/>
     </row>
     <row r="141" spans="3:15">
-      <c r="C141" s="384"/>
+      <c r="C141" s="385"/>
       <c r="D141">
         <v>70</v>
       </c>
@@ -30278,7 +31134,7 @@
       <c r="O141" s="5"/>
     </row>
     <row r="142" spans="3:15">
-      <c r="C142" s="384"/>
+      <c r="C142" s="385"/>
       <c r="D142">
         <v>80</v>
       </c>
@@ -30295,7 +31151,7 @@
       <c r="O142" s="5"/>
     </row>
     <row r="143" spans="3:15" ht="15.75" thickBot="1">
-      <c r="C143" s="384"/>
+      <c r="C143" s="385"/>
       <c r="D143">
         <v>90</v>
       </c>
@@ -30386,7 +31242,7 @@
       </c>
     </row>
     <row r="148" spans="4:15">
-      <c r="D148" s="388">
+      <c r="D148" s="389">
         <v>1</v>
       </c>
       <c r="E148" s="172"/>
@@ -30401,7 +31257,7 @@
       <c r="N148" s="177"/>
     </row>
     <row r="149" spans="4:15">
-      <c r="D149" s="389"/>
+      <c r="D149" s="390"/>
       <c r="E149" s="173"/>
       <c r="F149" s="169"/>
       <c r="G149" s="170"/>
@@ -30414,7 +31270,7 @@
       <c r="N149" s="171"/>
     </row>
     <row r="150" spans="4:15">
-      <c r="D150" s="389"/>
+      <c r="D150" s="390"/>
       <c r="E150" s="173"/>
       <c r="F150" s="169"/>
       <c r="G150" s="170"/>
@@ -30427,7 +31283,7 @@
       <c r="N150" s="171"/>
     </row>
     <row r="151" spans="4:15">
-      <c r="D151" s="389"/>
+      <c r="D151" s="390"/>
       <c r="E151" s="173" t="s">
         <v>612</v>
       </c>
@@ -30444,7 +31300,7 @@
       <c r="N151" s="171"/>
     </row>
     <row r="152" spans="4:15">
-      <c r="D152" s="389"/>
+      <c r="D152" s="390"/>
       <c r="E152" s="173"/>
       <c r="F152" s="169"/>
       <c r="G152" s="170"/>
@@ -30457,7 +31313,7 @@
       <c r="N152" s="171"/>
     </row>
     <row r="153" spans="4:15">
-      <c r="D153" s="389"/>
+      <c r="D153" s="390"/>
       <c r="E153" s="173"/>
       <c r="F153" s="169"/>
       <c r="G153" s="170"/>
@@ -30470,7 +31326,7 @@
       <c r="N153" s="171"/>
     </row>
     <row r="154" spans="4:15" ht="15.75" thickBot="1">
-      <c r="D154" s="389"/>
+      <c r="D154" s="390"/>
       <c r="E154" s="174"/>
       <c r="F154" s="178"/>
       <c r="G154" s="179"/>
@@ -30593,7 +31449,7 @@
       <c r="K183" s="176"/>
       <c r="L183" s="176"/>
       <c r="M183" s="176"/>
-      <c r="N183" s="385" t="s">
+      <c r="N183" s="386" t="s">
         <v>863</v>
       </c>
       <c r="O183" t="s">
@@ -30614,7 +31470,7 @@
       <c r="K184" s="179"/>
       <c r="L184" s="179"/>
       <c r="M184" s="179"/>
-      <c r="N184" s="385"/>
+      <c r="N184" s="386"/>
       <c r="O184" t="s">
         <v>864</v>
       </c>
@@ -30633,7 +31489,7 @@
       <c r="K185" s="231"/>
       <c r="L185" s="231"/>
       <c r="M185" s="295"/>
-      <c r="N185" s="386" t="s">
+      <c r="N185" s="387" t="s">
         <v>866</v>
       </c>
       <c r="O185" t="s">
@@ -30654,7 +31510,7 @@
       <c r="K186" s="232"/>
       <c r="L186" s="232"/>
       <c r="M186" s="297"/>
-      <c r="N186" s="386"/>
+      <c r="N186" s="387"/>
     </row>
     <row r="187" spans="3:15">
       <c r="C187">
@@ -30670,7 +31526,7 @@
       <c r="K187" s="232"/>
       <c r="L187" s="232"/>
       <c r="M187" s="297"/>
-      <c r="N187" s="386"/>
+      <c r="N187" s="387"/>
     </row>
     <row r="188" spans="3:15" ht="15.75" thickBot="1">
       <c r="C188">
@@ -30690,7 +31546,7 @@
       <c r="K188" s="233"/>
       <c r="L188" s="233"/>
       <c r="M188" s="299"/>
-      <c r="N188" s="386"/>
+      <c r="N188" s="387"/>
     </row>
     <row r="189" spans="3:15">
       <c r="C189">
@@ -30706,7 +31562,7 @@
       <c r="K189" s="232"/>
       <c r="L189" s="232"/>
       <c r="M189" s="232"/>
-      <c r="N189" s="385"/>
+      <c r="N189" s="386"/>
     </row>
     <row r="190" spans="3:15">
       <c r="C190">
@@ -30722,7 +31578,7 @@
       <c r="K190" s="232"/>
       <c r="L190" s="232"/>
       <c r="M190" s="232"/>
-      <c r="N190" s="385"/>
+      <c r="N190" s="386"/>
     </row>
     <row r="191" spans="3:15" ht="15.75" thickBot="1">
       <c r="C191">
@@ -30738,7 +31594,7 @@
       <c r="K191" s="233"/>
       <c r="L191" s="233"/>
       <c r="M191" s="233"/>
-      <c r="N191" s="385"/>
+      <c r="N191" s="386"/>
     </row>
     <row r="192" spans="3:15" ht="15.75" thickBot="1">
       <c r="C192">
@@ -31059,8 +31915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V134"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="C108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115:J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31116,14 +31972,14 @@
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="390" t="s">
+      <c r="K4" s="391" t="s">
         <v>177</v>
       </c>
-      <c r="L4" s="391"/>
-      <c r="M4" s="391"/>
-      <c r="N4" s="391"/>
-      <c r="O4" s="391"/>
-      <c r="P4" s="392"/>
+      <c r="L4" s="392"/>
+      <c r="M4" s="392"/>
+      <c r="N4" s="392"/>
+      <c r="O4" s="392"/>
+      <c r="P4" s="393"/>
       <c r="Q4" s="115" t="s">
         <v>269</v>
       </c>
@@ -31255,10 +32111,10 @@
       <c r="L8" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="404" t="s">
+      <c r="M8" s="405" t="s">
         <v>209</v>
       </c>
-      <c r="N8" s="405"/>
+      <c r="N8" s="406"/>
       <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
@@ -31292,8 +32148,8 @@
       <c r="L9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="405"/>
-      <c r="N9" s="405"/>
+      <c r="M9" s="406"/>
+      <c r="N9" s="406"/>
       <c r="O9" s="5" t="s">
         <v>186</v>
       </c>
@@ -31333,8 +32189,8 @@
       <c r="L10" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="M10" s="405"/>
-      <c r="N10" s="405"/>
+      <c r="M10" s="406"/>
+      <c r="N10" s="406"/>
       <c r="O10" s="5"/>
       <c r="P10" s="248" t="s">
         <v>371</v>
@@ -31347,13 +32203,13 @@
       <c r="T10" s="38"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A11" s="393" t="s">
+      <c r="A11" s="394" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="394"/>
-      <c r="C11" s="395"/>
-      <c r="D11" s="395"/>
-      <c r="E11" s="396"/>
+      <c r="B11" s="395"/>
+      <c r="C11" s="396"/>
+      <c r="D11" s="396"/>
+      <c r="E11" s="397"/>
       <c r="F11" t="s">
         <v>1430</v>
       </c>
@@ -31362,8 +32218,8 @@
       <c r="J11" s="10"/>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="405"/>
-      <c r="N11" s="405"/>
+      <c r="M11" s="406"/>
+      <c r="N11" s="406"/>
       <c r="O11" s="5"/>
       <c r="P11" s="248" t="s">
         <v>372</v>
@@ -31373,11 +32229,11 @@
       <c r="T11" s="38"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="387"/>
-      <c r="B12" s="397"/>
-      <c r="C12" s="397"/>
-      <c r="D12" s="397"/>
-      <c r="E12" s="389"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="398"/>
+      <c r="C12" s="398"/>
+      <c r="D12" s="398"/>
+      <c r="E12" s="390"/>
       <c r="F12" t="s">
         <v>890</v>
       </c>
@@ -31386,8 +32242,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="405"/>
-      <c r="N12" s="405"/>
+      <c r="M12" s="406"/>
+      <c r="N12" s="406"/>
       <c r="O12" s="5"/>
       <c r="P12" s="248" t="s">
         <v>1219</v>
@@ -31397,11 +32253,11 @@
       <c r="T12" s="38"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="387"/>
-      <c r="B13" s="397"/>
-      <c r="C13" s="397"/>
-      <c r="D13" s="397"/>
-      <c r="E13" s="389"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="398"/>
+      <c r="C13" s="398"/>
+      <c r="D13" s="398"/>
+      <c r="E13" s="390"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
         <v>191</v>
@@ -31409,8 +32265,8 @@
       <c r="J13" s="5"/>
       <c r="K13" s="4"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="405"/>
-      <c r="N13" s="405"/>
+      <c r="M13" s="406"/>
+      <c r="N13" s="406"/>
       <c r="O13" s="28"/>
       <c r="P13" s="248"/>
       <c r="S13" t="s">
@@ -31418,11 +32274,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="398"/>
-      <c r="B14" s="399"/>
-      <c r="C14" s="399"/>
-      <c r="D14" s="399"/>
-      <c r="E14" s="400"/>
+      <c r="A14" s="399"/>
+      <c r="B14" s="400"/>
+      <c r="C14" s="400"/>
+      <c r="D14" s="400"/>
+      <c r="E14" s="401"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
@@ -31598,20 +32454,20 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="401" t="s">
+      <c r="I20" s="402" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="402"/>
-      <c r="K20" s="401" t="s">
+      <c r="J20" s="403"/>
+      <c r="K20" s="402" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="402"/>
-      <c r="M20" s="401" t="s">
+      <c r="L20" s="403"/>
+      <c r="M20" s="402" t="s">
         <v>1518</v>
       </c>
-      <c r="N20" s="403"/>
-      <c r="O20" s="403"/>
-      <c r="P20" s="402"/>
+      <c r="N20" s="404"/>
+      <c r="O20" s="404"/>
+      <c r="P20" s="403"/>
       <c r="S20" t="s">
         <v>269</v>
       </c>
@@ -32174,13 +33030,13 @@
       <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="410" t="s">
+      <c r="A85" s="411" t="s">
         <v>1410</v>
       </c>
-      <c r="B85" s="397"/>
-      <c r="C85" s="397"/>
-      <c r="D85" s="397"/>
-      <c r="E85" s="397"/>
+      <c r="B85" s="398"/>
+      <c r="C85" s="398"/>
+      <c r="D85" s="398"/>
+      <c r="E85" s="398"/>
       <c r="F85" s="6" t="s">
         <v>1414</v>
       </c>
@@ -32227,14 +33083,14 @@
       <c r="H87" s="4"/>
       <c r="I87" s="35"/>
       <c r="J87" s="28"/>
-      <c r="K87" s="417" t="s">
+      <c r="K87" s="418" t="s">
         <v>1413</v>
       </c>
-      <c r="L87" s="412"/>
-      <c r="M87" s="417" t="s">
+      <c r="L87" s="413"/>
+      <c r="M87" s="418" t="s">
         <v>1424</v>
       </c>
-      <c r="N87" s="412"/>
+      <c r="N87" s="413"/>
       <c r="O87" s="28"/>
       <c r="P87" s="39"/>
       <c r="Q87" s="6"/>
@@ -32251,10 +33107,10 @@
       <c r="H88" s="4"/>
       <c r="I88" s="35"/>
       <c r="J88" s="28"/>
-      <c r="K88" s="415"/>
-      <c r="L88" s="416"/>
-      <c r="M88" s="413"/>
-      <c r="N88" s="414"/>
+      <c r="K88" s="416"/>
+      <c r="L88" s="417"/>
+      <c r="M88" s="414"/>
+      <c r="N88" s="415"/>
       <c r="O88" s="28"/>
       <c r="P88" s="39"/>
       <c r="Q88" s="6"/>
@@ -32273,12 +33129,12 @@
       </c>
       <c r="I89" s="35"/>
       <c r="J89" s="28"/>
-      <c r="K89" s="411" t="s">
+      <c r="K89" s="412" t="s">
         <v>1405</v>
       </c>
-      <c r="L89" s="412"/>
-      <c r="M89" s="413"/>
-      <c r="N89" s="414"/>
+      <c r="L89" s="413"/>
+      <c r="M89" s="414"/>
+      <c r="N89" s="415"/>
       <c r="O89" s="28"/>
       <c r="P89" s="39"/>
       <c r="Q89" s="6"/>
@@ -32293,10 +33149,10 @@
       <c r="H90" s="4"/>
       <c r="I90" s="35"/>
       <c r="J90" s="28"/>
-      <c r="K90" s="415"/>
-      <c r="L90" s="416"/>
-      <c r="M90" s="413"/>
-      <c r="N90" s="414"/>
+      <c r="K90" s="416"/>
+      <c r="L90" s="417"/>
+      <c r="M90" s="414"/>
+      <c r="N90" s="415"/>
       <c r="O90" s="28"/>
       <c r="P90" s="39"/>
       <c r="Q90" s="6"/>
@@ -32313,12 +33169,12 @@
       <c r="H91" s="4"/>
       <c r="I91" s="35"/>
       <c r="J91" s="28"/>
-      <c r="K91" s="411" t="s">
+      <c r="K91" s="412" t="s">
         <v>1406</v>
       </c>
-      <c r="L91" s="412"/>
-      <c r="M91" s="413"/>
-      <c r="N91" s="414"/>
+      <c r="L91" s="413"/>
+      <c r="M91" s="414"/>
+      <c r="N91" s="415"/>
       <c r="O91" s="28"/>
       <c r="P91" s="39"/>
       <c r="Q91" s="6"/>
@@ -32335,10 +33191,10 @@
       <c r="H92" s="4"/>
       <c r="I92" s="35"/>
       <c r="J92" s="28"/>
-      <c r="K92" s="415"/>
-      <c r="L92" s="416"/>
-      <c r="M92" s="413"/>
-      <c r="N92" s="414"/>
+      <c r="K92" s="416"/>
+      <c r="L92" s="417"/>
+      <c r="M92" s="414"/>
+      <c r="N92" s="415"/>
       <c r="O92" s="28"/>
       <c r="P92" s="39"/>
       <c r="Q92" s="6"/>
@@ -32353,12 +33209,12 @@
       <c r="H93" s="4"/>
       <c r="I93" s="35"/>
       <c r="J93" s="28"/>
-      <c r="K93" s="411" t="s">
+      <c r="K93" s="412" t="s">
         <v>1407</v>
       </c>
-      <c r="L93" s="412"/>
-      <c r="M93" s="413"/>
-      <c r="N93" s="414"/>
+      <c r="L93" s="413"/>
+      <c r="M93" s="414"/>
+      <c r="N93" s="415"/>
       <c r="O93" s="28"/>
       <c r="P93" s="39"/>
       <c r="Q93" s="6"/>
@@ -32370,10 +33226,10 @@
       <c r="H94" s="4"/>
       <c r="I94" s="35"/>
       <c r="J94" s="28"/>
-      <c r="K94" s="413"/>
-      <c r="L94" s="414"/>
-      <c r="M94" s="413"/>
-      <c r="N94" s="414"/>
+      <c r="K94" s="414"/>
+      <c r="L94" s="415"/>
+      <c r="M94" s="414"/>
+      <c r="N94" s="415"/>
       <c r="O94" s="28"/>
       <c r="P94" s="39"/>
       <c r="Q94" s="6"/>
@@ -32387,10 +33243,10 @@
       <c r="H95" s="4"/>
       <c r="I95" s="35"/>
       <c r="J95" s="28"/>
-      <c r="K95" s="415"/>
-      <c r="L95" s="416"/>
-      <c r="M95" s="415"/>
-      <c r="N95" s="416"/>
+      <c r="K95" s="416"/>
+      <c r="L95" s="417"/>
+      <c r="M95" s="416"/>
+      <c r="N95" s="417"/>
       <c r="O95" s="28"/>
       <c r="P95" s="39"/>
       <c r="Q95" s="6"/>
@@ -32407,14 +33263,14 @@
       <c r="H96" s="4"/>
       <c r="I96" s="35"/>
       <c r="J96" s="28"/>
-      <c r="K96" s="409" t="s">
+      <c r="K96" s="410" t="s">
         <v>1408</v>
       </c>
-      <c r="L96" s="409"/>
-      <c r="M96" s="409" t="s">
+      <c r="L96" s="410"/>
+      <c r="M96" s="410" t="s">
         <v>1409</v>
       </c>
-      <c r="N96" s="409"/>
+      <c r="N96" s="410"/>
       <c r="O96" s="28"/>
       <c r="P96" s="39"/>
       <c r="Q96" s="6"/>
@@ -32538,7 +33394,7 @@
       <c r="E115" s="107"/>
       <c r="F115" s="108"/>
       <c r="I115" s="4"/>
-      <c r="J115" s="406" t="s">
+      <c r="J115" s="407" t="s">
         <v>1439</v>
       </c>
       <c r="K115" s="2"/>
@@ -32555,7 +33411,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="6"/>
       <c r="I116" s="4"/>
-      <c r="J116" s="407"/>
+      <c r="J116" s="408"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="3"/>
@@ -32570,7 +33426,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="6"/>
       <c r="I117" s="4"/>
-      <c r="J117" s="407"/>
+      <c r="J117" s="408"/>
       <c r="K117" s="5" t="s">
         <v>38</v>
       </c>
@@ -32587,7 +33443,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="6"/>
       <c r="I118" s="4"/>
-      <c r="J118" s="407"/>
+      <c r="J118" s="408"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
@@ -32602,7 +33458,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="6"/>
       <c r="I119" s="4"/>
-      <c r="J119" s="407"/>
+      <c r="J119" s="408"/>
       <c r="K119" s="5" t="s">
         <v>693</v>
       </c>
@@ -32622,7 +33478,7 @@
         <v>1438</v>
       </c>
       <c r="I120" s="4"/>
-      <c r="J120" s="407"/>
+      <c r="J120" s="408"/>
       <c r="K120" s="10"/>
       <c r="L120" s="10"/>
       <c r="M120" s="9"/>
@@ -32642,7 +33498,7 @@
         <v>267</v>
       </c>
       <c r="I121" s="4"/>
-      <c r="J121" s="407"/>
+      <c r="J121" s="408"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="3"/>
@@ -32659,7 +33515,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="6"/>
       <c r="I122" s="4"/>
-      <c r="J122" s="407"/>
+      <c r="J122" s="408"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5" t="s">
         <v>1435</v>
@@ -32678,7 +33534,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
       <c r="I123" s="4"/>
-      <c r="J123" s="407"/>
+      <c r="J123" s="408"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5" t="s">
         <v>1433</v>
@@ -32695,7 +33551,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="6"/>
       <c r="I124" s="4"/>
-      <c r="J124" s="407"/>
+      <c r="J124" s="408"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5" t="s">
         <v>38</v>
@@ -32712,7 +33568,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="6"/>
       <c r="I125" s="4"/>
-      <c r="J125" s="407"/>
+      <c r="J125" s="408"/>
       <c r="K125" s="10"/>
       <c r="L125" s="10"/>
       <c r="M125" s="9"/>
@@ -32727,7 +33583,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="9"/>
       <c r="I126" s="4"/>
-      <c r="J126" s="408"/>
+      <c r="J126" s="409"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
       <c r="M126" s="10"/>
@@ -33231,13 +34087,13 @@
         <v>180</v>
       </c>
       <c r="J3" s="147"/>
-      <c r="K3" s="427"/>
-      <c r="L3" s="427"/>
-      <c r="M3" s="427"/>
-      <c r="N3" s="427"/>
-      <c r="O3" s="427"/>
-      <c r="P3" s="427"/>
-      <c r="Q3" s="428"/>
+      <c r="K3" s="428"/>
+      <c r="L3" s="428"/>
+      <c r="M3" s="428"/>
+      <c r="N3" s="428"/>
+      <c r="O3" s="428"/>
+      <c r="P3" s="428"/>
+      <c r="Q3" s="429"/>
       <c r="T3" s="40" t="s">
         <v>178</v>
       </c>
@@ -33505,13 +34361,13 @@
       <c r="U11" s="38"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A12" s="418" t="s">
+      <c r="A12" s="419" t="s">
         <v>616</v>
       </c>
-      <c r="B12" s="419"/>
-      <c r="C12" s="419"/>
-      <c r="D12" s="419"/>
-      <c r="E12" s="420"/>
+      <c r="B12" s="420"/>
+      <c r="C12" s="420"/>
+      <c r="D12" s="420"/>
+      <c r="E12" s="421"/>
       <c r="F12" t="s">
         <v>629</v>
       </c>
@@ -33534,11 +34390,11 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="421"/>
-      <c r="B13" s="422"/>
-      <c r="C13" s="422"/>
-      <c r="D13" s="422"/>
-      <c r="E13" s="423"/>
+      <c r="A13" s="422"/>
+      <c r="B13" s="423"/>
+      <c r="C13" s="423"/>
+      <c r="D13" s="423"/>
+      <c r="E13" s="424"/>
       <c r="F13" t="s">
         <v>6</v>
       </c>
@@ -33559,11 +34415,11 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A14" s="421"/>
-      <c r="B14" s="422"/>
-      <c r="C14" s="422"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="423"/>
+      <c r="A14" s="422"/>
+      <c r="B14" s="423"/>
+      <c r="C14" s="423"/>
+      <c r="D14" s="423"/>
+      <c r="E14" s="424"/>
       <c r="F14" t="s">
         <v>626</v>
       </c>
@@ -33586,11 +34442,11 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A15" s="424"/>
-      <c r="B15" s="425"/>
-      <c r="C15" s="425"/>
-      <c r="D15" s="425"/>
-      <c r="E15" s="426"/>
+      <c r="A15" s="425"/>
+      <c r="B15" s="426"/>
+      <c r="C15" s="426"/>
+      <c r="D15" s="426"/>
+      <c r="E15" s="427"/>
       <c r="F15" s="24"/>
       <c r="H15" s="195"/>
       <c r="I15" s="4" t="s">
@@ -33648,17 +34504,17 @@
       <c r="F17" s="191"/>
       <c r="G17" s="128"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="391" t="s">
+      <c r="I17" s="392" t="s">
         <v>1094</v>
       </c>
-      <c r="J17" s="391"/>
-      <c r="K17" s="391"/>
-      <c r="L17" s="391"/>
-      <c r="M17" s="391"/>
-      <c r="N17" s="391"/>
-      <c r="O17" s="391"/>
-      <c r="P17" s="391"/>
-      <c r="Q17" s="391"/>
+      <c r="J17" s="392"/>
+      <c r="K17" s="392"/>
+      <c r="L17" s="392"/>
+      <c r="M17" s="392"/>
+      <c r="N17" s="392"/>
+      <c r="O17" s="392"/>
+      <c r="P17" s="392"/>
+      <c r="Q17" s="392"/>
       <c r="S17" t="s">
         <v>330</v>
       </c>
@@ -36771,7 +37627,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="3"/>
       <c r="N109" s="5"/>
-      <c r="O109" s="429">
+      <c r="O109" s="430">
         <v>123</v>
       </c>
       <c r="P109" s="316" t="s">
@@ -36793,7 +37649,7 @@
       <c r="L110" s="5"/>
       <c r="M110" s="6"/>
       <c r="N110" s="5"/>
-      <c r="O110" s="407"/>
+      <c r="O110" s="408"/>
       <c r="P110" s="316"/>
       <c r="Q110" s="38" t="s">
         <v>336</v>
@@ -36811,7 +37667,7 @@
       <c r="L111" s="5"/>
       <c r="M111" s="6"/>
       <c r="N111" s="5"/>
-      <c r="O111" s="407"/>
+      <c r="O111" s="408"/>
       <c r="P111" s="316"/>
       <c r="Q111" s="38" t="s">
         <v>948</v>
@@ -36829,7 +37685,7 @@
       <c r="L112" s="5"/>
       <c r="M112" s="6"/>
       <c r="N112" s="5"/>
-      <c r="O112" s="407"/>
+      <c r="O112" s="408"/>
       <c r="P112" s="316"/>
       <c r="Q112" s="38"/>
     </row>
@@ -36848,7 +37704,7 @@
       <c r="L113" s="5"/>
       <c r="M113" s="6"/>
       <c r="N113" s="5"/>
-      <c r="O113" s="408"/>
+      <c r="O113" s="409"/>
       <c r="P113" s="316"/>
       <c r="Q113" s="38"/>
     </row>
@@ -36873,7 +37729,7 @@
       <c r="L114" s="5"/>
       <c r="M114" s="6"/>
       <c r="N114" s="5"/>
-      <c r="O114" s="429">
+      <c r="O114" s="430">
         <v>456</v>
       </c>
       <c r="P114" s="316" t="s">
@@ -36895,7 +37751,7 @@
       <c r="L115" s="5"/>
       <c r="M115" s="6"/>
       <c r="N115" s="5"/>
-      <c r="O115" s="407"/>
+      <c r="O115" s="408"/>
       <c r="P115" s="316"/>
       <c r="Q115" s="38" t="s">
         <v>1484</v>
@@ -36916,7 +37772,7 @@
       <c r="L116" s="5"/>
       <c r="M116" s="6"/>
       <c r="N116" s="5"/>
-      <c r="O116" s="407"/>
+      <c r="O116" s="408"/>
       <c r="P116" s="316"/>
       <c r="Q116" s="38"/>
     </row>
@@ -36935,7 +37791,7 @@
       <c r="L117" s="5"/>
       <c r="M117" s="6"/>
       <c r="N117" s="5"/>
-      <c r="O117" s="408"/>
+      <c r="O117" s="409"/>
       <c r="P117" s="316"/>
       <c r="Q117" s="38"/>
     </row>
@@ -36951,7 +37807,7 @@
       <c r="L118" s="5"/>
       <c r="M118" s="6"/>
       <c r="N118" s="5"/>
-      <c r="O118" s="429">
+      <c r="O118" s="430">
         <v>777</v>
       </c>
       <c r="P118" s="316"/>
@@ -36974,7 +37830,7 @@
       <c r="L119" s="5"/>
       <c r="M119" s="6"/>
       <c r="N119" s="5"/>
-      <c r="O119" s="407"/>
+      <c r="O119" s="408"/>
       <c r="P119" s="316"/>
       <c r="Q119" s="38"/>
     </row>
@@ -36993,7 +37849,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="6"/>
       <c r="N120" s="5"/>
-      <c r="O120" s="407"/>
+      <c r="O120" s="408"/>
       <c r="P120" s="316"/>
       <c r="Q120" s="38"/>
     </row>
@@ -37012,7 +37868,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="6"/>
       <c r="N121" s="5"/>
-      <c r="O121" s="408"/>
+      <c r="O121" s="409"/>
       <c r="P121" s="316"/>
       <c r="Q121" s="38"/>
     </row>
@@ -37174,10 +38030,10 @@
       <c r="L133" s="2"/>
       <c r="M133" s="3"/>
       <c r="N133" s="5"/>
-      <c r="O133" s="433">
+      <c r="O133" s="434">
         <v>123</v>
       </c>
-      <c r="P133" s="430" t="s">
+      <c r="P133" s="431" t="s">
         <v>717</v>
       </c>
       <c r="Q133" s="366" t="s">
@@ -37196,8 +38052,8 @@
       <c r="L134" s="5"/>
       <c r="M134" s="6"/>
       <c r="N134" s="5"/>
-      <c r="O134" s="434"/>
-      <c r="P134" s="431"/>
+      <c r="O134" s="435"/>
+      <c r="P134" s="432"/>
       <c r="Q134" s="366" t="s">
         <v>336</v>
       </c>
@@ -37214,8 +38070,8 @@
       <c r="L135" s="5"/>
       <c r="M135" s="6"/>
       <c r="N135" s="5"/>
-      <c r="O135" s="434"/>
-      <c r="P135" s="431"/>
+      <c r="O135" s="435"/>
+      <c r="P135" s="432"/>
       <c r="Q135" s="366"/>
     </row>
     <row r="136" spans="1:17" ht="15.75" thickBot="1">
@@ -37234,8 +38090,8 @@
       <c r="L136" s="5"/>
       <c r="M136" s="6"/>
       <c r="N136" s="5"/>
-      <c r="O136" s="434"/>
-      <c r="P136" s="431"/>
+      <c r="O136" s="435"/>
+      <c r="P136" s="432"/>
       <c r="Q136" s="366"/>
     </row>
     <row r="137" spans="1:17" ht="15.75" thickBot="1">
@@ -37257,8 +38113,8 @@
       <c r="L137" s="28"/>
       <c r="M137" s="39"/>
       <c r="N137" s="28"/>
-      <c r="O137" s="435"/>
-      <c r="P137" s="432"/>
+      <c r="O137" s="436"/>
+      <c r="P137" s="433"/>
       <c r="Q137" s="366"/>
     </row>
     <row r="138" spans="1:17">
@@ -37278,7 +38134,7 @@
       <c r="L138" s="5"/>
       <c r="M138" s="6"/>
       <c r="N138" s="5"/>
-      <c r="O138" s="429"/>
+      <c r="O138" s="430"/>
       <c r="P138" s="316"/>
       <c r="Q138" s="38"/>
     </row>
@@ -37294,7 +38150,7 @@
       <c r="L139" s="5"/>
       <c r="M139" s="6"/>
       <c r="N139" s="5"/>
-      <c r="O139" s="407"/>
+      <c r="O139" s="408"/>
       <c r="P139" s="316"/>
       <c r="Q139" s="38"/>
     </row>
@@ -37312,7 +38168,7 @@
       <c r="L140" s="49"/>
       <c r="M140" s="61"/>
       <c r="N140" s="5"/>
-      <c r="O140" s="407"/>
+      <c r="O140" s="408"/>
       <c r="P140" s="316"/>
       <c r="Q140" s="38"/>
     </row>
@@ -37331,7 +38187,7 @@
       <c r="L141" s="5"/>
       <c r="M141" s="6"/>
       <c r="N141" s="5"/>
-      <c r="O141" s="408"/>
+      <c r="O141" s="409"/>
       <c r="P141" s="316"/>
       <c r="Q141" s="38"/>
     </row>
@@ -37349,7 +38205,7 @@
       <c r="L142" s="5"/>
       <c r="M142" s="6"/>
       <c r="N142" s="5"/>
-      <c r="O142" s="429"/>
+      <c r="O142" s="430"/>
       <c r="P142" s="316"/>
       <c r="Q142" s="38"/>
     </row>
@@ -37369,7 +38225,7 @@
       </c>
       <c r="M143" s="365"/>
       <c r="N143" s="196"/>
-      <c r="O143" s="407"/>
+      <c r="O143" s="408"/>
       <c r="P143" s="316"/>
       <c r="Q143" s="38"/>
     </row>
@@ -37385,7 +38241,7 @@
       <c r="L144" s="5"/>
       <c r="M144" s="6"/>
       <c r="N144" s="5"/>
-      <c r="O144" s="407"/>
+      <c r="O144" s="408"/>
       <c r="P144" s="316"/>
       <c r="Q144" s="38"/>
     </row>
@@ -37405,7 +38261,7 @@
       <c r="L145" s="5"/>
       <c r="M145" s="6"/>
       <c r="N145" s="5"/>
-      <c r="O145" s="408"/>
+      <c r="O145" s="409"/>
       <c r="P145" s="316"/>
       <c r="Q145" s="38"/>
     </row>
